--- a/InputData/elec/CCaMC/Capacity Construction and Maint Costs.xlsx
+++ b/InputData/elec/CCaMC/Capacity Construction and Maint Costs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.3.3-india-wipC\InputData\elec\CCaMC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\InputData\elec\CCaMC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="14355" windowHeight="12840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
@@ -22,16 +22,25 @@
     <sheet name="Coal Cost Multipliers" sheetId="12" r:id="rId8"/>
     <sheet name="CEA NEP" sheetId="22" r:id="rId9"/>
     <sheet name="IESS Annual Cap Costs" sheetId="23" r:id="rId10"/>
-    <sheet name="CCaMC-BCCpUC" sheetId="6" r:id="rId11"/>
-    <sheet name="CCaMC-AFOaMCpUC" sheetId="7" r:id="rId12"/>
-    <sheet name="CCaMC-VOaMCpUC" sheetId="8" r:id="rId13"/>
+    <sheet name="Waste to Energy" sheetId="24" r:id="rId11"/>
+    <sheet name="CCaMC-BCCpUC" sheetId="6" r:id="rId12"/>
+    <sheet name="CCaMC-AFOaMCpUC" sheetId="7" r:id="rId13"/>
+    <sheet name="CCaMC-VOaMCpUC" sheetId="8" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="208">
   <si>
     <t>CCaMC BAU Construction Cost per Unit Capacity</t>
   </si>
@@ -45,9 +54,6 @@
     <t>Sources:</t>
   </si>
   <si>
-    <t>http://cercind.gov.in/2014/regulation/reg21.pdf</t>
-  </si>
-  <si>
     <t>Sargent and Lundy</t>
   </si>
   <si>
@@ -79,15 +85,6 @@
   </si>
   <si>
     <t>curves to determine cost declines.  Therefore, we only specify the start year costs in this document (meaning the year before the first simulated year),</t>
-  </si>
-  <si>
-    <t>and the model handles calculations for subsequent years.  (We do not use EIA for the start year solar and wind</t>
-  </si>
-  <si>
-    <t>costs, as EIA's numbers are higher than what was actually observed, so we use sources from Lawrence</t>
-  </si>
-  <si>
-    <t>Berkeley National Lab and Greentech Media.)</t>
   </si>
   <si>
     <t>hard coal</t>
@@ -555,17 +552,6 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>1.     For the period 2017-2022</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
       <t>Sl.No.</t>
     </r>
   </si>
@@ -687,9 +673,6 @@
     <t>Ministry of Power</t>
   </si>
   <si>
-    <t>National Electricity Plan</t>
-  </si>
-  <si>
     <t>Annexure 11.1, Tables 1 and 2</t>
   </si>
   <si>
@@ -723,9 +706,6 @@
     <t>All O&amp;M Costs and Nat Gas Peaker/Petroleum Capital Costs</t>
   </si>
   <si>
-    <t>Levelized Cost of Energy Version 11</t>
-  </si>
-  <si>
     <t>https://www.lazard.com/media/450337/lazard-levelized-cost-of-energy-version-110.pdf</t>
   </si>
   <si>
@@ -742,6 +722,108 @@
   </si>
   <si>
     <t>by a scaling factor for average bituminous/PRB plants in the US to lignite plants using a study from Sargent and Lundy.</t>
+  </si>
+  <si>
+    <t>http://www.cea.nic.in/reports/committee/nep/nep_jan_2018.pdf</t>
+  </si>
+  <si>
+    <t>National Electricity Plan - Vol I</t>
+  </si>
+  <si>
+    <t>Levelized Cost of Energy Version 13</t>
+  </si>
+  <si>
+    <t>https://www.lazard.com/media/451086/lazards-levelized-cost-of-energy-version-130-vf.pdf</t>
+  </si>
+  <si>
+    <t>assumed same as nat gas peaker</t>
+  </si>
+  <si>
+    <t>2017 value from Lazard LCOE analysis v11 (not available in v13)</t>
+  </si>
+  <si>
+    <t>same as coal</t>
+  </si>
+  <si>
+    <t>Biomass value is from 2017 (version 11) (not available in 2019)</t>
+  </si>
+  <si>
+    <t>1.     For the period 2017-2027</t>
+  </si>
+  <si>
+    <t>and the model handles calculations for subsequent years.  (We do not use CEA for the start year solar and wind</t>
+  </si>
+  <si>
+    <t>costs, as they are higher than what was actually observed, so we use IESS values)</t>
+  </si>
+  <si>
+    <t>Crude Oil ($/MW)</t>
+  </si>
+  <si>
+    <t>Heavy or Residual Fuel Oil ($/MW)</t>
+  </si>
+  <si>
+    <t>Municipal Solid Waste ($/MW)</t>
+  </si>
+  <si>
+    <t>Capital cost of producing 1GWof electricity from segregated waste</t>
+  </si>
+  <si>
+    <t>Point estimate</t>
+  </si>
+  <si>
+    <t>INR Cr/MW</t>
+  </si>
+  <si>
+    <t>Operating cost of producing 1GWof electricity from segregated waste</t>
+  </si>
+  <si>
+    <t>2012 USD/MW</t>
+  </si>
+  <si>
+    <t>2012 INR/MW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap cost </t>
+  </si>
+  <si>
+    <t>Interpolation</t>
+  </si>
+  <si>
+    <t>Source: IESS v2, Tab VI, Cost Assumptions</t>
+  </si>
+  <si>
+    <t>crude oil</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>municipal solid waste</t>
+  </si>
+  <si>
+    <t>Base and future costs for Waste to Energy Plants for MSW</t>
+  </si>
+  <si>
+    <t>Tab VI</t>
+  </si>
+  <si>
+    <t>We assume crude oil and residual fuel based plants to have same value as petroleum.</t>
+  </si>
+  <si>
+    <t>Due to lack of disaggregated costs of O&amp;M for MSW (Waste to Energy) plants, we assume the same</t>
+  </si>
+  <si>
+    <t>variable O&amp;M as biomass. To reduce the impact of any potential double counting of variable O&amp;M within total O&amp;M in</t>
+  </si>
+  <si>
+    <t>(assumed to be 2% lower than the IESS values, which is 8% of cap cost - as variable O&amp;M is accounted separately)</t>
+  </si>
+  <si>
+    <t>the IESS estimates, we take a lower O&amp;M % than what is used in IESS so there is a buffer for variable O&amp;M</t>
+  </si>
+  <si>
+    <t>which is accounted separately here.</t>
   </si>
 </sst>
 </file>
@@ -750,16 +832,16 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="9">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="\$#,##0;\$#,##0"/>
-    <numFmt numFmtId="167" formatCode="#,##0;#,##0"/>
-    <numFmt numFmtId="168" formatCode="###0;###0"/>
-    <numFmt numFmtId="169" formatCode="###0.00;###0.00"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="\$#,##0;\$#,##0"/>
+    <numFmt numFmtId="168" formatCode="#,##0;#,##0"/>
+    <numFmt numFmtId="169" formatCode="###0;###0"/>
+    <numFmt numFmtId="170" formatCode="###0.00;###0.00"/>
     <numFmt numFmtId="171" formatCode="###0.0;###0.0"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -891,6 +973,14 @@
     <font>
       <i/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1183,9 +1273,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1214,7 +1304,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1228,10 +1318,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1243,19 +1333,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1267,19 +1357,19 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1288,13 +1378,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1334,7 +1424,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="16" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="16" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1343,7 +1433,7 @@
     <xf numFmtId="171" fontId="16" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="16" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="16" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1363,6 +1453,13 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1750,9 +1847,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K74"/>
+  <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1786,20 +1885,20 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1807,28 +1906,28 @@
         <v>2018</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="46" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>4</v>
+        <v>174</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D10" s="20"/>
     </row>
@@ -1837,18 +1936,18 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1861,161 +1960,143 @@
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="47" t="s">
         <v>7</v>
-      </c>
-      <c r="D15" s="47" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="3" t="s">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="20" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="20" t="s">
+      <c r="D17" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="2">
         <v>2015</v>
       </c>
       <c r="D21" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="47" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D22" s="46" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="47" t="s">
-        <v>166</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="D23" s="83" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="20" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D25" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
+      <c r="B26" s="6" t="s">
+        <v>200</v>
+      </c>
       <c r="D26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
+      <c r="B27" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D27" s="20"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="2">
+        <v>2015</v>
+      </c>
+      <c r="D28" s="20"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="D29" s="20"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="D30" s="20"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="20"/>
+      <c r="D32" s="3"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
-        <v>15</v>
+      <c r="A33" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="11"/>
@@ -2028,7 +2109,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>16</v>
+        <v>169</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="11"/>
@@ -2041,7 +2122,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>17</v>
+        <v>170</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="11"/>
@@ -2053,9 +2134,7 @@
       <c r="K35" s="11"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
-        <v>18</v>
-      </c>
+      <c r="A36" s="10"/>
       <c r="D36" s="7"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
@@ -2066,7 +2145,9 @@
       <c r="K36" s="11"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
+      <c r="A37" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="D37" s="7"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
@@ -2078,7 +2159,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="11"/>
@@ -2091,7 +2172,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="11"/>
@@ -2104,7 +2185,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="11"/>
@@ -2127,7 +2208,9 @@
       <c r="K41" s="11"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
+      <c r="A42" s="10" t="s">
+        <v>171</v>
+      </c>
       <c r="D42" s="7"/>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
@@ -2138,8 +2221,9 @@
       <c r="K42" s="11"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
-      <c r="B43" s="9"/>
+      <c r="A43" s="10" t="s">
+        <v>172</v>
+      </c>
       <c r="D43" s="7"/>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
@@ -2150,8 +2234,9 @@
       <c r="K43" s="11"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
-      <c r="B44" s="9"/>
+      <c r="A44" s="10" t="s">
+        <v>173</v>
+      </c>
       <c r="D44" s="7"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
@@ -2163,7 +2248,6 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
-      <c r="B45" s="9"/>
       <c r="D45" s="7"/>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
@@ -2174,8 +2258,9 @@
       <c r="K45" s="11"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="20"/>
-      <c r="B46" s="9"/>
+      <c r="A46" s="10" t="s">
+        <v>202</v>
+      </c>
       <c r="D46" s="7"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
@@ -2186,7 +2271,9 @@
       <c r="K46" s="11"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="20"/>
+      <c r="A47" s="10" t="s">
+        <v>203</v>
+      </c>
       <c r="B47" s="9"/>
       <c r="D47" s="7"/>
       <c r="E47" s="11"/>
@@ -2198,7 +2285,9 @@
       <c r="K47" s="11"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="20"/>
+      <c r="A48" s="10" t="s">
+        <v>204</v>
+      </c>
       <c r="B48" s="9"/>
       <c r="D48" s="7"/>
       <c r="E48" s="11"/>
@@ -2210,7 +2299,9 @@
       <c r="K48" s="11"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="18"/>
+      <c r="A49" s="10" t="s">
+        <v>206</v>
+      </c>
       <c r="B49" s="9"/>
       <c r="D49" s="7"/>
       <c r="E49" s="11"/>
@@ -2221,8 +2312,22 @@
       <c r="J49" s="11"/>
       <c r="K49" s="11"/>
     </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B50" s="9"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+    </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="21"/>
+      <c r="A51" s="20"/>
       <c r="B51" s="9"/>
       <c r="D51" s="7"/>
       <c r="E51" s="11"/>
@@ -2234,7 +2339,7 @@
       <c r="K51" s="11"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="10"/>
+      <c r="A52" s="20"/>
       <c r="B52" s="9"/>
       <c r="D52" s="7"/>
       <c r="E52" s="11"/>
@@ -2246,7 +2351,7 @@
       <c r="K52" s="11"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="10"/>
+      <c r="A53" s="18"/>
       <c r="B53" s="9"/>
       <c r="D53" s="7"/>
       <c r="E53" s="11"/>
@@ -2257,20 +2362,8 @@
       <c r="J53" s="11"/>
       <c r="K53" s="11"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="10"/>
-      <c r="B54" s="9"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="11"/>
-      <c r="K54" s="11"/>
-    </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="20"/>
+      <c r="A55" s="21"/>
       <c r="B55" s="9"/>
       <c r="D55" s="7"/>
       <c r="E55" s="11"/>
@@ -2318,7 +2411,7 @@
       <c r="K58" s="11"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="10"/>
+      <c r="A59" s="20"/>
       <c r="B59" s="9"/>
       <c r="D59" s="7"/>
       <c r="E59" s="11"/>
@@ -2498,7 +2591,7 @@
       <c r="K73" s="11"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="7"/>
+      <c r="A74" s="10"/>
       <c r="B74" s="9"/>
       <c r="D74" s="7"/>
       <c r="E74" s="11"/>
@@ -2509,12 +2602,60 @@
       <c r="J74" s="11"/>
       <c r="K74" s="11"/>
     </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="10"/>
+      <c r="B75" s="9"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="11"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="10"/>
+      <c r="B76" s="9"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="10"/>
+      <c r="B77" s="9"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="11"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="7"/>
+      <c r="B78" s="9"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B16" r:id="rId1"/>
-    <hyperlink ref="B9" r:id="rId2"/>
-    <hyperlink ref="D16" r:id="rId3"/>
-    <hyperlink ref="B22" r:id="rId4" display="http://www.npti.in/Download/Renewable/POWERGEN%20PRSTN_Renewable%20April2012/Solar%20Resource%20CUF%20Assessment.pdf"/>
+    <hyperlink ref="D16" r:id="rId2"/>
+    <hyperlink ref="B22" r:id="rId3" display="http://www.npti.in/Download/Renewable/POWERGEN%20PRSTN_Renewable%20April2012/Solar%20Resource%20CUF%20Assessment.pdf"/>
+    <hyperlink ref="B29" r:id="rId4" display="http://www.npti.in/Download/Renewable/POWERGEN%20PRSTN_Renewable%20April2012/Solar%20Resource%20CUF%20Assessment.pdf"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
@@ -2525,7 +2666,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2547,46 +2690,46 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>91</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -2615,7 +2758,7 @@
       </c>
       <c r="G2" s="19">
         <f>'Combined Capital Costs'!B7</f>
-        <v>1086361.1466131096</v>
+        <v>1086361.1466131094</v>
       </c>
       <c r="H2" s="4">
         <f>TREND(H3:H4,$A3:$A4,$A2)</f>
@@ -2631,11 +2774,11 @@
       </c>
       <c r="K2" s="4">
         <f>L2</f>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L2" s="4">
         <f>Lazard!B28*10^3</f>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="M2" s="4">
         <f>B2*'Coal Cost Multipliers'!$B$33</f>
@@ -2664,7 +2807,7 @@
       </c>
       <c r="E3" s="4">
         <f>INDEX('Combined Capital Costs'!$B$3:$H$15,MATCH("hydro",'Combined Capital Costs'!$A$3:$A$15,0),MATCH($A3,'Combined Capital Costs'!$B$2:$H$2,0))</f>
-        <v>2202214.2744804751</v>
+        <v>2202214.2744804788</v>
       </c>
       <c r="F3" s="4">
         <v>0</v>
@@ -2686,11 +2829,11 @@
       </c>
       <c r="K3" s="4">
         <f>K2</f>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L3" s="4">
         <f>L2</f>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="M3" s="4">
         <f>B3*'Coal Cost Multipliers'!$B$33</f>
@@ -2719,7 +2862,7 @@
       </c>
       <c r="E4" s="4">
         <f t="shared" si="0"/>
-        <v>2178444.747257961</v>
+        <v>2178444.7472579628</v>
       </c>
       <c r="F4" s="4">
         <v>0</v>
@@ -2741,11 +2884,11 @@
       </c>
       <c r="K4" s="4">
         <f t="shared" ref="K4:L36" si="1">K3</f>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L4" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="M4" s="4">
         <f>B4*'Coal Cost Multipliers'!$B$33</f>
@@ -2796,11 +2939,11 @@
       </c>
       <c r="K5" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="M5" s="4">
         <f>B5*'Coal Cost Multipliers'!$B$33</f>
@@ -2829,7 +2972,7 @@
       </c>
       <c r="E6" s="4">
         <f t="shared" si="0"/>
-        <v>2130905.6928129327</v>
+        <v>2130905.6928129308</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
@@ -2851,11 +2994,11 @@
       </c>
       <c r="K6" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L6" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="M6" s="4">
         <f>B6*'Coal Cost Multipliers'!$B$33</f>
@@ -2884,7 +3027,7 @@
       </c>
       <c r="E7" s="4">
         <f t="shared" si="0"/>
-        <v>2107136.1655904185</v>
+        <v>2107136.1655904148</v>
       </c>
       <c r="F7" s="4">
         <v>0</v>
@@ -2906,11 +3049,11 @@
       </c>
       <c r="K7" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L7" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="M7" s="4">
         <f>B7*'Coal Cost Multipliers'!$B$33</f>
@@ -2939,7 +3082,7 @@
       </c>
       <c r="E8" s="4">
         <f>INDEX('Combined Capital Costs'!$B$3:$H$15,MATCH("hydro",'Combined Capital Costs'!$A$3:$A$15,0),MATCH($A8,'Combined Capital Costs'!$B$2:$H$2,0))</f>
-        <v>2083366.6383679044</v>
+        <v>2083366.6383678985</v>
       </c>
       <c r="F8" s="4">
         <v>0</v>
@@ -2961,11 +3104,11 @@
       </c>
       <c r="K8" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L8" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="M8" s="4">
         <f>B8*'Coal Cost Multipliers'!$B$33</f>
@@ -2994,7 +3137,7 @@
       </c>
       <c r="E9" s="4">
         <f t="shared" si="7"/>
-        <v>1995977.9671653959</v>
+        <v>1995977.967165391</v>
       </c>
       <c r="F9" s="4">
         <v>0</v>
@@ -3016,11 +3159,11 @@
       </c>
       <c r="K9" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L9" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="M9" s="4">
         <f>B9*'Coal Cost Multipliers'!$B$33</f>
@@ -3028,7 +3171,7 @@
       </c>
       <c r="N9" s="4">
         <f>(N$13-N$8)/5+N8</f>
-        <v>2671170.3487310573</v>
+        <v>2671170.3487310568</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -3049,7 +3192,7 @@
       </c>
       <c r="E10" s="4">
         <f t="shared" si="7"/>
-        <v>1908589.2959628874</v>
+        <v>1908589.2959628834</v>
       </c>
       <c r="F10" s="4">
         <v>0</v>
@@ -3071,11 +3214,11 @@
       </c>
       <c r="K10" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L10" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="M10" s="4">
         <f>B10*'Coal Cost Multipliers'!$B$33</f>
@@ -3083,7 +3226,7 @@
       </c>
       <c r="N10" s="4">
         <f t="shared" ref="N10" si="10">(N$13-N$8)/5+N9</f>
-        <v>2649260.5440934822</v>
+        <v>2649260.5440934813</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -3104,7 +3247,7 @@
       </c>
       <c r="E11" s="4">
         <f t="shared" si="7"/>
-        <v>1821200.6247603789</v>
+        <v>1821200.6247603758</v>
       </c>
       <c r="F11" s="4">
         <v>0</v>
@@ -3126,11 +3269,11 @@
       </c>
       <c r="K11" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L11" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="M11" s="4">
         <f>B11*'Coal Cost Multipliers'!$B$33</f>
@@ -3138,7 +3281,7 @@
       </c>
       <c r="N11" s="4">
         <f t="shared" ref="N11" si="11">(N$13-N$8)/5+N10</f>
-        <v>2627350.7394559071</v>
+        <v>2627350.7394559057</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -3159,7 +3302,7 @@
       </c>
       <c r="E12" s="4">
         <f t="shared" si="7"/>
-        <v>1733811.9535578704</v>
+        <v>1733811.9535578683</v>
       </c>
       <c r="F12" s="4">
         <v>0</v>
@@ -3181,11 +3324,11 @@
       </c>
       <c r="K12" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L12" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="M12" s="4">
         <f>B12*'Coal Cost Multipliers'!$B$33</f>
@@ -3193,7 +3336,7 @@
       </c>
       <c r="N12" s="4">
         <f t="shared" ref="N12" si="12">(N$13-N$8)/5+N11</f>
-        <v>2605440.9348183321</v>
+        <v>2605440.9348183302</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -3214,7 +3357,7 @@
       </c>
       <c r="E13" s="4">
         <f>INDEX('Combined Capital Costs'!$B$3:$H$15,MATCH("hydro",'Combined Capital Costs'!$A$3:$A$15,0),MATCH($A13,'Combined Capital Costs'!$B$2:$H$2,0))</f>
-        <v>1646423.2823553619</v>
+        <v>1646423.2823553607</v>
       </c>
       <c r="F13" s="4">
         <v>0</v>
@@ -3236,11 +3379,11 @@
       </c>
       <c r="K13" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L13" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="M13" s="4">
         <f>B13*'Coal Cost Multipliers'!$B$33</f>
@@ -3248,7 +3391,7 @@
       </c>
       <c r="N13" s="4">
         <f>INDEX('Combined Capital Costs'!$B$3:$H$15,MATCH("offshore wind",'Combined Capital Costs'!$A$3:$A$15,0),MATCH($A13,'Combined Capital Costs'!$B$2:$H$2,0))</f>
-        <v>2583531.1301807561</v>
+        <v>2583531.1301807556</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -3269,7 +3412,7 @@
       </c>
       <c r="E14" s="4">
         <f t="shared" si="13"/>
-        <v>1663730.8687701237</v>
+        <v>1663730.8687701232</v>
       </c>
       <c r="F14" s="4">
         <v>0</v>
@@ -3291,11 +3434,11 @@
       </c>
       <c r="K14" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L14" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="M14" s="4">
         <f>B14*'Coal Cost Multipliers'!$B$33</f>
@@ -3303,7 +3446,7 @@
       </c>
       <c r="N14" s="4">
         <f>(N$18-N$13)/5+N13</f>
-        <v>2574402.0449150996</v>
+        <v>2574402.0449150992</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -3324,7 +3467,7 @@
       </c>
       <c r="E15" s="4">
         <f t="shared" si="13"/>
-        <v>1681038.4551848855</v>
+        <v>1681038.4551848858</v>
       </c>
       <c r="F15" s="4">
         <v>0</v>
@@ -3346,11 +3489,11 @@
       </c>
       <c r="K15" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L15" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="M15" s="4">
         <f>B15*'Coal Cost Multipliers'!$B$33</f>
@@ -3358,7 +3501,7 @@
       </c>
       <c r="N15" s="4">
         <f t="shared" ref="N15" si="16">(N$18-N$13)/5+N14</f>
-        <v>2565272.9596494432</v>
+        <v>2565272.9596494427</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -3379,7 +3522,7 @@
       </c>
       <c r="E16" s="4">
         <f t="shared" si="13"/>
-        <v>1698346.0415996474</v>
+        <v>1698346.0415996483</v>
       </c>
       <c r="F16" s="4">
         <v>0</v>
@@ -3401,11 +3544,11 @@
       </c>
       <c r="K16" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L16" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="M16" s="4">
         <f>B16*'Coal Cost Multipliers'!$B$33</f>
@@ -3413,7 +3556,7 @@
       </c>
       <c r="N16" s="4">
         <f t="shared" ref="N16" si="17">(N$18-N$13)/5+N15</f>
-        <v>2556143.8743837867</v>
+        <v>2556143.8743837862</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -3434,7 +3577,7 @@
       </c>
       <c r="E17" s="4">
         <f t="shared" si="13"/>
-        <v>1715653.6280144092</v>
+        <v>1715653.6280144108</v>
       </c>
       <c r="F17" s="4">
         <v>0</v>
@@ -3456,11 +3599,11 @@
       </c>
       <c r="K17" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L17" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="M17" s="4">
         <f>B17*'Coal Cost Multipliers'!$B$33</f>
@@ -3468,7 +3611,7 @@
       </c>
       <c r="N17" s="4">
         <f t="shared" ref="N17" si="18">(N$18-N$13)/5+N16</f>
-        <v>2547014.7891181302</v>
+        <v>2547014.7891181298</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -3489,7 +3632,7 @@
       </c>
       <c r="E18" s="4">
         <f>INDEX('Combined Capital Costs'!$B$3:$H$15,MATCH("hydro",'Combined Capital Costs'!$A$3:$A$15,0),MATCH($A18,'Combined Capital Costs'!$B$2:$H$2,0))</f>
-        <v>1732961.2144291711</v>
+        <v>1732961.2144291729</v>
       </c>
       <c r="F18" s="4">
         <v>0</v>
@@ -3511,11 +3654,11 @@
       </c>
       <c r="K18" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L18" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="M18" s="4">
         <f>B18*'Coal Cost Multipliers'!$B$33</f>
@@ -3523,7 +3666,7 @@
       </c>
       <c r="N18" s="4">
         <f>INDEX('Combined Capital Costs'!$B$3:$H$15,MATCH("offshore wind",'Combined Capital Costs'!$A$3:$A$15,0),MATCH($A18,'Combined Capital Costs'!$B$2:$H$2,0))</f>
-        <v>2537885.7038524742</v>
+        <v>2537885.7038524733</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -3544,7 +3687,7 @@
       </c>
       <c r="E19" s="4">
         <f t="shared" si="19"/>
-        <v>1741229.55736978</v>
+        <v>1741229.5573697826</v>
       </c>
       <c r="F19" s="4">
         <v>0</v>
@@ -3566,11 +3709,11 @@
       </c>
       <c r="K19" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L19" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="M19" s="4">
         <f>B19*'Coal Cost Multipliers'!$B$33</f>
@@ -3578,7 +3721,7 @@
       </c>
       <c r="N19" s="4">
         <f>(N$23-N$18)/5+N18</f>
-        <v>2532408.2526930803</v>
+        <v>2532408.2526930794</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -3599,7 +3742,7 @@
       </c>
       <c r="E20" s="4">
         <f t="shared" si="19"/>
-        <v>1749497.900310389</v>
+        <v>1749497.9003103923</v>
       </c>
       <c r="F20" s="4">
         <v>0</v>
@@ -3621,11 +3764,11 @@
       </c>
       <c r="K20" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L20" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="M20" s="4">
         <f>B20*'Coal Cost Multipliers'!$B$33</f>
@@ -3633,7 +3776,7 @@
       </c>
       <c r="N20" s="4">
         <f t="shared" ref="N20" si="22">(N$23-N$18)/5+N19</f>
-        <v>2526930.8015336865</v>
+        <v>2526930.8015336855</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -3654,7 +3797,7 @@
       </c>
       <c r="E21" s="4">
         <f t="shared" si="19"/>
-        <v>1757766.243250998</v>
+        <v>1757766.2432510019</v>
       </c>
       <c r="F21" s="4">
         <v>0</v>
@@ -3676,11 +3819,11 @@
       </c>
       <c r="K21" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L21" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="M21" s="4">
         <f>B21*'Coal Cost Multipliers'!$B$33</f>
@@ -3688,7 +3831,7 @@
       </c>
       <c r="N21" s="4">
         <f t="shared" ref="N21" si="23">(N$23-N$18)/5+N20</f>
-        <v>2521453.3503742926</v>
+        <v>2521453.3503742917</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -3709,7 +3852,7 @@
       </c>
       <c r="E22" s="4">
         <f t="shared" si="19"/>
-        <v>1766034.5861916069</v>
+        <v>1766034.5861916116</v>
       </c>
       <c r="F22" s="4">
         <v>0</v>
@@ -3731,11 +3874,11 @@
       </c>
       <c r="K22" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L22" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="M22" s="4">
         <f>B22*'Coal Cost Multipliers'!$B$33</f>
@@ -3743,7 +3886,7 @@
       </c>
       <c r="N22" s="4">
         <f t="shared" ref="N22" si="24">(N$23-N$18)/5+N21</f>
-        <v>2515975.8992148987</v>
+        <v>2515975.8992148978</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -3764,7 +3907,7 @@
       </c>
       <c r="E23" s="4">
         <f>INDEX('Combined Capital Costs'!$B$3:$H$15,MATCH("hydro",'Combined Capital Costs'!$A$3:$A$15,0),MATCH($A23,'Combined Capital Costs'!$B$2:$H$2,0))</f>
-        <v>1774302.9291322154</v>
+        <v>1774302.9291322213</v>
       </c>
       <c r="F23" s="4">
         <v>0</v>
@@ -3786,11 +3929,11 @@
       </c>
       <c r="K23" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L23" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="M23" s="4">
         <f>B23*'Coal Cost Multipliers'!$B$33</f>
@@ -3819,7 +3962,7 @@
       </c>
       <c r="E24" s="4">
         <f t="shared" si="25"/>
-        <v>1727412.6275404349</v>
+        <v>1727412.6275404389</v>
       </c>
       <c r="F24" s="4">
         <v>0</v>
@@ -3841,11 +3984,11 @@
       </c>
       <c r="K24" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L24" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="M24" s="4">
         <f>B24*'Coal Cost Multipliers'!$B$33</f>
@@ -3874,7 +4017,7 @@
       </c>
       <c r="E25" s="4">
         <f t="shared" si="25"/>
-        <v>1680522.3259486544</v>
+        <v>1680522.3259486565</v>
       </c>
       <c r="F25" s="4">
         <v>0</v>
@@ -3896,11 +4039,11 @@
       </c>
       <c r="K25" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L25" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="M25" s="4">
         <f>B25*'Coal Cost Multipliers'!$B$33</f>
@@ -3929,7 +4072,7 @@
       </c>
       <c r="E26" s="4">
         <f t="shared" si="25"/>
-        <v>1633632.0243568739</v>
+        <v>1633632.0243568742</v>
       </c>
       <c r="F26" s="4">
         <v>0</v>
@@ -3951,11 +4094,11 @@
       </c>
       <c r="K26" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L26" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="M26" s="4">
         <f>B26*'Coal Cost Multipliers'!$B$33</f>
@@ -3984,7 +4127,7 @@
       </c>
       <c r="E27" s="4">
         <f t="shared" si="25"/>
-        <v>1586741.7227650934</v>
+        <v>1586741.7227650918</v>
       </c>
       <c r="F27" s="4">
         <v>0</v>
@@ -4006,11 +4149,11 @@
       </c>
       <c r="K27" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L27" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="M27" s="4">
         <f>B27*'Coal Cost Multipliers'!$B$33</f>
@@ -4039,7 +4182,7 @@
       </c>
       <c r="E28" s="4">
         <f>INDEX('Combined Capital Costs'!$B$3:$H$15,MATCH("hydro",'Combined Capital Costs'!$A$3:$A$15,0),MATCH($A28,'Combined Capital Costs'!$B$2:$H$2,0))</f>
-        <v>1539851.4211733127</v>
+        <v>1539851.4211733097</v>
       </c>
       <c r="F28" s="4">
         <v>0</v>
@@ -4061,11 +4204,11 @@
       </c>
       <c r="K28" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L28" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="M28" s="4">
         <f>B28*'Coal Cost Multipliers'!$B$33</f>
@@ -4094,7 +4237,7 @@
       </c>
       <c r="E29" s="4">
         <f t="shared" si="31"/>
-        <v>1539227.0075490815</v>
+        <v>1539227.0075490791</v>
       </c>
       <c r="F29" s="4">
         <v>0</v>
@@ -4116,11 +4259,11 @@
       </c>
       <c r="K29" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L29" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="M29" s="4">
         <f>B29*'Coal Cost Multipliers'!$B$33</f>
@@ -4149,7 +4292,7 @@
       </c>
       <c r="E30" s="4">
         <f t="shared" si="31"/>
-        <v>1538602.5939248502</v>
+        <v>1538602.5939248486</v>
       </c>
       <c r="F30" s="4">
         <v>0</v>
@@ -4171,11 +4314,11 @@
       </c>
       <c r="K30" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L30" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="M30" s="4">
         <f>B30*'Coal Cost Multipliers'!$B$33</f>
@@ -4204,7 +4347,7 @@
       </c>
       <c r="E31" s="4">
         <f t="shared" si="31"/>
-        <v>1537978.180300619</v>
+        <v>1537978.1803006181</v>
       </c>
       <c r="F31" s="4">
         <v>0</v>
@@ -4226,11 +4369,11 @@
       </c>
       <c r="K31" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L31" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="M31" s="4">
         <f>B31*'Coal Cost Multipliers'!$B$33</f>
@@ -4259,7 +4402,7 @@
       </c>
       <c r="E32" s="4">
         <f t="shared" si="31"/>
-        <v>1537353.7666763877</v>
+        <v>1537353.7666763875</v>
       </c>
       <c r="F32" s="4">
         <v>0</v>
@@ -4281,11 +4424,11 @@
       </c>
       <c r="K32" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L32" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="M32" s="4">
         <f>B32*'Coal Cost Multipliers'!$B$33</f>
@@ -4314,7 +4457,7 @@
       </c>
       <c r="E33" s="4">
         <f>INDEX('Combined Capital Costs'!$B$3:$H$15,MATCH("hydro",'Combined Capital Costs'!$A$3:$A$15,0),MATCH($A33,'Combined Capital Costs'!$B$2:$H$2,0))</f>
-        <v>1536729.353052157</v>
+        <v>1536729.3530521572</v>
       </c>
       <c r="F33" s="4">
         <v>0</v>
@@ -4336,11 +4479,11 @@
       </c>
       <c r="K33" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L33" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="M33" s="4">
         <f>B33*'Coal Cost Multipliers'!$B$33</f>
@@ -4369,7 +4512,7 @@
       </c>
       <c r="E34" s="4">
         <f t="shared" si="32"/>
-        <v>1536104.9394279257</v>
+        <v>1536104.9394279267</v>
       </c>
       <c r="F34" s="4">
         <v>0</v>
@@ -4391,11 +4534,11 @@
       </c>
       <c r="K34" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L34" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="M34" s="4">
         <f>B34*'Coal Cost Multipliers'!$B$33</f>
@@ -4424,7 +4567,7 @@
       </c>
       <c r="E35" s="4">
         <f t="shared" si="32"/>
-        <v>1535480.5258036945</v>
+        <v>1535480.5258036961</v>
       </c>
       <c r="F35" s="4">
         <v>0</v>
@@ -4446,11 +4589,11 @@
       </c>
       <c r="K35" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L35" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="M35" s="4">
         <f>B35*'Coal Cost Multipliers'!$B$33</f>
@@ -4479,7 +4622,7 @@
       </c>
       <c r="E36" s="4">
         <f t="shared" si="32"/>
-        <v>1534856.1121794633</v>
+        <v>1534856.1121794656</v>
       </c>
       <c r="F36" s="4">
         <v>0</v>
@@ -4501,11 +4644,11 @@
       </c>
       <c r="K36" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L36" s="4">
         <f t="shared" si="1"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="M36" s="4">
         <f>B36*'Coal Cost Multipliers'!$B$33</f>
@@ -4562,12 +4705,570 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C2" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2022</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2027</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2032</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2037</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2042</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3">
+        <v>16.405000000000001</v>
+      </c>
+      <c r="D3">
+        <v>15.8355</v>
+      </c>
+      <c r="E3">
+        <v>15.29</v>
+      </c>
+      <c r="F3">
+        <v>14.768000000000001</v>
+      </c>
+      <c r="G3">
+        <v>14.266999999999999</v>
+      </c>
+      <c r="H3">
+        <v>13.788</v>
+      </c>
+      <c r="I3">
+        <v>13.327999999999999</v>
+      </c>
+      <c r="J3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <f>C3*10^7</f>
+        <v>164050000</v>
+      </c>
+      <c r="D4" s="20">
+        <f t="shared" ref="D4:I4" si="0">D3*10^7</f>
+        <v>158355000</v>
+      </c>
+      <c r="E4" s="20">
+        <f t="shared" si="0"/>
+        <v>152900000</v>
+      </c>
+      <c r="F4" s="20">
+        <f t="shared" si="0"/>
+        <v>147680000</v>
+      </c>
+      <c r="G4" s="20">
+        <f t="shared" si="0"/>
+        <v>142670000</v>
+      </c>
+      <c r="H4" s="20">
+        <f t="shared" si="0"/>
+        <v>137880000</v>
+      </c>
+      <c r="I4" s="20">
+        <f t="shared" si="0"/>
+        <v>133280000</v>
+      </c>
+      <c r="J4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <f>C4/'Conversion Factors'!$B$6</f>
+        <v>2995252.8756618584</v>
+      </c>
+      <c r="D5" s="20">
+        <f>D4/'Conversion Factors'!$B$6</f>
+        <v>2891272.5944860321</v>
+      </c>
+      <c r="E5" s="20">
+        <f>E4/'Conversion Factors'!$B$6</f>
+        <v>2791674.2742377212</v>
+      </c>
+      <c r="F5" s="20">
+        <f>F4/'Conversion Factors'!$B$6</f>
+        <v>2696366.6240642685</v>
+      </c>
+      <c r="G5" s="20">
+        <f>G4/'Conversion Factors'!$B$6</f>
+        <v>2604893.1897023916</v>
+      </c>
+      <c r="H5" s="20">
+        <f>H4/'Conversion Factors'!$B$6</f>
+        <v>2517436.5528574036</v>
+      </c>
+      <c r="I5" s="20">
+        <f>I4/'Conversion Factors'!$B$6</f>
+        <v>2433448.9684133651</v>
+      </c>
+      <c r="J5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="20">
+        <v>0.06</v>
+      </c>
+      <c r="B8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="85" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="20">
+        <v>2017</v>
+      </c>
+      <c r="B11">
+        <f>C5</f>
+        <v>2995252.8756618584</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>A11+1</f>
+        <v>2018</v>
+      </c>
+      <c r="B12">
+        <f>FORECAST(A12,$C$5:$D$5,$C$2:$D$2)</f>
+        <v>2974456.819426693</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="20">
+        <f t="shared" ref="A13:A44" si="1">A12+1</f>
+        <v>2019</v>
+      </c>
+      <c r="B13" s="20">
+        <f t="shared" ref="B13:B15" si="2">FORECAST(A13,$C$5:$D$5,$C$2:$D$2)</f>
+        <v>2953660.7631915286</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="20">
+        <f t="shared" si="1"/>
+        <v>2020</v>
+      </c>
+      <c r="B14" s="20">
+        <f t="shared" si="2"/>
+        <v>2932864.7069563642</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="20">
+        <f t="shared" si="1"/>
+        <v>2021</v>
+      </c>
+      <c r="B15" s="20">
+        <f t="shared" si="2"/>
+        <v>2912068.6507211998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="20">
+        <f t="shared" si="1"/>
+        <v>2022</v>
+      </c>
+      <c r="B16">
+        <f>D5</f>
+        <v>2891272.5944860321</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="20">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+      <c r="B17">
+        <f>FORECAST(A17,$D$5:$E$5,$D$2:$E$2)</f>
+        <v>2871352.9304363653</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="20">
+        <f t="shared" si="1"/>
+        <v>2024</v>
+      </c>
+      <c r="B18" s="20">
+        <f t="shared" ref="B18:B20" si="3">FORECAST(A18,$D$5:$E$5,$D$2:$E$2)</f>
+        <v>2851433.2663867027</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="20">
+        <f t="shared" si="1"/>
+        <v>2025</v>
+      </c>
+      <c r="B19" s="20">
+        <f t="shared" si="3"/>
+        <v>2831513.6023370475</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="20">
+        <f t="shared" si="1"/>
+        <v>2026</v>
+      </c>
+      <c r="B20" s="20">
+        <f t="shared" si="3"/>
+        <v>2811593.9382873848</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="20">
+        <f t="shared" si="1"/>
+        <v>2027</v>
+      </c>
+      <c r="B21">
+        <f>E5</f>
+        <v>2791674.2742377212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="20">
+        <f t="shared" si="1"/>
+        <v>2028</v>
+      </c>
+      <c r="B22">
+        <f>FORECAST(A22,$E$5:$F$5,$E$2:$F$2)</f>
+        <v>2772612.7442030236</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="20">
+        <f t="shared" si="1"/>
+        <v>2029</v>
+      </c>
+      <c r="B23" s="20">
+        <f t="shared" ref="B23:B25" si="4">FORECAST(A23,$E$5:$F$5,$E$2:$F$2)</f>
+        <v>2753551.21416834</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="20">
+        <f t="shared" si="1"/>
+        <v>2030</v>
+      </c>
+      <c r="B24" s="20">
+        <f t="shared" si="4"/>
+        <v>2734489.6841336489</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="20">
+        <f t="shared" si="1"/>
+        <v>2031</v>
+      </c>
+      <c r="B25" s="20">
+        <f t="shared" si="4"/>
+        <v>2715428.1540989578</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="20">
+        <f t="shared" si="1"/>
+        <v>2032</v>
+      </c>
+      <c r="B26">
+        <f>F5</f>
+        <v>2696366.6240642685</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="20">
+        <f t="shared" si="1"/>
+        <v>2033</v>
+      </c>
+      <c r="B27">
+        <f>FORECAST(A27,$F$5:$G$5,$F$2:$G$2)</f>
+        <v>2678071.9371918961</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="20">
+        <f t="shared" si="1"/>
+        <v>2034</v>
+      </c>
+      <c r="B28" s="20">
+        <f t="shared" ref="B28:B30" si="5">FORECAST(A28,$F$5:$G$5,$F$2:$G$2)</f>
+        <v>2659777.2503195181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="20">
+        <f t="shared" si="1"/>
+        <v>2035</v>
+      </c>
+      <c r="B29" s="20">
+        <f t="shared" si="5"/>
+        <v>2641482.5634471402</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="20">
+        <f t="shared" si="1"/>
+        <v>2036</v>
+      </c>
+      <c r="B30" s="20">
+        <f t="shared" si="5"/>
+        <v>2623187.8765747696</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="20">
+        <f t="shared" si="1"/>
+        <v>2037</v>
+      </c>
+      <c r="B31">
+        <f>G5</f>
+        <v>2604893.1897023916</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="20">
+        <f t="shared" si="1"/>
+        <v>2038</v>
+      </c>
+      <c r="B32">
+        <f>FORECAST(A32,$G$5:$H$5,$G$2:$H$2)</f>
+        <v>2587401.8623333946</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="20">
+        <f t="shared" si="1"/>
+        <v>2039</v>
+      </c>
+      <c r="B33" s="20">
+        <f t="shared" ref="B33:B35" si="6">FORECAST(A33,$G$5:$H$5,$G$2:$H$2)</f>
+        <v>2569910.5349643975</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="20">
+        <f t="shared" si="1"/>
+        <v>2040</v>
+      </c>
+      <c r="B34" s="20">
+        <f t="shared" si="6"/>
+        <v>2552419.2075954005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="20">
+        <f t="shared" si="1"/>
+        <v>2041</v>
+      </c>
+      <c r="B35" s="20">
+        <f t="shared" si="6"/>
+        <v>2534927.8802264035</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="20">
+        <f t="shared" si="1"/>
+        <v>2042</v>
+      </c>
+      <c r="B36">
+        <f>H5</f>
+        <v>2517436.5528574036</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="20">
+        <f t="shared" si="1"/>
+        <v>2043</v>
+      </c>
+      <c r="B37">
+        <f>FORECAST(A37,$H$5:$I$5,$H$2:$I$2)</f>
+        <v>2500639.0359685943</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="20">
+        <f t="shared" si="1"/>
+        <v>2044</v>
+      </c>
+      <c r="B38" s="20">
+        <f t="shared" ref="B38:B40" si="7">FORECAST(A38,$H$5:$I$5,$H$2:$I$2)</f>
+        <v>2483841.5190797895</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="20">
+        <f t="shared" si="1"/>
+        <v>2045</v>
+      </c>
+      <c r="B39" s="20">
+        <f t="shared" si="7"/>
+        <v>2467044.0021909773</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="20">
+        <f t="shared" si="1"/>
+        <v>2046</v>
+      </c>
+      <c r="B40" s="20">
+        <f t="shared" si="7"/>
+        <v>2450246.4853021726</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="20">
+        <f t="shared" si="1"/>
+        <v>2047</v>
+      </c>
+      <c r="B41">
+        <f>I5</f>
+        <v>2433448.9684133651</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="20">
+        <f t="shared" si="1"/>
+        <v>2048</v>
+      </c>
+      <c r="B42">
+        <f>TREND(B36:B41,A36:A41,A42)</f>
+        <v>2416651.4515245557</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="20">
+        <f t="shared" si="1"/>
+        <v>2049</v>
+      </c>
+      <c r="B43" s="20">
+        <f t="shared" ref="B43:B44" si="8">TREND(B37:B42,A37:A42,A43)</f>
+        <v>2399853.9346357509</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="20">
+        <f t="shared" si="1"/>
+        <v>2050</v>
+      </c>
+      <c r="B44" s="20">
+        <f t="shared" si="8"/>
+        <v>2383056.4177469388</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="20"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="20"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="20"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="20"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="20"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="20"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="20"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="20"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="20"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="20"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="20"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="20"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="20"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="20"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="20"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:N48"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4583,53 +5284,63 @@
     <col min="12" max="12" width="28.140625" customWidth="1"/>
     <col min="13" max="13" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="K1" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="84" t="s">
+        <v>185</v>
+      </c>
+      <c r="P1" s="84" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q1" s="84" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2017</v>
       </c>
@@ -4671,11 +5382,11 @@
       </c>
       <c r="K2" s="4">
         <f>L2</f>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L2" s="4">
         <f>Lazard!B28*10^3</f>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="M2" s="4">
         <f>B2*'Coal Cost Multipliers'!$B$33</f>
@@ -4685,8 +5396,20 @@
         <f>'IESS Annual Cap Costs'!N3</f>
         <v>2875661.8586817603</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2" s="4">
+        <f>K2</f>
+        <v>651000</v>
+      </c>
+      <c r="P2" s="4">
+        <f>K2</f>
+        <v>651000</v>
+      </c>
+      <c r="Q2" s="4">
+        <f>'Waste to Energy'!B11</f>
+        <v>2995252.8756618584</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2018</v>
       </c>
@@ -4726,11 +5449,11 @@
       </c>
       <c r="K3" s="4">
         <f t="shared" ref="K3:K35" si="0">L3</f>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L3" s="4">
         <f>L$2</f>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="M3" s="4">
         <f>B3*'Coal Cost Multipliers'!$B$33</f>
@@ -4739,8 +5462,20 @@
       <c r="N3" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3" s="4">
+        <f t="shared" ref="O3:O35" si="1">K3</f>
+        <v>651000</v>
+      </c>
+      <c r="P3" s="4">
+        <f t="shared" ref="P3:P35" si="2">K3</f>
+        <v>651000</v>
+      </c>
+      <c r="Q3" s="4">
+        <f>'Waste to Energy'!B12</f>
+        <v>2974456.819426693</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2019</v>
       </c>
@@ -4780,11 +5515,11 @@
       </c>
       <c r="K4" s="4">
         <f t="shared" si="0"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L4" s="4">
-        <f t="shared" ref="L4:L35" si="1">L$2</f>
-        <v>697500</v>
+        <f t="shared" ref="L4:L35" si="3">L$2</f>
+        <v>651000</v>
       </c>
       <c r="M4" s="4">
         <f>B4*'Coal Cost Multipliers'!$B$33</f>
@@ -4793,8 +5528,20 @@
       <c r="N4" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" s="4">
+        <f t="shared" si="1"/>
+        <v>651000</v>
+      </c>
+      <c r="P4" s="4">
+        <f t="shared" si="2"/>
+        <v>651000</v>
+      </c>
+      <c r="Q4" s="4">
+        <f>'Waste to Energy'!B13</f>
+        <v>2953660.7631915286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2020</v>
       </c>
@@ -4834,11 +5581,11 @@
       </c>
       <c r="K5" s="4">
         <f t="shared" si="0"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L5" s="4">
-        <f t="shared" si="1"/>
-        <v>697500</v>
+        <f t="shared" si="3"/>
+        <v>651000</v>
       </c>
       <c r="M5" s="4">
         <f>B5*'Coal Cost Multipliers'!$B$33</f>
@@ -4847,8 +5594,20 @@
       <c r="N5" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" s="4">
+        <f t="shared" si="1"/>
+        <v>651000</v>
+      </c>
+      <c r="P5" s="4">
+        <f t="shared" si="2"/>
+        <v>651000</v>
+      </c>
+      <c r="Q5" s="4">
+        <f>'Waste to Energy'!B14</f>
+        <v>2932864.7069563642</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2021</v>
       </c>
@@ -4888,11 +5647,11 @@
       </c>
       <c r="K6" s="4">
         <f t="shared" si="0"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L6" s="4">
-        <f t="shared" si="1"/>
-        <v>697500</v>
+        <f t="shared" si="3"/>
+        <v>651000</v>
       </c>
       <c r="M6" s="4">
         <f>B6*'Coal Cost Multipliers'!$B$33</f>
@@ -4901,8 +5660,20 @@
       <c r="N6" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6" s="4">
+        <f t="shared" si="1"/>
+        <v>651000</v>
+      </c>
+      <c r="P6" s="4">
+        <f t="shared" si="2"/>
+        <v>651000</v>
+      </c>
+      <c r="Q6" s="4">
+        <f>'Waste to Energy'!B15</f>
+        <v>2912068.6507211998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2022</v>
       </c>
@@ -4942,11 +5713,11 @@
       </c>
       <c r="K7" s="4">
         <f t="shared" si="0"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L7" s="4">
-        <f t="shared" si="1"/>
-        <v>697500</v>
+        <f t="shared" si="3"/>
+        <v>651000</v>
       </c>
       <c r="M7" s="4">
         <f>B7*'Coal Cost Multipliers'!$B$33</f>
@@ -4955,8 +5726,20 @@
       <c r="N7" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7" s="4">
+        <f t="shared" si="1"/>
+        <v>651000</v>
+      </c>
+      <c r="P7" s="4">
+        <f t="shared" si="2"/>
+        <v>651000</v>
+      </c>
+      <c r="Q7" s="4">
+        <f>'Waste to Energy'!B16</f>
+        <v>2891272.5944860321</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2023</v>
       </c>
@@ -4996,11 +5779,11 @@
       </c>
       <c r="K8" s="4">
         <f t="shared" si="0"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L8" s="4">
-        <f t="shared" si="1"/>
-        <v>697500</v>
+        <f t="shared" si="3"/>
+        <v>651000</v>
       </c>
       <c r="M8" s="4">
         <f>B8*'Coal Cost Multipliers'!$B$33</f>
@@ -5009,8 +5792,20 @@
       <c r="N8" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8" s="4">
+        <f t="shared" si="1"/>
+        <v>651000</v>
+      </c>
+      <c r="P8" s="4">
+        <f t="shared" si="2"/>
+        <v>651000</v>
+      </c>
+      <c r="Q8" s="4">
+        <f>'Waste to Energy'!B17</f>
+        <v>2871352.9304363653</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2024</v>
       </c>
@@ -5050,11 +5845,11 @@
       </c>
       <c r="K9" s="4">
         <f t="shared" si="0"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L9" s="4">
-        <f t="shared" si="1"/>
-        <v>697500</v>
+        <f t="shared" si="3"/>
+        <v>651000</v>
       </c>
       <c r="M9" s="4">
         <f>B9*'Coal Cost Multipliers'!$B$33</f>
@@ -5063,8 +5858,20 @@
       <c r="N9" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9" s="4">
+        <f t="shared" si="1"/>
+        <v>651000</v>
+      </c>
+      <c r="P9" s="4">
+        <f t="shared" si="2"/>
+        <v>651000</v>
+      </c>
+      <c r="Q9" s="4">
+        <f>'Waste to Energy'!B18</f>
+        <v>2851433.2663867027</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2025</v>
       </c>
@@ -5104,11 +5911,11 @@
       </c>
       <c r="K10" s="4">
         <f t="shared" si="0"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L10" s="4">
-        <f t="shared" si="1"/>
-        <v>697500</v>
+        <f t="shared" si="3"/>
+        <v>651000</v>
       </c>
       <c r="M10" s="4">
         <f>B10*'Coal Cost Multipliers'!$B$33</f>
@@ -5117,8 +5924,20 @@
       <c r="N10" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10" s="4">
+        <f t="shared" si="1"/>
+        <v>651000</v>
+      </c>
+      <c r="P10" s="4">
+        <f t="shared" si="2"/>
+        <v>651000</v>
+      </c>
+      <c r="Q10" s="4">
+        <f>'Waste to Energy'!B19</f>
+        <v>2831513.6023370475</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2026</v>
       </c>
@@ -5158,11 +5977,11 @@
       </c>
       <c r="K11" s="4">
         <f t="shared" si="0"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L11" s="4">
-        <f t="shared" si="1"/>
-        <v>697500</v>
+        <f t="shared" si="3"/>
+        <v>651000</v>
       </c>
       <c r="M11" s="4">
         <f>B11*'Coal Cost Multipliers'!$B$33</f>
@@ -5171,8 +5990,20 @@
       <c r="N11" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11" s="4">
+        <f t="shared" si="1"/>
+        <v>651000</v>
+      </c>
+      <c r="P11" s="4">
+        <f t="shared" si="2"/>
+        <v>651000</v>
+      </c>
+      <c r="Q11" s="4">
+        <f>'Waste to Energy'!B20</f>
+        <v>2811593.9382873848</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2027</v>
       </c>
@@ -5190,7 +6021,7 @@
       </c>
       <c r="E12" s="4">
         <f>E11*'IESS Annual Cap Costs'!E13/'IESS Annual Cap Costs'!E12</f>
-        <v>1885308.3744452121</v>
+        <v>1885308.374445213</v>
       </c>
       <c r="F12" s="4">
         <v>0</v>
@@ -5212,11 +6043,11 @@
       </c>
       <c r="K12" s="4">
         <f t="shared" si="0"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L12" s="4">
-        <f t="shared" si="1"/>
-        <v>697500</v>
+        <f t="shared" si="3"/>
+        <v>651000</v>
       </c>
       <c r="M12" s="4">
         <f>B12*'Coal Cost Multipliers'!$B$33</f>
@@ -5225,8 +6056,20 @@
       <c r="N12" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12" s="4">
+        <f t="shared" si="1"/>
+        <v>651000</v>
+      </c>
+      <c r="P12" s="4">
+        <f t="shared" si="2"/>
+        <v>651000</v>
+      </c>
+      <c r="Q12" s="4">
+        <f>'Waste to Energy'!B21</f>
+        <v>2791674.2742377212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2028</v>
       </c>
@@ -5244,7 +6087,7 @@
       </c>
       <c r="E13" s="4">
         <f>E12*'IESS Annual Cap Costs'!E14/'IESS Annual Cap Costs'!E13</f>
-        <v>1905127.1767901985</v>
+        <v>1905127.1767902004</v>
       </c>
       <c r="F13" s="4">
         <v>0</v>
@@ -5266,11 +6109,11 @@
       </c>
       <c r="K13" s="4">
         <f t="shared" si="0"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L13" s="4">
-        <f t="shared" si="1"/>
-        <v>697500</v>
+        <f t="shared" si="3"/>
+        <v>651000</v>
       </c>
       <c r="M13" s="4">
         <f>B13*'Coal Cost Multipliers'!$B$33</f>
@@ -5279,8 +6122,20 @@
       <c r="N13" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13" s="4">
+        <f t="shared" si="1"/>
+        <v>651000</v>
+      </c>
+      <c r="P13" s="4">
+        <f t="shared" si="2"/>
+        <v>651000</v>
+      </c>
+      <c r="Q13" s="4">
+        <f>'Waste to Energy'!B22</f>
+        <v>2772612.7442030236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2029</v>
       </c>
@@ -5298,7 +6153,7 @@
       </c>
       <c r="E14" s="4">
         <f>E13*'IESS Annual Cap Costs'!E15/'IESS Annual Cap Costs'!E14</f>
-        <v>1924945.979135185</v>
+        <v>1924945.9791351876</v>
       </c>
       <c r="F14" s="4">
         <v>0</v>
@@ -5320,11 +6175,11 @@
       </c>
       <c r="K14" s="4">
         <f t="shared" si="0"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L14" s="4">
-        <f t="shared" si="1"/>
-        <v>697500</v>
+        <f t="shared" si="3"/>
+        <v>651000</v>
       </c>
       <c r="M14" s="4">
         <f>B14*'Coal Cost Multipliers'!$B$33</f>
@@ -5333,8 +6188,20 @@
       <c r="N14" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14" s="4">
+        <f t="shared" si="1"/>
+        <v>651000</v>
+      </c>
+      <c r="P14" s="4">
+        <f t="shared" si="2"/>
+        <v>651000</v>
+      </c>
+      <c r="Q14" s="4">
+        <f>'Waste to Energy'!B23</f>
+        <v>2753551.21416834</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2030</v>
       </c>
@@ -5352,7 +6219,7 @@
       </c>
       <c r="E15" s="4">
         <f>E14*'IESS Annual Cap Costs'!E16/'IESS Annual Cap Costs'!E15</f>
-        <v>1944764.7814801715</v>
+        <v>1944764.7814801747</v>
       </c>
       <c r="F15" s="4">
         <v>0</v>
@@ -5374,11 +6241,11 @@
       </c>
       <c r="K15" s="4">
         <f t="shared" si="0"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L15" s="4">
-        <f t="shared" si="1"/>
-        <v>697500</v>
+        <f t="shared" si="3"/>
+        <v>651000</v>
       </c>
       <c r="M15" s="4">
         <f>B15*'Coal Cost Multipliers'!$B$33</f>
@@ -5387,8 +6254,20 @@
       <c r="N15" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15" s="4">
+        <f t="shared" si="1"/>
+        <v>651000</v>
+      </c>
+      <c r="P15" s="4">
+        <f t="shared" si="2"/>
+        <v>651000</v>
+      </c>
+      <c r="Q15" s="4">
+        <f>'Waste to Energy'!B24</f>
+        <v>2734489.6841336489</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2031</v>
       </c>
@@ -5406,7 +6285,7 @@
       </c>
       <c r="E16" s="4">
         <f>E15*'IESS Annual Cap Costs'!E17/'IESS Annual Cap Costs'!E16</f>
-        <v>1964583.583825158</v>
+        <v>1964583.5838251619</v>
       </c>
       <c r="F16" s="4">
         <v>0</v>
@@ -5428,11 +6307,11 @@
       </c>
       <c r="K16" s="4">
         <f t="shared" si="0"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L16" s="4">
-        <f t="shared" si="1"/>
-        <v>697500</v>
+        <f t="shared" si="3"/>
+        <v>651000</v>
       </c>
       <c r="M16" s="4">
         <f>B16*'Coal Cost Multipliers'!$B$33</f>
@@ -5441,8 +6320,20 @@
       <c r="N16" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16" s="4">
+        <f t="shared" si="1"/>
+        <v>651000</v>
+      </c>
+      <c r="P16" s="4">
+        <f t="shared" si="2"/>
+        <v>651000</v>
+      </c>
+      <c r="Q16" s="4">
+        <f>'Waste to Energy'!B25</f>
+        <v>2715428.1540989578</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2032</v>
       </c>
@@ -5460,7 +6351,7 @@
       </c>
       <c r="E17" s="4">
         <f>E16*'IESS Annual Cap Costs'!E18/'IESS Annual Cap Costs'!E17</f>
-        <v>1984402.3861701442</v>
+        <v>1984402.3861701486</v>
       </c>
       <c r="F17" s="4">
         <v>0</v>
@@ -5482,11 +6373,11 @@
       </c>
       <c r="K17" s="4">
         <f t="shared" si="0"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L17" s="4">
-        <f t="shared" si="1"/>
-        <v>697500</v>
+        <f t="shared" si="3"/>
+        <v>651000</v>
       </c>
       <c r="M17" s="4">
         <f>B17*'Coal Cost Multipliers'!$B$33</f>
@@ -5495,8 +6386,20 @@
       <c r="N17" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17" s="4">
+        <f t="shared" si="1"/>
+        <v>651000</v>
+      </c>
+      <c r="P17" s="4">
+        <f t="shared" si="2"/>
+        <v>651000</v>
+      </c>
+      <c r="Q17" s="4">
+        <f>'Waste to Energy'!B26</f>
+        <v>2696366.6240642685</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2033</v>
       </c>
@@ -5514,7 +6417,7 @@
       </c>
       <c r="E18" s="4">
         <f>E17*'IESS Annual Cap Costs'!E19/'IESS Annual Cap Costs'!E18</f>
-        <v>1993870.4108001254</v>
+        <v>1993870.4108001308</v>
       </c>
       <c r="F18" s="4">
         <v>0</v>
@@ -5536,11 +6439,11 @@
       </c>
       <c r="K18" s="4">
         <f t="shared" si="0"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L18" s="4">
-        <f t="shared" si="1"/>
-        <v>697500</v>
+        <f t="shared" si="3"/>
+        <v>651000</v>
       </c>
       <c r="M18" s="4">
         <f>B18*'Coal Cost Multipliers'!$B$33</f>
@@ -5549,8 +6452,20 @@
       <c r="N18" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18" s="4">
+        <f t="shared" si="1"/>
+        <v>651000</v>
+      </c>
+      <c r="P18" s="4">
+        <f t="shared" si="2"/>
+        <v>651000</v>
+      </c>
+      <c r="Q18" s="4">
+        <f>'Waste to Energy'!B27</f>
+        <v>2678071.9371918961</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2034</v>
       </c>
@@ -5568,7 +6483,7 @@
       </c>
       <c r="E19" s="4">
         <f>E18*'IESS Annual Cap Costs'!E20/'IESS Annual Cap Costs'!E19</f>
-        <v>2003338.4354301065</v>
+        <v>2003338.4354301128</v>
       </c>
       <c r="F19" s="4">
         <v>0</v>
@@ -5590,11 +6505,11 @@
       </c>
       <c r="K19" s="4">
         <f t="shared" si="0"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L19" s="4">
-        <f t="shared" si="1"/>
-        <v>697500</v>
+        <f t="shared" si="3"/>
+        <v>651000</v>
       </c>
       <c r="M19" s="4">
         <f>B19*'Coal Cost Multipliers'!$B$33</f>
@@ -5603,8 +6518,20 @@
       <c r="N19" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19" s="4">
+        <f t="shared" si="1"/>
+        <v>651000</v>
+      </c>
+      <c r="P19" s="4">
+        <f t="shared" si="2"/>
+        <v>651000</v>
+      </c>
+      <c r="Q19" s="4">
+        <f>'Waste to Energy'!B28</f>
+        <v>2659777.2503195181</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2035</v>
       </c>
@@ -5622,7 +6549,7 @@
       </c>
       <c r="E20" s="4">
         <f>E19*'IESS Annual Cap Costs'!E21/'IESS Annual Cap Costs'!E20</f>
-        <v>2012806.4600600875</v>
+        <v>2012806.4600600947</v>
       </c>
       <c r="F20" s="4">
         <v>0</v>
@@ -5644,11 +6571,11 @@
       </c>
       <c r="K20" s="4">
         <f t="shared" si="0"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L20" s="4">
-        <f t="shared" si="1"/>
-        <v>697500</v>
+        <f t="shared" si="3"/>
+        <v>651000</v>
       </c>
       <c r="M20" s="4">
         <f>B20*'Coal Cost Multipliers'!$B$33</f>
@@ -5657,8 +6584,20 @@
       <c r="N20" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O20" s="4">
+        <f t="shared" si="1"/>
+        <v>651000</v>
+      </c>
+      <c r="P20" s="4">
+        <f t="shared" si="2"/>
+        <v>651000</v>
+      </c>
+      <c r="Q20" s="4">
+        <f>'Waste to Energy'!B29</f>
+        <v>2641482.5634471402</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2036</v>
       </c>
@@ -5676,7 +6615,7 @@
       </c>
       <c r="E21" s="4">
         <f>E20*'IESS Annual Cap Costs'!E22/'IESS Annual Cap Costs'!E21</f>
-        <v>2022274.4846900688</v>
+        <v>2022274.4846900767</v>
       </c>
       <c r="F21" s="4">
         <v>0</v>
@@ -5698,11 +6637,11 @@
       </c>
       <c r="K21" s="4">
         <f t="shared" si="0"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L21" s="4">
-        <f t="shared" si="1"/>
-        <v>697500</v>
+        <f t="shared" si="3"/>
+        <v>651000</v>
       </c>
       <c r="M21" s="4">
         <f>B21*'Coal Cost Multipliers'!$B$33</f>
@@ -5711,8 +6650,20 @@
       <c r="N21" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O21" s="4">
+        <f t="shared" si="1"/>
+        <v>651000</v>
+      </c>
+      <c r="P21" s="4">
+        <f t="shared" si="2"/>
+        <v>651000</v>
+      </c>
+      <c r="Q21" s="4">
+        <f>'Waste to Energy'!B30</f>
+        <v>2623187.8765747696</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2037</v>
       </c>
@@ -5730,7 +6681,7 @@
       </c>
       <c r="E22" s="4">
         <f>E21*'IESS Annual Cap Costs'!E23/'IESS Annual Cap Costs'!E22</f>
-        <v>2031742.5093200495</v>
+        <v>2031742.5093200589</v>
       </c>
       <c r="F22" s="4">
         <v>0</v>
@@ -5752,11 +6703,11 @@
       </c>
       <c r="K22" s="4">
         <f t="shared" si="0"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L22" s="4">
-        <f t="shared" si="1"/>
-        <v>697500</v>
+        <f t="shared" si="3"/>
+        <v>651000</v>
       </c>
       <c r="M22" s="4">
         <f>B22*'Coal Cost Multipliers'!$B$33</f>
@@ -5765,8 +6716,20 @@
       <c r="N22" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22" s="4">
+        <f t="shared" si="1"/>
+        <v>651000</v>
+      </c>
+      <c r="P22" s="4">
+        <f t="shared" si="2"/>
+        <v>651000</v>
+      </c>
+      <c r="Q22" s="4">
+        <f>'Waste to Energy'!B31</f>
+        <v>2604893.1897023916</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2038</v>
       </c>
@@ -5784,7 +6747,7 @@
       </c>
       <c r="E23" s="4">
         <f>E22*'IESS Annual Cap Costs'!E24/'IESS Annual Cap Costs'!E23</f>
-        <v>1978048.7361460107</v>
+        <v>1978048.7361460177</v>
       </c>
       <c r="F23" s="4">
         <v>0</v>
@@ -5806,11 +6769,11 @@
       </c>
       <c r="K23" s="4">
         <f t="shared" si="0"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L23" s="4">
-        <f t="shared" si="1"/>
-        <v>697500</v>
+        <f t="shared" si="3"/>
+        <v>651000</v>
       </c>
       <c r="M23" s="4">
         <f>B23*'Coal Cost Multipliers'!$B$33</f>
@@ -5819,8 +6782,20 @@
       <c r="N23" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O23" s="4">
+        <f t="shared" si="1"/>
+        <v>651000</v>
+      </c>
+      <c r="P23" s="4">
+        <f t="shared" si="2"/>
+        <v>651000</v>
+      </c>
+      <c r="Q23" s="4">
+        <f>'Waste to Energy'!B32</f>
+        <v>2587401.8623333946</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2039</v>
       </c>
@@ -5838,7 +6813,7 @@
       </c>
       <c r="E24" s="4">
         <f>E23*'IESS Annual Cap Costs'!E25/'IESS Annual Cap Costs'!E24</f>
-        <v>1924354.9629719718</v>
+        <v>1924354.9629719767</v>
       </c>
       <c r="F24" s="4">
         <v>0</v>
@@ -5860,11 +6835,11 @@
       </c>
       <c r="K24" s="4">
         <f t="shared" si="0"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L24" s="4">
-        <f t="shared" si="1"/>
-        <v>697500</v>
+        <f t="shared" si="3"/>
+        <v>651000</v>
       </c>
       <c r="M24" s="4">
         <f>B24*'Coal Cost Multipliers'!$B$33</f>
@@ -5873,8 +6848,20 @@
       <c r="N24" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O24" s="4">
+        <f t="shared" si="1"/>
+        <v>651000</v>
+      </c>
+      <c r="P24" s="4">
+        <f t="shared" si="2"/>
+        <v>651000</v>
+      </c>
+      <c r="Q24" s="4">
+        <f>'Waste to Energy'!B33</f>
+        <v>2569910.5349643975</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2040</v>
       </c>
@@ -5892,7 +6879,7 @@
       </c>
       <c r="E25" s="4">
         <f>E24*'IESS Annual Cap Costs'!E26/'IESS Annual Cap Costs'!E25</f>
-        <v>1870661.189797933</v>
+        <v>1870661.1897979355</v>
       </c>
       <c r="F25" s="4">
         <v>0</v>
@@ -5914,11 +6901,11 @@
       </c>
       <c r="K25" s="4">
         <f t="shared" si="0"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L25" s="4">
-        <f t="shared" si="1"/>
-        <v>697500</v>
+        <f t="shared" si="3"/>
+        <v>651000</v>
       </c>
       <c r="M25" s="4">
         <f>B25*'Coal Cost Multipliers'!$B$33</f>
@@ -5927,8 +6914,20 @@
       <c r="N25" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O25" s="4">
+        <f t="shared" si="1"/>
+        <v>651000</v>
+      </c>
+      <c r="P25" s="4">
+        <f t="shared" si="2"/>
+        <v>651000</v>
+      </c>
+      <c r="Q25" s="4">
+        <f>'Waste to Energy'!B34</f>
+        <v>2552419.2075954005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2041</v>
       </c>
@@ -5946,7 +6945,7 @@
       </c>
       <c r="E26" s="4">
         <f>E25*'IESS Annual Cap Costs'!E27/'IESS Annual Cap Costs'!E26</f>
-        <v>1816967.4166238939</v>
+        <v>1816967.4166238944</v>
       </c>
       <c r="F26" s="4">
         <v>0</v>
@@ -5968,11 +6967,11 @@
       </c>
       <c r="K26" s="4">
         <f t="shared" si="0"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L26" s="4">
-        <f t="shared" si="1"/>
-        <v>697500</v>
+        <f t="shared" si="3"/>
+        <v>651000</v>
       </c>
       <c r="M26" s="4">
         <f>B26*'Coal Cost Multipliers'!$B$33</f>
@@ -5981,8 +6980,20 @@
       <c r="N26" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O26" s="4">
+        <f t="shared" si="1"/>
+        <v>651000</v>
+      </c>
+      <c r="P26" s="4">
+        <f t="shared" si="2"/>
+        <v>651000</v>
+      </c>
+      <c r="Q26" s="4">
+        <f>'Waste to Energy'!B35</f>
+        <v>2534927.8802264035</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2042</v>
       </c>
@@ -6000,7 +7011,7 @@
       </c>
       <c r="E27" s="4">
         <f>E26*'IESS Annual Cap Costs'!E28/'IESS Annual Cap Costs'!E27</f>
-        <v>1763273.6434498548</v>
+        <v>1763273.6434498536</v>
       </c>
       <c r="F27" s="4">
         <v>0</v>
@@ -6022,11 +7033,11 @@
       </c>
       <c r="K27" s="4">
         <f t="shared" si="0"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L27" s="4">
-        <f t="shared" si="1"/>
-        <v>697500</v>
+        <f t="shared" si="3"/>
+        <v>651000</v>
       </c>
       <c r="M27" s="4">
         <f>B27*'Coal Cost Multipliers'!$B$33</f>
@@ -6035,8 +7046,20 @@
       <c r="N27" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O27" s="4">
+        <f t="shared" si="1"/>
+        <v>651000</v>
+      </c>
+      <c r="P27" s="4">
+        <f t="shared" si="2"/>
+        <v>651000</v>
+      </c>
+      <c r="Q27" s="4">
+        <f>'Waste to Energy'!B36</f>
+        <v>2517436.5528574036</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2043</v>
       </c>
@@ -6054,7 +7077,7 @@
       </c>
       <c r="E28" s="4">
         <f>E27*'IESS Annual Cap Costs'!E29/'IESS Annual Cap Costs'!E28</f>
-        <v>1762558.6315525516</v>
+        <v>1762558.6315525512</v>
       </c>
       <c r="F28" s="4">
         <v>0</v>
@@ -6076,11 +7099,11 @@
       </c>
       <c r="K28" s="4">
         <f t="shared" si="0"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L28" s="4">
-        <f t="shared" si="1"/>
-        <v>697500</v>
+        <f t="shared" si="3"/>
+        <v>651000</v>
       </c>
       <c r="M28" s="4">
         <f>B28*'Coal Cost Multipliers'!$B$33</f>
@@ -6089,8 +7112,20 @@
       <c r="N28" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O28" s="4">
+        <f t="shared" si="1"/>
+        <v>651000</v>
+      </c>
+      <c r="P28" s="4">
+        <f t="shared" si="2"/>
+        <v>651000</v>
+      </c>
+      <c r="Q28" s="4">
+        <f>'Waste to Energy'!B37</f>
+        <v>2500639.0359685943</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>2044</v>
       </c>
@@ -6108,7 +7143,7 @@
       </c>
       <c r="E29" s="4">
         <f>E28*'IESS Annual Cap Costs'!E30/'IESS Annual Cap Costs'!E29</f>
-        <v>1761843.6196552485</v>
+        <v>1761843.6196552489</v>
       </c>
       <c r="F29" s="4">
         <v>0</v>
@@ -6130,11 +7165,11 @@
       </c>
       <c r="K29" s="4">
         <f t="shared" si="0"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L29" s="4">
-        <f t="shared" si="1"/>
-        <v>697500</v>
+        <f t="shared" si="3"/>
+        <v>651000</v>
       </c>
       <c r="M29" s="4">
         <f>B29*'Coal Cost Multipliers'!$B$33</f>
@@ -6143,8 +7178,20 @@
       <c r="N29" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O29" s="4">
+        <f t="shared" si="1"/>
+        <v>651000</v>
+      </c>
+      <c r="P29" s="4">
+        <f t="shared" si="2"/>
+        <v>651000</v>
+      </c>
+      <c r="Q29" s="4">
+        <f>'Waste to Energy'!B38</f>
+        <v>2483841.5190797895</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2045</v>
       </c>
@@ -6162,7 +7209,7 @@
       </c>
       <c r="E30" s="4">
         <f>E29*'IESS Annual Cap Costs'!E31/'IESS Annual Cap Costs'!E30</f>
-        <v>1761128.6077579453</v>
+        <v>1761128.6077579465</v>
       </c>
       <c r="F30" s="4">
         <v>0</v>
@@ -6184,11 +7231,11 @@
       </c>
       <c r="K30" s="4">
         <f t="shared" si="0"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L30" s="4">
-        <f t="shared" si="1"/>
-        <v>697500</v>
+        <f t="shared" si="3"/>
+        <v>651000</v>
       </c>
       <c r="M30" s="4">
         <f>B30*'Coal Cost Multipliers'!$B$33</f>
@@ -6197,8 +7244,20 @@
       <c r="N30" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O30" s="4">
+        <f t="shared" si="1"/>
+        <v>651000</v>
+      </c>
+      <c r="P30" s="4">
+        <f t="shared" si="2"/>
+        <v>651000</v>
+      </c>
+      <c r="Q30" s="4">
+        <f>'Waste to Energy'!B39</f>
+        <v>2467044.0021909773</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2046</v>
       </c>
@@ -6216,7 +7275,7 @@
       </c>
       <c r="E31" s="4">
         <f>E30*'IESS Annual Cap Costs'!E32/'IESS Annual Cap Costs'!E31</f>
-        <v>1760413.5958606421</v>
+        <v>1760413.5958606442</v>
       </c>
       <c r="F31" s="4">
         <v>0</v>
@@ -6238,11 +7297,11 @@
       </c>
       <c r="K31" s="4">
         <f t="shared" si="0"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L31" s="4">
-        <f t="shared" si="1"/>
-        <v>697500</v>
+        <f t="shared" si="3"/>
+        <v>651000</v>
       </c>
       <c r="M31" s="4">
         <f>B31*'Coal Cost Multipliers'!$B$33</f>
@@ -6251,8 +7310,20 @@
       <c r="N31" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O31" s="4">
+        <f t="shared" si="1"/>
+        <v>651000</v>
+      </c>
+      <c r="P31" s="4">
+        <f t="shared" si="2"/>
+        <v>651000</v>
+      </c>
+      <c r="Q31" s="4">
+        <f>'Waste to Energy'!B40</f>
+        <v>2450246.4853021726</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2047</v>
       </c>
@@ -6270,7 +7341,7 @@
       </c>
       <c r="E32" s="4">
         <f>E31*'IESS Annual Cap Costs'!E33/'IESS Annual Cap Costs'!E32</f>
-        <v>1759698.5839633397</v>
+        <v>1759698.5839633422</v>
       </c>
       <c r="F32" s="4">
         <v>0</v>
@@ -6292,11 +7363,11 @@
       </c>
       <c r="K32" s="4">
         <f t="shared" si="0"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L32" s="4">
-        <f t="shared" si="1"/>
-        <v>697500</v>
+        <f t="shared" si="3"/>
+        <v>651000</v>
       </c>
       <c r="M32" s="4">
         <f>B32*'Coal Cost Multipliers'!$B$33</f>
@@ -6305,8 +7376,20 @@
       <c r="N32" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O32" s="4">
+        <f t="shared" si="1"/>
+        <v>651000</v>
+      </c>
+      <c r="P32" s="4">
+        <f t="shared" si="2"/>
+        <v>651000</v>
+      </c>
+      <c r="Q32" s="4">
+        <f>'Waste to Energy'!B41</f>
+        <v>2433448.9684133651</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>2048</v>
       </c>
@@ -6324,7 +7407,7 @@
       </c>
       <c r="E33" s="4">
         <f>E32*'IESS Annual Cap Costs'!E34/'IESS Annual Cap Costs'!E33</f>
-        <v>1758983.5720660365</v>
+        <v>1758983.5720660398</v>
       </c>
       <c r="F33" s="4">
         <v>0</v>
@@ -6346,11 +7429,11 @@
       </c>
       <c r="K33" s="4">
         <f t="shared" si="0"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L33" s="4">
-        <f t="shared" si="1"/>
-        <v>697500</v>
+        <f t="shared" si="3"/>
+        <v>651000</v>
       </c>
       <c r="M33" s="4">
         <f>B33*'Coal Cost Multipliers'!$B$33</f>
@@ -6359,8 +7442,20 @@
       <c r="N33" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O33" s="4">
+        <f t="shared" si="1"/>
+        <v>651000</v>
+      </c>
+      <c r="P33" s="4">
+        <f t="shared" si="2"/>
+        <v>651000</v>
+      </c>
+      <c r="Q33" s="4">
+        <f>'Waste to Energy'!B42</f>
+        <v>2416651.4515245557</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>2049</v>
       </c>
@@ -6378,7 +7473,7 @@
       </c>
       <c r="E34" s="4">
         <f>E33*'IESS Annual Cap Costs'!E35/'IESS Annual Cap Costs'!E34</f>
-        <v>1758268.5601687336</v>
+        <v>1758268.5601687375</v>
       </c>
       <c r="F34" s="4">
         <v>0</v>
@@ -6400,11 +7495,11 @@
       </c>
       <c r="K34" s="4">
         <f t="shared" si="0"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L34" s="4">
-        <f t="shared" si="1"/>
-        <v>697500</v>
+        <f t="shared" si="3"/>
+        <v>651000</v>
       </c>
       <c r="M34" s="4">
         <f>B34*'Coal Cost Multipliers'!$B$33</f>
@@ -6413,8 +7508,20 @@
       <c r="N34" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O34" s="4">
+        <f t="shared" si="1"/>
+        <v>651000</v>
+      </c>
+      <c r="P34" s="4">
+        <f t="shared" si="2"/>
+        <v>651000</v>
+      </c>
+      <c r="Q34" s="4">
+        <f>'Waste to Energy'!B43</f>
+        <v>2399853.9346357509</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2050</v>
       </c>
@@ -6432,7 +7539,7 @@
       </c>
       <c r="E35" s="4">
         <f>E34*'IESS Annual Cap Costs'!E36/'IESS Annual Cap Costs'!E35</f>
-        <v>1757553.5482714307</v>
+        <v>1757553.5482714351</v>
       </c>
       <c r="F35" s="4">
         <v>0</v>
@@ -6454,11 +7561,11 @@
       </c>
       <c r="K35" s="4">
         <f t="shared" si="0"/>
-        <v>697500</v>
+        <v>651000</v>
       </c>
       <c r="L35" s="4">
-        <f t="shared" si="1"/>
-        <v>697500</v>
+        <f t="shared" si="3"/>
+        <v>651000</v>
       </c>
       <c r="M35" s="4">
         <f>B35*'Coal Cost Multipliers'!$B$33</f>
@@ -6467,8 +7574,20 @@
       <c r="N35" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O35" s="4">
+        <f t="shared" si="1"/>
+        <v>651000</v>
+      </c>
+      <c r="P35" s="4">
+        <f t="shared" si="2"/>
+        <v>651000</v>
+      </c>
+      <c r="Q35" s="4">
+        <f>'Waste to Energy'!B44</f>
+        <v>2383056.4177469388</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="20"/>
       <c r="B36" s="12"/>
       <c r="C36" s="20"/>
@@ -6484,7 +7603,7 @@
       <c r="M36" s="20"/>
       <c r="N36" s="20"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="20"/>
       <c r="B37" s="12"/>
       <c r="C37" s="20"/>
@@ -6500,7 +7619,7 @@
       <c r="M37" s="20"/>
       <c r="N37" s="20"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="20"/>
       <c r="B38" s="12"/>
       <c r="C38" s="20"/>
@@ -6516,7 +7635,7 @@
       <c r="M38" s="20"/>
       <c r="N38" s="20"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="20"/>
       <c r="B39" s="12"/>
       <c r="C39" s="20"/>
@@ -6532,7 +7651,7 @@
       <c r="M39" s="20"/>
       <c r="N39" s="20"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="20"/>
       <c r="B40" s="12"/>
       <c r="C40" s="20"/>
@@ -6548,7 +7667,7 @@
       <c r="M40" s="20"/>
       <c r="N40" s="20"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="20"/>
       <c r="B41" s="12"/>
       <c r="C41" s="20"/>
@@ -6564,7 +7683,7 @@
       <c r="M41" s="20"/>
       <c r="N41" s="20"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="20"/>
       <c r="B42" s="12"/>
       <c r="C42" s="20"/>
@@ -6580,7 +7699,7 @@
       <c r="M42" s="20"/>
       <c r="N42" s="20"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="20"/>
       <c r="B43" s="12"/>
       <c r="C43" s="20"/>
@@ -6596,7 +7715,7 @@
       <c r="M43" s="20"/>
       <c r="N43" s="20"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="20"/>
       <c r="B44" s="12"/>
       <c r="C44" s="20"/>
@@ -6612,7 +7731,7 @@
       <c r="M44" s="20"/>
       <c r="N44" s="20"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="20"/>
       <c r="B45" s="12"/>
       <c r="C45" s="20"/>
@@ -6628,7 +7747,7 @@
       <c r="M45" s="20"/>
       <c r="N45" s="20"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="20"/>
       <c r="B46" s="12"/>
       <c r="C46" s="20"/>
@@ -6644,7 +7763,7 @@
       <c r="M46" s="20"/>
       <c r="N46" s="20"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="20"/>
       <c r="B47" s="12"/>
       <c r="C47" s="20"/>
@@ -6660,7 +7779,7 @@
       <c r="M47" s="20"/>
       <c r="N47" s="20"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B48" s="12"/>
     </row>
   </sheetData>
@@ -6668,14 +7787,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6687,101 +7808,101 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B2" s="4">
         <f>Lazard!D19*10^3</f>
-        <v>37200</v>
+        <v>37897.5</v>
       </c>
       <c r="C2" s="20">
         <v>0</v>
       </c>
       <c r="D2" s="4">
         <f>B2</f>
-        <v>37200</v>
+        <v>37897.5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B3" s="4">
         <f>Lazard!D20*10^3</f>
-        <v>5115</v>
+        <v>10230</v>
       </c>
       <c r="C3" s="20">
         <v>0</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3:D14" si="0">B3</f>
-        <v>5115</v>
+        <v>10230</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4">
         <f>Lazard!D21*10^3</f>
-        <v>125550.00000000001</v>
+        <v>100905</v>
       </c>
       <c r="C4" s="20">
         <v>0</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" si="0"/>
-        <v>125550.00000000001</v>
+        <v>100905</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B5" s="4">
-        <f>Lazard!D22*10^3</f>
-        <v>0</v>
+        <f>B6</f>
+        <v>26040.000000000004</v>
       </c>
       <c r="C5" s="20">
         <v>0</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>26040.000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B6" s="4">
         <f>Lazard!D23*10^3</f>
-        <v>27900.000000000004</v>
+        <v>26040.000000000004</v>
       </c>
       <c r="C6" s="20">
         <v>0</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" si="0"/>
-        <v>27900.000000000004</v>
+        <v>26040.000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B7" s="4">
         <f>Lazard!D24*10^3</f>
@@ -6797,7 +7918,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B8" s="4">
         <f>Lazard!D25*10^3</f>
@@ -6813,7 +7934,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B9" s="4">
         <f>Lazard!D26*10^3</f>
@@ -6829,59 +7950,59 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B10" s="4">
-        <f>Lazard!D27*10^3</f>
-        <v>0</v>
+        <f>B6</f>
+        <v>26040.000000000004</v>
       </c>
       <c r="C10" s="20">
         <v>0</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>26040.000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B11" s="4">
         <f>Lazard!D28*10^3</f>
-        <v>4371</v>
+        <v>5115</v>
       </c>
       <c r="C11" s="20">
         <v>0</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="0"/>
-        <v>4371</v>
+        <v>5115</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B12" s="4">
         <f>Lazard!D29*10^3</f>
-        <v>4371</v>
+        <v>5115</v>
       </c>
       <c r="C12" s="20">
         <v>0</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="0"/>
-        <v>4371</v>
+        <v>5115</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B13" s="4">
         <f>B2*'Coal Cost Multipliers'!$B$35</f>
-        <v>37200</v>
+        <v>37897.5</v>
       </c>
       <c r="C13" s="4">
         <f>C2*'Coal Cost Multipliers'!$B$35</f>
@@ -6889,12 +8010,12 @@
       </c>
       <c r="D13" s="4">
         <f>D2*'Coal Cost Multipliers'!$B$35</f>
-        <v>37200</v>
+        <v>37897.5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B14" s="4">
         <f>Lazard!D31*10^3</f>
@@ -6906,6 +8027,56 @@
       <c r="D14" s="4">
         <f t="shared" si="0"/>
         <v>74400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="B15" s="4">
+        <f>B11</f>
+        <v>5115</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" ref="C15:D15" si="1">C11</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="1"/>
+        <v>5115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="B16" s="4">
+        <f>B11</f>
+        <v>5115</v>
+      </c>
+      <c r="C16" s="4">
+        <f t="shared" ref="C16:D16" si="2">C11</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="2"/>
+        <v>5115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="B17" s="4">
+        <f>'Waste to Energy'!A8*'CCaMC-BCCpUC'!Q2</f>
+        <v>179715.17253971149</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <f>B17</f>
+        <v>179715.17253971149</v>
       </c>
     </row>
   </sheetData>
@@ -6914,14 +8085,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6932,69 +8105,69 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B2" s="16">
         <f>Lazard!C19</f>
-        <v>1.86</v>
+        <v>2.5575000000000001</v>
       </c>
       <c r="C2" s="20">
         <v>0</v>
       </c>
       <c r="D2" s="16">
         <f>B2</f>
-        <v>1.86</v>
+        <v>2.5575000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B3" s="16">
         <f>Lazard!C20</f>
-        <v>1.86</v>
+        <v>2.79</v>
       </c>
       <c r="C3" s="20">
         <v>0</v>
       </c>
       <c r="D3" s="16">
         <f t="shared" ref="D3:D14" si="0">B3</f>
-        <v>1.86</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B4" s="16">
         <f>Lazard!C21</f>
-        <v>0.69750000000000001</v>
+        <v>3.2550000000000003</v>
       </c>
       <c r="C4" s="20">
         <v>0</v>
       </c>
       <c r="D4" s="16">
         <f t="shared" si="0"/>
-        <v>0.69750000000000001</v>
+        <v>3.2550000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B5" s="16">
         <f>Lazard!C22</f>
@@ -7010,7 +8183,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B6" s="16">
         <f>Lazard!C23</f>
@@ -7026,7 +8199,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B7" s="16">
         <f>Lazard!C24</f>
@@ -7042,7 +8215,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B8" s="16">
         <f>Lazard!C25</f>
@@ -7058,7 +8231,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B9" s="16">
         <f>Lazard!C26</f>
@@ -7074,59 +8247,59 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B10" s="16">
         <f>Lazard!C27</f>
-        <v>27.900000000000002</v>
+        <v>22.32</v>
       </c>
       <c r="C10" s="20">
         <v>0</v>
       </c>
       <c r="D10" s="16">
         <f t="shared" si="0"/>
-        <v>27.900000000000002</v>
+        <v>22.32</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B11" s="16">
         <f>Lazard!C28</f>
-        <v>4.6500000000000004</v>
+        <v>4.4175000000000004</v>
       </c>
       <c r="C11" s="20">
         <v>0</v>
       </c>
       <c r="D11" s="16">
         <f t="shared" si="0"/>
-        <v>4.6500000000000004</v>
+        <v>4.4175000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B12" s="16">
         <f>Lazard!C29</f>
-        <v>4.6500000000000004</v>
+        <v>4.4175000000000004</v>
       </c>
       <c r="C12" s="20">
         <v>0</v>
       </c>
       <c r="D12" s="16">
         <f t="shared" si="0"/>
-        <v>4.6500000000000004</v>
+        <v>4.4175000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B13" s="16">
         <f>B2*'Coal Cost Multipliers'!$B$34</f>
-        <v>3.1510588235294117</v>
+        <v>4.3327058823529416</v>
       </c>
       <c r="C13" s="16">
         <f>C2*'Coal Cost Multipliers'!$B$34</f>
@@ -7134,12 +8307,12 @@
       </c>
       <c r="D13" s="16">
         <f>D2*'Coal Cost Multipliers'!$B$34</f>
-        <v>3.1510588235294117</v>
+        <v>4.3327058823529416</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B14" s="16">
         <f>Lazard!C31</f>
@@ -7151,6 +8324,57 @@
       <c r="D14" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="B15" s="16">
+        <f>B11</f>
+        <v>4.4175000000000004</v>
+      </c>
+      <c r="C15" s="16">
+        <f t="shared" ref="C15:D15" si="1">C11</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="16">
+        <f t="shared" si="1"/>
+        <v>4.4175000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="B16" s="16">
+        <f>B11</f>
+        <v>4.4175000000000004</v>
+      </c>
+      <c r="C16" s="16">
+        <f t="shared" ref="C16:D16" si="2">C11</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="16">
+        <f t="shared" si="2"/>
+        <v>4.4175000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="B17" s="16">
+        <f>B9</f>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C17" s="16">
+        <f t="shared" ref="C17:D17" si="3">C9</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="16">
+        <f t="shared" si="3"/>
+        <v>9.3000000000000007</v>
       </c>
     </row>
   </sheetData>
@@ -7162,13 +8386,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -7180,7 +8406,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
@@ -7258,18 +8484,26 @@
       <c r="C11" s="20"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
+      <c r="A12">
+        <v>2018</v>
+      </c>
+      <c r="B12">
+        <v>73.58</v>
+      </c>
       <c r="C12" s="20"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
+      <c r="A13">
+        <v>2019</v>
+      </c>
+      <c r="B13">
+        <v>70.760000000000005</v>
+      </c>
       <c r="C13" s="20"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
@@ -7293,7 +8527,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
@@ -7317,7 +8551,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
@@ -7342,22 +8576,22 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -7457,7 +8691,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -7477,7 +8711,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7489,7 +8725,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B1" s="50"/>
       <c r="C1" s="50"/>
@@ -7502,10 +8738,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C2">
         <v>2017</v>
@@ -7537,7 +8773,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>3.7790714285714289E-2</v>
@@ -7563,10 +8799,10 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C4">
         <v>4.9715169121125002E-2</v>
@@ -7592,10 +8828,10 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C5">
         <v>5.4948344818085602E-2</v>
@@ -7621,10 +8857,10 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C6">
         <v>6.3452255325646412E-2</v>
@@ -7650,10 +8886,10 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C7">
         <v>9.5459666182181213E-2</v>
@@ -7679,10 +8915,10 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C8" s="20">
         <v>8.1443750000000009E-2</v>
@@ -7708,10 +8944,10 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C9">
         <v>0.20606250000000001</v>
@@ -7737,70 +8973,70 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C10" s="20">
         <f>0.000135214285714286*(10^3)</f>
-        <v>0.1352142857142857</v>
+        <v>0.13521428571428601</v>
       </c>
       <c r="D10" s="20">
         <f>0.000128428571428571*(10^3)</f>
-        <v>0.12842857142857142</v>
+        <v>0.128428571428571</v>
       </c>
       <c r="E10" s="20">
         <f>0.000121642857142857*(10^3)</f>
-        <v>0.12164285714285714</v>
+        <v>0.121642857142857</v>
       </c>
       <c r="F10" s="20">
         <f>0.000114857142857143*(10^3)</f>
-        <v>0.11485714285714284</v>
+        <v>0.114857142857143</v>
       </c>
       <c r="G10" s="20">
         <f>0.000108071428571429*(10^3)</f>
-        <v>0.10807142857142857</v>
+        <v>0.108071428571429</v>
       </c>
       <c r="H10" s="20">
         <f>0.000101285714285714*(10^3)</f>
-        <v>0.10128571428571428</v>
+        <v>0.10128571428571399</v>
       </c>
       <c r="I10" s="20">
         <f>0.0000945*(10^3)</f>
-        <v>9.4499999999999987E-2</v>
+        <v>9.4500000000000001E-2</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C11" s="20">
         <f>0.000065*(10^3)</f>
-        <v>6.5000000000000002E-2</v>
+        <v>6.4999999999999988E-2</v>
       </c>
       <c r="D11" s="20">
         <f>0.000065*(10^3)</f>
-        <v>6.5000000000000002E-2</v>
+        <v>6.4999999999999988E-2</v>
       </c>
       <c r="E11" s="20">
         <f>0.000065*(10^3)</f>
-        <v>6.5000000000000002E-2</v>
+        <v>6.4999999999999988E-2</v>
       </c>
       <c r="F11" s="20">
         <f>0.000065*(10^3)</f>
-        <v>6.5000000000000002E-2</v>
+        <v>6.4999999999999988E-2</v>
       </c>
       <c r="G11" s="20">
         <f>0.0000645*(10^3)</f>
-        <v>6.4500000000000016E-2</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="H11" s="20">
         <f>0.000064*(10^3)</f>
-        <v>6.4000000000000015E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="I11" s="20">
         <f>0.0000635*(10^3)</f>
@@ -7809,10 +9045,10 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C12">
         <v>6.8159999999999984E-2</v>
@@ -7838,10 +9074,10 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C13" s="20">
         <v>0.12918000000000002</v>
@@ -7865,28 +9101,28 @@
         <v>0.149560640618496</v>
       </c>
       <c r="N13" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C14" s="20">
         <f>0.0000595*(10^3)</f>
-        <v>5.9500000000000011E-2</v>
+        <v>5.9500000000000004E-2</v>
       </c>
       <c r="D14" s="20">
         <f>0.0000595*(10^3)</f>
-        <v>5.9500000000000011E-2</v>
+        <v>5.9500000000000004E-2</v>
       </c>
       <c r="E14" s="20">
         <f>0.000059*(10^3)</f>
-        <v>5.9000000000000004E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="F14" s="20">
         <f>0.0000585*(10^3)</f>
-        <v>5.8500000000000003E-2</v>
+        <v>5.8499999999999996E-2</v>
       </c>
       <c r="G14" s="20">
         <f>0.000058*(10^3)</f>
@@ -7903,7 +9139,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C15" s="20">
         <f>0.0001575*(10^3)</f>
@@ -7915,11 +9151,11 @@
       </c>
       <c r="E15" s="20">
         <f>0.0001415*(10^3)</f>
-        <v>0.14150000000000001</v>
+        <v>0.14149999999999999</v>
       </c>
       <c r="F15" s="20">
         <f>0.000139*(10^3)</f>
-        <v>0.13900000000000001</v>
+        <v>0.13899999999999998</v>
       </c>
       <c r="G15" s="20">
         <f>0.0001375*(10^3)</f>
@@ -7936,7 +9172,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C16">
         <v>4.4999999999999998E-2</v>
@@ -7962,7 +9198,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="50" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B18" s="50"/>
       <c r="C18" s="50"/>
@@ -7975,10 +9211,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C19" s="20">
         <v>2017</v>
@@ -8010,7 +9246,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="4">
@@ -8044,10 +9280,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C21" s="4">
         <f>C4/'Conversion Factors'!$B$6*10^12/10^3</f>
@@ -8080,10 +9316,10 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C22" s="4">
         <f>C5/'Conversion Factors'!$B$6*10^12/10^3</f>
@@ -8116,10 +9352,10 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C23" s="4">
         <f>C6/'Conversion Factors'!$B$6*10^12/10^3</f>
@@ -8152,10 +9388,10 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C24" s="4">
         <f>C7/'Conversion Factors'!$B$6*10^12/10^3</f>
@@ -8188,10 +9424,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C25" s="4">
         <f>C8/'Conversion Factors'!$B$6*10^12/10^3</f>
@@ -8224,10 +9460,10 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C26" s="4">
         <f>C9/'Conversion Factors'!$B$6*10^12/10^3</f>
@@ -8260,70 +9496,70 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C27" s="4">
         <f>C10/'Conversion Factors'!$B$6*10^12/10^3</f>
-        <v>2468765.4868410756</v>
+        <v>2468765.4868410807</v>
       </c>
       <c r="D27" s="4">
         <f>D10/'Conversion Factors'!$B$6*10^12/10^3</f>
-        <v>2344870.7582357386</v>
+        <v>2344870.7582357312</v>
       </c>
       <c r="E27" s="4">
         <f>E10/'Conversion Factors'!$B$6*10^12/10^3</f>
-        <v>2220976.0296304021</v>
+        <v>2220976.0296303998</v>
       </c>
       <c r="F27" s="4">
         <f>F10/'Conversion Factors'!$B$6*10^12/10^3</f>
-        <v>2097081.3010250654</v>
+        <v>2097081.3010250684</v>
       </c>
       <c r="G27" s="4">
         <f>G10/'Conversion Factors'!$B$6*10^12/10^3</f>
-        <v>1973186.5724197293</v>
+        <v>1973186.572419737</v>
       </c>
       <c r="H27" s="4">
         <f>H10/'Conversion Factors'!$B$6*10^12/10^3</f>
-        <v>1849291.8438143926</v>
+        <v>1849291.843814387</v>
       </c>
       <c r="I27" s="4">
         <f>I10/'Conversion Factors'!$B$6*10^12/10^3</f>
-        <v>1725397.1152090556</v>
+        <v>1725397.1152090558</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C28" s="4">
         <f>C11/'Conversion Factors'!$B$6*10^12/10^3</f>
-        <v>1186781.0845353296</v>
+        <v>1186781.0845353294</v>
       </c>
       <c r="D28" s="4">
         <f>D11/'Conversion Factors'!$B$6*10^12/10^3</f>
-        <v>1186781.0845353296</v>
+        <v>1186781.0845353294</v>
       </c>
       <c r="E28" s="4">
         <f>E11/'Conversion Factors'!$B$6*10^12/10^3</f>
-        <v>1186781.0845353296</v>
+        <v>1186781.0845353294</v>
       </c>
       <c r="F28" s="4">
         <f>F11/'Conversion Factors'!$B$6*10^12/10^3</f>
-        <v>1186781.0845353296</v>
+        <v>1186781.0845353294</v>
       </c>
       <c r="G28" s="4">
         <f>G11/'Conversion Factors'!$B$6*10^12/10^3</f>
-        <v>1177651.9992696734</v>
+        <v>1177651.9992696731</v>
       </c>
       <c r="H28" s="4">
         <f>H11/'Conversion Factors'!$B$6*10^12/10^3</f>
-        <v>1168522.9140040169</v>
+        <v>1168522.9140040167</v>
       </c>
       <c r="I28" s="4">
         <f>I11/'Conversion Factors'!$B$6*10^12/10^3</f>
@@ -8332,10 +9568,10 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C29" s="4">
         <f>C12/'Conversion Factors'!$B$6*10^12/10^3</f>
@@ -8368,10 +9604,10 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C30" s="4">
         <f>C13/'Conversion Factors'!$B$6*10^12/10^3</f>
@@ -8404,16 +9640,16 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="4">
         <f>C14/'Conversion Factors'!$B$6*10^12/10^3</f>
-        <v>1086361.1466131096</v>
+        <v>1086361.1466131094</v>
       </c>
       <c r="D31" s="4">
         <f>D14/'Conversion Factors'!$B$6*10^12/10^3</f>
-        <v>1086361.1466131096</v>
+        <v>1086361.1466131094</v>
       </c>
       <c r="E31" s="4">
         <f>E14/'Conversion Factors'!$B$6*10^12/10^3</f>
@@ -8438,7 +9674,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="4">
@@ -8451,11 +9687,11 @@
       </c>
       <c r="E32" s="4">
         <f>E15/'Conversion Factors'!$B$6*10^12/10^3</f>
-        <v>2583531.1301807561</v>
+        <v>2583531.1301807556</v>
       </c>
       <c r="F32" s="4">
         <f>F15/'Conversion Factors'!$B$6*10^12/10^3</f>
-        <v>2537885.7038524742</v>
+        <v>2537885.7038524733</v>
       </c>
       <c r="G32" s="4">
         <f>G15/'Conversion Factors'!$B$6*10^12/10^3</f>
@@ -8472,7 +9708,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="4">
@@ -8506,7 +9742,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="51" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
@@ -8519,10 +9755,10 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C36" s="20">
         <v>2017</v>
@@ -8554,10 +9790,10 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C37" s="16">
         <v>5.2694700000000001</v>
@@ -8583,10 +9819,10 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C38" s="16">
         <v>5.2694700000000001</v>
@@ -8612,10 +9848,10 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C39" s="16">
         <v>0</v>
@@ -8641,10 +9877,10 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C40" s="16">
         <v>0</v>
@@ -8670,10 +9906,10 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C41" s="16">
         <v>0.56000000000000016</v>
@@ -8699,10 +9935,10 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C42" s="16">
         <v>0.4</v>
@@ -8728,10 +9964,10 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C43" s="16">
         <v>8</v>
@@ -8757,10 +9993,10 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C44" s="16">
         <v>2.1</v>
@@ -8786,7 +10022,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="51" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B46" s="51"/>
       <c r="C46" s="51"/>
@@ -8799,7 +10035,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B47">
         <v>2017</v>
@@ -8826,7 +10062,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B48" s="4">
         <f>SUMPRODUCT(C37:C40,C21:C24)/SUM(C37:C40)</f>
@@ -8859,7 +10095,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B49" s="4">
         <f>C20</f>
@@ -8892,7 +10128,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B50" s="4">
         <f>SUMPRODUCT(C41:C42,C25:C26)/SUM(C41:C42)</f>
@@ -8925,48 +10161,48 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B51" s="4">
         <f>SUMPRODUCT(C43:C44,C27:C28)/SUM(C43:C44)</f>
-        <v>2202214.2744804751</v>
+        <v>2202214.2744804788</v>
       </c>
       <c r="C51" s="4">
         <f t="shared" ref="C51:H51" si="6">SUMPRODUCT(D43:D44,D27:D28)/SUM(D43:D44)</f>
-        <v>2083366.6383679044</v>
+        <v>2083366.6383678985</v>
       </c>
       <c r="D51" s="4">
         <f t="shared" si="6"/>
-        <v>1646423.2823553619</v>
+        <v>1646423.2823553607</v>
       </c>
       <c r="E51" s="4">
         <f t="shared" si="6"/>
-        <v>1732961.2144291711</v>
+        <v>1732961.2144291729</v>
       </c>
       <c r="F51" s="4">
         <f t="shared" si="6"/>
-        <v>1774302.9291322154</v>
+        <v>1774302.9291322213</v>
       </c>
       <c r="G51" s="4">
         <f t="shared" si="6"/>
-        <v>1539851.4211733127</v>
+        <v>1539851.4211733097</v>
       </c>
       <c r="H51" s="4">
         <f t="shared" si="6"/>
-        <v>1536729.353052157</v>
+        <v>1536729.3530521572</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B52" s="4">
         <f>C31</f>
-        <v>1086361.1466131096</v>
+        <v>1086361.1466131094</v>
       </c>
       <c r="C52" s="4">
         <f t="shared" ref="C52:H52" si="7">D31</f>
-        <v>1086361.1466131096</v>
+        <v>1086361.1466131094</v>
       </c>
       <c r="D52" s="4">
         <f t="shared" si="7"/>
@@ -8991,7 +10227,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B53" s="4">
         <f>C29</f>
@@ -9024,7 +10260,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B54" s="4">
         <f>C30</f>
@@ -9057,7 +10293,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B55" s="4">
         <f>C33</f>
@@ -9090,7 +10326,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C56" s="20"/>
       <c r="D56" s="20"/>
@@ -9101,7 +10337,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C57" s="20"/>
       <c r="D57" s="20"/>
@@ -9112,7 +10348,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="20" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C58" s="20"/>
       <c r="D58" s="20"/>
@@ -9123,7 +10359,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C59" s="20"/>
       <c r="D59" s="20"/>
@@ -9134,7 +10370,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B60" s="4">
         <f>C32</f>
@@ -9146,11 +10382,11 @@
       </c>
       <c r="D60" s="4">
         <f t="shared" si="11"/>
-        <v>2583531.1301807561</v>
+        <v>2583531.1301807556</v>
       </c>
       <c r="E60" s="4">
         <f t="shared" si="11"/>
-        <v>2537885.7038524742</v>
+        <v>2537885.7038524733</v>
       </c>
       <c r="F60" s="4">
         <f t="shared" si="11"/>
@@ -9174,7 +10410,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9186,7 +10424,7 @@
         <v>27.5</v>
       </c>
       <c r="B1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -9195,12 +10433,12 @@
         <v>5020996.8961110096</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -9210,10 +10448,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9224,87 +10462,87 @@
     <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="83" t="s">
-        <v>141</v>
-      </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="84"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="86"/>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="88" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="86" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="86"/>
+      <c r="D1" s="87"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="89"/>
       <c r="B2" s="52" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B3" s="55"/>
       <c r="C3" s="56">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="D3" s="57">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>40.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="54" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B4" s="55"/>
       <c r="C4" s="56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="57">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="54" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B5" s="55"/>
       <c r="C5" s="56">
-        <v>0.75</v>
+        <v>3.5</v>
       </c>
       <c r="D5" s="57">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>108.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="54" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B6" s="55"/>
       <c r="C6" s="56"/>
       <c r="D6" s="57"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="54" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B7" s="55"/>
       <c r="C7" s="62">
         <v>0</v>
       </c>
       <c r="D7" s="57">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="54" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B8" s="55"/>
       <c r="C8" s="62">
@@ -9314,9 +10552,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="54" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B9" s="55"/>
       <c r="C9" s="62">
@@ -9326,9 +10564,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B10" s="55"/>
       <c r="C10" s="56">
@@ -9337,67 +10575,76 @@
       <c r="D10" s="57">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="54" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B11" s="55"/>
       <c r="C11" s="62">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D11" s="57">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="54" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B12" s="56">
         <f>B13</f>
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="C12" s="56">
         <f t="shared" ref="C12:D12" si="0">C13</f>
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="D12" s="57">
         <f t="shared" si="0"/>
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B13" s="56">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="C13" s="56">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="D13" s="57">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="54" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B14" s="55"/>
       <c r="C14" s="56">
         <f>C3</f>
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="D14" s="57">
         <f>D3</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>40.75</v>
+      </c>
+      <c r="E14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="58" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B15" s="59"/>
       <c r="C15" s="60">
@@ -9407,74 +10654,74 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="85" t="s">
-        <v>107</v>
-      </c>
-      <c r="B17" s="83" t="s">
-        <v>142</v>
-      </c>
-      <c r="C17" s="83"/>
-      <c r="D17" s="84"/>
+      <c r="A17" s="88" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="86" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="86"/>
+      <c r="D17" s="87"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="86"/>
+      <c r="A18" s="89"/>
       <c r="B18" s="52" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C18" s="52" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D18" s="53" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="54" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B19" s="64"/>
       <c r="C19" s="65">
         <f>C3*'Conversion Factors'!$A$38</f>
-        <v>1.86</v>
+        <v>2.5575000000000001</v>
       </c>
       <c r="D19" s="66">
         <f>D3*'Conversion Factors'!$A$38</f>
-        <v>37.200000000000003</v>
+        <v>37.897500000000001</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="54" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B20" s="64"/>
       <c r="C20" s="65">
         <f>C4*'Conversion Factors'!$A$38</f>
-        <v>1.86</v>
+        <v>2.79</v>
       </c>
       <c r="D20" s="66">
         <f>D4*'Conversion Factors'!$A$38</f>
-        <v>5.1150000000000002</v>
+        <v>10.23</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="54" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B21" s="64"/>
       <c r="C21" s="65">
         <f>C5*'Conversion Factors'!$A$38</f>
-        <v>0.69750000000000001</v>
+        <v>3.2550000000000003</v>
       </c>
       <c r="D21" s="66">
         <f>D5*'Conversion Factors'!$A$38</f>
-        <v>125.55000000000001</v>
+        <v>100.905</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="54" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B22" s="64"/>
       <c r="C22" s="65">
@@ -9488,7 +10735,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="54" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B23" s="64"/>
       <c r="C23" s="65">
@@ -9497,12 +10744,12 @@
       </c>
       <c r="D23" s="66">
         <f>D7*'Conversion Factors'!$A$38</f>
-        <v>27.900000000000002</v>
+        <v>26.040000000000003</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="54" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B24" s="64"/>
       <c r="C24" s="65">
@@ -9516,7 +10763,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="54" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B25" s="64"/>
       <c r="C25" s="65">
@@ -9530,7 +10777,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="54" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B26" s="64"/>
       <c r="C26" s="65">
@@ -9544,12 +10791,12 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="54" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B27" s="64"/>
       <c r="C27" s="65">
         <f>C11*'Conversion Factors'!$A$38</f>
-        <v>27.900000000000002</v>
+        <v>22.32</v>
       </c>
       <c r="D27" s="66">
         <f>D11*'Conversion Factors'!$A$38</f>
@@ -9558,55 +10805,55 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="54" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B28" s="65">
         <f>B12*'Conversion Factors'!$A$38</f>
-        <v>697.5</v>
+        <v>651</v>
       </c>
       <c r="C28" s="65">
         <f>C12*'Conversion Factors'!$A$38</f>
-        <v>4.6500000000000004</v>
+        <v>4.4175000000000004</v>
       </c>
       <c r="D28" s="66">
         <f>D12*'Conversion Factors'!$A$38</f>
-        <v>4.3710000000000004</v>
+        <v>5.1150000000000002</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="54" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B29" s="65">
         <f>B13*'Conversion Factors'!$A$38</f>
-        <v>697.5</v>
+        <v>651</v>
       </c>
       <c r="C29" s="65">
         <f>C13*'Conversion Factors'!$A$38</f>
-        <v>4.6500000000000004</v>
+        <v>4.4175000000000004</v>
       </c>
       <c r="D29" s="66">
         <f>D13*'Conversion Factors'!$A$38</f>
-        <v>4.3710000000000004</v>
+        <v>5.1150000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="54" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B30" s="64"/>
       <c r="C30" s="65">
         <f>C14*'Conversion Factors'!$A$38</f>
-        <v>1.86</v>
+        <v>2.5575000000000001</v>
       </c>
       <c r="D30" s="66">
         <f>D14*'Conversion Factors'!$A$38</f>
-        <v>37.200000000000003</v>
+        <v>37.897500000000001</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="58" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B31" s="67"/>
       <c r="C31" s="68">
@@ -9633,7 +10880,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9642,7 +10891,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B1" s="51"/>
       <c r="C1" s="51"/>
@@ -9654,7 +10903,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B2" s="20">
         <v>2017</v>
@@ -9680,7 +10929,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B3" s="4">
         <f>IESS!B48</f>
@@ -9713,7 +10962,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B4" s="4">
         <f>IESS!B49</f>
@@ -9746,7 +10995,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B5" s="4">
         <f>IESS!B50</f>
@@ -9779,48 +11028,48 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B6" s="4">
         <f>IESS!B51</f>
-        <v>2202214.2744804751</v>
+        <v>2202214.2744804788</v>
       </c>
       <c r="C6" s="4">
         <f>IESS!C51</f>
-        <v>2083366.6383679044</v>
+        <v>2083366.6383678985</v>
       </c>
       <c r="D6" s="4">
         <f>IESS!D51</f>
-        <v>1646423.2823553619</v>
+        <v>1646423.2823553607</v>
       </c>
       <c r="E6" s="4">
         <f>IESS!E51</f>
-        <v>1732961.2144291711</v>
+        <v>1732961.2144291729</v>
       </c>
       <c r="F6" s="4">
         <f>IESS!F51</f>
-        <v>1774302.9291322154</v>
+        <v>1774302.9291322213</v>
       </c>
       <c r="G6" s="4">
         <f>IESS!G51</f>
-        <v>1539851.4211733127</v>
+        <v>1539851.4211733097</v>
       </c>
       <c r="H6" s="4">
         <f>IESS!H51</f>
-        <v>1536729.353052157</v>
+        <v>1536729.3530521572</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B7" s="4">
         <f>IESS!B52</f>
-        <v>1086361.1466131096</v>
+        <v>1086361.1466131094</v>
       </c>
       <c r="C7" s="4">
         <f>IESS!C52</f>
-        <v>1086361.1466131096</v>
+        <v>1086361.1466131094</v>
       </c>
       <c r="D7" s="4">
         <f>IESS!D52</f>
@@ -9845,7 +11094,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B8" s="4">
         <f>IESS!B53</f>
@@ -9878,7 +11127,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B9" s="4">
         <f>IESS!B54</f>
@@ -9911,7 +11160,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B10" s="4">
         <f>IESS!B55</f>
@@ -9944,7 +11193,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B11" s="4">
         <f>Geothermal!$A$2</f>
@@ -9977,7 +11226,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -9989,7 +11238,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -10001,7 +11250,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -10013,7 +11262,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B15" s="4">
         <f>IESS!B60</f>
@@ -10025,11 +11274,11 @@
       </c>
       <c r="D15" s="4">
         <f>IESS!D60</f>
-        <v>2583531.1301807561</v>
+        <v>2583531.1301807556</v>
       </c>
       <c r="E15" s="4">
         <f>IESS!E60</f>
-        <v>2537885.7038524742</v>
+        <v>2537885.7038524733</v>
       </c>
       <c r="F15" s="4">
         <f>IESS!F60</f>
@@ -10053,12 +11302,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="90.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -10069,42 +11320,42 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" t="s">
         <v>107</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>108</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>109</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>110</v>
-      </c>
-      <c r="E1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C2">
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E2">
         <v>2016</v>
@@ -10114,13 +11365,13 @@
         <v>1744894.3304591603</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -10145,65 +11396,65 @@
       <c r="A1" s="22"/>
       <c r="B1" s="22"/>
       <c r="C1" s="23" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="94" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="94" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="F2" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="91" t="s">
+      <c r="G2" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="91" t="s">
+      <c r="H2" s="90" t="s">
         <v>40</v>
-      </c>
-      <c r="E2" s="91" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="93" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="87" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="88"/>
+        <v>41</v>
+      </c>
+      <c r="B3" s="93"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="91"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B4" s="25">
         <v>1000</v>
@@ -10217,7 +11468,7 @@
     </row>
     <row r="5" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B5" s="25">
         <v>1000</v>
@@ -10243,10 +11494,10 @@
     </row>
     <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C6" s="29">
         <v>3641</v>
@@ -10269,7 +11520,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B7" s="31"/>
       <c r="C7" s="31"/>
@@ -10281,7 +11532,7 @@
     </row>
     <row r="8" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B8" s="33">
         <v>1000</v>
@@ -10307,7 +11558,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B9" s="31"/>
       <c r="C9" s="31"/>
@@ -10319,7 +11570,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B10" s="33">
         <v>1000</v>
@@ -10345,7 +11596,7 @@
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B11" s="31"/>
       <c r="C11" s="31"/>
@@ -10357,7 +11608,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B12" s="33">
         <v>1000</v>
@@ -10383,7 +11634,7 @@
     </row>
     <row r="13" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B13" s="33">
         <v>1000</v>
@@ -10409,7 +11660,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B14" s="33">
         <v>1000</v>
@@ -10435,7 +11686,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B15" s="33">
         <v>1000</v>
@@ -10461,7 +11712,7 @@
     </row>
     <row r="16" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B16" s="33">
         <v>1000</v>
@@ -10487,7 +11738,7 @@
     </row>
     <row r="17" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B17" s="33">
         <v>1000</v>
@@ -10513,7 +11764,7 @@
     </row>
     <row r="18" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B18" s="33">
         <v>1000</v>
@@ -10539,7 +11790,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B19" s="33">
         <v>1000</v>
@@ -10565,7 +11816,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B20" s="33">
         <v>1000</v>
@@ -10591,7 +11842,7 @@
     </row>
     <row r="21" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B21" s="33">
         <v>1000</v>
@@ -10617,7 +11868,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B22" s="33">
         <v>1000</v>
@@ -10643,7 +11894,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B23" s="33">
         <v>1000</v>
@@ -10669,7 +11920,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B24" s="33">
         <v>1000</v>
@@ -10695,7 +11946,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B25" s="33">
         <v>1000</v>
@@ -10721,19 +11972,19 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B26" s="33">
         <v>1000</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F26" s="37">
         <v>555</v>
@@ -10747,7 +11998,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B27" s="33">
         <v>1000</v>
@@ -10773,10 +12024,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="39" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B28" s="39" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C28" s="40">
         <v>3.73</v>
@@ -10799,7 +12050,7 @@
     </row>
     <row r="29" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B29" s="41">
         <v>1000</v>
@@ -10825,10 +12076,10 @@
     </row>
     <row r="30" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A30" s="39" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C30" s="40">
         <v>7.69</v>
@@ -10851,12 +12102,12 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="43" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="44" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B33" s="45">
         <f>D6/AVERAGE(C6,E6)</f>
@@ -10867,7 +12118,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="44" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B34" s="45">
         <f>D28/(AVERAGE(C28,E28))</f>
@@ -10878,7 +12129,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B35" s="45">
         <f>D10/AVERAGE(E10,C10)</f>
@@ -10905,7 +12156,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10915,7 +12168,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="70" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B1" s="71"/>
       <c r="C1" s="71"/>
@@ -10926,7 +12179,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="70" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="B2" s="71"/>
       <c r="C2" s="71"/>
@@ -10936,14 +12189,14 @@
       <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="95" t="s">
-        <v>146</v>
-      </c>
-      <c r="B3" s="95" t="s">
-        <v>147</v>
+      <c r="A3" s="98" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="98" t="s">
+        <v>142</v>
       </c>
       <c r="C3" s="82" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D3" s="79"/>
       <c r="E3" s="79"/>
@@ -10957,8 +12210,8 @@
       <c r="M3" s="79"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="95"/>
-      <c r="B4" s="95"/>
+      <c r="A4" s="98"/>
+      <c r="B4" s="98"/>
       <c r="C4" s="78">
         <v>2017</v>
       </c>
@@ -10998,7 +12251,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="73" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C5" s="74">
         <v>6.5</v>
@@ -11040,7 +12293,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="73" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C6" s="72">
         <v>10</v>
@@ -11082,7 +12335,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="73" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C7" s="74">
         <v>5.5</v>
@@ -11124,7 +12377,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="73" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C8" s="72">
         <v>6</v>
@@ -11166,7 +12419,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="73" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C9" s="74">
         <v>5.7</v>
@@ -11208,7 +12461,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="73" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C10" s="74">
         <v>6.5</v>
@@ -11250,7 +12503,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="76" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C11" s="72">
         <v>10</v>
@@ -11292,7 +12545,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="76" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C12" s="77"/>
       <c r="D12" s="77"/>
@@ -11322,7 +12575,7 @@
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="70" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B14" s="71"/>
       <c r="C14" s="71"/>
@@ -11339,7 +12592,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="70" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="B15" s="71"/>
       <c r="C15" s="71"/>
@@ -11355,14 +12608,14 @@
       <c r="M15" s="20"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="95" t="s">
-        <v>146</v>
-      </c>
-      <c r="B16" s="95" t="s">
-        <v>147</v>
+      <c r="A16" s="98" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16" s="98" t="s">
+        <v>142</v>
       </c>
       <c r="C16" s="82" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D16" s="79"/>
       <c r="E16" s="79"/>
@@ -11376,8 +12629,8 @@
       <c r="M16" s="79"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="95"/>
-      <c r="B17" s="95"/>
+      <c r="A17" s="98"/>
+      <c r="B17" s="98"/>
       <c r="C17" s="78">
         <v>2017</v>
       </c>
@@ -11417,7 +12670,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="73" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C18" s="72">
         <f>C5/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
@@ -11469,7 +12722,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="73" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C19" s="72">
         <f>C6/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
@@ -11521,7 +12774,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="73" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C20" s="72">
         <f>C7/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
@@ -11573,7 +12826,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="73" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C21" s="72">
         <f>C8/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
@@ -11625,7 +12878,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="73" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C22" s="72">
         <f>C9/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
@@ -11677,7 +12930,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="73" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C23" s="72">
         <f>C10/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
@@ -11729,7 +12982,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="76" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C24" s="72">
         <f>C11/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
@@ -11776,12 +13029,12 @@
         <v>2050623.6789584146</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="72">
         <v>8</v>
       </c>
       <c r="B25" s="76" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C25" s="72"/>
       <c r="D25" s="72"/>

--- a/InputData/elec/CCaMC/Capacity Construction and Maint Costs.xlsx
+++ b/InputData/elec/CCaMC/Capacity Construction and Maint Costs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="12"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
@@ -23,9 +23,9 @@
     <sheet name="CEA NEP" sheetId="22" r:id="rId9"/>
     <sheet name="IESS Annual Cap Costs" sheetId="23" r:id="rId10"/>
     <sheet name="Waste to Energy" sheetId="24" r:id="rId11"/>
-    <sheet name="CCaMC-BCCpUC" sheetId="6" r:id="rId12"/>
-    <sheet name="CCaMC-AFOaMCpUC" sheetId="7" r:id="rId13"/>
-    <sheet name="CCaMC-VOaMCpUC" sheetId="8" r:id="rId14"/>
+    <sheet name="CCaMC-AFOaMCpUC" sheetId="7" r:id="rId12"/>
+    <sheet name="CCaMC-VOaMCpUC" sheetId="8" r:id="rId13"/>
+    <sheet name="CCaMC-BCCpUC" sheetId="6" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1849,38 +1849,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="82.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="77.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="56.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="10.7109375" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.1328125" style="2"/>
+    <col min="2" max="2" width="82.73046875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.3984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="77.59765625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.73046875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="56.1328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="10.73046875" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
         <v>156</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="2">
         <v>2018</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="46" t="s">
         <v>175</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="3" t="s">
         <v>174</v>
       </c>
@@ -1925,16 +1925,16 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" s="2" t="s">
         <v>157</v>
       </c>
       <c r="D10" s="20"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B12" s="6" t="s">
         <v>162</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B13" s="20" t="s">
         <v>4</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B14" s="2">
         <v>2009</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B16" s="3" t="s">
         <v>8</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B17" s="20" t="s">
         <v>10</v>
       </c>
@@ -1982,10 +1982,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B18" s="20"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="7"/>
       <c r="B19" s="6" t="s">
         <v>163</v>
@@ -1994,7 +1994,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="7"/>
       <c r="B20" s="2" t="s">
         <v>158</v>
@@ -2003,7 +2003,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="7"/>
       <c r="B21" s="2">
         <v>2015</v>
@@ -2012,7 +2012,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="7"/>
       <c r="B22" s="47" t="s">
         <v>159</v>
@@ -2021,7 +2021,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="7"/>
       <c r="B23" s="47" t="s">
         <v>160</v>
@@ -2030,7 +2030,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="7"/>
       <c r="B24" s="20" t="s">
         <v>161</v>
@@ -2039,7 +2039,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="7"/>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
@@ -2047,54 +2047,54 @@
         <v>168</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="7"/>
       <c r="B26" s="6" t="s">
         <v>200</v>
       </c>
       <c r="D26" s="20"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="7"/>
       <c r="B27" s="2" t="s">
         <v>158</v>
       </c>
       <c r="D27" s="20"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="7"/>
       <c r="B28" s="2">
         <v>2015</v>
       </c>
       <c r="D28" s="20"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="7"/>
       <c r="B29" s="47" t="s">
         <v>159</v>
       </c>
       <c r="D29" s="20"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="7"/>
       <c r="B30" s="47" t="s">
         <v>160</v>
       </c>
       <c r="D30" s="20"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="7"/>
       <c r="B31" s="20" t="s">
         <v>201</v>
       </c>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="7"/>
       <c r="B32" s="20"/>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" s="7" t="s">
         <v>12</v>
       </c>
@@ -2107,7 +2107,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" s="10" t="s">
         <v>169</v>
       </c>
@@ -2120,7 +2120,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" s="10" t="s">
         <v>170</v>
       </c>
@@ -2133,7 +2133,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="11"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" s="10"/>
       <c r="D36" s="7"/>
       <c r="E36" s="11"/>
@@ -2144,7 +2144,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="11"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" s="10" t="s">
         <v>13</v>
       </c>
@@ -2157,7 +2157,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" s="10" t="s">
         <v>14</v>
       </c>
@@ -2170,7 +2170,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" s="10" t="s">
         <v>183</v>
       </c>
@@ -2183,7 +2183,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="11"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" s="10" t="s">
         <v>184</v>
       </c>
@@ -2196,7 +2196,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" s="10"/>
       <c r="D41" s="7"/>
       <c r="E41" s="11"/>
@@ -2207,7 +2207,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="11"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" s="10" t="s">
         <v>171</v>
       </c>
@@ -2220,7 +2220,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" s="10" t="s">
         <v>172</v>
       </c>
@@ -2233,7 +2233,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" s="10" t="s">
         <v>173</v>
       </c>
@@ -2246,7 +2246,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="11"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" s="10"/>
       <c r="D45" s="7"/>
       <c r="E45" s="11"/>
@@ -2257,7 +2257,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" s="10" t="s">
         <v>202</v>
       </c>
@@ -2270,7 +2270,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="11"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" s="10" t="s">
         <v>203</v>
       </c>
@@ -2284,7 +2284,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="11"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48" s="10" t="s">
         <v>204</v>
       </c>
@@ -2298,7 +2298,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="11"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49" s="10" t="s">
         <v>206</v>
       </c>
@@ -2312,7 +2312,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="11"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50" s="10" t="s">
         <v>207</v>
       </c>
@@ -2326,7 +2326,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="11"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51" s="20"/>
       <c r="B51" s="9"/>
       <c r="D51" s="7"/>
@@ -2338,7 +2338,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="11"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52" s="20"/>
       <c r="B52" s="9"/>
       <c r="D52" s="7"/>
@@ -2350,7 +2350,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="11"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53" s="18"/>
       <c r="B53" s="9"/>
       <c r="D53" s="7"/>
@@ -2362,7 +2362,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="11"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A55" s="21"/>
       <c r="B55" s="9"/>
       <c r="D55" s="7"/>
@@ -2374,7 +2374,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="11"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56" s="10"/>
       <c r="B56" s="9"/>
       <c r="D56" s="7"/>
@@ -2386,7 +2386,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="11"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A57" s="10"/>
       <c r="B57" s="9"/>
       <c r="D57" s="7"/>
@@ -2398,7 +2398,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="11"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A58" s="10"/>
       <c r="B58" s="9"/>
       <c r="D58" s="7"/>
@@ -2410,7 +2410,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="11"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A59" s="20"/>
       <c r="B59" s="9"/>
       <c r="D59" s="7"/>
@@ -2422,7 +2422,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="11"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A60" s="10"/>
       <c r="B60" s="9"/>
       <c r="D60" s="7"/>
@@ -2434,7 +2434,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="11"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A61" s="10"/>
       <c r="B61" s="9"/>
       <c r="D61" s="7"/>
@@ -2446,7 +2446,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="11"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A62" s="10"/>
       <c r="B62" s="9"/>
       <c r="D62" s="7"/>
@@ -2458,7 +2458,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="11"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A63" s="10"/>
       <c r="B63" s="9"/>
       <c r="D63" s="7"/>
@@ -2470,7 +2470,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="11"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A64" s="10"/>
       <c r="B64" s="9"/>
       <c r="D64" s="7"/>
@@ -2482,7 +2482,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="11"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A65" s="10"/>
       <c r="B65" s="9"/>
       <c r="D65" s="7"/>
@@ -2494,7 +2494,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="11"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A66" s="10"/>
       <c r="B66" s="9"/>
       <c r="D66" s="7"/>
@@ -2506,7 +2506,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="11"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A67" s="10"/>
       <c r="B67" s="9"/>
       <c r="D67" s="7"/>
@@ -2518,7 +2518,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="11"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A68" s="10"/>
       <c r="B68" s="9"/>
       <c r="D68" s="7"/>
@@ -2530,7 +2530,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="11"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A69" s="10"/>
       <c r="B69" s="9"/>
       <c r="D69" s="7"/>
@@ -2542,7 +2542,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="11"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A70" s="10"/>
       <c r="B70" s="9"/>
       <c r="D70" s="7"/>
@@ -2554,7 +2554,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="11"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A71" s="10"/>
       <c r="B71" s="9"/>
       <c r="D71" s="7"/>
@@ -2566,7 +2566,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="11"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A72" s="10"/>
       <c r="B72" s="9"/>
       <c r="D72" s="7"/>
@@ -2578,7 +2578,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="11"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A73" s="10"/>
       <c r="B73" s="9"/>
       <c r="D73" s="7"/>
@@ -2590,7 +2590,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="11"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A74" s="10"/>
       <c r="B74" s="9"/>
       <c r="D74" s="7"/>
@@ -2602,7 +2602,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="11"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A75" s="10"/>
       <c r="B75" s="9"/>
       <c r="D75" s="7"/>
@@ -2614,7 +2614,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="11"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A76" s="10"/>
       <c r="B76" s="9"/>
       <c r="D76" s="7"/>
@@ -2626,7 +2626,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="11"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A77" s="10"/>
       <c r="B77" s="9"/>
       <c r="D77" s="7"/>
@@ -2638,7 +2638,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="11"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A78" s="7"/>
       <c r="B78" s="9"/>
       <c r="D78" s="7"/>
@@ -2666,29 +2666,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="20"/>
-    <col min="2" max="2" width="17.28515625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="9.1328125" style="20"/>
+    <col min="2" max="2" width="17.265625" style="20" customWidth="1"/>
     <col min="3" max="3" width="31" style="20" customWidth="1"/>
-    <col min="4" max="5" width="17.28515625" style="20" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" style="20" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="20" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" style="20" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" style="20" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" style="20" customWidth="1"/>
-    <col min="12" max="12" width="28.140625" style="20" customWidth="1"/>
-    <col min="13" max="13" width="19.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="20"/>
+    <col min="4" max="5" width="17.265625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="23.1328125" style="20" customWidth="1"/>
+    <col min="7" max="7" width="17.265625" style="20" customWidth="1"/>
+    <col min="8" max="8" width="22.59765625" style="20" customWidth="1"/>
+    <col min="9" max="9" width="17.265625" style="20" customWidth="1"/>
+    <col min="10" max="10" width="22.3984375" style="20" customWidth="1"/>
+    <col min="11" max="11" width="20.86328125" style="20" customWidth="1"/>
+    <col min="12" max="12" width="28.1328125" style="20" customWidth="1"/>
+    <col min="13" max="13" width="19.1328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.1328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.1328125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
         <v>30</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>2016</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>2912178.1997443885</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2017</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>2875661.8586817603</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2018</v>
       </c>
@@ -2899,7 +2899,7 @@
         <v>2839145.5176191349</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>2019</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>2802629.1765565095</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>2020</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>2766112.835493884</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>2021</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>2729596.4944312586</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>2022</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>2693080.1533686323</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>2023</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>2671170.3487310568</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>2024</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>2649260.5440934813</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>2025</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>2627350.7394559057</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>2026</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>2605440.9348183302</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>2027</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>2583531.1301807556</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>2028</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>2574402.0449150992</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>2029</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>2565272.9596494427</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>2030</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>2556143.8743837862</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>2031</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>2547014.7891181298</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>2032</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>2537885.7038524733</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>2033</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>2532408.2526930794</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>2034</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>2526930.8015336855</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>2035</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>2521453.3503742917</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>2036</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>2515975.8992148978</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>2037</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>2510498.4480555048</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>2038</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>2506846.8139492422</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>2039</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>2503195.1798429796</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>2040</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>2499543.5457367171</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>2041</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>2495891.9116304545</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>2042</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>2492240.2775241924</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>2043</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>2490414.4604710611</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>2044</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>2488588.6434179298</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>2045</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>2486762.8263647985</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>2046</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>2484937.0093116672</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>2047</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>2483111.1922585354</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>2048</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>2481285.3752054041</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>2049</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>2479459.5581522728</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>2050</v>
       </c>
@@ -4659,43 +4659,43 @@
         <v>2477633.7410991415</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B37" s="12"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B38" s="12"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B39" s="12"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B40" s="12"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B41" s="12"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B42" s="12"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B43" s="12"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B44" s="12"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B45" s="12"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B46" s="12"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B47" s="12"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B48" s="12"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B49" s="12"/>
     </row>
   </sheetData>
@@ -4711,19 +4711,19 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.59765625" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C2" s="1">
         <v>2017</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>189</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C4">
         <f>C3*10^7</f>
         <v>164050000</v>
@@ -4808,7 +4808,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C5">
         <f>C4/'Conversion Factors'!$B$6</f>
         <v>2995252.8756618584</v>
@@ -4841,12 +4841,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="20">
         <v>0.06</v>
       </c>
@@ -4854,12 +4854,12 @@
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="85" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>195</v>
       </c>
@@ -4867,7 +4867,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="20">
         <v>2017</v>
       </c>
@@ -4876,7 +4876,7 @@
         <v>2995252.8756618584</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12">
         <f>A11+1</f>
         <v>2018</v>
@@ -4886,7 +4886,7 @@
         <v>2974456.819426693</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="20">
         <f t="shared" ref="A13:A44" si="1">A12+1</f>
         <v>2019</v>
@@ -4896,7 +4896,7 @@
         <v>2953660.7631915286</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="20">
         <f t="shared" si="1"/>
         <v>2020</v>
@@ -4906,7 +4906,7 @@
         <v>2932864.7069563642</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="20">
         <f t="shared" si="1"/>
         <v>2021</v>
@@ -4916,7 +4916,7 @@
         <v>2912068.6507211998</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="20">
         <f t="shared" si="1"/>
         <v>2022</v>
@@ -4926,7 +4926,7 @@
         <v>2891272.5944860321</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="20">
         <f t="shared" si="1"/>
         <v>2023</v>
@@ -4936,7 +4936,7 @@
         <v>2871352.9304363653</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="20">
         <f t="shared" si="1"/>
         <v>2024</v>
@@ -4946,7 +4946,7 @@
         <v>2851433.2663867027</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="20">
         <f t="shared" si="1"/>
         <v>2025</v>
@@ -4956,7 +4956,7 @@
         <v>2831513.6023370475</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="20">
         <f t="shared" si="1"/>
         <v>2026</v>
@@ -4966,7 +4966,7 @@
         <v>2811593.9382873848</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="20">
         <f t="shared" si="1"/>
         <v>2027</v>
@@ -4976,7 +4976,7 @@
         <v>2791674.2742377212</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="20">
         <f t="shared" si="1"/>
         <v>2028</v>
@@ -4986,7 +4986,7 @@
         <v>2772612.7442030236</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="20">
         <f t="shared" si="1"/>
         <v>2029</v>
@@ -4996,7 +4996,7 @@
         <v>2753551.21416834</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="20">
         <f t="shared" si="1"/>
         <v>2030</v>
@@ -5006,7 +5006,7 @@
         <v>2734489.6841336489</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="20">
         <f t="shared" si="1"/>
         <v>2031</v>
@@ -5016,7 +5016,7 @@
         <v>2715428.1540989578</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="20">
         <f t="shared" si="1"/>
         <v>2032</v>
@@ -5026,7 +5026,7 @@
         <v>2696366.6240642685</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="20">
         <f t="shared" si="1"/>
         <v>2033</v>
@@ -5036,7 +5036,7 @@
         <v>2678071.9371918961</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="20">
         <f t="shared" si="1"/>
         <v>2034</v>
@@ -5046,7 +5046,7 @@
         <v>2659777.2503195181</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="20">
         <f t="shared" si="1"/>
         <v>2035</v>
@@ -5056,7 +5056,7 @@
         <v>2641482.5634471402</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="20">
         <f t="shared" si="1"/>
         <v>2036</v>
@@ -5066,7 +5066,7 @@
         <v>2623187.8765747696</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="20">
         <f t="shared" si="1"/>
         <v>2037</v>
@@ -5076,7 +5076,7 @@
         <v>2604893.1897023916</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="20">
         <f t="shared" si="1"/>
         <v>2038</v>
@@ -5086,7 +5086,7 @@
         <v>2587401.8623333946</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="20">
         <f t="shared" si="1"/>
         <v>2039</v>
@@ -5096,7 +5096,7 @@
         <v>2569910.5349643975</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="20">
         <f t="shared" si="1"/>
         <v>2040</v>
@@ -5106,7 +5106,7 @@
         <v>2552419.2075954005</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="20">
         <f t="shared" si="1"/>
         <v>2041</v>
@@ -5116,7 +5116,7 @@
         <v>2534927.8802264035</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="20">
         <f t="shared" si="1"/>
         <v>2042</v>
@@ -5126,7 +5126,7 @@
         <v>2517436.5528574036</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="20">
         <f t="shared" si="1"/>
         <v>2043</v>
@@ -5136,7 +5136,7 @@
         <v>2500639.0359685943</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="20">
         <f t="shared" si="1"/>
         <v>2044</v>
@@ -5146,7 +5146,7 @@
         <v>2483841.5190797895</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="20">
         <f t="shared" si="1"/>
         <v>2045</v>
@@ -5156,7 +5156,7 @@
         <v>2467044.0021909773</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="20">
         <f t="shared" si="1"/>
         <v>2046</v>
@@ -5166,7 +5166,7 @@
         <v>2450246.4853021726</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="20">
         <f t="shared" si="1"/>
         <v>2047</v>
@@ -5176,7 +5176,7 @@
         <v>2433448.9684133651</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" s="20">
         <f t="shared" si="1"/>
         <v>2048</v>
@@ -5186,7 +5186,7 @@
         <v>2416651.4515245557</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" s="20">
         <f t="shared" si="1"/>
         <v>2049</v>
@@ -5196,7 +5196,7 @@
         <v>2399853.9346357509</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" s="20">
         <f t="shared" si="1"/>
         <v>2050</v>
@@ -5206,52 +5206,52 @@
         <v>2383056.4177469388</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" s="20"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" s="20"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" s="20"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" s="20"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49" s="20"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50" s="20"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51" s="20"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52" s="20"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" s="20"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A54" s="20"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A55" s="20"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A56" s="20"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A57" s="20"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A58" s="20"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A59" s="20"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A60" s="20"/>
     </row>
   </sheetData>
@@ -5264,30 +5264,623 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q35" sqref="Q35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" customWidth="1"/>
-    <col min="12" max="12" width="28.140625" customWidth="1"/>
-    <col min="13" max="13" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="33.265625" customWidth="1"/>
+    <col min="2" max="2" width="23.1328125" customWidth="1"/>
+    <col min="3" max="3" width="28.59765625" customWidth="1"/>
+    <col min="4" max="4" width="23.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="4">
+        <f>Lazard!D19*10^3</f>
+        <v>37897.5</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <f>B2</f>
+        <v>37897.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="4">
+        <f>Lazard!D20*10^3</f>
+        <v>10230</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:D14" si="0">B3</f>
+        <v>10230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4">
+        <f>Lazard!D21*10^3</f>
+        <v>100905</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>100905</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="4">
+        <f>Lazard!D23*10^3</f>
+        <v>26040.000000000004</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>26040.000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="4">
+        <f>Lazard!D24*10^3</f>
+        <v>8370.0000000000018</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>8370.0000000000018</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="4">
+        <f>Lazard!D25*10^3</f>
+        <v>69750</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>69750</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="4">
+        <f>Lazard!D26*10^3</f>
+        <v>46500</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>46500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="4">
+        <f>Lazard!D28*10^3</f>
+        <v>5115</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>5115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="4">
+        <f>Lazard!D29*10^3</f>
+        <v>5115</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>5115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="4">
+        <f>B2*'Coal Cost Multipliers'!$B$35</f>
+        <v>37897.5</v>
+      </c>
+      <c r="C13" s="4">
+        <f>C2*'Coal Cost Multipliers'!$B$35</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <f>D2*'Coal Cost Multipliers'!$B$35</f>
+        <v>37897.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="4">
+        <f>Lazard!D31*10^3</f>
+        <v>74400</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>74400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="B15" s="4">
+        <f>B11</f>
+        <v>5115</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" ref="C15:D15" si="1">C11</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="1"/>
+        <v>5115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="B16" s="4">
+        <f>B11</f>
+        <v>5115</v>
+      </c>
+      <c r="C16" s="4">
+        <f t="shared" ref="C16:D16" si="2">C11</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="2"/>
+        <v>5115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="B17" s="4">
+        <f>'Waste to Energy'!A8*'CCaMC-BCCpUC'!Q2</f>
+        <v>178467.40916560157</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <f>B17</f>
+        <v>178467.40916560157</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="33.265625" style="20" customWidth="1"/>
+    <col min="2" max="4" width="24" style="20" customWidth="1"/>
+    <col min="5" max="16384" width="9.1328125" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="16">
+        <f>Lazard!C19</f>
+        <v>2.5575000000000001</v>
+      </c>
+      <c r="C2" s="20">
+        <v>0</v>
+      </c>
+      <c r="D2" s="16">
+        <f>B2</f>
+        <v>2.5575000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="16">
+        <f>Lazard!C20</f>
+        <v>2.79</v>
+      </c>
+      <c r="C3" s="20">
+        <v>0</v>
+      </c>
+      <c r="D3" s="16">
+        <f t="shared" ref="D3:D14" si="0">B3</f>
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="16">
+        <f>Lazard!C21</f>
+        <v>3.2550000000000003</v>
+      </c>
+      <c r="C4" s="20">
+        <v>0</v>
+      </c>
+      <c r="D4" s="16">
+        <f t="shared" si="0"/>
+        <v>3.2550000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="16">
+        <f>Lazard!C22</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="20">
+        <v>0</v>
+      </c>
+      <c r="D5" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="4">
+        <f>Lazard!C23</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="20">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="4">
+        <f>Lazard!C24</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="20">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="4">
+        <f>Lazard!C25</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="20">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="16">
+        <f>Lazard!C26</f>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C9" s="20">
+        <v>0</v>
+      </c>
+      <c r="D9" s="16">
+        <f t="shared" si="0"/>
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="4">
+        <f>Lazard!C27</f>
+        <v>22.32</v>
+      </c>
+      <c r="C10" s="20">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>22.32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="16">
+        <f>Lazard!C28</f>
+        <v>4.4175000000000004</v>
+      </c>
+      <c r="C11" s="20">
+        <v>0</v>
+      </c>
+      <c r="D11" s="16">
+        <f t="shared" si="0"/>
+        <v>4.4175000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="16">
+        <f>Lazard!C29</f>
+        <v>4.4175000000000004</v>
+      </c>
+      <c r="C12" s="20">
+        <v>0</v>
+      </c>
+      <c r="D12" s="16">
+        <f t="shared" si="0"/>
+        <v>4.4175000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="16">
+        <f>B2*'Coal Cost Multipliers'!$B$34</f>
+        <v>4.3327058823529416</v>
+      </c>
+      <c r="C13" s="4">
+        <f>C2*'Coal Cost Multipliers'!$B$34</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="16">
+        <f>D2*'Coal Cost Multipliers'!$B$34</f>
+        <v>4.3327058823529416</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="20">
+        <f>Lazard!C31</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="20">
+        <v>0</v>
+      </c>
+      <c r="D14" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="B15" s="16">
+        <f>B11</f>
+        <v>4.4175000000000004</v>
+      </c>
+      <c r="C15" s="20">
+        <f t="shared" ref="C15:D15" si="1">C11</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="16">
+        <f t="shared" si="1"/>
+        <v>4.4175000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="B16" s="16">
+        <f>B11</f>
+        <v>4.4175000000000004</v>
+      </c>
+      <c r="C16" s="20">
+        <f t="shared" ref="C16:D16" si="2">C11</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="16">
+        <f t="shared" si="2"/>
+        <v>4.4175000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="B17" s="16">
+        <f>B9</f>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C17" s="20">
+        <f t="shared" ref="C17:D17" si="3">C9</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="16">
+        <f t="shared" si="3"/>
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:Q47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="17.265625" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="5" width="17.265625" customWidth="1"/>
+    <col min="6" max="6" width="23.1328125" customWidth="1"/>
+    <col min="7" max="7" width="17.265625" customWidth="1"/>
+    <col min="8" max="8" width="22.59765625" customWidth="1"/>
+    <col min="9" max="9" width="17.265625" customWidth="1"/>
+    <col min="10" max="10" width="22.3984375" customWidth="1"/>
+    <col min="11" max="11" width="20.86328125" customWidth="1"/>
+    <col min="12" max="12" width="28.1328125" customWidth="1"/>
+    <col min="13" max="13" width="19.1328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.1328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.73046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="57" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
         <v>30</v>
       </c>
@@ -5340,32 +5933,32 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B2" s="4">
         <f>INDEX('CEA NEP'!$C$18:$M$18,1,MATCH($A2,'CEA NEP'!$C$17:$M$17,0))</f>
-        <v>908799.13044747908</v>
+        <v>945151.09566537838</v>
       </c>
       <c r="C2" s="4">
-        <f>'IESS Annual Cap Costs'!C3</f>
-        <v>689989.30592868885</v>
+        <f>'IESS Annual Cap Costs'!C4</f>
+        <v>697021.3098933202</v>
       </c>
       <c r="D2" s="4">
         <f>INDEX('CEA NEP'!$C$24:$M$24,1,MATCH($A2,'CEA NEP'!$C$17:$M$17,0))</f>
-        <v>1398152.5083807372</v>
+        <v>1454078.6087159668</v>
       </c>
       <c r="E2" s="4">
         <f>INDEX('CEA NEP'!$C$19:$M$19,1,MATCH($A2,'CEA NEP'!$C$17:$M$17,0))</f>
-        <v>1398152.5083807372</v>
+        <v>1454078.6087159668</v>
       </c>
       <c r="F2" s="19">
-        <f>'CEA NEP'!C21</f>
+        <f>'CEA NEP'!D21</f>
         <v>838891.50502844236</v>
       </c>
       <c r="G2" s="19">
-        <f>'CEA NEP'!C20</f>
+        <f>'CEA NEP'!D20</f>
         <v>768983.87960940553</v>
       </c>
       <c r="H2" s="4">
@@ -5377,7 +5970,7 @@
         <v>796946.92977702012</v>
       </c>
       <c r="J2" s="4">
-        <f>'IESS Annual Cap Costs'!J3</f>
+        <f>'IESS Annual Cap Costs'!J4</f>
         <v>5020996.8961110096</v>
       </c>
       <c r="K2" s="4">
@@ -5390,44 +5983,44 @@
       </c>
       <c r="M2" s="4">
         <f>B2*'Coal Cost Multipliers'!$B$33</f>
-        <v>1053245.7366232371</v>
+        <v>1095375.5660881668</v>
       </c>
       <c r="N2" s="19">
-        <f>'IESS Annual Cap Costs'!N3</f>
-        <v>2875661.8586817603</v>
+        <f>'IESS Annual Cap Costs'!N4</f>
+        <v>2839145.5176191349</v>
       </c>
       <c r="O2" s="4">
-        <f>K2</f>
+        <f t="shared" ref="O2:O34" si="0">K2</f>
         <v>651000</v>
       </c>
       <c r="P2" s="4">
-        <f>K2</f>
+        <f t="shared" ref="P2:P34" si="1">K2</f>
         <v>651000</v>
       </c>
       <c r="Q2" s="4">
-        <f>'Waste to Energy'!B11</f>
-        <v>2995252.8756618584</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+        <f>'Waste to Energy'!B12</f>
+        <v>2974456.819426693</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B3" s="4">
         <f>INDEX('CEA NEP'!$C$18:$M$18,1,MATCH($A3,'CEA NEP'!$C$17:$M$17,0))</f>
-        <v>945151.09566537838</v>
+        <v>982901.21339165827</v>
       </c>
       <c r="C3" s="4">
-        <f>'IESS Annual Cap Costs'!C4</f>
-        <v>697021.3098933202</v>
+        <f>'IESS Annual Cap Costs'!C5</f>
+        <v>704053.31385795155</v>
       </c>
       <c r="D3" s="4">
         <f>INDEX('CEA NEP'!$C$24:$M$24,1,MATCH($A3,'CEA NEP'!$C$17:$M$17,0))</f>
-        <v>1454078.6087159668</v>
+        <v>1510004.7090511965</v>
       </c>
       <c r="E3" s="4">
         <f>INDEX('CEA NEP'!$C$19:$M$19,1,MATCH($A3,'CEA NEP'!$C$17:$M$17,0))</f>
-        <v>1454078.6087159668</v>
+        <v>1510004.7090511965</v>
       </c>
       <c r="F3" s="4">
         <v>0</v>
@@ -5436,64 +6029,64 @@
         <v>0</v>
       </c>
       <c r="H3" s="4">
-        <f>H2*'IESS Annual Cap Costs'!H4/'IESS Annual Cap Costs'!H3</f>
-        <v>1764390.4651612157</v>
+        <f>H2*'IESS Annual Cap Costs'!H5/'IESS Annual Cap Costs'!H4</f>
+        <v>1764175.0370709908</v>
       </c>
       <c r="I3" s="4">
         <f>INDEX('CEA NEP'!$C$22:$M$22,1,MATCH($A3,'CEA NEP'!$C$17:$M$17,0))</f>
         <v>796946.92977702012</v>
       </c>
       <c r="J3" s="4">
-        <f>'IESS Annual Cap Costs'!J4</f>
+        <f>'IESS Annual Cap Costs'!J5</f>
         <v>5020996.8961110096</v>
       </c>
       <c r="K3" s="4">
-        <f t="shared" ref="K3:K35" si="0">L3</f>
+        <f t="shared" ref="K3:K34" si="2">L3</f>
         <v>651000</v>
       </c>
       <c r="L3" s="4">
-        <f>L$2</f>
+        <f t="shared" ref="L3:L34" si="3">L$2</f>
         <v>651000</v>
       </c>
       <c r="M3" s="4">
         <f>B3*'Coal Cost Multipliers'!$B$33</f>
-        <v>1095375.5660881668</v>
+        <v>1139125.7736094396</v>
       </c>
       <c r="N3" s="4">
         <v>0</v>
       </c>
       <c r="O3" s="4">
-        <f t="shared" ref="O3:O35" si="1">K3</f>
+        <f t="shared" si="0"/>
         <v>651000</v>
       </c>
       <c r="P3" s="4">
-        <f t="shared" ref="P3:P35" si="2">K3</f>
+        <f t="shared" si="1"/>
         <v>651000</v>
       </c>
       <c r="Q3" s="4">
-        <f>'Waste to Energy'!B12</f>
-        <v>2974456.819426693</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+        <f>'Waste to Energy'!B13</f>
+        <v>2953660.7631915286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B4" s="4">
         <f>INDEX('CEA NEP'!$C$18:$M$18,1,MATCH($A4,'CEA NEP'!$C$17:$M$17,0))</f>
-        <v>982901.21339165827</v>
+        <v>1022049.483626319</v>
       </c>
       <c r="C4" s="4">
-        <f>'IESS Annual Cap Costs'!C5</f>
-        <v>704053.31385795155</v>
+        <f>'IESS Annual Cap Costs'!C6</f>
+        <v>711085.3178225829</v>
       </c>
       <c r="D4" s="4">
         <f>INDEX('CEA NEP'!$C$24:$M$24,1,MATCH($A4,'CEA NEP'!$C$17:$M$17,0))</f>
-        <v>1510004.7090511965</v>
+        <v>1565930.8093864257</v>
       </c>
       <c r="E4" s="4">
         <f>INDEX('CEA NEP'!$C$19:$M$19,1,MATCH($A4,'CEA NEP'!$C$17:$M$17,0))</f>
-        <v>1510004.7090511965</v>
+        <v>1565930.8093864257</v>
       </c>
       <c r="F4" s="4">
         <v>0</v>
@@ -5502,64 +6095,64 @@
         <v>0</v>
       </c>
       <c r="H4" s="4">
-        <f>H3*'IESS Annual Cap Costs'!H5/'IESS Annual Cap Costs'!H4</f>
-        <v>1783886.599863271</v>
+        <f>H3*'IESS Annual Cap Costs'!H6/'IESS Annual Cap Costs'!H5</f>
+        <v>1783455.7436828213</v>
       </c>
       <c r="I4" s="4">
         <f>INDEX('CEA NEP'!$C$22:$M$22,1,MATCH($A4,'CEA NEP'!$C$17:$M$17,0))</f>
         <v>796946.92977702012</v>
       </c>
       <c r="J4" s="4">
-        <f>'IESS Annual Cap Costs'!J5</f>
+        <f>'IESS Annual Cap Costs'!J6</f>
         <v>5020996.8961110096</v>
       </c>
       <c r="K4" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>651000</v>
       </c>
       <c r="L4" s="4">
-        <f t="shared" ref="L4:L35" si="3">L$2</f>
+        <f t="shared" si="3"/>
         <v>651000</v>
       </c>
       <c r="M4" s="4">
         <f>B4*'Coal Cost Multipliers'!$B$33</f>
-        <v>1139125.7736094396</v>
+        <v>1184496.3591870561</v>
       </c>
       <c r="N4" s="4">
         <v>0</v>
       </c>
       <c r="O4" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>651000</v>
       </c>
       <c r="P4" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>651000</v>
       </c>
       <c r="Q4" s="4">
-        <f>'Waste to Energy'!B13</f>
-        <v>2953660.7631915286</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <f>'Waste to Energy'!B14</f>
+        <v>2932864.7069563642</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B5" s="4">
         <f>INDEX('CEA NEP'!$C$18:$M$18,1,MATCH($A5,'CEA NEP'!$C$17:$M$17,0))</f>
-        <v>1022049.483626319</v>
+        <v>1062595.9063693604</v>
       </c>
       <c r="C5" s="4">
-        <f>'IESS Annual Cap Costs'!C6</f>
-        <v>711085.3178225829</v>
+        <f>'IESS Annual Cap Costs'!C7</f>
+        <v>718117.32178721426</v>
       </c>
       <c r="D5" s="4">
         <f>INDEX('CEA NEP'!$C$24:$M$24,1,MATCH($A5,'CEA NEP'!$C$17:$M$17,0))</f>
-        <v>1565930.8093864257</v>
+        <v>1635838.4348054626</v>
       </c>
       <c r="E5" s="4">
         <f>INDEX('CEA NEP'!$C$19:$M$19,1,MATCH($A5,'CEA NEP'!$C$17:$M$17,0))</f>
-        <v>1565930.8093864257</v>
+        <v>1635838.4348054626</v>
       </c>
       <c r="F5" s="4">
         <v>0</v>
@@ -5568,19 +6161,19 @@
         <v>0</v>
       </c>
       <c r="H5" s="4">
-        <f>H4*'IESS Annual Cap Costs'!H6/'IESS Annual Cap Costs'!H5</f>
-        <v>1803382.7345653265</v>
+        <f>H4*'IESS Annual Cap Costs'!H7/'IESS Annual Cap Costs'!H6</f>
+        <v>1802736.4502946518</v>
       </c>
       <c r="I5" s="4">
         <f>INDEX('CEA NEP'!$C$22:$M$22,1,MATCH($A5,'CEA NEP'!$C$17:$M$17,0))</f>
         <v>796946.92977702012</v>
       </c>
       <c r="J5" s="4">
-        <f>'IESS Annual Cap Costs'!J6</f>
+        <f>'IESS Annual Cap Costs'!J7</f>
         <v>5020996.8961110096</v>
       </c>
       <c r="K5" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>651000</v>
       </c>
       <c r="L5" s="4">
@@ -5589,43 +6182,43 @@
       </c>
       <c r="M5" s="4">
         <f>B5*'Coal Cost Multipliers'!$B$33</f>
-        <v>1184496.3591870561</v>
+        <v>1231487.322821016</v>
       </c>
       <c r="N5" s="4">
         <v>0</v>
       </c>
       <c r="O5" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>651000</v>
       </c>
       <c r="P5" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>651000</v>
       </c>
       <c r="Q5" s="4">
-        <f>'Waste to Energy'!B14</f>
-        <v>2932864.7069563642</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <f>'Waste to Energy'!B15</f>
+        <v>2912068.6507211998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B6" s="4">
         <f>INDEX('CEA NEP'!$C$18:$M$18,1,MATCH($A6,'CEA NEP'!$C$17:$M$17,0))</f>
-        <v>1062595.9063693604</v>
+        <v>1104540.4816207823</v>
       </c>
       <c r="C6" s="4">
-        <f>'IESS Annual Cap Costs'!C7</f>
-        <v>718117.32178721426</v>
+        <f>'IESS Annual Cap Costs'!C8</f>
+        <v>725149.32575184549</v>
       </c>
       <c r="D6" s="4">
         <f>INDEX('CEA NEP'!$C$24:$M$24,1,MATCH($A6,'CEA NEP'!$C$17:$M$17,0))</f>
-        <v>1635838.4348054626</v>
+        <v>1705746.0602244993</v>
       </c>
       <c r="E6" s="4">
         <f>INDEX('CEA NEP'!$C$19:$M$19,1,MATCH($A6,'CEA NEP'!$C$17:$M$17,0))</f>
-        <v>1635838.4348054626</v>
+        <v>1705746.0602244993</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
@@ -5634,19 +6227,19 @@
         <v>0</v>
       </c>
       <c r="H6" s="4">
-        <f>H5*'IESS Annual Cap Costs'!H7/'IESS Annual Cap Costs'!H6</f>
-        <v>1822878.8692673817</v>
+        <f>H5*'IESS Annual Cap Costs'!H8/'IESS Annual Cap Costs'!H7</f>
+        <v>1822017.1569064832</v>
       </c>
       <c r="I6" s="4">
         <f>INDEX('CEA NEP'!$C$22:$M$22,1,MATCH($A6,'CEA NEP'!$C$17:$M$17,0))</f>
         <v>796946.92977702012</v>
       </c>
       <c r="J6" s="4">
-        <f>'IESS Annual Cap Costs'!J7</f>
+        <f>'IESS Annual Cap Costs'!J8</f>
         <v>5020996.8961110096</v>
       </c>
       <c r="K6" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>651000</v>
       </c>
       <c r="L6" s="4">
@@ -5655,43 +6248,43 @@
       </c>
       <c r="M6" s="4">
         <f>B6*'Coal Cost Multipliers'!$B$33</f>
-        <v>1231487.322821016</v>
+        <v>1280098.664511319</v>
       </c>
       <c r="N6" s="4">
         <v>0</v>
       </c>
       <c r="O6" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>651000</v>
       </c>
       <c r="P6" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>651000</v>
       </c>
       <c r="Q6" s="4">
-        <f>'Waste to Energy'!B15</f>
-        <v>2912068.6507211998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <f>'Waste to Energy'!B16</f>
+        <v>2891272.5944860321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B7" s="4">
         <f>INDEX('CEA NEP'!$C$18:$M$18,1,MATCH($A7,'CEA NEP'!$C$17:$M$17,0))</f>
-        <v>1104540.4816207823</v>
+        <v>1146485.0568722044</v>
       </c>
       <c r="C7" s="4">
-        <f>'IESS Annual Cap Costs'!C8</f>
-        <v>725149.32575184549</v>
+        <f>'IESS Annual Cap Costs'!C9</f>
+        <v>732181.32971647684</v>
       </c>
       <c r="D7" s="4">
         <f>INDEX('CEA NEP'!$C$24:$M$24,1,MATCH($A7,'CEA NEP'!$C$17:$M$17,0))</f>
-        <v>1705746.0602244993</v>
+        <v>1775653.6856435363</v>
       </c>
       <c r="E7" s="4">
         <f>INDEX('CEA NEP'!$C$19:$M$19,1,MATCH($A7,'CEA NEP'!$C$17:$M$17,0))</f>
-        <v>1705746.0602244993</v>
+        <v>1775653.6856435363</v>
       </c>
       <c r="F7" s="4">
         <v>0</v>
@@ -5700,19 +6293,19 @@
         <v>0</v>
       </c>
       <c r="H7" s="4">
-        <f>H6*'IESS Annual Cap Costs'!H8/'IESS Annual Cap Costs'!H7</f>
-        <v>1842375.0039694379</v>
+        <f>H6*'IESS Annual Cap Costs'!H9/'IESS Annual Cap Costs'!H8</f>
+        <v>1846947.8094571501</v>
       </c>
       <c r="I7" s="4">
         <f>INDEX('CEA NEP'!$C$22:$M$22,1,MATCH($A7,'CEA NEP'!$C$17:$M$17,0))</f>
         <v>796946.92977702012</v>
       </c>
       <c r="J7" s="4">
-        <f>'IESS Annual Cap Costs'!J8</f>
+        <f>'IESS Annual Cap Costs'!J9</f>
         <v>5020996.8961110096</v>
       </c>
       <c r="K7" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>651000</v>
       </c>
       <c r="L7" s="4">
@@ -5721,43 +6314,43 @@
       </c>
       <c r="M7" s="4">
         <f>B7*'Coal Cost Multipliers'!$B$33</f>
-        <v>1280098.664511319</v>
+        <v>1328710.0062016223</v>
       </c>
       <c r="N7" s="4">
         <v>0</v>
       </c>
       <c r="O7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>651000</v>
       </c>
       <c r="P7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>651000</v>
       </c>
       <c r="Q7" s="4">
-        <f>'Waste to Energy'!B16</f>
-        <v>2891272.5944860321</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <f>'Waste to Energy'!B17</f>
+        <v>2871352.9304363653</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B8" s="4">
         <f>INDEX('CEA NEP'!$C$18:$M$18,1,MATCH($A8,'CEA NEP'!$C$17:$M$17,0))</f>
-        <v>1146485.0568722044</v>
+        <v>1188429.6321236268</v>
       </c>
       <c r="C8" s="4">
-        <f>'IESS Annual Cap Costs'!C9</f>
-        <v>732181.32971647684</v>
+        <f>'IESS Annual Cap Costs'!C10</f>
+        <v>739213.3336811082</v>
       </c>
       <c r="D8" s="4">
         <f>INDEX('CEA NEP'!$C$24:$M$24,1,MATCH($A8,'CEA NEP'!$C$17:$M$17,0))</f>
-        <v>1775653.6856435363</v>
+        <v>1845561.3110625728</v>
       </c>
       <c r="E8" s="4">
         <f>INDEX('CEA NEP'!$C$19:$M$19,1,MATCH($A8,'CEA NEP'!$C$17:$M$17,0))</f>
-        <v>1775653.6856435363</v>
+        <v>1845561.3110625728</v>
       </c>
       <c r="F8" s="4">
         <v>0</v>
@@ -5766,19 +6359,19 @@
         <v>0</v>
       </c>
       <c r="H8" s="4">
-        <f>H7*'IESS Annual Cap Costs'!H9/'IESS Annual Cap Costs'!H8</f>
-        <v>1867584.2128497651</v>
+        <f>H7*'IESS Annual Cap Costs'!H10/'IESS Annual Cap Costs'!H9</f>
+        <v>1871878.4620078169</v>
       </c>
       <c r="I8" s="4">
         <f>INDEX('CEA NEP'!$C$22:$M$22,1,MATCH($A8,'CEA NEP'!$C$17:$M$17,0))</f>
         <v>796946.92977702012</v>
       </c>
       <c r="J8" s="4">
-        <f>'IESS Annual Cap Costs'!J9</f>
+        <f>'IESS Annual Cap Costs'!J10</f>
         <v>5020996.8961110096</v>
       </c>
       <c r="K8" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>651000</v>
       </c>
       <c r="L8" s="4">
@@ -5787,43 +6380,43 @@
       </c>
       <c r="M8" s="4">
         <f>B8*'Coal Cost Multipliers'!$B$33</f>
-        <v>1328710.0062016223</v>
+        <v>1377321.3478919258</v>
       </c>
       <c r="N8" s="4">
         <v>0</v>
       </c>
       <c r="O8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>651000</v>
       </c>
       <c r="P8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>651000</v>
       </c>
       <c r="Q8" s="4">
-        <f>'Waste to Energy'!B17</f>
-        <v>2871352.9304363653</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <f>'Waste to Energy'!B18</f>
+        <v>2851433.2663867027</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B9" s="4">
         <f>INDEX('CEA NEP'!$C$18:$M$18,1,MATCH($A9,'CEA NEP'!$C$17:$M$17,0))</f>
-        <v>1188429.6321236268</v>
+        <v>1244355.7324588562</v>
       </c>
       <c r="C9" s="4">
-        <f>'IESS Annual Cap Costs'!C10</f>
-        <v>739213.3336811082</v>
+        <f>'IESS Annual Cap Costs'!C11</f>
+        <v>746245.33764573955</v>
       </c>
       <c r="D9" s="4">
         <f>INDEX('CEA NEP'!$C$24:$M$24,1,MATCH($A9,'CEA NEP'!$C$17:$M$17,0))</f>
-        <v>1845561.3110625728</v>
+        <v>1915468.9364816097</v>
       </c>
       <c r="E9" s="4">
         <f>INDEX('CEA NEP'!$C$19:$M$19,1,MATCH($A9,'CEA NEP'!$C$17:$M$17,0))</f>
-        <v>1845561.3110625728</v>
+        <v>1915468.9364816097</v>
       </c>
       <c r="F9" s="4">
         <v>0</v>
@@ -5832,19 +6425,19 @@
         <v>0</v>
       </c>
       <c r="H9" s="4">
-        <f>H8*'IESS Annual Cap Costs'!H10/'IESS Annual Cap Costs'!H9</f>
-        <v>1892793.4217300925</v>
+        <f>H8*'IESS Annual Cap Costs'!H11/'IESS Annual Cap Costs'!H10</f>
+        <v>1896809.1145584837</v>
       </c>
       <c r="I9" s="4">
         <f>INDEX('CEA NEP'!$C$22:$M$22,1,MATCH($A9,'CEA NEP'!$C$17:$M$17,0))</f>
         <v>796946.92977702012</v>
       </c>
       <c r="J9" s="4">
-        <f>'IESS Annual Cap Costs'!J10</f>
+        <f>'IESS Annual Cap Costs'!J11</f>
         <v>5020996.8961110096</v>
       </c>
       <c r="K9" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>651000</v>
       </c>
       <c r="L9" s="4">
@@ -5853,43 +6446,43 @@
       </c>
       <c r="M9" s="4">
         <f>B9*'Coal Cost Multipliers'!$B$33</f>
-        <v>1377321.3478919258</v>
+        <v>1442136.4701456635</v>
       </c>
       <c r="N9" s="4">
         <v>0</v>
       </c>
       <c r="O9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>651000</v>
       </c>
       <c r="P9" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>651000</v>
       </c>
       <c r="Q9" s="4">
-        <f>'Waste to Energy'!B18</f>
-        <v>2851433.2663867027</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <f>'Waste to Energy'!B19</f>
+        <v>2831513.6023370475</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B10" s="4">
         <f>INDEX('CEA NEP'!$C$18:$M$18,1,MATCH($A10,'CEA NEP'!$C$17:$M$17,0))</f>
-        <v>1244355.7324588562</v>
+        <v>1293291.0702521817</v>
       </c>
       <c r="C10" s="4">
-        <f>'IESS Annual Cap Costs'!C11</f>
-        <v>746245.33764573955</v>
+        <f>'IESS Annual Cap Costs'!C12</f>
+        <v>753277.3416103709</v>
       </c>
       <c r="D10" s="4">
         <f>INDEX('CEA NEP'!$C$24:$M$24,1,MATCH($A10,'CEA NEP'!$C$17:$M$17,0))</f>
-        <v>1915468.9364816097</v>
+        <v>1985376.5619006469</v>
       </c>
       <c r="E10" s="4">
         <f>INDEX('CEA NEP'!$C$19:$M$19,1,MATCH($A10,'CEA NEP'!$C$17:$M$17,0))</f>
-        <v>1915468.9364816097</v>
+        <v>1985376.5619006469</v>
       </c>
       <c r="F10" s="4">
         <v>0</v>
@@ -5898,19 +6491,19 @@
         <v>0</v>
       </c>
       <c r="H10" s="4">
-        <f>H9*'IESS Annual Cap Costs'!H11/'IESS Annual Cap Costs'!H10</f>
-        <v>1918002.6306104197</v>
+        <f>H9*'IESS Annual Cap Costs'!H12/'IESS Annual Cap Costs'!H11</f>
+        <v>1921739.7671091505</v>
       </c>
       <c r="I10" s="4">
         <f>INDEX('CEA NEP'!$C$22:$M$22,1,MATCH($A10,'CEA NEP'!$C$17:$M$17,0))</f>
         <v>796946.92977702012</v>
       </c>
       <c r="J10" s="4">
-        <f>'IESS Annual Cap Costs'!J11</f>
+        <f>'IESS Annual Cap Costs'!J12</f>
         <v>5020996.8961110096</v>
       </c>
       <c r="K10" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>651000</v>
       </c>
       <c r="L10" s="4">
@@ -5919,64 +6512,64 @@
       </c>
       <c r="M10" s="4">
         <f>B10*'Coal Cost Multipliers'!$B$33</f>
-        <v>1442136.4701456635</v>
+        <v>1498849.7021176836</v>
       </c>
       <c r="N10" s="4">
         <v>0</v>
       </c>
       <c r="O10" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>651000</v>
       </c>
       <c r="P10" s="4">
+        <f t="shared" si="1"/>
+        <v>651000</v>
+      </c>
+      <c r="Q10" s="4">
+        <f>'Waste to Energy'!B20</f>
+        <v>2811593.9382873848</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>2027</v>
+      </c>
+      <c r="B11" s="4">
+        <f>B10*'IESS Annual Cap Costs'!B13/'IESS Annual Cap Costs'!B12</f>
+        <v>1306839.8206140203</v>
+      </c>
+      <c r="C11" s="4">
+        <f>'IESS Annual Cap Costs'!C13</f>
+        <v>760309.34557500202</v>
+      </c>
+      <c r="D11" s="4">
+        <f>D10*'IESS Annual Cap Costs'!D13/'IESS Annual Cap Costs'!D12</f>
+        <v>2133576.1577339745</v>
+      </c>
+      <c r="E11" s="4">
+        <f>E10*'IESS Annual Cap Costs'!E13/'IESS Annual Cap Costs'!E12</f>
+        <v>1885308.374445213</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <f>H10*'IESS Annual Cap Costs'!H13/'IESS Annual Cap Costs'!H12</f>
+        <v>1946670.4196598181</v>
+      </c>
+      <c r="I11" s="4">
+        <f>I10*'IESS Annual Cap Costs'!I13/'IESS Annual Cap Costs'!I12</f>
+        <v>796946.92977702012</v>
+      </c>
+      <c r="J11" s="4">
+        <f>'IESS Annual Cap Costs'!J13</f>
+        <v>5020996.8961110096</v>
+      </c>
+      <c r="K11" s="4">
         <f t="shared" si="2"/>
-        <v>651000</v>
-      </c>
-      <c r="Q10" s="4">
-        <f>'Waste to Energy'!B19</f>
-        <v>2831513.6023370475</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>2026</v>
-      </c>
-      <c r="B11" s="4">
-        <f>INDEX('CEA NEP'!$C$18:$M$18,1,MATCH($A11,'CEA NEP'!$C$17:$M$17,0))</f>
-        <v>1293291.0702521817</v>
-      </c>
-      <c r="C11" s="4">
-        <f>'IESS Annual Cap Costs'!C12</f>
-        <v>753277.3416103709</v>
-      </c>
-      <c r="D11" s="4">
-        <f>INDEX('CEA NEP'!$C$24:$M$24,1,MATCH($A11,'CEA NEP'!$C$17:$M$17,0))</f>
-        <v>1985376.5619006469</v>
-      </c>
-      <c r="E11" s="4">
-        <f>INDEX('CEA NEP'!$C$19:$M$19,1,MATCH($A11,'CEA NEP'!$C$17:$M$17,0))</f>
-        <v>1985376.5619006469</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
-        <f>H10*'IESS Annual Cap Costs'!H12/'IESS Annual Cap Costs'!H11</f>
-        <v>1943211.8394907468</v>
-      </c>
-      <c r="I11" s="4">
-        <f>INDEX('CEA NEP'!$C$22:$M$22,1,MATCH($A11,'CEA NEP'!$C$17:$M$17,0))</f>
-        <v>796946.92977702012</v>
-      </c>
-      <c r="J11" s="4">
-        <f>'IESS Annual Cap Costs'!J12</f>
-        <v>5020996.8961110096</v>
-      </c>
-      <c r="K11" s="4">
-        <f t="shared" si="0"/>
         <v>651000</v>
       </c>
       <c r="L11" s="4">
@@ -5985,64 +6578,64 @@
       </c>
       <c r="M11" s="4">
         <f>B11*'Coal Cost Multipliers'!$B$33</f>
-        <v>1498849.7021176836</v>
+        <v>1514551.9217579605</v>
       </c>
       <c r="N11" s="4">
         <v>0</v>
       </c>
       <c r="O11" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>651000</v>
       </c>
       <c r="P11" s="4">
+        <f t="shared" si="1"/>
+        <v>651000</v>
+      </c>
+      <c r="Q11" s="4">
+        <f>'Waste to Energy'!B21</f>
+        <v>2791674.2742377212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <v>2028</v>
+      </c>
+      <c r="B12" s="4">
+        <f>B11*'IESS Annual Cap Costs'!B14/'IESS Annual Cap Costs'!B13</f>
+        <v>1340974.2366529652</v>
+      </c>
+      <c r="C12" s="4">
+        <f>'IESS Annual Cap Costs'!C14</f>
+        <v>767341.34953963337</v>
+      </c>
+      <c r="D12" s="4">
+        <f>D11*'IESS Annual Cap Costs'!D14/'IESS Annual Cap Costs'!D13</f>
+        <v>1974525.3033663556</v>
+      </c>
+      <c r="E12" s="4">
+        <f>E11*'IESS Annual Cap Costs'!E14/'IESS Annual Cap Costs'!E13</f>
+        <v>1905127.1767902004</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <f>H11*'IESS Annual Cap Costs'!H14/'IESS Annual Cap Costs'!H13</f>
+        <v>1975568.883897451</v>
+      </c>
+      <c r="I12" s="4">
+        <f>I11*'IESS Annual Cap Costs'!I14/'IESS Annual Cap Costs'!I13</f>
+        <v>796946.92977702012</v>
+      </c>
+      <c r="J12" s="4">
+        <f>'IESS Annual Cap Costs'!J14</f>
+        <v>5020996.8961110096</v>
+      </c>
+      <c r="K12" s="4">
         <f t="shared" si="2"/>
-        <v>651000</v>
-      </c>
-      <c r="Q11" s="4">
-        <f>'Waste to Energy'!B20</f>
-        <v>2811593.9382873848</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>2027</v>
-      </c>
-      <c r="B12" s="4">
-        <f>B11*'IESS Annual Cap Costs'!B13/'IESS Annual Cap Costs'!B12</f>
-        <v>1306839.8206140203</v>
-      </c>
-      <c r="C12" s="4">
-        <f>'IESS Annual Cap Costs'!C13</f>
-        <v>760309.34557500202</v>
-      </c>
-      <c r="D12" s="4">
-        <f>D11*'IESS Annual Cap Costs'!D13/'IESS Annual Cap Costs'!D12</f>
-        <v>2133576.1577339745</v>
-      </c>
-      <c r="E12" s="4">
-        <f>E11*'IESS Annual Cap Costs'!E13/'IESS Annual Cap Costs'!E12</f>
-        <v>1885308.374445213</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
-        <f>H11*'IESS Annual Cap Costs'!H13/'IESS Annual Cap Costs'!H12</f>
-        <v>1968421.0483710747</v>
-      </c>
-      <c r="I12" s="4">
-        <f>I11*'IESS Annual Cap Costs'!I13/'IESS Annual Cap Costs'!I12</f>
-        <v>796946.92977702012</v>
-      </c>
-      <c r="J12" s="4">
-        <f>'IESS Annual Cap Costs'!J13</f>
-        <v>5020996.8961110096</v>
-      </c>
-      <c r="K12" s="4">
-        <f t="shared" si="0"/>
         <v>651000</v>
       </c>
       <c r="L12" s="4">
@@ -6051,64 +6644,64 @@
       </c>
       <c r="M12" s="4">
         <f>B12*'Coal Cost Multipliers'!$B$33</f>
-        <v>1514551.9217579605</v>
+        <v>1554111.7397206388</v>
       </c>
       <c r="N12" s="4">
         <v>0</v>
       </c>
       <c r="O12" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>651000</v>
       </c>
       <c r="P12" s="4">
+        <f t="shared" si="1"/>
+        <v>651000</v>
+      </c>
+      <c r="Q12" s="4">
+        <f>'Waste to Energy'!B22</f>
+        <v>2772612.7442030236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>2029</v>
+      </c>
+      <c r="B13" s="4">
+        <f>B12*'IESS Annual Cap Costs'!B15/'IESS Annual Cap Costs'!B14</f>
+        <v>1375108.65269191</v>
+      </c>
+      <c r="C13" s="4">
+        <f>'IESS Annual Cap Costs'!C15</f>
+        <v>774373.35350426473</v>
+      </c>
+      <c r="D13" s="4">
+        <f>D12*'IESS Annual Cap Costs'!D15/'IESS Annual Cap Costs'!D14</f>
+        <v>1815474.4489987369</v>
+      </c>
+      <c r="E13" s="4">
+        <f>E12*'IESS Annual Cap Costs'!E15/'IESS Annual Cap Costs'!E14</f>
+        <v>1924945.9791351876</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <f>H12*'IESS Annual Cap Costs'!H15/'IESS Annual Cap Costs'!H14</f>
+        <v>2004467.3481350839</v>
+      </c>
+      <c r="I13" s="4">
+        <f>I12*'IESS Annual Cap Costs'!I15/'IESS Annual Cap Costs'!I14</f>
+        <v>796946.92977702012</v>
+      </c>
+      <c r="J13" s="4">
+        <f>'IESS Annual Cap Costs'!J15</f>
+        <v>5020996.8961110096</v>
+      </c>
+      <c r="K13" s="4">
         <f t="shared" si="2"/>
-        <v>651000</v>
-      </c>
-      <c r="Q12" s="4">
-        <f>'Waste to Energy'!B21</f>
-        <v>2791674.2742377212</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>2028</v>
-      </c>
-      <c r="B13" s="4">
-        <f>B12*'IESS Annual Cap Costs'!B14/'IESS Annual Cap Costs'!B13</f>
-        <v>1340974.2366529652</v>
-      </c>
-      <c r="C13" s="4">
-        <f>'IESS Annual Cap Costs'!C14</f>
-        <v>767341.34953963337</v>
-      </c>
-      <c r="D13" s="4">
-        <f>D12*'IESS Annual Cap Costs'!D14/'IESS Annual Cap Costs'!D13</f>
-        <v>1974525.3033663556</v>
-      </c>
-      <c r="E13" s="4">
-        <f>E12*'IESS Annual Cap Costs'!E14/'IESS Annual Cap Costs'!E13</f>
-        <v>1905127.1767902004</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0</v>
-      </c>
-      <c r="H13" s="4">
-        <f>H12*'IESS Annual Cap Costs'!H14/'IESS Annual Cap Costs'!H13</f>
-        <v>1997642.4022769383</v>
-      </c>
-      <c r="I13" s="4">
-        <f>I12*'IESS Annual Cap Costs'!I14/'IESS Annual Cap Costs'!I13</f>
-        <v>796946.92977702012</v>
-      </c>
-      <c r="J13" s="4">
-        <f>'IESS Annual Cap Costs'!J14</f>
-        <v>5020996.8961110096</v>
-      </c>
-      <c r="K13" s="4">
-        <f t="shared" si="0"/>
         <v>651000</v>
       </c>
       <c r="L13" s="4">
@@ -6117,64 +6710,64 @@
       </c>
       <c r="M13" s="4">
         <f>B13*'Coal Cost Multipliers'!$B$33</f>
-        <v>1554111.7397206388</v>
+        <v>1593671.557683317</v>
       </c>
       <c r="N13" s="4">
         <v>0</v>
       </c>
       <c r="O13" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>651000</v>
       </c>
       <c r="P13" s="4">
+        <f t="shared" si="1"/>
+        <v>651000</v>
+      </c>
+      <c r="Q13" s="4">
+        <f>'Waste to Energy'!B23</f>
+        <v>2753551.21416834</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <v>2030</v>
+      </c>
+      <c r="B14" s="4">
+        <f>B13*'IESS Annual Cap Costs'!B16/'IESS Annual Cap Costs'!B15</f>
+        <v>1409243.0687308547</v>
+      </c>
+      <c r="C14" s="4">
+        <f>'IESS Annual Cap Costs'!C16</f>
+        <v>781405.35746889608</v>
+      </c>
+      <c r="D14" s="4">
+        <f>D13*'IESS Annual Cap Costs'!D16/'IESS Annual Cap Costs'!D15</f>
+        <v>1656423.594631118</v>
+      </c>
+      <c r="E14" s="4">
+        <f>E13*'IESS Annual Cap Costs'!E16/'IESS Annual Cap Costs'!E15</f>
+        <v>1944764.7814801747</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <f>H13*'IESS Annual Cap Costs'!H16/'IESS Annual Cap Costs'!H15</f>
+        <v>2033365.8123727166</v>
+      </c>
+      <c r="I14" s="4">
+        <f>I13*'IESS Annual Cap Costs'!I16/'IESS Annual Cap Costs'!I15</f>
+        <v>796946.92977702012</v>
+      </c>
+      <c r="J14" s="4">
+        <f>'IESS Annual Cap Costs'!J16</f>
+        <v>5020996.8961110096</v>
+      </c>
+      <c r="K14" s="4">
         <f t="shared" si="2"/>
-        <v>651000</v>
-      </c>
-      <c r="Q13" s="4">
-        <f>'Waste to Energy'!B22</f>
-        <v>2772612.7442030236</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>2029</v>
-      </c>
-      <c r="B14" s="4">
-        <f>B13*'IESS Annual Cap Costs'!B15/'IESS Annual Cap Costs'!B14</f>
-        <v>1375108.65269191</v>
-      </c>
-      <c r="C14" s="4">
-        <f>'IESS Annual Cap Costs'!C15</f>
-        <v>774373.35350426473</v>
-      </c>
-      <c r="D14" s="4">
-        <f>D13*'IESS Annual Cap Costs'!D15/'IESS Annual Cap Costs'!D14</f>
-        <v>1815474.4489987369</v>
-      </c>
-      <c r="E14" s="4">
-        <f>E13*'IESS Annual Cap Costs'!E15/'IESS Annual Cap Costs'!E14</f>
-        <v>1924945.9791351876</v>
-      </c>
-      <c r="F14" s="4">
-        <v>0</v>
-      </c>
-      <c r="G14" s="4">
-        <v>0</v>
-      </c>
-      <c r="H14" s="4">
-        <f>H13*'IESS Annual Cap Costs'!H15/'IESS Annual Cap Costs'!H14</f>
-        <v>2026863.7561828019</v>
-      </c>
-      <c r="I14" s="4">
-        <f>I13*'IESS Annual Cap Costs'!I15/'IESS Annual Cap Costs'!I14</f>
-        <v>796946.92977702012</v>
-      </c>
-      <c r="J14" s="4">
-        <f>'IESS Annual Cap Costs'!J15</f>
-        <v>5020996.8961110096</v>
-      </c>
-      <c r="K14" s="4">
-        <f t="shared" si="0"/>
         <v>651000</v>
       </c>
       <c r="L14" s="4">
@@ -6183,64 +6776,64 @@
       </c>
       <c r="M14" s="4">
         <f>B14*'Coal Cost Multipliers'!$B$33</f>
-        <v>1593671.557683317</v>
+        <v>1633231.3756459949</v>
       </c>
       <c r="N14" s="4">
         <v>0</v>
       </c>
       <c r="O14" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>651000</v>
       </c>
       <c r="P14" s="4">
+        <f t="shared" si="1"/>
+        <v>651000</v>
+      </c>
+      <c r="Q14" s="4">
+        <f>'Waste to Energy'!B24</f>
+        <v>2734489.6841336489</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
+        <v>2031</v>
+      </c>
+      <c r="B15" s="4">
+        <f>B14*'IESS Annual Cap Costs'!B17/'IESS Annual Cap Costs'!B16</f>
+        <v>1443377.4847697995</v>
+      </c>
+      <c r="C15" s="4">
+        <f>'IESS Annual Cap Costs'!C17</f>
+        <v>788437.36143352743</v>
+      </c>
+      <c r="D15" s="4">
+        <f>D14*'IESS Annual Cap Costs'!D17/'IESS Annual Cap Costs'!D16</f>
+        <v>1497372.7402634991</v>
+      </c>
+      <c r="E15" s="4">
+        <f>E14*'IESS Annual Cap Costs'!E17/'IESS Annual Cap Costs'!E16</f>
+        <v>1964583.5838251619</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <f>H14*'IESS Annual Cap Costs'!H17/'IESS Annual Cap Costs'!H16</f>
+        <v>2062264.2766103495</v>
+      </c>
+      <c r="I15" s="4">
+        <f>I14*'IESS Annual Cap Costs'!I17/'IESS Annual Cap Costs'!I16</f>
+        <v>796946.92977702012</v>
+      </c>
+      <c r="J15" s="4">
+        <f>'IESS Annual Cap Costs'!J17</f>
+        <v>5020996.8961110096</v>
+      </c>
+      <c r="K15" s="4">
         <f t="shared" si="2"/>
-        <v>651000</v>
-      </c>
-      <c r="Q14" s="4">
-        <f>'Waste to Energy'!B23</f>
-        <v>2753551.21416834</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>2030</v>
-      </c>
-      <c r="B15" s="4">
-        <f>B14*'IESS Annual Cap Costs'!B16/'IESS Annual Cap Costs'!B15</f>
-        <v>1409243.0687308547</v>
-      </c>
-      <c r="C15" s="4">
-        <f>'IESS Annual Cap Costs'!C16</f>
-        <v>781405.35746889608</v>
-      </c>
-      <c r="D15" s="4">
-        <f>D14*'IESS Annual Cap Costs'!D16/'IESS Annual Cap Costs'!D15</f>
-        <v>1656423.594631118</v>
-      </c>
-      <c r="E15" s="4">
-        <f>E14*'IESS Annual Cap Costs'!E16/'IESS Annual Cap Costs'!E15</f>
-        <v>1944764.7814801747</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0</v>
-      </c>
-      <c r="H15" s="4">
-        <f>H14*'IESS Annual Cap Costs'!H16/'IESS Annual Cap Costs'!H15</f>
-        <v>2056085.1100886653</v>
-      </c>
-      <c r="I15" s="4">
-        <f>I14*'IESS Annual Cap Costs'!I16/'IESS Annual Cap Costs'!I15</f>
-        <v>796946.92977702012</v>
-      </c>
-      <c r="J15" s="4">
-        <f>'IESS Annual Cap Costs'!J16</f>
-        <v>5020996.8961110096</v>
-      </c>
-      <c r="K15" s="4">
-        <f t="shared" si="0"/>
         <v>651000</v>
       </c>
       <c r="L15" s="4">
@@ -6249,64 +6842,64 @@
       </c>
       <c r="M15" s="4">
         <f>B15*'Coal Cost Multipliers'!$B$33</f>
-        <v>1633231.3756459949</v>
+        <v>1672791.1936086731</v>
       </c>
       <c r="N15" s="4">
         <v>0</v>
       </c>
       <c r="O15" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>651000</v>
       </c>
       <c r="P15" s="4">
+        <f t="shared" si="1"/>
+        <v>651000</v>
+      </c>
+      <c r="Q15" s="4">
+        <f>'Waste to Energy'!B25</f>
+        <v>2715428.1540989578</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
+        <v>2032</v>
+      </c>
+      <c r="B16" s="4">
+        <f>B15*'IESS Annual Cap Costs'!B18/'IESS Annual Cap Costs'!B17</f>
+        <v>1477511.9008087446</v>
+      </c>
+      <c r="C16" s="4">
+        <f>'IESS Annual Cap Costs'!C18</f>
+        <v>795469.36539815855</v>
+      </c>
+      <c r="D16" s="4">
+        <f>D15*'IESS Annual Cap Costs'!D18/'IESS Annual Cap Costs'!D17</f>
+        <v>1338321.8858958806</v>
+      </c>
+      <c r="E16" s="4">
+        <f>E15*'IESS Annual Cap Costs'!E18/'IESS Annual Cap Costs'!E17</f>
+        <v>1984402.3861701486</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <f>H15*'IESS Annual Cap Costs'!H18/'IESS Annual Cap Costs'!H17</f>
+        <v>2091162.740847982</v>
+      </c>
+      <c r="I16" s="4">
+        <f>I15*'IESS Annual Cap Costs'!I18/'IESS Annual Cap Costs'!I17</f>
+        <v>796946.92977702012</v>
+      </c>
+      <c r="J16" s="4">
+        <f>'IESS Annual Cap Costs'!J18</f>
+        <v>5020996.8961110096</v>
+      </c>
+      <c r="K16" s="4">
         <f t="shared" si="2"/>
-        <v>651000</v>
-      </c>
-      <c r="Q15" s="4">
-        <f>'Waste to Energy'!B24</f>
-        <v>2734489.6841336489</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>2031</v>
-      </c>
-      <c r="B16" s="4">
-        <f>B15*'IESS Annual Cap Costs'!B17/'IESS Annual Cap Costs'!B16</f>
-        <v>1443377.4847697995</v>
-      </c>
-      <c r="C16" s="4">
-        <f>'IESS Annual Cap Costs'!C17</f>
-        <v>788437.36143352743</v>
-      </c>
-      <c r="D16" s="4">
-        <f>D15*'IESS Annual Cap Costs'!D17/'IESS Annual Cap Costs'!D16</f>
-        <v>1497372.7402634991</v>
-      </c>
-      <c r="E16" s="4">
-        <f>E15*'IESS Annual Cap Costs'!E17/'IESS Annual Cap Costs'!E16</f>
-        <v>1964583.5838251619</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4">
-        <f>H15*'IESS Annual Cap Costs'!H17/'IESS Annual Cap Costs'!H16</f>
-        <v>2085306.4639945286</v>
-      </c>
-      <c r="I16" s="4">
-        <f>I15*'IESS Annual Cap Costs'!I17/'IESS Annual Cap Costs'!I16</f>
-        <v>796946.92977702012</v>
-      </c>
-      <c r="J16" s="4">
-        <f>'IESS Annual Cap Costs'!J17</f>
-        <v>5020996.8961110096</v>
-      </c>
-      <c r="K16" s="4">
-        <f t="shared" si="0"/>
         <v>651000</v>
       </c>
       <c r="L16" s="4">
@@ -6315,64 +6908,64 @@
       </c>
       <c r="M16" s="4">
         <f>B16*'Coal Cost Multipliers'!$B$33</f>
-        <v>1672791.1936086731</v>
+        <v>1712351.0115713514</v>
       </c>
       <c r="N16" s="4">
         <v>0</v>
       </c>
       <c r="O16" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>651000</v>
       </c>
       <c r="P16" s="4">
+        <f t="shared" si="1"/>
+        <v>651000</v>
+      </c>
+      <c r="Q16" s="4">
+        <f>'Waste to Energy'!B26</f>
+        <v>2696366.6240642685</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>2033</v>
+      </c>
+      <c r="B17" s="4">
+        <f>B16*'IESS Annual Cap Costs'!B19/'IESS Annual Cap Costs'!B18</f>
+        <v>1518625.1341296979</v>
+      </c>
+      <c r="C17" s="4">
+        <f>'IESS Annual Cap Costs'!C19</f>
+        <v>802501.3693627899</v>
+      </c>
+      <c r="D17" s="4">
+        <f>D16*'IESS Annual Cap Costs'!D19/'IESS Annual Cap Costs'!D18</f>
+        <v>1632590.1914019706</v>
+      </c>
+      <c r="E17" s="4">
+        <f>E16*'IESS Annual Cap Costs'!E19/'IESS Annual Cap Costs'!E18</f>
+        <v>1993870.4108001308</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <f>H16*'IESS Annual Cap Costs'!H19/'IESS Annual Cap Costs'!H18</f>
+        <v>2083074.9954560176</v>
+      </c>
+      <c r="I17" s="4">
+        <f>I16*'IESS Annual Cap Costs'!I19/'IESS Annual Cap Costs'!I18</f>
+        <v>796946.92977702012</v>
+      </c>
+      <c r="J17" s="4">
+        <f>'IESS Annual Cap Costs'!J19</f>
+        <v>5020996.8961110096</v>
+      </c>
+      <c r="K17" s="4">
         <f t="shared" si="2"/>
-        <v>651000</v>
-      </c>
-      <c r="Q16" s="4">
-        <f>'Waste to Energy'!B25</f>
-        <v>2715428.1540989578</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>2032</v>
-      </c>
-      <c r="B17" s="4">
-        <f>B16*'IESS Annual Cap Costs'!B18/'IESS Annual Cap Costs'!B17</f>
-        <v>1477511.9008087446</v>
-      </c>
-      <c r="C17" s="4">
-        <f>'IESS Annual Cap Costs'!C18</f>
-        <v>795469.36539815855</v>
-      </c>
-      <c r="D17" s="4">
-        <f>D16*'IESS Annual Cap Costs'!D18/'IESS Annual Cap Costs'!D17</f>
-        <v>1338321.8858958806</v>
-      </c>
-      <c r="E17" s="4">
-        <f>E16*'IESS Annual Cap Costs'!E18/'IESS Annual Cap Costs'!E17</f>
-        <v>1984402.3861701486</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0</v>
-      </c>
-      <c r="G17" s="4">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
-        <f>H16*'IESS Annual Cap Costs'!H18/'IESS Annual Cap Costs'!H17</f>
-        <v>2114527.8179003913</v>
-      </c>
-      <c r="I17" s="4">
-        <f>I16*'IESS Annual Cap Costs'!I18/'IESS Annual Cap Costs'!I17</f>
-        <v>796946.92977702012</v>
-      </c>
-      <c r="J17" s="4">
-        <f>'IESS Annual Cap Costs'!J18</f>
-        <v>5020996.8961110096</v>
-      </c>
-      <c r="K17" s="4">
-        <f t="shared" si="0"/>
         <v>651000</v>
       </c>
       <c r="L17" s="4">
@@ -6381,64 +6974,64 @@
       </c>
       <c r="M17" s="4">
         <f>B17*'Coal Cost Multipliers'!$B$33</f>
-        <v>1712351.0115713514</v>
+        <v>1759998.8759490047</v>
       </c>
       <c r="N17" s="4">
         <v>0</v>
       </c>
       <c r="O17" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>651000</v>
       </c>
       <c r="P17" s="4">
+        <f t="shared" si="1"/>
+        <v>651000</v>
+      </c>
+      <c r="Q17" s="4">
+        <f>'Waste to Energy'!B27</f>
+        <v>2678071.9371918961</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <v>2034</v>
+      </c>
+      <c r="B18" s="4">
+        <f>B17*'IESS Annual Cap Costs'!B20/'IESS Annual Cap Costs'!B19</f>
+        <v>1559738.3674506512</v>
+      </c>
+      <c r="C18" s="4">
+        <f>'IESS Annual Cap Costs'!C20</f>
+        <v>809533.37332742126</v>
+      </c>
+      <c r="D18" s="4">
+        <f>D17*'IESS Annual Cap Costs'!D20/'IESS Annual Cap Costs'!D19</f>
+        <v>1926858.4969080603</v>
+      </c>
+      <c r="E18" s="4">
+        <f>E17*'IESS Annual Cap Costs'!E20/'IESS Annual Cap Costs'!E19</f>
+        <v>2003338.4354301128</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <f>H17*'IESS Annual Cap Costs'!H20/'IESS Annual Cap Costs'!H19</f>
+        <v>2074987.2500640529</v>
+      </c>
+      <c r="I18" s="4">
+        <f>I17*'IESS Annual Cap Costs'!I20/'IESS Annual Cap Costs'!I19</f>
+        <v>796946.92977702012</v>
+      </c>
+      <c r="J18" s="4">
+        <f>'IESS Annual Cap Costs'!J20</f>
+        <v>5020996.8961110096</v>
+      </c>
+      <c r="K18" s="4">
         <f t="shared" si="2"/>
-        <v>651000</v>
-      </c>
-      <c r="Q17" s="4">
-        <f>'Waste to Energy'!B26</f>
-        <v>2696366.6240642685</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>2033</v>
-      </c>
-      <c r="B18" s="4">
-        <f>B17*'IESS Annual Cap Costs'!B19/'IESS Annual Cap Costs'!B18</f>
-        <v>1518625.1341296979</v>
-      </c>
-      <c r="C18" s="4">
-        <f>'IESS Annual Cap Costs'!C19</f>
-        <v>802501.3693627899</v>
-      </c>
-      <c r="D18" s="4">
-        <f>D17*'IESS Annual Cap Costs'!D19/'IESS Annual Cap Costs'!D18</f>
-        <v>1632590.1914019706</v>
-      </c>
-      <c r="E18" s="4">
-        <f>E17*'IESS Annual Cap Costs'!E19/'IESS Annual Cap Costs'!E18</f>
-        <v>1993870.4108001308</v>
-      </c>
-      <c r="F18" s="4">
-        <v>0</v>
-      </c>
-      <c r="G18" s="4">
-        <v>0</v>
-      </c>
-      <c r="H18" s="4">
-        <f>H17*'IESS Annual Cap Costs'!H19/'IESS Annual Cap Costs'!H18</f>
-        <v>2106349.7061344604</v>
-      </c>
-      <c r="I18" s="4">
-        <f>I17*'IESS Annual Cap Costs'!I19/'IESS Annual Cap Costs'!I18</f>
-        <v>796946.92977702012</v>
-      </c>
-      <c r="J18" s="4">
-        <f>'IESS Annual Cap Costs'!J19</f>
-        <v>5020996.8961110096</v>
-      </c>
-      <c r="K18" s="4">
-        <f t="shared" si="0"/>
         <v>651000</v>
       </c>
       <c r="L18" s="4">
@@ -6447,64 +7040,64 @@
       </c>
       <c r="M18" s="4">
         <f>B18*'Coal Cost Multipliers'!$B$33</f>
-        <v>1759998.8759490047</v>
+        <v>1807646.7403266577</v>
       </c>
       <c r="N18" s="4">
         <v>0</v>
       </c>
       <c r="O18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>651000</v>
       </c>
       <c r="P18" s="4">
+        <f t="shared" si="1"/>
+        <v>651000</v>
+      </c>
+      <c r="Q18" s="4">
+        <f>'Waste to Energy'!B28</f>
+        <v>2659777.2503195181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <v>2035</v>
+      </c>
+      <c r="B19" s="4">
+        <f>B18*'IESS Annual Cap Costs'!B21/'IESS Annual Cap Costs'!B20</f>
+        <v>1600851.6007716046</v>
+      </c>
+      <c r="C19" s="4">
+        <f>'IESS Annual Cap Costs'!C21</f>
+        <v>816565.37729205261</v>
+      </c>
+      <c r="D19" s="4">
+        <f>D18*'IESS Annual Cap Costs'!D21/'IESS Annual Cap Costs'!D20</f>
+        <v>2221126.80241415</v>
+      </c>
+      <c r="E19" s="4">
+        <f>E18*'IESS Annual Cap Costs'!E21/'IESS Annual Cap Costs'!E20</f>
+        <v>2012806.4600600947</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <f>H18*'IESS Annual Cap Costs'!H21/'IESS Annual Cap Costs'!H20</f>
+        <v>2066899.5046720882</v>
+      </c>
+      <c r="I19" s="4">
+        <f>I18*'IESS Annual Cap Costs'!I21/'IESS Annual Cap Costs'!I20</f>
+        <v>796946.92977702012</v>
+      </c>
+      <c r="J19" s="4">
+        <f>'IESS Annual Cap Costs'!J21</f>
+        <v>5020996.8961110096</v>
+      </c>
+      <c r="K19" s="4">
         <f t="shared" si="2"/>
-        <v>651000</v>
-      </c>
-      <c r="Q18" s="4">
-        <f>'Waste to Energy'!B27</f>
-        <v>2678071.9371918961</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>2034</v>
-      </c>
-      <c r="B19" s="4">
-        <f>B18*'IESS Annual Cap Costs'!B20/'IESS Annual Cap Costs'!B19</f>
-        <v>1559738.3674506512</v>
-      </c>
-      <c r="C19" s="4">
-        <f>'IESS Annual Cap Costs'!C20</f>
-        <v>809533.37332742126</v>
-      </c>
-      <c r="D19" s="4">
-        <f>D18*'IESS Annual Cap Costs'!D20/'IESS Annual Cap Costs'!D19</f>
-        <v>1926858.4969080603</v>
-      </c>
-      <c r="E19" s="4">
-        <f>E18*'IESS Annual Cap Costs'!E20/'IESS Annual Cap Costs'!E19</f>
-        <v>2003338.4354301128</v>
-      </c>
-      <c r="F19" s="4">
-        <v>0</v>
-      </c>
-      <c r="G19" s="4">
-        <v>0</v>
-      </c>
-      <c r="H19" s="4">
-        <f>H18*'IESS Annual Cap Costs'!H20/'IESS Annual Cap Costs'!H19</f>
-        <v>2098171.5943685295</v>
-      </c>
-      <c r="I19" s="4">
-        <f>I18*'IESS Annual Cap Costs'!I20/'IESS Annual Cap Costs'!I19</f>
-        <v>796946.92977702012</v>
-      </c>
-      <c r="J19" s="4">
-        <f>'IESS Annual Cap Costs'!J20</f>
-        <v>5020996.8961110096</v>
-      </c>
-      <c r="K19" s="4">
-        <f t="shared" si="0"/>
         <v>651000</v>
       </c>
       <c r="L19" s="4">
@@ -6513,64 +7106,64 @@
       </c>
       <c r="M19" s="4">
         <f>B19*'Coal Cost Multipliers'!$B$33</f>
-        <v>1807646.7403266577</v>
+        <v>1855294.6047043107</v>
       </c>
       <c r="N19" s="4">
         <v>0</v>
       </c>
       <c r="O19" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>651000</v>
       </c>
       <c r="P19" s="4">
+        <f t="shared" si="1"/>
+        <v>651000</v>
+      </c>
+      <c r="Q19" s="4">
+        <f>'Waste to Energy'!B29</f>
+        <v>2641482.5634471402</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
+        <v>2036</v>
+      </c>
+      <c r="B20" s="4">
+        <f>B19*'IESS Annual Cap Costs'!B22/'IESS Annual Cap Costs'!B21</f>
+        <v>1641964.8340925581</v>
+      </c>
+      <c r="C20" s="4">
+        <f>'IESS Annual Cap Costs'!C22</f>
+        <v>823597.38125668396</v>
+      </c>
+      <c r="D20" s="4">
+        <f>D19*'IESS Annual Cap Costs'!D22/'IESS Annual Cap Costs'!D21</f>
+        <v>2515395.1079202401</v>
+      </c>
+      <c r="E20" s="4">
+        <f>E19*'IESS Annual Cap Costs'!E22/'IESS Annual Cap Costs'!E21</f>
+        <v>2022274.4846900767</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <f>H19*'IESS Annual Cap Costs'!H22/'IESS Annual Cap Costs'!H21</f>
+        <v>2058811.7592801235</v>
+      </c>
+      <c r="I20" s="4">
+        <f>I19*'IESS Annual Cap Costs'!I22/'IESS Annual Cap Costs'!I21</f>
+        <v>796946.92977702012</v>
+      </c>
+      <c r="J20" s="4">
+        <f>'IESS Annual Cap Costs'!J22</f>
+        <v>5020996.8961110096</v>
+      </c>
+      <c r="K20" s="4">
         <f t="shared" si="2"/>
-        <v>651000</v>
-      </c>
-      <c r="Q19" s="4">
-        <f>'Waste to Energy'!B28</f>
-        <v>2659777.2503195181</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>2035</v>
-      </c>
-      <c r="B20" s="4">
-        <f>B19*'IESS Annual Cap Costs'!B21/'IESS Annual Cap Costs'!B20</f>
-        <v>1600851.6007716046</v>
-      </c>
-      <c r="C20" s="4">
-        <f>'IESS Annual Cap Costs'!C21</f>
-        <v>816565.37729205261</v>
-      </c>
-      <c r="D20" s="4">
-        <f>D19*'IESS Annual Cap Costs'!D21/'IESS Annual Cap Costs'!D20</f>
-        <v>2221126.80241415</v>
-      </c>
-      <c r="E20" s="4">
-        <f>E19*'IESS Annual Cap Costs'!E21/'IESS Annual Cap Costs'!E20</f>
-        <v>2012806.4600600947</v>
-      </c>
-      <c r="F20" s="4">
-        <v>0</v>
-      </c>
-      <c r="G20" s="4">
-        <v>0</v>
-      </c>
-      <c r="H20" s="4">
-        <f>H19*'IESS Annual Cap Costs'!H21/'IESS Annual Cap Costs'!H20</f>
-        <v>2089993.4826025986</v>
-      </c>
-      <c r="I20" s="4">
-        <f>I19*'IESS Annual Cap Costs'!I21/'IESS Annual Cap Costs'!I20</f>
-        <v>796946.92977702012</v>
-      </c>
-      <c r="J20" s="4">
-        <f>'IESS Annual Cap Costs'!J21</f>
-        <v>5020996.8961110096</v>
-      </c>
-      <c r="K20" s="4">
-        <f t="shared" si="0"/>
         <v>651000</v>
       </c>
       <c r="L20" s="4">
@@ -6579,64 +7172,64 @@
       </c>
       <c r="M20" s="4">
         <f>B20*'Coal Cost Multipliers'!$B$33</f>
-        <v>1855294.6047043107</v>
+        <v>1902942.4690819641</v>
       </c>
       <c r="N20" s="4">
         <v>0</v>
       </c>
       <c r="O20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>651000</v>
       </c>
       <c r="P20" s="4">
+        <f t="shared" si="1"/>
+        <v>651000</v>
+      </c>
+      <c r="Q20" s="4">
+        <f>'Waste to Energy'!B30</f>
+        <v>2623187.8765747696</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
+        <v>2037</v>
+      </c>
+      <c r="B21" s="4">
+        <f>B20*'IESS Annual Cap Costs'!B23/'IESS Annual Cap Costs'!B22</f>
+        <v>1683078.0674135119</v>
+      </c>
+      <c r="C21" s="4">
+        <f>'IESS Annual Cap Costs'!C23</f>
+        <v>830629.38522131531</v>
+      </c>
+      <c r="D21" s="4">
+        <f>D20*'IESS Annual Cap Costs'!D23/'IESS Annual Cap Costs'!D22</f>
+        <v>2809663.4134263298</v>
+      </c>
+      <c r="E21" s="4">
+        <f>E20*'IESS Annual Cap Costs'!E23/'IESS Annual Cap Costs'!E22</f>
+        <v>2031742.5093200589</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <f>H20*'IESS Annual Cap Costs'!H23/'IESS Annual Cap Costs'!H22</f>
+        <v>2050724.0138881584</v>
+      </c>
+      <c r="I21" s="4">
+        <f>I20*'IESS Annual Cap Costs'!I23/'IESS Annual Cap Costs'!I22</f>
+        <v>796946.92977702012</v>
+      </c>
+      <c r="J21" s="4">
+        <f>'IESS Annual Cap Costs'!J23</f>
+        <v>5020996.8961110096</v>
+      </c>
+      <c r="K21" s="4">
         <f t="shared" si="2"/>
-        <v>651000</v>
-      </c>
-      <c r="Q20" s="4">
-        <f>'Waste to Energy'!B29</f>
-        <v>2641482.5634471402</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>2036</v>
-      </c>
-      <c r="B21" s="4">
-        <f>B20*'IESS Annual Cap Costs'!B22/'IESS Annual Cap Costs'!B21</f>
-        <v>1641964.8340925581</v>
-      </c>
-      <c r="C21" s="4">
-        <f>'IESS Annual Cap Costs'!C22</f>
-        <v>823597.38125668396</v>
-      </c>
-      <c r="D21" s="4">
-        <f>D20*'IESS Annual Cap Costs'!D22/'IESS Annual Cap Costs'!D21</f>
-        <v>2515395.1079202401</v>
-      </c>
-      <c r="E21" s="4">
-        <f>E20*'IESS Annual Cap Costs'!E22/'IESS Annual Cap Costs'!E21</f>
-        <v>2022274.4846900767</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0</v>
-      </c>
-      <c r="H21" s="4">
-        <f>H20*'IESS Annual Cap Costs'!H22/'IESS Annual Cap Costs'!H21</f>
-        <v>2081815.3708366677</v>
-      </c>
-      <c r="I21" s="4">
-        <f>I20*'IESS Annual Cap Costs'!I22/'IESS Annual Cap Costs'!I21</f>
-        <v>796946.92977702012</v>
-      </c>
-      <c r="J21" s="4">
-        <f>'IESS Annual Cap Costs'!J22</f>
-        <v>5020996.8961110096</v>
-      </c>
-      <c r="K21" s="4">
-        <f t="shared" si="0"/>
         <v>651000</v>
       </c>
       <c r="L21" s="4">
@@ -6645,64 +7238,64 @@
       </c>
       <c r="M21" s="4">
         <f>B21*'Coal Cost Multipliers'!$B$33</f>
-        <v>1902942.4690819641</v>
+        <v>1950590.3334596176</v>
       </c>
       <c r="N21" s="4">
         <v>0</v>
       </c>
       <c r="O21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>651000</v>
       </c>
       <c r="P21" s="4">
+        <f t="shared" si="1"/>
+        <v>651000</v>
+      </c>
+      <c r="Q21" s="4">
+        <f>'Waste to Energy'!B31</f>
+        <v>2604893.1897023916</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A22" s="1">
+        <v>2038</v>
+      </c>
+      <c r="B22" s="4">
+        <f>B21*'IESS Annual Cap Costs'!B24/'IESS Annual Cap Costs'!B23</f>
+        <v>1725099.7657787916</v>
+      </c>
+      <c r="C22" s="4">
+        <f>'IESS Annual Cap Costs'!C24</f>
+        <v>837661.38918594655</v>
+      </c>
+      <c r="D22" s="4">
+        <f>D21*'IESS Annual Cap Costs'!D24/'IESS Annual Cap Costs'!D23</f>
+        <v>2702139.8235976407</v>
+      </c>
+      <c r="E22" s="4">
+        <f>E21*'IESS Annual Cap Costs'!E24/'IESS Annual Cap Costs'!E23</f>
+        <v>1978048.7361460177</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <f>H21*'IESS Annual Cap Costs'!H24/'IESS Annual Cap Costs'!H23</f>
+        <v>2044577.3273902654</v>
+      </c>
+      <c r="I22" s="4">
+        <f>I21*'IESS Annual Cap Costs'!I24/'IESS Annual Cap Costs'!I23</f>
+        <v>796946.92977702012</v>
+      </c>
+      <c r="J22" s="4">
+        <f>'IESS Annual Cap Costs'!J24</f>
+        <v>5020996.8961110096</v>
+      </c>
+      <c r="K22" s="4">
         <f t="shared" si="2"/>
-        <v>651000</v>
-      </c>
-      <c r="Q21" s="4">
-        <f>'Waste to Energy'!B30</f>
-        <v>2623187.8765747696</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>2037</v>
-      </c>
-      <c r="B22" s="4">
-        <f>B21*'IESS Annual Cap Costs'!B23/'IESS Annual Cap Costs'!B22</f>
-        <v>1683078.0674135119</v>
-      </c>
-      <c r="C22" s="4">
-        <f>'IESS Annual Cap Costs'!C23</f>
-        <v>830629.38522131531</v>
-      </c>
-      <c r="D22" s="4">
-        <f>D21*'IESS Annual Cap Costs'!D23/'IESS Annual Cap Costs'!D22</f>
-        <v>2809663.4134263298</v>
-      </c>
-      <c r="E22" s="4">
-        <f>E21*'IESS Annual Cap Costs'!E23/'IESS Annual Cap Costs'!E22</f>
-        <v>2031742.5093200589</v>
-      </c>
-      <c r="F22" s="4">
-        <v>0</v>
-      </c>
-      <c r="G22" s="4">
-        <v>0</v>
-      </c>
-      <c r="H22" s="4">
-        <f>H21*'IESS Annual Cap Costs'!H23/'IESS Annual Cap Costs'!H22</f>
-        <v>2073637.2590707366</v>
-      </c>
-      <c r="I22" s="4">
-        <f>I21*'IESS Annual Cap Costs'!I23/'IESS Annual Cap Costs'!I22</f>
-        <v>796946.92977702012</v>
-      </c>
-      <c r="J22" s="4">
-        <f>'IESS Annual Cap Costs'!J23</f>
-        <v>5020996.8961110096</v>
-      </c>
-      <c r="K22" s="4">
-        <f t="shared" si="0"/>
         <v>651000</v>
       </c>
       <c r="L22" s="4">
@@ -6711,64 +7304,64 @@
       </c>
       <c r="M22" s="4">
         <f>B22*'Coal Cost Multipliers'!$B$33</f>
-        <v>1950590.3334596176</v>
+        <v>1999291.0563873628</v>
       </c>
       <c r="N22" s="4">
         <v>0</v>
       </c>
       <c r="O22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>651000</v>
       </c>
       <c r="P22" s="4">
+        <f t="shared" si="1"/>
+        <v>651000</v>
+      </c>
+      <c r="Q22" s="4">
+        <f>'Waste to Energy'!B32</f>
+        <v>2587401.8623333946</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A23" s="1">
+        <v>2039</v>
+      </c>
+      <c r="B23" s="4">
+        <f>B22*'IESS Annual Cap Costs'!B25/'IESS Annual Cap Costs'!B24</f>
+        <v>1767121.4641440713</v>
+      </c>
+      <c r="C23" s="4">
+        <f>'IESS Annual Cap Costs'!C25</f>
+        <v>844693.39315057779</v>
+      </c>
+      <c r="D23" s="4">
+        <f>D22*'IESS Annual Cap Costs'!D25/'IESS Annual Cap Costs'!D24</f>
+        <v>2594616.2337689521</v>
+      </c>
+      <c r="E23" s="4">
+        <f>E22*'IESS Annual Cap Costs'!E25/'IESS Annual Cap Costs'!E24</f>
+        <v>1924354.9629719767</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <f>H22*'IESS Annual Cap Costs'!H25/'IESS Annual Cap Costs'!H24</f>
+        <v>2038430.6408923727</v>
+      </c>
+      <c r="I23" s="4">
+        <f>I22*'IESS Annual Cap Costs'!I25/'IESS Annual Cap Costs'!I24</f>
+        <v>796946.92977702012</v>
+      </c>
+      <c r="J23" s="4">
+        <f>'IESS Annual Cap Costs'!J25</f>
+        <v>5020996.8961110096</v>
+      </c>
+      <c r="K23" s="4">
         <f t="shared" si="2"/>
-        <v>651000</v>
-      </c>
-      <c r="Q22" s="4">
-        <f>'Waste to Energy'!B31</f>
-        <v>2604893.1897023916</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>2038</v>
-      </c>
-      <c r="B23" s="4">
-        <f>B22*'IESS Annual Cap Costs'!B24/'IESS Annual Cap Costs'!B23</f>
-        <v>1725099.7657787916</v>
-      </c>
-      <c r="C23" s="4">
-        <f>'IESS Annual Cap Costs'!C24</f>
-        <v>837661.38918594655</v>
-      </c>
-      <c r="D23" s="4">
-        <f>D22*'IESS Annual Cap Costs'!D24/'IESS Annual Cap Costs'!D23</f>
-        <v>2702139.8235976407</v>
-      </c>
-      <c r="E23" s="4">
-        <f>E22*'IESS Annual Cap Costs'!E24/'IESS Annual Cap Costs'!E23</f>
-        <v>1978048.7361460177</v>
-      </c>
-      <c r="F23" s="4">
-        <v>0</v>
-      </c>
-      <c r="G23" s="4">
-        <v>0</v>
-      </c>
-      <c r="H23" s="4">
-        <f>H22*'IESS Annual Cap Costs'!H24/'IESS Annual Cap Costs'!H23</f>
-        <v>2067421.8941286295</v>
-      </c>
-      <c r="I23" s="4">
-        <f>I22*'IESS Annual Cap Costs'!I24/'IESS Annual Cap Costs'!I23</f>
-        <v>796946.92977702012</v>
-      </c>
-      <c r="J23" s="4">
-        <f>'IESS Annual Cap Costs'!J24</f>
-        <v>5020996.8961110096</v>
-      </c>
-      <c r="K23" s="4">
-        <f t="shared" si="0"/>
         <v>651000</v>
       </c>
       <c r="L23" s="4">
@@ -6777,64 +7370,64 @@
       </c>
       <c r="M23" s="4">
         <f>B23*'Coal Cost Multipliers'!$B$33</f>
-        <v>1999291.0563873628</v>
+        <v>2047991.7793151082</v>
       </c>
       <c r="N23" s="4">
         <v>0</v>
       </c>
       <c r="O23" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>651000</v>
       </c>
       <c r="P23" s="4">
+        <f t="shared" si="1"/>
+        <v>651000</v>
+      </c>
+      <c r="Q23" s="4">
+        <f>'Waste to Energy'!B33</f>
+        <v>2569910.5349643975</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A24" s="1">
+        <v>2040</v>
+      </c>
+      <c r="B24" s="4">
+        <f>B23*'IESS Annual Cap Costs'!B26/'IESS Annual Cap Costs'!B25</f>
+        <v>1809143.1625093508</v>
+      </c>
+      <c r="C24" s="4">
+        <f>'IESS Annual Cap Costs'!C26</f>
+        <v>851725.39711520902</v>
+      </c>
+      <c r="D24" s="4">
+        <f>D23*'IESS Annual Cap Costs'!D26/'IESS Annual Cap Costs'!D25</f>
+        <v>2487092.643940263</v>
+      </c>
+      <c r="E24" s="4">
+        <f>E23*'IESS Annual Cap Costs'!E26/'IESS Annual Cap Costs'!E25</f>
+        <v>1870661.1897979355</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
+        <f>H23*'IESS Annual Cap Costs'!H26/'IESS Annual Cap Costs'!H25</f>
+        <v>2032283.9543944797</v>
+      </c>
+      <c r="I24" s="4">
+        <f>I23*'IESS Annual Cap Costs'!I26/'IESS Annual Cap Costs'!I25</f>
+        <v>796946.92977702012</v>
+      </c>
+      <c r="J24" s="4">
+        <f>'IESS Annual Cap Costs'!J26</f>
+        <v>5020996.8961110096</v>
+      </c>
+      <c r="K24" s="4">
         <f t="shared" si="2"/>
-        <v>651000</v>
-      </c>
-      <c r="Q23" s="4">
-        <f>'Waste to Energy'!B32</f>
-        <v>2587401.8623333946</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>2039</v>
-      </c>
-      <c r="B24" s="4">
-        <f>B23*'IESS Annual Cap Costs'!B25/'IESS Annual Cap Costs'!B24</f>
-        <v>1767121.4641440713</v>
-      </c>
-      <c r="C24" s="4">
-        <f>'IESS Annual Cap Costs'!C25</f>
-        <v>844693.39315057779</v>
-      </c>
-      <c r="D24" s="4">
-        <f>D23*'IESS Annual Cap Costs'!D25/'IESS Annual Cap Costs'!D24</f>
-        <v>2594616.2337689521</v>
-      </c>
-      <c r="E24" s="4">
-        <f>E23*'IESS Annual Cap Costs'!E25/'IESS Annual Cap Costs'!E24</f>
-        <v>1924354.9629719767</v>
-      </c>
-      <c r="F24" s="4">
-        <v>0</v>
-      </c>
-      <c r="G24" s="4">
-        <v>0</v>
-      </c>
-      <c r="H24" s="4">
-        <f>H23*'IESS Annual Cap Costs'!H25/'IESS Annual Cap Costs'!H24</f>
-        <v>2061206.5291865221</v>
-      </c>
-      <c r="I24" s="4">
-        <f>I23*'IESS Annual Cap Costs'!I25/'IESS Annual Cap Costs'!I24</f>
-        <v>796946.92977702012</v>
-      </c>
-      <c r="J24" s="4">
-        <f>'IESS Annual Cap Costs'!J25</f>
-        <v>5020996.8961110096</v>
-      </c>
-      <c r="K24" s="4">
-        <f t="shared" si="0"/>
         <v>651000</v>
       </c>
       <c r="L24" s="4">
@@ -6843,64 +7436,64 @@
       </c>
       <c r="M24" s="4">
         <f>B24*'Coal Cost Multipliers'!$B$33</f>
-        <v>2047991.7793151082</v>
+        <v>2096692.5022428532</v>
       </c>
       <c r="N24" s="4">
         <v>0</v>
       </c>
       <c r="O24" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>651000</v>
       </c>
       <c r="P24" s="4">
+        <f t="shared" si="1"/>
+        <v>651000</v>
+      </c>
+      <c r="Q24" s="4">
+        <f>'Waste to Energy'!B34</f>
+        <v>2552419.2075954005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A25" s="1">
+        <v>2041</v>
+      </c>
+      <c r="B25" s="4">
+        <f>B24*'IESS Annual Cap Costs'!B27/'IESS Annual Cap Costs'!B26</f>
+        <v>1851164.8608746303</v>
+      </c>
+      <c r="C25" s="4">
+        <f>'IESS Annual Cap Costs'!C27</f>
+        <v>858757.40107984026</v>
+      </c>
+      <c r="D25" s="4">
+        <f>D24*'IESS Annual Cap Costs'!D27/'IESS Annual Cap Costs'!D26</f>
+        <v>2379569.0541115743</v>
+      </c>
+      <c r="E25" s="4">
+        <f>E24*'IESS Annual Cap Costs'!E27/'IESS Annual Cap Costs'!E26</f>
+        <v>1816967.4166238944</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <f>H24*'IESS Annual Cap Costs'!H27/'IESS Annual Cap Costs'!H26</f>
+        <v>2026137.2678965868</v>
+      </c>
+      <c r="I25" s="4">
+        <f>I24*'IESS Annual Cap Costs'!I27/'IESS Annual Cap Costs'!I26</f>
+        <v>796946.92977702012</v>
+      </c>
+      <c r="J25" s="4">
+        <f>'IESS Annual Cap Costs'!J27</f>
+        <v>5020996.8961110096</v>
+      </c>
+      <c r="K25" s="4">
         <f t="shared" si="2"/>
-        <v>651000</v>
-      </c>
-      <c r="Q24" s="4">
-        <f>'Waste to Energy'!B33</f>
-        <v>2569910.5349643975</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>2040</v>
-      </c>
-      <c r="B25" s="4">
-        <f>B24*'IESS Annual Cap Costs'!B26/'IESS Annual Cap Costs'!B25</f>
-        <v>1809143.1625093508</v>
-      </c>
-      <c r="C25" s="4">
-        <f>'IESS Annual Cap Costs'!C26</f>
-        <v>851725.39711520902</v>
-      </c>
-      <c r="D25" s="4">
-        <f>D24*'IESS Annual Cap Costs'!D26/'IESS Annual Cap Costs'!D25</f>
-        <v>2487092.643940263</v>
-      </c>
-      <c r="E25" s="4">
-        <f>E24*'IESS Annual Cap Costs'!E26/'IESS Annual Cap Costs'!E25</f>
-        <v>1870661.1897979355</v>
-      </c>
-      <c r="F25" s="4">
-        <v>0</v>
-      </c>
-      <c r="G25" s="4">
-        <v>0</v>
-      </c>
-      <c r="H25" s="4">
-        <f>H24*'IESS Annual Cap Costs'!H26/'IESS Annual Cap Costs'!H25</f>
-        <v>2054991.164244415</v>
-      </c>
-      <c r="I25" s="4">
-        <f>I24*'IESS Annual Cap Costs'!I26/'IESS Annual Cap Costs'!I25</f>
-        <v>796946.92977702012</v>
-      </c>
-      <c r="J25" s="4">
-        <f>'IESS Annual Cap Costs'!J26</f>
-        <v>5020996.8961110096</v>
-      </c>
-      <c r="K25" s="4">
-        <f t="shared" si="0"/>
         <v>651000</v>
       </c>
       <c r="L25" s="4">
@@ -6909,64 +7502,64 @@
       </c>
       <c r="M25" s="4">
         <f>B25*'Coal Cost Multipliers'!$B$33</f>
-        <v>2096692.5022428532</v>
+        <v>2145393.2251705979</v>
       </c>
       <c r="N25" s="4">
         <v>0</v>
       </c>
       <c r="O25" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>651000</v>
       </c>
       <c r="P25" s="4">
+        <f t="shared" si="1"/>
+        <v>651000</v>
+      </c>
+      <c r="Q25" s="4">
+        <f>'Waste to Energy'!B35</f>
+        <v>2534927.8802264035</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A26" s="1">
+        <v>2042</v>
+      </c>
+      <c r="B26" s="4">
+        <f>B25*'IESS Annual Cap Costs'!B28/'IESS Annual Cap Costs'!B27</f>
+        <v>1893186.55923991</v>
+      </c>
+      <c r="C26" s="4">
+        <f>'IESS Annual Cap Costs'!C28</f>
+        <v>865789.40504447173</v>
+      </c>
+      <c r="D26" s="4">
+        <f>D25*'IESS Annual Cap Costs'!D28/'IESS Annual Cap Costs'!D27</f>
+        <v>2272045.4642828852</v>
+      </c>
+      <c r="E26" s="4">
+        <f>E25*'IESS Annual Cap Costs'!E28/'IESS Annual Cap Costs'!E27</f>
+        <v>1763273.6434498536</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
+        <f>H25*'IESS Annual Cap Costs'!H28/'IESS Annual Cap Costs'!H27</f>
+        <v>2019990.5813986934</v>
+      </c>
+      <c r="I26" s="4">
+        <f>I25*'IESS Annual Cap Costs'!I28/'IESS Annual Cap Costs'!I27</f>
+        <v>796946.92977702012</v>
+      </c>
+      <c r="J26" s="4">
+        <f>'IESS Annual Cap Costs'!J28</f>
+        <v>5020996.8961110096</v>
+      </c>
+      <c r="K26" s="4">
         <f t="shared" si="2"/>
-        <v>651000</v>
-      </c>
-      <c r="Q25" s="4">
-        <f>'Waste to Energy'!B34</f>
-        <v>2552419.2075954005</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>2041</v>
-      </c>
-      <c r="B26" s="4">
-        <f>B25*'IESS Annual Cap Costs'!B27/'IESS Annual Cap Costs'!B26</f>
-        <v>1851164.8608746303</v>
-      </c>
-      <c r="C26" s="4">
-        <f>'IESS Annual Cap Costs'!C27</f>
-        <v>858757.40107984026</v>
-      </c>
-      <c r="D26" s="4">
-        <f>D25*'IESS Annual Cap Costs'!D27/'IESS Annual Cap Costs'!D26</f>
-        <v>2379569.0541115743</v>
-      </c>
-      <c r="E26" s="4">
-        <f>E25*'IESS Annual Cap Costs'!E27/'IESS Annual Cap Costs'!E26</f>
-        <v>1816967.4166238944</v>
-      </c>
-      <c r="F26" s="4">
-        <v>0</v>
-      </c>
-      <c r="G26" s="4">
-        <v>0</v>
-      </c>
-      <c r="H26" s="4">
-        <f>H25*'IESS Annual Cap Costs'!H27/'IESS Annual Cap Costs'!H26</f>
-        <v>2048775.7993023079</v>
-      </c>
-      <c r="I26" s="4">
-        <f>I25*'IESS Annual Cap Costs'!I27/'IESS Annual Cap Costs'!I26</f>
-        <v>796946.92977702012</v>
-      </c>
-      <c r="J26" s="4">
-        <f>'IESS Annual Cap Costs'!J27</f>
-        <v>5020996.8961110096</v>
-      </c>
-      <c r="K26" s="4">
-        <f t="shared" si="0"/>
         <v>651000</v>
       </c>
       <c r="L26" s="4">
@@ -6975,64 +7568,64 @@
       </c>
       <c r="M26" s="4">
         <f>B26*'Coal Cost Multipliers'!$B$33</f>
-        <v>2145393.2251705979</v>
+        <v>2194093.9480983433</v>
       </c>
       <c r="N26" s="4">
         <v>0</v>
       </c>
       <c r="O26" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>651000</v>
       </c>
       <c r="P26" s="4">
+        <f t="shared" si="1"/>
+        <v>651000</v>
+      </c>
+      <c r="Q26" s="4">
+        <f>'Waste to Energy'!B36</f>
+        <v>2517436.5528574036</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A27" s="1">
+        <v>2043</v>
+      </c>
+      <c r="B27" s="4">
+        <f>B26*'IESS Annual Cap Costs'!B29/'IESS Annual Cap Costs'!B28</f>
+        <v>1956386.7349720001</v>
+      </c>
+      <c r="C27" s="4">
+        <f>'IESS Annual Cap Costs'!C29</f>
+        <v>872821.40900910308</v>
+      </c>
+      <c r="D27" s="4">
+        <f>D26*'IESS Annual Cap Costs'!D29/'IESS Annual Cap Costs'!D28</f>
+        <v>2224582.1185382358</v>
+      </c>
+      <c r="E27" s="4">
+        <f>E26*'IESS Annual Cap Costs'!E29/'IESS Annual Cap Costs'!E28</f>
+        <v>1762558.6315525512</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+      <c r="H27" s="4">
+        <f>H26*'IESS Annual Cap Costs'!H29/'IESS Annual Cap Costs'!H28</f>
+        <v>2015564.9671202104</v>
+      </c>
+      <c r="I27" s="4">
+        <f>I26*'IESS Annual Cap Costs'!I29/'IESS Annual Cap Costs'!I28</f>
+        <v>796946.92977702012</v>
+      </c>
+      <c r="J27" s="4">
+        <f>'IESS Annual Cap Costs'!J29</f>
+        <v>5020996.8961110096</v>
+      </c>
+      <c r="K27" s="4">
         <f t="shared" si="2"/>
-        <v>651000</v>
-      </c>
-      <c r="Q26" s="4">
-        <f>'Waste to Energy'!B35</f>
-        <v>2534927.8802264035</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>2042</v>
-      </c>
-      <c r="B27" s="4">
-        <f>B26*'IESS Annual Cap Costs'!B28/'IESS Annual Cap Costs'!B27</f>
-        <v>1893186.55923991</v>
-      </c>
-      <c r="C27" s="4">
-        <f>'IESS Annual Cap Costs'!C28</f>
-        <v>865789.40504447173</v>
-      </c>
-      <c r="D27" s="4">
-        <f>D26*'IESS Annual Cap Costs'!D28/'IESS Annual Cap Costs'!D27</f>
-        <v>2272045.4642828852</v>
-      </c>
-      <c r="E27" s="4">
-        <f>E26*'IESS Annual Cap Costs'!E28/'IESS Annual Cap Costs'!E27</f>
-        <v>1763273.6434498536</v>
-      </c>
-      <c r="F27" s="4">
-        <v>0</v>
-      </c>
-      <c r="G27" s="4">
-        <v>0</v>
-      </c>
-      <c r="H27" s="4">
-        <f>H26*'IESS Annual Cap Costs'!H28/'IESS Annual Cap Costs'!H27</f>
-        <v>2042560.4343602003</v>
-      </c>
-      <c r="I27" s="4">
-        <f>I26*'IESS Annual Cap Costs'!I28/'IESS Annual Cap Costs'!I27</f>
-        <v>796946.92977702012</v>
-      </c>
-      <c r="J27" s="4">
-        <f>'IESS Annual Cap Costs'!J28</f>
-        <v>5020996.8961110096</v>
-      </c>
-      <c r="K27" s="4">
-        <f t="shared" si="0"/>
         <v>651000</v>
       </c>
       <c r="L27" s="4">
@@ -7041,64 +7634,64 @@
       </c>
       <c r="M27" s="4">
         <f>B27*'Coal Cost Multipliers'!$B$33</f>
-        <v>2194093.9480983433</v>
+        <v>2267339.3038799753</v>
       </c>
       <c r="N27" s="4">
         <v>0</v>
       </c>
       <c r="O27" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>651000</v>
       </c>
       <c r="P27" s="4">
+        <f t="shared" si="1"/>
+        <v>651000</v>
+      </c>
+      <c r="Q27" s="4">
+        <f>'Waste to Energy'!B37</f>
+        <v>2500639.0359685943</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A28" s="1">
+        <v>2044</v>
+      </c>
+      <c r="B28" s="4">
+        <f>B27*'IESS Annual Cap Costs'!B30/'IESS Annual Cap Costs'!B29</f>
+        <v>2019586.9107040903</v>
+      </c>
+      <c r="C28" s="4">
+        <f>'IESS Annual Cap Costs'!C30</f>
+        <v>879853.41297373443</v>
+      </c>
+      <c r="D28" s="4">
+        <f>D27*'IESS Annual Cap Costs'!D30/'IESS Annual Cap Costs'!D29</f>
+        <v>2177118.7727935864</v>
+      </c>
+      <c r="E28" s="4">
+        <f>E27*'IESS Annual Cap Costs'!E30/'IESS Annual Cap Costs'!E29</f>
+        <v>1761843.6196552489</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0</v>
+      </c>
+      <c r="H28" s="4">
+        <f>H27*'IESS Annual Cap Costs'!H30/'IESS Annual Cap Costs'!H29</f>
+        <v>2011139.3528417274</v>
+      </c>
+      <c r="I28" s="4">
+        <f>I27*'IESS Annual Cap Costs'!I30/'IESS Annual Cap Costs'!I29</f>
+        <v>796946.92977702012</v>
+      </c>
+      <c r="J28" s="4">
+        <f>'IESS Annual Cap Costs'!J30</f>
+        <v>5020996.8961110096</v>
+      </c>
+      <c r="K28" s="4">
         <f t="shared" si="2"/>
-        <v>651000</v>
-      </c>
-      <c r="Q27" s="4">
-        <f>'Waste to Energy'!B36</f>
-        <v>2517436.5528574036</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>2043</v>
-      </c>
-      <c r="B28" s="4">
-        <f>B27*'IESS Annual Cap Costs'!B29/'IESS Annual Cap Costs'!B28</f>
-        <v>1956386.7349720001</v>
-      </c>
-      <c r="C28" s="4">
-        <f>'IESS Annual Cap Costs'!C29</f>
-        <v>872821.40900910308</v>
-      </c>
-      <c r="D28" s="4">
-        <f>D27*'IESS Annual Cap Costs'!D29/'IESS Annual Cap Costs'!D28</f>
-        <v>2224582.1185382358</v>
-      </c>
-      <c r="E28" s="4">
-        <f>E27*'IESS Annual Cap Costs'!E29/'IESS Annual Cap Costs'!E28</f>
-        <v>1762558.6315525512</v>
-      </c>
-      <c r="F28" s="4">
-        <v>0</v>
-      </c>
-      <c r="G28" s="4">
-        <v>0</v>
-      </c>
-      <c r="H28" s="4">
-        <f>H27*'IESS Annual Cap Costs'!H29/'IESS Annual Cap Costs'!H28</f>
-        <v>2038085.3716018831</v>
-      </c>
-      <c r="I28" s="4">
-        <f>I27*'IESS Annual Cap Costs'!I29/'IESS Annual Cap Costs'!I28</f>
-        <v>796946.92977702012</v>
-      </c>
-      <c r="J28" s="4">
-        <f>'IESS Annual Cap Costs'!J29</f>
-        <v>5020996.8961110096</v>
-      </c>
-      <c r="K28" s="4">
-        <f t="shared" si="0"/>
         <v>651000</v>
       </c>
       <c r="L28" s="4">
@@ -7107,64 +7700,64 @@
       </c>
       <c r="M28" s="4">
         <f>B28*'Coal Cost Multipliers'!$B$33</f>
-        <v>2267339.3038799753</v>
+        <v>2340584.6596616074</v>
       </c>
       <c r="N28" s="4">
         <v>0</v>
       </c>
       <c r="O28" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>651000</v>
       </c>
       <c r="P28" s="4">
+        <f t="shared" si="1"/>
+        <v>651000</v>
+      </c>
+      <c r="Q28" s="4">
+        <f>'Waste to Energy'!B38</f>
+        <v>2483841.5190797895</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A29" s="1">
+        <v>2045</v>
+      </c>
+      <c r="B29" s="4">
+        <f>B28*'IESS Annual Cap Costs'!B31/'IESS Annual Cap Costs'!B30</f>
+        <v>2082787.0864361804</v>
+      </c>
+      <c r="C29" s="4">
+        <f>'IESS Annual Cap Costs'!C31</f>
+        <v>886885.41693836579</v>
+      </c>
+      <c r="D29" s="4">
+        <f>D28*'IESS Annual Cap Costs'!D31/'IESS Annual Cap Costs'!D30</f>
+        <v>2129655.4270489365</v>
+      </c>
+      <c r="E29" s="4">
+        <f>E28*'IESS Annual Cap Costs'!E31/'IESS Annual Cap Costs'!E30</f>
+        <v>1761128.6077579465</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0</v>
+      </c>
+      <c r="H29" s="4">
+        <f>H28*'IESS Annual Cap Costs'!H31/'IESS Annual Cap Costs'!H30</f>
+        <v>2006713.7385632447</v>
+      </c>
+      <c r="I29" s="4">
+        <f>I28*'IESS Annual Cap Costs'!I31/'IESS Annual Cap Costs'!I30</f>
+        <v>796946.92977702012</v>
+      </c>
+      <c r="J29" s="4">
+        <f>'IESS Annual Cap Costs'!J31</f>
+        <v>5020996.8961110096</v>
+      </c>
+      <c r="K29" s="4">
         <f t="shared" si="2"/>
-        <v>651000</v>
-      </c>
-      <c r="Q28" s="4">
-        <f>'Waste to Energy'!B37</f>
-        <v>2500639.0359685943</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>2044</v>
-      </c>
-      <c r="B29" s="4">
-        <f>B28*'IESS Annual Cap Costs'!B30/'IESS Annual Cap Costs'!B29</f>
-        <v>2019586.9107040903</v>
-      </c>
-      <c r="C29" s="4">
-        <f>'IESS Annual Cap Costs'!C30</f>
-        <v>879853.41297373443</v>
-      </c>
-      <c r="D29" s="4">
-        <f>D28*'IESS Annual Cap Costs'!D30/'IESS Annual Cap Costs'!D29</f>
-        <v>2177118.7727935864</v>
-      </c>
-      <c r="E29" s="4">
-        <f>E28*'IESS Annual Cap Costs'!E30/'IESS Annual Cap Costs'!E29</f>
-        <v>1761843.6196552489</v>
-      </c>
-      <c r="F29" s="4">
-        <v>0</v>
-      </c>
-      <c r="G29" s="4">
-        <v>0</v>
-      </c>
-      <c r="H29" s="4">
-        <f>H28*'IESS Annual Cap Costs'!H30/'IESS Annual Cap Costs'!H29</f>
-        <v>2033610.3088435659</v>
-      </c>
-      <c r="I29" s="4">
-        <f>I28*'IESS Annual Cap Costs'!I30/'IESS Annual Cap Costs'!I29</f>
-        <v>796946.92977702012</v>
-      </c>
-      <c r="J29" s="4">
-        <f>'IESS Annual Cap Costs'!J30</f>
-        <v>5020996.8961110096</v>
-      </c>
-      <c r="K29" s="4">
-        <f t="shared" si="0"/>
         <v>651000</v>
       </c>
       <c r="L29" s="4">
@@ -7173,64 +7766,64 @@
       </c>
       <c r="M29" s="4">
         <f>B29*'Coal Cost Multipliers'!$B$33</f>
-        <v>2340584.6596616074</v>
+        <v>2413830.0154432389</v>
       </c>
       <c r="N29" s="4">
         <v>0</v>
       </c>
       <c r="O29" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>651000</v>
       </c>
       <c r="P29" s="4">
+        <f t="shared" si="1"/>
+        <v>651000</v>
+      </c>
+      <c r="Q29" s="4">
+        <f>'Waste to Energy'!B39</f>
+        <v>2467044.0021909773</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A30" s="1">
+        <v>2046</v>
+      </c>
+      <c r="B30" s="4">
+        <f>B29*'IESS Annual Cap Costs'!B32/'IESS Annual Cap Costs'!B31</f>
+        <v>2145987.2621682705</v>
+      </c>
+      <c r="C30" s="4">
+        <f>'IESS Annual Cap Costs'!C32</f>
+        <v>893917.42090299714</v>
+      </c>
+      <c r="D30" s="4">
+        <f>D29*'IESS Annual Cap Costs'!D32/'IESS Annual Cap Costs'!D31</f>
+        <v>2082192.0813042866</v>
+      </c>
+      <c r="E30" s="4">
+        <f>E29*'IESS Annual Cap Costs'!E32/'IESS Annual Cap Costs'!E31</f>
+        <v>1760413.5958606442</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0</v>
+      </c>
+      <c r="H30" s="4">
+        <f>H29*'IESS Annual Cap Costs'!H32/'IESS Annual Cap Costs'!H31</f>
+        <v>2002288.1242847617</v>
+      </c>
+      <c r="I30" s="4">
+        <f>I29*'IESS Annual Cap Costs'!I32/'IESS Annual Cap Costs'!I31</f>
+        <v>796946.92977702012</v>
+      </c>
+      <c r="J30" s="4">
+        <f>'IESS Annual Cap Costs'!J32</f>
+        <v>5020996.8961110096</v>
+      </c>
+      <c r="K30" s="4">
         <f t="shared" si="2"/>
-        <v>651000</v>
-      </c>
-      <c r="Q29" s="4">
-        <f>'Waste to Energy'!B38</f>
-        <v>2483841.5190797895</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>2045</v>
-      </c>
-      <c r="B30" s="4">
-        <f>B29*'IESS Annual Cap Costs'!B31/'IESS Annual Cap Costs'!B30</f>
-        <v>2082787.0864361804</v>
-      </c>
-      <c r="C30" s="4">
-        <f>'IESS Annual Cap Costs'!C31</f>
-        <v>886885.41693836579</v>
-      </c>
-      <c r="D30" s="4">
-        <f>D29*'IESS Annual Cap Costs'!D31/'IESS Annual Cap Costs'!D30</f>
-        <v>2129655.4270489365</v>
-      </c>
-      <c r="E30" s="4">
-        <f>E29*'IESS Annual Cap Costs'!E31/'IESS Annual Cap Costs'!E30</f>
-        <v>1761128.6077579465</v>
-      </c>
-      <c r="F30" s="4">
-        <v>0</v>
-      </c>
-      <c r="G30" s="4">
-        <v>0</v>
-      </c>
-      <c r="H30" s="4">
-        <f>H29*'IESS Annual Cap Costs'!H31/'IESS Annual Cap Costs'!H30</f>
-        <v>2029135.2460852487</v>
-      </c>
-      <c r="I30" s="4">
-        <f>I29*'IESS Annual Cap Costs'!I31/'IESS Annual Cap Costs'!I30</f>
-        <v>796946.92977702012</v>
-      </c>
-      <c r="J30" s="4">
-        <f>'IESS Annual Cap Costs'!J31</f>
-        <v>5020996.8961110096</v>
-      </c>
-      <c r="K30" s="4">
-        <f t="shared" si="0"/>
         <v>651000</v>
       </c>
       <c r="L30" s="4">
@@ -7239,64 +7832,64 @@
       </c>
       <c r="M30" s="4">
         <f>B30*'Coal Cost Multipliers'!$B$33</f>
-        <v>2413830.0154432389</v>
+        <v>2487075.3712248709</v>
       </c>
       <c r="N30" s="4">
         <v>0</v>
       </c>
       <c r="O30" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>651000</v>
       </c>
       <c r="P30" s="4">
+        <f t="shared" si="1"/>
+        <v>651000</v>
+      </c>
+      <c r="Q30" s="4">
+        <f>'Waste to Energy'!B40</f>
+        <v>2450246.4853021726</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A31" s="1">
+        <v>2047</v>
+      </c>
+      <c r="B31" s="4">
+        <f>B30*'IESS Annual Cap Costs'!B33/'IESS Annual Cap Costs'!B32</f>
+        <v>2209187.4379003607</v>
+      </c>
+      <c r="C31" s="4">
+        <f>'IESS Annual Cap Costs'!C33</f>
+        <v>900949.42486762838</v>
+      </c>
+      <c r="D31" s="4">
+        <f>D30*'IESS Annual Cap Costs'!D33/'IESS Annual Cap Costs'!D32</f>
+        <v>2034728.7355596379</v>
+      </c>
+      <c r="E31" s="4">
+        <f>E30*'IESS Annual Cap Costs'!E33/'IESS Annual Cap Costs'!E32</f>
+        <v>1759698.5839633422</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0</v>
+      </c>
+      <c r="H31" s="4">
+        <f>H30*'IESS Annual Cap Costs'!H33/'IESS Annual Cap Costs'!H32</f>
+        <v>1997862.5100062781</v>
+      </c>
+      <c r="I31" s="4">
+        <f>I30*'IESS Annual Cap Costs'!I33/'IESS Annual Cap Costs'!I32</f>
+        <v>796946.92977702012</v>
+      </c>
+      <c r="J31" s="4">
+        <f>'IESS Annual Cap Costs'!J33</f>
+        <v>5020996.8961110096</v>
+      </c>
+      <c r="K31" s="4">
         <f t="shared" si="2"/>
-        <v>651000</v>
-      </c>
-      <c r="Q30" s="4">
-        <f>'Waste to Energy'!B39</f>
-        <v>2467044.0021909773</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>2046</v>
-      </c>
-      <c r="B31" s="4">
-        <f>B30*'IESS Annual Cap Costs'!B32/'IESS Annual Cap Costs'!B31</f>
-        <v>2145987.2621682705</v>
-      </c>
-      <c r="C31" s="4">
-        <f>'IESS Annual Cap Costs'!C32</f>
-        <v>893917.42090299714</v>
-      </c>
-      <c r="D31" s="4">
-        <f>D30*'IESS Annual Cap Costs'!D32/'IESS Annual Cap Costs'!D31</f>
-        <v>2082192.0813042866</v>
-      </c>
-      <c r="E31" s="4">
-        <f>E30*'IESS Annual Cap Costs'!E32/'IESS Annual Cap Costs'!E31</f>
-        <v>1760413.5958606442</v>
-      </c>
-      <c r="F31" s="4">
-        <v>0</v>
-      </c>
-      <c r="G31" s="4">
-        <v>0</v>
-      </c>
-      <c r="H31" s="4">
-        <f>H30*'IESS Annual Cap Costs'!H32/'IESS Annual Cap Costs'!H31</f>
-        <v>2024660.1833269314</v>
-      </c>
-      <c r="I31" s="4">
-        <f>I30*'IESS Annual Cap Costs'!I32/'IESS Annual Cap Costs'!I31</f>
-        <v>796946.92977702012</v>
-      </c>
-      <c r="J31" s="4">
-        <f>'IESS Annual Cap Costs'!J32</f>
-        <v>5020996.8961110096</v>
-      </c>
-      <c r="K31" s="4">
-        <f t="shared" si="0"/>
         <v>651000</v>
       </c>
       <c r="L31" s="4">
@@ -7305,64 +7898,64 @@
       </c>
       <c r="M31" s="4">
         <f>B31*'Coal Cost Multipliers'!$B$33</f>
-        <v>2487075.3712248709</v>
+        <v>2560320.7270065029</v>
       </c>
       <c r="N31" s="4">
         <v>0</v>
       </c>
       <c r="O31" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>651000</v>
       </c>
       <c r="P31" s="4">
+        <f t="shared" si="1"/>
+        <v>651000</v>
+      </c>
+      <c r="Q31" s="4">
+        <f>'Waste to Energy'!B41</f>
+        <v>2433448.9684133651</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A32" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B32" s="4">
+        <f>B31*'IESS Annual Cap Costs'!B34/'IESS Annual Cap Costs'!B33</f>
+        <v>2272387.6136324508</v>
+      </c>
+      <c r="C32" s="4">
+        <f>'IESS Annual Cap Costs'!C34</f>
+        <v>907981.42883225973</v>
+      </c>
+      <c r="D32" s="4">
+        <f>D31*'IESS Annual Cap Costs'!D34/'IESS Annual Cap Costs'!D33</f>
+        <v>1987265.3898149885</v>
+      </c>
+      <c r="E32" s="4">
+        <f>E31*'IESS Annual Cap Costs'!E34/'IESS Annual Cap Costs'!E33</f>
+        <v>1758983.5720660398</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
+      <c r="H32" s="4">
+        <f>H31*'IESS Annual Cap Costs'!H34/'IESS Annual Cap Costs'!H33</f>
+        <v>1993436.8957277951</v>
+      </c>
+      <c r="I32" s="4">
+        <f>I31*'IESS Annual Cap Costs'!I34/'IESS Annual Cap Costs'!I33</f>
+        <v>796946.92977702012</v>
+      </c>
+      <c r="J32" s="4">
+        <f>'IESS Annual Cap Costs'!J34</f>
+        <v>5020996.8961110096</v>
+      </c>
+      <c r="K32" s="4">
         <f t="shared" si="2"/>
-        <v>651000</v>
-      </c>
-      <c r="Q31" s="4">
-        <f>'Waste to Energy'!B40</f>
-        <v>2450246.4853021726</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>2047</v>
-      </c>
-      <c r="B32" s="4">
-        <f>B31*'IESS Annual Cap Costs'!B33/'IESS Annual Cap Costs'!B32</f>
-        <v>2209187.4379003607</v>
-      </c>
-      <c r="C32" s="4">
-        <f>'IESS Annual Cap Costs'!C33</f>
-        <v>900949.42486762838</v>
-      </c>
-      <c r="D32" s="4">
-        <f>D31*'IESS Annual Cap Costs'!D33/'IESS Annual Cap Costs'!D32</f>
-        <v>2034728.7355596379</v>
-      </c>
-      <c r="E32" s="4">
-        <f>E31*'IESS Annual Cap Costs'!E33/'IESS Annual Cap Costs'!E32</f>
-        <v>1759698.5839633422</v>
-      </c>
-      <c r="F32" s="4">
-        <v>0</v>
-      </c>
-      <c r="G32" s="4">
-        <v>0</v>
-      </c>
-      <c r="H32" s="4">
-        <f>H31*'IESS Annual Cap Costs'!H33/'IESS Annual Cap Costs'!H32</f>
-        <v>2020185.1205686138</v>
-      </c>
-      <c r="I32" s="4">
-        <f>I31*'IESS Annual Cap Costs'!I33/'IESS Annual Cap Costs'!I32</f>
-        <v>796946.92977702012</v>
-      </c>
-      <c r="J32" s="4">
-        <f>'IESS Annual Cap Costs'!J33</f>
-        <v>5020996.8961110096</v>
-      </c>
-      <c r="K32" s="4">
-        <f t="shared" si="0"/>
         <v>651000</v>
       </c>
       <c r="L32" s="4">
@@ -7371,64 +7964,64 @@
       </c>
       <c r="M32" s="4">
         <f>B32*'Coal Cost Multipliers'!$B$33</f>
-        <v>2560320.7270065029</v>
+        <v>2633566.0827881349</v>
       </c>
       <c r="N32" s="4">
         <v>0</v>
       </c>
       <c r="O32" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>651000</v>
       </c>
       <c r="P32" s="4">
+        <f t="shared" si="1"/>
+        <v>651000</v>
+      </c>
+      <c r="Q32" s="4">
+        <f>'Waste to Energy'!B42</f>
+        <v>2416651.4515245557</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A33" s="1">
+        <v>2049</v>
+      </c>
+      <c r="B33" s="4">
+        <f>B32*'IESS Annual Cap Costs'!B35/'IESS Annual Cap Costs'!B34</f>
+        <v>2335587.7893645409</v>
+      </c>
+      <c r="C33" s="4">
+        <f>'IESS Annual Cap Costs'!C35</f>
+        <v>915013.43279689108</v>
+      </c>
+      <c r="D33" s="4">
+        <f>D32*'IESS Annual Cap Costs'!D35/'IESS Annual Cap Costs'!D34</f>
+        <v>1939802.0440703391</v>
+      </c>
+      <c r="E33" s="4">
+        <f>E32*'IESS Annual Cap Costs'!E35/'IESS Annual Cap Costs'!E34</f>
+        <v>1758268.5601687375</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0</v>
+      </c>
+      <c r="H33" s="4">
+        <f>H32*'IESS Annual Cap Costs'!H35/'IESS Annual Cap Costs'!H34</f>
+        <v>1989011.2814493123</v>
+      </c>
+      <c r="I33" s="4">
+        <f>I32*'IESS Annual Cap Costs'!I35/'IESS Annual Cap Costs'!I34</f>
+        <v>796946.92977702012</v>
+      </c>
+      <c r="J33" s="4">
+        <f>'IESS Annual Cap Costs'!J35</f>
+        <v>5020996.8961110096</v>
+      </c>
+      <c r="K33" s="4">
         <f t="shared" si="2"/>
-        <v>651000</v>
-      </c>
-      <c r="Q32" s="4">
-        <f>'Waste to Energy'!B41</f>
-        <v>2433448.9684133651</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>2048</v>
-      </c>
-      <c r="B33" s="4">
-        <f>B32*'IESS Annual Cap Costs'!B34/'IESS Annual Cap Costs'!B33</f>
-        <v>2272387.6136324508</v>
-      </c>
-      <c r="C33" s="4">
-        <f>'IESS Annual Cap Costs'!C34</f>
-        <v>907981.42883225973</v>
-      </c>
-      <c r="D33" s="4">
-        <f>D32*'IESS Annual Cap Costs'!D34/'IESS Annual Cap Costs'!D33</f>
-        <v>1987265.3898149885</v>
-      </c>
-      <c r="E33" s="4">
-        <f>E32*'IESS Annual Cap Costs'!E34/'IESS Annual Cap Costs'!E33</f>
-        <v>1758983.5720660398</v>
-      </c>
-      <c r="F33" s="4">
-        <v>0</v>
-      </c>
-      <c r="G33" s="4">
-        <v>0</v>
-      </c>
-      <c r="H33" s="4">
-        <f>H32*'IESS Annual Cap Costs'!H34/'IESS Annual Cap Costs'!H33</f>
-        <v>2015710.0578102965</v>
-      </c>
-      <c r="I33" s="4">
-        <f>I32*'IESS Annual Cap Costs'!I34/'IESS Annual Cap Costs'!I33</f>
-        <v>796946.92977702012</v>
-      </c>
-      <c r="J33" s="4">
-        <f>'IESS Annual Cap Costs'!J34</f>
-        <v>5020996.8961110096</v>
-      </c>
-      <c r="K33" s="4">
-        <f t="shared" si="0"/>
         <v>651000</v>
       </c>
       <c r="L33" s="4">
@@ -7437,64 +8030,64 @@
       </c>
       <c r="M33" s="4">
         <f>B33*'Coal Cost Multipliers'!$B$33</f>
-        <v>2633566.0827881349</v>
+        <v>2706811.4385697669</v>
       </c>
       <c r="N33" s="4">
         <v>0</v>
       </c>
       <c r="O33" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>651000</v>
       </c>
       <c r="P33" s="4">
+        <f t="shared" si="1"/>
+        <v>651000</v>
+      </c>
+      <c r="Q33" s="4">
+        <f>'Waste to Energy'!B43</f>
+        <v>2399853.9346357509</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A34" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B34" s="4">
+        <f>B33*'IESS Annual Cap Costs'!B36/'IESS Annual Cap Costs'!B35</f>
+        <v>2398787.9650966311</v>
+      </c>
+      <c r="C34" s="4">
+        <f>'IESS Annual Cap Costs'!C36</f>
+        <v>922045.43676152243</v>
+      </c>
+      <c r="D34" s="4">
+        <f>D33*'IESS Annual Cap Costs'!D36/'IESS Annual Cap Costs'!D35</f>
+        <v>1892338.6983256896</v>
+      </c>
+      <c r="E34" s="4">
+        <f>E33*'IESS Annual Cap Costs'!E36/'IESS Annual Cap Costs'!E35</f>
+        <v>1757553.5482714351</v>
+      </c>
+      <c r="F34" s="19">
+        <v>0</v>
+      </c>
+      <c r="G34" s="19">
+        <v>0</v>
+      </c>
+      <c r="H34" s="4">
+        <f>H33*'IESS Annual Cap Costs'!H36/'IESS Annual Cap Costs'!H35</f>
+        <v>1984585.6671708294</v>
+      </c>
+      <c r="I34" s="4">
+        <f>I33*'IESS Annual Cap Costs'!I36/'IESS Annual Cap Costs'!I35</f>
+        <v>796946.92977702012</v>
+      </c>
+      <c r="J34" s="4">
+        <f>'IESS Annual Cap Costs'!J36</f>
+        <v>5020996.8961110096</v>
+      </c>
+      <c r="K34" s="4">
         <f t="shared" si="2"/>
-        <v>651000</v>
-      </c>
-      <c r="Q33" s="4">
-        <f>'Waste to Energy'!B42</f>
-        <v>2416651.4515245557</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>2049</v>
-      </c>
-      <c r="B34" s="4">
-        <f>B33*'IESS Annual Cap Costs'!B35/'IESS Annual Cap Costs'!B34</f>
-        <v>2335587.7893645409</v>
-      </c>
-      <c r="C34" s="4">
-        <f>'IESS Annual Cap Costs'!C35</f>
-        <v>915013.43279689108</v>
-      </c>
-      <c r="D34" s="4">
-        <f>D33*'IESS Annual Cap Costs'!D35/'IESS Annual Cap Costs'!D34</f>
-        <v>1939802.0440703391</v>
-      </c>
-      <c r="E34" s="4">
-        <f>E33*'IESS Annual Cap Costs'!E35/'IESS Annual Cap Costs'!E34</f>
-        <v>1758268.5601687375</v>
-      </c>
-      <c r="F34" s="4">
-        <v>0</v>
-      </c>
-      <c r="G34" s="4">
-        <v>0</v>
-      </c>
-      <c r="H34" s="4">
-        <f>H33*'IESS Annual Cap Costs'!H35/'IESS Annual Cap Costs'!H34</f>
-        <v>2011234.9950519796</v>
-      </c>
-      <c r="I34" s="4">
-        <f>I33*'IESS Annual Cap Costs'!I35/'IESS Annual Cap Costs'!I34</f>
-        <v>796946.92977702012</v>
-      </c>
-      <c r="J34" s="4">
-        <f>'IESS Annual Cap Costs'!J35</f>
-        <v>5020996.8961110096</v>
-      </c>
-      <c r="K34" s="4">
-        <f t="shared" si="0"/>
         <v>651000</v>
       </c>
       <c r="L34" s="4">
@@ -7503,91 +8096,41 @@
       </c>
       <c r="M34" s="4">
         <f>B34*'Coal Cost Multipliers'!$B$33</f>
-        <v>2706811.4385697669</v>
-      </c>
-      <c r="N34" s="4">
+        <v>2780056.7943513985</v>
+      </c>
+      <c r="N34" s="19">
         <v>0</v>
       </c>
       <c r="O34" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>651000</v>
       </c>
       <c r="P34" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>651000</v>
       </c>
       <c r="Q34" s="4">
-        <f>'Waste to Energy'!B43</f>
-        <v>2399853.9346357509</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>2050</v>
-      </c>
-      <c r="B35" s="4">
-        <f>B34*'IESS Annual Cap Costs'!B36/'IESS Annual Cap Costs'!B35</f>
-        <v>2398787.9650966311</v>
-      </c>
-      <c r="C35" s="4">
-        <f>'IESS Annual Cap Costs'!C36</f>
-        <v>922045.43676152243</v>
-      </c>
-      <c r="D35" s="4">
-        <f>D34*'IESS Annual Cap Costs'!D36/'IESS Annual Cap Costs'!D35</f>
-        <v>1892338.6983256896</v>
-      </c>
-      <c r="E35" s="4">
-        <f>E34*'IESS Annual Cap Costs'!E36/'IESS Annual Cap Costs'!E35</f>
-        <v>1757553.5482714351</v>
-      </c>
-      <c r="F35" s="4">
-        <v>0</v>
-      </c>
-      <c r="G35" s="4">
-        <v>0</v>
-      </c>
-      <c r="H35" s="4">
-        <f>H34*'IESS Annual Cap Costs'!H36/'IESS Annual Cap Costs'!H35</f>
-        <v>2006759.9322936623</v>
-      </c>
-      <c r="I35" s="4">
-        <f>I34*'IESS Annual Cap Costs'!I36/'IESS Annual Cap Costs'!I35</f>
-        <v>796946.92977702012</v>
-      </c>
-      <c r="J35" s="4">
-        <f>'IESS Annual Cap Costs'!J36</f>
-        <v>5020996.8961110096</v>
-      </c>
-      <c r="K35" s="4">
-        <f t="shared" si="0"/>
-        <v>651000</v>
-      </c>
-      <c r="L35" s="4">
-        <f t="shared" si="3"/>
-        <v>651000</v>
-      </c>
-      <c r="M35" s="4">
-        <f>B35*'Coal Cost Multipliers'!$B$33</f>
-        <v>2780056.7943513985</v>
-      </c>
-      <c r="N35" s="4">
-        <v>0</v>
-      </c>
-      <c r="O35" s="4">
-        <f t="shared" si="1"/>
-        <v>651000</v>
-      </c>
-      <c r="P35" s="4">
-        <f t="shared" si="2"/>
-        <v>651000</v>
-      </c>
-      <c r="Q35" s="4">
         <f>'Waste to Energy'!B44</f>
         <v>2383056.4177469388</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A35" s="20"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A36" s="20"/>
       <c r="B36" s="12"/>
       <c r="C36" s="20"/>
@@ -7603,7 +8146,7 @@
       <c r="M36" s="20"/>
       <c r="N36" s="20"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A37" s="20"/>
       <c r="B37" s="12"/>
       <c r="C37" s="20"/>
@@ -7619,7 +8162,7 @@
       <c r="M37" s="20"/>
       <c r="N37" s="20"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A38" s="20"/>
       <c r="B38" s="12"/>
       <c r="C38" s="20"/>
@@ -7635,7 +8178,7 @@
       <c r="M38" s="20"/>
       <c r="N38" s="20"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A39" s="20"/>
       <c r="B39" s="12"/>
       <c r="C39" s="20"/>
@@ -7651,7 +8194,7 @@
       <c r="M39" s="20"/>
       <c r="N39" s="20"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A40" s="20"/>
       <c r="B40" s="12"/>
       <c r="C40" s="20"/>
@@ -7667,7 +8210,7 @@
       <c r="M40" s="20"/>
       <c r="N40" s="20"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A41" s="20"/>
       <c r="B41" s="12"/>
       <c r="C41" s="20"/>
@@ -7683,7 +8226,7 @@
       <c r="M41" s="20"/>
       <c r="N41" s="20"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A42" s="20"/>
       <c r="B42" s="12"/>
       <c r="C42" s="20"/>
@@ -7699,7 +8242,7 @@
       <c r="M42" s="20"/>
       <c r="N42" s="20"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A43" s="20"/>
       <c r="B43" s="12"/>
       <c r="C43" s="20"/>
@@ -7715,7 +8258,7 @@
       <c r="M43" s="20"/>
       <c r="N43" s="20"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A44" s="20"/>
       <c r="B44" s="12"/>
       <c r="C44" s="20"/>
@@ -7731,7 +8274,7 @@
       <c r="M44" s="20"/>
       <c r="N44" s="20"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A45" s="20"/>
       <c r="B45" s="12"/>
       <c r="C45" s="20"/>
@@ -7747,7 +8290,7 @@
       <c r="M45" s="20"/>
       <c r="N45" s="20"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A46" s="20"/>
       <c r="B46" s="12"/>
       <c r="C46" s="20"/>
@@ -7763,619 +8306,8 @@
       <c r="M46" s="20"/>
       <c r="N46" s="20"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="20"/>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B47" s="12"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="20"/>
-      <c r="N47" s="20"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B48" s="12"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1:D17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="33.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="4">
-        <f>Lazard!D19*10^3</f>
-        <v>37897.5</v>
-      </c>
-      <c r="C2" s="20">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
-        <f>B2</f>
-        <v>37897.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="4">
-        <f>Lazard!D20*10^3</f>
-        <v>10230</v>
-      </c>
-      <c r="C3" s="20">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
-        <f t="shared" ref="D3:D14" si="0">B3</f>
-        <v>10230</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="4">
-        <f>Lazard!D21*10^3</f>
-        <v>100905</v>
-      </c>
-      <c r="C4" s="20">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <f t="shared" si="0"/>
-        <v>100905</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="4">
-        <f>B6</f>
-        <v>26040.000000000004</v>
-      </c>
-      <c r="C5" s="20">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <f t="shared" si="0"/>
-        <v>26040.000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="4">
-        <f>Lazard!D23*10^3</f>
-        <v>26040.000000000004</v>
-      </c>
-      <c r="C6" s="20">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4">
-        <f t="shared" si="0"/>
-        <v>26040.000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="4">
-        <f>Lazard!D24*10^3</f>
-        <v>8370.0000000000018</v>
-      </c>
-      <c r="C7" s="20">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
-        <f t="shared" si="0"/>
-        <v>8370.0000000000018</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="4">
-        <f>Lazard!D25*10^3</f>
-        <v>69750</v>
-      </c>
-      <c r="C8" s="20">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4">
-        <f t="shared" si="0"/>
-        <v>69750</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="4">
-        <f>Lazard!D26*10^3</f>
-        <v>46500</v>
-      </c>
-      <c r="C9" s="20">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4">
-        <f t="shared" si="0"/>
-        <v>46500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="4">
-        <f>B6</f>
-        <v>26040.000000000004</v>
-      </c>
-      <c r="C10" s="20">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
-        <f t="shared" si="0"/>
-        <v>26040.000000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="4">
-        <f>Lazard!D28*10^3</f>
-        <v>5115</v>
-      </c>
-      <c r="C11" s="20">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4">
-        <f t="shared" si="0"/>
-        <v>5115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="4">
-        <f>Lazard!D29*10^3</f>
-        <v>5115</v>
-      </c>
-      <c r="C12" s="20">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4">
-        <f t="shared" si="0"/>
-        <v>5115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="4">
-        <f>B2*'Coal Cost Multipliers'!$B$35</f>
-        <v>37897.5</v>
-      </c>
-      <c r="C13" s="4">
-        <f>C2*'Coal Cost Multipliers'!$B$35</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="4">
-        <f>D2*'Coal Cost Multipliers'!$B$35</f>
-        <v>37897.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="4">
-        <f>Lazard!D31*10^3</f>
-        <v>74400</v>
-      </c>
-      <c r="C14" s="20">
-        <v>0</v>
-      </c>
-      <c r="D14" s="4">
-        <f t="shared" si="0"/>
-        <v>74400</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="B15" s="4">
-        <f>B11</f>
-        <v>5115</v>
-      </c>
-      <c r="C15" s="4">
-        <f t="shared" ref="C15:D15" si="1">C11</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="4">
-        <f t="shared" si="1"/>
-        <v>5115</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="B16" s="4">
-        <f>B11</f>
-        <v>5115</v>
-      </c>
-      <c r="C16" s="4">
-        <f t="shared" ref="C16:D16" si="2">C11</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="4">
-        <f t="shared" si="2"/>
-        <v>5115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="B17" s="4">
-        <f>'Waste to Energy'!A8*'CCaMC-BCCpUC'!Q2</f>
-        <v>179715.17253971149</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17" s="4">
-        <f>B17</f>
-        <v>179715.17253971149</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1:D17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="33.28515625" style="20" customWidth="1"/>
-    <col min="2" max="4" width="24" style="20" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="20"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="16">
-        <f>Lazard!C19</f>
-        <v>2.5575000000000001</v>
-      </c>
-      <c r="C2" s="20">
-        <v>0</v>
-      </c>
-      <c r="D2" s="16">
-        <f>B2</f>
-        <v>2.5575000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="16">
-        <f>Lazard!C20</f>
-        <v>2.79</v>
-      </c>
-      <c r="C3" s="20">
-        <v>0</v>
-      </c>
-      <c r="D3" s="16">
-        <f t="shared" ref="D3:D14" si="0">B3</f>
-        <v>2.79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="16">
-        <f>Lazard!C21</f>
-        <v>3.2550000000000003</v>
-      </c>
-      <c r="C4" s="20">
-        <v>0</v>
-      </c>
-      <c r="D4" s="16">
-        <f t="shared" si="0"/>
-        <v>3.2550000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="16">
-        <f>Lazard!C22</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="20">
-        <v>0</v>
-      </c>
-      <c r="D5" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="16">
-        <f>Lazard!C23</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="20">
-        <v>0</v>
-      </c>
-      <c r="D6" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="16">
-        <f>Lazard!C24</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="20">
-        <v>0</v>
-      </c>
-      <c r="D7" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="16">
-        <f>Lazard!C25</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="20">
-        <v>0</v>
-      </c>
-      <c r="D8" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="16">
-        <f>Lazard!C26</f>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="C9" s="20">
-        <v>0</v>
-      </c>
-      <c r="D9" s="16">
-        <f t="shared" si="0"/>
-        <v>9.3000000000000007</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="16">
-        <f>Lazard!C27</f>
-        <v>22.32</v>
-      </c>
-      <c r="C10" s="20">
-        <v>0</v>
-      </c>
-      <c r="D10" s="16">
-        <f t="shared" si="0"/>
-        <v>22.32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="16">
-        <f>Lazard!C28</f>
-        <v>4.4175000000000004</v>
-      </c>
-      <c r="C11" s="20">
-        <v>0</v>
-      </c>
-      <c r="D11" s="16">
-        <f t="shared" si="0"/>
-        <v>4.4175000000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="16">
-        <f>Lazard!C29</f>
-        <v>4.4175000000000004</v>
-      </c>
-      <c r="C12" s="20">
-        <v>0</v>
-      </c>
-      <c r="D12" s="16">
-        <f t="shared" si="0"/>
-        <v>4.4175000000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="16">
-        <f>B2*'Coal Cost Multipliers'!$B$34</f>
-        <v>4.3327058823529416</v>
-      </c>
-      <c r="C13" s="16">
-        <f>C2*'Coal Cost Multipliers'!$B$34</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="16">
-        <f>D2*'Coal Cost Multipliers'!$B$34</f>
-        <v>4.3327058823529416</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="16">
-        <f>Lazard!C31</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="20">
-        <v>0</v>
-      </c>
-      <c r="D14" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="B15" s="16">
-        <f>B11</f>
-        <v>4.4175000000000004</v>
-      </c>
-      <c r="C15" s="16">
-        <f t="shared" ref="C15:D15" si="1">C11</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="16">
-        <f t="shared" si="1"/>
-        <v>4.4175000000000004</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="B16" s="16">
-        <f>B11</f>
-        <v>4.4175000000000004</v>
-      </c>
-      <c r="C16" s="16">
-        <f t="shared" ref="C16:D16" si="2">C11</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="16">
-        <f t="shared" si="2"/>
-        <v>4.4175000000000004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="B17" s="16">
-        <f>B9</f>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="C17" s="16">
-        <f t="shared" ref="C17:D17" si="3">C9</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="16">
-        <f t="shared" si="3"/>
-        <v>9.3000000000000007</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8390,28 +8322,28 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="20">
         <v>2010</v>
       </c>
@@ -8420,7 +8352,7 @@
       </c>
       <c r="C4" s="20"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="20">
         <v>2011</v>
       </c>
@@ -8429,7 +8361,7 @@
       </c>
       <c r="C5" s="20"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="20">
         <v>2012</v>
       </c>
@@ -8438,7 +8370,7 @@
       </c>
       <c r="C6" s="20"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="20">
         <v>2013</v>
       </c>
@@ -8447,7 +8379,7 @@
       </c>
       <c r="C7" s="20"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="20">
         <v>2014</v>
       </c>
@@ -8456,7 +8388,7 @@
       </c>
       <c r="C8" s="20"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="20">
         <v>2015</v>
       </c>
@@ -8465,7 +8397,7 @@
       </c>
       <c r="C9" s="20"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="20">
         <v>2016</v>
       </c>
@@ -8474,7 +8406,7 @@
       </c>
       <c r="C10" s="20"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="20">
         <v>2017</v>
       </c>
@@ -8483,7 +8415,7 @@
       </c>
       <c r="C11" s="20"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>2018</v>
       </c>
@@ -8492,7 +8424,7 @@
       </c>
       <c r="C12" s="20"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>2019</v>
       </c>
@@ -8501,62 +8433,62 @@
       </c>
       <c r="C13" s="20"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="20">
         <v>100000</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="20"/>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="20"/>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="20">
         <v>10000000</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="20"/>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="20"/>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="20">
         <f>A19/A15</f>
         <v>100</v>
@@ -8564,17 +8496,17 @@
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="20"/>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="20"/>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>98</v>
       </c>
@@ -8583,7 +8515,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="17" t="s">
         <v>30</v>
       </c>
@@ -8594,7 +8526,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="20">
         <v>2010</v>
       </c>
@@ -8606,7 +8538,7 @@
         <v>0.84470208721577789</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="20">
         <v>2011</v>
       </c>
@@ -8618,7 +8550,7 @@
         <v>0.8995232526760818</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="20">
         <v>2012</v>
       </c>
@@ -8629,7 +8561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="20">
         <v>2013</v>
       </c>
@@ -8641,7 +8573,7 @@
         <v>1.0912999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="20">
         <v>2014</v>
       </c>
@@ -8653,7 +8585,7 @@
         <v>1.1552501799999999</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="20">
         <v>2015</v>
       </c>
@@ -8665,7 +8597,7 @@
         <v>1.2282619913759998</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="20">
         <v>2016</v>
       </c>
@@ -8677,7 +8609,7 @@
         <v>1.2556522337836846</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="20">
         <v>2017</v>
       </c>
@@ -8689,12 +8621,12 @@
         <v>1.3058783231350322</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="63">
         <v>0.93</v>
       </c>
@@ -8715,15 +8647,15 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.86328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="9.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="50" t="s">
         <v>119</v>
       </c>
@@ -8736,7 +8668,7 @@
       <c r="H1" s="50"/>
       <c r="I1" s="50"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>117</v>
       </c>
@@ -8771,7 +8703,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -8797,7 +8729,7 @@
         <v>4.9345000000000007E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>73</v>
       </c>
@@ -8826,7 +8758,7 @@
         <v>6.535228698677871E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>73</v>
       </c>
@@ -8855,7 +8787,7 @@
         <v>7.2231475090650213E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>73</v>
       </c>
@@ -8884,7 +8816,7 @@
         <v>8.3410155759441301E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>73</v>
       </c>
@@ -8913,7 +8845,7 @@
         <v>0.125484989999745</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -8942,7 +8874,7 @@
         <v>7.2106249999999997E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -8971,7 +8903,7 @@
         <v>0.18243750000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -9007,7 +8939,7 @@
         <v>9.4500000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -9043,7 +8975,7 @@
         <v>6.3500000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>122</v>
       </c>
@@ -9072,7 +9004,7 @@
         <v>6.2199999999999991E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -9104,7 +9036,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -9137,7 +9069,7 @@
         <v>5.7500000000000002E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -9170,7 +9102,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -9196,7 +9128,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="50" t="s">
         <v>126</v>
       </c>
@@ -9209,7 +9141,7 @@
       <c r="H18" s="50"/>
       <c r="I18" s="50"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="20" t="s">
         <v>117</v>
       </c>
@@ -9244,7 +9176,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="20" t="s">
         <v>18</v>
       </c>
@@ -9278,7 +9210,7 @@
         <v>900949.42486762838</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="20" t="s">
         <v>73</v>
       </c>
@@ -9314,7 +9246,7 @@
         <v>1193213.2004158974</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="20" t="s">
         <v>73</v>
       </c>
@@ -9350,7 +9282,7 @@
         <v>1318814.5899333616</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="20" t="s">
         <v>73</v>
       </c>
@@ -9386,7 +9318,7 @@
         <v>1522916.8478992386</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="20" t="s">
         <v>73</v>
       </c>
@@ -9422,7 +9354,7 @@
         <v>2291126.346535421</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="20" t="s">
         <v>20</v>
       </c>
@@ -9458,7 +9390,7 @@
         <v>1316528.2088734708</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="20" t="s">
         <v>20</v>
       </c>
@@ -9494,7 +9426,7 @@
         <v>3330974.9863063726</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="20" t="s">
         <v>24</v>
       </c>
@@ -9530,7 +9462,7 @@
         <v>1725397.1152090558</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="20" t="s">
         <v>24</v>
       </c>
@@ -9566,7 +9498,7 @@
         <v>1159393.8287383604</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="20" t="s">
         <v>122</v>
       </c>
@@ -9602,7 +9534,7 @@
         <v>1135658.2070476536</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="20" t="s">
         <v>27</v>
       </c>
@@ -9638,7 +9570,7 @@
         <v>2730703.6811848823</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="20" t="s">
         <v>25</v>
       </c>
@@ -9672,7 +9604,7 @@
         <v>1049844.8055504838</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="20" t="s">
         <v>26</v>
       </c>
@@ -9706,7 +9638,7 @@
         <v>2483111.1922585354</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="20" t="s">
         <v>21</v>
       </c>
@@ -9740,7 +9672,7 @@
         <v>821617.67390907416</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" s="51" t="s">
         <v>127</v>
       </c>
@@ -9753,7 +9685,7 @@
       <c r="H35" s="51"/>
       <c r="I35" s="51"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" s="20" t="s">
         <v>117</v>
       </c>
@@ -9788,7 +9720,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" s="20" t="s">
         <v>73</v>
       </c>
@@ -9817,7 +9749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="20" t="s">
         <v>73</v>
       </c>
@@ -9846,7 +9778,7 @@
         <v>0.45366202535004463</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" s="20" t="s">
         <v>73</v>
       </c>
@@ -9875,7 +9807,7 @@
         <v>1.814648101400179</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" s="20" t="s">
         <v>73</v>
       </c>
@@ -9904,7 +9836,7 @@
         <v>2.2683101267502237</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" s="20" t="s">
         <v>20</v>
       </c>
@@ -9933,7 +9865,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" s="20" t="s">
         <v>20</v>
       </c>
@@ -9962,7 +9894,7 @@
         <v>0.21999999999999992</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" s="20" t="s">
         <v>24</v>
       </c>
@@ -9991,7 +9923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" s="20" t="s">
         <v>24</v>
       </c>
@@ -10020,7 +9952,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" s="51" t="s">
         <v>130</v>
       </c>
@@ -10033,7 +9965,7 @@
       <c r="H46" s="51"/>
       <c r="I46" s="20"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>103</v>
       </c>
@@ -10060,7 +9992,7 @@
       </c>
       <c r="I47" s="4"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" s="20" t="s">
         <v>15</v>
       </c>
@@ -10093,7 +10025,7 @@
         <v>1886611.371420742</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A49" s="20" t="s">
         <v>18</v>
       </c>
@@ -10126,7 +10058,7 @@
         <v>900949.42486762838</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A50" s="20" t="s">
         <v>20</v>
       </c>
@@ -10159,7 +10091,7 @@
         <v>2131194.1850411883</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A51" s="20" t="s">
         <v>24</v>
       </c>
@@ -10192,7 +10124,7 @@
         <v>1536729.3530521572</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52" s="20" t="s">
         <v>25</v>
       </c>
@@ -10225,7 +10157,7 @@
         <v>1049844.8055504838</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A53" s="20" t="s">
         <v>29</v>
       </c>
@@ -10258,7 +10190,7 @@
         <v>1135658.2070476536</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A54" s="20" t="s">
         <v>27</v>
       </c>
@@ -10291,7 +10223,7 @@
         <v>2730703.6811848823</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A55" s="20" t="s">
         <v>21</v>
       </c>
@@ -10324,7 +10256,7 @@
         <v>821617.67390907416</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A56" s="20" t="s">
         <v>22</v>
       </c>
@@ -10335,7 +10267,7 @@
       <c r="G56" s="20"/>
       <c r="H56" s="20"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A57" s="20" t="s">
         <v>76</v>
       </c>
@@ -10346,7 +10278,7 @@
       <c r="G57" s="20"/>
       <c r="H57" s="20"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58" s="20" t="s">
         <v>19</v>
       </c>
@@ -10357,7 +10289,7 @@
       <c r="G58" s="20"/>
       <c r="H58" s="20"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59" s="20" t="s">
         <v>77</v>
       </c>
@@ -10368,7 +10300,7 @@
       <c r="G59" s="20"/>
       <c r="H59" s="20"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60" s="20" t="s">
         <v>26</v>
       </c>
@@ -10414,12 +10346,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>27.5</v>
       </c>
@@ -10427,7 +10359,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="4">
         <f>A1*'Conversion Factors'!A19/'Conversion Factors'!B6</f>
         <v>5020996.8961110096</v>
@@ -10436,7 +10368,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>133</v>
       </c>
@@ -10454,15 +10386,15 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="88" t="s">
         <v>103</v>
       </c>
@@ -10472,7 +10404,7 @@
       <c r="C1" s="86"/>
       <c r="D1" s="87"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="89"/>
       <c r="B2" s="52" t="s">
         <v>135</v>
@@ -10484,7 +10416,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="54" t="s">
         <v>15</v>
       </c>
@@ -10496,7 +10428,7 @@
         <v>40.75</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="54" t="s">
         <v>18</v>
       </c>
@@ -10508,7 +10440,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="54" t="s">
         <v>20</v>
       </c>
@@ -10520,7 +10452,7 @@
         <v>108.5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="54" t="s">
         <v>24</v>
       </c>
@@ -10528,7 +10460,7 @@
       <c r="C6" s="56"/>
       <c r="D6" s="57"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="54" t="s">
         <v>25</v>
       </c>
@@ -10540,7 +10472,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="54" t="s">
         <v>29</v>
       </c>
@@ -10552,7 +10484,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="54" t="s">
         <v>27</v>
       </c>
@@ -10564,7 +10496,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="54" t="s">
         <v>21</v>
       </c>
@@ -10579,7 +10511,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="54" t="s">
         <v>22</v>
       </c>
@@ -10591,7 +10523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="54" t="s">
         <v>76</v>
       </c>
@@ -10611,7 +10543,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="54" t="s">
         <v>19</v>
       </c>
@@ -10625,7 +10557,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="54" t="s">
         <v>77</v>
       </c>
@@ -10642,7 +10574,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="58" t="s">
         <v>26</v>
       </c>
@@ -10654,8 +10586,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="88" t="s">
         <v>103</v>
       </c>
@@ -10665,7 +10597,7 @@
       <c r="C17" s="86"/>
       <c r="D17" s="87"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="89"/>
       <c r="B18" s="52" t="s">
         <v>135</v>
@@ -10677,7 +10609,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="54" t="s">
         <v>15</v>
       </c>
@@ -10691,7 +10623,7 @@
         <v>37.897500000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="54" t="s">
         <v>18</v>
       </c>
@@ -10705,7 +10637,7 @@
         <v>10.23</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="54" t="s">
         <v>20</v>
       </c>
@@ -10719,7 +10651,7 @@
         <v>100.905</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="54" t="s">
         <v>24</v>
       </c>
@@ -10733,7 +10665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="54" t="s">
         <v>25</v>
       </c>
@@ -10747,7 +10679,7 @@
         <v>26.040000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="54" t="s">
         <v>29</v>
       </c>
@@ -10761,7 +10693,7 @@
         <v>8.370000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="54" t="s">
         <v>27</v>
       </c>
@@ -10775,7 +10707,7 @@
         <v>69.75</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="54" t="s">
         <v>21</v>
       </c>
@@ -10789,7 +10721,7 @@
         <v>46.5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="54" t="s">
         <v>22</v>
       </c>
@@ -10803,7 +10735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="54" t="s">
         <v>76</v>
       </c>
@@ -10820,7 +10752,7 @@
         <v>5.1150000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="54" t="s">
         <v>19</v>
       </c>
@@ -10837,7 +10769,7 @@
         <v>5.1150000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="54" t="s">
         <v>77</v>
       </c>
@@ -10851,7 +10783,7 @@
         <v>37.897500000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="58" t="s">
         <v>26</v>
       </c>
@@ -10884,12 +10816,12 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="51" t="s">
         <v>130</v>
       </c>
@@ -10901,7 +10833,7 @@
       <c r="G1" s="51"/>
       <c r="H1" s="51"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="20" t="s">
         <v>103</v>
       </c>
@@ -10927,7 +10859,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="20" t="s">
         <v>15</v>
       </c>
@@ -10960,7 +10892,7 @@
         <v>1886611.371420742</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="20" t="s">
         <v>18</v>
       </c>
@@ -10993,7 +10925,7 @@
         <v>900949.42486762838</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="20" t="s">
         <v>20</v>
       </c>
@@ -11026,7 +10958,7 @@
         <v>2131194.1850411883</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="20" t="s">
         <v>24</v>
       </c>
@@ -11059,7 +10991,7 @@
         <v>1536729.3530521572</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="20" t="s">
         <v>25</v>
       </c>
@@ -11092,7 +11024,7 @@
         <v>1049844.8055504838</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="20" t="s">
         <v>29</v>
       </c>
@@ -11125,7 +11057,7 @@
         <v>1135658.2070476536</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="20" t="s">
         <v>27</v>
       </c>
@@ -11158,7 +11090,7 @@
         <v>2730703.6811848823</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="20" t="s">
         <v>21</v>
       </c>
@@ -11191,7 +11123,7 @@
         <v>821617.67390907416</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="20" t="s">
         <v>22</v>
       </c>
@@ -11224,7 +11156,7 @@
         <v>5020996.8961110096</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="20" t="s">
         <v>76</v>
       </c>
@@ -11236,7 +11168,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="20" t="s">
         <v>19</v>
       </c>
@@ -11248,7 +11180,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="20" t="s">
         <v>77</v>
       </c>
@@ -11260,7 +11192,7 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="20" t="s">
         <v>26</v>
       </c>
@@ -11306,19 +11238,19 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.3984375" customWidth="1"/>
+    <col min="3" max="3" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>103</v>
       </c>
@@ -11344,7 +11276,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>92</v>
       </c>
@@ -11385,14 +11317,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="20.7109375" style="43" customWidth="1"/>
+    <col min="1" max="2" width="20.73046875" style="43" customWidth="1"/>
     <col min="3" max="3" width="21" style="43" customWidth="1"/>
-    <col min="4" max="8" width="20.7109375" style="43" customWidth="1"/>
+    <col min="4" max="8" width="20.73046875" style="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="22"/>
       <c r="B1" s="22"/>
       <c r="C1" s="23" t="s">
@@ -11414,7 +11346,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="27.75" x14ac:dyDescent="0.45">
       <c r="A2" s="24" t="s">
         <v>33</v>
       </c>
@@ -11440,7 +11372,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="23" t="s">
         <v>41</v>
       </c>
@@ -11452,7 +11384,7 @@
       <c r="G3" s="97"/>
       <c r="H3" s="91"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="23" t="s">
         <v>42</v>
       </c>
@@ -11466,7 +11398,7 @@
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
     </row>
-    <row r="5" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="27" x14ac:dyDescent="0.45">
       <c r="A5" s="26" t="s">
         <v>43</v>
       </c>
@@ -11492,7 +11424,7 @@
         <v>2848907</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="27" x14ac:dyDescent="0.45">
       <c r="A6" s="28" t="s">
         <v>44</v>
       </c>
@@ -11518,7 +11450,7 @@
         <v>4652</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="30" t="s">
         <v>46</v>
       </c>
@@ -11530,7 +11462,7 @@
       <c r="G7" s="31"/>
       <c r="H7" s="31"/>
     </row>
-    <row r="8" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="27" x14ac:dyDescent="0.45">
       <c r="A8" s="32" t="s">
         <v>47</v>
       </c>
@@ -11556,7 +11488,7 @@
         <v>2848907</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="35" t="s">
         <v>48</v>
       </c>
@@ -11568,7 +11500,7 @@
       <c r="G9" s="31"/>
       <c r="H9" s="31"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="32" t="s">
         <v>49</v>
       </c>
@@ -11594,7 +11526,7 @@
         <v>30210</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="27.75" x14ac:dyDescent="0.45">
       <c r="A11" s="35" t="s">
         <v>50</v>
       </c>
@@ -11606,7 +11538,7 @@
       <c r="G11" s="31"/>
       <c r="H11" s="31"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="32" t="s">
         <v>51</v>
       </c>
@@ -11632,7 +11564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A13" s="32" t="s">
         <v>52</v>
       </c>
@@ -11658,7 +11590,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="32" t="s">
         <v>53</v>
       </c>
@@ -11684,7 +11616,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="32" t="s">
         <v>54</v>
       </c>
@@ -11710,7 +11642,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="27" x14ac:dyDescent="0.45">
       <c r="A16" s="32" t="s">
         <v>55</v>
       </c>
@@ -11736,7 +11668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="32" t="s">
         <v>56</v>
       </c>
@@ -11762,7 +11694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="32" t="s">
         <v>57</v>
       </c>
@@ -11788,7 +11720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="32" t="s">
         <v>58</v>
       </c>
@@ -11814,7 +11746,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="32" t="s">
         <v>59</v>
       </c>
@@ -11840,7 +11772,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="27" x14ac:dyDescent="0.45">
       <c r="A21" s="32" t="s">
         <v>60</v>
       </c>
@@ -11866,7 +11798,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="32" t="s">
         <v>61</v>
       </c>
@@ -11892,7 +11824,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="32" t="s">
         <v>62</v>
       </c>
@@ -11918,7 +11850,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="32" t="s">
         <v>63</v>
       </c>
@@ -11944,7 +11876,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="32" t="s">
         <v>64</v>
       </c>
@@ -11970,7 +11902,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="32" t="s">
         <v>65</v>
       </c>
@@ -11996,7 +11928,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="32" t="s">
         <v>67</v>
       </c>
@@ -12022,7 +11954,7 @@
         <v>5668</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="39" t="s">
         <v>68</v>
       </c>
@@ -12048,7 +11980,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="27" x14ac:dyDescent="0.45">
       <c r="A29" s="28" t="s">
         <v>70</v>
       </c>
@@ -12074,7 +12006,7 @@
         <v>35878</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="27" x14ac:dyDescent="0.45">
       <c r="A30" s="39" t="s">
         <v>70</v>
       </c>
@@ -12100,12 +12032,12 @@
         <v>7.87</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B32" s="43" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="44" t="s">
         <v>72</v>
       </c>
@@ -12116,7 +12048,7 @@
       <c r="C33" s="45"/>
       <c r="D33" s="45"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="44" t="s">
         <v>68</v>
       </c>
@@ -12127,7 +12059,7 @@
       <c r="C34" s="45"/>
       <c r="D34" s="45"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="44" t="s">
         <v>49</v>
       </c>
@@ -12160,13 +12092,13 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.73046875" customWidth="1"/>
+    <col min="13" max="13" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="70" t="s">
         <v>140</v>
       </c>
@@ -12177,7 +12109,7 @@
       <c r="F1" s="71"/>
       <c r="G1" s="71"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="70" t="s">
         <v>182</v>
       </c>
@@ -12188,7 +12120,7 @@
       <c r="F2" s="71"/>
       <c r="G2" s="71"/>
     </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="98" t="s">
         <v>141</v>
       </c>
@@ -12209,7 +12141,7 @@
       <c r="L3" s="79"/>
       <c r="M3" s="79"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="98"/>
       <c r="B4" s="98"/>
       <c r="C4" s="78">
@@ -12246,7 +12178,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="72">
         <v>1</v>
       </c>
@@ -12288,7 +12220,7 @@
         <v>9.5555555555555554</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="72">
         <v>2</v>
       </c>
@@ -12330,7 +12262,7 @@
         <v>14.666666666666666</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="72">
         <v>3</v>
       </c>
@@ -12372,7 +12304,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="72">
         <v>4</v>
       </c>
@@ -12414,7 +12346,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="72">
         <v>5</v>
       </c>
@@ -12456,7 +12388,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="72">
         <v>6</v>
       </c>
@@ -12498,7 +12430,7 @@
         <v>9.5555555555555554</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A11" s="72">
         <v>7</v>
       </c>
@@ -12540,7 +12472,7 @@
         <v>14.666666666666666</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="72">
         <v>8</v>
       </c>
@@ -12572,8 +12504,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="70" t="s">
         <v>140</v>
       </c>
@@ -12590,7 +12522,7 @@
       <c r="L14" s="20"/>
       <c r="M14" s="20"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="70" t="s">
         <v>182</v>
       </c>
@@ -12607,7 +12539,7 @@
       <c r="L15" s="20"/>
       <c r="M15" s="20"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" s="98" t="s">
         <v>141</v>
       </c>
@@ -12628,7 +12560,7 @@
       <c r="L16" s="79"/>
       <c r="M16" s="79"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" s="98"/>
       <c r="B17" s="98"/>
       <c r="C17" s="78">
@@ -12665,7 +12597,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="72">
         <v>1</v>
       </c>
@@ -12717,7 +12649,7 @@
         <v>1336012.3968971488</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" s="72">
         <v>2</v>
       </c>
@@ -12769,7 +12701,7 @@
         <v>2050623.6789584146</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" s="72">
         <v>3</v>
       </c>
@@ -12821,7 +12753,7 @@
         <v>768983.87960940553</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" s="72">
         <v>4</v>
       </c>
@@ -12873,7 +12805,7 @@
         <v>838891.50502844236</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="72">
         <v>5</v>
       </c>
@@ -12925,7 +12857,7 @@
         <v>796946.92977702012</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="72">
         <v>6</v>
       </c>
@@ -12977,7 +12909,7 @@
         <v>1336012.3968971488</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A24" s="72">
         <v>7</v>
       </c>
@@ -13029,7 +12961,7 @@
         <v>2050623.6789584146</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="72">
         <v>8</v>
       </c>

--- a/InputData/elec/CCaMC/Capacity Construction and Maint Costs.xlsx
+++ b/InputData/elec/CCaMC/Capacity Construction and Maint Costs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\InputData\elec\CCaMC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\OneDrive\Desktop\CCaMC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0FF3EE-C707-4249-BD55-553860FFB44E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="Geothermal" sheetId="19" r:id="rId4"/>
     <sheet name="Lazard" sheetId="21" r:id="rId5"/>
     <sheet name="Combined Capital Costs" sheetId="20" r:id="rId6"/>
-    <sheet name="Solar Thermal" sheetId="16" r:id="rId7"/>
+    <sheet name="Solar Thermal Base Cost" sheetId="16" r:id="rId7"/>
     <sheet name="Coal Cost Multipliers" sheetId="12" r:id="rId8"/>
     <sheet name="CEA NEP" sheetId="22" r:id="rId9"/>
     <sheet name="IESS Annual Cap Costs" sheetId="23" r:id="rId10"/>
@@ -27,7 +28,7 @@
     <sheet name="CCaMC-VOaMCpUC" sheetId="8" r:id="rId13"/>
     <sheet name="CCaMC-BCCpUC" sheetId="6" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="232">
   <si>
     <t>CCaMC BAU Construction Cost per Unit Capacity</t>
   </si>
@@ -75,9 +76,6 @@
     <t>Appendix E: SC and IGCC Power Plant Performance and Cost Estimate Spreadsheets, p.75</t>
   </si>
   <si>
-    <t>Pg No 29</t>
-  </si>
-  <si>
     <t>Notes:</t>
   </si>
   <si>
@@ -124,9 +122,6 @@
   </si>
   <si>
     <t>solar thermal</t>
-  </si>
-  <si>
-    <t>Solar Thermal</t>
   </si>
   <si>
     <t>solar PV</t>
@@ -825,14 +820,93 @@
   <si>
     <t>which is accounted separately here.</t>
   </si>
+  <si>
+    <t>Capital costs based on CSTEP's techno-economic model using market rates of components</t>
+  </si>
+  <si>
+    <t>https://www.currentscience.ac.in/Volumes/115/02/0222.pdf</t>
+  </si>
+  <si>
+    <t>System size</t>
+  </si>
+  <si>
+    <t>30 MW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capital cost </t>
+  </si>
+  <si>
+    <t>Baseline</t>
+  </si>
+  <si>
+    <t>With indigenous manufacturing</t>
+  </si>
+  <si>
+    <t>With indigenous manufacturing
++ economies of scale</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INR Cr/MW </t>
+  </si>
+  <si>
+    <t>CERC Benchmark Capital Costs</t>
+  </si>
+  <si>
+    <t>India Currency Year*</t>
+  </si>
+  <si>
+    <t>pp 30-31</t>
+  </si>
+  <si>
+    <t>Solar Thermal - Govt. Benchmark</t>
+  </si>
+  <si>
+    <t>B Suhas</t>
+  </si>
+  <si>
+    <t>Solar Thermal - Techno economic model CSTEM-PT</t>
+  </si>
+  <si>
+    <t>Concentrated solar power in India: current status, challenges and future outlook</t>
+  </si>
+  <si>
+    <t>*Costs assumed to be 2018, based on publication date of the study</t>
+  </si>
+  <si>
+    <t>Page 4</t>
+  </si>
+  <si>
+    <t>In addition, cost reductions are estimated for two cases - a) with indigenous manufacturing; and b) with indigenous manufacturing &amp; economies of scale.</t>
+  </si>
+  <si>
+    <t>Alternate capital cost proposed by Association of Power Producers ----&gt;</t>
+  </si>
+  <si>
+    <t>An average of the 3 cases results in as estimate comparable to the revised capital cost estimate proposed by the Association of Power Producers to CERC.</t>
+  </si>
+  <si>
+    <t>Hence, we choose the average cost for the base year.</t>
+  </si>
+  <si>
+    <t>The benchmark capital costs (2016) from the central regulatory commission (CERC) have been observed to be low based on stakeholder comments within the document.</t>
+  </si>
+  <si>
+    <t>An alternate source is the results from a techno-economic model (CSTEM-PT), which uses costs from industry sources in its baseline estimate (with storage).</t>
+  </si>
+  <si>
+    <t>Hours of thermal storage</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="9">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="\$#,##0;\$#,##0"/>
@@ -987,7 +1061,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1006,8 +1080,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1233,6 +1313,87 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1273,9 +1434,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1411,13 +1572,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="8" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1499,23 +1660,34 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="15">
-    <cellStyle name="Body: normal cell" xfId="4"/>
-    <cellStyle name="Comma 2" xfId="14"/>
+    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" customBuiltin="1"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="6"/>
-    <cellStyle name="Footnotes: all except top row" xfId="9"/>
-    <cellStyle name="Footnotes: top row" xfId="7"/>
-    <cellStyle name="Header: bottom row" xfId="2"/>
-    <cellStyle name="Header: top rows" xfId="10"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="6" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Footnotes: all except top row" xfId="9" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Header: bottom row" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Header: top rows" xfId="10" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="11"/>
+    <cellStyle name="Hyperlink 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Parent row" xfId="3"/>
-    <cellStyle name="Section Break" xfId="12"/>
-    <cellStyle name="Section Break: parent row" xfId="13"/>
-    <cellStyle name="Table title" xfId="1"/>
+    <cellStyle name="Parent row" xfId="3" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Section Break" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Section Break: parent row" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Table title" xfId="1" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1544,7 +1716,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Table Style 1" pivot="0" count="2">
+    <tableStyle name="Table Style 1" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1636,6 +1808,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1671,6 +1860,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1846,103 +2052,103 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="2"/>
-    <col min="2" max="2" width="82.73046875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.3984375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="77.59765625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.73046875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="56.1328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="10.73046875" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.1328125" style="2"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="82.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="77.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="56.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="10.7109375" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>2018</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="46" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D10" s="20"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="20" t="s">
         <v>4</v>
       </c>
@@ -1950,7 +2156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>2009</v>
       </c>
@@ -1958,7 +2164,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
@@ -1966,7 +2172,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>8</v>
       </c>
@@ -1974,129 +2180,140 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" s="20" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" s="20"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+        <v>161</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="2">
         <v>2015</v>
       </c>
       <c r="D21" s="2">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="47" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D22" s="46" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="D23" s="83" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+        <v>158</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
-      <c r="D25" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="D26" s="20"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+        <v>198</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D27" s="20"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+        <v>156</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="2">
         <v>2015</v>
       </c>
-      <c r="D28" s="20"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D28" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="47" t="s">
-        <v>159</v>
-      </c>
-      <c r="D29" s="20"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+        <v>157</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="D30" s="20"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+        <v>158</v>
+      </c>
+      <c r="D30" s="83" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+        <v>199</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="20"/>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="D32" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="11"/>
@@ -2107,9 +2324,9 @@
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="11"/>
@@ -2120,9 +2337,9 @@
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="11"/>
@@ -2133,7 +2350,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="11"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="D36" s="7"/>
       <c r="E36" s="11"/>
@@ -2144,9 +2361,9 @@
       <c r="J36" s="11"/>
       <c r="K36" s="11"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="11"/>
@@ -2157,9 +2374,9 @@
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="11"/>
@@ -2170,9 +2387,9 @@
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="11"/>
@@ -2183,9 +2400,9 @@
       <c r="J39" s="11"/>
       <c r="K39" s="11"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="11"/>
@@ -2196,7 +2413,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="D41" s="7"/>
       <c r="E41" s="11"/>
@@ -2207,9 +2424,9 @@
       <c r="J41" s="11"/>
       <c r="K41" s="11"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="11"/>
@@ -2220,9 +2437,9 @@
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="11"/>
@@ -2233,9 +2450,9 @@
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="11"/>
@@ -2246,7 +2463,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="11"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="D45" s="7"/>
       <c r="E45" s="11"/>
@@ -2257,9 +2474,9 @@
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="11"/>
@@ -2270,9 +2487,9 @@
       <c r="J46" s="11"/>
       <c r="K46" s="11"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B47" s="9"/>
       <c r="D47" s="7"/>
@@ -2284,9 +2501,9 @@
       <c r="J47" s="11"/>
       <c r="K47" s="11"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B48" s="9"/>
       <c r="D48" s="7"/>
@@ -2298,9 +2515,9 @@
       <c r="J48" s="11"/>
       <c r="K48" s="11"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B49" s="9"/>
       <c r="D49" s="7"/>
@@ -2312,9 +2529,9 @@
       <c r="J49" s="11"/>
       <c r="K49" s="11"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B50" s="9"/>
       <c r="D50" s="7"/>
@@ -2326,7 +2543,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="11"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="20"/>
       <c r="B51" s="9"/>
       <c r="D51" s="7"/>
@@ -2338,7 +2555,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="11"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="20"/>
       <c r="B52" s="9"/>
       <c r="D52" s="7"/>
@@ -2350,7 +2567,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="11"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="18"/>
       <c r="B53" s="9"/>
       <c r="D53" s="7"/>
@@ -2362,7 +2579,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="11"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="21"/>
       <c r="B55" s="9"/>
       <c r="D55" s="7"/>
@@ -2374,7 +2591,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="11"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
       <c r="B56" s="9"/>
       <c r="D56" s="7"/>
@@ -2386,7 +2603,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="11"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
       <c r="B57" s="9"/>
       <c r="D57" s="7"/>
@@ -2398,7 +2615,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="11"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
       <c r="B58" s="9"/>
       <c r="D58" s="7"/>
@@ -2410,7 +2627,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="11"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="20"/>
       <c r="B59" s="9"/>
       <c r="D59" s="7"/>
@@ -2422,7 +2639,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="11"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
       <c r="B60" s="9"/>
       <c r="D60" s="7"/>
@@ -2434,7 +2651,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="11"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
       <c r="B61" s="9"/>
       <c r="D61" s="7"/>
@@ -2446,7 +2663,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="11"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
       <c r="B62" s="9"/>
       <c r="D62" s="7"/>
@@ -2458,7 +2675,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="11"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
       <c r="B63" s="9"/>
       <c r="D63" s="7"/>
@@ -2470,7 +2687,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="11"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="10"/>
       <c r="B64" s="9"/>
       <c r="D64" s="7"/>
@@ -2482,7 +2699,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="11"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
       <c r="B65" s="9"/>
       <c r="D65" s="7"/>
@@ -2494,7 +2711,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="11"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
       <c r="B66" s="9"/>
       <c r="D66" s="7"/>
@@ -2506,7 +2723,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="11"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="10"/>
       <c r="B67" s="9"/>
       <c r="D67" s="7"/>
@@ -2518,7 +2735,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="11"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="10"/>
       <c r="B68" s="9"/>
       <c r="D68" s="7"/>
@@ -2530,7 +2747,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="11"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
       <c r="B69" s="9"/>
       <c r="D69" s="7"/>
@@ -2542,7 +2759,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="11"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="10"/>
       <c r="B70" s="9"/>
       <c r="D70" s="7"/>
@@ -2554,7 +2771,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="11"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="10"/>
       <c r="B71" s="9"/>
       <c r="D71" s="7"/>
@@ -2566,7 +2783,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="11"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="10"/>
       <c r="B72" s="9"/>
       <c r="D72" s="7"/>
@@ -2578,7 +2795,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="11"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="10"/>
       <c r="B73" s="9"/>
       <c r="D73" s="7"/>
@@ -2590,7 +2807,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="11"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="10"/>
       <c r="B74" s="9"/>
       <c r="D74" s="7"/>
@@ -2602,7 +2819,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="11"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="10"/>
       <c r="B75" s="9"/>
       <c r="D75" s="7"/>
@@ -2614,7 +2831,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="11"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="10"/>
       <c r="B76" s="9"/>
       <c r="D76" s="7"/>
@@ -2626,7 +2843,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="11"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="10"/>
       <c r="B77" s="9"/>
       <c r="D77" s="7"/>
@@ -2638,7 +2855,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="11"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="7"/>
       <c r="B78" s="9"/>
       <c r="D78" s="7"/>
@@ -2652,10 +2869,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B16" r:id="rId1"/>
-    <hyperlink ref="D16" r:id="rId2"/>
-    <hyperlink ref="B22" r:id="rId3" display="http://www.npti.in/Download/Renewable/POWERGEN%20PRSTN_Renewable%20April2012/Solar%20Resource%20CUF%20Assessment.pdf"/>
-    <hyperlink ref="B29" r:id="rId4" display="http://www.npti.in/Download/Renewable/POWERGEN%20PRSTN_Renewable%20April2012/Solar%20Resource%20CUF%20Assessment.pdf"/>
+    <hyperlink ref="B16" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D16" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B22" r:id="rId3" display="http://www.npti.in/Download/Renewable/POWERGEN%20PRSTN_Renewable%20April2012/Solar%20Resource%20CUF%20Assessment.pdf" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B29" r:id="rId4" display="http://www.npti.in/Download/Renewable/POWERGEN%20PRSTN_Renewable%20April2012/Solar%20Resource%20CUF%20Assessment.pdf" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
@@ -2663,76 +2880,76 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="20"/>
-    <col min="2" max="2" width="17.265625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="20"/>
+    <col min="2" max="2" width="17.28515625" style="20" customWidth="1"/>
     <col min="3" max="3" width="31" style="20" customWidth="1"/>
-    <col min="4" max="5" width="17.265625" style="20" customWidth="1"/>
-    <col min="6" max="6" width="23.1328125" style="20" customWidth="1"/>
-    <col min="7" max="7" width="17.265625" style="20" customWidth="1"/>
-    <col min="8" max="8" width="22.59765625" style="20" customWidth="1"/>
-    <col min="9" max="9" width="17.265625" style="20" customWidth="1"/>
-    <col min="10" max="10" width="22.3984375" style="20" customWidth="1"/>
-    <col min="11" max="11" width="20.86328125" style="20" customWidth="1"/>
-    <col min="12" max="12" width="28.1328125" style="20" customWidth="1"/>
-    <col min="13" max="13" width="19.1328125" style="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.1328125" style="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.1328125" style="20"/>
+    <col min="4" max="5" width="17.28515625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" style="20" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="20" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" style="20" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" style="20" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" style="20" customWidth="1"/>
+    <col min="12" max="12" width="28.140625" style="20" customWidth="1"/>
+    <col min="13" max="13" width="19.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="M1" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2016</v>
       </c>
@@ -2789,7 +3006,7 @@
         <v>2912178.1997443885</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2017</v>
       </c>
@@ -2844,7 +3061,7 @@
         <v>2875661.8586817603</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2018</v>
       </c>
@@ -2899,7 +3116,7 @@
         <v>2839145.5176191349</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2019</v>
       </c>
@@ -2954,7 +3171,7 @@
         <v>2802629.1765565095</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2020</v>
       </c>
@@ -3009,7 +3226,7 @@
         <v>2766112.835493884</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2021</v>
       </c>
@@ -3064,7 +3281,7 @@
         <v>2729596.4944312586</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2022</v>
       </c>
@@ -3119,7 +3336,7 @@
         <v>2693080.1533686323</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2023</v>
       </c>
@@ -3174,7 +3391,7 @@
         <v>2671170.3487310568</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2024</v>
       </c>
@@ -3229,7 +3446,7 @@
         <v>2649260.5440934813</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2025</v>
       </c>
@@ -3284,7 +3501,7 @@
         <v>2627350.7394559057</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2026</v>
       </c>
@@ -3339,7 +3556,7 @@
         <v>2605440.9348183302</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2027</v>
       </c>
@@ -3394,7 +3611,7 @@
         <v>2583531.1301807556</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2028</v>
       </c>
@@ -3449,7 +3666,7 @@
         <v>2574402.0449150992</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2029</v>
       </c>
@@ -3504,7 +3721,7 @@
         <v>2565272.9596494427</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2030</v>
       </c>
@@ -3559,7 +3776,7 @@
         <v>2556143.8743837862</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2031</v>
       </c>
@@ -3614,7 +3831,7 @@
         <v>2547014.7891181298</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2032</v>
       </c>
@@ -3669,7 +3886,7 @@
         <v>2537885.7038524733</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2033</v>
       </c>
@@ -3724,7 +3941,7 @@
         <v>2532408.2526930794</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2034</v>
       </c>
@@ -3779,7 +3996,7 @@
         <v>2526930.8015336855</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2035</v>
       </c>
@@ -3834,7 +4051,7 @@
         <v>2521453.3503742917</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2036</v>
       </c>
@@ -3889,7 +4106,7 @@
         <v>2515975.8992148978</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2037</v>
       </c>
@@ -3944,7 +4161,7 @@
         <v>2510498.4480555048</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2038</v>
       </c>
@@ -3999,7 +4216,7 @@
         <v>2506846.8139492422</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2039</v>
       </c>
@@ -4054,7 +4271,7 @@
         <v>2503195.1798429796</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2040</v>
       </c>
@@ -4109,7 +4326,7 @@
         <v>2499543.5457367171</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2041</v>
       </c>
@@ -4164,7 +4381,7 @@
         <v>2495891.9116304545</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2042</v>
       </c>
@@ -4219,7 +4436,7 @@
         <v>2492240.2775241924</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>2043</v>
       </c>
@@ -4274,7 +4491,7 @@
         <v>2490414.4604710611</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2044</v>
       </c>
@@ -4329,7 +4546,7 @@
         <v>2488588.6434179298</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2045</v>
       </c>
@@ -4384,7 +4601,7 @@
         <v>2486762.8263647985</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2046</v>
       </c>
@@ -4439,7 +4656,7 @@
         <v>2484937.0093116672</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>2047</v>
       </c>
@@ -4494,7 +4711,7 @@
         <v>2483111.1922585354</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>2048</v>
       </c>
@@ -4549,7 +4766,7 @@
         <v>2481285.3752054041</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2049</v>
       </c>
@@ -4604,7 +4821,7 @@
         <v>2479459.5581522728</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2050</v>
       </c>
@@ -4659,43 +4876,43 @@
         <v>2477633.7410991415</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B37" s="12"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B38" s="12"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B39" s="12"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B40" s="12"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B41" s="12"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B42" s="12"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B43" s="12"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B44" s="12"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B45" s="12"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B46" s="12"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B47" s="12"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B48" s="12"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="12"/>
     </row>
   </sheetData>
@@ -4704,26 +4921,26 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.59765625" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C2" s="1">
         <v>2017</v>
       </c>
@@ -4746,9 +4963,9 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C3">
         <v>16.405000000000001</v>
@@ -4772,10 +4989,10 @@
         <v>13.327999999999999</v>
       </c>
       <c r="J3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4">
         <f>C3*10^7</f>
         <v>164050000</v>
@@ -4805,10 +5022,10 @@
         <v>133280000</v>
       </c>
       <c r="J4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5">
         <f>C4/'Conversion Factors'!$B$6</f>
         <v>2995252.8756618584</v>
@@ -4838,36 +5055,36 @@
         <v>2433448.9684133651</v>
       </c>
       <c r="J5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>0.06</v>
       </c>
       <c r="B8" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.45">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="85" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>2017</v>
       </c>
@@ -4876,7 +5093,7 @@
         <v>2995252.8756618584</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>A11+1</f>
         <v>2018</v>
@@ -4886,7 +5103,7 @@
         <v>2974456.819426693</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
         <f t="shared" ref="A13:A44" si="1">A12+1</f>
         <v>2019</v>
@@ -4896,7 +5113,7 @@
         <v>2953660.7631915286</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
         <f t="shared" si="1"/>
         <v>2020</v>
@@ -4906,7 +5123,7 @@
         <v>2932864.7069563642</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="20">
         <f t="shared" si="1"/>
         <v>2021</v>
@@ -4916,7 +5133,7 @@
         <v>2912068.6507211998</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
         <f t="shared" si="1"/>
         <v>2022</v>
@@ -4926,7 +5143,7 @@
         <v>2891272.5944860321</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
         <f t="shared" si="1"/>
         <v>2023</v>
@@ -4936,7 +5153,7 @@
         <v>2871352.9304363653</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
         <f t="shared" si="1"/>
         <v>2024</v>
@@ -4946,7 +5163,7 @@
         <v>2851433.2663867027</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="20">
         <f t="shared" si="1"/>
         <v>2025</v>
@@ -4956,7 +5173,7 @@
         <v>2831513.6023370475</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="20">
         <f t="shared" si="1"/>
         <v>2026</v>
@@ -4966,7 +5183,7 @@
         <v>2811593.9382873848</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="20">
         <f t="shared" si="1"/>
         <v>2027</v>
@@ -4976,7 +5193,7 @@
         <v>2791674.2742377212</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="20">
         <f t="shared" si="1"/>
         <v>2028</v>
@@ -4986,7 +5203,7 @@
         <v>2772612.7442030236</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
         <f t="shared" si="1"/>
         <v>2029</v>
@@ -4996,7 +5213,7 @@
         <v>2753551.21416834</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
         <f t="shared" si="1"/>
         <v>2030</v>
@@ -5006,7 +5223,7 @@
         <v>2734489.6841336489</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="20">
         <f t="shared" si="1"/>
         <v>2031</v>
@@ -5016,7 +5233,7 @@
         <v>2715428.1540989578</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="20">
         <f t="shared" si="1"/>
         <v>2032</v>
@@ -5026,7 +5243,7 @@
         <v>2696366.6240642685</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="20">
         <f t="shared" si="1"/>
         <v>2033</v>
@@ -5036,7 +5253,7 @@
         <v>2678071.9371918961</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="20">
         <f t="shared" si="1"/>
         <v>2034</v>
@@ -5046,7 +5263,7 @@
         <v>2659777.2503195181</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="20">
         <f t="shared" si="1"/>
         <v>2035</v>
@@ -5056,7 +5273,7 @@
         <v>2641482.5634471402</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="20">
         <f t="shared" si="1"/>
         <v>2036</v>
@@ -5066,7 +5283,7 @@
         <v>2623187.8765747696</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="20">
         <f t="shared" si="1"/>
         <v>2037</v>
@@ -5076,7 +5293,7 @@
         <v>2604893.1897023916</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="20">
         <f t="shared" si="1"/>
         <v>2038</v>
@@ -5086,7 +5303,7 @@
         <v>2587401.8623333946</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="20">
         <f t="shared" si="1"/>
         <v>2039</v>
@@ -5096,7 +5313,7 @@
         <v>2569910.5349643975</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="20">
         <f t="shared" si="1"/>
         <v>2040</v>
@@ -5106,7 +5323,7 @@
         <v>2552419.2075954005</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="20">
         <f t="shared" si="1"/>
         <v>2041</v>
@@ -5116,7 +5333,7 @@
         <v>2534927.8802264035</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="20">
         <f t="shared" si="1"/>
         <v>2042</v>
@@ -5126,7 +5343,7 @@
         <v>2517436.5528574036</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="20">
         <f t="shared" si="1"/>
         <v>2043</v>
@@ -5136,7 +5353,7 @@
         <v>2500639.0359685943</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="20">
         <f t="shared" si="1"/>
         <v>2044</v>
@@ -5146,7 +5363,7 @@
         <v>2483841.5190797895</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="20">
         <f t="shared" si="1"/>
         <v>2045</v>
@@ -5156,7 +5373,7 @@
         <v>2467044.0021909773</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="20">
         <f t="shared" si="1"/>
         <v>2046</v>
@@ -5166,7 +5383,7 @@
         <v>2450246.4853021726</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="20">
         <f t="shared" si="1"/>
         <v>2047</v>
@@ -5176,7 +5393,7 @@
         <v>2433448.9684133651</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="20">
         <f t="shared" si="1"/>
         <v>2048</v>
@@ -5186,7 +5403,7 @@
         <v>2416651.4515245557</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="20">
         <f t="shared" si="1"/>
         <v>2049</v>
@@ -5196,7 +5413,7 @@
         <v>2399853.9346357509</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="20">
         <f t="shared" si="1"/>
         <v>2050</v>
@@ -5206,52 +5423,52 @@
         <v>2383056.4177469388</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="20"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="20"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="20"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="20"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="20"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="20"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="20"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="20"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="20"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="20"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="20"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="20"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="20"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="20"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="20"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="20"/>
     </row>
   </sheetData>
@@ -5260,41 +5477,41 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.265625" customWidth="1"/>
-    <col min="2" max="2" width="23.1328125" customWidth="1"/>
-    <col min="3" max="3" width="28.59765625" customWidth="1"/>
-    <col min="4" max="4" width="23.1328125" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="4">
         <f>Lazard!D19*10^3</f>
@@ -5308,9 +5525,9 @@
         <v>37897.5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="4">
         <f>Lazard!D20*10^3</f>
@@ -5324,9 +5541,9 @@
         <v>10230</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="4">
         <f>Lazard!D21*10^3</f>
@@ -5340,9 +5557,9 @@
         <v>100905</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="4">
         <v>0</v>
@@ -5355,9 +5572,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="4">
         <f>Lazard!D23*10^3</f>
@@ -5371,9 +5588,9 @@
         <v>26040.000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" s="4">
         <f>Lazard!D24*10^3</f>
@@ -5387,9 +5604,9 @@
         <v>8370.0000000000018</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="4">
         <f>Lazard!D25*10^3</f>
@@ -5403,9 +5620,9 @@
         <v>69750</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="4">
         <f>Lazard!D26*10^3</f>
@@ -5419,9 +5636,9 @@
         <v>46500</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="4">
         <v>0</v>
@@ -5434,9 +5651,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B11" s="4">
         <f>Lazard!D28*10^3</f>
@@ -5450,9 +5667,9 @@
         <v>5115</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="4">
         <f>Lazard!D29*10^3</f>
@@ -5466,9 +5683,9 @@
         <v>5115</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B13" s="4">
         <f>B2*'Coal Cost Multipliers'!$B$35</f>
@@ -5483,9 +5700,9 @@
         <v>37897.5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="4">
         <f>Lazard!D31*10^3</f>
@@ -5499,9 +5716,9 @@
         <v>74400</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B15" s="4">
         <f>B11</f>
@@ -5516,9 +5733,9 @@
         <v>5115</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B16" s="4">
         <f>B11</f>
@@ -5533,9 +5750,9 @@
         <v>5115</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B17" s="4">
         <f>'Waste to Energy'!A8*'CCaMC-BCCpUC'!Q2</f>
@@ -5556,40 +5773,40 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.265625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" style="20" customWidth="1"/>
     <col min="2" max="4" width="24" style="20" customWidth="1"/>
-    <col min="5" max="16384" width="9.1328125" style="20"/>
+    <col min="5" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B2" s="16">
         <f>Lazard!C19</f>
@@ -5603,9 +5820,9 @@
         <v>2.5575000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="16">
         <f>Lazard!C20</f>
@@ -5619,9 +5836,9 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="16">
         <f>Lazard!C21</f>
@@ -5635,9 +5852,9 @@
         <v>3.2550000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="16">
         <f>Lazard!C22</f>
@@ -5651,9 +5868,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="4">
         <f>Lazard!C23</f>
@@ -5667,9 +5884,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" s="4">
         <f>Lazard!C24</f>
@@ -5683,9 +5900,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="4">
         <f>Lazard!C25</f>
@@ -5699,9 +5916,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="16">
         <f>Lazard!C26</f>
@@ -5715,9 +5932,9 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="4">
         <f>Lazard!C27</f>
@@ -5731,9 +5948,9 @@
         <v>22.32</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B11" s="16">
         <f>Lazard!C28</f>
@@ -5747,9 +5964,9 @@
         <v>4.4175000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="16">
         <f>Lazard!C29</f>
@@ -5763,9 +5980,9 @@
         <v>4.4175000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B13" s="16">
         <f>B2*'Coal Cost Multipliers'!$B$34</f>
@@ -5780,9 +5997,9 @@
         <v>4.3327058823529416</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="20">
         <f>Lazard!C31</f>
@@ -5796,9 +6013,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B15" s="16">
         <f>B11</f>
@@ -5813,9 +6030,9 @@
         <v>4.4175000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B16" s="16">
         <f>B11</f>
@@ -5830,9 +6047,9 @@
         <v>4.4175000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B17" s="16">
         <f>B9</f>
@@ -5853,87 +6070,87 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.265625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="5" width="17.265625" customWidth="1"/>
-    <col min="6" max="6" width="23.1328125" customWidth="1"/>
-    <col min="7" max="7" width="17.265625" customWidth="1"/>
-    <col min="8" max="8" width="22.59765625" customWidth="1"/>
-    <col min="9" max="9" width="17.265625" customWidth="1"/>
-    <col min="10" max="10" width="22.3984375" customWidth="1"/>
-    <col min="11" max="11" width="20.86328125" customWidth="1"/>
-    <col min="12" max="12" width="28.1328125" customWidth="1"/>
-    <col min="13" max="13" width="19.1328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.1328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.73046875" customWidth="1"/>
+    <col min="4" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" customWidth="1"/>
+    <col min="12" max="12" width="28.140625" customWidth="1"/>
+    <col min="13" max="13" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="57" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="M1" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>91</v>
-      </c>
       <c r="O1" s="84" t="s">
+        <v>183</v>
+      </c>
+      <c r="P1" s="84" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q1" s="84" t="s">
         <v>185</v>
       </c>
-      <c r="P1" s="84" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q1" s="84" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2018</v>
       </c>
@@ -5962,8 +6179,8 @@
         <v>768983.87960940553</v>
       </c>
       <c r="H2" s="4">
-        <f>'Solar Thermal'!F2</f>
-        <v>1744894.3304591603</v>
+        <f>'Solar Thermal Base Cost'!F14</f>
+        <v>2715972.8030847143</v>
       </c>
       <c r="I2" s="4">
         <f>INDEX('CEA NEP'!$C$22:$M$22,1,MATCH($A2,'CEA NEP'!$C$17:$M$17,0))</f>
@@ -6002,7 +6219,7 @@
         <v>2974456.819426693</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2019</v>
       </c>
@@ -6030,7 +6247,7 @@
       </c>
       <c r="H3" s="4">
         <f>H2*'IESS Annual Cap Costs'!H5/'IESS Annual Cap Costs'!H4</f>
-        <v>1764175.0370709908</v>
+        <v>2745983.7177102477</v>
       </c>
       <c r="I3" s="4">
         <f>INDEX('CEA NEP'!$C$22:$M$22,1,MATCH($A3,'CEA NEP'!$C$17:$M$17,0))</f>
@@ -6068,7 +6285,7 @@
         <v>2953660.7631915286</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2020</v>
       </c>
@@ -6096,7 +6313,7 @@
       </c>
       <c r="H4" s="4">
         <f>H3*'IESS Annual Cap Costs'!H6/'IESS Annual Cap Costs'!H5</f>
-        <v>1783455.7436828213</v>
+        <v>2775994.6323357816</v>
       </c>
       <c r="I4" s="4">
         <f>INDEX('CEA NEP'!$C$22:$M$22,1,MATCH($A4,'CEA NEP'!$C$17:$M$17,0))</f>
@@ -6134,7 +6351,7 @@
         <v>2932864.7069563642</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2021</v>
       </c>
@@ -6162,7 +6379,7 @@
       </c>
       <c r="H5" s="4">
         <f>H4*'IESS Annual Cap Costs'!H7/'IESS Annual Cap Costs'!H6</f>
-        <v>1802736.4502946518</v>
+        <v>2806005.5469613154</v>
       </c>
       <c r="I5" s="4">
         <f>INDEX('CEA NEP'!$C$22:$M$22,1,MATCH($A5,'CEA NEP'!$C$17:$M$17,0))</f>
@@ -6200,7 +6417,7 @@
         <v>2912068.6507211998</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2022</v>
       </c>
@@ -6228,7 +6445,7 @@
       </c>
       <c r="H6" s="4">
         <f>H5*'IESS Annual Cap Costs'!H8/'IESS Annual Cap Costs'!H7</f>
-        <v>1822017.1569064832</v>
+        <v>2836016.4615868502</v>
       </c>
       <c r="I6" s="4">
         <f>INDEX('CEA NEP'!$C$22:$M$22,1,MATCH($A6,'CEA NEP'!$C$17:$M$17,0))</f>
@@ -6266,7 +6483,7 @@
         <v>2891272.5944860321</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2023</v>
       </c>
@@ -6294,7 +6511,7 @@
       </c>
       <c r="H7" s="4">
         <f>H6*'IESS Annual Cap Costs'!H9/'IESS Annual Cap Costs'!H8</f>
-        <v>1846947.8094571501</v>
+        <v>2874821.6620558943</v>
       </c>
       <c r="I7" s="4">
         <f>INDEX('CEA NEP'!$C$22:$M$22,1,MATCH($A7,'CEA NEP'!$C$17:$M$17,0))</f>
@@ -6332,7 +6549,7 @@
         <v>2871352.9304363653</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2024</v>
       </c>
@@ -6360,7 +6577,7 @@
       </c>
       <c r="H8" s="4">
         <f>H7*'IESS Annual Cap Costs'!H10/'IESS Annual Cap Costs'!H9</f>
-        <v>1871878.4620078169</v>
+        <v>2913626.8625249378</v>
       </c>
       <c r="I8" s="4">
         <f>INDEX('CEA NEP'!$C$22:$M$22,1,MATCH($A8,'CEA NEP'!$C$17:$M$17,0))</f>
@@ -6398,7 +6615,7 @@
         <v>2851433.2663867027</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2025</v>
       </c>
@@ -6426,7 +6643,7 @@
       </c>
       <c r="H9" s="4">
         <f>H8*'IESS Annual Cap Costs'!H11/'IESS Annual Cap Costs'!H10</f>
-        <v>1896809.1145584837</v>
+        <v>2952432.0629939814</v>
       </c>
       <c r="I9" s="4">
         <f>INDEX('CEA NEP'!$C$22:$M$22,1,MATCH($A9,'CEA NEP'!$C$17:$M$17,0))</f>
@@ -6464,7 +6681,7 @@
         <v>2831513.6023370475</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2026</v>
       </c>
@@ -6492,7 +6709,7 @@
       </c>
       <c r="H10" s="4">
         <f>H9*'IESS Annual Cap Costs'!H12/'IESS Annual Cap Costs'!H11</f>
-        <v>1921739.7671091505</v>
+        <v>2991237.263463025</v>
       </c>
       <c r="I10" s="4">
         <f>INDEX('CEA NEP'!$C$22:$M$22,1,MATCH($A10,'CEA NEP'!$C$17:$M$17,0))</f>
@@ -6530,7 +6747,7 @@
         <v>2811593.9382873848</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2027</v>
       </c>
@@ -6558,7 +6775,7 @@
       </c>
       <c r="H11" s="4">
         <f>H10*'IESS Annual Cap Costs'!H13/'IESS Annual Cap Costs'!H12</f>
-        <v>1946670.4196598181</v>
+        <v>3030042.4639320699</v>
       </c>
       <c r="I11" s="4">
         <f>I10*'IESS Annual Cap Costs'!I13/'IESS Annual Cap Costs'!I12</f>
@@ -6596,7 +6813,7 @@
         <v>2791674.2742377212</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2028</v>
       </c>
@@ -6624,7 +6841,7 @@
       </c>
       <c r="H12" s="4">
         <f>H11*'IESS Annual Cap Costs'!H14/'IESS Annual Cap Costs'!H13</f>
-        <v>1975568.883897451</v>
+        <v>3075023.6651144214</v>
       </c>
       <c r="I12" s="4">
         <f>I11*'IESS Annual Cap Costs'!I14/'IESS Annual Cap Costs'!I13</f>
@@ -6662,7 +6879,7 @@
         <v>2772612.7442030236</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2029</v>
       </c>
@@ -6690,7 +6907,7 @@
       </c>
       <c r="H13" s="4">
         <f>H12*'IESS Annual Cap Costs'!H15/'IESS Annual Cap Costs'!H14</f>
-        <v>2004467.3481350839</v>
+        <v>3120004.8662967728</v>
       </c>
       <c r="I13" s="4">
         <f>I12*'IESS Annual Cap Costs'!I15/'IESS Annual Cap Costs'!I14</f>
@@ -6728,7 +6945,7 @@
         <v>2753551.21416834</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2030</v>
       </c>
@@ -6756,7 +6973,7 @@
       </c>
       <c r="H14" s="4">
         <f>H13*'IESS Annual Cap Costs'!H16/'IESS Annual Cap Costs'!H15</f>
-        <v>2033365.8123727166</v>
+        <v>3164986.0674791238</v>
       </c>
       <c r="I14" s="4">
         <f>I13*'IESS Annual Cap Costs'!I16/'IESS Annual Cap Costs'!I15</f>
@@ -6794,7 +7011,7 @@
         <v>2734489.6841336489</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2031</v>
       </c>
@@ -6822,7 +7039,7 @@
       </c>
       <c r="H15" s="4">
         <f>H14*'IESS Annual Cap Costs'!H17/'IESS Annual Cap Costs'!H16</f>
-        <v>2062264.2766103495</v>
+        <v>3209967.2686614753</v>
       </c>
       <c r="I15" s="4">
         <f>I14*'IESS Annual Cap Costs'!I17/'IESS Annual Cap Costs'!I16</f>
@@ -6860,7 +7077,7 @@
         <v>2715428.1540989578</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2032</v>
       </c>
@@ -6888,7 +7105,7 @@
       </c>
       <c r="H16" s="4">
         <f>H15*'IESS Annual Cap Costs'!H18/'IESS Annual Cap Costs'!H17</f>
-        <v>2091162.740847982</v>
+        <v>3254948.4698438249</v>
       </c>
       <c r="I16" s="4">
         <f>I15*'IESS Annual Cap Costs'!I18/'IESS Annual Cap Costs'!I17</f>
@@ -6926,7 +7143,7 @@
         <v>2696366.6240642685</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2033</v>
       </c>
@@ -6954,7 +7171,7 @@
       </c>
       <c r="H17" s="4">
         <f>H16*'IESS Annual Cap Costs'!H19/'IESS Annual Cap Costs'!H18</f>
-        <v>2083074.9954560176</v>
+        <v>3242359.6865923661</v>
       </c>
       <c r="I17" s="4">
         <f>I16*'IESS Annual Cap Costs'!I19/'IESS Annual Cap Costs'!I18</f>
@@ -6992,7 +7209,7 @@
         <v>2678071.9371918961</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2034</v>
       </c>
@@ -7020,7 +7237,7 @@
       </c>
       <c r="H18" s="4">
         <f>H17*'IESS Annual Cap Costs'!H20/'IESS Annual Cap Costs'!H19</f>
-        <v>2074987.2500640529</v>
+        <v>3229770.9033409073</v>
       </c>
       <c r="I18" s="4">
         <f>I17*'IESS Annual Cap Costs'!I20/'IESS Annual Cap Costs'!I19</f>
@@ -7058,7 +7275,7 @@
         <v>2659777.2503195181</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2035</v>
       </c>
@@ -7086,7 +7303,7 @@
       </c>
       <c r="H19" s="4">
         <f>H18*'IESS Annual Cap Costs'!H21/'IESS Annual Cap Costs'!H20</f>
-        <v>2066899.5046720882</v>
+        <v>3217182.1200894485</v>
       </c>
       <c r="I19" s="4">
         <f>I18*'IESS Annual Cap Costs'!I21/'IESS Annual Cap Costs'!I20</f>
@@ -7124,7 +7341,7 @@
         <v>2641482.5634471402</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2036</v>
       </c>
@@ -7152,7 +7369,7 @@
       </c>
       <c r="H20" s="4">
         <f>H19*'IESS Annual Cap Costs'!H22/'IESS Annual Cap Costs'!H21</f>
-        <v>2058811.7592801235</v>
+        <v>3204593.3368379897</v>
       </c>
       <c r="I20" s="4">
         <f>I19*'IESS Annual Cap Costs'!I22/'IESS Annual Cap Costs'!I21</f>
@@ -7190,7 +7407,7 @@
         <v>2623187.8765747696</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2037</v>
       </c>
@@ -7218,7 +7435,7 @@
       </c>
       <c r="H21" s="4">
         <f>H20*'IESS Annual Cap Costs'!H23/'IESS Annual Cap Costs'!H22</f>
-        <v>2050724.0138881584</v>
+        <v>3192004.5535865305</v>
       </c>
       <c r="I21" s="4">
         <f>I20*'IESS Annual Cap Costs'!I23/'IESS Annual Cap Costs'!I22</f>
@@ -7256,7 +7473,7 @@
         <v>2604893.1897023916</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2038</v>
       </c>
@@ -7284,7 +7501,7 @@
       </c>
       <c r="H22" s="4">
         <f>H21*'IESS Annual Cap Costs'!H24/'IESS Annual Cap Costs'!H23</f>
-        <v>2044577.3273902654</v>
+        <v>3182437.0783154219</v>
       </c>
       <c r="I22" s="4">
         <f>I21*'IESS Annual Cap Costs'!I24/'IESS Annual Cap Costs'!I23</f>
@@ -7322,7 +7539,7 @@
         <v>2587401.8623333946</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2039</v>
       </c>
@@ -7350,7 +7567,7 @@
       </c>
       <c r="H23" s="4">
         <f>H22*'IESS Annual Cap Costs'!H25/'IESS Annual Cap Costs'!H24</f>
-        <v>2038430.6408923727</v>
+        <v>3172869.6030443134</v>
       </c>
       <c r="I23" s="4">
         <f>I22*'IESS Annual Cap Costs'!I25/'IESS Annual Cap Costs'!I24</f>
@@ -7388,7 +7605,7 @@
         <v>2569910.5349643975</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2040</v>
       </c>
@@ -7416,7 +7633,7 @@
       </c>
       <c r="H24" s="4">
         <f>H23*'IESS Annual Cap Costs'!H26/'IESS Annual Cap Costs'!H25</f>
-        <v>2032283.9543944797</v>
+        <v>3163302.1277732048</v>
       </c>
       <c r="I24" s="4">
         <f>I23*'IESS Annual Cap Costs'!I26/'IESS Annual Cap Costs'!I25</f>
@@ -7454,7 +7671,7 @@
         <v>2552419.2075954005</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2041</v>
       </c>
@@ -7482,7 +7699,7 @@
       </c>
       <c r="H25" s="4">
         <f>H24*'IESS Annual Cap Costs'!H27/'IESS Annual Cap Costs'!H26</f>
-        <v>2026137.2678965868</v>
+        <v>3153734.6525020963</v>
       </c>
       <c r="I25" s="4">
         <f>I24*'IESS Annual Cap Costs'!I27/'IESS Annual Cap Costs'!I26</f>
@@ -7520,7 +7737,7 @@
         <v>2534927.8802264035</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2042</v>
       </c>
@@ -7548,7 +7765,7 @@
       </c>
       <c r="H26" s="4">
         <f>H25*'IESS Annual Cap Costs'!H28/'IESS Annual Cap Costs'!H27</f>
-        <v>2019990.5813986934</v>
+        <v>3144167.1772309872</v>
       </c>
       <c r="I26" s="4">
         <f>I25*'IESS Annual Cap Costs'!I28/'IESS Annual Cap Costs'!I27</f>
@@ -7586,7 +7803,7 @@
         <v>2517436.5528574036</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2043</v>
       </c>
@@ -7614,7 +7831,7 @@
       </c>
       <c r="H27" s="4">
         <f>H26*'IESS Annual Cap Costs'!H29/'IESS Annual Cap Costs'!H28</f>
-        <v>2015564.9671202104</v>
+        <v>3137278.5950357895</v>
       </c>
       <c r="I27" s="4">
         <f>I26*'IESS Annual Cap Costs'!I29/'IESS Annual Cap Costs'!I28</f>
@@ -7652,7 +7869,7 @@
         <v>2500639.0359685943</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2044</v>
       </c>
@@ -7680,7 +7897,7 @@
       </c>
       <c r="H28" s="4">
         <f>H27*'IESS Annual Cap Costs'!H30/'IESS Annual Cap Costs'!H29</f>
-        <v>2011139.3528417274</v>
+        <v>3130390.0128405914</v>
       </c>
       <c r="I28" s="4">
         <f>I27*'IESS Annual Cap Costs'!I30/'IESS Annual Cap Costs'!I29</f>
@@ -7718,7 +7935,7 @@
         <v>2483841.5190797895</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>2045</v>
       </c>
@@ -7746,7 +7963,7 @@
       </c>
       <c r="H29" s="4">
         <f>H28*'IESS Annual Cap Costs'!H31/'IESS Annual Cap Costs'!H30</f>
-        <v>2006713.7385632447</v>
+        <v>3123501.4306453932</v>
       </c>
       <c r="I29" s="4">
         <f>I28*'IESS Annual Cap Costs'!I31/'IESS Annual Cap Costs'!I30</f>
@@ -7784,7 +8001,7 @@
         <v>2467044.0021909773</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2046</v>
       </c>
@@ -7812,7 +8029,7 @@
       </c>
       <c r="H30" s="4">
         <f>H29*'IESS Annual Cap Costs'!H32/'IESS Annual Cap Costs'!H31</f>
-        <v>2002288.1242847617</v>
+        <v>3116612.8484501955</v>
       </c>
       <c r="I30" s="4">
         <f>I29*'IESS Annual Cap Costs'!I32/'IESS Annual Cap Costs'!I31</f>
@@ -7850,7 +8067,7 @@
         <v>2450246.4853021726</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2047</v>
       </c>
@@ -7878,7 +8095,7 @@
       </c>
       <c r="H31" s="4">
         <f>H30*'IESS Annual Cap Costs'!H33/'IESS Annual Cap Costs'!H32</f>
-        <v>1997862.5100062781</v>
+        <v>3109724.2662549964</v>
       </c>
       <c r="I31" s="4">
         <f>I30*'IESS Annual Cap Costs'!I33/'IESS Annual Cap Costs'!I32</f>
@@ -7916,7 +8133,7 @@
         <v>2433448.9684133651</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2048</v>
       </c>
@@ -7944,7 +8161,7 @@
       </c>
       <c r="H32" s="4">
         <f>H31*'IESS Annual Cap Costs'!H34/'IESS Annual Cap Costs'!H33</f>
-        <v>1993436.8957277951</v>
+        <v>3102835.6840597987</v>
       </c>
       <c r="I32" s="4">
         <f>I31*'IESS Annual Cap Costs'!I34/'IESS Annual Cap Costs'!I33</f>
@@ -7982,7 +8199,7 @@
         <v>2416651.4515245557</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>2049</v>
       </c>
@@ -8010,7 +8227,7 @@
       </c>
       <c r="H33" s="4">
         <f>H32*'IESS Annual Cap Costs'!H35/'IESS Annual Cap Costs'!H34</f>
-        <v>1989011.2814493123</v>
+        <v>3095947.1018646006</v>
       </c>
       <c r="I33" s="4">
         <f>I32*'IESS Annual Cap Costs'!I35/'IESS Annual Cap Costs'!I34</f>
@@ -8048,7 +8265,7 @@
         <v>2399853.9346357509</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>2050</v>
       </c>
@@ -8076,7 +8293,7 @@
       </c>
       <c r="H34" s="4">
         <f>H33*'IESS Annual Cap Costs'!H36/'IESS Annual Cap Costs'!H35</f>
-        <v>1984585.6671708294</v>
+        <v>3089058.5196694024</v>
       </c>
       <c r="I34" s="4">
         <f>I33*'IESS Annual Cap Costs'!I36/'IESS Annual Cap Costs'!I35</f>
@@ -8114,7 +8331,7 @@
         <v>2383056.4177469388</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="20"/>
       <c r="B35" s="12"/>
       <c r="C35" s="20"/>
@@ -8130,7 +8347,7 @@
       <c r="M35" s="20"/>
       <c r="N35" s="20"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="20"/>
       <c r="B36" s="12"/>
       <c r="C36" s="20"/>
@@ -8146,7 +8363,7 @@
       <c r="M36" s="20"/>
       <c r="N36" s="20"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="20"/>
       <c r="B37" s="12"/>
       <c r="C37" s="20"/>
@@ -8162,7 +8379,7 @@
       <c r="M37" s="20"/>
       <c r="N37" s="20"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="20"/>
       <c r="B38" s="12"/>
       <c r="C38" s="20"/>
@@ -8178,7 +8395,7 @@
       <c r="M38" s="20"/>
       <c r="N38" s="20"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="20"/>
       <c r="B39" s="12"/>
       <c r="C39" s="20"/>
@@ -8194,7 +8411,7 @@
       <c r="M39" s="20"/>
       <c r="N39" s="20"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="20"/>
       <c r="B40" s="12"/>
       <c r="C40" s="20"/>
@@ -8210,7 +8427,7 @@
       <c r="M40" s="20"/>
       <c r="N40" s="20"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="20"/>
       <c r="B41" s="12"/>
       <c r="C41" s="20"/>
@@ -8226,7 +8443,7 @@
       <c r="M41" s="20"/>
       <c r="N41" s="20"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="20"/>
       <c r="B42" s="12"/>
       <c r="C42" s="20"/>
@@ -8242,7 +8459,7 @@
       <c r="M42" s="20"/>
       <c r="N42" s="20"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="20"/>
       <c r="B43" s="12"/>
       <c r="C43" s="20"/>
@@ -8258,7 +8475,7 @@
       <c r="M43" s="20"/>
       <c r="N43" s="20"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="20"/>
       <c r="B44" s="12"/>
       <c r="C44" s="20"/>
@@ -8274,7 +8491,7 @@
       <c r="M44" s="20"/>
       <c r="N44" s="20"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="20"/>
       <c r="B45" s="12"/>
       <c r="C45" s="20"/>
@@ -8290,7 +8507,7 @@
       <c r="M45" s="20"/>
       <c r="N45" s="20"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="20"/>
       <c r="B46" s="12"/>
       <c r="C46" s="20"/>
@@ -8306,7 +8523,7 @@
       <c r="M46" s="20"/>
       <c r="N46" s="20"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B47" s="12"/>
     </row>
   </sheetData>
@@ -8315,35 +8532,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
         <v>2010</v>
       </c>
@@ -8352,7 +8569,7 @@
       </c>
       <c r="C4" s="20"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>2011</v>
       </c>
@@ -8361,7 +8578,7 @@
       </c>
       <c r="C5" s="20"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>2012</v>
       </c>
@@ -8370,7 +8587,7 @@
       </c>
       <c r="C6" s="20"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>2013</v>
       </c>
@@ -8379,7 +8596,7 @@
       </c>
       <c r="C7" s="20"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>2014</v>
       </c>
@@ -8388,7 +8605,7 @@
       </c>
       <c r="C8" s="20"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>2015</v>
       </c>
@@ -8397,7 +8614,7 @@
       </c>
       <c r="C9" s="20"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>2016</v>
       </c>
@@ -8406,7 +8623,7 @@
       </c>
       <c r="C10" s="20"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>2017</v>
       </c>
@@ -8415,7 +8632,7 @@
       </c>
       <c r="C11" s="20"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2018</v>
       </c>
@@ -8424,7 +8641,7 @@
       </c>
       <c r="C12" s="20"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2019</v>
       </c>
@@ -8433,62 +8650,62 @@
       </c>
       <c r="C13" s="20"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="20">
         <v>100000</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="20">
         <v>10000000</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
         <f>A19/A15</f>
         <v>100</v>
@@ -8496,37 +8713,37 @@
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="20"/>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="20" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="20">
         <v>2010</v>
       </c>
@@ -8538,7 +8755,7 @@
         <v>0.84470208721577789</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="20">
         <v>2011</v>
       </c>
@@ -8550,7 +8767,7 @@
         <v>0.8995232526760818</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="20">
         <v>2012</v>
       </c>
@@ -8561,7 +8778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="20">
         <v>2013</v>
       </c>
@@ -8573,7 +8790,7 @@
         <v>1.0912999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="20">
         <v>2014</v>
       </c>
@@ -8581,11 +8798,11 @@
         <v>5.8599999999999999E-2</v>
       </c>
       <c r="C32" s="18">
-        <f t="shared" ref="C32:C35" si="0">C31*(1+B32)</f>
+        <f t="shared" ref="C32:C36" si="0">C31*(1+B32)</f>
         <v>1.1552501799999999</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="20">
         <v>2015</v>
       </c>
@@ -8597,7 +8814,7 @@
         <v>1.2282619913759998</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="20">
         <v>2016</v>
       </c>
@@ -8609,7 +8826,7 @@
         <v>1.2556522337836846</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="20">
         <v>2017</v>
       </c>
@@ -8621,43 +8838,55 @@
         <v>1.3058783231350322</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2018</v>
+      </c>
+      <c r="B36" s="48">
+        <v>5.2400000000000002E-2</v>
+      </c>
+      <c r="C36" s="18">
+        <f t="shared" si="0"/>
+        <v>1.3743063472673078</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="63">
         <v>0.93</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C26" r:id="rId1"/>
+    <hyperlink ref="C26" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B1" s="50"/>
       <c r="C1" s="50"/>
@@ -8668,12 +8897,12 @@
       <c r="H1" s="50"/>
       <c r="I1" s="50"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C2">
         <v>2017</v>
@@ -8703,9 +8932,9 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>3.7790714285714289E-2</v>
@@ -8729,12 +8958,12 @@
         <v>4.9345000000000007E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C4">
         <v>4.9715169121125002E-2</v>
@@ -8758,12 +8987,12 @@
         <v>6.535228698677871E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C5">
         <v>5.4948344818085602E-2</v>
@@ -8787,12 +9016,12 @@
         <v>7.2231475090650213E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C6">
         <v>6.3452255325646412E-2</v>
@@ -8816,12 +9045,12 @@
         <v>8.3410155759441301E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C7">
         <v>9.5459666182181213E-2</v>
@@ -8845,12 +9074,12 @@
         <v>0.125484989999745</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C8" s="20">
         <v>8.1443750000000009E-2</v>
@@ -8874,12 +9103,12 @@
         <v>7.2106249999999997E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C9">
         <v>0.20606250000000001</v>
@@ -8903,12 +9132,12 @@
         <v>0.18243750000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C10" s="20">
         <f>0.000135214285714286*(10^3)</f>
@@ -8939,12 +9168,12 @@
         <v>9.4500000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C11" s="20">
         <f>0.000065*(10^3)</f>
@@ -8975,12 +9204,12 @@
         <v>6.3500000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C12">
         <v>6.8159999999999984E-2</v>
@@ -9004,12 +9233,12 @@
         <v>6.2199999999999991E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C13" s="20">
         <v>0.12918000000000002</v>
@@ -9033,12 +9262,12 @@
         <v>0.149560640618496</v>
       </c>
       <c r="N13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="20">
         <f>0.0000595*(10^3)</f>
@@ -9069,9 +9298,9 @@
         <v>5.7500000000000002E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="20">
         <f>0.0001575*(10^3)</f>
@@ -9102,9 +9331,9 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16">
         <v>4.4999999999999998E-2</v>
@@ -9128,9 +9357,9 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="50" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B18" s="50"/>
       <c r="C18" s="50"/>
@@ -9141,12 +9370,12 @@
       <c r="H18" s="50"/>
       <c r="I18" s="50"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C19" s="20">
         <v>2017</v>
@@ -9176,9 +9405,9 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="4">
@@ -9210,12 +9439,12 @@
         <v>900949.42486762838</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C21" s="4">
         <f>C4/'Conversion Factors'!$B$6*10^12/10^3</f>
@@ -9246,12 +9475,12 @@
         <v>1193213.2004158974</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C22" s="4">
         <f>C5/'Conversion Factors'!$B$6*10^12/10^3</f>
@@ -9282,12 +9511,12 @@
         <v>1318814.5899333616</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C23" s="4">
         <f>C6/'Conversion Factors'!$B$6*10^12/10^3</f>
@@ -9318,12 +9547,12 @@
         <v>1522916.8478992386</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C24" s="4">
         <f>C7/'Conversion Factors'!$B$6*10^12/10^3</f>
@@ -9354,12 +9583,12 @@
         <v>2291126.346535421</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C25" s="4">
         <f>C8/'Conversion Factors'!$B$6*10^12/10^3</f>
@@ -9390,12 +9619,12 @@
         <v>1316528.2088734708</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C26" s="4">
         <f>C9/'Conversion Factors'!$B$6*10^12/10^3</f>
@@ -9426,12 +9655,12 @@
         <v>3330974.9863063726</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C27" s="4">
         <f>C10/'Conversion Factors'!$B$6*10^12/10^3</f>
@@ -9462,12 +9691,12 @@
         <v>1725397.1152090558</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C28" s="4">
         <f>C11/'Conversion Factors'!$B$6*10^12/10^3</f>
@@ -9498,12 +9727,12 @@
         <v>1159393.8287383604</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C29" s="4">
         <f>C12/'Conversion Factors'!$B$6*10^12/10^3</f>
@@ -9534,12 +9763,12 @@
         <v>1135658.2070476536</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C30" s="4">
         <f>C13/'Conversion Factors'!$B$6*10^12/10^3</f>
@@ -9570,9 +9799,9 @@
         <v>2730703.6811848823</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="4">
@@ -9604,9 +9833,9 @@
         <v>1049844.8055504838</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="4">
@@ -9638,9 +9867,9 @@
         <v>2483111.1922585354</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="4">
@@ -9672,9 +9901,9 @@
         <v>821617.67390907416</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="51" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
@@ -9685,12 +9914,12 @@
       <c r="H35" s="51"/>
       <c r="I35" s="51"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C36" s="20">
         <v>2017</v>
@@ -9720,12 +9949,12 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C37" s="16">
         <v>5.2694700000000001</v>
@@ -9749,12 +9978,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C38" s="16">
         <v>5.2694700000000001</v>
@@ -9778,12 +10007,12 @@
         <v>0.45366202535004463</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C39" s="16">
         <v>0</v>
@@ -9807,12 +10036,12 @@
         <v>1.814648101400179</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C40" s="16">
         <v>0</v>
@@ -9836,12 +10065,12 @@
         <v>2.2683101267502237</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C41" s="16">
         <v>0.56000000000000016</v>
@@ -9865,12 +10094,12 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C42" s="16">
         <v>0.4</v>
@@ -9894,12 +10123,12 @@
         <v>0.21999999999999992</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C43" s="16">
         <v>8</v>
@@ -9923,12 +10152,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C44" s="16">
         <v>2.1</v>
@@ -9952,9 +10181,9 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="51" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B46" s="51"/>
       <c r="C46" s="51"/>
@@ -9965,9 +10194,9 @@
       <c r="H46" s="51"/>
       <c r="I46" s="20"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B47">
         <v>2017</v>
@@ -9992,9 +10221,9 @@
       </c>
       <c r="I47" s="4"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B48" s="4">
         <f>SUMPRODUCT(C37:C40,C21:C24)/SUM(C37:C40)</f>
@@ -10025,9 +10254,9 @@
         <v>1886611.371420742</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B49" s="4">
         <f>C20</f>
@@ -10058,9 +10287,9 @@
         <v>900949.42486762838</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B50" s="4">
         <f>SUMPRODUCT(C41:C42,C25:C26)/SUM(C41:C42)</f>
@@ -10091,9 +10320,9 @@
         <v>2131194.1850411883</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B51" s="4">
         <f>SUMPRODUCT(C43:C44,C27:C28)/SUM(C43:C44)</f>
@@ -10124,9 +10353,9 @@
         <v>1536729.3530521572</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B52" s="4">
         <f>C31</f>
@@ -10157,9 +10386,9 @@
         <v>1049844.8055504838</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B53" s="4">
         <f>C29</f>
@@ -10190,9 +10419,9 @@
         <v>1135658.2070476536</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B54" s="4">
         <f>C30</f>
@@ -10223,9 +10452,9 @@
         <v>2730703.6811848823</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B55" s="4">
         <f>C33</f>
@@ -10256,9 +10485,9 @@
         <v>821617.67390907416</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C56" s="20"/>
       <c r="D56" s="20"/>
@@ -10267,9 +10496,9 @@
       <c r="G56" s="20"/>
       <c r="H56" s="20"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C57" s="20"/>
       <c r="D57" s="20"/>
@@ -10278,9 +10507,9 @@
       <c r="G57" s="20"/>
       <c r="H57" s="20"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C58" s="20"/>
       <c r="D58" s="20"/>
@@ -10289,9 +10518,9 @@
       <c r="G58" s="20"/>
       <c r="H58" s="20"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C59" s="20"/>
       <c r="D59" s="20"/>
@@ -10300,9 +10529,9 @@
       <c r="G59" s="20"/>
       <c r="H59" s="20"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B60" s="4">
         <f>C32</f>
@@ -10339,38 +10568,38 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.3984375" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>27.5</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <f>A1*'Conversion Factors'!A19/'Conversion Factors'!B6</f>
         <v>5020996.8961110096</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -10379,46 +10608,46 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="88" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B1" s="86" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C1" s="86"/>
       <c r="D1" s="87"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="89"/>
       <c r="B2" s="52" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="55"/>
       <c r="C3" s="56">
@@ -10428,9 +10657,9 @@
         <v>40.75</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="55"/>
       <c r="C4" s="56">
@@ -10440,9 +10669,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="55"/>
       <c r="C5" s="56">
@@ -10452,17 +10681,17 @@
         <v>108.5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="55"/>
       <c r="C6" s="56"/>
       <c r="D6" s="57"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="55"/>
       <c r="C7" s="62">
@@ -10472,9 +10701,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B8" s="55"/>
       <c r="C8" s="62">
@@ -10484,9 +10713,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="54" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="55"/>
       <c r="C9" s="62">
@@ -10496,9 +10725,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="55"/>
       <c r="C10" s="56">
@@ -10508,12 +10737,12 @@
         <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="54" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="55"/>
       <c r="C11" s="62">
@@ -10523,9 +10752,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="54" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B12" s="56">
         <f>B13</f>
@@ -10540,12 +10769,12 @@
         <v>5.5</v>
       </c>
       <c r="E12" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="56">
         <v>700</v>
@@ -10557,9 +10786,9 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="54" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B14" s="55"/>
       <c r="C14" s="56">
@@ -10571,12 +10800,12 @@
         <v>40.75</v>
       </c>
       <c r="E14" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="59"/>
       <c r="C15" s="60">
@@ -10586,32 +10815,32 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="88" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B17" s="86" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C17" s="86"/>
       <c r="D17" s="87"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="89"/>
       <c r="B18" s="52" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C18" s="52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D18" s="53" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="64"/>
       <c r="C19" s="65">
@@ -10623,9 +10852,9 @@
         <v>37.897500000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="64"/>
       <c r="C20" s="65">
@@ -10637,9 +10866,9 @@
         <v>10.23</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="64"/>
       <c r="C21" s="65">
@@ -10651,9 +10880,9 @@
         <v>100.905</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="64"/>
       <c r="C22" s="65">
@@ -10665,9 +10894,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="64"/>
       <c r="C23" s="65">
@@ -10679,9 +10908,9 @@
         <v>26.040000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B24" s="64"/>
       <c r="C24" s="65">
@@ -10693,9 +10922,9 @@
         <v>8.370000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="54" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="64"/>
       <c r="C25" s="65">
@@ -10707,9 +10936,9 @@
         <v>69.75</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26" s="64"/>
       <c r="C26" s="65">
@@ -10721,9 +10950,9 @@
         <v>46.5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="54" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="64"/>
       <c r="C27" s="65">
@@ -10735,9 +10964,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="54" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B28" s="65">
         <f>B12*'Conversion Factors'!$A$38</f>
@@ -10752,9 +10981,9 @@
         <v>5.1150000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B29" s="65">
         <f>B13*'Conversion Factors'!$A$38</f>
@@ -10769,9 +10998,9 @@
         <v>5.1150000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="54" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B30" s="64"/>
       <c r="C30" s="65">
@@ -10783,9 +11012,9 @@
         <v>37.897500000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31" s="67"/>
       <c r="C31" s="68">
@@ -10809,21 +11038,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.59765625" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B1" s="51"/>
       <c r="C1" s="51"/>
@@ -10833,9 +11062,9 @@
       <c r="G1" s="51"/>
       <c r="H1" s="51"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B2" s="20">
         <v>2017</v>
@@ -10859,9 +11088,9 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="4">
         <f>IESS!B48</f>
@@ -10892,9 +11121,9 @@
         <v>1886611.371420742</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="4">
         <f>IESS!B49</f>
@@ -10925,9 +11154,9 @@
         <v>900949.42486762838</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="4">
         <f>IESS!B50</f>
@@ -10958,9 +11187,9 @@
         <v>2131194.1850411883</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="4">
         <f>IESS!B51</f>
@@ -10991,9 +11220,9 @@
         <v>1536729.3530521572</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="4">
         <f>IESS!B52</f>
@@ -11024,9 +11253,9 @@
         <v>1049844.8055504838</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B8" s="4">
         <f>IESS!B53</f>
@@ -11057,9 +11286,9 @@
         <v>1135658.2070476536</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="4">
         <f>IESS!B54</f>
@@ -11090,9 +11319,9 @@
         <v>2730703.6811848823</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="4">
         <f>IESS!B55</f>
@@ -11123,9 +11352,9 @@
         <v>821617.67390907416</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="4">
         <f>Geothermal!$A$2</f>
@@ -11156,9 +11385,9 @@
         <v>5020996.8961110096</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -11168,9 +11397,9 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -11180,9 +11409,9 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -11192,9 +11421,9 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="4">
         <f>IESS!B60</f>
@@ -11231,150 +11460,301 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.3984375" customWidth="1"/>
-    <col min="3" max="3" width="9.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.73046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="51" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" t="s">
         <v>103</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D2" t="s">
         <v>104</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E2" t="s">
         <v>105</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F2" t="s">
         <v>106</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G2" t="s">
         <v>107</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H2" t="s">
         <v>108</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>109</v>
       </c>
-      <c r="H1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E2">
+      <c r="E3">
         <v>2016</v>
       </c>
-      <c r="F2" s="4">
-        <f>C2*'Conversion Factors'!A19/'Conversion Factors'!C34/'Conversion Factors'!B6</f>
+      <c r="F3" s="4">
+        <f>C3*'Conversion Factors'!A19/'Conversion Factors'!C34/'Conversion Factors'!B6</f>
         <v>1744894.3304591603</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="G3" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E4">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="F4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="99" t="s">
+        <v>211</v>
+      </c>
+      <c r="B10" s="103">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="100" t="s">
+        <v>212</v>
+      </c>
+      <c r="B11" s="104">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="101" t="s">
+        <v>213</v>
+      </c>
+      <c r="B12" s="105">
+        <v>17.829999999999998</v>
+      </c>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="102" t="s">
+        <v>214</v>
+      </c>
+      <c r="B13" s="106">
+        <f>AVERAGE(B10:B12)</f>
+        <v>20.443333333333332</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>2018</v>
+      </c>
+      <c r="F14" s="4">
+        <f>B13*'Conversion Factors'!A19/'Conversion Factors'!C36/'Conversion Factors'!B6</f>
+        <v>2715972.8030847143</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="107" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.73046875" style="43" customWidth="1"/>
+    <col min="1" max="2" width="20.7109375" style="43" customWidth="1"/>
     <col min="3" max="3" width="21" style="43" customWidth="1"/>
-    <col min="4" max="8" width="20.73046875" style="43" customWidth="1"/>
+    <col min="4" max="8" width="20.7109375" style="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="22"/>
       <c r="B1" s="22"/>
       <c r="C1" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="23" t="s">
+      <c r="B2" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="27.75" x14ac:dyDescent="0.45">
-      <c r="A2" s="24" t="s">
+      <c r="C2" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="92" t="s">
+      <c r="D2" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="94" t="s">
+      <c r="E2" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="94" t="s">
+      <c r="F2" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="94" t="s">
+      <c r="G2" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="96" t="s">
+      <c r="H2" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="96" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
         <v>39</v>
-      </c>
-      <c r="H2" s="90" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" s="23" t="s">
-        <v>41</v>
       </c>
       <c r="B3" s="93"/>
       <c r="C3" s="95"/>
@@ -11384,9 +11764,9 @@
       <c r="G3" s="97"/>
       <c r="H3" s="91"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" s="25">
         <v>1000</v>
@@ -11398,9 +11778,9 @@
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
     </row>
-    <row r="5" spans="1:8" ht="27" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B5" s="25">
         <v>1000</v>
@@ -11424,12 +11804,12 @@
         <v>2848907</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="27" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6" s="29">
         <v>3641</v>
@@ -11450,9 +11830,9 @@
         <v>4652</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B7" s="31"/>
       <c r="C7" s="31"/>
@@ -11462,9 +11842,9 @@
       <c r="G7" s="31"/>
       <c r="H7" s="31"/>
     </row>
-    <row r="8" spans="1:8" ht="27" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B8" s="33">
         <v>1000</v>
@@ -11488,9 +11868,9 @@
         <v>2848907</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B9" s="31"/>
       <c r="C9" s="31"/>
@@ -11500,9 +11880,9 @@
       <c r="G9" s="31"/>
       <c r="H9" s="31"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B10" s="33">
         <v>1000</v>
@@ -11526,9 +11906,9 @@
         <v>30210</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="27.75" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B11" s="31"/>
       <c r="C11" s="31"/>
@@ -11538,9 +11918,9 @@
       <c r="G11" s="31"/>
       <c r="H11" s="31"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B12" s="33">
         <v>1000</v>
@@ -11564,9 +11944,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="40.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" s="33">
         <v>1000</v>
@@ -11590,9 +11970,9 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B14" s="33">
         <v>1000</v>
@@ -11616,9 +11996,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B15" s="33">
         <v>1000</v>
@@ -11642,9 +12022,9 @@
         <v>440</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="27" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B16" s="33">
         <v>1000</v>
@@ -11668,9 +12048,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B17" s="33">
         <v>1000</v>
@@ -11694,9 +12074,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B18" s="33">
         <v>1000</v>
@@ -11720,9 +12100,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B19" s="33">
         <v>1000</v>
@@ -11746,9 +12126,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B20" s="33">
         <v>1000</v>
@@ -11772,9 +12152,9 @@
         <v>186</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="27" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B21" s="33">
         <v>1000</v>
@@ -11798,9 +12178,9 @@
         <v>399</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B22" s="33">
         <v>1000</v>
@@ -11824,9 +12204,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B23" s="33">
         <v>1000</v>
@@ -11850,9 +12230,9 @@
         <v>184</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B24" s="33">
         <v>1000</v>
@@ -11876,9 +12256,9 @@
         <v>414</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B25" s="33">
         <v>1000</v>
@@ -11902,21 +12282,21 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B26" s="33">
         <v>1000</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F26" s="37">
         <v>555</v>
@@ -11928,9 +12308,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B27" s="33">
         <v>1000</v>
@@ -11954,12 +12334,12 @@
         <v>5668</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="39" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B28" s="39" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C28" s="40">
         <v>3.73</v>
@@ -11980,9 +12360,9 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="27" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B29" s="41">
         <v>1000</v>
@@ -12006,12 +12386,12 @@
         <v>35878</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="27" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A30" s="39" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C30" s="40">
         <v>7.69</v>
@@ -12032,14 +12412,14 @@
         <v>7.87</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="44" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B33" s="45">
         <f>D6/AVERAGE(C6,E6)</f>
@@ -12048,9 +12428,9 @@
       <c r="C33" s="45"/>
       <c r="D33" s="45"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="44" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B34" s="45">
         <f>D28/(AVERAGE(C28,E28))</f>
@@ -12059,9 +12439,9 @@
       <c r="C34" s="45"/>
       <c r="D34" s="45"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B35" s="45">
         <f>D10/AVERAGE(E10,C10)</f>
@@ -12085,22 +12465,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.73046875" customWidth="1"/>
-    <col min="13" max="13" width="7.59765625" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="70" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B1" s="71"/>
       <c r="C1" s="71"/>
@@ -12109,9 +12489,9 @@
       <c r="F1" s="71"/>
       <c r="G1" s="71"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="70" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B2" s="71"/>
       <c r="C2" s="71"/>
@@ -12120,15 +12500,15 @@
       <c r="F2" s="71"/>
       <c r="G2" s="71"/>
     </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="98" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="98" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="82" t="s">
         <v>141</v>
-      </c>
-      <c r="B3" s="98" t="s">
-        <v>142</v>
-      </c>
-      <c r="C3" s="82" t="s">
-        <v>143</v>
       </c>
       <c r="D3" s="79"/>
       <c r="E3" s="79"/>
@@ -12141,7 +12521,7 @@
       <c r="L3" s="79"/>
       <c r="M3" s="79"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="98"/>
       <c r="B4" s="98"/>
       <c r="C4" s="78">
@@ -12178,12 +12558,12 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="72">
         <v>1</v>
       </c>
       <c r="B5" s="73" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C5" s="74">
         <v>6.5</v>
@@ -12220,12 +12600,12 @@
         <v>9.5555555555555554</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="72">
         <v>2</v>
       </c>
       <c r="B6" s="73" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C6" s="72">
         <v>10</v>
@@ -12262,12 +12642,12 @@
         <v>14.666666666666666</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="72">
         <v>3</v>
       </c>
       <c r="B7" s="73" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C7" s="74">
         <v>5.5</v>
@@ -12304,12 +12684,12 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="72">
         <v>4</v>
       </c>
       <c r="B8" s="73" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C8" s="72">
         <v>6</v>
@@ -12346,12 +12726,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="72">
         <v>5</v>
       </c>
       <c r="B9" s="73" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C9" s="74">
         <v>5.7</v>
@@ -12388,12 +12768,12 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="72">
         <v>6</v>
       </c>
       <c r="B10" s="73" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C10" s="74">
         <v>6.5</v>
@@ -12430,12 +12810,12 @@
         <v>9.5555555555555554</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="72">
         <v>7</v>
       </c>
       <c r="B11" s="76" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C11" s="72">
         <v>10</v>
@@ -12472,12 +12852,12 @@
         <v>14.666666666666666</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="72">
         <v>8</v>
       </c>
       <c r="B12" s="76" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C12" s="77"/>
       <c r="D12" s="77"/>
@@ -12504,10 +12884,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="70" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B14" s="71"/>
       <c r="C14" s="71"/>
@@ -12522,9 +12902,9 @@
       <c r="L14" s="20"/>
       <c r="M14" s="20"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="70" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B15" s="71"/>
       <c r="C15" s="71"/>
@@ -12539,15 +12919,15 @@
       <c r="L15" s="20"/>
       <c r="M15" s="20"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="98" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B16" s="98" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C16" s="82" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D16" s="79"/>
       <c r="E16" s="79"/>
@@ -12560,7 +12940,7 @@
       <c r="L16" s="79"/>
       <c r="M16" s="79"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="98"/>
       <c r="B17" s="98"/>
       <c r="C17" s="78">
@@ -12597,12 +12977,12 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="72">
         <v>1</v>
       </c>
       <c r="B18" s="73" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C18" s="72">
         <f>C5/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
@@ -12649,12 +13029,12 @@
         <v>1336012.3968971488</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="72">
         <v>2</v>
       </c>
       <c r="B19" s="73" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C19" s="72">
         <f>C6/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
@@ -12701,12 +13081,12 @@
         <v>2050623.6789584146</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="72">
         <v>3</v>
       </c>
       <c r="B20" s="73" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C20" s="72">
         <f>C7/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
@@ -12753,12 +13133,12 @@
         <v>768983.87960940553</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="72">
         <v>4</v>
       </c>
       <c r="B21" s="73" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C21" s="72">
         <f>C8/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
@@ -12805,12 +13185,12 @@
         <v>838891.50502844236</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="72">
         <v>5</v>
       </c>
       <c r="B22" s="73" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C22" s="72">
         <f>C9/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
@@ -12857,12 +13237,12 @@
         <v>796946.92977702012</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="72">
         <v>6</v>
       </c>
       <c r="B23" s="73" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C23" s="72">
         <f>C10/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
@@ -12909,12 +13289,12 @@
         <v>1336012.3968971488</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A24" s="72">
         <v>7</v>
       </c>
       <c r="B24" s="76" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C24" s="72">
         <f>C11/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
@@ -12961,12 +13341,12 @@
         <v>2050623.6789584146</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="72">
         <v>8</v>
       </c>
       <c r="B25" s="76" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C25" s="72"/>
       <c r="D25" s="72"/>

--- a/InputData/elec/CCaMC/Capacity Construction and Maint Costs.xlsx
+++ b/InputData/elec/CCaMC/Capacity Construction and Maint Costs.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\OneDrive\Desktop\CCaMC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\InputData\elec\CCaMC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0FF3EE-C707-4249-BD55-553860FFB44E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <sheet name="CCaMC-VOaMCpUC" sheetId="8" r:id="rId13"/>
     <sheet name="CCaMC-BCCpUC" sheetId="6" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="233">
   <si>
     <t>CCaMC BAU Construction Cost per Unit Capacity</t>
   </si>
@@ -899,14 +898,17 @@
   <si>
     <t>Hours of thermal storage</t>
   </si>
+  <si>
+    <t>2019 to 2012 USD</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="9">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="\$#,##0;\$#,##0"/>
@@ -1434,9 +1436,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1572,13 +1574,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1621,6 +1620,17 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1660,34 +1670,23 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="15">
-    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Comma 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Body: normal cell" xfId="4"/>
+    <cellStyle name="Comma 2" xfId="14"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" customBuiltin="1"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="6" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Footnotes: all except top row" xfId="9" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Footnotes: top row" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Header: bottom row" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Header: top rows" xfId="10" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="6"/>
+    <cellStyle name="Footnotes: all except top row" xfId="9"/>
+    <cellStyle name="Footnotes: top row" xfId="7"/>
+    <cellStyle name="Header: bottom row" xfId="2"/>
+    <cellStyle name="Header: top rows" xfId="10"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="11"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Parent row" xfId="3" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="Section Break" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="Section Break: parent row" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="Table title" xfId="1" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Parent row" xfId="3"/>
+    <cellStyle name="Section Break" xfId="12"/>
+    <cellStyle name="Section Break: parent row" xfId="13"/>
+    <cellStyle name="Table title" xfId="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1716,7 +1715,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Table Style 1" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Table Style 1" pivot="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1808,23 +1807,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1860,23 +1842,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2052,41 +2017,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="82.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="77.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="56.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="10.7109375" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.1328125" style="2"/>
+    <col min="2" max="2" width="82.73046875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.3984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="77.59765625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.73046875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="56.1328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="10.73046875" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -2099,7 +2064,7 @@
       </c>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
         <v>154</v>
       </c>
@@ -2107,7 +2072,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="2">
         <v>2018</v>
       </c>
@@ -2115,7 +2080,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="46" t="s">
         <v>173</v>
       </c>
@@ -2123,7 +2088,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="3" t="s">
         <v>172</v>
       </c>
@@ -2131,16 +2096,16 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" s="2" t="s">
         <v>155</v>
       </c>
       <c r="D10" s="20"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B12" s="6" t="s">
         <v>160</v>
       </c>
@@ -2148,7 +2113,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B13" s="20" t="s">
         <v>4</v>
       </c>
@@ -2156,7 +2121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B14" s="2">
         <v>2009</v>
       </c>
@@ -2164,7 +2129,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
@@ -2172,7 +2137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B16" s="3" t="s">
         <v>8</v>
       </c>
@@ -2180,7 +2145,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B17" s="20" t="s">
         <v>10</v>
       </c>
@@ -2188,10 +2153,10 @@
         <v>218</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B18" s="20"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="7"/>
       <c r="B19" s="6" t="s">
         <v>161</v>
@@ -2200,7 +2165,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="7"/>
       <c r="B20" s="2" t="s">
         <v>156</v>
@@ -2209,7 +2174,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="7"/>
       <c r="B21" s="2">
         <v>2015</v>
@@ -2218,7 +2183,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="7"/>
       <c r="B22" s="47" t="s">
         <v>157</v>
@@ -2227,7 +2192,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="7"/>
       <c r="B23" s="47" t="s">
         <v>158</v>
@@ -2236,7 +2201,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="7"/>
       <c r="B24" s="20" t="s">
         <v>159</v>
@@ -2245,12 +2210,12 @@
         <v>224</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="7"/>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="7"/>
       <c r="B26" s="6" t="s">
         <v>198</v>
@@ -2259,7 +2224,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="7"/>
       <c r="B27" s="2" t="s">
         <v>156</v>
@@ -2268,7 +2233,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="7"/>
       <c r="B28" s="2">
         <v>2015</v>
@@ -2277,7 +2242,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="7"/>
       <c r="B29" s="47" t="s">
         <v>157</v>
@@ -2286,16 +2251,16 @@
         <v>174</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="7"/>
       <c r="B30" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="D30" s="83" t="s">
+      <c r="D30" s="80" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="7"/>
       <c r="B31" s="20" t="s">
         <v>199</v>
@@ -2304,14 +2269,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="7"/>
       <c r="B32" s="20"/>
       <c r="D32" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" s="7" t="s">
         <v>11</v>
       </c>
@@ -2324,7 +2289,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" s="10" t="s">
         <v>167</v>
       </c>
@@ -2337,7 +2302,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" s="10" t="s">
         <v>168</v>
       </c>
@@ -2350,7 +2315,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="11"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" s="10"/>
       <c r="D36" s="7"/>
       <c r="E36" s="11"/>
@@ -2361,7 +2326,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="11"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" s="10" t="s">
         <v>12</v>
       </c>
@@ -2374,7 +2339,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" s="10" t="s">
         <v>13</v>
       </c>
@@ -2387,7 +2352,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" s="10" t="s">
         <v>181</v>
       </c>
@@ -2400,7 +2365,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="11"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" s="10" t="s">
         <v>182</v>
       </c>
@@ -2413,7 +2378,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" s="10"/>
       <c r="D41" s="7"/>
       <c r="E41" s="11"/>
@@ -2424,7 +2389,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="11"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" s="10" t="s">
         <v>169</v>
       </c>
@@ -2437,7 +2402,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" s="10" t="s">
         <v>170</v>
       </c>
@@ -2450,7 +2415,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" s="10" t="s">
         <v>171</v>
       </c>
@@ -2463,7 +2428,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="11"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" s="10"/>
       <c r="D45" s="7"/>
       <c r="E45" s="11"/>
@@ -2474,7 +2439,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" s="10" t="s">
         <v>200</v>
       </c>
@@ -2487,7 +2452,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="11"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" s="10" t="s">
         <v>201</v>
       </c>
@@ -2501,7 +2466,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="11"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48" s="10" t="s">
         <v>202</v>
       </c>
@@ -2515,7 +2480,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="11"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49" s="10" t="s">
         <v>204</v>
       </c>
@@ -2529,7 +2494,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="11"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50" s="10" t="s">
         <v>205</v>
       </c>
@@ -2543,7 +2508,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="11"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51" s="20"/>
       <c r="B51" s="9"/>
       <c r="D51" s="7"/>
@@ -2555,7 +2520,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="11"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52" s="20"/>
       <c r="B52" s="9"/>
       <c r="D52" s="7"/>
@@ -2567,7 +2532,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="11"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53" s="18"/>
       <c r="B53" s="9"/>
       <c r="D53" s="7"/>
@@ -2579,7 +2544,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="11"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A55" s="21"/>
       <c r="B55" s="9"/>
       <c r="D55" s="7"/>
@@ -2591,7 +2556,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="11"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56" s="10"/>
       <c r="B56" s="9"/>
       <c r="D56" s="7"/>
@@ -2603,7 +2568,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="11"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A57" s="10"/>
       <c r="B57" s="9"/>
       <c r="D57" s="7"/>
@@ -2615,7 +2580,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="11"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A58" s="10"/>
       <c r="B58" s="9"/>
       <c r="D58" s="7"/>
@@ -2627,7 +2592,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="11"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A59" s="20"/>
       <c r="B59" s="9"/>
       <c r="D59" s="7"/>
@@ -2639,7 +2604,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="11"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A60" s="10"/>
       <c r="B60" s="9"/>
       <c r="D60" s="7"/>
@@ -2651,7 +2616,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="11"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A61" s="10"/>
       <c r="B61" s="9"/>
       <c r="D61" s="7"/>
@@ -2663,7 +2628,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="11"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A62" s="10"/>
       <c r="B62" s="9"/>
       <c r="D62" s="7"/>
@@ -2675,7 +2640,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="11"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A63" s="10"/>
       <c r="B63" s="9"/>
       <c r="D63" s="7"/>
@@ -2687,7 +2652,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="11"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A64" s="10"/>
       <c r="B64" s="9"/>
       <c r="D64" s="7"/>
@@ -2699,7 +2664,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="11"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A65" s="10"/>
       <c r="B65" s="9"/>
       <c r="D65" s="7"/>
@@ -2711,7 +2676,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="11"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A66" s="10"/>
       <c r="B66" s="9"/>
       <c r="D66" s="7"/>
@@ -2723,7 +2688,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="11"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A67" s="10"/>
       <c r="B67" s="9"/>
       <c r="D67" s="7"/>
@@ -2735,7 +2700,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="11"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A68" s="10"/>
       <c r="B68" s="9"/>
       <c r="D68" s="7"/>
@@ -2747,7 +2712,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="11"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A69" s="10"/>
       <c r="B69" s="9"/>
       <c r="D69" s="7"/>
@@ -2759,7 +2724,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="11"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A70" s="10"/>
       <c r="B70" s="9"/>
       <c r="D70" s="7"/>
@@ -2771,7 +2736,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="11"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A71" s="10"/>
       <c r="B71" s="9"/>
       <c r="D71" s="7"/>
@@ -2783,7 +2748,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="11"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A72" s="10"/>
       <c r="B72" s="9"/>
       <c r="D72" s="7"/>
@@ -2795,7 +2760,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="11"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A73" s="10"/>
       <c r="B73" s="9"/>
       <c r="D73" s="7"/>
@@ -2807,7 +2772,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="11"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A74" s="10"/>
       <c r="B74" s="9"/>
       <c r="D74" s="7"/>
@@ -2819,7 +2784,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="11"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A75" s="10"/>
       <c r="B75" s="9"/>
       <c r="D75" s="7"/>
@@ -2831,7 +2796,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="11"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A76" s="10"/>
       <c r="B76" s="9"/>
       <c r="D76" s="7"/>
@@ -2843,7 +2808,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="11"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A77" s="10"/>
       <c r="B77" s="9"/>
       <c r="D77" s="7"/>
@@ -2855,7 +2820,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="11"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A78" s="7"/>
       <c r="B78" s="9"/>
       <c r="D78" s="7"/>
@@ -2869,43 +2834,44 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B16" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D16" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B22" r:id="rId3" display="http://www.npti.in/Download/Renewable/POWERGEN%20PRSTN_Renewable%20April2012/Solar%20Resource%20CUF%20Assessment.pdf" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B29" r:id="rId4" display="http://www.npti.in/Download/Renewable/POWERGEN%20PRSTN_Renewable%20April2012/Solar%20Resource%20CUF%20Assessment.pdf" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B16" r:id="rId1"/>
+    <hyperlink ref="D16" r:id="rId2"/>
+    <hyperlink ref="B22" r:id="rId3" display="http://www.npti.in/Download/Renewable/POWERGEN%20PRSTN_Renewable%20April2012/Solar%20Resource%20CUF%20Assessment.pdf"/>
+    <hyperlink ref="B29" r:id="rId4" display="http://www.npti.in/Download/Renewable/POWERGEN%20PRSTN_Renewable%20April2012/Solar%20Resource%20CUF%20Assessment.pdf"/>
+    <hyperlink ref="D30" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="20"/>
-    <col min="2" max="2" width="17.28515625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="9.1328125" style="20"/>
+    <col min="2" max="2" width="17.265625" style="20" customWidth="1"/>
     <col min="3" max="3" width="31" style="20" customWidth="1"/>
-    <col min="4" max="5" width="17.28515625" style="20" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" style="20" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="20" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" style="20" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" style="20" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" style="20" customWidth="1"/>
-    <col min="12" max="12" width="28.140625" style="20" customWidth="1"/>
-    <col min="13" max="13" width="19.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="20"/>
+    <col min="4" max="5" width="17.265625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="23.1328125" style="20" customWidth="1"/>
+    <col min="7" max="7" width="17.265625" style="20" customWidth="1"/>
+    <col min="8" max="8" width="22.59765625" style="20" customWidth="1"/>
+    <col min="9" max="9" width="17.265625" style="20" customWidth="1"/>
+    <col min="10" max="10" width="22.3984375" style="20" customWidth="1"/>
+    <col min="11" max="11" width="20.86328125" style="20" customWidth="1"/>
+    <col min="12" max="12" width="28.1328125" style="20" customWidth="1"/>
+    <col min="13" max="13" width="19.1328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.1328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.1328125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
         <v>28</v>
       </c>
@@ -2949,7 +2915,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>2016</v>
       </c>
@@ -3006,7 +2972,7 @@
         <v>2912178.1997443885</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2017</v>
       </c>
@@ -3061,7 +3027,7 @@
         <v>2875661.8586817603</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2018</v>
       </c>
@@ -3116,7 +3082,7 @@
         <v>2839145.5176191349</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>2019</v>
       </c>
@@ -3171,7 +3137,7 @@
         <v>2802629.1765565095</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>2020</v>
       </c>
@@ -3226,7 +3192,7 @@
         <v>2766112.835493884</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>2021</v>
       </c>
@@ -3281,7 +3247,7 @@
         <v>2729596.4944312586</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>2022</v>
       </c>
@@ -3336,7 +3302,7 @@
         <v>2693080.1533686323</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>2023</v>
       </c>
@@ -3391,7 +3357,7 @@
         <v>2671170.3487310568</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>2024</v>
       </c>
@@ -3446,7 +3412,7 @@
         <v>2649260.5440934813</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>2025</v>
       </c>
@@ -3501,7 +3467,7 @@
         <v>2627350.7394559057</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>2026</v>
       </c>
@@ -3556,7 +3522,7 @@
         <v>2605440.9348183302</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>2027</v>
       </c>
@@ -3611,7 +3577,7 @@
         <v>2583531.1301807556</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>2028</v>
       </c>
@@ -3666,7 +3632,7 @@
         <v>2574402.0449150992</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>2029</v>
       </c>
@@ -3721,7 +3687,7 @@
         <v>2565272.9596494427</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>2030</v>
       </c>
@@ -3776,7 +3742,7 @@
         <v>2556143.8743837862</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>2031</v>
       </c>
@@ -3831,7 +3797,7 @@
         <v>2547014.7891181298</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>2032</v>
       </c>
@@ -3886,7 +3852,7 @@
         <v>2537885.7038524733</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>2033</v>
       </c>
@@ -3941,7 +3907,7 @@
         <v>2532408.2526930794</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>2034</v>
       </c>
@@ -3996,7 +3962,7 @@
         <v>2526930.8015336855</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>2035</v>
       </c>
@@ -4051,7 +4017,7 @@
         <v>2521453.3503742917</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>2036</v>
       </c>
@@ -4106,7 +4072,7 @@
         <v>2515975.8992148978</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>2037</v>
       </c>
@@ -4161,7 +4127,7 @@
         <v>2510498.4480555048</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>2038</v>
       </c>
@@ -4216,7 +4182,7 @@
         <v>2506846.8139492422</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>2039</v>
       </c>
@@ -4271,7 +4237,7 @@
         <v>2503195.1798429796</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>2040</v>
       </c>
@@ -4326,7 +4292,7 @@
         <v>2499543.5457367171</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>2041</v>
       </c>
@@ -4381,7 +4347,7 @@
         <v>2495891.9116304545</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>2042</v>
       </c>
@@ -4436,7 +4402,7 @@
         <v>2492240.2775241924</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>2043</v>
       </c>
@@ -4491,7 +4457,7 @@
         <v>2490414.4604710611</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>2044</v>
       </c>
@@ -4546,7 +4512,7 @@
         <v>2488588.6434179298</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>2045</v>
       </c>
@@ -4601,7 +4567,7 @@
         <v>2486762.8263647985</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>2046</v>
       </c>
@@ -4656,7 +4622,7 @@
         <v>2484937.0093116672</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>2047</v>
       </c>
@@ -4711,7 +4677,7 @@
         <v>2483111.1922585354</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>2048</v>
       </c>
@@ -4766,7 +4732,7 @@
         <v>2481285.3752054041</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>2049</v>
       </c>
@@ -4821,7 +4787,7 @@
         <v>2479459.5581522728</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>2050</v>
       </c>
@@ -4876,43 +4842,43 @@
         <v>2477633.7410991415</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B37" s="12"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B38" s="12"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B39" s="12"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B40" s="12"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B41" s="12"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B42" s="12"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B43" s="12"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B44" s="12"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B45" s="12"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B46" s="12"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B47" s="12"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B48" s="12"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B49" s="12"/>
     </row>
   </sheetData>
@@ -4921,26 +4887,26 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.59765625" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C2" s="1">
         <v>2017</v>
       </c>
@@ -4963,7 +4929,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>187</v>
       </c>
@@ -4992,7 +4958,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C4">
         <f>C3*10^7</f>
         <v>164050000</v>
@@ -5025,7 +4991,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C5">
         <f>C4/'Conversion Factors'!$B$6</f>
         <v>2995252.8756618584</v>
@@ -5058,12 +5024,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="20">
         <v>0.06</v>
       </c>
@@ -5071,12 +5037,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="85" t="s">
+    <row r="9" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="82" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>193</v>
       </c>
@@ -5084,7 +5050,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="20">
         <v>2017</v>
       </c>
@@ -5093,7 +5059,7 @@
         <v>2995252.8756618584</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12">
         <f>A11+1</f>
         <v>2018</v>
@@ -5103,7 +5069,7 @@
         <v>2974456.819426693</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="20">
         <f t="shared" ref="A13:A44" si="1">A12+1</f>
         <v>2019</v>
@@ -5113,7 +5079,7 @@
         <v>2953660.7631915286</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="20">
         <f t="shared" si="1"/>
         <v>2020</v>
@@ -5123,7 +5089,7 @@
         <v>2932864.7069563642</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="20">
         <f t="shared" si="1"/>
         <v>2021</v>
@@ -5133,7 +5099,7 @@
         <v>2912068.6507211998</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="20">
         <f t="shared" si="1"/>
         <v>2022</v>
@@ -5143,7 +5109,7 @@
         <v>2891272.5944860321</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="20">
         <f t="shared" si="1"/>
         <v>2023</v>
@@ -5153,7 +5119,7 @@
         <v>2871352.9304363653</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="20">
         <f t="shared" si="1"/>
         <v>2024</v>
@@ -5163,7 +5129,7 @@
         <v>2851433.2663867027</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="20">
         <f t="shared" si="1"/>
         <v>2025</v>
@@ -5173,7 +5139,7 @@
         <v>2831513.6023370475</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="20">
         <f t="shared" si="1"/>
         <v>2026</v>
@@ -5183,7 +5149,7 @@
         <v>2811593.9382873848</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="20">
         <f t="shared" si="1"/>
         <v>2027</v>
@@ -5193,7 +5159,7 @@
         <v>2791674.2742377212</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="20">
         <f t="shared" si="1"/>
         <v>2028</v>
@@ -5203,7 +5169,7 @@
         <v>2772612.7442030236</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="20">
         <f t="shared" si="1"/>
         <v>2029</v>
@@ -5213,7 +5179,7 @@
         <v>2753551.21416834</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="20">
         <f t="shared" si="1"/>
         <v>2030</v>
@@ -5223,7 +5189,7 @@
         <v>2734489.6841336489</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="20">
         <f t="shared" si="1"/>
         <v>2031</v>
@@ -5233,7 +5199,7 @@
         <v>2715428.1540989578</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="20">
         <f t="shared" si="1"/>
         <v>2032</v>
@@ -5243,7 +5209,7 @@
         <v>2696366.6240642685</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="20">
         <f t="shared" si="1"/>
         <v>2033</v>
@@ -5253,7 +5219,7 @@
         <v>2678071.9371918961</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="20">
         <f t="shared" si="1"/>
         <v>2034</v>
@@ -5263,7 +5229,7 @@
         <v>2659777.2503195181</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="20">
         <f t="shared" si="1"/>
         <v>2035</v>
@@ -5273,7 +5239,7 @@
         <v>2641482.5634471402</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="20">
         <f t="shared" si="1"/>
         <v>2036</v>
@@ -5283,7 +5249,7 @@
         <v>2623187.8765747696</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="20">
         <f t="shared" si="1"/>
         <v>2037</v>
@@ -5293,7 +5259,7 @@
         <v>2604893.1897023916</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="20">
         <f t="shared" si="1"/>
         <v>2038</v>
@@ -5303,7 +5269,7 @@
         <v>2587401.8623333946</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="20">
         <f t="shared" si="1"/>
         <v>2039</v>
@@ -5313,7 +5279,7 @@
         <v>2569910.5349643975</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="20">
         <f t="shared" si="1"/>
         <v>2040</v>
@@ -5323,7 +5289,7 @@
         <v>2552419.2075954005</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="20">
         <f t="shared" si="1"/>
         <v>2041</v>
@@ -5333,7 +5299,7 @@
         <v>2534927.8802264035</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="20">
         <f t="shared" si="1"/>
         <v>2042</v>
@@ -5343,7 +5309,7 @@
         <v>2517436.5528574036</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="20">
         <f t="shared" si="1"/>
         <v>2043</v>
@@ -5353,7 +5319,7 @@
         <v>2500639.0359685943</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="20">
         <f t="shared" si="1"/>
         <v>2044</v>
@@ -5363,7 +5329,7 @@
         <v>2483841.5190797895</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="20">
         <f t="shared" si="1"/>
         <v>2045</v>
@@ -5373,7 +5339,7 @@
         <v>2467044.0021909773</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="20">
         <f t="shared" si="1"/>
         <v>2046</v>
@@ -5383,7 +5349,7 @@
         <v>2450246.4853021726</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="20">
         <f t="shared" si="1"/>
         <v>2047</v>
@@ -5393,7 +5359,7 @@
         <v>2433448.9684133651</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" s="20">
         <f t="shared" si="1"/>
         <v>2048</v>
@@ -5403,7 +5369,7 @@
         <v>2416651.4515245557</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" s="20">
         <f t="shared" si="1"/>
         <v>2049</v>
@@ -5413,7 +5379,7 @@
         <v>2399853.9346357509</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" s="20">
         <f t="shared" si="1"/>
         <v>2050</v>
@@ -5423,52 +5389,52 @@
         <v>2383056.4177469388</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" s="20"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" s="20"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" s="20"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" s="20"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49" s="20"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50" s="20"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51" s="20"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52" s="20"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" s="20"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A54" s="20"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A55" s="20"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A56" s="20"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A57" s="20"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A58" s="20"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A59" s="20"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A60" s="20"/>
     </row>
   </sheetData>
@@ -5477,25 +5443,25 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="33.265625" customWidth="1"/>
+    <col min="2" max="2" width="23.1328125" customWidth="1"/>
+    <col min="3" max="3" width="28.59765625" customWidth="1"/>
+    <col min="4" max="4" width="23.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>72</v>
       </c>
@@ -5509,55 +5475,55 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="20" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="4">
         <f>Lazard!D19*10^3</f>
-        <v>37897.5</v>
+        <v>36675.000000000007</v>
       </c>
       <c r="C2" s="4">
         <v>0</v>
       </c>
       <c r="D2" s="4">
         <f>B2</f>
-        <v>37897.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>36675.000000000007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="4">
         <f>Lazard!D20*10^3</f>
-        <v>10230</v>
+        <v>9900</v>
       </c>
       <c r="C3" s="4">
         <v>0</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3:D14" si="0">B3</f>
-        <v>10230</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="4">
         <f>Lazard!D21*10^3</f>
-        <v>100905</v>
+        <v>97650</v>
       </c>
       <c r="C4" s="4">
         <v>0</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" si="0"/>
-        <v>100905</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>97650</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="20" t="s">
         <v>23</v>
       </c>
@@ -5572,71 +5538,71 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="4">
         <f>Lazard!D23*10^3</f>
-        <v>26040.000000000004</v>
+        <v>25200</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" si="0"/>
-        <v>26040.000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="20" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="4">
         <f>Lazard!D24*10^3</f>
-        <v>8370.0000000000018</v>
+        <v>8100</v>
       </c>
       <c r="C7" s="4">
         <v>0</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" si="0"/>
-        <v>8370.0000000000018</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="20" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="4">
         <f>Lazard!D25*10^3</f>
-        <v>69750</v>
+        <v>67500</v>
       </c>
       <c r="C8" s="4">
         <v>0</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="0"/>
-        <v>69750</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>67500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="20" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="4">
         <f>Lazard!D26*10^3</f>
-        <v>46500</v>
+        <v>45000</v>
       </c>
       <c r="C9" s="4">
         <v>0</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="0"/>
-        <v>46500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="20" t="s">
         <v>21</v>
       </c>
@@ -5651,45 +5617,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="20" t="s">
         <v>74</v>
       </c>
       <c r="B11" s="4">
         <f>Lazard!D28*10^3</f>
-        <v>5115</v>
+        <v>4950</v>
       </c>
       <c r="C11" s="4">
         <v>0</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="0"/>
-        <v>5115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="4">
         <f>Lazard!D29*10^3</f>
-        <v>5115</v>
+        <v>4950</v>
       </c>
       <c r="C12" s="4">
         <v>0</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="0"/>
-        <v>5115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="20" t="s">
         <v>75</v>
       </c>
       <c r="B13" s="4">
         <f>B2*'Coal Cost Multipliers'!$B$35</f>
-        <v>37897.5</v>
+        <v>36675.000000000007</v>
       </c>
       <c r="C13" s="4">
         <f>C2*'Coal Cost Multipliers'!$B$35</f>
@@ -5697,32 +5663,32 @@
       </c>
       <c r="D13" s="4">
         <f>D2*'Coal Cost Multipliers'!$B$35</f>
-        <v>37897.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>36675.000000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="20" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="4">
         <f>Lazard!D31*10^3</f>
-        <v>74400</v>
+        <v>72000</v>
       </c>
       <c r="C14" s="4">
         <v>0</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" si="0"/>
-        <v>74400</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="20" t="s">
         <v>195</v>
       </c>
       <c r="B15" s="4">
         <f>B11</f>
-        <v>5115</v>
+        <v>4950</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" ref="C15:D15" si="1">C11</f>
@@ -5730,16 +5696,16 @@
       </c>
       <c r="D15" s="4">
         <f t="shared" si="1"/>
-        <v>5115</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="20" t="s">
         <v>196</v>
       </c>
       <c r="B16" s="4">
         <f>B11</f>
-        <v>5115</v>
+        <v>4950</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" ref="C16:D16" si="2">C11</f>
@@ -5747,10 +5713,10 @@
       </c>
       <c r="D16" s="4">
         <f t="shared" si="2"/>
-        <v>5115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="20" t="s">
         <v>197</v>
       </c>
@@ -5773,24 +5739,24 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="33.265625" style="20" customWidth="1"/>
     <col min="2" max="4" width="24" style="20" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="20"/>
+    <col min="5" max="16384" width="9.1328125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>76</v>
       </c>
@@ -5804,55 +5770,55 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="20" t="s">
         <v>71</v>
       </c>
       <c r="B2" s="16">
         <f>Lazard!C19</f>
-        <v>2.5575000000000001</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="C2" s="20">
         <v>0</v>
       </c>
       <c r="D2" s="16">
         <f>B2</f>
-        <v>2.5575000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.4750000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="16">
         <f>Lazard!C20</f>
-        <v>2.79</v>
+        <v>2.7</v>
       </c>
       <c r="C3" s="20">
         <v>0</v>
       </c>
       <c r="D3" s="16">
         <f t="shared" ref="D3:D14" si="0">B3</f>
-        <v>2.79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="16">
         <f>Lazard!C21</f>
-        <v>3.2550000000000003</v>
+        <v>3.15</v>
       </c>
       <c r="C4" s="20">
         <v>0</v>
       </c>
       <c r="D4" s="16">
         <f t="shared" si="0"/>
-        <v>3.2550000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="20" t="s">
         <v>23</v>
       </c>
@@ -5868,7 +5834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="20" t="s">
         <v>24</v>
       </c>
@@ -5884,7 +5850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="20" t="s">
         <v>27</v>
       </c>
@@ -5900,7 +5866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="20" t="s">
         <v>26</v>
       </c>
@@ -5916,77 +5882,77 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="20" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="16">
         <f>Lazard!C26</f>
-        <v>9.3000000000000007</v>
+        <v>9</v>
       </c>
       <c r="C9" s="20">
         <v>0</v>
       </c>
       <c r="D9" s="16">
         <f t="shared" si="0"/>
-        <v>9.3000000000000007</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="20" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="4">
         <f>Lazard!C27</f>
-        <v>22.32</v>
+        <v>21.6</v>
       </c>
       <c r="C10" s="20">
         <v>0</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="0"/>
-        <v>22.32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="20" t="s">
         <v>74</v>
       </c>
       <c r="B11" s="16">
         <f>Lazard!C28</f>
-        <v>4.4175000000000004</v>
+        <v>4.2750000000000004</v>
       </c>
       <c r="C11" s="20">
         <v>0</v>
       </c>
       <c r="D11" s="16">
         <f t="shared" si="0"/>
-        <v>4.4175000000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.2750000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="16">
         <f>Lazard!C29</f>
-        <v>4.4175000000000004</v>
+        <v>4.2750000000000004</v>
       </c>
       <c r="C12" s="20">
         <v>0</v>
       </c>
       <c r="D12" s="16">
         <f t="shared" si="0"/>
-        <v>4.4175000000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.2750000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="20" t="s">
         <v>75</v>
       </c>
       <c r="B13" s="16">
         <f>B2*'Coal Cost Multipliers'!$B$34</f>
-        <v>4.3327058823529416</v>
+        <v>4.1929411764705886</v>
       </c>
       <c r="C13" s="4">
         <f>C2*'Coal Cost Multipliers'!$B$34</f>
@@ -5994,10 +5960,10 @@
       </c>
       <c r="D13" s="16">
         <f>D2*'Coal Cost Multipliers'!$B$34</f>
-        <v>4.3327058823529416</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.1929411764705886</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="20" t="s">
         <v>25</v>
       </c>
@@ -6013,13 +5979,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="20" t="s">
         <v>195</v>
       </c>
       <c r="B15" s="16">
         <f>B11</f>
-        <v>4.4175000000000004</v>
+        <v>4.2750000000000004</v>
       </c>
       <c r="C15" s="20">
         <f t="shared" ref="C15:D15" si="1">C11</f>
@@ -6027,16 +5993,16 @@
       </c>
       <c r="D15" s="16">
         <f t="shared" si="1"/>
-        <v>4.4175000000000004</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.2750000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="20" t="s">
         <v>196</v>
       </c>
       <c r="B16" s="16">
         <f>B11</f>
-        <v>4.4175000000000004</v>
+        <v>4.2750000000000004</v>
       </c>
       <c r="C16" s="20">
         <f t="shared" ref="C16:D16" si="2">C11</f>
@@ -6044,16 +6010,16 @@
       </c>
       <c r="D16" s="16">
         <f t="shared" si="2"/>
-        <v>4.4175000000000004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.2750000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="20" t="s">
         <v>197</v>
       </c>
       <c r="B17" s="16">
         <f>B9</f>
-        <v>9.3000000000000007</v>
+        <v>9</v>
       </c>
       <c r="C17" s="20">
         <f t="shared" ref="C17:D17" si="3">C9</f>
@@ -6061,7 +6027,7 @@
       </c>
       <c r="D17" s="16">
         <f t="shared" si="3"/>
-        <v>9.3000000000000007</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -6070,7 +6036,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -6080,24 +6046,24 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.265625" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" customWidth="1"/>
-    <col min="12" max="12" width="28.140625" customWidth="1"/>
-    <col min="13" max="13" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" customWidth="1"/>
+    <col min="4" max="5" width="17.265625" customWidth="1"/>
+    <col min="6" max="6" width="23.1328125" customWidth="1"/>
+    <col min="7" max="7" width="17.265625" customWidth="1"/>
+    <col min="8" max="8" width="22.59765625" customWidth="1"/>
+    <col min="9" max="9" width="17.265625" customWidth="1"/>
+    <col min="10" max="10" width="22.3984375" customWidth="1"/>
+    <col min="11" max="11" width="20.86328125" customWidth="1"/>
+    <col min="12" max="12" width="28.1328125" customWidth="1"/>
+    <col min="13" max="13" width="19.1328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.1328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="57" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
         <v>28</v>
       </c>
@@ -6140,17 +6106,17 @@
       <c r="N1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="O1" s="84" t="s">
+      <c r="O1" s="81" t="s">
         <v>183</v>
       </c>
-      <c r="P1" s="84" t="s">
+      <c r="P1" s="81" t="s">
         <v>184</v>
       </c>
-      <c r="Q1" s="84" t="s">
+      <c r="Q1" s="81" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>2018</v>
       </c>
@@ -6219,7 +6185,7 @@
         <v>2974456.819426693</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2019</v>
       </c>
@@ -6285,7 +6251,7 @@
         <v>2953660.7631915286</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2020</v>
       </c>
@@ -6351,7 +6317,7 @@
         <v>2932864.7069563642</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>2021</v>
       </c>
@@ -6417,7 +6383,7 @@
         <v>2912068.6507211998</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>2022</v>
       </c>
@@ -6483,7 +6449,7 @@
         <v>2891272.5944860321</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>2023</v>
       </c>
@@ -6549,7 +6515,7 @@
         <v>2871352.9304363653</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>2024</v>
       </c>
@@ -6615,7 +6581,7 @@
         <v>2851433.2663867027</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>2025</v>
       </c>
@@ -6681,7 +6647,7 @@
         <v>2831513.6023370475</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>2026</v>
       </c>
@@ -6747,7 +6713,7 @@
         <v>2811593.9382873848</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>2027</v>
       </c>
@@ -6813,7 +6779,7 @@
         <v>2791674.2742377212</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>2028</v>
       </c>
@@ -6879,7 +6845,7 @@
         <v>2772612.7442030236</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>2029</v>
       </c>
@@ -6945,7 +6911,7 @@
         <v>2753551.21416834</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>2030</v>
       </c>
@@ -7011,7 +6977,7 @@
         <v>2734489.6841336489</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>2031</v>
       </c>
@@ -7077,7 +7043,7 @@
         <v>2715428.1540989578</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>2032</v>
       </c>
@@ -7143,7 +7109,7 @@
         <v>2696366.6240642685</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>2033</v>
       </c>
@@ -7209,7 +7175,7 @@
         <v>2678071.9371918961</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>2034</v>
       </c>
@@ -7275,7 +7241,7 @@
         <v>2659777.2503195181</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>2035</v>
       </c>
@@ -7341,7 +7307,7 @@
         <v>2641482.5634471402</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>2036</v>
       </c>
@@ -7407,7 +7373,7 @@
         <v>2623187.8765747696</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>2037</v>
       </c>
@@ -7473,7 +7439,7 @@
         <v>2604893.1897023916</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>2038</v>
       </c>
@@ -7539,7 +7505,7 @@
         <v>2587401.8623333946</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>2039</v>
       </c>
@@ -7605,7 +7571,7 @@
         <v>2569910.5349643975</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>2040</v>
       </c>
@@ -7671,7 +7637,7 @@
         <v>2552419.2075954005</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>2041</v>
       </c>
@@ -7737,7 +7703,7 @@
         <v>2534927.8802264035</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>2042</v>
       </c>
@@ -7803,7 +7769,7 @@
         <v>2517436.5528574036</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>2043</v>
       </c>
@@ -7869,7 +7835,7 @@
         <v>2500639.0359685943</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>2044</v>
       </c>
@@ -7935,7 +7901,7 @@
         <v>2483841.5190797895</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>2045</v>
       </c>
@@ -8001,7 +7967,7 @@
         <v>2467044.0021909773</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>2046</v>
       </c>
@@ -8067,7 +8033,7 @@
         <v>2450246.4853021726</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>2047</v>
       </c>
@@ -8133,7 +8099,7 @@
         <v>2433448.9684133651</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>2048</v>
       </c>
@@ -8199,7 +8165,7 @@
         <v>2416651.4515245557</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>2049</v>
       </c>
@@ -8265,7 +8231,7 @@
         <v>2399853.9346357509</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>2050</v>
       </c>
@@ -8331,7 +8297,7 @@
         <v>2383056.4177469388</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A35" s="20"/>
       <c r="B35" s="12"/>
       <c r="C35" s="20"/>
@@ -8347,7 +8313,7 @@
       <c r="M35" s="20"/>
       <c r="N35" s="20"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A36" s="20"/>
       <c r="B36" s="12"/>
       <c r="C36" s="20"/>
@@ -8363,7 +8329,7 @@
       <c r="M36" s="20"/>
       <c r="N36" s="20"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A37" s="20"/>
       <c r="B37" s="12"/>
       <c r="C37" s="20"/>
@@ -8379,7 +8345,7 @@
       <c r="M37" s="20"/>
       <c r="N37" s="20"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A38" s="20"/>
       <c r="B38" s="12"/>
       <c r="C38" s="20"/>
@@ -8395,7 +8361,7 @@
       <c r="M38" s="20"/>
       <c r="N38" s="20"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A39" s="20"/>
       <c r="B39" s="12"/>
       <c r="C39" s="20"/>
@@ -8411,7 +8377,7 @@
       <c r="M39" s="20"/>
       <c r="N39" s="20"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A40" s="20"/>
       <c r="B40" s="12"/>
       <c r="C40" s="20"/>
@@ -8427,7 +8393,7 @@
       <c r="M40" s="20"/>
       <c r="N40" s="20"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A41" s="20"/>
       <c r="B41" s="12"/>
       <c r="C41" s="20"/>
@@ -8443,7 +8409,7 @@
       <c r="M41" s="20"/>
       <c r="N41" s="20"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A42" s="20"/>
       <c r="B42" s="12"/>
       <c r="C42" s="20"/>
@@ -8459,7 +8425,7 @@
       <c r="M42" s="20"/>
       <c r="N42" s="20"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A43" s="20"/>
       <c r="B43" s="12"/>
       <c r="C43" s="20"/>
@@ -8475,7 +8441,7 @@
       <c r="M43" s="20"/>
       <c r="N43" s="20"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A44" s="20"/>
       <c r="B44" s="12"/>
       <c r="C44" s="20"/>
@@ -8491,7 +8457,7 @@
       <c r="M44" s="20"/>
       <c r="N44" s="20"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A45" s="20"/>
       <c r="B45" s="12"/>
       <c r="C45" s="20"/>
@@ -8507,7 +8473,7 @@
       <c r="M45" s="20"/>
       <c r="N45" s="20"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A46" s="20"/>
       <c r="B46" s="12"/>
       <c r="C46" s="20"/>
@@ -8523,7 +8489,7 @@
       <c r="M46" s="20"/>
       <c r="N46" s="20"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B47" s="12"/>
     </row>
   </sheetData>
@@ -8532,35 +8498,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="20">
         <v>2010</v>
       </c>
@@ -8569,7 +8535,7 @@
       </c>
       <c r="C4" s="20"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="20">
         <v>2011</v>
       </c>
@@ -8578,7 +8544,7 @@
       </c>
       <c r="C5" s="20"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="20">
         <v>2012</v>
       </c>
@@ -8587,7 +8553,7 @@
       </c>
       <c r="C6" s="20"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="20">
         <v>2013</v>
       </c>
@@ -8596,7 +8562,7 @@
       </c>
       <c r="C7" s="20"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="20">
         <v>2014</v>
       </c>
@@ -8605,7 +8571,7 @@
       </c>
       <c r="C8" s="20"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="20">
         <v>2015</v>
       </c>
@@ -8614,7 +8580,7 @@
       </c>
       <c r="C9" s="20"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="20">
         <v>2016</v>
       </c>
@@ -8623,7 +8589,7 @@
       </c>
       <c r="C10" s="20"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="20">
         <v>2017</v>
       </c>
@@ -8632,7 +8598,7 @@
       </c>
       <c r="C11" s="20"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>2018</v>
       </c>
@@ -8641,7 +8607,7 @@
       </c>
       <c r="C12" s="20"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>2019</v>
       </c>
@@ -8650,62 +8616,62 @@
       </c>
       <c r="C13" s="20"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="20">
         <v>100000</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="20"/>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="20"/>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="20">
         <v>10000000</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="20"/>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="20"/>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="20">
         <f>A19/A15</f>
         <v>100</v>
@@ -8713,17 +8679,17 @@
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="20"/>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="20"/>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>96</v>
       </c>
@@ -8732,7 +8698,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="17" t="s">
         <v>28</v>
       </c>
@@ -8743,7 +8709,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="20">
         <v>2010</v>
       </c>
@@ -8755,7 +8721,7 @@
         <v>0.84470208721577789</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="20">
         <v>2011</v>
       </c>
@@ -8767,7 +8733,7 @@
         <v>0.8995232526760818</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="20">
         <v>2012</v>
       </c>
@@ -8778,7 +8744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="20">
         <v>2013</v>
       </c>
@@ -8790,7 +8756,7 @@
         <v>1.0912999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="20">
         <v>2014</v>
       </c>
@@ -8802,7 +8768,7 @@
         <v>1.1552501799999999</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="20">
         <v>2015</v>
       </c>
@@ -8814,7 +8780,7 @@
         <v>1.2282619913759998</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="20">
         <v>2016</v>
       </c>
@@ -8826,7 +8792,7 @@
         <v>1.2556522337836846</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="20">
         <v>2017</v>
       </c>
@@ -8838,7 +8804,7 @@
         <v>1.3058783231350322</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>2018</v>
       </c>
@@ -8850,41 +8816,51 @@
         <v>1.3743063472673078</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="63">
         <v>0.93</v>
       </c>
     </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" s="63">
+        <v>0.9</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C26" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C26" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.86328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="9.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="50" t="s">
         <v>117</v>
       </c>
@@ -8897,7 +8873,7 @@
       <c r="H1" s="50"/>
       <c r="I1" s="50"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -8932,7 +8908,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -8958,7 +8934,7 @@
         <v>4.9345000000000007E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -8987,7 +8963,7 @@
         <v>6.535228698677871E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -9016,7 +8992,7 @@
         <v>7.2231475090650213E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -9045,7 +9021,7 @@
         <v>8.3410155759441301E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -9074,7 +9050,7 @@
         <v>0.125484989999745</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -9103,7 +9079,7 @@
         <v>7.2106249999999997E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -9132,7 +9108,7 @@
         <v>0.18243750000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -9168,7 +9144,7 @@
         <v>9.4500000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -9204,7 +9180,7 @@
         <v>6.3500000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>120</v>
       </c>
@@ -9233,7 +9209,7 @@
         <v>6.2199999999999991E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -9265,7 +9241,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -9298,7 +9274,7 @@
         <v>5.7500000000000002E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -9331,7 +9307,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -9357,7 +9333,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="50" t="s">
         <v>124</v>
       </c>
@@ -9370,7 +9346,7 @@
       <c r="H18" s="50"/>
       <c r="I18" s="50"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="20" t="s">
         <v>115</v>
       </c>
@@ -9405,7 +9381,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="20" t="s">
         <v>17</v>
       </c>
@@ -9439,7 +9415,7 @@
         <v>900949.42486762838</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="20" t="s">
         <v>71</v>
       </c>
@@ -9475,7 +9451,7 @@
         <v>1193213.2004158974</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="20" t="s">
         <v>71</v>
       </c>
@@ -9511,7 +9487,7 @@
         <v>1318814.5899333616</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="20" t="s">
         <v>71</v>
       </c>
@@ -9547,7 +9523,7 @@
         <v>1522916.8478992386</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="20" t="s">
         <v>71</v>
       </c>
@@ -9583,7 +9559,7 @@
         <v>2291126.346535421</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="20" t="s">
         <v>19</v>
       </c>
@@ -9619,7 +9595,7 @@
         <v>1316528.2088734708</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="20" t="s">
         <v>19</v>
       </c>
@@ -9655,7 +9631,7 @@
         <v>3330974.9863063726</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="20" t="s">
         <v>23</v>
       </c>
@@ -9691,7 +9667,7 @@
         <v>1725397.1152090558</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="20" t="s">
         <v>23</v>
       </c>
@@ -9727,7 +9703,7 @@
         <v>1159393.8287383604</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="20" t="s">
         <v>120</v>
       </c>
@@ -9763,7 +9739,7 @@
         <v>1135658.2070476536</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="20" t="s">
         <v>26</v>
       </c>
@@ -9799,7 +9775,7 @@
         <v>2730703.6811848823</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="20" t="s">
         <v>24</v>
       </c>
@@ -9833,7 +9809,7 @@
         <v>1049844.8055504838</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="20" t="s">
         <v>25</v>
       </c>
@@ -9867,7 +9843,7 @@
         <v>2483111.1922585354</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="20" t="s">
         <v>20</v>
       </c>
@@ -9901,7 +9877,7 @@
         <v>821617.67390907416</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" s="51" t="s">
         <v>125</v>
       </c>
@@ -9914,7 +9890,7 @@
       <c r="H35" s="51"/>
       <c r="I35" s="51"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" s="20" t="s">
         <v>115</v>
       </c>
@@ -9949,7 +9925,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" s="20" t="s">
         <v>71</v>
       </c>
@@ -9978,7 +9954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="20" t="s">
         <v>71</v>
       </c>
@@ -10007,7 +9983,7 @@
         <v>0.45366202535004463</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" s="20" t="s">
         <v>71</v>
       </c>
@@ -10036,7 +10012,7 @@
         <v>1.814648101400179</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" s="20" t="s">
         <v>71</v>
       </c>
@@ -10065,7 +10041,7 @@
         <v>2.2683101267502237</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" s="20" t="s">
         <v>19</v>
       </c>
@@ -10094,7 +10070,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" s="20" t="s">
         <v>19</v>
       </c>
@@ -10123,7 +10099,7 @@
         <v>0.21999999999999992</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" s="20" t="s">
         <v>23</v>
       </c>
@@ -10152,7 +10128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" s="20" t="s">
         <v>23</v>
       </c>
@@ -10181,7 +10157,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" s="51" t="s">
         <v>128</v>
       </c>
@@ -10194,7 +10170,7 @@
       <c r="H46" s="51"/>
       <c r="I46" s="20"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>101</v>
       </c>
@@ -10221,7 +10197,7 @@
       </c>
       <c r="I47" s="4"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" s="20" t="s">
         <v>14</v>
       </c>
@@ -10254,7 +10230,7 @@
         <v>1886611.371420742</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A49" s="20" t="s">
         <v>17</v>
       </c>
@@ -10287,7 +10263,7 @@
         <v>900949.42486762838</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A50" s="20" t="s">
         <v>19</v>
       </c>
@@ -10320,7 +10296,7 @@
         <v>2131194.1850411883</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A51" s="20" t="s">
         <v>23</v>
       </c>
@@ -10353,7 +10329,7 @@
         <v>1536729.3530521572</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52" s="20" t="s">
         <v>24</v>
       </c>
@@ -10386,7 +10362,7 @@
         <v>1049844.8055504838</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A53" s="20" t="s">
         <v>27</v>
       </c>
@@ -10419,7 +10395,7 @@
         <v>1135658.2070476536</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A54" s="20" t="s">
         <v>26</v>
       </c>
@@ -10452,7 +10428,7 @@
         <v>2730703.6811848823</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A55" s="20" t="s">
         <v>20</v>
       </c>
@@ -10485,7 +10461,7 @@
         <v>821617.67390907416</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A56" s="20" t="s">
         <v>21</v>
       </c>
@@ -10496,7 +10472,7 @@
       <c r="G56" s="20"/>
       <c r="H56" s="20"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A57" s="20" t="s">
         <v>74</v>
       </c>
@@ -10507,7 +10483,7 @@
       <c r="G57" s="20"/>
       <c r="H57" s="20"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58" s="20" t="s">
         <v>18</v>
       </c>
@@ -10518,7 +10494,7 @@
       <c r="G58" s="20"/>
       <c r="H58" s="20"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59" s="20" t="s">
         <v>75</v>
       </c>
@@ -10529,7 +10505,7 @@
       <c r="G59" s="20"/>
       <c r="H59" s="20"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60" s="20" t="s">
         <v>25</v>
       </c>
@@ -10568,19 +10544,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>27.5</v>
       </c>
@@ -10588,7 +10564,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="4">
         <f>A1*'Conversion Factors'!A19/'Conversion Factors'!B6</f>
         <v>5020996.8961110096</v>
@@ -10597,7 +10573,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>131</v>
       </c>
@@ -10608,33 +10584,33 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="94" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="92" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="86"/>
-      <c r="D1" s="87"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="89"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="93"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="95"/>
       <c r="B2" s="52" t="s">
         <v>133</v>
       </c>
@@ -10645,7 +10621,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="54" t="s">
         <v>14</v>
       </c>
@@ -10657,7 +10633,7 @@
         <v>40.75</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="54" t="s">
         <v>17</v>
       </c>
@@ -10669,7 +10645,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="54" t="s">
         <v>19</v>
       </c>
@@ -10681,7 +10657,7 @@
         <v>108.5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="54" t="s">
         <v>23</v>
       </c>
@@ -10689,7 +10665,7 @@
       <c r="C6" s="56"/>
       <c r="D6" s="57"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="54" t="s">
         <v>24</v>
       </c>
@@ -10701,7 +10677,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="54" t="s">
         <v>27</v>
       </c>
@@ -10713,7 +10689,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="54" t="s">
         <v>26</v>
       </c>
@@ -10725,7 +10701,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="54" t="s">
         <v>20</v>
       </c>
@@ -10740,7 +10716,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="54" t="s">
         <v>21</v>
       </c>
@@ -10752,7 +10728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="54" t="s">
         <v>74</v>
       </c>
@@ -10772,7 +10748,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="54" t="s">
         <v>18</v>
       </c>
@@ -10786,7 +10762,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="54" t="s">
         <v>75</v>
       </c>
@@ -10803,7 +10779,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="58" t="s">
         <v>25</v>
       </c>
@@ -10815,19 +10791,19 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="88" t="s">
+    <row r="16" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" s="94" t="s">
         <v>101</v>
       </c>
-      <c r="B17" s="86" t="s">
+      <c r="B17" s="92" t="s">
         <v>136</v>
       </c>
-      <c r="C17" s="86"/>
-      <c r="D17" s="87"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="89"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="93"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" s="95"/>
       <c r="B18" s="52" t="s">
         <v>133</v>
       </c>
@@ -10838,133 +10814,133 @@
         <v>134</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="54" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="64"/>
       <c r="C19" s="65">
-        <f>C3*'Conversion Factors'!$A$38</f>
-        <v>2.5575000000000001</v>
-      </c>
-      <c r="D19" s="66">
-        <f>D3*'Conversion Factors'!$A$38</f>
-        <v>37.897500000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C3*'Conversion Factors'!$A$40</f>
+        <v>2.4750000000000001</v>
+      </c>
+      <c r="D19" s="65">
+        <f>D3*'Conversion Factors'!$A$40</f>
+        <v>36.675000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="54" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="64"/>
       <c r="C20" s="65">
-        <f>C4*'Conversion Factors'!$A$38</f>
-        <v>2.79</v>
-      </c>
-      <c r="D20" s="66">
-        <f>D4*'Conversion Factors'!$A$38</f>
-        <v>10.23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C4*'Conversion Factors'!$A$40</f>
+        <v>2.7</v>
+      </c>
+      <c r="D20" s="65">
+        <f>D4*'Conversion Factors'!$A$40</f>
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="54" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="64"/>
       <c r="C21" s="65">
-        <f>C5*'Conversion Factors'!$A$38</f>
-        <v>3.2550000000000003</v>
-      </c>
-      <c r="D21" s="66">
-        <f>D5*'Conversion Factors'!$A$38</f>
-        <v>100.905</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C5*'Conversion Factors'!$A$40</f>
+        <v>3.15</v>
+      </c>
+      <c r="D21" s="65">
+        <f>D5*'Conversion Factors'!$A$40</f>
+        <v>97.65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="54" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="64"/>
       <c r="C22" s="65">
-        <f>C6*'Conversion Factors'!$A$38</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="66">
-        <f>D6*'Conversion Factors'!$A$38</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C6*'Conversion Factors'!$A$40</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="65">
+        <f>D6*'Conversion Factors'!$A$40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="54" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="64"/>
       <c r="C23" s="65">
-        <f>C7*'Conversion Factors'!$A$38</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="66">
-        <f>D7*'Conversion Factors'!$A$38</f>
-        <v>26.040000000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C7*'Conversion Factors'!$A$40</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="65">
+        <f>D7*'Conversion Factors'!$A$40</f>
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="54" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="64"/>
       <c r="C24" s="65">
-        <f>C8*'Conversion Factors'!$A$38</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="66">
-        <f>D8*'Conversion Factors'!$A$38</f>
-        <v>8.370000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C8*'Conversion Factors'!$A$40</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="65">
+        <f>D8*'Conversion Factors'!$A$40</f>
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="54" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="64"/>
       <c r="C25" s="65">
-        <f>C9*'Conversion Factors'!$A$38</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="66">
-        <f>D9*'Conversion Factors'!$A$38</f>
-        <v>69.75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C9*'Conversion Factors'!$A$40</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="65">
+        <f>D9*'Conversion Factors'!$A$40</f>
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="54" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="64"/>
       <c r="C26" s="65">
-        <f>C10*'Conversion Factors'!$A$38</f>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="D26" s="66">
-        <f>D10*'Conversion Factors'!$A$38</f>
-        <v>46.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C10*'Conversion Factors'!$A$40</f>
+        <v>9</v>
+      </c>
+      <c r="D26" s="65">
+        <f>D10*'Conversion Factors'!$A$40</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="54" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="64"/>
       <c r="C27" s="65">
-        <f>C11*'Conversion Factors'!$A$38</f>
-        <v>22.32</v>
-      </c>
-      <c r="D27" s="66">
-        <f>D11*'Conversion Factors'!$A$38</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C11*'Conversion Factors'!$A$40</f>
+        <v>21.6</v>
+      </c>
+      <c r="D27" s="65">
+        <f>D11*'Conversion Factors'!$A$40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="54" t="s">
         <v>74</v>
       </c>
@@ -10973,15 +10949,15 @@
         <v>651</v>
       </c>
       <c r="C28" s="65">
-        <f>C12*'Conversion Factors'!$A$38</f>
-        <v>4.4175000000000004</v>
-      </c>
-      <c r="D28" s="66">
-        <f>D12*'Conversion Factors'!$A$38</f>
-        <v>5.1150000000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C12*'Conversion Factors'!$A$40</f>
+        <v>4.2750000000000004</v>
+      </c>
+      <c r="D28" s="65">
+        <f>D12*'Conversion Factors'!$A$40</f>
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="54" t="s">
         <v>18</v>
       </c>
@@ -10990,40 +10966,40 @@
         <v>651</v>
       </c>
       <c r="C29" s="65">
-        <f>C13*'Conversion Factors'!$A$38</f>
-        <v>4.4175000000000004</v>
-      </c>
-      <c r="D29" s="66">
-        <f>D13*'Conversion Factors'!$A$38</f>
-        <v>5.1150000000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C13*'Conversion Factors'!$A$40</f>
+        <v>4.2750000000000004</v>
+      </c>
+      <c r="D29" s="65">
+        <f>D13*'Conversion Factors'!$A$40</f>
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="54" t="s">
         <v>75</v>
       </c>
       <c r="B30" s="64"/>
       <c r="C30" s="65">
-        <f>C14*'Conversion Factors'!$A$38</f>
-        <v>2.5575000000000001</v>
-      </c>
-      <c r="D30" s="66">
-        <f>D14*'Conversion Factors'!$A$38</f>
-        <v>37.897500000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f>C14*'Conversion Factors'!$A$40</f>
+        <v>2.4750000000000001</v>
+      </c>
+      <c r="D30" s="65">
+        <f>D14*'Conversion Factors'!$A$40</f>
+        <v>36.675000000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="67"/>
-      <c r="C31" s="68">
-        <f>C15*'Conversion Factors'!$A$38</f>
-        <v>0</v>
-      </c>
-      <c r="D31" s="69">
-        <f>D15*'Conversion Factors'!$A$38</f>
-        <v>74.400000000000006</v>
+      <c r="B31" s="66"/>
+      <c r="C31" s="65">
+        <f>C15*'Conversion Factors'!$A$40</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="65">
+        <f>D15*'Conversion Factors'!$A$40</f>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -11038,19 +11014,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="51" t="s">
         <v>128</v>
       </c>
@@ -11062,7 +11038,7 @@
       <c r="G1" s="51"/>
       <c r="H1" s="51"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="20" t="s">
         <v>101</v>
       </c>
@@ -11088,7 +11064,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="20" t="s">
         <v>14</v>
       </c>
@@ -11121,7 +11097,7 @@
         <v>1886611.371420742</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="20" t="s">
         <v>17</v>
       </c>
@@ -11154,7 +11130,7 @@
         <v>900949.42486762838</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="20" t="s">
         <v>19</v>
       </c>
@@ -11187,7 +11163,7 @@
         <v>2131194.1850411883</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="20" t="s">
         <v>23</v>
       </c>
@@ -11220,7 +11196,7 @@
         <v>1536729.3530521572</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="20" t="s">
         <v>24</v>
       </c>
@@ -11253,7 +11229,7 @@
         <v>1049844.8055504838</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="20" t="s">
         <v>27</v>
       </c>
@@ -11286,7 +11262,7 @@
         <v>1135658.2070476536</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="20" t="s">
         <v>26</v>
       </c>
@@ -11319,7 +11295,7 @@
         <v>2730703.6811848823</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="20" t="s">
         <v>20</v>
       </c>
@@ -11352,7 +11328,7 @@
         <v>821617.67390907416</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="20" t="s">
         <v>21</v>
       </c>
@@ -11385,7 +11361,7 @@
         <v>5020996.8961110096</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="20" t="s">
         <v>74</v>
       </c>
@@ -11397,7 +11373,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="20" t="s">
         <v>18</v>
       </c>
@@ -11409,7 +11385,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="20" t="s">
         <v>75</v>
       </c>
@@ -11421,7 +11397,7 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="20" t="s">
         <v>25</v>
       </c>
@@ -11460,31 +11436,31 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.3984375" customWidth="1"/>
+    <col min="3" max="3" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.73046875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="51" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -11510,7 +11486,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>90</v>
       </c>
@@ -11540,7 +11516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>226</v>
       </c>
@@ -11551,7 +11527,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="51" t="s">
         <v>206</v>
       </c>
@@ -11560,7 +11536,7 @@
       <c r="D5" s="51"/>
       <c r="E5" s="51"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>208</v>
       </c>
@@ -11568,7 +11544,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>231</v>
       </c>
@@ -11576,7 +11552,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>210</v>
       </c>
@@ -11584,38 +11560,38 @@
         <v>215</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="99" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" s="83" t="s">
         <v>211</v>
       </c>
-      <c r="B10" s="103">
+      <c r="B10" s="87">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="100" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11" s="84" t="s">
         <v>212</v>
       </c>
-      <c r="B11" s="104">
+      <c r="B11" s="88">
         <v>19.5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="101" t="s">
+    <row r="12" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="85" t="s">
         <v>213</v>
       </c>
-      <c r="B12" s="105">
+      <c r="B12" s="89">
         <v>17.829999999999998</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="102" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13" s="86" t="s">
         <v>214</v>
       </c>
-      <c r="B13" s="106">
+      <c r="B13" s="90">
         <f>AVERAGE(B10:B12)</f>
         <v>20.443333333333332</v>
       </c>
@@ -11632,7 +11608,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E14">
         <v>2018</v>
       </c>
@@ -11650,37 +11626,37 @@
         <v>207</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="107" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15" s="91" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>228</v>
       </c>
@@ -11692,19 +11668,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="20.7109375" style="43" customWidth="1"/>
+    <col min="1" max="2" width="20.73046875" style="43" customWidth="1"/>
     <col min="3" max="3" width="21" style="43" customWidth="1"/>
-    <col min="4" max="8" width="20.7109375" style="43" customWidth="1"/>
+    <col min="4" max="8" width="20.73046875" style="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="22"/>
       <c r="B1" s="22"/>
       <c r="C1" s="23" t="s">
@@ -11726,45 +11702,45 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="27.75" x14ac:dyDescent="0.45">
       <c r="A2" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="94" t="s">
+      <c r="D2" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="94" t="s">
+      <c r="E2" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="96" t="s">
+      <c r="F2" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="96" t="s">
+      <c r="G2" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="90" t="s">
+      <c r="H2" s="96" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="91"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="99"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="97"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="23" t="s">
         <v>40</v>
       </c>
@@ -11778,7 +11754,7 @@
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
     </row>
-    <row r="5" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="27" x14ac:dyDescent="0.45">
       <c r="A5" s="26" t="s">
         <v>41</v>
       </c>
@@ -11804,7 +11780,7 @@
         <v>2848907</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="27" x14ac:dyDescent="0.45">
       <c r="A6" s="28" t="s">
         <v>42</v>
       </c>
@@ -11830,7 +11806,7 @@
         <v>4652</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="30" t="s">
         <v>44</v>
       </c>
@@ -11842,7 +11818,7 @@
       <c r="G7" s="31"/>
       <c r="H7" s="31"/>
     </row>
-    <row r="8" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="27" x14ac:dyDescent="0.45">
       <c r="A8" s="32" t="s">
         <v>45</v>
       </c>
@@ -11868,7 +11844,7 @@
         <v>2848907</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="35" t="s">
         <v>46</v>
       </c>
@@ -11880,7 +11856,7 @@
       <c r="G9" s="31"/>
       <c r="H9" s="31"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="32" t="s">
         <v>47</v>
       </c>
@@ -11906,7 +11882,7 @@
         <v>30210</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="27.75" x14ac:dyDescent="0.45">
       <c r="A11" s="35" t="s">
         <v>48</v>
       </c>
@@ -11918,7 +11894,7 @@
       <c r="G11" s="31"/>
       <c r="H11" s="31"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="32" t="s">
         <v>49</v>
       </c>
@@ -11944,7 +11920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A13" s="32" t="s">
         <v>50</v>
       </c>
@@ -11970,7 +11946,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="32" t="s">
         <v>51</v>
       </c>
@@ -11996,7 +11972,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="32" t="s">
         <v>52</v>
       </c>
@@ -12022,7 +11998,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="27" x14ac:dyDescent="0.45">
       <c r="A16" s="32" t="s">
         <v>53</v>
       </c>
@@ -12048,7 +12024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="32" t="s">
         <v>54</v>
       </c>
@@ -12074,7 +12050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="32" t="s">
         <v>55</v>
       </c>
@@ -12100,7 +12076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="32" t="s">
         <v>56</v>
       </c>
@@ -12126,7 +12102,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="32" t="s">
         <v>57</v>
       </c>
@@ -12152,7 +12128,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="27" x14ac:dyDescent="0.45">
       <c r="A21" s="32" t="s">
         <v>58</v>
       </c>
@@ -12178,7 +12154,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="32" t="s">
         <v>59</v>
       </c>
@@ -12204,7 +12180,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="32" t="s">
         <v>60</v>
       </c>
@@ -12230,7 +12206,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="32" t="s">
         <v>61</v>
       </c>
@@ -12256,7 +12232,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="32" t="s">
         <v>62</v>
       </c>
@@ -12282,7 +12258,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="32" t="s">
         <v>63</v>
       </c>
@@ -12308,7 +12284,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="32" t="s">
         <v>65</v>
       </c>
@@ -12334,7 +12310,7 @@
         <v>5668</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="39" t="s">
         <v>66</v>
       </c>
@@ -12360,7 +12336,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="27" x14ac:dyDescent="0.45">
       <c r="A29" s="28" t="s">
         <v>68</v>
       </c>
@@ -12386,7 +12362,7 @@
         <v>35878</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="27" x14ac:dyDescent="0.45">
       <c r="A30" s="39" t="s">
         <v>68</v>
       </c>
@@ -12412,12 +12388,12 @@
         <v>7.87</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B32" s="43" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="44" t="s">
         <v>70</v>
       </c>
@@ -12428,7 +12404,7 @@
       <c r="C33" s="45"/>
       <c r="D33" s="45"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="44" t="s">
         <v>66</v>
       </c>
@@ -12439,7 +12415,7 @@
       <c r="C34" s="45"/>
       <c r="D34" s="45"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="44" t="s">
         <v>47</v>
       </c>
@@ -12465,436 +12441,436 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.73046875" customWidth="1"/>
+    <col min="13" max="13" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A1" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2" s="67" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-    </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="104" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="79" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="98"/>
-      <c r="B4" s="98"/>
-      <c r="C4" s="78">
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A4" s="104"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="75">
         <v>2017</v>
       </c>
-      <c r="D4" s="78">
+      <c r="D4" s="75">
         <v>2018</v>
       </c>
-      <c r="E4" s="78">
+      <c r="E4" s="75">
         <v>2019</v>
       </c>
-      <c r="F4" s="78">
+      <c r="F4" s="75">
         <v>2020</v>
       </c>
-      <c r="G4" s="78">
+      <c r="G4" s="75">
         <v>2021</v>
       </c>
-      <c r="H4" s="78">
+      <c r="H4" s="75">
         <v>2022</v>
       </c>
-      <c r="I4" s="78">
+      <c r="I4" s="75">
         <v>2023</v>
       </c>
-      <c r="J4" s="78">
+      <c r="J4" s="75">
         <v>2024</v>
       </c>
-      <c r="K4" s="78">
+      <c r="K4" s="75">
         <v>2025</v>
       </c>
-      <c r="L4" s="78">
+      <c r="L4" s="75">
         <v>2026</v>
       </c>
-      <c r="M4" s="80">
+      <c r="M4" s="77">
         <v>2027</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="72">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A5" s="69">
         <v>1</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="70" t="s">
         <v>142</v>
       </c>
-      <c r="C5" s="74">
+      <c r="C5" s="71">
         <v>6.5</v>
       </c>
-      <c r="D5" s="75">
+      <c r="D5" s="72">
         <v>6.76</v>
       </c>
-      <c r="E5" s="75">
+      <c r="E5" s="72">
         <v>7.03</v>
       </c>
-      <c r="F5" s="75">
+      <c r="F5" s="72">
         <v>7.31</v>
       </c>
-      <c r="G5" s="75">
+      <c r="G5" s="72">
         <v>7.6</v>
       </c>
-      <c r="H5" s="74">
+      <c r="H5" s="71">
         <v>7.9</v>
       </c>
-      <c r="I5" s="74">
+      <c r="I5" s="71">
         <v>8.1999999999999993</v>
       </c>
-      <c r="J5" s="74">
+      <c r="J5" s="71">
         <v>8.5</v>
       </c>
-      <c r="K5" s="74">
+      <c r="K5" s="71">
         <v>8.9</v>
       </c>
-      <c r="L5" s="75">
+      <c r="L5" s="72">
         <v>9.25</v>
       </c>
-      <c r="M5" s="81">
+      <c r="M5" s="78">
         <f>(($L5-$C5)/COUNT($D$4:$L$4))+L5</f>
         <v>9.5555555555555554</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="72">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A6" s="69">
         <v>2</v>
       </c>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="70" t="s">
         <v>143</v>
       </c>
-      <c r="C6" s="72">
+      <c r="C6" s="69">
         <v>10</v>
       </c>
-      <c r="D6" s="74">
+      <c r="D6" s="71">
         <v>10.4</v>
       </c>
-      <c r="E6" s="74">
+      <c r="E6" s="71">
         <v>10.8</v>
       </c>
-      <c r="F6" s="74">
+      <c r="F6" s="71">
         <v>11.2</v>
       </c>
-      <c r="G6" s="74">
+      <c r="G6" s="71">
         <v>11.7</v>
       </c>
-      <c r="H6" s="74">
+      <c r="H6" s="71">
         <v>12.2</v>
       </c>
-      <c r="I6" s="74">
+      <c r="I6" s="71">
         <v>12.7</v>
       </c>
-      <c r="J6" s="74">
+      <c r="J6" s="71">
         <v>13.2</v>
       </c>
-      <c r="K6" s="74">
+      <c r="K6" s="71">
         <v>13.7</v>
       </c>
-      <c r="L6" s="74">
+      <c r="L6" s="71">
         <v>14.2</v>
       </c>
-      <c r="M6" s="81">
+      <c r="M6" s="78">
         <f t="shared" ref="M6:M12" si="0">(($L6-$C6)/COUNT($D$4:$L$4))+L6</f>
         <v>14.666666666666666</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="72">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A7" s="69">
         <v>3</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="70" t="s">
         <v>144</v>
       </c>
-      <c r="C7" s="74">
+      <c r="C7" s="71">
         <v>5.5</v>
       </c>
-      <c r="D7" s="74">
+      <c r="D7" s="71">
         <v>5.5</v>
       </c>
-      <c r="E7" s="74">
+      <c r="E7" s="71">
         <v>5.5</v>
       </c>
-      <c r="F7" s="74">
+      <c r="F7" s="71">
         <v>5.5</v>
       </c>
-      <c r="G7" s="74">
+      <c r="G7" s="71">
         <v>5.5</v>
       </c>
-      <c r="H7" s="74">
+      <c r="H7" s="71">
         <v>5.5</v>
       </c>
-      <c r="I7" s="74">
+      <c r="I7" s="71">
         <v>5.5</v>
       </c>
-      <c r="J7" s="74">
+      <c r="J7" s="71">
         <v>5.5</v>
       </c>
-      <c r="K7" s="74">
+      <c r="K7" s="71">
         <v>5.5</v>
       </c>
-      <c r="L7" s="74">
+      <c r="L7" s="71">
         <v>5.5</v>
       </c>
-      <c r="M7" s="81">
+      <c r="M7" s="78">
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="72">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A8" s="69">
         <v>4</v>
       </c>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="C8" s="72">
+      <c r="C8" s="69">
         <v>6</v>
       </c>
-      <c r="D8" s="72">
+      <c r="D8" s="69">
         <v>6</v>
       </c>
-      <c r="E8" s="72">
+      <c r="E8" s="69">
         <v>6</v>
       </c>
-      <c r="F8" s="72">
+      <c r="F8" s="69">
         <v>6</v>
       </c>
-      <c r="G8" s="72">
+      <c r="G8" s="69">
         <v>6</v>
       </c>
-      <c r="H8" s="72">
+      <c r="H8" s="69">
         <v>6</v>
       </c>
-      <c r="I8" s="72">
+      <c r="I8" s="69">
         <v>6</v>
       </c>
-      <c r="J8" s="72">
+      <c r="J8" s="69">
         <v>6</v>
       </c>
-      <c r="K8" s="72">
+      <c r="K8" s="69">
         <v>6</v>
       </c>
-      <c r="L8" s="72">
+      <c r="L8" s="69">
         <v>6</v>
       </c>
-      <c r="M8" s="81">
+      <c r="M8" s="78">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="72">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A9" s="69">
         <v>5</v>
       </c>
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="C9" s="74">
+      <c r="C9" s="71">
         <v>5.7</v>
       </c>
-      <c r="D9" s="74">
+      <c r="D9" s="71">
         <v>5.7</v>
       </c>
-      <c r="E9" s="74">
+      <c r="E9" s="71">
         <v>5.7</v>
       </c>
-      <c r="F9" s="74">
+      <c r="F9" s="71">
         <v>5.7</v>
       </c>
-      <c r="G9" s="74">
+      <c r="G9" s="71">
         <v>5.7</v>
       </c>
-      <c r="H9" s="74">
+      <c r="H9" s="71">
         <v>5.7</v>
       </c>
-      <c r="I9" s="74">
+      <c r="I9" s="71">
         <v>5.7</v>
       </c>
-      <c r="J9" s="74">
+      <c r="J9" s="71">
         <v>5.7</v>
       </c>
-      <c r="K9" s="74">
+      <c r="K9" s="71">
         <v>5.7</v>
       </c>
-      <c r="L9" s="74">
+      <c r="L9" s="71">
         <v>5.7</v>
       </c>
-      <c r="M9" s="81">
+      <c r="M9" s="78">
         <f t="shared" si="0"/>
         <v>5.7</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="72">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A10" s="69">
         <v>6</v>
       </c>
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="C10" s="74">
+      <c r="C10" s="71">
         <v>6.5</v>
       </c>
-      <c r="D10" s="75">
+      <c r="D10" s="72">
         <v>6.76</v>
       </c>
-      <c r="E10" s="75">
+      <c r="E10" s="72">
         <v>7.03</v>
       </c>
-      <c r="F10" s="75">
+      <c r="F10" s="72">
         <v>7.31</v>
       </c>
-      <c r="G10" s="75">
+      <c r="G10" s="72">
         <v>7.6</v>
       </c>
-      <c r="H10" s="74">
+      <c r="H10" s="71">
         <v>7.9</v>
       </c>
-      <c r="I10" s="74">
+      <c r="I10" s="71">
         <v>8.1999999999999993</v>
       </c>
-      <c r="J10" s="74">
+      <c r="J10" s="71">
         <v>8.5</v>
       </c>
-      <c r="K10" s="74">
+      <c r="K10" s="71">
         <v>8.9</v>
       </c>
-      <c r="L10" s="75">
+      <c r="L10" s="72">
         <v>9.25</v>
       </c>
-      <c r="M10" s="81">
+      <c r="M10" s="78">
         <f t="shared" si="0"/>
         <v>9.5555555555555554</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="72">
+    <row r="11" spans="1:13" ht="26.25" x14ac:dyDescent="0.45">
+      <c r="A11" s="69">
         <v>7</v>
       </c>
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="C11" s="72">
+      <c r="C11" s="69">
         <v>10</v>
       </c>
-      <c r="D11" s="74">
+      <c r="D11" s="71">
         <v>10.4</v>
       </c>
-      <c r="E11" s="74">
+      <c r="E11" s="71">
         <v>10.8</v>
       </c>
-      <c r="F11" s="74">
+      <c r="F11" s="71">
         <v>11.2</v>
       </c>
-      <c r="G11" s="74">
+      <c r="G11" s="71">
         <v>11.7</v>
       </c>
-      <c r="H11" s="74">
+      <c r="H11" s="71">
         <v>12.2</v>
       </c>
-      <c r="I11" s="74">
+      <c r="I11" s="71">
         <v>12.7</v>
       </c>
-      <c r="J11" s="74">
+      <c r="J11" s="71">
         <v>13.2</v>
       </c>
-      <c r="K11" s="74">
+      <c r="K11" s="71">
         <v>13.7</v>
       </c>
-      <c r="L11" s="74">
+      <c r="L11" s="71">
         <v>14.2</v>
       </c>
-      <c r="M11" s="81">
+      <c r="M11" s="78">
         <f t="shared" si="0"/>
         <v>14.666666666666666</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="72">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A12" s="69">
         <v>8</v>
       </c>
-      <c r="B12" s="76" t="s">
+      <c r="B12" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="74">
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="71">
         <v>20</v>
       </c>
-      <c r="I12" s="74">
+      <c r="I12" s="71">
         <v>20.8</v>
       </c>
-      <c r="J12" s="74">
+      <c r="J12" s="71">
         <v>21.6</v>
       </c>
-      <c r="K12" s="74">
+      <c r="K12" s="71">
         <v>22.5</v>
       </c>
-      <c r="L12" s="74">
+      <c r="L12" s="71">
         <v>23.4</v>
       </c>
-      <c r="M12" s="81">
+      <c r="M12" s="78">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="70" t="s">
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A14" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
@@ -12902,16 +12878,16 @@
       <c r="L14" s="20"/>
       <c r="M14" s="20"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="70" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A15" s="67" t="s">
         <v>180</v>
       </c>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
@@ -12919,461 +12895,461 @@
       <c r="L15" s="20"/>
       <c r="M15" s="20"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="98" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A16" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="B16" s="98" t="s">
+      <c r="B16" s="104" t="s">
         <v>140</v>
       </c>
-      <c r="C16" s="82" t="s">
+      <c r="C16" s="79" t="s">
         <v>150</v>
       </c>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="79"/>
-      <c r="K16" s="79"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="79"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="98"/>
-      <c r="B17" s="98"/>
-      <c r="C17" s="78">
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="76"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A17" s="104"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="75">
         <v>2017</v>
       </c>
-      <c r="D17" s="78">
+      <c r="D17" s="75">
         <v>2018</v>
       </c>
-      <c r="E17" s="78">
+      <c r="E17" s="75">
         <v>2019</v>
       </c>
-      <c r="F17" s="78">
+      <c r="F17" s="75">
         <v>2020</v>
       </c>
-      <c r="G17" s="78">
+      <c r="G17" s="75">
         <v>2021</v>
       </c>
-      <c r="H17" s="78">
+      <c r="H17" s="75">
         <v>2022</v>
       </c>
-      <c r="I17" s="78">
+      <c r="I17" s="75">
         <v>2023</v>
       </c>
-      <c r="J17" s="78">
+      <c r="J17" s="75">
         <v>2024</v>
       </c>
-      <c r="K17" s="78">
+      <c r="K17" s="75">
         <v>2025</v>
       </c>
-      <c r="L17" s="78">
+      <c r="L17" s="75">
         <v>2026</v>
       </c>
-      <c r="M17" s="80">
+      <c r="M17" s="77">
         <v>2027</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="72">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A18" s="69">
         <v>1</v>
       </c>
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="70" t="s">
         <v>151</v>
       </c>
-      <c r="C18" s="72">
+      <c r="C18" s="69">
         <f>C5/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>908799.13044747908</v>
       </c>
-      <c r="D18" s="72">
+      <c r="D18" s="69">
         <f>D5/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>945151.09566537838</v>
       </c>
-      <c r="E18" s="72">
+      <c r="E18" s="69">
         <f>E5/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>982901.21339165827</v>
       </c>
-      <c r="F18" s="72">
+      <c r="F18" s="69">
         <f>F5/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>1022049.483626319</v>
       </c>
-      <c r="G18" s="72">
+      <c r="G18" s="69">
         <f>G5/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>1062595.9063693604</v>
       </c>
-      <c r="H18" s="72">
+      <c r="H18" s="69">
         <f>H5/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>1104540.4816207823</v>
       </c>
-      <c r="I18" s="72">
+      <c r="I18" s="69">
         <f>I5/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>1146485.0568722044</v>
       </c>
-      <c r="J18" s="72">
+      <c r="J18" s="69">
         <f>J5/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>1188429.6321236268</v>
       </c>
-      <c r="K18" s="72">
+      <c r="K18" s="69">
         <f>K5/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>1244355.7324588562</v>
       </c>
-      <c r="L18" s="72">
+      <c r="L18" s="69">
         <f>L5/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>1293291.0702521817</v>
       </c>
-      <c r="M18" s="72">
+      <c r="M18" s="69">
         <f>M5/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>1336012.3968971488</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="72">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A19" s="69">
         <v>2</v>
       </c>
-      <c r="B19" s="73" t="s">
+      <c r="B19" s="70" t="s">
         <v>143</v>
       </c>
-      <c r="C19" s="72">
+      <c r="C19" s="69">
         <f>C6/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>1398152.5083807372</v>
       </c>
-      <c r="D19" s="72">
+      <c r="D19" s="69">
         <f>D6/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>1454078.6087159668</v>
       </c>
-      <c r="E19" s="72">
+      <c r="E19" s="69">
         <f>E6/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>1510004.7090511965</v>
       </c>
-      <c r="F19" s="72">
+      <c r="F19" s="69">
         <f>F6/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>1565930.8093864257</v>
       </c>
-      <c r="G19" s="72">
+      <c r="G19" s="69">
         <f>G6/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>1635838.4348054626</v>
       </c>
-      <c r="H19" s="72">
+      <c r="H19" s="69">
         <f>H6/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>1705746.0602244993</v>
       </c>
-      <c r="I19" s="72">
+      <c r="I19" s="69">
         <f>I6/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>1775653.6856435363</v>
       </c>
-      <c r="J19" s="72">
+      <c r="J19" s="69">
         <f>J6/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>1845561.3110625728</v>
       </c>
-      <c r="K19" s="72">
+      <c r="K19" s="69">
         <f>K6/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>1915468.9364816097</v>
       </c>
-      <c r="L19" s="72">
+      <c r="L19" s="69">
         <f>L6/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>1985376.5619006469</v>
       </c>
-      <c r="M19" s="72">
+      <c r="M19" s="69">
         <f>M6/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>2050623.6789584146</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="72">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A20" s="69">
         <v>3</v>
       </c>
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="70" t="s">
         <v>144</v>
       </c>
-      <c r="C20" s="72">
+      <c r="C20" s="69">
         <f>C7/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>768983.87960940553</v>
       </c>
-      <c r="D20" s="72">
+      <c r="D20" s="69">
         <f>D7/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>768983.87960940553</v>
       </c>
-      <c r="E20" s="72">
+      <c r="E20" s="69">
         <f>E7/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>768983.87960940553</v>
       </c>
-      <c r="F20" s="72">
+      <c r="F20" s="69">
         <f>F7/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>768983.87960940553</v>
       </c>
-      <c r="G20" s="72">
+      <c r="G20" s="69">
         <f>G7/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>768983.87960940553</v>
       </c>
-      <c r="H20" s="72">
+      <c r="H20" s="69">
         <f>H7/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>768983.87960940553</v>
       </c>
-      <c r="I20" s="72">
+      <c r="I20" s="69">
         <f>I7/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>768983.87960940553</v>
       </c>
-      <c r="J20" s="72">
+      <c r="J20" s="69">
         <f>J7/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>768983.87960940553</v>
       </c>
-      <c r="K20" s="72">
+      <c r="K20" s="69">
         <f>K7/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>768983.87960940553</v>
       </c>
-      <c r="L20" s="72">
+      <c r="L20" s="69">
         <f>L7/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>768983.87960940553</v>
       </c>
-      <c r="M20" s="72">
+      <c r="M20" s="69">
         <f>M7/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>768983.87960940553</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="72">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A21" s="69">
         <v>4</v>
       </c>
-      <c r="B21" s="73" t="s">
+      <c r="B21" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="C21" s="72">
+      <c r="C21" s="69">
         <f>C8/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>838891.50502844236</v>
       </c>
-      <c r="D21" s="72">
+      <c r="D21" s="69">
         <f>D8/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>838891.50502844236</v>
       </c>
-      <c r="E21" s="72">
+      <c r="E21" s="69">
         <f>E8/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>838891.50502844236</v>
       </c>
-      <c r="F21" s="72">
+      <c r="F21" s="69">
         <f>F8/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>838891.50502844236</v>
       </c>
-      <c r="G21" s="72">
+      <c r="G21" s="69">
         <f>G8/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>838891.50502844236</v>
       </c>
-      <c r="H21" s="72">
+      <c r="H21" s="69">
         <f>H8/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>838891.50502844236</v>
       </c>
-      <c r="I21" s="72">
+      <c r="I21" s="69">
         <f>I8/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>838891.50502844236</v>
       </c>
-      <c r="J21" s="72">
+      <c r="J21" s="69">
         <f>J8/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>838891.50502844236</v>
       </c>
-      <c r="K21" s="72">
+      <c r="K21" s="69">
         <f>K8/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>838891.50502844236</v>
       </c>
-      <c r="L21" s="72">
+      <c r="L21" s="69">
         <f>L8/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>838891.50502844236</v>
       </c>
-      <c r="M21" s="72">
+      <c r="M21" s="69">
         <f>M8/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>838891.50502844236</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="72">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A22" s="69">
         <v>5</v>
       </c>
-      <c r="B22" s="73" t="s">
+      <c r="B22" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="C22" s="72">
+      <c r="C22" s="69">
         <f>C9/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>796946.92977702012</v>
       </c>
-      <c r="D22" s="72">
+      <c r="D22" s="69">
         <f>D9/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>796946.92977702012</v>
       </c>
-      <c r="E22" s="72">
+      <c r="E22" s="69">
         <f>E9/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>796946.92977702012</v>
       </c>
-      <c r="F22" s="72">
+      <c r="F22" s="69">
         <f>F9/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>796946.92977702012</v>
       </c>
-      <c r="G22" s="72">
+      <c r="G22" s="69">
         <f>G9/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>796946.92977702012</v>
       </c>
-      <c r="H22" s="72">
+      <c r="H22" s="69">
         <f>H9/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>796946.92977702012</v>
       </c>
-      <c r="I22" s="72">
+      <c r="I22" s="69">
         <f>I9/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>796946.92977702012</v>
       </c>
-      <c r="J22" s="72">
+      <c r="J22" s="69">
         <f>J9/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>796946.92977702012</v>
       </c>
-      <c r="K22" s="72">
+      <c r="K22" s="69">
         <f>K9/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>796946.92977702012</v>
       </c>
-      <c r="L22" s="72">
+      <c r="L22" s="69">
         <f>L9/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>796946.92977702012</v>
       </c>
-      <c r="M22" s="72">
+      <c r="M22" s="69">
         <f>M9/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>796946.92977702012</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="72">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A23" s="69">
         <v>6</v>
       </c>
-      <c r="B23" s="73" t="s">
+      <c r="B23" s="70" t="s">
         <v>152</v>
       </c>
-      <c r="C23" s="72">
+      <c r="C23" s="69">
         <f>C10/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>908799.13044747908</v>
       </c>
-      <c r="D23" s="72">
+      <c r="D23" s="69">
         <f>D10/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>945151.09566537838</v>
       </c>
-      <c r="E23" s="72">
+      <c r="E23" s="69">
         <f>E10/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>982901.21339165827</v>
       </c>
-      <c r="F23" s="72">
+      <c r="F23" s="69">
         <f>F10/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>1022049.483626319</v>
       </c>
-      <c r="G23" s="72">
+      <c r="G23" s="69">
         <f>G10/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>1062595.9063693604</v>
       </c>
-      <c r="H23" s="72">
+      <c r="H23" s="69">
         <f>H10/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>1104540.4816207823</v>
       </c>
-      <c r="I23" s="72">
+      <c r="I23" s="69">
         <f>I10/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>1146485.0568722044</v>
       </c>
-      <c r="J23" s="72">
+      <c r="J23" s="69">
         <f>J10/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>1188429.6321236268</v>
       </c>
-      <c r="K23" s="72">
+      <c r="K23" s="69">
         <f>K10/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>1244355.7324588562</v>
       </c>
-      <c r="L23" s="72">
+      <c r="L23" s="69">
         <f>L10/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>1293291.0702521817</v>
       </c>
-      <c r="M23" s="72">
+      <c r="M23" s="69">
         <f>M10/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>1336012.3968971488</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="72">
+    <row r="24" spans="1:13" ht="26.25" x14ac:dyDescent="0.45">
+      <c r="A24" s="69">
         <v>7</v>
       </c>
-      <c r="B24" s="76" t="s">
+      <c r="B24" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="C24" s="72">
+      <c r="C24" s="69">
         <f>C11/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>1398152.5083807372</v>
       </c>
-      <c r="D24" s="72">
+      <c r="D24" s="69">
         <f>D11/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>1454078.6087159668</v>
       </c>
-      <c r="E24" s="72">
+      <c r="E24" s="69">
         <f>E11/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>1510004.7090511965</v>
       </c>
-      <c r="F24" s="72">
+      <c r="F24" s="69">
         <f>F11/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>1565930.8093864257</v>
       </c>
-      <c r="G24" s="72">
+      <c r="G24" s="69">
         <f>G11/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>1635838.4348054626</v>
       </c>
-      <c r="H24" s="72">
+      <c r="H24" s="69">
         <f>H11/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>1705746.0602244993</v>
       </c>
-      <c r="I24" s="72">
+      <c r="I24" s="69">
         <f>I11/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>1775653.6856435363</v>
       </c>
-      <c r="J24" s="72">
+      <c r="J24" s="69">
         <f>J11/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>1845561.3110625728</v>
       </c>
-      <c r="K24" s="72">
+      <c r="K24" s="69">
         <f>K11/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>1915468.9364816097</v>
       </c>
-      <c r="L24" s="72">
+      <c r="L24" s="69">
         <f>L11/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>1985376.5619006469</v>
       </c>
-      <c r="M24" s="72">
+      <c r="M24" s="69">
         <f>M11/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>2050623.6789584146</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="72">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A25" s="69">
         <v>8</v>
       </c>
-      <c r="B25" s="76" t="s">
+      <c r="B25" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72">
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69">
         <f>H12/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>2796305.0167614743</v>
       </c>
-      <c r="I25" s="72">
+      <c r="I25" s="69">
         <f>I12/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>2908157.2174319336</v>
       </c>
-      <c r="J25" s="72">
+      <c r="J25" s="69">
         <f>J12/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>3020009.4181023929</v>
       </c>
-      <c r="K25" s="72">
+      <c r="K25" s="69">
         <f>K12/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>3145843.1438566591</v>
       </c>
-      <c r="L25" s="72">
+      <c r="L25" s="69">
         <f>L12/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>3271676.8696109252</v>
       </c>
-      <c r="M25" s="72">
+      <c r="M25" s="69">
         <f>M12/'Conversion Factors'!$C$35*'Conversion Factors'!$A$19/'Conversion Factors'!$B$6</f>
         <v>3635196.5217899163</v>
       </c>

--- a/InputData/elec/CCaMC/Capacity Construction and Maint Costs.xlsx
+++ b/InputData/elec/CCaMC/Capacity Construction and Maint Costs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\InputData\elec\CCaMC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\India\India_Model\InputData\elec\CCaMC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF1DD58-E538-4E33-ACAF-D720B69F0E43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="690" windowWidth="18345" windowHeight="11460" firstSheet="10" activeTab="14"/>
+    <workbookView xWindow="12315" yWindow="600" windowWidth="15735" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
@@ -21,16 +22,17 @@
     <sheet name="Solar Thermal Base Cost" sheetId="16" r:id="rId7"/>
     <sheet name="Coal Cost Multipliers" sheetId="12" r:id="rId8"/>
     <sheet name="CEA NEP" sheetId="22" r:id="rId9"/>
-    <sheet name="IESS Annual Cap Costs" sheetId="23" r:id="rId10"/>
-    <sheet name="Waste to Energy" sheetId="24" r:id="rId11"/>
-    <sheet name="Start Year Soft Cost Data" sheetId="28" r:id="rId12"/>
-    <sheet name="CCaMC-BCCpUC_old" sheetId="6" r:id="rId13"/>
-    <sheet name="CCaMC-AFOaMCpUC" sheetId="7" r:id="rId14"/>
-    <sheet name="CCaMC-VOaMCpUC" sheetId="8" r:id="rId15"/>
-    <sheet name="CCaMC-BCCpUC" sheetId="25" r:id="rId16"/>
-    <sheet name="CCaMC-BSCpUC" sheetId="26" r:id="rId17"/>
+    <sheet name="NREL" sheetId="29" r:id="rId10"/>
+    <sheet name="IESS Annual Cap Costs" sheetId="23" r:id="rId11"/>
+    <sheet name="Waste to Energy" sheetId="24" r:id="rId12"/>
+    <sheet name="Start Year Soft Cost Data" sheetId="28" r:id="rId13"/>
+    <sheet name="CCaMC-BCCpUC_old" sheetId="6" r:id="rId14"/>
+    <sheet name="CCaMC-AFOaMCpUC" sheetId="7" r:id="rId15"/>
+    <sheet name="CCaMC-VOaMCpUC" sheetId="8" r:id="rId16"/>
+    <sheet name="CCaMC-BCCpUC" sheetId="25" r:id="rId17"/>
+    <sheet name="CCaMC-BSCpUC" sheetId="26" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="364">
   <si>
     <t>CCaMC BAU Construction Cost per Unit Capacity</t>
   </si>
@@ -1263,12 +1265,48 @@
   <si>
     <t>In the India EPS, the geothermal plant type is repurposed as pumped hydro capacity.</t>
   </si>
+  <si>
+    <t>2017 Capital Cost and Plant Lifetime Assumptions for Generation Technologies</t>
+  </si>
+  <si>
+    <t>Table 5.</t>
+  </si>
+  <si>
+    <t>utility photovoltaic</t>
+  </si>
+  <si>
+    <t>hydro storage</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>crore/MW</t>
+  </si>
+  <si>
+    <t>2012 $/MW</t>
+  </si>
+  <si>
+    <t>Forecasted BAU</t>
+  </si>
+  <si>
+    <t>Solar</t>
+  </si>
+  <si>
+    <t>Capital Costs - solar and wind</t>
+  </si>
+  <si>
+    <t>Least-Cost Pathways for India's Electric Power Sector</t>
+  </si>
+  <si>
+    <t>https://www.nrel.gov/docs/fy20osti/76153.pdf</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="14">
     <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1282,6 +1320,7 @@
     <numFmt numFmtId="171" formatCode="###0.0;###0.0"/>
     <numFmt numFmtId="172" formatCode="0.0%"/>
     <numFmt numFmtId="173" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="174" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
@@ -1443,7 +1482,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1495,12 +1534,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2190,12 +2223,11 @@
     <xf numFmtId="5" fontId="13" fillId="6" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2235,25 +2267,26 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="20" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="17">
-    <cellStyle name="Body: normal cell" xfId="4"/>
+    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="14"/>
+    <cellStyle name="Comma 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" customBuiltin="1"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="6"/>
-    <cellStyle name="Footnotes: all except top row" xfId="9"/>
-    <cellStyle name="Footnotes: top row" xfId="7"/>
-    <cellStyle name="Header: bottom row" xfId="2"/>
-    <cellStyle name="Header: top rows" xfId="10"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Footnotes: all except top row" xfId="9" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Header: bottom row" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Header: top rows" xfId="10" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="11"/>
+    <cellStyle name="Hyperlink 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Parent row" xfId="3"/>
+    <cellStyle name="Parent row" xfId="3" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
     <cellStyle name="Percent" xfId="16" builtinId="5"/>
-    <cellStyle name="Section Break" xfId="12"/>
-    <cellStyle name="Section Break: parent row" xfId="13"/>
-    <cellStyle name="Table title" xfId="1"/>
+    <cellStyle name="Section Break" xfId="12" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Section Break: parent row" xfId="13" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Table title" xfId="1" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -2282,7 +2315,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Table Style 1" pivot="0" count="2">
+    <tableStyle name="Table Style 1" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -5462,6 +5495,55 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>389583</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>56490</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25572968-B665-44C8-9E55-05C6D4C5B2C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3733800"/>
+          <a:ext cx="7533333" cy="5276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -5655,6 +5737,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -5690,6 +5789,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5865,46 +5981,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="2"/>
-    <col min="2" max="2" width="82.73046875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.3984375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="77.59765625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.73046875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="56.1328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="10.73046875" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.1328125" style="2"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="82.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="77.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="56.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="10.7109375" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -5917,7 +6033,7 @@
       </c>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="20" t="s">
         <v>154</v>
       </c>
@@ -5925,7 +6041,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>2018</v>
       </c>
@@ -5933,7 +6049,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="46" t="s">
         <v>173</v>
       </c>
@@ -5941,7 +6057,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>172</v>
       </c>
@@ -5949,16 +6065,16 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>155</v>
       </c>
       <c r="D11" s="20"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D12" s="9"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>160</v>
       </c>
@@ -5966,7 +6082,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="20" t="s">
         <v>4</v>
       </c>
@@ -5974,7 +6090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>2009</v>
       </c>
@@ -5982,7 +6098,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
@@ -5990,7 +6106,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>8</v>
       </c>
@@ -5998,7 +6114,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" s="20" t="s">
         <v>10</v>
       </c>
@@ -6006,10 +6122,10 @@
         <v>218</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" s="20"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="6" t="s">
         <v>161</v>
@@ -6018,7 +6134,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="2" t="s">
         <v>156</v>
@@ -6027,7 +6143,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="2">
         <v>2015</v>
@@ -6036,7 +6152,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="47" t="s">
         <v>157</v>
@@ -6045,7 +6161,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="47" t="s">
         <v>158</v>
@@ -6054,7 +6170,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="20" t="s">
         <v>159</v>
@@ -6063,12 +6179,12 @@
         <v>224</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="6" t="s">
         <v>198</v>
@@ -6077,7 +6193,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="2" t="s">
         <v>156</v>
@@ -6086,7 +6202,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="2">
         <v>2015</v>
@@ -6095,7 +6211,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="47" t="s">
         <v>157</v>
@@ -6104,7 +6220,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="47" t="s">
         <v>158</v>
@@ -6113,7 +6229,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="20" t="s">
         <v>199</v>
@@ -6122,18 +6238,18 @@
         <v>179</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="20"/>
       <c r="D33" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="20"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="51" t="s">
         <v>263</v>
@@ -6142,7 +6258,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="20" t="s">
         <v>264</v>
@@ -6151,7 +6267,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="2">
         <v>2015</v>
@@ -6160,7 +6276,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="20" t="s">
         <v>265</v>
@@ -6169,7 +6285,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="3" t="s">
         <v>266</v>
@@ -6178,57 +6294,72 @@
         <v>275</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="20" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="20"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="51" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D42" s="51" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="20" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D43" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="2">
         <v>2018</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D44" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="20" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D45" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="3" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D46" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="20" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>11</v>
       </c>
@@ -6241,7 +6372,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="11"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>167</v>
       </c>
@@ -6254,7 +6385,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="11"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>168</v>
       </c>
@@ -6267,7 +6398,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="11"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="10"/>
       <c r="D52" s="7"/>
       <c r="E52" s="11"/>
@@ -6278,7 +6409,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="11"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>12</v>
       </c>
@@ -6291,7 +6422,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="11"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>13</v>
       </c>
@@ -6304,7 +6435,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="11"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>181</v>
       </c>
@@ -6317,7 +6448,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="11"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>182</v>
       </c>
@@ -6330,7 +6461,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="11"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
       <c r="D57" s="7"/>
       <c r="E57" s="11"/>
@@ -6341,7 +6472,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="11"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>169</v>
       </c>
@@ -6354,7 +6485,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="11"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>170</v>
       </c>
@@ -6367,7 +6498,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="11"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>171</v>
       </c>
@@ -6380,7 +6511,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="11"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
       <c r="D61" s="7"/>
       <c r="E61" s="11"/>
@@ -6391,7 +6522,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="11"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>200</v>
       </c>
@@ -6404,7 +6535,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="11"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>201</v>
       </c>
@@ -6418,7 +6549,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="11"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>202</v>
       </c>
@@ -6432,7 +6563,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="11"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>204</v>
       </c>
@@ -6446,7 +6577,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="11"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>205</v>
       </c>
@@ -6460,7 +6591,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="11"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="20"/>
       <c r="B67" s="9"/>
       <c r="D67" s="7"/>
@@ -6472,7 +6603,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="11"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>262</v>
       </c>
@@ -6486,7 +6617,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="11"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="18"/>
       <c r="B69" s="9"/>
       <c r="D69" s="7"/>
@@ -6498,12 +6629,12 @@
       <c r="J69" s="11"/>
       <c r="K69" s="11"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A70" s="129" t="s">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="126" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="21"/>
       <c r="B71" s="9"/>
       <c r="D71" s="7"/>
@@ -6515,7 +6646,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="11"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="10"/>
       <c r="B72" s="9"/>
       <c r="D72" s="7"/>
@@ -6527,7 +6658,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="11"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="10"/>
       <c r="B73" s="9"/>
       <c r="D73" s="7"/>
@@ -6539,7 +6670,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="11"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="10"/>
       <c r="B74" s="9"/>
       <c r="D74" s="7"/>
@@ -6551,7 +6682,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="11"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="20"/>
       <c r="B75" s="9"/>
       <c r="D75" s="7"/>
@@ -6563,7 +6694,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="11"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="10"/>
       <c r="B76" s="9"/>
       <c r="D76" s="7"/>
@@ -6575,7 +6706,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="11"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="10"/>
       <c r="B77" s="9"/>
       <c r="D77" s="7"/>
@@ -6587,7 +6718,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="11"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="10"/>
       <c r="B78" s="9"/>
       <c r="D78" s="7"/>
@@ -6599,7 +6730,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="11"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="10"/>
       <c r="B79" s="9"/>
       <c r="D79" s="7"/>
@@ -6611,7 +6742,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="11"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="10"/>
       <c r="B80" s="9"/>
       <c r="D80" s="7"/>
@@ -6623,7 +6754,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="11"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="10"/>
       <c r="B81" s="9"/>
       <c r="D81" s="7"/>
@@ -6635,7 +6766,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="11"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="10"/>
       <c r="B82" s="9"/>
       <c r="D82" s="7"/>
@@ -6647,7 +6778,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="11"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="10"/>
       <c r="B83" s="9"/>
       <c r="D83" s="7"/>
@@ -6659,7 +6790,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="11"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="10"/>
       <c r="B84" s="9"/>
       <c r="D84" s="7"/>
@@ -6671,7 +6802,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="11"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="10"/>
       <c r="B85" s="9"/>
       <c r="D85" s="7"/>
@@ -6683,7 +6814,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="11"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="10"/>
       <c r="B86" s="9"/>
       <c r="D86" s="7"/>
@@ -6695,7 +6826,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="11"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="10"/>
       <c r="B87" s="9"/>
       <c r="D87" s="7"/>
@@ -6707,7 +6838,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="11"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="10"/>
       <c r="B88" s="9"/>
       <c r="D88" s="7"/>
@@ -6719,7 +6850,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="11"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="10"/>
       <c r="B89" s="9"/>
       <c r="D89" s="7"/>
@@ -6731,7 +6862,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="11"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="10"/>
       <c r="B90" s="9"/>
       <c r="D90" s="7"/>
@@ -6743,7 +6874,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="11"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="10"/>
       <c r="B91" s="9"/>
       <c r="D91" s="7"/>
@@ -6755,7 +6886,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="11"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="10"/>
       <c r="B92" s="9"/>
       <c r="D92" s="7"/>
@@ -6767,7 +6898,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="11"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="10"/>
       <c r="B93" s="9"/>
       <c r="D93" s="7"/>
@@ -6779,7 +6910,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="11"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="7"/>
       <c r="B94" s="9"/>
       <c r="D94" s="7"/>
@@ -6793,15 +6924,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B17" r:id="rId1"/>
-    <hyperlink ref="D17" r:id="rId2"/>
-    <hyperlink ref="B23" r:id="rId3" display="http://www.npti.in/Download/Renewable/POWERGEN%20PRSTN_Renewable%20April2012/Solar%20Resource%20CUF%20Assessment.pdf"/>
-    <hyperlink ref="B30" r:id="rId4" display="http://www.npti.in/Download/Renewable/POWERGEN%20PRSTN_Renewable%20April2012/Solar%20Resource%20CUF%20Assessment.pdf"/>
-    <hyperlink ref="D31" r:id="rId5"/>
-    <hyperlink ref="B10" r:id="rId6"/>
-    <hyperlink ref="B39" r:id="rId7"/>
-    <hyperlink ref="B46" r:id="rId8"/>
-    <hyperlink ref="D39" r:id="rId9"/>
+    <hyperlink ref="B17" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D17" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B23" r:id="rId3" display="http://www.npti.in/Download/Renewable/POWERGEN%20PRSTN_Renewable%20April2012/Solar%20Resource%20CUF%20Assessment.pdf" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B30" r:id="rId4" display="http://www.npti.in/Download/Renewable/POWERGEN%20PRSTN_Renewable%20April2012/Solar%20Resource%20CUF%20Assessment.pdf" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D31" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B39" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B46" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D39" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId10"/>
@@ -6809,32 +6940,168 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A1018CD-8018-4D6E-9D43-CAAC3890A6C5}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C4" s="74">
+        <v>5.5</v>
+      </c>
+      <c r="D4" s="142">
+        <f>C4*10^7/'Conversion Factors'!$B$11*'Conversion Factors'!$A$38</f>
+        <v>800219.02377972472</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>355</v>
+      </c>
+      <c r="C5" s="74">
+        <v>10</v>
+      </c>
+      <c r="D5" s="142">
+        <f>C5*10^7/'Conversion Factors'!$B$11*'Conversion Factors'!$A$38</f>
+        <v>1454943.6795994993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>356</v>
+      </c>
+      <c r="C6" s="74">
+        <v>6</v>
+      </c>
+      <c r="D6" s="142">
+        <f>C6*10^7/'Conversion Factors'!$B$11*'Conversion Factors'!$A$38</f>
+        <v>872966.20775969967</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="20" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="20" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="20" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>2021</v>
+      </c>
+      <c r="D14">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>360</v>
+      </c>
+      <c r="C15">
+        <v>50</v>
+      </c>
+      <c r="D15">
+        <v>17</v>
+      </c>
+      <c r="E15" s="113">
+        <f>(D15-C15)/C15</f>
+        <v>-0.66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C16">
+        <v>101</v>
+      </c>
+      <c r="D16">
+        <v>83</v>
+      </c>
+      <c r="E16" s="113">
+        <f>(D16-C16)/C16</f>
+        <v>-0.17821782178217821</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="20"/>
-    <col min="2" max="2" width="17.265625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="20"/>
+    <col min="2" max="2" width="17.28515625" style="20" customWidth="1"/>
     <col min="3" max="3" width="31" style="20" customWidth="1"/>
-    <col min="4" max="5" width="17.265625" style="20" customWidth="1"/>
-    <col min="6" max="6" width="23.1328125" style="20" customWidth="1"/>
-    <col min="7" max="7" width="17.265625" style="20" customWidth="1"/>
-    <col min="8" max="8" width="22.59765625" style="20" customWidth="1"/>
-    <col min="9" max="9" width="17.265625" style="20" customWidth="1"/>
-    <col min="10" max="10" width="22.3984375" style="20" customWidth="1"/>
-    <col min="11" max="11" width="20.86328125" style="20" customWidth="1"/>
-    <col min="12" max="12" width="28.1328125" style="20" customWidth="1"/>
-    <col min="13" max="13" width="19.1328125" style="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.1328125" style="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.1328125" style="20"/>
+    <col min="4" max="5" width="17.28515625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" style="20" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="20" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" style="20" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" style="20" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" style="20" customWidth="1"/>
+    <col min="12" max="12" width="28.140625" style="20" customWidth="1"/>
+    <col min="13" max="13" width="19.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>28</v>
       </c>
@@ -6878,7 +7145,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2016</v>
       </c>
@@ -6935,7 +7202,7 @@
         <v>2912178.1997443885</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2017</v>
       </c>
@@ -6990,7 +7257,7 @@
         <v>2875661.8586817603</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2018</v>
       </c>
@@ -7045,7 +7312,7 @@
         <v>2839145.5176191349</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2019</v>
       </c>
@@ -7100,7 +7367,7 @@
         <v>2802629.1765565095</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2020</v>
       </c>
@@ -7155,7 +7422,7 @@
         <v>2766112.835493884</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2021</v>
       </c>
@@ -7210,7 +7477,7 @@
         <v>2729596.4944312586</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2022</v>
       </c>
@@ -7265,7 +7532,7 @@
         <v>2693080.1533686323</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2023</v>
       </c>
@@ -7320,7 +7587,7 @@
         <v>2671170.3487310568</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2024</v>
       </c>
@@ -7375,7 +7642,7 @@
         <v>2649260.5440934813</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2025</v>
       </c>
@@ -7430,7 +7697,7 @@
         <v>2627350.7394559057</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2026</v>
       </c>
@@ -7485,7 +7752,7 @@
         <v>2605440.9348183302</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2027</v>
       </c>
@@ -7540,7 +7807,7 @@
         <v>2583531.1301807556</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2028</v>
       </c>
@@ -7595,7 +7862,7 @@
         <v>2574402.0449150992</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2029</v>
       </c>
@@ -7650,7 +7917,7 @@
         <v>2565272.9596494427</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2030</v>
       </c>
@@ -7705,7 +7972,7 @@
         <v>2556143.8743837862</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2031</v>
       </c>
@@ -7760,7 +8027,7 @@
         <v>2547014.7891181298</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2032</v>
       </c>
@@ -7815,7 +8082,7 @@
         <v>2537885.7038524733</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2033</v>
       </c>
@@ -7870,7 +8137,7 @@
         <v>2532408.2526930794</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2034</v>
       </c>
@@ -7925,7 +8192,7 @@
         <v>2526930.8015336855</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2035</v>
       </c>
@@ -7980,7 +8247,7 @@
         <v>2521453.3503742917</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2036</v>
       </c>
@@ -8035,7 +8302,7 @@
         <v>2515975.8992148978</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2037</v>
       </c>
@@ -8090,7 +8357,7 @@
         <v>2510498.4480555048</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2038</v>
       </c>
@@ -8145,7 +8412,7 @@
         <v>2506846.8139492422</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2039</v>
       </c>
@@ -8200,7 +8467,7 @@
         <v>2503195.1798429796</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2040</v>
       </c>
@@ -8255,7 +8522,7 @@
         <v>2499543.5457367171</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2041</v>
       </c>
@@ -8310,7 +8577,7 @@
         <v>2495891.9116304545</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2042</v>
       </c>
@@ -8365,7 +8632,7 @@
         <v>2492240.2775241924</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>2043</v>
       </c>
@@ -8420,7 +8687,7 @@
         <v>2490414.4604710611</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2044</v>
       </c>
@@ -8475,7 +8742,7 @@
         <v>2488588.6434179298</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2045</v>
       </c>
@@ -8530,7 +8797,7 @@
         <v>2486762.8263647985</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2046</v>
       </c>
@@ -8585,7 +8852,7 @@
         <v>2484937.0093116672</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>2047</v>
       </c>
@@ -8640,7 +8907,7 @@
         <v>2483111.1922585354</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>2048</v>
       </c>
@@ -8695,7 +8962,7 @@
         <v>2481285.3752054041</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2049</v>
       </c>
@@ -8750,7 +9017,7 @@
         <v>2479459.5581522728</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2050</v>
       </c>
@@ -8805,598 +9072,44 @@
         <v>2477633.7410991415</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B37" s="12"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B38" s="12"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B39" s="12"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B40" s="12"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B41" s="12"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B42" s="12"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B43" s="12"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B44" s="12"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B45" s="12"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B46" s="12"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B47" s="12"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B48" s="12"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="12"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J60"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="12.59765625" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="C2" s="1">
-        <v>2017</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2022</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2027</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2032</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2037</v>
-      </c>
-      <c r="H2" s="1">
-        <v>2042</v>
-      </c>
-      <c r="I2" s="1">
-        <v>2047</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C3">
-        <v>16.405000000000001</v>
-      </c>
-      <c r="D3">
-        <v>15.8355</v>
-      </c>
-      <c r="E3">
-        <v>15.29</v>
-      </c>
-      <c r="F3">
-        <v>14.768000000000001</v>
-      </c>
-      <c r="G3">
-        <v>14.266999999999999</v>
-      </c>
-      <c r="H3">
-        <v>13.788</v>
-      </c>
-      <c r="I3">
-        <v>13.327999999999999</v>
-      </c>
-      <c r="J3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="C4">
-        <f>C3*10^7</f>
-        <v>164050000</v>
-      </c>
-      <c r="D4" s="20">
-        <f t="shared" ref="D4:I4" si="0">D3*10^7</f>
-        <v>158355000</v>
-      </c>
-      <c r="E4" s="20">
-        <f t="shared" si="0"/>
-        <v>152900000</v>
-      </c>
-      <c r="F4" s="20">
-        <f t="shared" si="0"/>
-        <v>147680000</v>
-      </c>
-      <c r="G4" s="20">
-        <f t="shared" si="0"/>
-        <v>142670000</v>
-      </c>
-      <c r="H4" s="20">
-        <f t="shared" si="0"/>
-        <v>137880000</v>
-      </c>
-      <c r="I4" s="20">
-        <f t="shared" si="0"/>
-        <v>133280000</v>
-      </c>
-      <c r="J4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="C5">
-        <f>C4/'Conversion Factors'!$B$6</f>
-        <v>2995252.8756618584</v>
-      </c>
-      <c r="D5" s="20">
-        <f>D4/'Conversion Factors'!$B$6</f>
-        <v>2891272.5944860321</v>
-      </c>
-      <c r="E5" s="20">
-        <f>E4/'Conversion Factors'!$B$6</f>
-        <v>2791674.2742377212</v>
-      </c>
-      <c r="F5" s="20">
-        <f>F4/'Conversion Factors'!$B$6</f>
-        <v>2696366.6240642685</v>
-      </c>
-      <c r="G5" s="20">
-        <f>G4/'Conversion Factors'!$B$6</f>
-        <v>2604893.1897023916</v>
-      </c>
-      <c r="H5" s="20">
-        <f>H4/'Conversion Factors'!$B$6</f>
-        <v>2517436.5528574036</v>
-      </c>
-      <c r="I5" s="20">
-        <f>I4/'Conversion Factors'!$B$6</f>
-        <v>2433448.9684133651</v>
-      </c>
-      <c r="J5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" s="20">
-        <v>0.06</v>
-      </c>
-      <c r="B8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="81" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A11" s="20">
-        <v>2017</v>
-      </c>
-      <c r="B11">
-        <f>C5</f>
-        <v>2995252.8756618584</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <f>A11+1</f>
-        <v>2018</v>
-      </c>
-      <c r="B12">
-        <f>FORECAST(A12,$C$5:$D$5,$C$2:$D$2)</f>
-        <v>2974456.819426693</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A13" s="20">
-        <f t="shared" ref="A13:A44" si="1">A12+1</f>
-        <v>2019</v>
-      </c>
-      <c r="B13" s="20">
-        <f t="shared" ref="B13:B15" si="2">FORECAST(A13,$C$5:$D$5,$C$2:$D$2)</f>
-        <v>2953660.7631915286</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A14" s="20">
-        <f t="shared" si="1"/>
-        <v>2020</v>
-      </c>
-      <c r="B14" s="20">
-        <f t="shared" si="2"/>
-        <v>2932864.7069563642</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A15" s="20">
-        <f t="shared" si="1"/>
-        <v>2021</v>
-      </c>
-      <c r="B15" s="20">
-        <f t="shared" si="2"/>
-        <v>2912068.6507211998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A16" s="20">
-        <f t="shared" si="1"/>
-        <v>2022</v>
-      </c>
-      <c r="B16">
-        <f>D5</f>
-        <v>2891272.5944860321</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" s="20">
-        <f t="shared" si="1"/>
-        <v>2023</v>
-      </c>
-      <c r="B17">
-        <f>FORECAST(A17,$D$5:$E$5,$D$2:$E$2)</f>
-        <v>2871352.9304363653</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" s="20">
-        <f t="shared" si="1"/>
-        <v>2024</v>
-      </c>
-      <c r="B18" s="20">
-        <f t="shared" ref="B18:B20" si="3">FORECAST(A18,$D$5:$E$5,$D$2:$E$2)</f>
-        <v>2851433.2663867027</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19" s="20">
-        <f t="shared" si="1"/>
-        <v>2025</v>
-      </c>
-      <c r="B19" s="20">
-        <f t="shared" si="3"/>
-        <v>2831513.6023370475</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" s="20">
-        <f t="shared" si="1"/>
-        <v>2026</v>
-      </c>
-      <c r="B20" s="20">
-        <f t="shared" si="3"/>
-        <v>2811593.9382873848</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" s="20">
-        <f t="shared" si="1"/>
-        <v>2027</v>
-      </c>
-      <c r="B21">
-        <f>E5</f>
-        <v>2791674.2742377212</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" s="20">
-        <f t="shared" si="1"/>
-        <v>2028</v>
-      </c>
-      <c r="B22">
-        <f>FORECAST(A22,$E$5:$F$5,$E$2:$F$2)</f>
-        <v>2772612.7442030236</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" s="20">
-        <f t="shared" si="1"/>
-        <v>2029</v>
-      </c>
-      <c r="B23" s="20">
-        <f t="shared" ref="B23:B25" si="4">FORECAST(A23,$E$5:$F$5,$E$2:$F$2)</f>
-        <v>2753551.21416834</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24" s="20">
-        <f t="shared" si="1"/>
-        <v>2030</v>
-      </c>
-      <c r="B24" s="20">
-        <f t="shared" si="4"/>
-        <v>2734489.6841336489</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A25" s="20">
-        <f t="shared" si="1"/>
-        <v>2031</v>
-      </c>
-      <c r="B25" s="20">
-        <f t="shared" si="4"/>
-        <v>2715428.1540989578</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A26" s="20">
-        <f t="shared" si="1"/>
-        <v>2032</v>
-      </c>
-      <c r="B26">
-        <f>F5</f>
-        <v>2696366.6240642685</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A27" s="20">
-        <f t="shared" si="1"/>
-        <v>2033</v>
-      </c>
-      <c r="B27">
-        <f>FORECAST(A27,$F$5:$G$5,$F$2:$G$2)</f>
-        <v>2678071.9371918961</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28" s="20">
-        <f t="shared" si="1"/>
-        <v>2034</v>
-      </c>
-      <c r="B28" s="20">
-        <f t="shared" ref="B28:B30" si="5">FORECAST(A28,$F$5:$G$5,$F$2:$G$2)</f>
-        <v>2659777.2503195181</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" s="20">
-        <f t="shared" si="1"/>
-        <v>2035</v>
-      </c>
-      <c r="B29" s="20">
-        <f t="shared" si="5"/>
-        <v>2641482.5634471402</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30" s="20">
-        <f t="shared" si="1"/>
-        <v>2036</v>
-      </c>
-      <c r="B30" s="20">
-        <f t="shared" si="5"/>
-        <v>2623187.8765747696</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A31" s="20">
-        <f t="shared" si="1"/>
-        <v>2037</v>
-      </c>
-      <c r="B31">
-        <f>G5</f>
-        <v>2604893.1897023916</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A32" s="20">
-        <f t="shared" si="1"/>
-        <v>2038</v>
-      </c>
-      <c r="B32">
-        <f>FORECAST(A32,$G$5:$H$5,$G$2:$H$2)</f>
-        <v>2587401.8623333946</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A33" s="20">
-        <f t="shared" si="1"/>
-        <v>2039</v>
-      </c>
-      <c r="B33" s="20">
-        <f t="shared" ref="B33:B35" si="6">FORECAST(A33,$G$5:$H$5,$G$2:$H$2)</f>
-        <v>2569910.5349643975</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A34" s="20">
-        <f t="shared" si="1"/>
-        <v>2040</v>
-      </c>
-      <c r="B34" s="20">
-        <f t="shared" si="6"/>
-        <v>2552419.2075954005</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A35" s="20">
-        <f t="shared" si="1"/>
-        <v>2041</v>
-      </c>
-      <c r="B35" s="20">
-        <f t="shared" si="6"/>
-        <v>2534927.8802264035</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A36" s="20">
-        <f t="shared" si="1"/>
-        <v>2042</v>
-      </c>
-      <c r="B36">
-        <f>H5</f>
-        <v>2517436.5528574036</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A37" s="20">
-        <f t="shared" si="1"/>
-        <v>2043</v>
-      </c>
-      <c r="B37">
-        <f>FORECAST(A37,$H$5:$I$5,$H$2:$I$2)</f>
-        <v>2500639.0359685943</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A38" s="20">
-        <f t="shared" si="1"/>
-        <v>2044</v>
-      </c>
-      <c r="B38" s="20">
-        <f t="shared" ref="B38:B40" si="7">FORECAST(A38,$H$5:$I$5,$H$2:$I$2)</f>
-        <v>2483841.5190797895</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A39" s="20">
-        <f t="shared" si="1"/>
-        <v>2045</v>
-      </c>
-      <c r="B39" s="20">
-        <f t="shared" si="7"/>
-        <v>2467044.0021909773</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A40" s="20">
-        <f t="shared" si="1"/>
-        <v>2046</v>
-      </c>
-      <c r="B40" s="20">
-        <f t="shared" si="7"/>
-        <v>2450246.4853021726</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A41" s="20">
-        <f t="shared" si="1"/>
-        <v>2047</v>
-      </c>
-      <c r="B41">
-        <f>I5</f>
-        <v>2433448.9684133651</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A42" s="20">
-        <f t="shared" si="1"/>
-        <v>2048</v>
-      </c>
-      <c r="B42">
-        <f>TREND(B36:B41,A36:A41,A42)</f>
-        <v>2416651.4515245557</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A43" s="20">
-        <f t="shared" si="1"/>
-        <v>2049</v>
-      </c>
-      <c r="B43" s="20">
-        <f t="shared" ref="B43:B44" si="8">TREND(B37:B42,A37:A42,A43)</f>
-        <v>2399853.9346357509</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A44" s="20">
-        <f t="shared" si="1"/>
-        <v>2050</v>
-      </c>
-      <c r="B44" s="20">
-        <f t="shared" si="8"/>
-        <v>2383056.4177469388</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A45" s="20"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A46" s="20"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A47" s="20"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A48" s="20"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A49" s="20"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A50" s="20"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A51" s="20"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A52" s="20"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A53" s="20"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A54" s="20"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A55" s="20"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A56" s="20"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A57" s="20"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A58" s="20"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A59" s="20"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A60" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9404,30 +9117,584 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:J60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C2" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2022</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2027</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2032</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2037</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2042</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3">
+        <v>16.405000000000001</v>
+      </c>
+      <c r="D3">
+        <v>15.8355</v>
+      </c>
+      <c r="E3">
+        <v>15.29</v>
+      </c>
+      <c r="F3">
+        <v>14.768000000000001</v>
+      </c>
+      <c r="G3">
+        <v>14.266999999999999</v>
+      </c>
+      <c r="H3">
+        <v>13.788</v>
+      </c>
+      <c r="I3">
+        <v>13.327999999999999</v>
+      </c>
+      <c r="J3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <f>C3*10^7</f>
+        <v>164050000</v>
+      </c>
+      <c r="D4" s="20">
+        <f t="shared" ref="D4:I4" si="0">D3*10^7</f>
+        <v>158355000</v>
+      </c>
+      <c r="E4" s="20">
+        <f t="shared" si="0"/>
+        <v>152900000</v>
+      </c>
+      <c r="F4" s="20">
+        <f t="shared" si="0"/>
+        <v>147680000</v>
+      </c>
+      <c r="G4" s="20">
+        <f t="shared" si="0"/>
+        <v>142670000</v>
+      </c>
+      <c r="H4" s="20">
+        <f t="shared" si="0"/>
+        <v>137880000</v>
+      </c>
+      <c r="I4" s="20">
+        <f t="shared" si="0"/>
+        <v>133280000</v>
+      </c>
+      <c r="J4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <f>C4/'Conversion Factors'!$B$6</f>
+        <v>2995252.8756618584</v>
+      </c>
+      <c r="D5" s="20">
+        <f>D4/'Conversion Factors'!$B$6</f>
+        <v>2891272.5944860321</v>
+      </c>
+      <c r="E5" s="20">
+        <f>E4/'Conversion Factors'!$B$6</f>
+        <v>2791674.2742377212</v>
+      </c>
+      <c r="F5" s="20">
+        <f>F4/'Conversion Factors'!$B$6</f>
+        <v>2696366.6240642685</v>
+      </c>
+      <c r="G5" s="20">
+        <f>G4/'Conversion Factors'!$B$6</f>
+        <v>2604893.1897023916</v>
+      </c>
+      <c r="H5" s="20">
+        <f>H4/'Conversion Factors'!$B$6</f>
+        <v>2517436.5528574036</v>
+      </c>
+      <c r="I5" s="20">
+        <f>I4/'Conversion Factors'!$B$6</f>
+        <v>2433448.9684133651</v>
+      </c>
+      <c r="J5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="20">
+        <v>0.06</v>
+      </c>
+      <c r="B8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="81" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="20">
+        <v>2017</v>
+      </c>
+      <c r="B11">
+        <f>C5</f>
+        <v>2995252.8756618584</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>A11+1</f>
+        <v>2018</v>
+      </c>
+      <c r="B12">
+        <f>FORECAST(A12,$C$5:$D$5,$C$2:$D$2)</f>
+        <v>2974456.819426693</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="20">
+        <f t="shared" ref="A13:A44" si="1">A12+1</f>
+        <v>2019</v>
+      </c>
+      <c r="B13" s="20">
+        <f t="shared" ref="B13:B15" si="2">FORECAST(A13,$C$5:$D$5,$C$2:$D$2)</f>
+        <v>2953660.7631915286</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="20">
+        <f t="shared" si="1"/>
+        <v>2020</v>
+      </c>
+      <c r="B14" s="20">
+        <f t="shared" si="2"/>
+        <v>2932864.7069563642</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="20">
+        <f t="shared" si="1"/>
+        <v>2021</v>
+      </c>
+      <c r="B15" s="20">
+        <f t="shared" si="2"/>
+        <v>2912068.6507211998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="20">
+        <f t="shared" si="1"/>
+        <v>2022</v>
+      </c>
+      <c r="B16">
+        <f>D5</f>
+        <v>2891272.5944860321</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="20">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+      <c r="B17">
+        <f>FORECAST(A17,$D$5:$E$5,$D$2:$E$2)</f>
+        <v>2871352.9304363653</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="20">
+        <f t="shared" si="1"/>
+        <v>2024</v>
+      </c>
+      <c r="B18" s="20">
+        <f t="shared" ref="B18:B20" si="3">FORECAST(A18,$D$5:$E$5,$D$2:$E$2)</f>
+        <v>2851433.2663867027</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="20">
+        <f t="shared" si="1"/>
+        <v>2025</v>
+      </c>
+      <c r="B19" s="20">
+        <f t="shared" si="3"/>
+        <v>2831513.6023370475</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="20">
+        <f t="shared" si="1"/>
+        <v>2026</v>
+      </c>
+      <c r="B20" s="20">
+        <f t="shared" si="3"/>
+        <v>2811593.9382873848</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="20">
+        <f t="shared" si="1"/>
+        <v>2027</v>
+      </c>
+      <c r="B21">
+        <f>E5</f>
+        <v>2791674.2742377212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="20">
+        <f t="shared" si="1"/>
+        <v>2028</v>
+      </c>
+      <c r="B22">
+        <f>FORECAST(A22,$E$5:$F$5,$E$2:$F$2)</f>
+        <v>2772612.7442030236</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="20">
+        <f t="shared" si="1"/>
+        <v>2029</v>
+      </c>
+      <c r="B23" s="20">
+        <f t="shared" ref="B23:B25" si="4">FORECAST(A23,$E$5:$F$5,$E$2:$F$2)</f>
+        <v>2753551.21416834</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="20">
+        <f t="shared" si="1"/>
+        <v>2030</v>
+      </c>
+      <c r="B24" s="20">
+        <f t="shared" si="4"/>
+        <v>2734489.6841336489</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="20">
+        <f t="shared" si="1"/>
+        <v>2031</v>
+      </c>
+      <c r="B25" s="20">
+        <f t="shared" si="4"/>
+        <v>2715428.1540989578</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="20">
+        <f t="shared" si="1"/>
+        <v>2032</v>
+      </c>
+      <c r="B26">
+        <f>F5</f>
+        <v>2696366.6240642685</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="20">
+        <f t="shared" si="1"/>
+        <v>2033</v>
+      </c>
+      <c r="B27">
+        <f>FORECAST(A27,$F$5:$G$5,$F$2:$G$2)</f>
+        <v>2678071.9371918961</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="20">
+        <f t="shared" si="1"/>
+        <v>2034</v>
+      </c>
+      <c r="B28" s="20">
+        <f t="shared" ref="B28:B30" si="5">FORECAST(A28,$F$5:$G$5,$F$2:$G$2)</f>
+        <v>2659777.2503195181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="20">
+        <f t="shared" si="1"/>
+        <v>2035</v>
+      </c>
+      <c r="B29" s="20">
+        <f t="shared" si="5"/>
+        <v>2641482.5634471402</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="20">
+        <f t="shared" si="1"/>
+        <v>2036</v>
+      </c>
+      <c r="B30" s="20">
+        <f t="shared" si="5"/>
+        <v>2623187.8765747696</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="20">
+        <f t="shared" si="1"/>
+        <v>2037</v>
+      </c>
+      <c r="B31">
+        <f>G5</f>
+        <v>2604893.1897023916</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="20">
+        <f t="shared" si="1"/>
+        <v>2038</v>
+      </c>
+      <c r="B32">
+        <f>FORECAST(A32,$G$5:$H$5,$G$2:$H$2)</f>
+        <v>2587401.8623333946</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="20">
+        <f t="shared" si="1"/>
+        <v>2039</v>
+      </c>
+      <c r="B33" s="20">
+        <f t="shared" ref="B33:B35" si="6">FORECAST(A33,$G$5:$H$5,$G$2:$H$2)</f>
+        <v>2569910.5349643975</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="20">
+        <f t="shared" si="1"/>
+        <v>2040</v>
+      </c>
+      <c r="B34" s="20">
+        <f t="shared" si="6"/>
+        <v>2552419.2075954005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="20">
+        <f t="shared" si="1"/>
+        <v>2041</v>
+      </c>
+      <c r="B35" s="20">
+        <f t="shared" si="6"/>
+        <v>2534927.8802264035</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="20">
+        <f t="shared" si="1"/>
+        <v>2042</v>
+      </c>
+      <c r="B36">
+        <f>H5</f>
+        <v>2517436.5528574036</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="20">
+        <f t="shared" si="1"/>
+        <v>2043</v>
+      </c>
+      <c r="B37">
+        <f>FORECAST(A37,$H$5:$I$5,$H$2:$I$2)</f>
+        <v>2500639.0359685943</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="20">
+        <f t="shared" si="1"/>
+        <v>2044</v>
+      </c>
+      <c r="B38" s="20">
+        <f t="shared" ref="B38:B40" si="7">FORECAST(A38,$H$5:$I$5,$H$2:$I$2)</f>
+        <v>2483841.5190797895</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="20">
+        <f t="shared" si="1"/>
+        <v>2045</v>
+      </c>
+      <c r="B39" s="20">
+        <f t="shared" si="7"/>
+        <v>2467044.0021909773</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="20">
+        <f t="shared" si="1"/>
+        <v>2046</v>
+      </c>
+      <c r="B40" s="20">
+        <f t="shared" si="7"/>
+        <v>2450246.4853021726</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="20">
+        <f t="shared" si="1"/>
+        <v>2047</v>
+      </c>
+      <c r="B41">
+        <f>I5</f>
+        <v>2433448.9684133651</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="20">
+        <f t="shared" si="1"/>
+        <v>2048</v>
+      </c>
+      <c r="B42">
+        <f>TREND(B36:B41,A36:A41,A42)</f>
+        <v>2416651.4515245557</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="20">
+        <f t="shared" si="1"/>
+        <v>2049</v>
+      </c>
+      <c r="B43" s="20">
+        <f t="shared" ref="B43:B44" si="8">TREND(B37:B42,A37:A42,A43)</f>
+        <v>2399853.9346357509</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="20">
+        <f t="shared" si="1"/>
+        <v>2050</v>
+      </c>
+      <c r="B44" s="20">
+        <f t="shared" si="8"/>
+        <v>2383056.4177469388</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="20"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="20"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="20"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="20"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="20"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="20"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="20"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="20"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="20"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="20"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="20"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="20"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="20"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="20"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="20"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:BC81"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.86328125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="27.73046875" style="20" customWidth="1"/>
-    <col min="3" max="6" width="9.1328125" style="20"/>
+    <col min="1" max="1" width="31.85546875" style="20" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" style="20" customWidth="1"/>
+    <col min="3" max="6" width="9.140625" style="20"/>
     <col min="7" max="7" width="20" style="20" customWidth="1"/>
-    <col min="8" max="16384" width="9.1328125" style="20"/>
+    <col min="8" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" s="103" t="s">
         <v>237</v>
       </c>
       <c r="B1" s="104"/>
       <c r="C1" s="104"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="51" t="s">
         <v>276</v>
       </c>
@@ -9534,7 +9801,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>279</v>
       </c>
@@ -9645,7 +9912,7 @@
       </c>
       <c r="AN4" s="108"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>279</v>
       </c>
@@ -9755,7 +10022,7 @@
         <v>643.78091460218548</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>279</v>
       </c>
@@ -9766,7 +10033,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>285</v>
       </c>
@@ -9879,7 +10146,7 @@
         <v>1026.6751509717835</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>285</v>
       </c>
@@ -9992,7 +10259,7 @@
         <v>972.63600081861068</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>285</v>
       </c>
@@ -10105,7 +10372,7 @@
         <v>972.90420970463435</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>285</v>
       </c>
@@ -10218,7 +10485,7 @@
         <v>980.1578435541021</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>285</v>
       </c>
@@ -10229,7 +10496,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>285</v>
       </c>
@@ -10342,7 +10609,7 @@
         <v>677.76794881844148</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>285</v>
       </c>
@@ -10455,7 +10722,7 @@
         <v>638.07961416946716</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>62</v>
       </c>
@@ -10568,7 +10835,7 @@
         <v>637.25717952218656</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>62</v>
       </c>
@@ -10681,7 +10948,7 @@
         <v>639.9026916566504</v>
       </c>
     </row>
-    <row r="17" spans="1:39" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:39" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>303</v>
       </c>
@@ -10698,7 +10965,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
         <v>2019</v>
       </c>
@@ -10727,7 +10994,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" s="112">
         <f>SUM(C12:C15,C7:C10)</f>
         <v>0.24</v>
@@ -10757,7 +11024,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="G20" s="20" t="s">
         <v>310</v>
       </c>
@@ -10774,7 +11041,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="G21" s="20" t="s">
         <v>311</v>
       </c>
@@ -10791,7 +11058,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="G23" s="109" t="s">
         <v>312</v>
       </c>
@@ -10799,12 +11066,12 @@
         <v>1.0940919037199124</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="G25" s="109" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="G26" s="20" t="s">
         <v>314</v>
       </c>
@@ -10905,7 +11172,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="G27" s="20" t="s">
         <v>315</v>
       </c>
@@ -11006,7 +11273,7 @@
         <v>896402</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="G28" s="20" t="s">
         <v>316</v>
       </c>
@@ -11107,14 +11374,14 @@
         <v>980.74617067833685</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" s="103" t="s">
         <v>244</v>
       </c>
       <c r="B30" s="104"/>
       <c r="C30" s="104"/>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>317</v>
       </c>
@@ -11215,7 +11482,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A33" s="51" t="s">
         <v>277</v>
       </c>
@@ -11323,7 +11590,7 @@
       </c>
       <c r="AN33" s="108"/>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
         <v>318</v>
       </c>
@@ -11430,7 +11697,7 @@
         <v>1471.1435490360013</v>
       </c>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>292</v>
       </c>
@@ -11438,7 +11705,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
         <v>319</v>
       </c>
@@ -11548,7 +11815,7 @@
         <v>1948.9397364134529</v>
       </c>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>320</v>
       </c>
@@ -11658,7 +11925,7 @@
         <v>1978.8983278067196</v>
       </c>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
         <v>295</v>
       </c>
@@ -11768,7 +12035,7 @@
         <v>2026.2525389067091</v>
       </c>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
         <v>322</v>
       </c>
@@ -11878,7 +12145,7 @@
         <v>2091.2486523610996</v>
       </c>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
         <v>324</v>
       </c>
@@ -11886,7 +12153,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="41" spans="1:40" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="49"/>
       <c r="G41" s="106" t="s">
         <v>296</v>
@@ -11991,7 +12258,7 @@
         <v>1451.9803923218951</v>
       </c>
     </row>
-    <row r="42" spans="1:40" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:40" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="20" t="s">
         <v>325</v>
       </c>
@@ -12101,7 +12368,7 @@
         <v>1475.450947600998</v>
       </c>
     </row>
-    <row r="43" spans="1:40" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:40" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="20" t="s">
         <v>326</v>
       </c>
@@ -12211,7 +12478,7 @@
         <v>1449.11440187263</v>
       </c>
     </row>
-    <row r="44" spans="1:40" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:40" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B44" s="49"/>
       <c r="G44" s="106" t="s">
         <v>328</v>
@@ -12316,13 +12583,13 @@
         <v>1500.4767772893517</v>
       </c>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>303</v>
       </c>
       <c r="B45" s="49"/>
     </row>
-    <row r="46" spans="1:40" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:40" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="121">
         <f>B43*SUM(B37:B40,B35)</f>
         <v>0.29399999999999998</v>
@@ -12343,7 +12610,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B47" s="49"/>
       <c r="G47" s="1" t="s">
         <v>332</v>
@@ -12361,7 +12628,7 @@
         <v>13.57</v>
       </c>
     </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:40" x14ac:dyDescent="0.25">
       <c r="G48" s="20" t="s">
         <v>333</v>
       </c>
@@ -12378,7 +12645,7 @@
         <v>13.57</v>
       </c>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>334</v>
       </c>
@@ -12398,7 +12665,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A50" s="51" t="s">
         <v>277</v>
       </c>
@@ -12421,7 +12688,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
         <v>318</v>
       </c>
@@ -12429,7 +12696,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>292</v>
       </c>
@@ -12443,7 +12710,7 @@
         <v>1.0940919037199124</v>
       </c>
     </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
         <v>319</v>
       </c>
@@ -12451,7 +12718,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>320</v>
       </c>
@@ -12462,7 +12729,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
         <v>295</v>
       </c>
@@ -12569,7 +12836,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
         <v>322</v>
       </c>
@@ -12676,7 +12943,7 @@
         <v>1882930</v>
       </c>
     </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A57" s="20" t="s">
         <v>324</v>
       </c>
@@ -12783,7 +13050,7 @@
         <v>2060.0984682713347</v>
       </c>
     </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="s">
         <v>325</v>
       </c>
@@ -12791,7 +13058,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
         <v>326</v>
       </c>
@@ -12799,13 +13066,13 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>303</v>
       </c>
       <c r="B62" s="49"/>
     </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A63" s="121">
         <f>B60*SUM(B54:B57,B52)</f>
         <v>0.20299999999999999</v>
@@ -12814,12 +13081,12 @@
         <v>329</v>
       </c>
     </row>
-    <row r="65" spans="1:55" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="66" spans="1:55" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A66" s="20">
         <v>2019</v>
       </c>
@@ -12839,7 +13106,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="67" spans="1:55" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A67" s="112">
         <f>AVERAGE(A46,A63)</f>
         <v>0.2485</v>
@@ -12860,14 +13127,14 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="70" spans="1:55" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A70" s="103" t="s">
         <v>238</v>
       </c>
       <c r="B70" s="103"/>
       <c r="C70" s="103"/>
     </row>
-    <row r="71" spans="1:55" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:55" x14ac:dyDescent="0.25">
       <c r="H71" s="20">
         <v>2019</v>
       </c>
@@ -12965,7 +13232,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="72" spans="1:55" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>339</v>
       </c>
@@ -13084,7 +13351,7 @@
       <c r="BB72" s="108"/>
       <c r="BC72" s="108"/>
     </row>
-    <row r="73" spans="1:55" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A73" s="20" t="s">
         <v>342</v>
       </c>
@@ -13203,7 +13470,7 @@
       <c r="BB73" s="108"/>
       <c r="BC73" s="108"/>
     </row>
-    <row r="74" spans="1:55" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="20" t="s">
         <v>344</v>
       </c>
@@ -13310,7 +13577,7 @@
         <v>836.38427846404704</v>
       </c>
     </row>
-    <row r="75" spans="1:55" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:55" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A75" s="20" t="s">
         <v>346</v>
       </c>
@@ -13318,7 +13585,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="76" spans="1:55" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:55" x14ac:dyDescent="0.25">
       <c r="G76" s="109" t="s">
         <v>312</v>
       </c>
@@ -13326,17 +13593,17 @@
         <v>1.0940919037199124</v>
       </c>
     </row>
-    <row r="77" spans="1:55" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A77" s="20" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="78" spans="1:55" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:55" x14ac:dyDescent="0.25">
       <c r="G78" s="109" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="79" spans="1:55" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>303</v>
       </c>
@@ -13440,7 +13707,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="80" spans="1:55" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A80" s="20">
         <v>2019</v>
       </c>
@@ -13556,7 +13823,7 @@
         <v>636767</v>
       </c>
     </row>
-    <row r="81" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A81" s="124">
         <f>B75</f>
         <v>0.35</v>
@@ -13679,35 +13946,35 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="96"/>
-    <col min="2" max="2" width="17.265625" style="96" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="96"/>
+    <col min="2" max="2" width="17.28515625" style="96" customWidth="1"/>
     <col min="3" max="3" width="31" style="96" customWidth="1"/>
-    <col min="4" max="5" width="17.265625" style="96" customWidth="1"/>
-    <col min="6" max="6" width="23.1328125" style="96" customWidth="1"/>
-    <col min="7" max="7" width="17.265625" style="96" customWidth="1"/>
-    <col min="8" max="8" width="22.59765625" style="96" customWidth="1"/>
-    <col min="9" max="9" width="17.265625" style="96" customWidth="1"/>
-    <col min="10" max="10" width="22.3984375" style="96" customWidth="1"/>
-    <col min="11" max="11" width="20.86328125" style="96" customWidth="1"/>
-    <col min="12" max="12" width="28.1328125" style="96" customWidth="1"/>
-    <col min="13" max="13" width="19.1328125" style="96" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.1328125" style="96" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9.1328125" style="96"/>
-    <col min="17" max="17" width="11.73046875" style="96" customWidth="1"/>
-    <col min="18" max="16384" width="9.1328125" style="96"/>
+    <col min="4" max="5" width="17.28515625" style="96" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" style="96" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="96" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" style="96" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" style="96" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" style="96" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" style="96" customWidth="1"/>
+    <col min="12" max="12" width="28.140625" style="96" customWidth="1"/>
+    <col min="13" max="13" width="19.140625" style="96" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.140625" style="96" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.140625" style="96"/>
+    <col min="17" max="17" width="11.7109375" style="96" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="57" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="94" t="s">
         <v>28</v>
       </c>
@@ -13760,7 +14027,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="97">
         <v>2018</v>
       </c>
@@ -13776,17 +14043,17 @@
         <f>INDEX('CEA NEP'!$C$24:$M$24,1,MATCH($A2,'CEA NEP'!$C$17:$M$17,0))</f>
         <v>1454078.6087159668</v>
       </c>
-      <c r="E2" s="98">
+      <c r="E2" s="4">
         <f>INDEX('CEA NEP'!$C$19:$M$19,1,MATCH($A2,'CEA NEP'!$C$17:$M$17,0))</f>
         <v>1454078.6087159668</v>
       </c>
       <c r="F2" s="98">
-        <f>'CEA NEP'!D21</f>
-        <v>838891.50502844236</v>
+        <f>NREL!D6</f>
+        <v>872966.20775969967</v>
       </c>
       <c r="G2" s="98">
-        <f>'CEA NEP'!D20</f>
-        <v>768983.87960940553</v>
+        <f>NREL!D4</f>
+        <v>800219.02377972472</v>
       </c>
       <c r="H2" s="98">
         <f>'Solar Thermal Base Cost'!F14</f>
@@ -13829,7 +14096,7 @@
         <v>2974456.819426693</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="97">
         <v>2019</v>
       </c>
@@ -13845,18 +14112,12 @@
         <f>INDEX('CEA NEP'!$C$24:$M$24,1,MATCH($A3,'CEA NEP'!$C$17:$M$17,0))</f>
         <v>1510004.7090511965</v>
       </c>
-      <c r="E3" s="98">
+      <c r="E3" s="4">
         <f>INDEX('CEA NEP'!$C$19:$M$19,1,MATCH($A3,'CEA NEP'!$C$17:$M$17,0))</f>
         <v>1510004.7090511965</v>
       </c>
-      <c r="F3" s="125">
-        <f>$F$2</f>
-        <v>838891.50502844236</v>
-      </c>
-      <c r="G3" s="125">
-        <f>$G$2</f>
-        <v>768983.87960940553</v>
-      </c>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
       <c r="H3" s="98">
         <f>H2*'IESS Annual Cap Costs'!H5/'IESS Annual Cap Costs'!H4</f>
         <v>2745983.7177102477</v>
@@ -13881,10 +14142,7 @@
         <f>B3*'Coal Cost Multipliers'!$B$33</f>
         <v>1139125.7736094396</v>
       </c>
-      <c r="N3" s="125">
-        <f>$N$2</f>
-        <v>2839145.5176191349</v>
-      </c>
+      <c r="N3" s="125"/>
       <c r="O3" s="98">
         <f t="shared" si="0"/>
         <v>651000</v>
@@ -13898,7 +14156,7 @@
         <v>2953660.7631915286</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="97">
         <v>2020</v>
       </c>
@@ -13914,18 +14172,12 @@
         <f>INDEX('CEA NEP'!$C$24:$M$24,1,MATCH($A4,'CEA NEP'!$C$17:$M$17,0))</f>
         <v>1565930.8093864257</v>
       </c>
-      <c r="E4" s="98">
+      <c r="E4" s="4">
         <f>INDEX('CEA NEP'!$C$19:$M$19,1,MATCH($A4,'CEA NEP'!$C$17:$M$17,0))</f>
         <v>1565930.8093864257</v>
       </c>
-      <c r="F4" s="125">
-        <f t="shared" ref="F4:F34" si="4">$F$2</f>
-        <v>838891.50502844236</v>
-      </c>
-      <c r="G4" s="125">
-        <f t="shared" ref="G4:G34" si="5">$G$2</f>
-        <v>768983.87960940553</v>
-      </c>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
       <c r="H4" s="98">
         <f>H3*'IESS Annual Cap Costs'!H6/'IESS Annual Cap Costs'!H5</f>
         <v>2775994.6323357816</v>
@@ -13950,10 +14202,7 @@
         <f>B4*'Coal Cost Multipliers'!$B$33</f>
         <v>1184496.3591870561</v>
       </c>
-      <c r="N4" s="125">
-        <f t="shared" ref="N4:N34" si="6">$N$2</f>
-        <v>2839145.5176191349</v>
-      </c>
+      <c r="N4" s="125"/>
       <c r="O4" s="98">
         <f t="shared" si="0"/>
         <v>651000</v>
@@ -13967,7 +14216,7 @@
         <v>2932864.7069563642</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="97">
         <v>2021</v>
       </c>
@@ -13983,18 +14232,12 @@
         <f>INDEX('CEA NEP'!$C$24:$M$24,1,MATCH($A5,'CEA NEP'!$C$17:$M$17,0))</f>
         <v>1635838.4348054626</v>
       </c>
-      <c r="E5" s="98">
+      <c r="E5" s="4">
         <f>INDEX('CEA NEP'!$C$19:$M$19,1,MATCH($A5,'CEA NEP'!$C$17:$M$17,0))</f>
         <v>1635838.4348054626</v>
       </c>
-      <c r="F5" s="125">
-        <f t="shared" si="4"/>
-        <v>838891.50502844236</v>
-      </c>
-      <c r="G5" s="125">
-        <f t="shared" si="5"/>
-        <v>768983.87960940553</v>
-      </c>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
       <c r="H5" s="98">
         <f>H4*'IESS Annual Cap Costs'!H7/'IESS Annual Cap Costs'!H6</f>
         <v>2806005.5469613154</v>
@@ -14019,10 +14262,7 @@
         <f>B5*'Coal Cost Multipliers'!$B$33</f>
         <v>1231487.322821016</v>
       </c>
-      <c r="N5" s="125">
-        <f t="shared" si="6"/>
-        <v>2839145.5176191349</v>
-      </c>
+      <c r="N5" s="125"/>
       <c r="O5" s="98">
         <f t="shared" si="0"/>
         <v>651000</v>
@@ -14036,7 +14276,7 @@
         <v>2912068.6507211998</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="97">
         <v>2022</v>
       </c>
@@ -14052,18 +14292,12 @@
         <f>INDEX('CEA NEP'!$C$24:$M$24,1,MATCH($A6,'CEA NEP'!$C$17:$M$17,0))</f>
         <v>1705746.0602244993</v>
       </c>
-      <c r="E6" s="98">
+      <c r="E6" s="4">
         <f>INDEX('CEA NEP'!$C$19:$M$19,1,MATCH($A6,'CEA NEP'!$C$17:$M$17,0))</f>
         <v>1705746.0602244993</v>
       </c>
-      <c r="F6" s="125">
-        <f t="shared" si="4"/>
-        <v>838891.50502844236</v>
-      </c>
-      <c r="G6" s="125">
-        <f t="shared" si="5"/>
-        <v>768983.87960940553</v>
-      </c>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
       <c r="H6" s="98">
         <f>H5*'IESS Annual Cap Costs'!H8/'IESS Annual Cap Costs'!H7</f>
         <v>2836016.4615868502</v>
@@ -14088,10 +14322,7 @@
         <f>B6*'Coal Cost Multipliers'!$B$33</f>
         <v>1280098.664511319</v>
       </c>
-      <c r="N6" s="125">
-        <f t="shared" si="6"/>
-        <v>2839145.5176191349</v>
-      </c>
+      <c r="N6" s="125"/>
       <c r="O6" s="98">
         <f t="shared" si="0"/>
         <v>651000</v>
@@ -14105,7 +14336,7 @@
         <v>2891272.5944860321</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="97">
         <v>2023</v>
       </c>
@@ -14121,18 +14352,12 @@
         <f>INDEX('CEA NEP'!$C$24:$M$24,1,MATCH($A7,'CEA NEP'!$C$17:$M$17,0))</f>
         <v>1775653.6856435363</v>
       </c>
-      <c r="E7" s="98">
+      <c r="E7" s="4">
         <f>INDEX('CEA NEP'!$C$19:$M$19,1,MATCH($A7,'CEA NEP'!$C$17:$M$17,0))</f>
         <v>1775653.6856435363</v>
       </c>
-      <c r="F7" s="125">
-        <f t="shared" si="4"/>
-        <v>838891.50502844236</v>
-      </c>
-      <c r="G7" s="125">
-        <f t="shared" si="5"/>
-        <v>768983.87960940553</v>
-      </c>
+      <c r="F7" s="125"/>
+      <c r="G7" s="125"/>
       <c r="H7" s="98">
         <f>H6*'IESS Annual Cap Costs'!H9/'IESS Annual Cap Costs'!H8</f>
         <v>2874821.6620558943</v>
@@ -14157,10 +14382,7 @@
         <f>B7*'Coal Cost Multipliers'!$B$33</f>
         <v>1328710.0062016223</v>
       </c>
-      <c r="N7" s="125">
-        <f t="shared" si="6"/>
-        <v>2839145.5176191349</v>
-      </c>
+      <c r="N7" s="125"/>
       <c r="O7" s="98">
         <f t="shared" si="0"/>
         <v>651000</v>
@@ -14174,7 +14396,7 @@
         <v>2871352.9304363653</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="97">
         <v>2024</v>
       </c>
@@ -14190,18 +14412,12 @@
         <f>INDEX('CEA NEP'!$C$24:$M$24,1,MATCH($A8,'CEA NEP'!$C$17:$M$17,0))</f>
         <v>1845561.3110625728</v>
       </c>
-      <c r="E8" s="98">
+      <c r="E8" s="4">
         <f>INDEX('CEA NEP'!$C$19:$M$19,1,MATCH($A8,'CEA NEP'!$C$17:$M$17,0))</f>
         <v>1845561.3110625728</v>
       </c>
-      <c r="F8" s="125">
-        <f t="shared" si="4"/>
-        <v>838891.50502844236</v>
-      </c>
-      <c r="G8" s="125">
-        <f t="shared" si="5"/>
-        <v>768983.87960940553</v>
-      </c>
+      <c r="F8" s="125"/>
+      <c r="G8" s="125"/>
       <c r="H8" s="98">
         <f>H7*'IESS Annual Cap Costs'!H10/'IESS Annual Cap Costs'!H9</f>
         <v>2913626.8625249378</v>
@@ -14226,10 +14442,7 @@
         <f>B8*'Coal Cost Multipliers'!$B$33</f>
         <v>1377321.3478919258</v>
       </c>
-      <c r="N8" s="125">
-        <f t="shared" si="6"/>
-        <v>2839145.5176191349</v>
-      </c>
+      <c r="N8" s="125"/>
       <c r="O8" s="98">
         <f t="shared" si="0"/>
         <v>651000</v>
@@ -14243,7 +14456,7 @@
         <v>2851433.2663867027</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="97">
         <v>2025</v>
       </c>
@@ -14259,18 +14472,12 @@
         <f>INDEX('CEA NEP'!$C$24:$M$24,1,MATCH($A9,'CEA NEP'!$C$17:$M$17,0))</f>
         <v>1915468.9364816097</v>
       </c>
-      <c r="E9" s="98">
+      <c r="E9" s="4">
         <f>INDEX('CEA NEP'!$C$19:$M$19,1,MATCH($A9,'CEA NEP'!$C$17:$M$17,0))</f>
         <v>1915468.9364816097</v>
       </c>
-      <c r="F9" s="125">
-        <f t="shared" si="4"/>
-        <v>838891.50502844236</v>
-      </c>
-      <c r="G9" s="125">
-        <f t="shared" si="5"/>
-        <v>768983.87960940553</v>
-      </c>
+      <c r="F9" s="125"/>
+      <c r="G9" s="125"/>
       <c r="H9" s="98">
         <f>H8*'IESS Annual Cap Costs'!H11/'IESS Annual Cap Costs'!H10</f>
         <v>2952432.0629939814</v>
@@ -14295,10 +14502,7 @@
         <f>B9*'Coal Cost Multipliers'!$B$33</f>
         <v>1442136.4701456635</v>
       </c>
-      <c r="N9" s="125">
-        <f t="shared" si="6"/>
-        <v>2839145.5176191349</v>
-      </c>
+      <c r="N9" s="125"/>
       <c r="O9" s="98">
         <f t="shared" si="0"/>
         <v>651000</v>
@@ -14312,7 +14516,7 @@
         <v>2831513.6023370475</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="97">
         <v>2026</v>
       </c>
@@ -14328,18 +14532,12 @@
         <f>INDEX('CEA NEP'!$C$24:$M$24,1,MATCH($A10,'CEA NEP'!$C$17:$M$17,0))</f>
         <v>1985376.5619006469</v>
       </c>
-      <c r="E10" s="98">
+      <c r="E10" s="4">
         <f>INDEX('CEA NEP'!$C$19:$M$19,1,MATCH($A10,'CEA NEP'!$C$17:$M$17,0))</f>
         <v>1985376.5619006469</v>
       </c>
-      <c r="F10" s="125">
-        <f t="shared" si="4"/>
-        <v>838891.50502844236</v>
-      </c>
-      <c r="G10" s="125">
-        <f t="shared" si="5"/>
-        <v>768983.87960940553</v>
-      </c>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
       <c r="H10" s="98">
         <f>H9*'IESS Annual Cap Costs'!H12/'IESS Annual Cap Costs'!H11</f>
         <v>2991237.263463025</v>
@@ -14364,10 +14562,7 @@
         <f>B10*'Coal Cost Multipliers'!$B$33</f>
         <v>1498849.7021176836</v>
       </c>
-      <c r="N10" s="125">
-        <f t="shared" si="6"/>
-        <v>2839145.5176191349</v>
-      </c>
+      <c r="N10" s="125"/>
       <c r="O10" s="98">
         <f t="shared" si="0"/>
         <v>651000</v>
@@ -14381,7 +14576,7 @@
         <v>2811593.9382873848</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="97">
         <v>2027</v>
       </c>
@@ -14397,18 +14592,12 @@
         <f>D10*'IESS Annual Cap Costs'!D13/'IESS Annual Cap Costs'!D12</f>
         <v>2133576.1577339745</v>
       </c>
-      <c r="E11" s="98">
+      <c r="E11" s="4">
         <f>E10*'IESS Annual Cap Costs'!E13/'IESS Annual Cap Costs'!E12</f>
         <v>1885308.374445213</v>
       </c>
-      <c r="F11" s="125">
-        <f t="shared" si="4"/>
-        <v>838891.50502844236</v>
-      </c>
-      <c r="G11" s="125">
-        <f t="shared" si="5"/>
-        <v>768983.87960940553</v>
-      </c>
+      <c r="F11" s="125"/>
+      <c r="G11" s="125"/>
       <c r="H11" s="98">
         <f>H10*'IESS Annual Cap Costs'!H13/'IESS Annual Cap Costs'!H12</f>
         <v>3030042.4639320699</v>
@@ -14433,10 +14622,7 @@
         <f>B11*'Coal Cost Multipliers'!$B$33</f>
         <v>1514551.9217579605</v>
       </c>
-      <c r="N11" s="125">
-        <f t="shared" si="6"/>
-        <v>2839145.5176191349</v>
-      </c>
+      <c r="N11" s="125"/>
       <c r="O11" s="98">
         <f t="shared" si="0"/>
         <v>651000</v>
@@ -14450,7 +14636,7 @@
         <v>2791674.2742377212</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="97">
         <v>2028</v>
       </c>
@@ -14466,18 +14652,12 @@
         <f>D11*'IESS Annual Cap Costs'!D14/'IESS Annual Cap Costs'!D13</f>
         <v>1974525.3033663556</v>
       </c>
-      <c r="E12" s="98">
+      <c r="E12" s="4">
         <f>E11*'IESS Annual Cap Costs'!E14/'IESS Annual Cap Costs'!E13</f>
         <v>1905127.1767902004</v>
       </c>
-      <c r="F12" s="125">
-        <f t="shared" si="4"/>
-        <v>838891.50502844236</v>
-      </c>
-      <c r="G12" s="125">
-        <f t="shared" si="5"/>
-        <v>768983.87960940553</v>
-      </c>
+      <c r="F12" s="125"/>
+      <c r="G12" s="125"/>
       <c r="H12" s="98">
         <f>H11*'IESS Annual Cap Costs'!H14/'IESS Annual Cap Costs'!H13</f>
         <v>3075023.6651144214</v>
@@ -14502,10 +14682,7 @@
         <f>B12*'Coal Cost Multipliers'!$B$33</f>
         <v>1554111.7397206388</v>
       </c>
-      <c r="N12" s="125">
-        <f t="shared" si="6"/>
-        <v>2839145.5176191349</v>
-      </c>
+      <c r="N12" s="125"/>
       <c r="O12" s="98">
         <f t="shared" si="0"/>
         <v>651000</v>
@@ -14519,7 +14696,7 @@
         <v>2772612.7442030236</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="97">
         <v>2029</v>
       </c>
@@ -14535,18 +14712,12 @@
         <f>D12*'IESS Annual Cap Costs'!D15/'IESS Annual Cap Costs'!D14</f>
         <v>1815474.4489987369</v>
       </c>
-      <c r="E13" s="98">
+      <c r="E13" s="4">
         <f>E12*'IESS Annual Cap Costs'!E15/'IESS Annual Cap Costs'!E14</f>
         <v>1924945.9791351876</v>
       </c>
-      <c r="F13" s="125">
-        <f t="shared" si="4"/>
-        <v>838891.50502844236</v>
-      </c>
-      <c r="G13" s="125">
-        <f t="shared" si="5"/>
-        <v>768983.87960940553</v>
-      </c>
+      <c r="F13" s="125"/>
+      <c r="G13" s="125"/>
       <c r="H13" s="98">
         <f>H12*'IESS Annual Cap Costs'!H15/'IESS Annual Cap Costs'!H14</f>
         <v>3120004.8662967728</v>
@@ -14571,10 +14742,7 @@
         <f>B13*'Coal Cost Multipliers'!$B$33</f>
         <v>1593671.557683317</v>
       </c>
-      <c r="N13" s="125">
-        <f t="shared" si="6"/>
-        <v>2839145.5176191349</v>
-      </c>
+      <c r="N13" s="125"/>
       <c r="O13" s="98">
         <f t="shared" si="0"/>
         <v>651000</v>
@@ -14588,7 +14756,7 @@
         <v>2753551.21416834</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="97">
         <v>2030</v>
       </c>
@@ -14604,18 +14772,12 @@
         <f>D13*'IESS Annual Cap Costs'!D16/'IESS Annual Cap Costs'!D15</f>
         <v>1656423.594631118</v>
       </c>
-      <c r="E14" s="98">
+      <c r="E14" s="4">
         <f>E13*'IESS Annual Cap Costs'!E16/'IESS Annual Cap Costs'!E15</f>
         <v>1944764.7814801747</v>
       </c>
-      <c r="F14" s="125">
-        <f t="shared" si="4"/>
-        <v>838891.50502844236</v>
-      </c>
-      <c r="G14" s="125">
-        <f t="shared" si="5"/>
-        <v>768983.87960940553</v>
-      </c>
+      <c r="F14" s="125"/>
+      <c r="G14" s="125"/>
       <c r="H14" s="98">
         <f>H13*'IESS Annual Cap Costs'!H16/'IESS Annual Cap Costs'!H15</f>
         <v>3164986.0674791238</v>
@@ -14640,10 +14802,7 @@
         <f>B14*'Coal Cost Multipliers'!$B$33</f>
         <v>1633231.3756459949</v>
       </c>
-      <c r="N14" s="125">
-        <f t="shared" si="6"/>
-        <v>2839145.5176191349</v>
-      </c>
+      <c r="N14" s="125"/>
       <c r="O14" s="98">
         <f t="shared" si="0"/>
         <v>651000</v>
@@ -14657,7 +14816,7 @@
         <v>2734489.6841336489</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="97">
         <v>2031</v>
       </c>
@@ -14673,18 +14832,12 @@
         <f>D14*'IESS Annual Cap Costs'!D17/'IESS Annual Cap Costs'!D16</f>
         <v>1497372.7402634991</v>
       </c>
-      <c r="E15" s="98">
+      <c r="E15" s="4">
         <f>E14*'IESS Annual Cap Costs'!E17/'IESS Annual Cap Costs'!E16</f>
         <v>1964583.5838251619</v>
       </c>
-      <c r="F15" s="125">
-        <f t="shared" si="4"/>
-        <v>838891.50502844236</v>
-      </c>
-      <c r="G15" s="125">
-        <f t="shared" si="5"/>
-        <v>768983.87960940553</v>
-      </c>
+      <c r="F15" s="125"/>
+      <c r="G15" s="125"/>
       <c r="H15" s="98">
         <f>H14*'IESS Annual Cap Costs'!H17/'IESS Annual Cap Costs'!H16</f>
         <v>3209967.2686614753</v>
@@ -14709,10 +14862,7 @@
         <f>B15*'Coal Cost Multipliers'!$B$33</f>
         <v>1672791.1936086731</v>
       </c>
-      <c r="N15" s="125">
-        <f t="shared" si="6"/>
-        <v>2839145.5176191349</v>
-      </c>
+      <c r="N15" s="125"/>
       <c r="O15" s="98">
         <f t="shared" si="0"/>
         <v>651000</v>
@@ -14726,7 +14876,7 @@
         <v>2715428.1540989578</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="97">
         <v>2032</v>
       </c>
@@ -14742,18 +14892,12 @@
         <f>D15*'IESS Annual Cap Costs'!D18/'IESS Annual Cap Costs'!D17</f>
         <v>1338321.8858958806</v>
       </c>
-      <c r="E16" s="98">
+      <c r="E16" s="4">
         <f>E15*'IESS Annual Cap Costs'!E18/'IESS Annual Cap Costs'!E17</f>
         <v>1984402.3861701486</v>
       </c>
-      <c r="F16" s="125">
-        <f t="shared" si="4"/>
-        <v>838891.50502844236</v>
-      </c>
-      <c r="G16" s="125">
-        <f t="shared" si="5"/>
-        <v>768983.87960940553</v>
-      </c>
+      <c r="F16" s="125"/>
+      <c r="G16" s="125"/>
       <c r="H16" s="98">
         <f>H15*'IESS Annual Cap Costs'!H18/'IESS Annual Cap Costs'!H17</f>
         <v>3254948.4698438249</v>
@@ -14778,10 +14922,7 @@
         <f>B16*'Coal Cost Multipliers'!$B$33</f>
         <v>1712351.0115713514</v>
       </c>
-      <c r="N16" s="125">
-        <f t="shared" si="6"/>
-        <v>2839145.5176191349</v>
-      </c>
+      <c r="N16" s="125"/>
       <c r="O16" s="98">
         <f t="shared" si="0"/>
         <v>651000</v>
@@ -14795,7 +14936,7 @@
         <v>2696366.6240642685</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="97">
         <v>2033</v>
       </c>
@@ -14811,18 +14952,12 @@
         <f>D16*'IESS Annual Cap Costs'!D19/'IESS Annual Cap Costs'!D18</f>
         <v>1632590.1914019706</v>
       </c>
-      <c r="E17" s="98">
+      <c r="E17" s="4">
         <f>E16*'IESS Annual Cap Costs'!E19/'IESS Annual Cap Costs'!E18</f>
         <v>1993870.4108001308</v>
       </c>
-      <c r="F17" s="125">
-        <f t="shared" si="4"/>
-        <v>838891.50502844236</v>
-      </c>
-      <c r="G17" s="125">
-        <f t="shared" si="5"/>
-        <v>768983.87960940553</v>
-      </c>
+      <c r="F17" s="125"/>
+      <c r="G17" s="125"/>
       <c r="H17" s="98">
         <f>H16*'IESS Annual Cap Costs'!H19/'IESS Annual Cap Costs'!H18</f>
         <v>3242359.6865923661</v>
@@ -14847,10 +14982,7 @@
         <f>B17*'Coal Cost Multipliers'!$B$33</f>
         <v>1759998.8759490047</v>
       </c>
-      <c r="N17" s="125">
-        <f t="shared" si="6"/>
-        <v>2839145.5176191349</v>
-      </c>
+      <c r="N17" s="125"/>
       <c r="O17" s="98">
         <f t="shared" si="0"/>
         <v>651000</v>
@@ -14864,7 +14996,7 @@
         <v>2678071.9371918961</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="97">
         <v>2034</v>
       </c>
@@ -14880,18 +15012,12 @@
         <f>D17*'IESS Annual Cap Costs'!D20/'IESS Annual Cap Costs'!D19</f>
         <v>1926858.4969080603</v>
       </c>
-      <c r="E18" s="98">
+      <c r="E18" s="4">
         <f>E17*'IESS Annual Cap Costs'!E20/'IESS Annual Cap Costs'!E19</f>
         <v>2003338.4354301128</v>
       </c>
-      <c r="F18" s="125">
-        <f t="shared" si="4"/>
-        <v>838891.50502844236</v>
-      </c>
-      <c r="G18" s="125">
-        <f t="shared" si="5"/>
-        <v>768983.87960940553</v>
-      </c>
+      <c r="F18" s="125"/>
+      <c r="G18" s="125"/>
       <c r="H18" s="98">
         <f>H17*'IESS Annual Cap Costs'!H20/'IESS Annual Cap Costs'!H19</f>
         <v>3229770.9033409073</v>
@@ -14916,10 +15042,7 @@
         <f>B18*'Coal Cost Multipliers'!$B$33</f>
         <v>1807646.7403266577</v>
       </c>
-      <c r="N18" s="125">
-        <f t="shared" si="6"/>
-        <v>2839145.5176191349</v>
-      </c>
+      <c r="N18" s="125"/>
       <c r="O18" s="98">
         <f t="shared" si="0"/>
         <v>651000</v>
@@ -14933,7 +15056,7 @@
         <v>2659777.2503195181</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="97">
         <v>2035</v>
       </c>
@@ -14949,18 +15072,12 @@
         <f>D18*'IESS Annual Cap Costs'!D21/'IESS Annual Cap Costs'!D20</f>
         <v>2221126.80241415</v>
       </c>
-      <c r="E19" s="98">
+      <c r="E19" s="4">
         <f>E18*'IESS Annual Cap Costs'!E21/'IESS Annual Cap Costs'!E20</f>
         <v>2012806.4600600947</v>
       </c>
-      <c r="F19" s="125">
-        <f t="shared" si="4"/>
-        <v>838891.50502844236</v>
-      </c>
-      <c r="G19" s="125">
-        <f t="shared" si="5"/>
-        <v>768983.87960940553</v>
-      </c>
+      <c r="F19" s="125"/>
+      <c r="G19" s="125"/>
       <c r="H19" s="98">
         <f>H18*'IESS Annual Cap Costs'!H21/'IESS Annual Cap Costs'!H20</f>
         <v>3217182.1200894485</v>
@@ -14985,10 +15102,7 @@
         <f>B19*'Coal Cost Multipliers'!$B$33</f>
         <v>1855294.6047043107</v>
       </c>
-      <c r="N19" s="125">
-        <f t="shared" si="6"/>
-        <v>2839145.5176191349</v>
-      </c>
+      <c r="N19" s="125"/>
       <c r="O19" s="98">
         <f t="shared" si="0"/>
         <v>651000</v>
@@ -15002,7 +15116,7 @@
         <v>2641482.5634471402</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="97">
         <v>2036</v>
       </c>
@@ -15018,18 +15132,12 @@
         <f>D19*'IESS Annual Cap Costs'!D22/'IESS Annual Cap Costs'!D21</f>
         <v>2515395.1079202401</v>
       </c>
-      <c r="E20" s="98">
+      <c r="E20" s="4">
         <f>E19*'IESS Annual Cap Costs'!E22/'IESS Annual Cap Costs'!E21</f>
         <v>2022274.4846900767</v>
       </c>
-      <c r="F20" s="125">
-        <f t="shared" si="4"/>
-        <v>838891.50502844236</v>
-      </c>
-      <c r="G20" s="125">
-        <f t="shared" si="5"/>
-        <v>768983.87960940553</v>
-      </c>
+      <c r="F20" s="125"/>
+      <c r="G20" s="125"/>
       <c r="H20" s="98">
         <f>H19*'IESS Annual Cap Costs'!H22/'IESS Annual Cap Costs'!H21</f>
         <v>3204593.3368379897</v>
@@ -15054,10 +15162,7 @@
         <f>B20*'Coal Cost Multipliers'!$B$33</f>
         <v>1902942.4690819641</v>
       </c>
-      <c r="N20" s="125">
-        <f t="shared" si="6"/>
-        <v>2839145.5176191349</v>
-      </c>
+      <c r="N20" s="125"/>
       <c r="O20" s="98">
         <f t="shared" si="0"/>
         <v>651000</v>
@@ -15071,7 +15176,7 @@
         <v>2623187.8765747696</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="97">
         <v>2037</v>
       </c>
@@ -15087,18 +15192,12 @@
         <f>D20*'IESS Annual Cap Costs'!D23/'IESS Annual Cap Costs'!D22</f>
         <v>2809663.4134263298</v>
       </c>
-      <c r="E21" s="98">
+      <c r="E21" s="4">
         <f>E20*'IESS Annual Cap Costs'!E23/'IESS Annual Cap Costs'!E22</f>
         <v>2031742.5093200589</v>
       </c>
-      <c r="F21" s="125">
-        <f t="shared" si="4"/>
-        <v>838891.50502844236</v>
-      </c>
-      <c r="G21" s="125">
-        <f t="shared" si="5"/>
-        <v>768983.87960940553</v>
-      </c>
+      <c r="F21" s="125"/>
+      <c r="G21" s="125"/>
       <c r="H21" s="98">
         <f>H20*'IESS Annual Cap Costs'!H23/'IESS Annual Cap Costs'!H22</f>
         <v>3192004.5535865305</v>
@@ -15123,10 +15222,7 @@
         <f>B21*'Coal Cost Multipliers'!$B$33</f>
         <v>1950590.3334596176</v>
       </c>
-      <c r="N21" s="125">
-        <f t="shared" si="6"/>
-        <v>2839145.5176191349</v>
-      </c>
+      <c r="N21" s="125"/>
       <c r="O21" s="98">
         <f t="shared" si="0"/>
         <v>651000</v>
@@ -15140,7 +15236,7 @@
         <v>2604893.1897023916</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="97">
         <v>2038</v>
       </c>
@@ -15156,18 +15252,12 @@
         <f>D21*'IESS Annual Cap Costs'!D24/'IESS Annual Cap Costs'!D23</f>
         <v>2702139.8235976407</v>
       </c>
-      <c r="E22" s="98">
+      <c r="E22" s="4">
         <f>E21*'IESS Annual Cap Costs'!E24/'IESS Annual Cap Costs'!E23</f>
         <v>1978048.7361460177</v>
       </c>
-      <c r="F22" s="125">
-        <f t="shared" si="4"/>
-        <v>838891.50502844236</v>
-      </c>
-      <c r="G22" s="125">
-        <f t="shared" si="5"/>
-        <v>768983.87960940553</v>
-      </c>
+      <c r="F22" s="125"/>
+      <c r="G22" s="125"/>
       <c r="H22" s="98">
         <f>H21*'IESS Annual Cap Costs'!H24/'IESS Annual Cap Costs'!H23</f>
         <v>3182437.0783154219</v>
@@ -15192,10 +15282,7 @@
         <f>B22*'Coal Cost Multipliers'!$B$33</f>
         <v>1999291.0563873628</v>
       </c>
-      <c r="N22" s="125">
-        <f t="shared" si="6"/>
-        <v>2839145.5176191349</v>
-      </c>
+      <c r="N22" s="125"/>
       <c r="O22" s="98">
         <f t="shared" si="0"/>
         <v>651000</v>
@@ -15209,7 +15296,7 @@
         <v>2587401.8623333946</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="97">
         <v>2039</v>
       </c>
@@ -15225,18 +15312,12 @@
         <f>D22*'IESS Annual Cap Costs'!D25/'IESS Annual Cap Costs'!D24</f>
         <v>2594616.2337689521</v>
       </c>
-      <c r="E23" s="98">
+      <c r="E23" s="4">
         <f>E22*'IESS Annual Cap Costs'!E25/'IESS Annual Cap Costs'!E24</f>
         <v>1924354.9629719767</v>
       </c>
-      <c r="F23" s="125">
-        <f t="shared" si="4"/>
-        <v>838891.50502844236</v>
-      </c>
-      <c r="G23" s="125">
-        <f t="shared" si="5"/>
-        <v>768983.87960940553</v>
-      </c>
+      <c r="F23" s="125"/>
+      <c r="G23" s="125"/>
       <c r="H23" s="98">
         <f>H22*'IESS Annual Cap Costs'!H25/'IESS Annual Cap Costs'!H24</f>
         <v>3172869.6030443134</v>
@@ -15261,10 +15342,7 @@
         <f>B23*'Coal Cost Multipliers'!$B$33</f>
         <v>2047991.7793151082</v>
       </c>
-      <c r="N23" s="125">
-        <f t="shared" si="6"/>
-        <v>2839145.5176191349</v>
-      </c>
+      <c r="N23" s="125"/>
       <c r="O23" s="98">
         <f t="shared" si="0"/>
         <v>651000</v>
@@ -15278,7 +15356,7 @@
         <v>2569910.5349643975</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="97">
         <v>2040</v>
       </c>
@@ -15294,18 +15372,12 @@
         <f>D23*'IESS Annual Cap Costs'!D26/'IESS Annual Cap Costs'!D25</f>
         <v>2487092.643940263</v>
       </c>
-      <c r="E24" s="98">
+      <c r="E24" s="4">
         <f>E23*'IESS Annual Cap Costs'!E26/'IESS Annual Cap Costs'!E25</f>
         <v>1870661.1897979355</v>
       </c>
-      <c r="F24" s="125">
-        <f t="shared" si="4"/>
-        <v>838891.50502844236</v>
-      </c>
-      <c r="G24" s="125">
-        <f t="shared" si="5"/>
-        <v>768983.87960940553</v>
-      </c>
+      <c r="F24" s="125"/>
+      <c r="G24" s="125"/>
       <c r="H24" s="98">
         <f>H23*'IESS Annual Cap Costs'!H26/'IESS Annual Cap Costs'!H25</f>
         <v>3163302.1277732048</v>
@@ -15330,10 +15402,7 @@
         <f>B24*'Coal Cost Multipliers'!$B$33</f>
         <v>2096692.5022428532</v>
       </c>
-      <c r="N24" s="125">
-        <f t="shared" si="6"/>
-        <v>2839145.5176191349</v>
-      </c>
+      <c r="N24" s="125"/>
       <c r="O24" s="98">
         <f t="shared" si="0"/>
         <v>651000</v>
@@ -15347,7 +15416,7 @@
         <v>2552419.2075954005</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="97">
         <v>2041</v>
       </c>
@@ -15363,18 +15432,12 @@
         <f>D24*'IESS Annual Cap Costs'!D27/'IESS Annual Cap Costs'!D26</f>
         <v>2379569.0541115743</v>
       </c>
-      <c r="E25" s="98">
+      <c r="E25" s="4">
         <f>E24*'IESS Annual Cap Costs'!E27/'IESS Annual Cap Costs'!E26</f>
         <v>1816967.4166238944</v>
       </c>
-      <c r="F25" s="125">
-        <f t="shared" si="4"/>
-        <v>838891.50502844236</v>
-      </c>
-      <c r="G25" s="125">
-        <f t="shared" si="5"/>
-        <v>768983.87960940553</v>
-      </c>
+      <c r="F25" s="125"/>
+      <c r="G25" s="125"/>
       <c r="H25" s="98">
         <f>H24*'IESS Annual Cap Costs'!H27/'IESS Annual Cap Costs'!H26</f>
         <v>3153734.6525020963</v>
@@ -15399,10 +15462,7 @@
         <f>B25*'Coal Cost Multipliers'!$B$33</f>
         <v>2145393.2251705979</v>
       </c>
-      <c r="N25" s="125">
-        <f t="shared" si="6"/>
-        <v>2839145.5176191349</v>
-      </c>
+      <c r="N25" s="125"/>
       <c r="O25" s="98">
         <f t="shared" si="0"/>
         <v>651000</v>
@@ -15416,7 +15476,7 @@
         <v>2534927.8802264035</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="97">
         <v>2042</v>
       </c>
@@ -15432,18 +15492,12 @@
         <f>D25*'IESS Annual Cap Costs'!D28/'IESS Annual Cap Costs'!D27</f>
         <v>2272045.4642828852</v>
       </c>
-      <c r="E26" s="98">
+      <c r="E26" s="4">
         <f>E25*'IESS Annual Cap Costs'!E28/'IESS Annual Cap Costs'!E27</f>
         <v>1763273.6434498536</v>
       </c>
-      <c r="F26" s="125">
-        <f t="shared" si="4"/>
-        <v>838891.50502844236</v>
-      </c>
-      <c r="G26" s="125">
-        <f t="shared" si="5"/>
-        <v>768983.87960940553</v>
-      </c>
+      <c r="F26" s="125"/>
+      <c r="G26" s="125"/>
       <c r="H26" s="98">
         <f>H25*'IESS Annual Cap Costs'!H28/'IESS Annual Cap Costs'!H27</f>
         <v>3144167.1772309872</v>
@@ -15468,10 +15522,7 @@
         <f>B26*'Coal Cost Multipliers'!$B$33</f>
         <v>2194093.9480983433</v>
       </c>
-      <c r="N26" s="125">
-        <f t="shared" si="6"/>
-        <v>2839145.5176191349</v>
-      </c>
+      <c r="N26" s="125"/>
       <c r="O26" s="98">
         <f t="shared" si="0"/>
         <v>651000</v>
@@ -15485,7 +15536,7 @@
         <v>2517436.5528574036</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="97">
         <v>2043</v>
       </c>
@@ -15501,18 +15552,12 @@
         <f>D26*'IESS Annual Cap Costs'!D29/'IESS Annual Cap Costs'!D28</f>
         <v>2224582.1185382358</v>
       </c>
-      <c r="E27" s="98">
+      <c r="E27" s="4">
         <f>E26*'IESS Annual Cap Costs'!E29/'IESS Annual Cap Costs'!E28</f>
         <v>1762558.6315525512</v>
       </c>
-      <c r="F27" s="125">
-        <f t="shared" si="4"/>
-        <v>838891.50502844236</v>
-      </c>
-      <c r="G27" s="125">
-        <f t="shared" si="5"/>
-        <v>768983.87960940553</v>
-      </c>
+      <c r="F27" s="125"/>
+      <c r="G27" s="125"/>
       <c r="H27" s="98">
         <f>H26*'IESS Annual Cap Costs'!H29/'IESS Annual Cap Costs'!H28</f>
         <v>3137278.5950357895</v>
@@ -15537,10 +15582,7 @@
         <f>B27*'Coal Cost Multipliers'!$B$33</f>
         <v>2267339.3038799753</v>
       </c>
-      <c r="N27" s="125">
-        <f t="shared" si="6"/>
-        <v>2839145.5176191349</v>
-      </c>
+      <c r="N27" s="125"/>
       <c r="O27" s="98">
         <f t="shared" si="0"/>
         <v>651000</v>
@@ -15554,7 +15596,7 @@
         <v>2500639.0359685943</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="97">
         <v>2044</v>
       </c>
@@ -15570,18 +15612,12 @@
         <f>D27*'IESS Annual Cap Costs'!D30/'IESS Annual Cap Costs'!D29</f>
         <v>2177118.7727935864</v>
       </c>
-      <c r="E28" s="98">
+      <c r="E28" s="4">
         <f>E27*'IESS Annual Cap Costs'!E30/'IESS Annual Cap Costs'!E29</f>
         <v>1761843.6196552489</v>
       </c>
-      <c r="F28" s="125">
-        <f t="shared" si="4"/>
-        <v>838891.50502844236</v>
-      </c>
-      <c r="G28" s="125">
-        <f t="shared" si="5"/>
-        <v>768983.87960940553</v>
-      </c>
+      <c r="F28" s="125"/>
+      <c r="G28" s="125"/>
       <c r="H28" s="98">
         <f>H27*'IESS Annual Cap Costs'!H30/'IESS Annual Cap Costs'!H29</f>
         <v>3130390.0128405914</v>
@@ -15606,10 +15642,7 @@
         <f>B28*'Coal Cost Multipliers'!$B$33</f>
         <v>2340584.6596616074</v>
       </c>
-      <c r="N28" s="125">
-        <f t="shared" si="6"/>
-        <v>2839145.5176191349</v>
-      </c>
+      <c r="N28" s="125"/>
       <c r="O28" s="98">
         <f t="shared" si="0"/>
         <v>651000</v>
@@ -15623,7 +15656,7 @@
         <v>2483841.5190797895</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="97">
         <v>2045</v>
       </c>
@@ -15639,18 +15672,12 @@
         <f>D28*'IESS Annual Cap Costs'!D31/'IESS Annual Cap Costs'!D30</f>
         <v>2129655.4270489365</v>
       </c>
-      <c r="E29" s="98">
+      <c r="E29" s="4">
         <f>E28*'IESS Annual Cap Costs'!E31/'IESS Annual Cap Costs'!E30</f>
         <v>1761128.6077579465</v>
       </c>
-      <c r="F29" s="125">
-        <f t="shared" si="4"/>
-        <v>838891.50502844236</v>
-      </c>
-      <c r="G29" s="125">
-        <f t="shared" si="5"/>
-        <v>768983.87960940553</v>
-      </c>
+      <c r="F29" s="125"/>
+      <c r="G29" s="125"/>
       <c r="H29" s="98">
         <f>H28*'IESS Annual Cap Costs'!H31/'IESS Annual Cap Costs'!H30</f>
         <v>3123501.4306453932</v>
@@ -15675,10 +15702,7 @@
         <f>B29*'Coal Cost Multipliers'!$B$33</f>
         <v>2413830.0154432389</v>
       </c>
-      <c r="N29" s="125">
-        <f t="shared" si="6"/>
-        <v>2839145.5176191349</v>
-      </c>
+      <c r="N29" s="125"/>
       <c r="O29" s="98">
         <f t="shared" si="0"/>
         <v>651000</v>
@@ -15692,7 +15716,7 @@
         <v>2467044.0021909773</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="97">
         <v>2046</v>
       </c>
@@ -15708,18 +15732,12 @@
         <f>D29*'IESS Annual Cap Costs'!D32/'IESS Annual Cap Costs'!D31</f>
         <v>2082192.0813042866</v>
       </c>
-      <c r="E30" s="98">
+      <c r="E30" s="4">
         <f>E29*'IESS Annual Cap Costs'!E32/'IESS Annual Cap Costs'!E31</f>
         <v>1760413.5958606442</v>
       </c>
-      <c r="F30" s="125">
-        <f t="shared" si="4"/>
-        <v>838891.50502844236</v>
-      </c>
-      <c r="G30" s="125">
-        <f t="shared" si="5"/>
-        <v>768983.87960940553</v>
-      </c>
+      <c r="F30" s="125"/>
+      <c r="G30" s="125"/>
       <c r="H30" s="98">
         <f>H29*'IESS Annual Cap Costs'!H32/'IESS Annual Cap Costs'!H31</f>
         <v>3116612.8484501955</v>
@@ -15744,10 +15762,7 @@
         <f>B30*'Coal Cost Multipliers'!$B$33</f>
         <v>2487075.3712248709</v>
       </c>
-      <c r="N30" s="125">
-        <f t="shared" si="6"/>
-        <v>2839145.5176191349</v>
-      </c>
+      <c r="N30" s="125"/>
       <c r="O30" s="98">
         <f t="shared" si="0"/>
         <v>651000</v>
@@ -15761,7 +15776,7 @@
         <v>2450246.4853021726</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="97">
         <v>2047</v>
       </c>
@@ -15777,18 +15792,12 @@
         <f>D30*'IESS Annual Cap Costs'!D33/'IESS Annual Cap Costs'!D32</f>
         <v>2034728.7355596379</v>
       </c>
-      <c r="E31" s="98">
+      <c r="E31" s="4">
         <f>E30*'IESS Annual Cap Costs'!E33/'IESS Annual Cap Costs'!E32</f>
         <v>1759698.5839633422</v>
       </c>
-      <c r="F31" s="125">
-        <f t="shared" si="4"/>
-        <v>838891.50502844236</v>
-      </c>
-      <c r="G31" s="125">
-        <f t="shared" si="5"/>
-        <v>768983.87960940553</v>
-      </c>
+      <c r="F31" s="125"/>
+      <c r="G31" s="125"/>
       <c r="H31" s="98">
         <f>H30*'IESS Annual Cap Costs'!H33/'IESS Annual Cap Costs'!H32</f>
         <v>3109724.2662549964</v>
@@ -15813,10 +15822,7 @@
         <f>B31*'Coal Cost Multipliers'!$B$33</f>
         <v>2560320.7270065029</v>
       </c>
-      <c r="N31" s="125">
-        <f t="shared" si="6"/>
-        <v>2839145.5176191349</v>
-      </c>
+      <c r="N31" s="125"/>
       <c r="O31" s="98">
         <f t="shared" si="0"/>
         <v>651000</v>
@@ -15830,7 +15836,7 @@
         <v>2433448.9684133651</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="97">
         <v>2048</v>
       </c>
@@ -15846,18 +15852,12 @@
         <f>D31*'IESS Annual Cap Costs'!D34/'IESS Annual Cap Costs'!D33</f>
         <v>1987265.3898149885</v>
       </c>
-      <c r="E32" s="98">
+      <c r="E32" s="4">
         <f>E31*'IESS Annual Cap Costs'!E34/'IESS Annual Cap Costs'!E33</f>
         <v>1758983.5720660398</v>
       </c>
-      <c r="F32" s="125">
-        <f t="shared" si="4"/>
-        <v>838891.50502844236</v>
-      </c>
-      <c r="G32" s="125">
-        <f t="shared" si="5"/>
-        <v>768983.87960940553</v>
-      </c>
+      <c r="F32" s="125"/>
+      <c r="G32" s="125"/>
       <c r="H32" s="98">
         <f>H31*'IESS Annual Cap Costs'!H34/'IESS Annual Cap Costs'!H33</f>
         <v>3102835.6840597987</v>
@@ -15882,10 +15882,7 @@
         <f>B32*'Coal Cost Multipliers'!$B$33</f>
         <v>2633566.0827881349</v>
       </c>
-      <c r="N32" s="125">
-        <f t="shared" si="6"/>
-        <v>2839145.5176191349</v>
-      </c>
+      <c r="N32" s="125"/>
       <c r="O32" s="98">
         <f t="shared" si="0"/>
         <v>651000</v>
@@ -15899,7 +15896,7 @@
         <v>2416651.4515245557</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="97">
         <v>2049</v>
       </c>
@@ -15915,18 +15912,12 @@
         <f>D32*'IESS Annual Cap Costs'!D35/'IESS Annual Cap Costs'!D34</f>
         <v>1939802.0440703391</v>
       </c>
-      <c r="E33" s="98">
+      <c r="E33" s="4">
         <f>E32*'IESS Annual Cap Costs'!E35/'IESS Annual Cap Costs'!E34</f>
         <v>1758268.5601687375</v>
       </c>
-      <c r="F33" s="125">
-        <f t="shared" si="4"/>
-        <v>838891.50502844236</v>
-      </c>
-      <c r="G33" s="125">
-        <f t="shared" si="5"/>
-        <v>768983.87960940553</v>
-      </c>
+      <c r="F33" s="125"/>
+      <c r="G33" s="125"/>
       <c r="H33" s="98">
         <f>H32*'IESS Annual Cap Costs'!H35/'IESS Annual Cap Costs'!H34</f>
         <v>3095947.1018646006</v>
@@ -15951,10 +15942,7 @@
         <f>B33*'Coal Cost Multipliers'!$B$33</f>
         <v>2706811.4385697669</v>
       </c>
-      <c r="N33" s="125">
-        <f t="shared" si="6"/>
-        <v>2839145.5176191349</v>
-      </c>
+      <c r="N33" s="125"/>
       <c r="O33" s="98">
         <f t="shared" si="0"/>
         <v>651000</v>
@@ -15968,7 +15956,7 @@
         <v>2399853.9346357509</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="97">
         <v>2050</v>
       </c>
@@ -15984,18 +15972,12 @@
         <f>D33*'IESS Annual Cap Costs'!D36/'IESS Annual Cap Costs'!D35</f>
         <v>1892338.6983256896</v>
       </c>
-      <c r="E34" s="98">
+      <c r="E34" s="4">
         <f>E33*'IESS Annual Cap Costs'!E36/'IESS Annual Cap Costs'!E35</f>
         <v>1757553.5482714351</v>
       </c>
-      <c r="F34" s="125">
-        <f t="shared" si="4"/>
-        <v>838891.50502844236</v>
-      </c>
-      <c r="G34" s="125">
-        <f t="shared" si="5"/>
-        <v>768983.87960940553</v>
-      </c>
+      <c r="F34" s="125"/>
+      <c r="G34" s="125"/>
       <c r="H34" s="98">
         <f>H33*'IESS Annual Cap Costs'!H36/'IESS Annual Cap Costs'!H35</f>
         <v>3089058.5196694024</v>
@@ -16020,10 +16002,7 @@
         <f>B34*'Coal Cost Multipliers'!$B$33</f>
         <v>2780056.7943513985</v>
       </c>
-      <c r="N34" s="125">
-        <f t="shared" si="6"/>
-        <v>2839145.5176191349</v>
-      </c>
+      <c r="N34" s="125"/>
       <c r="O34" s="98">
         <f t="shared" si="0"/>
         <v>651000</v>
@@ -16037,43 +16016,43 @@
         <v>2383056.4177469388</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B35" s="99"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B36" s="99"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B37" s="99"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B38" s="99"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B39" s="99"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B40" s="99"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B41" s="99"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B42" s="99"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B43" s="99"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B44" s="99"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B45" s="99"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B46" s="99"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B47" s="99"/>
     </row>
   </sheetData>
@@ -16081,8 +16060,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -16090,15 +16069,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.265625" customWidth="1"/>
-    <col min="2" max="2" width="23.1328125" customWidth="1"/>
-    <col min="3" max="3" width="28.59765625" customWidth="1"/>
-    <col min="4" max="4" width="23.1328125" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>72</v>
       </c>
@@ -16112,7 +16091,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>14</v>
       </c>
@@ -16128,7 +16107,7 @@
         <v>36675.000000000007</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>17</v>
       </c>
@@ -16144,7 +16123,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>19</v>
       </c>
@@ -16160,7 +16139,7 @@
         <v>97650</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>23</v>
       </c>
@@ -16175,7 +16154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>24</v>
       </c>
@@ -16191,7 +16170,7 @@
         <v>25200</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>27</v>
       </c>
@@ -16207,7 +16186,7 @@
         <v>8100</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>26</v>
       </c>
@@ -16223,7 +16202,7 @@
         <v>67500</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>20</v>
       </c>
@@ -16239,7 +16218,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>21</v>
       </c>
@@ -16254,7 +16233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>74</v>
       </c>
@@ -16270,7 +16249,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>18</v>
       </c>
@@ -16286,7 +16265,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>75</v>
       </c>
@@ -16303,7 +16282,7 @@
         <v>36675.000000000007</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>25</v>
       </c>
@@ -16319,7 +16298,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>195</v>
       </c>
@@ -16336,7 +16315,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>196</v>
       </c>
@@ -16353,7 +16332,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>197</v>
       </c>
@@ -16375,25 +16354,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.265625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" style="20" customWidth="1"/>
     <col min="2" max="4" width="24" style="20" customWidth="1"/>
-    <col min="5" max="16384" width="9.1328125" style="20"/>
+    <col min="5" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>76</v>
       </c>
@@ -16407,7 +16386,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>71</v>
       </c>
@@ -16423,7 +16402,7 @@
         <v>2.4750000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>17</v>
       </c>
@@ -16439,7 +16418,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>19</v>
       </c>
@@ -16455,7 +16434,7 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>23</v>
       </c>
@@ -16471,7 +16450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>24</v>
       </c>
@@ -16487,7 +16466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>27</v>
       </c>
@@ -16503,7 +16482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>26</v>
       </c>
@@ -16519,7 +16498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>20</v>
       </c>
@@ -16535,7 +16514,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>21</v>
       </c>
@@ -16551,7 +16530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>74</v>
       </c>
@@ -16567,7 +16546,7 @@
         <v>4.2750000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>18</v>
       </c>
@@ -16583,7 +16562,7 @@
         <v>4.2750000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>75</v>
       </c>
@@ -16600,7 +16579,7 @@
         <v>4.1929411764705886</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>25</v>
       </c>
@@ -16616,7 +16595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>195</v>
       </c>
@@ -16633,7 +16612,7 @@
         <v>4.2750000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>196</v>
       </c>
@@ -16650,7 +16629,7 @@
         <v>4.2750000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>197</v>
       </c>
@@ -16672,31 +16651,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AH17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:AH10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.1328125" customWidth="1"/>
-    <col min="2" max="2" width="9.73046875" style="20" customWidth="1"/>
-    <col min="4" max="4" width="10.59765625" customWidth="1"/>
-    <col min="5" max="5" width="11.3984375" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="20" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="11.73046875" customWidth="1"/>
-    <col min="9" max="9" width="10.86328125" customWidth="1"/>
-    <col min="10" max="10" width="10.3984375" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="91" t="s">
         <v>233</v>
       </c>
@@ -16800,7 +16779,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>151</v>
       </c>
@@ -16905,7 +16884,7 @@
         <v>2398787.9650966311</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>234</v>
       </c>
@@ -17010,7 +16989,7 @@
         <v>922045.43676152243</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>235</v>
       </c>
@@ -17115,15 +17094,15 @@
         <v>1892338.6983256896</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B5" s="43">
+      <c r="B5" s="101">
         <f t="array" ref="B5:AH5">TRANSPOSE('CCaMC-BCCpUC_old'!E2:E34)</f>
         <v>1454078.6087159668</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="98">
         <v>1510004.7090511965</v>
       </c>
       <c r="D5" s="4">
@@ -17220,217 +17199,219 @@
         <v>1757553.5482714351</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B6" s="1">
-        <f t="array" ref="B6:AH6">TRANSPOSE('CCaMC-BCCpUC_old'!F2:F34)</f>
-        <v>838891.50502844236</v>
+      <c r="B6" s="127">
+        <f>'CCaMC-BCCpUC_old'!F2</f>
+        <v>872966.20775969967</v>
       </c>
       <c r="C6" s="19">
-        <v>838891.50502844236</v>
+        <f>B6</f>
+        <v>872966.20775969967</v>
       </c>
       <c r="D6" s="4">
-        <v>838891.50502844236</v>
+        <v>0</v>
       </c>
       <c r="E6" s="4">
-        <v>838891.50502844236</v>
+        <v>0</v>
       </c>
       <c r="F6" s="4">
-        <v>838891.50502844236</v>
+        <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>838891.50502844236</v>
+        <v>0</v>
       </c>
       <c r="H6" s="4">
-        <v>838891.50502844236</v>
+        <v>0</v>
       </c>
       <c r="I6" s="4">
-        <v>838891.50502844236</v>
+        <v>0</v>
       </c>
       <c r="J6" s="4">
-        <v>838891.50502844236</v>
+        <v>0</v>
       </c>
       <c r="K6" s="4">
-        <v>838891.50502844236</v>
+        <v>0</v>
       </c>
       <c r="L6" s="4">
-        <v>838891.50502844236</v>
+        <v>0</v>
       </c>
       <c r="M6" s="4">
-        <v>838891.50502844236</v>
+        <v>0</v>
       </c>
       <c r="N6" s="4">
-        <v>838891.50502844236</v>
+        <v>0</v>
       </c>
       <c r="O6" s="4">
-        <v>838891.50502844236</v>
+        <v>0</v>
       </c>
       <c r="P6" s="4">
-        <v>838891.50502844236</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="4">
-        <v>838891.50502844236</v>
+        <v>0</v>
       </c>
       <c r="R6" s="4">
-        <v>838891.50502844236</v>
+        <v>0</v>
       </c>
       <c r="S6" s="4">
-        <v>838891.50502844236</v>
+        <v>0</v>
       </c>
       <c r="T6" s="4">
-        <v>838891.50502844236</v>
+        <v>0</v>
       </c>
       <c r="U6" s="4">
-        <v>838891.50502844236</v>
+        <v>0</v>
       </c>
       <c r="V6" s="4">
-        <v>838891.50502844236</v>
+        <v>0</v>
       </c>
       <c r="W6" s="4">
-        <v>838891.50502844236</v>
+        <v>0</v>
       </c>
       <c r="X6" s="4">
-        <v>838891.50502844236</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="4">
-        <v>838891.50502844236</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="4">
-        <v>838891.50502844236</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="4">
-        <v>838891.50502844236</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="4">
-        <v>838891.50502844236</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="4">
-        <v>838891.50502844236</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="4">
-        <v>838891.50502844236</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="4">
-        <v>838891.50502844236</v>
+        <v>0</v>
       </c>
       <c r="AF6" s="4">
-        <v>838891.50502844236</v>
+        <v>0</v>
       </c>
       <c r="AG6" s="4">
-        <v>838891.50502844236</v>
+        <v>0</v>
       </c>
       <c r="AH6" s="4">
-        <v>838891.50502844236</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B7" s="1">
-        <f t="array" ref="B7:AH7">TRANSPOSE('CCaMC-BCCpUC_old'!G2:G34)</f>
-        <v>768983.87960940553</v>
+      <c r="B7" s="127">
+        <f>'CCaMC-BCCpUC_old'!G2</f>
+        <v>800219.02377972472</v>
       </c>
       <c r="C7" s="19">
-        <v>768983.87960940553</v>
+        <f>B7</f>
+        <v>800219.02377972472</v>
       </c>
       <c r="D7" s="4">
-        <v>768983.87960940553</v>
+        <v>0</v>
       </c>
       <c r="E7" s="4">
-        <v>768983.87960940553</v>
+        <v>0</v>
       </c>
       <c r="F7" s="4">
-        <v>768983.87960940553</v>
+        <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>768983.87960940553</v>
+        <v>0</v>
       </c>
       <c r="H7" s="4">
-        <v>768983.87960940553</v>
+        <v>0</v>
       </c>
       <c r="I7" s="4">
-        <v>768983.87960940553</v>
+        <v>0</v>
       </c>
       <c r="J7" s="4">
-        <v>768983.87960940553</v>
+        <v>0</v>
       </c>
       <c r="K7" s="4">
-        <v>768983.87960940553</v>
+        <v>0</v>
       </c>
       <c r="L7" s="4">
-        <v>768983.87960940553</v>
+        <v>0</v>
       </c>
       <c r="M7" s="4">
-        <v>768983.87960940553</v>
+        <v>0</v>
       </c>
       <c r="N7" s="4">
-        <v>768983.87960940553</v>
+        <v>0</v>
       </c>
       <c r="O7" s="4">
-        <v>768983.87960940553</v>
+        <v>0</v>
       </c>
       <c r="P7" s="4">
-        <v>768983.87960940553</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="4">
-        <v>768983.87960940553</v>
+        <v>0</v>
       </c>
       <c r="R7" s="4">
-        <v>768983.87960940553</v>
+        <v>0</v>
       </c>
       <c r="S7" s="4">
-        <v>768983.87960940553</v>
+        <v>0</v>
       </c>
       <c r="T7" s="4">
-        <v>768983.87960940553</v>
+        <v>0</v>
       </c>
       <c r="U7" s="4">
-        <v>768983.87960940553</v>
+        <v>0</v>
       </c>
       <c r="V7" s="4">
-        <v>768983.87960940553</v>
+        <v>0</v>
       </c>
       <c r="W7" s="4">
-        <v>768983.87960940553</v>
+        <v>0</v>
       </c>
       <c r="X7" s="4">
-        <v>768983.87960940553</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="4">
-        <v>768983.87960940553</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="4">
-        <v>768983.87960940553</v>
+        <v>0</v>
       </c>
       <c r="AA7" s="4">
-        <v>768983.87960940553</v>
+        <v>0</v>
       </c>
       <c r="AB7" s="4">
-        <v>768983.87960940553</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="4">
-        <v>768983.87960940553</v>
+        <v>0</v>
       </c>
       <c r="AD7" s="4">
-        <v>768983.87960940553</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="4">
-        <v>768983.87960940553</v>
+        <v>0</v>
       </c>
       <c r="AF7" s="4">
-        <v>768983.87960940553</v>
+        <v>0</v>
       </c>
       <c r="AG7" s="4">
-        <v>768983.87960940553</v>
+        <v>0</v>
       </c>
       <c r="AH7" s="4">
-        <v>768983.87960940553</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>239</v>
       </c>
@@ -17535,7 +17516,7 @@
         <v>3089058.5196694024</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>240</v>
       </c>
@@ -17640,7 +17621,7 @@
         <v>796946.92977702012</v>
       </c>
     </row>
-    <row r="10" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -17777,7 +17758,7 @@
         <v>1757553.5482714351</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>241</v>
       </c>
@@ -17882,7 +17863,7 @@
         <v>651000</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>242</v>
       </c>
@@ -17987,7 +17968,7 @@
         <v>651000</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>243</v>
       </c>
@@ -18092,112 +18073,113 @@
         <v>2780056.7943513985</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B14" s="1">
-        <f t="array" ref="B14:AH14">TRANSPOSE('CCaMC-BCCpUC_old'!N2:N34)</f>
+      <c r="B14" s="127">
+        <f>'CCaMC-BCCpUC_old'!N2</f>
         <v>2839145.5176191349</v>
       </c>
       <c r="C14" s="19">
+        <f>B14</f>
         <v>2839145.5176191349</v>
       </c>
       <c r="D14" s="4">
-        <v>2839145.5176191349</v>
+        <v>0</v>
       </c>
       <c r="E14" s="4">
-        <v>2839145.5176191349</v>
+        <v>0</v>
       </c>
       <c r="F14" s="4">
-        <v>2839145.5176191349</v>
+        <v>0</v>
       </c>
       <c r="G14" s="4">
-        <v>2839145.5176191349</v>
+        <v>0</v>
       </c>
       <c r="H14" s="4">
-        <v>2839145.5176191349</v>
+        <v>0</v>
       </c>
       <c r="I14" s="4">
-        <v>2839145.5176191349</v>
+        <v>0</v>
       </c>
       <c r="J14" s="4">
-        <v>2839145.5176191349</v>
+        <v>0</v>
       </c>
       <c r="K14" s="4">
-        <v>2839145.5176191349</v>
+        <v>0</v>
       </c>
       <c r="L14" s="4">
-        <v>2839145.5176191349</v>
+        <v>0</v>
       </c>
       <c r="M14" s="4">
-        <v>2839145.5176191349</v>
+        <v>0</v>
       </c>
       <c r="N14" s="4">
-        <v>2839145.5176191349</v>
+        <v>0</v>
       </c>
       <c r="O14" s="4">
-        <v>2839145.5176191349</v>
+        <v>0</v>
       </c>
       <c r="P14" s="4">
-        <v>2839145.5176191349</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="4">
-        <v>2839145.5176191349</v>
+        <v>0</v>
       </c>
       <c r="R14" s="4">
-        <v>2839145.5176191349</v>
+        <v>0</v>
       </c>
       <c r="S14" s="4">
-        <v>2839145.5176191349</v>
+        <v>0</v>
       </c>
       <c r="T14" s="4">
-        <v>2839145.5176191349</v>
+        <v>0</v>
       </c>
       <c r="U14" s="4">
-        <v>2839145.5176191349</v>
+        <v>0</v>
       </c>
       <c r="V14" s="4">
-        <v>2839145.5176191349</v>
+        <v>0</v>
       </c>
       <c r="W14" s="4">
-        <v>2839145.5176191349</v>
+        <v>0</v>
       </c>
       <c r="X14" s="4">
-        <v>2839145.5176191349</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="4">
-        <v>2839145.5176191349</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="4">
-        <v>2839145.5176191349</v>
+        <v>0</v>
       </c>
       <c r="AA14" s="4">
-        <v>2839145.5176191349</v>
+        <v>0</v>
       </c>
       <c r="AB14" s="4">
-        <v>2839145.5176191349</v>
+        <v>0</v>
       </c>
       <c r="AC14" s="4">
-        <v>2839145.5176191349</v>
+        <v>0</v>
       </c>
       <c r="AD14" s="4">
-        <v>2839145.5176191349</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="4">
-        <v>2839145.5176191349</v>
+        <v>0</v>
       </c>
       <c r="AF14" s="4">
-        <v>2839145.5176191349</v>
+        <v>0</v>
       </c>
       <c r="AG14" s="4">
-        <v>2839145.5176191349</v>
+        <v>0</v>
       </c>
       <c r="AH14" s="4">
-        <v>2839145.5176191349</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="92" t="s">
         <v>245</v>
       </c>
@@ -18302,7 +18284,7 @@
         <v>651000</v>
       </c>
     </row>
-    <row r="16" spans="1:34" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="92" t="s">
         <v>246</v>
       </c>
@@ -18407,7 +18389,7 @@
         <v>651000</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="92" t="s">
         <v>247</v>
       </c>
@@ -18518,24 +18500,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AH20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.73046875" customWidth="1"/>
-    <col min="2" max="2" width="9.1328125" style="20"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="91" t="s">
         <v>233</v>
       </c>
@@ -18639,7 +18621,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="51" t="s">
         <v>248</v>
       </c>
@@ -18743,7 +18725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="51" t="s">
         <v>249</v>
       </c>
@@ -18847,7 +18829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="51" t="s">
         <v>250</v>
       </c>
@@ -18951,7 +18933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="51" t="s">
         <v>251</v>
       </c>
@@ -19055,281 +19037,281 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>237</v>
       </c>
       <c r="B6" s="4">
-        <f>TREND('Start Year Soft Cost Data'!$A$19:$B$19,'Start Year Soft Cost Data'!$A$18:$B$18,'CCaMC-BSCpUC'!B1)*'CCaMC-BCCpUC'!$B$6</f>
-        <v>202732.11371520656</v>
+        <f>'Start Year Soft Cost Data'!$A$19*'CCaMC-BCCpUC'!$B6</f>
+        <v>209511.88986232792</v>
       </c>
       <c r="C6" s="4">
-        <f>TREND('Start Year Soft Cost Data'!$A$19:$B$19,'Start Year Soft Cost Data'!$A$18:$B$18,'CCaMC-BSCpUC'!C1)*'CCaMC-BCCpUC'!$B$6</f>
-        <v>201333.96120682597</v>
+        <f>B6</f>
+        <v>209511.88986232792</v>
       </c>
       <c r="D6" s="4">
-        <f>TREND('Start Year Soft Cost Data'!$A$19:$B$19,'Start Year Soft Cost Data'!$A$18:$B$18,'CCaMC-BSCpUC'!D1)*'CCaMC-BCCpUC'!$B$6</f>
-        <v>199935.80869844501</v>
+        <f t="shared" ref="D6:AH6" si="0">C6</f>
+        <v>209511.88986232792</v>
       </c>
       <c r="E6" s="4">
-        <f>TREND('Start Year Soft Cost Data'!$A$19:$B$19,'Start Year Soft Cost Data'!$A$18:$B$18,'CCaMC-BSCpUC'!E1)*'CCaMC-BCCpUC'!$B$6</f>
-        <v>198537.65619006444</v>
+        <f t="shared" si="0"/>
+        <v>209511.88986232792</v>
       </c>
       <c r="F6" s="4">
-        <f>TREND('Start Year Soft Cost Data'!$A$19:$B$19,'Start Year Soft Cost Data'!$A$18:$B$18,'CCaMC-BSCpUC'!F1)*'CCaMC-BCCpUC'!$B$6</f>
-        <v>197139.50368168385</v>
+        <f t="shared" si="0"/>
+        <v>209511.88986232792</v>
       </c>
       <c r="G6" s="4">
-        <f>TREND('Start Year Soft Cost Data'!$A$19:$B$19,'Start Year Soft Cost Data'!$A$18:$B$18,'CCaMC-BSCpUC'!G1)*'CCaMC-BCCpUC'!$B$6</f>
-        <v>195741.35117330289</v>
+        <f t="shared" si="0"/>
+        <v>209511.88986232792</v>
       </c>
       <c r="H6" s="4">
-        <f>TREND('Start Year Soft Cost Data'!$A$19:$B$19,'Start Year Soft Cost Data'!$A$18:$B$18,'CCaMC-BSCpUC'!H1)*'CCaMC-BCCpUC'!$B$6</f>
-        <v>194343.19866492233</v>
+        <f t="shared" si="0"/>
+        <v>209511.88986232792</v>
       </c>
       <c r="I6" s="4">
-        <f>TREND('Start Year Soft Cost Data'!$A$19:$B$19,'Start Year Soft Cost Data'!$A$18:$B$18,'CCaMC-BSCpUC'!I1)*'CCaMC-BCCpUC'!$B$6</f>
-        <v>192945.04615654136</v>
-      </c>
-      <c r="J6" s="126">
-        <f>TREND('Start Year Soft Cost Data'!$B$19:$C$19,'Start Year Soft Cost Data'!$B$18:$C$18,'CCaMC-BSCpUC'!J1)*'CCaMC-BCCpUC'!$B$6</f>
-        <v>186233.91411631231</v>
-      </c>
-      <c r="K6" s="126">
-        <f>TREND('Start Year Soft Cost Data'!$B$19:$C$19,'Start Year Soft Cost Data'!$B$18:$C$18,'CCaMC-BSCpUC'!K1)*'CCaMC-BCCpUC'!$B$6</f>
-        <v>179522.78207608551</v>
-      </c>
-      <c r="L6" s="126">
-        <f>TREND('Start Year Soft Cost Data'!$B$19:$C$19,'Start Year Soft Cost Data'!$B$18:$C$18,'CCaMC-BSCpUC'!L1)*'CCaMC-BCCpUC'!$B$6</f>
-        <v>172811.65003585871</v>
-      </c>
-      <c r="M6" s="126">
-        <f>TREND('Start Year Soft Cost Data'!$B$19:$C$19,'Start Year Soft Cost Data'!$B$18:$C$18,'CCaMC-BSCpUC'!M1)*'CCaMC-BCCpUC'!$B$6</f>
-        <v>166100.51799563193</v>
-      </c>
-      <c r="N6" s="126">
-        <f>TREND('Start Year Soft Cost Data'!$B$19:$C$19,'Start Year Soft Cost Data'!$B$18:$C$18,'CCaMC-BSCpUC'!N1)*'CCaMC-BCCpUC'!$B$6</f>
-        <v>159389.38595540213</v>
+        <f t="shared" si="0"/>
+        <v>209511.88986232792</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>209511.88986232792</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="0"/>
+        <v>209511.88986232792</v>
+      </c>
+      <c r="L6" s="4">
+        <f t="shared" si="0"/>
+        <v>209511.88986232792</v>
+      </c>
+      <c r="M6" s="4">
+        <f t="shared" si="0"/>
+        <v>209511.88986232792</v>
+      </c>
+      <c r="N6" s="4">
+        <f t="shared" si="0"/>
+        <v>209511.88986232792</v>
       </c>
       <c r="O6" s="4">
-        <f>TREND('Start Year Soft Cost Data'!$C$19:$D$19,'Start Year Soft Cost Data'!$C$18:$D$18,'CCaMC-BSCpUC'!O1)*'CCaMC-BCCpUC'!$B$6</f>
-        <v>156033.81993529023</v>
+        <f t="shared" si="0"/>
+        <v>209511.88986232792</v>
       </c>
       <c r="P6" s="4">
-        <f>TREND('Start Year Soft Cost Data'!$C$19:$D$19,'Start Year Soft Cost Data'!$C$18:$D$18,'CCaMC-BSCpUC'!P1)*'CCaMC-BCCpUC'!$B$6</f>
-        <v>152678.25391517684</v>
+        <f t="shared" si="0"/>
+        <v>209511.88986232792</v>
       </c>
       <c r="Q6" s="4">
-        <f>TREND('Start Year Soft Cost Data'!$C$19:$D$19,'Start Year Soft Cost Data'!$C$18:$D$18,'CCaMC-BSCpUC'!Q1)*'CCaMC-BCCpUC'!$B$6</f>
-        <v>149322.68789506343</v>
+        <f t="shared" si="0"/>
+        <v>209511.88986232792</v>
       </c>
       <c r="R6" s="4">
-        <f>TREND('Start Year Soft Cost Data'!$C$19:$D$19,'Start Year Soft Cost Data'!$C$18:$D$18,'CCaMC-BSCpUC'!R1)*'CCaMC-BCCpUC'!$B$6</f>
-        <v>145967.12187494856</v>
+        <f t="shared" si="0"/>
+        <v>209511.88986232792</v>
       </c>
       <c r="S6" s="4">
-        <f>TREND('Start Year Soft Cost Data'!$C$19:$D$19,'Start Year Soft Cost Data'!$C$18:$D$18,'CCaMC-BSCpUC'!S1)*'CCaMC-BCCpUC'!$B$6</f>
-        <v>142611.55585483514</v>
+        <f t="shared" si="0"/>
+        <v>209511.88986232792</v>
       </c>
       <c r="T6" s="4">
-        <f>TREND('Start Year Soft Cost Data'!$C$19:$D$19,'Start Year Soft Cost Data'!$C$18:$D$18,'CCaMC-BSCpUC'!T1)*'CCaMC-BCCpUC'!$B$6</f>
-        <v>139255.98983472175</v>
+        <f t="shared" si="0"/>
+        <v>209511.88986232792</v>
       </c>
       <c r="U6" s="4">
-        <f>TREND('Start Year Soft Cost Data'!$C$19:$D$19,'Start Year Soft Cost Data'!$C$18:$D$18,'CCaMC-BSCpUC'!U1)*'CCaMC-BCCpUC'!$B$6</f>
-        <v>135900.42381460834</v>
+        <f t="shared" si="0"/>
+        <v>209511.88986232792</v>
       </c>
       <c r="V6" s="4">
-        <f>TREND('Start Year Soft Cost Data'!$C$19:$D$19,'Start Year Soft Cost Data'!$C$18:$D$18,'CCaMC-BSCpUC'!V1)*'CCaMC-BCCpUC'!$B$6</f>
-        <v>132544.85779449347</v>
+        <f t="shared" si="0"/>
+        <v>209511.88986232792</v>
       </c>
       <c r="W6" s="4">
-        <f>TREND('Start Year Soft Cost Data'!$C$19:$D$19,'Start Year Soft Cost Data'!$C$18:$D$18,'CCaMC-BSCpUC'!W1)*'CCaMC-BCCpUC'!$B$6</f>
-        <v>129189.29177438005</v>
+        <f t="shared" si="0"/>
+        <v>209511.88986232792</v>
       </c>
       <c r="X6" s="4">
-        <f>TREND('Start Year Soft Cost Data'!$C$19:$D$19,'Start Year Soft Cost Data'!$C$18:$D$18,'CCaMC-BSCpUC'!X1)*'CCaMC-BCCpUC'!$B$6</f>
-        <v>125833.72575426665</v>
+        <f t="shared" si="0"/>
+        <v>209511.88986232792</v>
       </c>
       <c r="Y6" s="4">
-        <f>TREND('Start Year Soft Cost Data'!$C$19:$D$19,'Start Year Soft Cost Data'!$C$18:$D$18,'CCaMC-BSCpUC'!Y1)*'CCaMC-BCCpUC'!$B$6</f>
-        <v>122478.15973415325</v>
+        <f t="shared" si="0"/>
+        <v>209511.88986232792</v>
       </c>
       <c r="Z6" s="4">
-        <f>TREND('Start Year Soft Cost Data'!$C$19:$D$19,'Start Year Soft Cost Data'!$C$18:$D$18,'CCaMC-BSCpUC'!Z1)*'CCaMC-BCCpUC'!$B$6</f>
-        <v>119122.59371403836</v>
+        <f t="shared" si="0"/>
+        <v>209511.88986232792</v>
       </c>
       <c r="AA6" s="4">
-        <f>TREND('Start Year Soft Cost Data'!$C$19:$D$19,'Start Year Soft Cost Data'!$C$18:$D$18,'CCaMC-BSCpUC'!AA1)*'CCaMC-BCCpUC'!$B$6</f>
-        <v>115767.02769392496</v>
+        <f t="shared" si="0"/>
+        <v>209511.88986232792</v>
       </c>
       <c r="AB6" s="4">
-        <f>TREND('Start Year Soft Cost Data'!$C$19:$D$19,'Start Year Soft Cost Data'!$C$18:$D$18,'CCaMC-BSCpUC'!AB1)*'CCaMC-BCCpUC'!$B$6</f>
-        <v>112411.46167381156</v>
+        <f t="shared" si="0"/>
+        <v>209511.88986232792</v>
       </c>
       <c r="AC6" s="4">
-        <f>TREND('Start Year Soft Cost Data'!$C$19:$D$19,'Start Year Soft Cost Data'!$C$18:$D$18,'CCaMC-BSCpUC'!AC1)*'CCaMC-BCCpUC'!$B$6</f>
-        <v>109055.89565369816</v>
+        <f t="shared" si="0"/>
+        <v>209511.88986232792</v>
       </c>
       <c r="AD6" s="4">
-        <f>TREND('Start Year Soft Cost Data'!$C$19:$D$19,'Start Year Soft Cost Data'!$C$18:$D$18,'CCaMC-BSCpUC'!AD1)*'CCaMC-BCCpUC'!$B$6</f>
-        <v>105700.32963358327</v>
+        <f t="shared" si="0"/>
+        <v>209511.88986232792</v>
       </c>
       <c r="AE6" s="4">
-        <f>TREND('Start Year Soft Cost Data'!$C$19:$D$19,'Start Year Soft Cost Data'!$C$18:$D$18,'CCaMC-BSCpUC'!AE1)*'CCaMC-BCCpUC'!$B$6</f>
-        <v>102344.76361346987</v>
+        <f t="shared" si="0"/>
+        <v>209511.88986232792</v>
       </c>
       <c r="AF6" s="4">
-        <f>TREND('Start Year Soft Cost Data'!$C$19:$D$19,'Start Year Soft Cost Data'!$C$18:$D$18,'CCaMC-BSCpUC'!AF1)*'CCaMC-BCCpUC'!$B$6</f>
-        <v>98989.197593356468</v>
+        <f t="shared" si="0"/>
+        <v>209511.88986232792</v>
       </c>
       <c r="AG6" s="4">
-        <f>TREND('Start Year Soft Cost Data'!$C$19:$D$19,'Start Year Soft Cost Data'!$C$18:$D$18,'CCaMC-BSCpUC'!AG1)*'CCaMC-BCCpUC'!$B$6</f>
-        <v>95633.631573243067</v>
+        <f t="shared" si="0"/>
+        <v>209511.88986232792</v>
       </c>
       <c r="AH6" s="4">
-        <f>TREND('Start Year Soft Cost Data'!$C$19:$D$19,'Start Year Soft Cost Data'!$C$18:$D$18,'CCaMC-BSCpUC'!AH1)*'CCaMC-BCCpUC'!$B$6</f>
-        <v>92278.06555312968</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>209511.88986232792</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>238</v>
       </c>
       <c r="B7" s="4">
-        <f>TREND('Start Year Soft Cost Data'!$A$81:$B$81,'Start Year Soft Cost Data'!$A$80:$B$80,'CCaMC-BSCpUC'!B1)*'CCaMC-BCCpUC'!$B$7</f>
-        <v>271707.63746199006</v>
+        <f>'Start Year Soft Cost Data'!$A$19*'CCaMC-BCCpUC'!$B7</f>
+        <v>192052.56570713394</v>
       </c>
       <c r="C7" s="4">
-        <f>TREND('Start Year Soft Cost Data'!$A$81:$B$81,'Start Year Soft Cost Data'!$A$80:$B$80,'CCaMC-BSCpUC'!C1)*'CCaMC-BCCpUC'!$B$7</f>
-        <v>269144.35786329169</v>
+        <f>B7</f>
+        <v>192052.56570713394</v>
       </c>
       <c r="D7" s="4">
-        <f>TREND('Start Year Soft Cost Data'!$A$81:$B$81,'Start Year Soft Cost Data'!$A$80:$B$80,'CCaMC-BSCpUC'!D1)*'CCaMC-BCCpUC'!$B$7</f>
-        <v>266581.0782645939</v>
+        <f t="shared" ref="D7:AH7" si="1">C7</f>
+        <v>192052.56570713394</v>
       </c>
       <c r="E7" s="4">
-        <f>TREND('Start Year Soft Cost Data'!$A$81:$B$81,'Start Year Soft Cost Data'!$A$80:$B$80,'CCaMC-BSCpUC'!E1)*'CCaMC-BCCpUC'!$B$7</f>
-        <v>264017.79866589617</v>
+        <f t="shared" si="1"/>
+        <v>192052.56570713394</v>
       </c>
       <c r="F7" s="4">
-        <f>TREND('Start Year Soft Cost Data'!$A$81:$B$81,'Start Year Soft Cost Data'!$A$80:$B$80,'CCaMC-BSCpUC'!F1)*'CCaMC-BCCpUC'!$B$7</f>
-        <v>261454.51906719778</v>
-      </c>
-      <c r="G7" s="128">
-        <f>TREND('Start Year Soft Cost Data'!$B$81:$C$81,'Start Year Soft Cost Data'!$B$80:$C$80,'CCaMC-BSCpUC'!G1)*'CCaMC-BCCpUC'!$B$7</f>
-        <v>251201.4006724041</v>
-      </c>
-      <c r="H7" s="128">
-        <f>TREND('Start Year Soft Cost Data'!$B$81:$C$81,'Start Year Soft Cost Data'!$B$80:$C$80,'CCaMC-BSCpUC'!H1)*'CCaMC-BCCpUC'!$B$7</f>
-        <v>240948.28227761315</v>
-      </c>
-      <c r="I7" s="128">
-        <f>TREND('Start Year Soft Cost Data'!$B$81:$C$81,'Start Year Soft Cost Data'!$B$80:$C$80,'CCaMC-BSCpUC'!I1)*'CCaMC-BCCpUC'!$B$7</f>
-        <v>230695.16388282221</v>
-      </c>
-      <c r="J7" s="98">
-        <f>TREND('Start Year Soft Cost Data'!$C$81:$D$81,'Start Year Soft Cost Data'!$C$80:$D$80,'CCaMC-BSCpUC'!J1)*'CCaMC-BCCpUC'!$B$7</f>
-        <v>215315.48629063444</v>
-      </c>
-      <c r="K7" s="98">
-        <f>TREND('Start Year Soft Cost Data'!$C$81:$D$81,'Start Year Soft Cost Data'!$C$80:$D$80,'CCaMC-BSCpUC'!K1)*'CCaMC-BCCpUC'!$B$7</f>
-        <v>199935.80869844937</v>
-      </c>
-      <c r="L7" s="98">
-        <f>TREND('Start Year Soft Cost Data'!$C$81:$D$81,'Start Year Soft Cost Data'!$C$80:$D$80,'CCaMC-BSCpUC'!L1)*'CCaMC-BCCpUC'!$B$7</f>
-        <v>184556.13110625886</v>
-      </c>
-      <c r="M7" s="98">
-        <f>TREND('Start Year Soft Cost Data'!$C$81:$D$81,'Start Year Soft Cost Data'!$C$80:$D$80,'CCaMC-BSCpUC'!M1)*'CCaMC-BCCpUC'!$B$7</f>
-        <v>169176.4535140738</v>
-      </c>
-      <c r="N7" s="98">
-        <f>TREND('Start Year Soft Cost Data'!$C$81:$D$81,'Start Year Soft Cost Data'!$C$80:$D$80,'CCaMC-BSCpUC'!N1)*'CCaMC-BCCpUC'!$B$7</f>
-        <v>153796.77592188329</v>
-      </c>
-      <c r="O7" s="128">
-        <f>TREND('Start Year Soft Cost Data'!$D$81:$E$81,'Start Year Soft Cost Data'!$D$80:$E$80,'CCaMC-BSCpUC'!O1)*'CCaMC-BCCpUC'!$B$7</f>
-        <v>154373.51383158815</v>
-      </c>
-      <c r="P7" s="128">
-        <f>TREND('Start Year Soft Cost Data'!$D$81:$E$81,'Start Year Soft Cost Data'!$D$80:$E$80,'CCaMC-BSCpUC'!P1)*'CCaMC-BCCpUC'!$B$7</f>
-        <v>154950.25174129521</v>
-      </c>
-      <c r="Q7" s="128">
-        <f>TREND('Start Year Soft Cost Data'!$D$81:$E$81,'Start Year Soft Cost Data'!$D$80:$E$80,'CCaMC-BSCpUC'!Q1)*'CCaMC-BCCpUC'!$B$7</f>
-        <v>155526.98965100231</v>
-      </c>
-      <c r="R7" s="128">
-        <f>TREND('Start Year Soft Cost Data'!$D$81:$E$81,'Start Year Soft Cost Data'!$D$80:$E$80,'CCaMC-BSCpUC'!R1)*'CCaMC-BCCpUC'!$B$7</f>
-        <v>156103.72756070938</v>
-      </c>
-      <c r="S7" s="128">
-        <f>TREND('Start Year Soft Cost Data'!$D$81:$E$81,'Start Year Soft Cost Data'!$D$80:$E$80,'CCaMC-BSCpUC'!S1)*'CCaMC-BCCpUC'!$B$7</f>
-        <v>156680.46547041644</v>
-      </c>
-      <c r="T7" s="128">
-        <f>TREND('Start Year Soft Cost Data'!$D$81:$E$81,'Start Year Soft Cost Data'!$D$80:$E$80,'CCaMC-BSCpUC'!T1)*'CCaMC-BCCpUC'!$B$7</f>
-        <v>157257.20338012354</v>
-      </c>
-      <c r="U7" s="128">
-        <f>TREND('Start Year Soft Cost Data'!$D$81:$E$81,'Start Year Soft Cost Data'!$D$80:$E$80,'CCaMC-BSCpUC'!U1)*'CCaMC-BCCpUC'!$B$7</f>
-        <v>157833.94128983043</v>
-      </c>
-      <c r="V7" s="128">
-        <f>TREND('Start Year Soft Cost Data'!$D$81:$E$81,'Start Year Soft Cost Data'!$D$80:$E$80,'CCaMC-BSCpUC'!V1)*'CCaMC-BCCpUC'!$B$7</f>
-        <v>158410.6791995375</v>
-      </c>
-      <c r="W7" s="128">
-        <f>TREND('Start Year Soft Cost Data'!$D$81:$E$81,'Start Year Soft Cost Data'!$D$80:$E$80,'CCaMC-BSCpUC'!W1)*'CCaMC-BCCpUC'!$B$7</f>
-        <v>158987.41710924459</v>
-      </c>
-      <c r="X7" s="128">
-        <f>TREND('Start Year Soft Cost Data'!$D$81:$E$81,'Start Year Soft Cost Data'!$D$80:$E$80,'CCaMC-BSCpUC'!X1)*'CCaMC-BCCpUC'!$B$7</f>
-        <v>159564.15501895166</v>
-      </c>
-      <c r="Y7" s="128">
-        <f>TREND('Start Year Soft Cost Data'!$D$81:$E$81,'Start Year Soft Cost Data'!$D$80:$E$80,'CCaMC-BSCpUC'!Y1)*'CCaMC-BCCpUC'!$B$7</f>
-        <v>160140.89292865872</v>
-      </c>
-      <c r="Z7" s="128">
-        <f>TREND('Start Year Soft Cost Data'!$D$81:$E$81,'Start Year Soft Cost Data'!$D$80:$E$80,'CCaMC-BSCpUC'!Z1)*'CCaMC-BCCpUC'!$B$7</f>
-        <v>160717.63083836582</v>
-      </c>
-      <c r="AA7" s="128">
-        <f>TREND('Start Year Soft Cost Data'!$D$81:$E$81,'Start Year Soft Cost Data'!$D$80:$E$80,'CCaMC-BSCpUC'!AA1)*'CCaMC-BCCpUC'!$B$7</f>
-        <v>161294.36874807288</v>
-      </c>
-      <c r="AB7" s="128">
-        <f>TREND('Start Year Soft Cost Data'!$D$81:$E$81,'Start Year Soft Cost Data'!$D$80:$E$80,'CCaMC-BSCpUC'!AB1)*'CCaMC-BCCpUC'!$B$7</f>
-        <v>161871.10665777998</v>
-      </c>
-      <c r="AC7" s="128">
-        <f>TREND('Start Year Soft Cost Data'!$D$81:$E$81,'Start Year Soft Cost Data'!$D$80:$E$80,'CCaMC-BSCpUC'!AC1)*'CCaMC-BCCpUC'!$B$7</f>
-        <v>162447.84456748687</v>
-      </c>
-      <c r="AD7" s="128">
-        <f>TREND('Start Year Soft Cost Data'!$D$81:$E$81,'Start Year Soft Cost Data'!$D$80:$E$80,'CCaMC-BSCpUC'!AD1)*'CCaMC-BCCpUC'!$B$7</f>
-        <v>163024.58247719394</v>
-      </c>
-      <c r="AE7" s="128">
-        <f>TREND('Start Year Soft Cost Data'!$D$81:$E$81,'Start Year Soft Cost Data'!$D$80:$E$80,'CCaMC-BSCpUC'!AE1)*'CCaMC-BCCpUC'!$B$7</f>
-        <v>163601.32038690103</v>
-      </c>
-      <c r="AF7" s="128">
-        <f>TREND('Start Year Soft Cost Data'!$D$81:$E$81,'Start Year Soft Cost Data'!$D$80:$E$80,'CCaMC-BSCpUC'!AF1)*'CCaMC-BCCpUC'!$B$7</f>
-        <v>164178.0582966081</v>
-      </c>
-      <c r="AG7" s="128">
-        <f>TREND('Start Year Soft Cost Data'!$D$81:$E$81,'Start Year Soft Cost Data'!$D$80:$E$80,'CCaMC-BSCpUC'!AG1)*'CCaMC-BCCpUC'!$B$7</f>
-        <v>164754.79620631516</v>
-      </c>
-      <c r="AH7" s="128">
-        <f>TREND('Start Year Soft Cost Data'!$D$81:$E$81,'Start Year Soft Cost Data'!$D$80:$E$80,'CCaMC-BSCpUC'!AH1)*'CCaMC-BCCpUC'!$B$7</f>
-        <v>165331.53411602226</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.45">
+        <f t="shared" si="1"/>
+        <v>192052.56570713394</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="1"/>
+        <v>192052.56570713394</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="1"/>
+        <v>192052.56570713394</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="1"/>
+        <v>192052.56570713394</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="1"/>
+        <v>192052.56570713394</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="1"/>
+        <v>192052.56570713394</v>
+      </c>
+      <c r="L7" s="4">
+        <f t="shared" si="1"/>
+        <v>192052.56570713394</v>
+      </c>
+      <c r="M7" s="4">
+        <f t="shared" si="1"/>
+        <v>192052.56570713394</v>
+      </c>
+      <c r="N7" s="4">
+        <f t="shared" si="1"/>
+        <v>192052.56570713394</v>
+      </c>
+      <c r="O7" s="4">
+        <f t="shared" si="1"/>
+        <v>192052.56570713394</v>
+      </c>
+      <c r="P7" s="4">
+        <f t="shared" si="1"/>
+        <v>192052.56570713394</v>
+      </c>
+      <c r="Q7" s="4">
+        <f t="shared" si="1"/>
+        <v>192052.56570713394</v>
+      </c>
+      <c r="R7" s="4">
+        <f t="shared" si="1"/>
+        <v>192052.56570713394</v>
+      </c>
+      <c r="S7" s="4">
+        <f t="shared" si="1"/>
+        <v>192052.56570713394</v>
+      </c>
+      <c r="T7" s="4">
+        <f t="shared" si="1"/>
+        <v>192052.56570713394</v>
+      </c>
+      <c r="U7" s="4">
+        <f t="shared" si="1"/>
+        <v>192052.56570713394</v>
+      </c>
+      <c r="V7" s="4">
+        <f t="shared" si="1"/>
+        <v>192052.56570713394</v>
+      </c>
+      <c r="W7" s="4">
+        <f t="shared" si="1"/>
+        <v>192052.56570713394</v>
+      </c>
+      <c r="X7" s="4">
+        <f t="shared" si="1"/>
+        <v>192052.56570713394</v>
+      </c>
+      <c r="Y7" s="4">
+        <f t="shared" si="1"/>
+        <v>192052.56570713394</v>
+      </c>
+      <c r="Z7" s="4">
+        <f t="shared" si="1"/>
+        <v>192052.56570713394</v>
+      </c>
+      <c r="AA7" s="4">
+        <f t="shared" si="1"/>
+        <v>192052.56570713394</v>
+      </c>
+      <c r="AB7" s="4">
+        <f t="shared" si="1"/>
+        <v>192052.56570713394</v>
+      </c>
+      <c r="AC7" s="4">
+        <f t="shared" si="1"/>
+        <v>192052.56570713394</v>
+      </c>
+      <c r="AD7" s="4">
+        <f t="shared" si="1"/>
+        <v>192052.56570713394</v>
+      </c>
+      <c r="AE7" s="4">
+        <f t="shared" si="1"/>
+        <v>192052.56570713394</v>
+      </c>
+      <c r="AF7" s="4">
+        <f t="shared" si="1"/>
+        <v>192052.56570713394</v>
+      </c>
+      <c r="AG7" s="4">
+        <f t="shared" si="1"/>
+        <v>192052.56570713394</v>
+      </c>
+      <c r="AH7" s="4">
+        <f t="shared" si="1"/>
+        <v>192052.56570713394</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="51" t="s">
         <v>252</v>
       </c>
@@ -19433,7 +19415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="51" t="s">
         <v>253</v>
       </c>
@@ -19537,7 +19519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="51" t="s">
         <v>254</v>
       </c>
@@ -19641,7 +19623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="51" t="s">
         <v>255</v>
       </c>
@@ -19745,7 +19727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="51" t="s">
         <v>256</v>
       </c>
@@ -19849,7 +19831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="51" t="s">
         <v>257</v>
       </c>
@@ -19953,144 +19935,144 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>244</v>
       </c>
       <c r="B14" s="4">
-        <f>TREND('Start Year Soft Cost Data'!$A$67:$B$67,'Start Year Soft Cost Data'!$A$66:$B$66,'CCaMC-BSCpUC'!B1)*'CCaMC-BCCpUC'!$B$14</f>
-        <v>787626.28567951021</v>
+        <f>'Start Year Soft Cost Data'!$A$19*'CCaMC-BCCpUC'!$B14</f>
+        <v>681394.92422859231</v>
       </c>
       <c r="C14" s="4">
-        <f>TREND('Start Year Soft Cost Data'!$A$67:$B$67,'Start Year Soft Cost Data'!$A$66:$B$66,'CCaMC-BSCpUC'!C1)*'CCaMC-BCCpUC'!$B$14</f>
-        <v>705527.66112835484</v>
+        <f>B14</f>
+        <v>681394.92422859231</v>
       </c>
       <c r="D14" s="4">
-        <f>TREND('Start Year Soft Cost Data'!$A$67:$B$67,'Start Year Soft Cost Data'!$A$66:$B$66,'CCaMC-BSCpUC'!D1)*'CCaMC-BCCpUC'!$B$14</f>
-        <v>623429.03657719959</v>
+        <f t="shared" ref="D14:AH14" si="2">C14</f>
+        <v>681394.92422859231</v>
       </c>
       <c r="E14" s="4">
-        <f>TREND('Start Year Soft Cost Data'!$A$67:$B$67,'Start Year Soft Cost Data'!$A$66:$B$66,'CCaMC-BSCpUC'!E1)*'CCaMC-BCCpUC'!$B$14</f>
-        <v>541330.41202604421</v>
+        <f t="shared" si="2"/>
+        <v>681394.92422859231</v>
       </c>
       <c r="F14" s="4">
-        <f>TREND('Start Year Soft Cost Data'!$A$67:$B$67,'Start Year Soft Cost Data'!$A$66:$B$66,'CCaMC-BSCpUC'!F1)*'CCaMC-BCCpUC'!$B$14</f>
-        <v>459231.78747488896</v>
+        <f t="shared" si="2"/>
+        <v>681394.92422859231</v>
       </c>
       <c r="G14" s="4">
-        <f>TREND('Start Year Soft Cost Data'!$A$67:$B$67,'Start Year Soft Cost Data'!$A$66:$B$66,'CCaMC-BSCpUC'!G1)*'CCaMC-BCCpUC'!$B$14</f>
-        <v>377133.16292375379</v>
+        <f t="shared" si="2"/>
+        <v>681394.92422859231</v>
       </c>
       <c r="H14" s="4">
-        <f>TREND('Start Year Soft Cost Data'!$A$67:$B$67,'Start Year Soft Cost Data'!$A$66:$B$66,'CCaMC-BSCpUC'!H1)*'CCaMC-BCCpUC'!$B$14</f>
-        <v>295034.53837259847</v>
+        <f t="shared" si="2"/>
+        <v>681394.92422859231</v>
       </c>
       <c r="I14" s="4">
-        <f>TREND('Start Year Soft Cost Data'!$A$67:$B$67,'Start Year Soft Cost Data'!$A$66:$B$66,'CCaMC-BSCpUC'!I1)*'CCaMC-BCCpUC'!$B$14</f>
-        <v>212935.91382144319</v>
-      </c>
-      <c r="J14" s="128">
-        <f>TREND('Start Year Soft Cost Data'!$B$67:$C$67,'Start Year Soft Cost Data'!$B$66:$C$66,'CCaMC-BSCpUC'!J1)*'CCaMC-BCCpUC'!$B$14</f>
-        <v>195901.04071572269</v>
-      </c>
-      <c r="K14" s="128">
-        <f>TREND('Start Year Soft Cost Data'!$B$67:$C$67,'Start Year Soft Cost Data'!$B$66:$C$66,'CCaMC-BSCpUC'!K1)*'CCaMC-BCCpUC'!$B$14</f>
-        <v>178866.16761000722</v>
-      </c>
-      <c r="L14" s="128">
-        <f>TREND('Start Year Soft Cost Data'!$B$67:$C$67,'Start Year Soft Cost Data'!$B$66:$C$66,'CCaMC-BSCpUC'!L1)*'CCaMC-BCCpUC'!$B$14</f>
-        <v>161831.29450429179</v>
-      </c>
-      <c r="M14" s="128">
-        <f>TREND('Start Year Soft Cost Data'!$B$67:$C$67,'Start Year Soft Cost Data'!$B$66:$C$66,'CCaMC-BSCpUC'!M1)*'CCaMC-BCCpUC'!$B$14</f>
-        <v>144796.42139858135</v>
-      </c>
-      <c r="N14" s="128">
-        <f>TREND('Start Year Soft Cost Data'!$B$67:$C$67,'Start Year Soft Cost Data'!$B$66:$C$66,'CCaMC-BSCpUC'!N1)*'CCaMC-BCCpUC'!$B$14</f>
-        <v>127761.5482928659</v>
-      </c>
-      <c r="O14" s="127">
-        <f>TREND('Start Year Soft Cost Data'!$C$67:$D$67,'Start Year Soft Cost Data'!$C$66:$D$66,'CCaMC-BSCpUC'!O1)*'CCaMC-BCCpUC'!$B$14</f>
-        <v>113565.82070476297</v>
-      </c>
-      <c r="P14" s="127">
-        <f>TREND('Start Year Soft Cost Data'!$C$67:$D$67,'Start Year Soft Cost Data'!$C$66:$D$66,'CCaMC-BSCpUC'!P1)*'CCaMC-BCCpUC'!$B$14</f>
-        <v>99370.093116670119</v>
-      </c>
-      <c r="Q14" s="127">
-        <f>TREND('Start Year Soft Cost Data'!$C$67:$D$67,'Start Year Soft Cost Data'!$C$66:$D$66,'CCaMC-BSCpUC'!Q1)*'CCaMC-BCCpUC'!$B$14</f>
-        <v>85174.365528572234</v>
-      </c>
-      <c r="R14" s="127">
-        <f>TREND('Start Year Soft Cost Data'!$C$67:$D$67,'Start Year Soft Cost Data'!$C$66:$D$66,'CCaMC-BSCpUC'!R1)*'CCaMC-BCCpUC'!$B$14</f>
-        <v>70978.637940479384</v>
-      </c>
-      <c r="S14" s="127">
-        <f>TREND('Start Year Soft Cost Data'!$C$67:$D$67,'Start Year Soft Cost Data'!$C$66:$D$66,'CCaMC-BSCpUC'!S1)*'CCaMC-BCCpUC'!$B$14</f>
-        <v>56782.910352381485</v>
-      </c>
-      <c r="T14" s="128">
-        <f>TREND('Start Year Soft Cost Data'!$D$67:$E$67,'Start Year Soft Cost Data'!$D$66:$E$66,'CCaMC-BSCpUC'!T1)*'CCaMC-BCCpUC'!$B$14</f>
-        <v>65300.346905241735</v>
-      </c>
-      <c r="U14" s="128">
-        <f>TREND('Start Year Soft Cost Data'!$D$67:$E$67,'Start Year Soft Cost Data'!$D$66:$E$66,'CCaMC-BSCpUC'!U1)*'CCaMC-BCCpUC'!$B$14</f>
-        <v>73817.783458096936</v>
-      </c>
-      <c r="V14" s="128">
-        <f>TREND('Start Year Soft Cost Data'!$D$67:$E$67,'Start Year Soft Cost Data'!$D$66:$E$66,'CCaMC-BSCpUC'!V1)*'CCaMC-BCCpUC'!$B$14</f>
-        <v>82335.220010954668</v>
-      </c>
-      <c r="W14" s="128">
-        <f>TREND('Start Year Soft Cost Data'!$D$67:$E$67,'Start Year Soft Cost Data'!$D$66:$E$66,'CCaMC-BSCpUC'!W1)*'CCaMC-BCCpUC'!$B$14</f>
-        <v>90852.656563812401</v>
-      </c>
-      <c r="X14" s="128">
-        <f>TREND('Start Year Soft Cost Data'!$D$67:$E$67,'Start Year Soft Cost Data'!$D$66:$E$66,'CCaMC-BSCpUC'!X1)*'CCaMC-BCCpUC'!$B$14</f>
-        <v>99370.093116670119</v>
-      </c>
-      <c r="Y14" s="127">
-        <f>TREND('Start Year Soft Cost Data'!$E$67:$F$67,'Start Year Soft Cost Data'!$E$66:$F$66,'CCaMC-BSCpUC'!Y1)*'CCaMC-BCCpUC'!$B$14</f>
-        <v>103628.81139309899</v>
-      </c>
-      <c r="Z14" s="127">
-        <f>TREND('Start Year Soft Cost Data'!$E$67:$F$67,'Start Year Soft Cost Data'!$E$66:$F$66,'CCaMC-BSCpUC'!Z1)*'CCaMC-BCCpUC'!$B$14</f>
-        <v>107887.52966952785</v>
-      </c>
-      <c r="AA14" s="127">
-        <f>TREND('Start Year Soft Cost Data'!$E$67:$F$67,'Start Year Soft Cost Data'!$E$66:$F$66,'CCaMC-BSCpUC'!AA1)*'CCaMC-BCCpUC'!$B$14</f>
-        <v>112146.24794595671</v>
-      </c>
-      <c r="AB14" s="127">
-        <f>TREND('Start Year Soft Cost Data'!$E$67:$F$67,'Start Year Soft Cost Data'!$E$66:$F$66,'CCaMC-BSCpUC'!AB1)*'CCaMC-BCCpUC'!$B$14</f>
-        <v>116404.96622238558</v>
-      </c>
-      <c r="AC14" s="127">
-        <f>TREND('Start Year Soft Cost Data'!$E$67:$F$67,'Start Year Soft Cost Data'!$E$66:$F$66,'CCaMC-BSCpUC'!AC1)*'CCaMC-BCCpUC'!$B$14</f>
-        <v>120663.68449881318</v>
-      </c>
-      <c r="AD14" s="127">
-        <f>TREND('Start Year Soft Cost Data'!$E$67:$F$67,'Start Year Soft Cost Data'!$E$66:$F$66,'CCaMC-BSCpUC'!AD1)*'CCaMC-BCCpUC'!$B$14</f>
-        <v>124922.40277524205</v>
-      </c>
-      <c r="AE14" s="127">
-        <f>TREND('Start Year Soft Cost Data'!$E$67:$F$67,'Start Year Soft Cost Data'!$E$66:$F$66,'CCaMC-BSCpUC'!AE1)*'CCaMC-BCCpUC'!$B$14</f>
-        <v>129181.12105167091</v>
-      </c>
-      <c r="AF14" s="127">
-        <f>TREND('Start Year Soft Cost Data'!$E$67:$F$67,'Start Year Soft Cost Data'!$E$66:$F$66,'CCaMC-BSCpUC'!AF1)*'CCaMC-BCCpUC'!$B$14</f>
-        <v>133439.83932809977</v>
-      </c>
-      <c r="AG14" s="127">
-        <f>TREND('Start Year Soft Cost Data'!$E$67:$F$67,'Start Year Soft Cost Data'!$E$66:$F$66,'CCaMC-BSCpUC'!AG1)*'CCaMC-BCCpUC'!$B$14</f>
-        <v>137698.55760452864</v>
-      </c>
-      <c r="AH14" s="127">
-        <f>TREND('Start Year Soft Cost Data'!$E$67:$F$67,'Start Year Soft Cost Data'!$E$66:$F$66,'CCaMC-BSCpUC'!AH1)*'CCaMC-BCCpUC'!$B$14</f>
-        <v>141957.27588095749</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.45">
+        <f t="shared" si="2"/>
+        <v>681394.92422859231</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="2"/>
+        <v>681394.92422859231</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="2"/>
+        <v>681394.92422859231</v>
+      </c>
+      <c r="L14" s="4">
+        <f t="shared" si="2"/>
+        <v>681394.92422859231</v>
+      </c>
+      <c r="M14" s="4">
+        <f t="shared" si="2"/>
+        <v>681394.92422859231</v>
+      </c>
+      <c r="N14" s="4">
+        <f t="shared" si="2"/>
+        <v>681394.92422859231</v>
+      </c>
+      <c r="O14" s="4">
+        <f t="shared" si="2"/>
+        <v>681394.92422859231</v>
+      </c>
+      <c r="P14" s="4">
+        <f t="shared" si="2"/>
+        <v>681394.92422859231</v>
+      </c>
+      <c r="Q14" s="4">
+        <f t="shared" si="2"/>
+        <v>681394.92422859231</v>
+      </c>
+      <c r="R14" s="4">
+        <f t="shared" si="2"/>
+        <v>681394.92422859231</v>
+      </c>
+      <c r="S14" s="4">
+        <f t="shared" si="2"/>
+        <v>681394.92422859231</v>
+      </c>
+      <c r="T14" s="4">
+        <f t="shared" si="2"/>
+        <v>681394.92422859231</v>
+      </c>
+      <c r="U14" s="4">
+        <f t="shared" si="2"/>
+        <v>681394.92422859231</v>
+      </c>
+      <c r="V14" s="4">
+        <f t="shared" si="2"/>
+        <v>681394.92422859231</v>
+      </c>
+      <c r="W14" s="4">
+        <f t="shared" si="2"/>
+        <v>681394.92422859231</v>
+      </c>
+      <c r="X14" s="4">
+        <f t="shared" si="2"/>
+        <v>681394.92422859231</v>
+      </c>
+      <c r="Y14" s="4">
+        <f t="shared" si="2"/>
+        <v>681394.92422859231</v>
+      </c>
+      <c r="Z14" s="4">
+        <f t="shared" si="2"/>
+        <v>681394.92422859231</v>
+      </c>
+      <c r="AA14" s="4">
+        <f t="shared" si="2"/>
+        <v>681394.92422859231</v>
+      </c>
+      <c r="AB14" s="4">
+        <f t="shared" si="2"/>
+        <v>681394.92422859231</v>
+      </c>
+      <c r="AC14" s="4">
+        <f t="shared" si="2"/>
+        <v>681394.92422859231</v>
+      </c>
+      <c r="AD14" s="4">
+        <f t="shared" si="2"/>
+        <v>681394.92422859231</v>
+      </c>
+      <c r="AE14" s="4">
+        <f t="shared" si="2"/>
+        <v>681394.92422859231</v>
+      </c>
+      <c r="AF14" s="4">
+        <f t="shared" si="2"/>
+        <v>681394.92422859231</v>
+      </c>
+      <c r="AG14" s="4">
+        <f t="shared" si="2"/>
+        <v>681394.92422859231</v>
+      </c>
+      <c r="AH14" s="4">
+        <f t="shared" si="2"/>
+        <v>681394.92422859231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="51" t="s">
         <v>258</v>
       </c>
@@ -20194,7 +20176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="51" t="s">
         <v>259</v>
       </c>
@@ -20298,7 +20280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="51" t="s">
         <v>260</v>
       </c>
@@ -20402,7 +20384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C20" s="20"/>
     </row>
   </sheetData>
@@ -20411,33 +20393,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
         <v>2010</v>
       </c>
@@ -20446,7 +20428,7 @@
       </c>
       <c r="C4" s="20"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>2011</v>
       </c>
@@ -20455,7 +20437,7 @@
       </c>
       <c r="C5" s="20"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>2012</v>
       </c>
@@ -20464,7 +20446,7 @@
       </c>
       <c r="C6" s="20"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>2013</v>
       </c>
@@ -20473,7 +20455,7 @@
       </c>
       <c r="C7" s="20"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>2014</v>
       </c>
@@ -20482,7 +20464,7 @@
       </c>
       <c r="C8" s="20"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>2015</v>
       </c>
@@ -20491,7 +20473,7 @@
       </c>
       <c r="C9" s="20"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>2016</v>
       </c>
@@ -20500,7 +20482,7 @@
       </c>
       <c r="C10" s="20"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>2017</v>
       </c>
@@ -20509,7 +20491,7 @@
       </c>
       <c r="C11" s="20"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2018</v>
       </c>
@@ -20518,7 +20500,7 @@
       </c>
       <c r="C12" s="20"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2019</v>
       </c>
@@ -20527,62 +20509,62 @@
       </c>
       <c r="C13" s="20"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="20">
         <v>100000</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="20">
         <v>10000000</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
         <f>A19/A15</f>
         <v>100</v>
@@ -20590,17 +20572,17 @@
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="20"/>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>96</v>
       </c>
@@ -20609,7 +20591,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>28</v>
       </c>
@@ -20620,7 +20602,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="20">
         <v>2010</v>
       </c>
@@ -20632,7 +20614,7 @@
         <v>0.84470208721577789</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="20">
         <v>2011</v>
       </c>
@@ -20644,7 +20626,7 @@
         <v>0.8995232526760818</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="20">
         <v>2012</v>
       </c>
@@ -20655,7 +20637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="20">
         <v>2013</v>
       </c>
@@ -20667,7 +20649,7 @@
         <v>1.0912999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="20">
         <v>2014</v>
       </c>
@@ -20679,7 +20661,7 @@
         <v>1.1552501799999999</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="20">
         <v>2015</v>
       </c>
@@ -20691,7 +20673,7 @@
         <v>1.2282619913759998</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="20">
         <v>2016</v>
       </c>
@@ -20703,7 +20685,7 @@
         <v>1.2556522337836846</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="20">
         <v>2017</v>
       </c>
@@ -20715,7 +20697,7 @@
         <v>1.3058783231350322</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2018</v>
       </c>
@@ -20727,49 +20709,49 @@
         <v>1.3743063472673078</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="63">
         <v>0.93</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="63">
         <v>0.9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C26" r:id="rId1"/>
+    <hyperlink ref="C26" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
         <v>117</v>
       </c>
@@ -20782,7 +20764,7 @@
       <c r="H1" s="50"/>
       <c r="I1" s="50"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -20817,7 +20799,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -20843,7 +20825,7 @@
         <v>4.9345000000000007E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -20872,7 +20854,7 @@
         <v>6.535228698677871E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -20901,7 +20883,7 @@
         <v>7.2231475090650213E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -20930,7 +20912,7 @@
         <v>8.3410155759441301E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -20959,7 +20941,7 @@
         <v>0.125484989999745</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -20988,7 +20970,7 @@
         <v>7.2106249999999997E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -21017,7 +20999,7 @@
         <v>0.18243750000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -21053,7 +21035,7 @@
         <v>9.4500000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -21089,7 +21071,7 @@
         <v>6.3500000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>120</v>
       </c>
@@ -21118,7 +21100,7 @@
         <v>6.2199999999999991E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -21150,7 +21132,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -21183,7 +21165,7 @@
         <v>5.7500000000000002E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -21216,7 +21198,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -21242,7 +21224,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="50" t="s">
         <v>124</v>
       </c>
@@ -21255,7 +21237,7 @@
       <c r="H18" s="50"/>
       <c r="I18" s="50"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>115</v>
       </c>
@@ -21290,7 +21272,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>17</v>
       </c>
@@ -21324,7 +21306,7 @@
         <v>900949.42486762838</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>71</v>
       </c>
@@ -21360,7 +21342,7 @@
         <v>1193213.2004158974</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>71</v>
       </c>
@@ -21396,7 +21378,7 @@
         <v>1318814.5899333616</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>71</v>
       </c>
@@ -21432,7 +21414,7 @@
         <v>1522916.8478992386</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>71</v>
       </c>
@@ -21468,7 +21450,7 @@
         <v>2291126.346535421</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>19</v>
       </c>
@@ -21504,7 +21486,7 @@
         <v>1316528.2088734708</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
         <v>19</v>
       </c>
@@ -21540,7 +21522,7 @@
         <v>3330974.9863063726</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>23</v>
       </c>
@@ -21576,7 +21558,7 @@
         <v>1725397.1152090558</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>23</v>
       </c>
@@ -21612,7 +21594,7 @@
         <v>1159393.8287383604</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>120</v>
       </c>
@@ -21648,7 +21630,7 @@
         <v>1135658.2070476536</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
         <v>26</v>
       </c>
@@ -21684,7 +21666,7 @@
         <v>2730703.6811848823</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>24</v>
       </c>
@@ -21718,7 +21700,7 @@
         <v>1049844.8055504838</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
         <v>25</v>
       </c>
@@ -21752,7 +21734,7 @@
         <v>2483111.1922585354</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>20</v>
       </c>
@@ -21786,7 +21768,7 @@
         <v>821617.67390907416</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="51" t="s">
         <v>125</v>
       </c>
@@ -21799,7 +21781,7 @@
       <c r="H35" s="51"/>
       <c r="I35" s="51"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
         <v>115</v>
       </c>
@@ -21834,7 +21816,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>71</v>
       </c>
@@ -21863,7 +21845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
         <v>71</v>
       </c>
@@ -21892,7 +21874,7 @@
         <v>0.45366202535004463</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
         <v>71</v>
       </c>
@@ -21921,7 +21903,7 @@
         <v>1.814648101400179</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
         <v>71</v>
       </c>
@@ -21950,7 +21932,7 @@
         <v>2.2683101267502237</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
         <v>19</v>
       </c>
@@ -21979,7 +21961,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
         <v>19</v>
       </c>
@@ -22008,7 +21990,7 @@
         <v>0.21999999999999992</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
         <v>23</v>
       </c>
@@ -22037,7 +22019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
         <v>23</v>
       </c>
@@ -22066,7 +22048,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="51" t="s">
         <v>128</v>
       </c>
@@ -22079,7 +22061,7 @@
       <c r="H46" s="51"/>
       <c r="I46" s="20"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>101</v>
       </c>
@@ -22106,7 +22088,7 @@
       </c>
       <c r="I47" s="4"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>14</v>
       </c>
@@ -22139,7 +22121,7 @@
         <v>1886611.371420742</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
         <v>17</v>
       </c>
@@ -22172,7 +22154,7 @@
         <v>900949.42486762838</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>19</v>
       </c>
@@ -22205,7 +22187,7 @@
         <v>2131194.1850411883</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
         <v>23</v>
       </c>
@@ -22238,7 +22220,7 @@
         <v>1536729.3530521572</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>24</v>
       </c>
@@ -22271,7 +22253,7 @@
         <v>1049844.8055504838</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
         <v>27</v>
       </c>
@@ -22304,7 +22286,7 @@
         <v>1135658.2070476536</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>26</v>
       </c>
@@ -22337,7 +22319,7 @@
         <v>2730703.6811848823</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
         <v>20</v>
       </c>
@@ -22370,7 +22352,7 @@
         <v>821617.67390907416</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
         <v>21</v>
       </c>
@@ -22381,7 +22363,7 @@
       <c r="G56" s="20"/>
       <c r="H56" s="20"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="20" t="s">
         <v>74</v>
       </c>
@@ -22392,7 +22374,7 @@
       <c r="G57" s="20"/>
       <c r="H57" s="20"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="20" t="s">
         <v>18</v>
       </c>
@@ -22403,7 +22385,7 @@
       <c r="G58" s="20"/>
       <c r="H58" s="20"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="s">
         <v>75</v>
       </c>
@@ -22414,7 +22396,7 @@
       <c r="G59" s="20"/>
       <c r="H59" s="20"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
         <v>25</v>
       </c>
@@ -22453,17 +22435,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.3984375" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>27.5</v>
       </c>
@@ -22471,7 +22453,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <f>A1*'Conversion Factors'!A19/'Conversion Factors'!B6</f>
         <v>5020996.8961110096</v>
@@ -22480,7 +22462,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>131</v>
       </c>
@@ -22491,33 +22473,33 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="132" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="131" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="130" t="s">
+      <c r="B1" s="129" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="130"/>
-      <c r="D1" s="131"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="133"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="130"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="132"/>
       <c r="B2" s="52" t="s">
         <v>133</v>
       </c>
@@ -22528,7 +22510,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
         <v>14</v>
       </c>
@@ -22540,7 +22522,7 @@
         <v>40.75</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="54" t="s">
         <v>17</v>
       </c>
@@ -22552,7 +22534,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="54" t="s">
         <v>19</v>
       </c>
@@ -22564,7 +22546,7 @@
         <v>108.5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="54" t="s">
         <v>23</v>
       </c>
@@ -22572,7 +22554,7 @@
       <c r="C6" s="56"/>
       <c r="D6" s="57"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="54" t="s">
         <v>24</v>
       </c>
@@ -22584,7 +22566,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="54" t="s">
         <v>27</v>
       </c>
@@ -22596,7 +22578,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="54" t="s">
         <v>26</v>
       </c>
@@ -22608,7 +22590,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="s">
         <v>20</v>
       </c>
@@ -22623,7 +22605,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="54" t="s">
         <v>21</v>
       </c>
@@ -22635,7 +22617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="54" t="s">
         <v>74</v>
       </c>
@@ -22655,7 +22637,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
         <v>18</v>
       </c>
@@ -22669,7 +22651,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="54" t="s">
         <v>75</v>
       </c>
@@ -22686,7 +22668,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="58" t="s">
         <v>25</v>
       </c>
@@ -22698,19 +22680,19 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A17" s="132" t="s">
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="131" t="s">
         <v>101</v>
       </c>
-      <c r="B17" s="130" t="s">
+      <c r="B17" s="129" t="s">
         <v>136</v>
       </c>
-      <c r="C17" s="130"/>
-      <c r="D17" s="131"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A18" s="133"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="130"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="132"/>
       <c r="B18" s="52" t="s">
         <v>133</v>
       </c>
@@ -22721,7 +22703,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="54" t="s">
         <v>14</v>
       </c>
@@ -22735,7 +22717,7 @@
         <v>36.675000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="54" t="s">
         <v>17</v>
       </c>
@@ -22749,7 +22731,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="54" t="s">
         <v>19</v>
       </c>
@@ -22763,7 +22745,7 @@
         <v>97.65</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="54" t="s">
         <v>23</v>
       </c>
@@ -22777,7 +22759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="54" t="s">
         <v>24</v>
       </c>
@@ -22791,7 +22773,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="54" t="s">
         <v>27</v>
       </c>
@@ -22805,7 +22787,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="54" t="s">
         <v>26</v>
       </c>
@@ -22819,7 +22801,7 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="54" t="s">
         <v>20</v>
       </c>
@@ -22833,7 +22815,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="54" t="s">
         <v>21</v>
       </c>
@@ -22847,7 +22829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="54" t="s">
         <v>74</v>
       </c>
@@ -22864,7 +22846,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="54" t="s">
         <v>18</v>
       </c>
@@ -22881,7 +22863,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="54" t="s">
         <v>75</v>
       </c>
@@ -22895,7 +22877,7 @@
         <v>36.675000000000004</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="58" t="s">
         <v>25</v>
       </c>
@@ -22921,19 +22903,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.59765625" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
         <v>128</v>
       </c>
@@ -22945,7 +22928,7 @@
       <c r="G1" s="51"/>
       <c r="H1" s="51"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>101</v>
       </c>
@@ -22971,7 +22954,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>14</v>
       </c>
@@ -23004,7 +22987,7 @@
         <v>1886611.371420742</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>17</v>
       </c>
@@ -23037,7 +23020,7 @@
         <v>900949.42486762838</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>19</v>
       </c>
@@ -23070,11 +23053,11 @@
         <v>2131194.1850411883</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="128">
         <f>IESS!B51</f>
         <v>2202214.2744804788</v>
       </c>
@@ -23103,11 +23086,11 @@
         <v>1536729.3530521572</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="128">
         <f>IESS!B52</f>
         <v>1086361.1466131094</v>
       </c>
@@ -23136,11 +23119,11 @@
         <v>1049844.8055504838</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="128">
         <f>IESS!B53</f>
         <v>1244476.9034142776</v>
       </c>
@@ -23169,7 +23152,7 @@
         <v>1135658.2070476536</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>26</v>
       </c>
@@ -23202,7 +23185,7 @@
         <v>2730703.6811848823</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>20</v>
       </c>
@@ -23235,7 +23218,7 @@
         <v>821617.67390907416</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>21</v>
       </c>
@@ -23268,7 +23251,7 @@
         <v>5020996.8961110096</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>74</v>
       </c>
@@ -23280,7 +23263,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>18</v>
       </c>
@@ -23292,7 +23275,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>75</v>
       </c>
@@ -23304,7 +23287,7 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>25</v>
       </c>
@@ -23343,29 +23326,29 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="11.3984375" customWidth="1"/>
-    <col min="3" max="3" width="9.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -23391,7 +23374,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>90</v>
       </c>
@@ -23421,7 +23404,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>226</v>
       </c>
@@ -23432,7 +23415,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="51" t="s">
         <v>206</v>
       </c>
@@ -23441,7 +23424,7 @@
       <c r="D5" s="51"/>
       <c r="E5" s="51"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>208</v>
       </c>
@@ -23449,7 +23432,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>231</v>
       </c>
@@ -23457,7 +23440,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>210</v>
       </c>
@@ -23465,7 +23448,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="82" t="s">
         <v>211</v>
       </c>
@@ -23473,7 +23456,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="83" t="s">
         <v>212</v>
       </c>
@@ -23481,7 +23464,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="84" t="s">
         <v>213</v>
       </c>
@@ -23492,7 +23475,7 @@
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="85" t="s">
         <v>214</v>
       </c>
@@ -23513,7 +23496,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E14">
         <v>2018</v>
       </c>
@@ -23531,37 +23514,37 @@
         <v>207</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="90" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>228</v>
       </c>
@@ -23573,21 +23556,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.73046875" style="43" customWidth="1"/>
+    <col min="1" max="2" width="20.7109375" style="43" customWidth="1"/>
     <col min="3" max="3" width="21" style="43" customWidth="1"/>
-    <col min="4" max="8" width="20.73046875" style="43" customWidth="1"/>
+    <col min="4" max="8" width="20.7109375" style="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="22"/>
       <c r="B1" s="22"/>
       <c r="C1" s="23" t="s">
@@ -23609,45 +23592,45 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="27.75" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="136" t="s">
+      <c r="B2" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="138" t="s">
+      <c r="C2" s="137" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="138" t="s">
+      <c r="D2" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="138" t="s">
+      <c r="E2" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="140" t="s">
+      <c r="F2" s="139" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="140" t="s">
+      <c r="G2" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="134" t="s">
+      <c r="H2" s="133" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="137"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="135"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B3" s="136"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="134"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>40</v>
       </c>
@@ -23661,7 +23644,7 @@
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
     </row>
-    <row r="5" spans="1:8" ht="27" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>41</v>
       </c>
@@ -23687,7 +23670,7 @@
         <v>2848907</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="27" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>42</v>
       </c>
@@ -23713,7 +23696,7 @@
         <v>4652</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>44</v>
       </c>
@@ -23725,7 +23708,7 @@
       <c r="G7" s="31"/>
       <c r="H7" s="31"/>
     </row>
-    <row r="8" spans="1:8" ht="27" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>45</v>
       </c>
@@ -23751,7 +23734,7 @@
         <v>2848907</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>46</v>
       </c>
@@ -23763,7 +23746,7 @@
       <c r="G9" s="31"/>
       <c r="H9" s="31"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>47</v>
       </c>
@@ -23789,7 +23772,7 @@
         <v>30210</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="27.75" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>48</v>
       </c>
@@ -23801,7 +23784,7 @@
       <c r="G11" s="31"/>
       <c r="H11" s="31"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
         <v>49</v>
       </c>
@@ -23827,7 +23810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="40.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
         <v>50</v>
       </c>
@@ -23853,7 +23836,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
         <v>51</v>
       </c>
@@ -23879,7 +23862,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
         <v>52</v>
       </c>
@@ -23905,7 +23888,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="27" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
         <v>53</v>
       </c>
@@ -23931,7 +23914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
         <v>54</v>
       </c>
@@ -23957,7 +23940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
         <v>55</v>
       </c>
@@ -23983,7 +23966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
         <v>56</v>
       </c>
@@ -24009,7 +23992,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
         <v>57</v>
       </c>
@@ -24035,7 +24018,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="27" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
         <v>58</v>
       </c>
@@ -24061,7 +24044,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
         <v>59</v>
       </c>
@@ -24087,7 +24070,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
         <v>60</v>
       </c>
@@ -24113,7 +24096,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
         <v>61</v>
       </c>
@@ -24139,7 +24122,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
         <v>62</v>
       </c>
@@ -24165,7 +24148,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
         <v>63</v>
       </c>
@@ -24191,7 +24174,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
         <v>65</v>
       </c>
@@ -24217,7 +24200,7 @@
         <v>5668</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="39" t="s">
         <v>66</v>
       </c>
@@ -24243,7 +24226,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="27" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
         <v>68</v>
       </c>
@@ -24269,7 +24252,7 @@
         <v>35878</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="27" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A30" s="39" t="s">
         <v>68</v>
       </c>
@@ -24295,12 +24278,12 @@
         <v>7.87</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="43" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="44" t="s">
         <v>70</v>
       </c>
@@ -24311,7 +24294,7 @@
       <c r="C33" s="45"/>
       <c r="D33" s="45"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="44" t="s">
         <v>66</v>
       </c>
@@ -24322,7 +24305,7 @@
       <c r="C34" s="45"/>
       <c r="D34" s="45"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
         <v>47</v>
       </c>
@@ -24348,20 +24331,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.73046875" customWidth="1"/>
-    <col min="13" max="13" width="7.59765625" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="67" t="s">
         <v>138</v>
       </c>
@@ -24372,7 +24355,7 @@
       <c r="F1" s="68"/>
       <c r="G1" s="68"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="67" t="s">
         <v>180</v>
       </c>
@@ -24383,11 +24366,11 @@
       <c r="F2" s="68"/>
       <c r="G2" s="68"/>
     </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="142" t="s">
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="141" t="s">
         <v>139</v>
       </c>
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="141" t="s">
         <v>140</v>
       </c>
       <c r="C3" s="79" t="s">
@@ -24404,9 +24387,9 @@
       <c r="L3" s="76"/>
       <c r="M3" s="76"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A4" s="142"/>
-      <c r="B4" s="142"/>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="141"/>
+      <c r="B4" s="141"/>
       <c r="C4" s="75">
         <v>2017</v>
       </c>
@@ -24441,7 +24424,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="69">
         <v>1</v>
       </c>
@@ -24483,7 +24466,7 @@
         <v>9.5555555555555554</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="69">
         <v>2</v>
       </c>
@@ -24525,7 +24508,7 @@
         <v>14.666666666666666</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="69">
         <v>3</v>
       </c>
@@ -24567,7 +24550,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="69">
         <v>4</v>
       </c>
@@ -24609,7 +24592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="69">
         <v>5</v>
       </c>
@@ -24651,7 +24634,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="69">
         <v>6</v>
       </c>
@@ -24693,7 +24676,7 @@
         <v>9.5555555555555554</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="69">
         <v>7</v>
       </c>
@@ -24735,7 +24718,7 @@
         <v>14.666666666666666</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="69">
         <v>8</v>
       </c>
@@ -24767,8 +24750,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="67" t="s">
         <v>138</v>
       </c>
@@ -24785,7 +24768,7 @@
       <c r="L14" s="20"/>
       <c r="M14" s="20"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="67" t="s">
         <v>180</v>
       </c>
@@ -24802,11 +24785,11 @@
       <c r="L15" s="20"/>
       <c r="M15" s="20"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A16" s="142" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="141" t="s">
         <v>139</v>
       </c>
-      <c r="B16" s="142" t="s">
+      <c r="B16" s="141" t="s">
         <v>140</v>
       </c>
       <c r="C16" s="79" t="s">
@@ -24823,9 +24806,9 @@
       <c r="L16" s="76"/>
       <c r="M16" s="76"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A17" s="142"/>
-      <c r="B17" s="142"/>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="141"/>
+      <c r="B17" s="141"/>
       <c r="C17" s="75">
         <v>2017</v>
       </c>
@@ -24860,7 +24843,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="69">
         <v>1</v>
       </c>
@@ -24912,7 +24895,7 @@
         <v>1336012.3968971488</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="69">
         <v>2</v>
       </c>
@@ -24964,7 +24947,7 @@
         <v>2050623.6789584146</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="69">
         <v>3</v>
       </c>
@@ -25016,7 +24999,7 @@
         <v>768983.87960940553</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="69">
         <v>4</v>
       </c>
@@ -25068,7 +25051,7 @@
         <v>838891.50502844236</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="69">
         <v>5</v>
       </c>
@@ -25120,7 +25103,7 @@
         <v>796946.92977702012</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="69">
         <v>6</v>
       </c>
@@ -25172,7 +25155,7 @@
         <v>1336012.3968971488</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A24" s="69">
         <v>7</v>
       </c>
@@ -25224,7 +25207,7 @@
         <v>2050623.6789584146</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="69">
         <v>8</v>
       </c>
@@ -25261,6 +25244,9 @@
         <v>3635196.5217899163</v>
       </c>
     </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K27" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A16:A17"/>
@@ -25269,5 +25255,6 @@
     <mergeCell ref="B3:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/InputData/elec/CCaMC/Capacity Construction and Maint Costs.xlsx
+++ b/InputData/elec/CCaMC/Capacity Construction and Maint Costs.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\India\India_Model\InputData\elec\CCaMC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\InputData\elec\CCaMC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF1DD58-E538-4E33-ACAF-D720B69F0E43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12315" yWindow="600" windowWidth="15735" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12315" yWindow="600" windowWidth="15735" windowHeight="16200"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
     <sheet name="Conversion Factors" sheetId="17" r:id="rId2"/>
     <sheet name="IESS" sheetId="18" r:id="rId3"/>
-    <sheet name="Geothermal" sheetId="19" r:id="rId4"/>
+    <sheet name="Pumped Hydro" sheetId="30" r:id="rId4"/>
     <sheet name="Lazard" sheetId="21" r:id="rId5"/>
     <sheet name="Combined Capital Costs" sheetId="20" r:id="rId6"/>
     <sheet name="Solar Thermal Base Cost" sheetId="16" r:id="rId7"/>
@@ -32,7 +31,10 @@
     <sheet name="CCaMC-BCCpUC" sheetId="25" r:id="rId17"/>
     <sheet name="CCaMC-BSCpUC" sheetId="26" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <externalReferences>
+    <externalReference r:id="rId19"/>
+  </externalReferences>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="369">
   <si>
     <t>CCaMC BAU Construction Cost per Unit Capacity</t>
   </si>
@@ -1301,11 +1303,26 @@
   <si>
     <t>https://www.nrel.gov/docs/fy20osti/76153.pdf</t>
   </si>
+  <si>
+    <t>Costs for pumped hydro are listed here:</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>O&amp;M @2.5% of Capital Cost</t>
+  </si>
+  <si>
+    <t>http://cea.nic.in/reports/others/planning/irp/Optimal_mix_report_2029-30_FINAL.pdf</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="14">
     <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
@@ -2228,6 +2245,7 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="20" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2267,26 +2285,25 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="20" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="17">
-    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Body: normal cell" xfId="4"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Comma 2" xfId="14"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" customBuiltin="1"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Footnotes: all except top row" xfId="9" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Footnotes: top row" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Header: bottom row" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Header: top rows" xfId="10" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="6"/>
+    <cellStyle name="Footnotes: all except top row" xfId="9"/>
+    <cellStyle name="Footnotes: top row" xfId="7"/>
+    <cellStyle name="Header: bottom row" xfId="2"/>
+    <cellStyle name="Header: top rows" xfId="10"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="11"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Parent row" xfId="3" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Parent row" xfId="3"/>
     <cellStyle name="Percent" xfId="16" builtinId="5"/>
-    <cellStyle name="Section Break" xfId="12" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="Section Break: parent row" xfId="13" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="Table title" xfId="1" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Section Break" xfId="12"/>
+    <cellStyle name="Section Break: parent row" xfId="13"/>
+    <cellStyle name="Table title" xfId="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -2315,7 +2332,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Table Style 1" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Table Style 1" pivot="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -5661,6 +5678,62 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="About"/>
+      <sheetName val="Conversion Factors"/>
+      <sheetName val="IESS"/>
+      <sheetName val="Geothermal"/>
+      <sheetName val="Lazard"/>
+      <sheetName val="Combined Capital Costs"/>
+      <sheetName val="Solar Thermal Base Cost"/>
+      <sheetName val="Coal Cost Multipliers"/>
+      <sheetName val="CEA NEP"/>
+      <sheetName val="IESS Annual Cap Costs"/>
+      <sheetName val="Waste to Energy"/>
+      <sheetName val="Start Year Soft Cost Data"/>
+      <sheetName val="CCaMC-BCCpUC_old"/>
+      <sheetName val="CCaMC-AFOaMCpUC"/>
+      <sheetName val="CCaMC-VOaMCpUC"/>
+      <sheetName val="CCaMC-BCCpUC"/>
+      <sheetName val="CCaMC-BSCpUC"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="6">
+          <cell r="B6">
+            <v>54.77</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>10000000</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5737,23 +5810,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -5789,23 +5845,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5981,46 +6020,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
       <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="82.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="77.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="56.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="10.7109375" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.1328125" style="2"/>
+    <col min="2" max="2" width="82.73046875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.3984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="77.59765625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.73046875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="56.1328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="10.73046875" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -6033,7 +6072,7 @@
       </c>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="20" t="s">
         <v>154</v>
       </c>
@@ -6041,7 +6080,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="2">
         <v>2018</v>
       </c>
@@ -6049,7 +6088,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="46" t="s">
         <v>173</v>
       </c>
@@ -6057,7 +6096,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" s="3" t="s">
         <v>172</v>
       </c>
@@ -6065,16 +6104,16 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" s="2" t="s">
         <v>155</v>
       </c>
       <c r="D11" s="20"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D12" s="9"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B13" s="6" t="s">
         <v>160</v>
       </c>
@@ -6082,7 +6121,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B14" s="20" t="s">
         <v>4</v>
       </c>
@@ -6090,7 +6129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B15" s="2">
         <v>2009</v>
       </c>
@@ -6098,7 +6137,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
@@ -6106,7 +6145,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B17" s="3" t="s">
         <v>8</v>
       </c>
@@ -6114,7 +6153,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B18" s="20" t="s">
         <v>10</v>
       </c>
@@ -6122,10 +6161,10 @@
         <v>218</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B19" s="20"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="7"/>
       <c r="B20" s="6" t="s">
         <v>161</v>
@@ -6134,7 +6173,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="7"/>
       <c r="B21" s="2" t="s">
         <v>156</v>
@@ -6143,7 +6182,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="7"/>
       <c r="B22" s="2">
         <v>2015</v>
@@ -6152,7 +6191,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="7"/>
       <c r="B23" s="47" t="s">
         <v>157</v>
@@ -6161,7 +6200,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="7"/>
       <c r="B24" s="47" t="s">
         <v>158</v>
@@ -6170,7 +6209,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="7"/>
       <c r="B25" s="20" t="s">
         <v>159</v>
@@ -6179,12 +6218,12 @@
         <v>224</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="7"/>
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="7"/>
       <c r="B27" s="6" t="s">
         <v>198</v>
@@ -6193,7 +6232,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="7"/>
       <c r="B28" s="2" t="s">
         <v>156</v>
@@ -6202,7 +6241,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="7"/>
       <c r="B29" s="2">
         <v>2015</v>
@@ -6211,7 +6250,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="7"/>
       <c r="B30" s="47" t="s">
         <v>157</v>
@@ -6220,7 +6259,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="7"/>
       <c r="B31" s="47" t="s">
         <v>158</v>
@@ -6229,7 +6268,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="7"/>
       <c r="B32" s="20" t="s">
         <v>199</v>
@@ -6238,18 +6277,18 @@
         <v>179</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="7"/>
       <c r="B33" s="20"/>
       <c r="D33" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="7"/>
       <c r="B34" s="20"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="7"/>
       <c r="B35" s="51" t="s">
         <v>263</v>
@@ -6258,7 +6297,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="7"/>
       <c r="B36" s="20" t="s">
         <v>264</v>
@@ -6267,7 +6306,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="7"/>
       <c r="B37" s="2">
         <v>2015</v>
@@ -6276,7 +6315,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="7"/>
       <c r="B38" s="20" t="s">
         <v>265</v>
@@ -6285,7 +6324,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="7"/>
       <c r="B39" s="3" t="s">
         <v>266</v>
@@ -6294,17 +6333,17 @@
         <v>275</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="7"/>
       <c r="B40" s="20" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="7"/>
       <c r="B41" s="20"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="7"/>
       <c r="B42" s="51" t="s">
         <v>268</v>
@@ -6313,7 +6352,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="7"/>
       <c r="B43" s="20" t="s">
         <v>269</v>
@@ -6322,7 +6361,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="7"/>
       <c r="B44" s="2">
         <v>2018</v>
@@ -6331,7 +6370,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="7"/>
       <c r="B45" s="20" t="s">
         <v>270</v>
@@ -6340,7 +6379,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="7"/>
       <c r="B46" s="3" t="s">
         <v>271</v>
@@ -6349,17 +6388,17 @@
         <v>363</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="7"/>
       <c r="B47" s="20" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="7"/>
       <c r="B48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49" s="7" t="s">
         <v>11</v>
       </c>
@@ -6372,7 +6411,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="11"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50" s="10" t="s">
         <v>167</v>
       </c>
@@ -6385,7 +6424,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="11"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51" s="10" t="s">
         <v>168</v>
       </c>
@@ -6398,7 +6437,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="11"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52" s="10"/>
       <c r="D52" s="7"/>
       <c r="E52" s="11"/>
@@ -6409,7 +6448,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="11"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53" s="10" t="s">
         <v>12</v>
       </c>
@@ -6422,7 +6461,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="11"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A54" s="10" t="s">
         <v>13</v>
       </c>
@@ -6435,7 +6474,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="11"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A55" s="10" t="s">
         <v>181</v>
       </c>
@@ -6448,7 +6487,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="11"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56" s="10" t="s">
         <v>182</v>
       </c>
@@ -6461,7 +6500,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="11"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A57" s="10"/>
       <c r="D57" s="7"/>
       <c r="E57" s="11"/>
@@ -6472,7 +6511,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="11"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A58" s="10" t="s">
         <v>169</v>
       </c>
@@ -6485,7 +6524,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="11"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A59" s="10" t="s">
         <v>170</v>
       </c>
@@ -6498,7 +6537,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="11"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A60" s="10" t="s">
         <v>171</v>
       </c>
@@ -6511,7 +6550,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="11"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A61" s="10"/>
       <c r="D61" s="7"/>
       <c r="E61" s="11"/>
@@ -6522,7 +6561,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="11"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A62" s="10" t="s">
         <v>200</v>
       </c>
@@ -6535,7 +6574,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="11"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A63" s="10" t="s">
         <v>201</v>
       </c>
@@ -6549,7 +6588,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="11"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A64" s="10" t="s">
         <v>202</v>
       </c>
@@ -6563,7 +6602,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="11"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A65" s="10" t="s">
         <v>204</v>
       </c>
@@ -6577,7 +6616,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="11"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A66" s="10" t="s">
         <v>205</v>
       </c>
@@ -6591,7 +6630,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="11"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A67" s="20"/>
       <c r="B67" s="9"/>
       <c r="D67" s="7"/>
@@ -6603,7 +6642,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="11"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A68" s="10" t="s">
         <v>262</v>
       </c>
@@ -6617,7 +6656,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="11"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A69" s="18"/>
       <c r="B69" s="9"/>
       <c r="D69" s="7"/>
@@ -6629,12 +6668,12 @@
       <c r="J69" s="11"/>
       <c r="K69" s="11"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A70" s="126" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A71" s="21"/>
       <c r="B71" s="9"/>
       <c r="D71" s="7"/>
@@ -6646,7 +6685,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="11"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A72" s="10"/>
       <c r="B72" s="9"/>
       <c r="D72" s="7"/>
@@ -6658,7 +6697,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="11"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A73" s="10"/>
       <c r="B73" s="9"/>
       <c r="D73" s="7"/>
@@ -6670,7 +6709,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="11"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A74" s="10"/>
       <c r="B74" s="9"/>
       <c r="D74" s="7"/>
@@ -6682,7 +6721,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="11"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A75" s="20"/>
       <c r="B75" s="9"/>
       <c r="D75" s="7"/>
@@ -6694,7 +6733,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="11"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A76" s="10"/>
       <c r="B76" s="9"/>
       <c r="D76" s="7"/>
@@ -6706,7 +6745,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="11"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A77" s="10"/>
       <c r="B77" s="9"/>
       <c r="D77" s="7"/>
@@ -6718,7 +6757,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="11"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A78" s="10"/>
       <c r="B78" s="9"/>
       <c r="D78" s="7"/>
@@ -6730,7 +6769,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="11"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A79" s="10"/>
       <c r="B79" s="9"/>
       <c r="D79" s="7"/>
@@ -6742,7 +6781,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="11"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A80" s="10"/>
       <c r="B80" s="9"/>
       <c r="D80" s="7"/>
@@ -6754,7 +6793,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="11"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A81" s="10"/>
       <c r="B81" s="9"/>
       <c r="D81" s="7"/>
@@ -6766,7 +6805,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="11"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A82" s="10"/>
       <c r="B82" s="9"/>
       <c r="D82" s="7"/>
@@ -6778,7 +6817,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="11"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A83" s="10"/>
       <c r="B83" s="9"/>
       <c r="D83" s="7"/>
@@ -6790,7 +6829,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="11"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A84" s="10"/>
       <c r="B84" s="9"/>
       <c r="D84" s="7"/>
@@ -6802,7 +6841,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="11"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A85" s="10"/>
       <c r="B85" s="9"/>
       <c r="D85" s="7"/>
@@ -6814,7 +6853,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="11"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A86" s="10"/>
       <c r="B86" s="9"/>
       <c r="D86" s="7"/>
@@ -6826,7 +6865,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="11"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A87" s="10"/>
       <c r="B87" s="9"/>
       <c r="D87" s="7"/>
@@ -6838,7 +6877,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="11"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A88" s="10"/>
       <c r="B88" s="9"/>
       <c r="D88" s="7"/>
@@ -6850,7 +6889,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="11"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A89" s="10"/>
       <c r="B89" s="9"/>
       <c r="D89" s="7"/>
@@ -6862,7 +6901,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="11"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A90" s="10"/>
       <c r="B90" s="9"/>
       <c r="D90" s="7"/>
@@ -6874,7 +6913,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="11"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A91" s="10"/>
       <c r="B91" s="9"/>
       <c r="D91" s="7"/>
@@ -6886,7 +6925,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="11"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A92" s="10"/>
       <c r="B92" s="9"/>
       <c r="D92" s="7"/>
@@ -6898,7 +6937,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="11"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A93" s="10"/>
       <c r="B93" s="9"/>
       <c r="D93" s="7"/>
@@ -6910,7 +6949,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="11"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A94" s="7"/>
       <c r="B94" s="9"/>
       <c r="D94" s="7"/>
@@ -6924,15 +6963,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B17" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D17" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B23" r:id="rId3" display="http://www.npti.in/Download/Renewable/POWERGEN%20PRSTN_Renewable%20April2012/Solar%20Resource%20CUF%20Assessment.pdf" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B30" r:id="rId4" display="http://www.npti.in/Download/Renewable/POWERGEN%20PRSTN_Renewable%20April2012/Solar%20Resource%20CUF%20Assessment.pdf" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D31" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B39" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B46" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D39" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B17" r:id="rId1"/>
+    <hyperlink ref="D17" r:id="rId2"/>
+    <hyperlink ref="B23" r:id="rId3" display="http://www.npti.in/Download/Renewable/POWERGEN%20PRSTN_Renewable%20April2012/Solar%20Resource%20CUF%20Assessment.pdf"/>
+    <hyperlink ref="B30" r:id="rId4" display="http://www.npti.in/Download/Renewable/POWERGEN%20PRSTN_Renewable%20April2012/Solar%20Resource%20CUF%20Assessment.pdf"/>
+    <hyperlink ref="D31" r:id="rId5"/>
+    <hyperlink ref="B10" r:id="rId6"/>
+    <hyperlink ref="B39" r:id="rId7"/>
+    <hyperlink ref="B46" r:id="rId8"/>
+    <hyperlink ref="D39" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId10"/>
@@ -6940,26 +6979,26 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A1018CD-8018-4D6E-9D43-CAAC3890A6C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.3984375" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>269</v>
       </c>
@@ -6967,7 +7006,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
         <v>357</v>
       </c>
@@ -6975,63 +7014,63 @@
         <v>358</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>354</v>
       </c>
       <c r="C4" s="74">
         <v>5.5</v>
       </c>
-      <c r="D4" s="142">
+      <c r="D4" s="129">
         <f>C4*10^7/'Conversion Factors'!$B$11*'Conversion Factors'!$A$38</f>
         <v>800219.02377972472</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>355</v>
       </c>
       <c r="C5" s="74">
         <v>10</v>
       </c>
-      <c r="D5" s="142">
+      <c r="D5" s="129">
         <f>C5*10^7/'Conversion Factors'!$B$11*'Conversion Factors'!$A$38</f>
         <v>1454943.6795994993</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>356</v>
       </c>
       <c r="C6" s="74">
         <v>6</v>
       </c>
-      <c r="D6" s="142">
+      <c r="D6" s="129">
         <f>C6*10^7/'Conversion Factors'!$B$11*'Conversion Factors'!$A$38</f>
         <v>872966.20775969967</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="20" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" s="20" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" s="20" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C14">
         <v>2021</v>
       </c>
@@ -7039,7 +7078,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>360</v>
       </c>
@@ -7054,7 +7093,7 @@
         <v>-0.66</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>356</v>
       </c>
@@ -7076,32 +7115,32 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="20"/>
-    <col min="2" max="2" width="17.28515625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="9.1328125" style="20"/>
+    <col min="2" max="2" width="17.265625" style="20" customWidth="1"/>
     <col min="3" max="3" width="31" style="20" customWidth="1"/>
-    <col min="4" max="5" width="17.28515625" style="20" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" style="20" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="20" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" style="20" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" style="20" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" style="20" customWidth="1"/>
-    <col min="12" max="12" width="28.140625" style="20" customWidth="1"/>
-    <col min="13" max="13" width="19.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="20"/>
+    <col min="4" max="5" width="17.265625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="23.1328125" style="20" customWidth="1"/>
+    <col min="7" max="7" width="17.265625" style="20" customWidth="1"/>
+    <col min="8" max="8" width="22.59765625" style="20" customWidth="1"/>
+    <col min="9" max="9" width="17.265625" style="20" customWidth="1"/>
+    <col min="10" max="10" width="22.3984375" style="20" customWidth="1"/>
+    <col min="11" max="11" width="20.86328125" style="20" customWidth="1"/>
+    <col min="12" max="12" width="28.1328125" style="20" customWidth="1"/>
+    <col min="13" max="13" width="19.1328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.1328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.1328125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
         <v>28</v>
       </c>
@@ -7145,7 +7184,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>2016</v>
       </c>
@@ -7181,9 +7220,9 @@
         <f>TREND(I3:I4,$A3:$A4,$A2)</f>
         <v>821617.67390907416</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="4" t="e">
         <f>TREND(J3:J4,$A3:$A4,$A2)</f>
-        <v>5020996.8961110096</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K2" s="4">
         <f>L2</f>
@@ -7202,7 +7241,7 @@
         <v>2912178.1997443885</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2017</v>
       </c>
@@ -7236,9 +7275,9 @@
         <f>INDEX('Combined Capital Costs'!$B$3:$H$15,MATCH("biomass",'Combined Capital Costs'!$A$3:$A$15,0),MATCH($A3,'Combined Capital Costs'!$B$2:$H$2,0))</f>
         <v>821617.67390907416</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="4" t="e">
         <f>INDEX('Combined Capital Costs'!$B$3:$H$15,MATCH("geothermal",'Combined Capital Costs'!$A$3:$A$15,0),MATCH($A3,'Combined Capital Costs'!$B$2:$H$2,0))</f>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K3" s="4">
         <f>K2</f>
@@ -7257,7 +7296,7 @@
         <v>2875661.8586817603</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2018</v>
       </c>
@@ -7291,9 +7330,9 @@
         <f>(I$8-I$3)/5+I3</f>
         <v>821617.67390907416</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="4" t="e">
         <f>(J$8-J$3)/5+J3</f>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K4" s="4">
         <f t="shared" ref="K4:L36" si="1">K3</f>
@@ -7312,7 +7351,7 @@
         <v>2839145.5176191349</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>2019</v>
       </c>
@@ -7346,9 +7385,9 @@
         <f t="shared" si="3"/>
         <v>821617.67390907416</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="4" t="e">
         <f t="shared" si="3"/>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K5" s="4">
         <f t="shared" si="1"/>
@@ -7367,7 +7406,7 @@
         <v>2802629.1765565095</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>2020</v>
       </c>
@@ -7401,9 +7440,9 @@
         <f t="shared" si="3"/>
         <v>821617.67390907416</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="4" t="e">
         <f t="shared" si="3"/>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K6" s="4">
         <f t="shared" si="1"/>
@@ -7422,7 +7461,7 @@
         <v>2766112.835493884</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>2021</v>
       </c>
@@ -7456,9 +7495,9 @@
         <f t="shared" si="3"/>
         <v>821617.67390907416</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="4" t="e">
         <f t="shared" si="3"/>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K7" s="4">
         <f t="shared" si="1"/>
@@ -7477,7 +7516,7 @@
         <v>2729596.4944312586</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>2022</v>
       </c>
@@ -7511,9 +7550,9 @@
         <f>INDEX('Combined Capital Costs'!$B$3:$H$15,MATCH("biomass",'Combined Capital Costs'!$A$3:$A$15,0),MATCH($A8,'Combined Capital Costs'!$B$2:$H$2,0))</f>
         <v>821617.67390907416</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="4" t="e">
         <f>INDEX('Combined Capital Costs'!$B$3:$H$15,MATCH("geothermal",'Combined Capital Costs'!$A$3:$A$15,0),MATCH($A8,'Combined Capital Costs'!$B$2:$H$2,0))</f>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K8" s="4">
         <f t="shared" si="1"/>
@@ -7532,7 +7571,7 @@
         <v>2693080.1533686323</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>2023</v>
       </c>
@@ -7566,9 +7605,9 @@
         <f>(I$13-I$8)/5+I8</f>
         <v>821617.67390907416</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="4" t="e">
         <f>(J$13-J$8)/5+J8</f>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K9" s="4">
         <f t="shared" si="1"/>
@@ -7587,7 +7626,7 @@
         <v>2671170.3487310568</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>2024</v>
       </c>
@@ -7621,9 +7660,9 @@
         <f t="shared" si="9"/>
         <v>821617.67390907416</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="4" t="e">
         <f t="shared" si="9"/>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K10" s="4">
         <f t="shared" si="1"/>
@@ -7642,7 +7681,7 @@
         <v>2649260.5440934813</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>2025</v>
       </c>
@@ -7676,9 +7715,9 @@
         <f t="shared" si="9"/>
         <v>821617.67390907416</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="4" t="e">
         <f t="shared" si="9"/>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K11" s="4">
         <f t="shared" si="1"/>
@@ -7697,7 +7736,7 @@
         <v>2627350.7394559057</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>2026</v>
       </c>
@@ -7731,9 +7770,9 @@
         <f t="shared" si="9"/>
         <v>821617.67390907416</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="4" t="e">
         <f t="shared" si="9"/>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K12" s="4">
         <f t="shared" si="1"/>
@@ -7752,7 +7791,7 @@
         <v>2605440.9348183302</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>2027</v>
       </c>
@@ -7786,9 +7825,9 @@
         <f>INDEX('Combined Capital Costs'!$B$3:$H$15,MATCH("biomass",'Combined Capital Costs'!$A$3:$A$15,0),MATCH($A13,'Combined Capital Costs'!$B$2:$H$2,0))</f>
         <v>821617.67390907416</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="4" t="e">
         <f>INDEX('Combined Capital Costs'!$B$3:$H$15,MATCH("geothermal",'Combined Capital Costs'!$A$3:$A$15,0),MATCH($A13,'Combined Capital Costs'!$B$2:$H$2,0))</f>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="1"/>
@@ -7807,7 +7846,7 @@
         <v>2583531.1301807556</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>2028</v>
       </c>
@@ -7841,9 +7880,9 @@
         <f>(I$18-I$13)/5+I13</f>
         <v>821617.67390907416</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="4" t="e">
         <f>(J$18-J$13)/5+J13</f>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K14" s="4">
         <f t="shared" si="1"/>
@@ -7862,7 +7901,7 @@
         <v>2574402.0449150992</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>2029</v>
       </c>
@@ -7896,9 +7935,9 @@
         <f t="shared" si="15"/>
         <v>821617.67390907416</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="4" t="e">
         <f t="shared" si="15"/>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K15" s="4">
         <f t="shared" si="1"/>
@@ -7917,7 +7956,7 @@
         <v>2565272.9596494427</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>2030</v>
       </c>
@@ -7951,9 +7990,9 @@
         <f t="shared" si="15"/>
         <v>821617.67390907416</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="4" t="e">
         <f t="shared" si="15"/>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="1"/>
@@ -7972,7 +8011,7 @@
         <v>2556143.8743837862</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>2031</v>
       </c>
@@ -8006,9 +8045,9 @@
         <f t="shared" si="15"/>
         <v>821617.67390907416</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="4" t="e">
         <f t="shared" si="15"/>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K17" s="4">
         <f t="shared" si="1"/>
@@ -8027,7 +8066,7 @@
         <v>2547014.7891181298</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>2032</v>
       </c>
@@ -8061,9 +8100,9 @@
         <f>INDEX('Combined Capital Costs'!$B$3:$H$15,MATCH("biomass",'Combined Capital Costs'!$A$3:$A$15,0),MATCH($A18,'Combined Capital Costs'!$B$2:$H$2,0))</f>
         <v>821617.67390907416</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="4" t="e">
         <f>INDEX('Combined Capital Costs'!$B$3:$H$15,MATCH("geothermal",'Combined Capital Costs'!$A$3:$A$15,0),MATCH($A18,'Combined Capital Costs'!$B$2:$H$2,0))</f>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K18" s="4">
         <f t="shared" si="1"/>
@@ -8082,7 +8121,7 @@
         <v>2537885.7038524733</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>2033</v>
       </c>
@@ -8116,9 +8155,9 @@
         <f>(I$23-I$18)/5+I18</f>
         <v>821617.67390907416</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="4" t="e">
         <f>(J$23-J$18)/5+J18</f>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K19" s="4">
         <f t="shared" si="1"/>
@@ -8137,7 +8176,7 @@
         <v>2532408.2526930794</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>2034</v>
       </c>
@@ -8171,9 +8210,9 @@
         <f t="shared" si="21"/>
         <v>821617.67390907416</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="4" t="e">
         <f t="shared" si="21"/>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K20" s="4">
         <f t="shared" si="1"/>
@@ -8192,7 +8231,7 @@
         <v>2526930.8015336855</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>2035</v>
       </c>
@@ -8226,9 +8265,9 @@
         <f t="shared" si="21"/>
         <v>821617.67390907416</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="4" t="e">
         <f t="shared" si="21"/>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K21" s="4">
         <f t="shared" si="1"/>
@@ -8247,7 +8286,7 @@
         <v>2521453.3503742917</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>2036</v>
       </c>
@@ -8281,9 +8320,9 @@
         <f t="shared" si="21"/>
         <v>821617.67390907416</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="4" t="e">
         <f t="shared" si="21"/>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K22" s="4">
         <f t="shared" si="1"/>
@@ -8302,7 +8341,7 @@
         <v>2515975.8992148978</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>2037</v>
       </c>
@@ -8336,9 +8375,9 @@
         <f>INDEX('Combined Capital Costs'!$B$3:$H$15,MATCH("biomass",'Combined Capital Costs'!$A$3:$A$15,0),MATCH($A23,'Combined Capital Costs'!$B$2:$H$2,0))</f>
         <v>821617.67390907416</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="4" t="e">
         <f>INDEX('Combined Capital Costs'!$B$3:$H$15,MATCH("geothermal",'Combined Capital Costs'!$A$3:$A$15,0),MATCH($A23,'Combined Capital Costs'!$B$2:$H$2,0))</f>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K23" s="4">
         <f t="shared" si="1"/>
@@ -8357,7 +8396,7 @@
         <v>2510498.4480555048</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>2038</v>
       </c>
@@ -8391,9 +8430,9 @@
         <f>(I$28-I$23)/5+I23</f>
         <v>821617.67390907416</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="4" t="e">
         <f>(J$28-J$23)/5+J23</f>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K24" s="4">
         <f t="shared" si="1"/>
@@ -8412,7 +8451,7 @@
         <v>2506846.8139492422</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>2039</v>
       </c>
@@ -8446,9 +8485,9 @@
         <f t="shared" si="27"/>
         <v>821617.67390907416</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="4" t="e">
         <f t="shared" si="27"/>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K25" s="4">
         <f t="shared" si="1"/>
@@ -8467,7 +8506,7 @@
         <v>2503195.1798429796</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>2040</v>
       </c>
@@ -8501,9 +8540,9 @@
         <f t="shared" si="27"/>
         <v>821617.67390907416</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="4" t="e">
         <f t="shared" si="27"/>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K26" s="4">
         <f t="shared" si="1"/>
@@ -8522,7 +8561,7 @@
         <v>2499543.5457367171</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>2041</v>
       </c>
@@ -8556,9 +8595,9 @@
         <f t="shared" si="27"/>
         <v>821617.67390907416</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="4" t="e">
         <f t="shared" si="27"/>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K27" s="4">
         <f t="shared" si="1"/>
@@ -8577,7 +8616,7 @@
         <v>2495891.9116304545</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>2042</v>
       </c>
@@ -8611,9 +8650,9 @@
         <f>INDEX('Combined Capital Costs'!$B$3:$H$15,MATCH("biomass",'Combined Capital Costs'!$A$3:$A$15,0),MATCH($A28,'Combined Capital Costs'!$B$2:$H$2,0))</f>
         <v>821617.67390907416</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="4" t="e">
         <f>INDEX('Combined Capital Costs'!$B$3:$H$15,MATCH("geothermal",'Combined Capital Costs'!$A$3:$A$15,0),MATCH($A28,'Combined Capital Costs'!$B$2:$H$2,0))</f>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K28" s="4">
         <f t="shared" si="1"/>
@@ -8632,7 +8671,7 @@
         <v>2492240.2775241924</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>2043</v>
       </c>
@@ -8666,9 +8705,9 @@
         <f>(I$33-I$28)/5+I28</f>
         <v>821617.67390907416</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="4" t="e">
         <f>(J$33-J$28)/5+J28</f>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K29" s="4">
         <f t="shared" si="1"/>
@@ -8687,7 +8726,7 @@
         <v>2490414.4604710611</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>2044</v>
       </c>
@@ -8721,9 +8760,9 @@
         <f t="shared" si="33"/>
         <v>821617.67390907416</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="4" t="e">
         <f t="shared" si="33"/>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K30" s="4">
         <f t="shared" si="1"/>
@@ -8742,7 +8781,7 @@
         <v>2488588.6434179298</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>2045</v>
       </c>
@@ -8776,9 +8815,9 @@
         <f t="shared" si="33"/>
         <v>821617.67390907416</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J31" s="4" t="e">
         <f t="shared" si="33"/>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K31" s="4">
         <f t="shared" si="1"/>
@@ -8797,7 +8836,7 @@
         <v>2486762.8263647985</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>2046</v>
       </c>
@@ -8831,9 +8870,9 @@
         <f t="shared" si="33"/>
         <v>821617.67390907416</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J32" s="4" t="e">
         <f t="shared" si="33"/>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K32" s="4">
         <f t="shared" si="1"/>
@@ -8852,7 +8891,7 @@
         <v>2484937.0093116672</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>2047</v>
       </c>
@@ -8886,9 +8925,9 @@
         <f>INDEX('Combined Capital Costs'!$B$3:$H$15,MATCH("biomass",'Combined Capital Costs'!$A$3:$A$15,0),MATCH($A33,'Combined Capital Costs'!$B$2:$H$2,0))</f>
         <v>821617.67390907416</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J33" s="4" t="e">
         <f>INDEX('Combined Capital Costs'!$B$3:$H$15,MATCH("geothermal",'Combined Capital Costs'!$A$3:$A$15,0),MATCH($A33,'Combined Capital Costs'!$B$2:$H$2,0))</f>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K33" s="4">
         <f t="shared" si="1"/>
@@ -8907,7 +8946,7 @@
         <v>2483111.1922585354</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>2048</v>
       </c>
@@ -8941,9 +8980,9 @@
         <f t="shared" si="33"/>
         <v>821617.67390907416</v>
       </c>
-      <c r="J34" s="4">
+      <c r="J34" s="4" t="e">
         <f t="shared" si="33"/>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K34" s="4">
         <f t="shared" si="1"/>
@@ -8962,7 +9001,7 @@
         <v>2481285.3752054041</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>2049</v>
       </c>
@@ -8996,9 +9035,9 @@
         <f t="shared" si="33"/>
         <v>821617.67390907416</v>
       </c>
-      <c r="J35" s="4">
+      <c r="J35" s="4" t="e">
         <f t="shared" si="33"/>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K35" s="4">
         <f t="shared" si="1"/>
@@ -9017,7 +9056,7 @@
         <v>2479459.5581522728</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>2050</v>
       </c>
@@ -9051,9 +9090,9 @@
         <f t="shared" si="33"/>
         <v>821617.67390907416</v>
       </c>
-      <c r="J36" s="4">
+      <c r="J36" s="4" t="e">
         <f t="shared" si="33"/>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K36" s="4">
         <f t="shared" si="1"/>
@@ -9072,43 +9111,43 @@
         <v>2477633.7410991415</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B37" s="12"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B38" s="12"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B39" s="12"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B40" s="12"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B41" s="12"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B42" s="12"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B43" s="12"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B44" s="12"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B45" s="12"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B46" s="12"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B47" s="12"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B48" s="12"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B49" s="12"/>
     </row>
   </sheetData>
@@ -9117,24 +9156,24 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.59765625" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C2" s="1">
         <v>2017</v>
       </c>
@@ -9157,7 +9196,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>187</v>
       </c>
@@ -9186,7 +9225,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C4">
         <f>C3*10^7</f>
         <v>164050000</v>
@@ -9219,7 +9258,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C5">
         <f>C4/'Conversion Factors'!$B$6</f>
         <v>2995252.8756618584</v>
@@ -9252,12 +9291,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="20">
         <v>0.06</v>
       </c>
@@ -9265,12 +9304,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="81" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>193</v>
       </c>
@@ -9278,7 +9317,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="20">
         <v>2017</v>
       </c>
@@ -9287,7 +9326,7 @@
         <v>2995252.8756618584</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12">
         <f>A11+1</f>
         <v>2018</v>
@@ -9297,7 +9336,7 @@
         <v>2974456.819426693</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="20">
         <f t="shared" ref="A13:A44" si="1">A12+1</f>
         <v>2019</v>
@@ -9307,7 +9346,7 @@
         <v>2953660.7631915286</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="20">
         <f t="shared" si="1"/>
         <v>2020</v>
@@ -9317,7 +9356,7 @@
         <v>2932864.7069563642</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="20">
         <f t="shared" si="1"/>
         <v>2021</v>
@@ -9327,7 +9366,7 @@
         <v>2912068.6507211998</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="20">
         <f t="shared" si="1"/>
         <v>2022</v>
@@ -9337,7 +9376,7 @@
         <v>2891272.5944860321</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="20">
         <f t="shared" si="1"/>
         <v>2023</v>
@@ -9347,7 +9386,7 @@
         <v>2871352.9304363653</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="20">
         <f t="shared" si="1"/>
         <v>2024</v>
@@ -9357,7 +9396,7 @@
         <v>2851433.2663867027</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="20">
         <f t="shared" si="1"/>
         <v>2025</v>
@@ -9367,7 +9406,7 @@
         <v>2831513.6023370475</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="20">
         <f t="shared" si="1"/>
         <v>2026</v>
@@ -9377,7 +9416,7 @@
         <v>2811593.9382873848</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="20">
         <f t="shared" si="1"/>
         <v>2027</v>
@@ -9387,7 +9426,7 @@
         <v>2791674.2742377212</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="20">
         <f t="shared" si="1"/>
         <v>2028</v>
@@ -9397,7 +9436,7 @@
         <v>2772612.7442030236</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="20">
         <f t="shared" si="1"/>
         <v>2029</v>
@@ -9407,7 +9446,7 @@
         <v>2753551.21416834</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="20">
         <f t="shared" si="1"/>
         <v>2030</v>
@@ -9417,7 +9456,7 @@
         <v>2734489.6841336489</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="20">
         <f t="shared" si="1"/>
         <v>2031</v>
@@ -9427,7 +9466,7 @@
         <v>2715428.1540989578</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="20">
         <f t="shared" si="1"/>
         <v>2032</v>
@@ -9437,7 +9476,7 @@
         <v>2696366.6240642685</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="20">
         <f t="shared" si="1"/>
         <v>2033</v>
@@ -9447,7 +9486,7 @@
         <v>2678071.9371918961</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="20">
         <f t="shared" si="1"/>
         <v>2034</v>
@@ -9457,7 +9496,7 @@
         <v>2659777.2503195181</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="20">
         <f t="shared" si="1"/>
         <v>2035</v>
@@ -9467,7 +9506,7 @@
         <v>2641482.5634471402</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="20">
         <f t="shared" si="1"/>
         <v>2036</v>
@@ -9477,7 +9516,7 @@
         <v>2623187.8765747696</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="20">
         <f t="shared" si="1"/>
         <v>2037</v>
@@ -9487,7 +9526,7 @@
         <v>2604893.1897023916</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="20">
         <f t="shared" si="1"/>
         <v>2038</v>
@@ -9497,7 +9536,7 @@
         <v>2587401.8623333946</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="20">
         <f t="shared" si="1"/>
         <v>2039</v>
@@ -9507,7 +9546,7 @@
         <v>2569910.5349643975</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="20">
         <f t="shared" si="1"/>
         <v>2040</v>
@@ -9517,7 +9556,7 @@
         <v>2552419.2075954005</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="20">
         <f t="shared" si="1"/>
         <v>2041</v>
@@ -9527,7 +9566,7 @@
         <v>2534927.8802264035</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="20">
         <f t="shared" si="1"/>
         <v>2042</v>
@@ -9537,7 +9576,7 @@
         <v>2517436.5528574036</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="20">
         <f t="shared" si="1"/>
         <v>2043</v>
@@ -9547,7 +9586,7 @@
         <v>2500639.0359685943</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="20">
         <f t="shared" si="1"/>
         <v>2044</v>
@@ -9557,7 +9596,7 @@
         <v>2483841.5190797895</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="20">
         <f t="shared" si="1"/>
         <v>2045</v>
@@ -9567,7 +9606,7 @@
         <v>2467044.0021909773</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="20">
         <f t="shared" si="1"/>
         <v>2046</v>
@@ -9577,7 +9616,7 @@
         <v>2450246.4853021726</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="20">
         <f t="shared" si="1"/>
         <v>2047</v>
@@ -9587,7 +9626,7 @@
         <v>2433448.9684133651</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" s="20">
         <f t="shared" si="1"/>
         <v>2048</v>
@@ -9597,7 +9636,7 @@
         <v>2416651.4515245557</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" s="20">
         <f t="shared" si="1"/>
         <v>2049</v>
@@ -9607,7 +9646,7 @@
         <v>2399853.9346357509</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" s="20">
         <f t="shared" si="1"/>
         <v>2050</v>
@@ -9617,52 +9656,52 @@
         <v>2383056.4177469388</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" s="20"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" s="20"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" s="20"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" s="20"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49" s="20"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50" s="20"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51" s="20"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52" s="20"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" s="20"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A54" s="20"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A55" s="20"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A56" s="20"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A57" s="20"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A58" s="20"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A59" s="20"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A60" s="20"/>
     </row>
   </sheetData>
@@ -9671,30 +9710,30 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC81"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" style="20" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" style="20" customWidth="1"/>
-    <col min="3" max="6" width="9.140625" style="20"/>
+    <col min="1" max="1" width="31.86328125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="27.73046875" style="20" customWidth="1"/>
+    <col min="3" max="6" width="9.1328125" style="20"/>
     <col min="7" max="7" width="20" style="20" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="20"/>
+    <col min="8" max="16384" width="9.1328125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A1" s="103" t="s">
         <v>237</v>
       </c>
       <c r="B1" s="104"/>
       <c r="C1" s="104"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A3" s="51" t="s">
         <v>276</v>
       </c>
@@ -9801,7 +9840,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A4" s="20" t="s">
         <v>279</v>
       </c>
@@ -9912,7 +9951,7 @@
       </c>
       <c r="AN4" s="108"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A5" s="20" t="s">
         <v>279</v>
       </c>
@@ -10022,7 +10061,7 @@
         <v>643.78091460218548</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A6" s="20" t="s">
         <v>279</v>
       </c>
@@ -10033,7 +10072,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A7" s="20" t="s">
         <v>285</v>
       </c>
@@ -10146,7 +10185,7 @@
         <v>1026.6751509717835</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A8" s="20" t="s">
         <v>285</v>
       </c>
@@ -10259,7 +10298,7 @@
         <v>972.63600081861068</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A9" s="20" t="s">
         <v>285</v>
       </c>
@@ -10372,7 +10411,7 @@
         <v>972.90420970463435</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A10" s="20" t="s">
         <v>285</v>
       </c>
@@ -10485,7 +10524,7 @@
         <v>980.1578435541021</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A11" s="20" t="s">
         <v>285</v>
       </c>
@@ -10496,7 +10535,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A12" s="20" t="s">
         <v>285</v>
       </c>
@@ -10609,7 +10648,7 @@
         <v>677.76794881844148</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A13" s="20" t="s">
         <v>285</v>
       </c>
@@ -10722,7 +10761,7 @@
         <v>638.07961416946716</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A14" s="20" t="s">
         <v>62</v>
       </c>
@@ -10835,7 +10874,7 @@
         <v>637.25717952218656</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A15" s="20" t="s">
         <v>62</v>
       </c>
@@ -10948,7 +10987,7 @@
         <v>639.9026916566504</v>
       </c>
     </row>
-    <row r="17" spans="1:39" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:39" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
         <v>303</v>
       </c>
@@ -10965,7 +11004,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A18" s="20">
         <v>2019</v>
       </c>
@@ -10994,7 +11033,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A19" s="112">
         <f>SUM(C12:C15,C7:C10)</f>
         <v>0.24</v>
@@ -11024,7 +11063,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.45">
       <c r="G20" s="20" t="s">
         <v>310</v>
       </c>
@@ -11041,7 +11080,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.45">
       <c r="G21" s="20" t="s">
         <v>311</v>
       </c>
@@ -11058,7 +11097,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.45">
       <c r="G23" s="109" t="s">
         <v>312</v>
       </c>
@@ -11066,12 +11105,12 @@
         <v>1.0940919037199124</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.45">
       <c r="G25" s="109" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.45">
       <c r="G26" s="20" t="s">
         <v>314</v>
       </c>
@@ -11172,7 +11211,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.45">
       <c r="G27" s="20" t="s">
         <v>315</v>
       </c>
@@ -11273,7 +11312,7 @@
         <v>896402</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.45">
       <c r="G28" s="20" t="s">
         <v>316</v>
       </c>
@@ -11374,14 +11413,14 @@
         <v>980.74617067833685</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A30" s="103" t="s">
         <v>244</v>
       </c>
       <c r="B30" s="104"/>
       <c r="C30" s="104"/>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>317</v>
       </c>
@@ -11482,7 +11521,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A33" s="51" t="s">
         <v>277</v>
       </c>
@@ -11590,7 +11629,7 @@
       </c>
       <c r="AN33" s="108"/>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A34" s="20" t="s">
         <v>318</v>
       </c>
@@ -11697,7 +11736,7 @@
         <v>1471.1435490360013</v>
       </c>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A35" s="20" t="s">
         <v>292</v>
       </c>
@@ -11705,7 +11744,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A36" s="20" t="s">
         <v>319</v>
       </c>
@@ -11815,7 +11854,7 @@
         <v>1948.9397364134529</v>
       </c>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A37" s="20" t="s">
         <v>320</v>
       </c>
@@ -11925,7 +11964,7 @@
         <v>1978.8983278067196</v>
       </c>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A38" s="20" t="s">
         <v>295</v>
       </c>
@@ -12035,7 +12074,7 @@
         <v>2026.2525389067091</v>
       </c>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A39" s="20" t="s">
         <v>322</v>
       </c>
@@ -12145,7 +12184,7 @@
         <v>2091.2486523610996</v>
       </c>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A40" s="20" t="s">
         <v>324</v>
       </c>
@@ -12153,7 +12192,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="41" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:40" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B41" s="49"/>
       <c r="G41" s="106" t="s">
         <v>296</v>
@@ -12258,7 +12297,7 @@
         <v>1451.9803923218951</v>
       </c>
     </row>
-    <row r="42" spans="1:40" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:40" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A42" s="20" t="s">
         <v>325</v>
       </c>
@@ -12368,7 +12407,7 @@
         <v>1475.450947600998</v>
       </c>
     </row>
-    <row r="43" spans="1:40" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:40" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="20" t="s">
         <v>326</v>
       </c>
@@ -12478,7 +12517,7 @@
         <v>1449.11440187263</v>
       </c>
     </row>
-    <row r="44" spans="1:40" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:40" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B44" s="49"/>
       <c r="G44" s="106" t="s">
         <v>328</v>
@@ -12583,13 +12622,13 @@
         <v>1500.4767772893517</v>
       </c>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>303</v>
       </c>
       <c r="B45" s="49"/>
     </row>
-    <row r="46" spans="1:40" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:40" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A46" s="121">
         <f>B43*SUM(B37:B40,B35)</f>
         <v>0.29399999999999998</v>
@@ -12610,7 +12649,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.45">
       <c r="B47" s="49"/>
       <c r="G47" s="1" t="s">
         <v>332</v>
@@ -12628,7 +12667,7 @@
         <v>13.57</v>
       </c>
     </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:40" x14ac:dyDescent="0.45">
       <c r="G48" s="20" t="s">
         <v>333</v>
       </c>
@@ -12645,7 +12684,7 @@
         <v>13.57</v>
       </c>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>334</v>
       </c>
@@ -12665,7 +12704,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A50" s="51" t="s">
         <v>277</v>
       </c>
@@ -12688,7 +12727,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A51" s="20" t="s">
         <v>318</v>
       </c>
@@ -12696,7 +12735,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A52" s="20" t="s">
         <v>292</v>
       </c>
@@ -12710,7 +12749,7 @@
         <v>1.0940919037199124</v>
       </c>
     </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A53" s="20" t="s">
         <v>319</v>
       </c>
@@ -12718,7 +12757,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A54" s="20" t="s">
         <v>320</v>
       </c>
@@ -12729,7 +12768,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A55" s="20" t="s">
         <v>295</v>
       </c>
@@ -12836,7 +12875,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A56" s="20" t="s">
         <v>322</v>
       </c>
@@ -12943,7 +12982,7 @@
         <v>1882930</v>
       </c>
     </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A57" s="20" t="s">
         <v>324</v>
       </c>
@@ -13050,7 +13089,7 @@
         <v>2060.0984682713347</v>
       </c>
     </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A59" s="20" t="s">
         <v>325</v>
       </c>
@@ -13058,7 +13097,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A60" s="20" t="s">
         <v>326</v>
       </c>
@@ -13066,13 +13105,13 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>303</v>
       </c>
       <c r="B62" s="49"/>
     </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A63" s="121">
         <f>B60*SUM(B54:B57,B52)</f>
         <v>0.20299999999999999</v>
@@ -13081,12 +13120,12 @@
         <v>329</v>
       </c>
     </row>
-    <row r="65" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="66" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A66" s="20">
         <v>2019</v>
       </c>
@@ -13106,7 +13145,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="67" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A67" s="112">
         <f>AVERAGE(A46,A63)</f>
         <v>0.2485</v>
@@ -13127,14 +13166,14 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="70" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A70" s="103" t="s">
         <v>238</v>
       </c>
       <c r="B70" s="103"/>
       <c r="C70" s="103"/>
     </row>
-    <row r="71" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:55" x14ac:dyDescent="0.45">
       <c r="H71" s="20">
         <v>2019</v>
       </c>
@@ -13232,7 +13271,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="72" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
         <v>339</v>
       </c>
@@ -13351,7 +13390,7 @@
       <c r="BB72" s="108"/>
       <c r="BC72" s="108"/>
     </row>
-    <row r="73" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A73" s="20" t="s">
         <v>342</v>
       </c>
@@ -13470,7 +13509,7 @@
       <c r="BB73" s="108"/>
       <c r="BC73" s="108"/>
     </row>
-    <row r="74" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:55" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A74" s="20" t="s">
         <v>344</v>
       </c>
@@ -13577,7 +13616,7 @@
         <v>836.38427846404704</v>
       </c>
     </row>
-    <row r="75" spans="1:55" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:55" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A75" s="20" t="s">
         <v>346</v>
       </c>
@@ -13585,7 +13624,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="76" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:55" x14ac:dyDescent="0.45">
       <c r="G76" s="109" t="s">
         <v>312</v>
       </c>
@@ -13593,17 +13632,17 @@
         <v>1.0940919037199124</v>
       </c>
     </row>
-    <row r="77" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A77" s="20" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="78" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:55" x14ac:dyDescent="0.45">
       <c r="G78" s="109" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="79" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
         <v>303</v>
       </c>
@@ -13707,7 +13746,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="80" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A80" s="20">
         <v>2019</v>
       </c>
@@ -13823,7 +13862,7 @@
         <v>636767</v>
       </c>
     </row>
-    <row r="81" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A81" s="124">
         <f>B75</f>
         <v>0.35</v>
@@ -13947,34 +13986,34 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="96"/>
-    <col min="2" max="2" width="17.28515625" style="96" customWidth="1"/>
+    <col min="1" max="1" width="9.1328125" style="96"/>
+    <col min="2" max="2" width="17.265625" style="96" customWidth="1"/>
     <col min="3" max="3" width="31" style="96" customWidth="1"/>
-    <col min="4" max="5" width="17.28515625" style="96" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" style="96" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="96" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" style="96" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" style="96" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" style="96" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" style="96" customWidth="1"/>
-    <col min="12" max="12" width="28.140625" style="96" customWidth="1"/>
-    <col min="13" max="13" width="19.140625" style="96" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.140625" style="96" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9.140625" style="96"/>
-    <col min="17" max="17" width="11.7109375" style="96" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="96"/>
+    <col min="4" max="5" width="17.265625" style="96" customWidth="1"/>
+    <col min="6" max="6" width="23.1328125" style="96" customWidth="1"/>
+    <col min="7" max="7" width="17.265625" style="96" customWidth="1"/>
+    <col min="8" max="8" width="22.59765625" style="96" customWidth="1"/>
+    <col min="9" max="9" width="17.265625" style="96" customWidth="1"/>
+    <col min="10" max="10" width="22.3984375" style="96" customWidth="1"/>
+    <col min="11" max="11" width="20.86328125" style="96" customWidth="1"/>
+    <col min="12" max="12" width="28.1328125" style="96" customWidth="1"/>
+    <col min="13" max="13" width="19.1328125" style="96" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.1328125" style="96" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.1328125" style="96"/>
+    <col min="17" max="17" width="11.73046875" style="96" customWidth="1"/>
+    <col min="18" max="16384" width="9.1328125" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="57" x14ac:dyDescent="0.45">
       <c r="A1" s="94" t="s">
         <v>28</v>
       </c>
@@ -14027,7 +14066,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" s="97">
         <v>2018</v>
       </c>
@@ -14063,9 +14102,9 @@
         <f>INDEX('CEA NEP'!$C$22:$M$22,1,MATCH($A2,'CEA NEP'!$C$17:$M$17,0))</f>
         <v>796946.92977702012</v>
       </c>
-      <c r="J2" s="98">
+      <c r="J2" s="98" t="e">
         <f>'IESS Annual Cap Costs'!J4</f>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K2" s="98">
         <f>L2</f>
@@ -14096,7 +14135,7 @@
         <v>2974456.819426693</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" s="97">
         <v>2019</v>
       </c>
@@ -14126,9 +14165,9 @@
         <f>INDEX('CEA NEP'!$C$22:$M$22,1,MATCH($A3,'CEA NEP'!$C$17:$M$17,0))</f>
         <v>796946.92977702012</v>
       </c>
-      <c r="J3" s="98">
+      <c r="J3" s="98" t="e">
         <f>'IESS Annual Cap Costs'!J5</f>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K3" s="98">
         <f t="shared" ref="K3:K34" si="2">L3</f>
@@ -14156,7 +14195,7 @@
         <v>2953660.7631915286</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" s="97">
         <v>2020</v>
       </c>
@@ -14186,9 +14225,9 @@
         <f>INDEX('CEA NEP'!$C$22:$M$22,1,MATCH($A4,'CEA NEP'!$C$17:$M$17,0))</f>
         <v>796946.92977702012</v>
       </c>
-      <c r="J4" s="98">
+      <c r="J4" s="98" t="e">
         <f>'IESS Annual Cap Costs'!J6</f>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K4" s="98">
         <f t="shared" si="2"/>
@@ -14216,7 +14255,7 @@
         <v>2932864.7069563642</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" s="97">
         <v>2021</v>
       </c>
@@ -14246,9 +14285,9 @@
         <f>INDEX('CEA NEP'!$C$22:$M$22,1,MATCH($A5,'CEA NEP'!$C$17:$M$17,0))</f>
         <v>796946.92977702012</v>
       </c>
-      <c r="J5" s="98">
+      <c r="J5" s="98" t="e">
         <f>'IESS Annual Cap Costs'!J7</f>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K5" s="98">
         <f t="shared" si="2"/>
@@ -14276,7 +14315,7 @@
         <v>2912068.6507211998</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" s="97">
         <v>2022</v>
       </c>
@@ -14306,9 +14345,9 @@
         <f>INDEX('CEA NEP'!$C$22:$M$22,1,MATCH($A6,'CEA NEP'!$C$17:$M$17,0))</f>
         <v>796946.92977702012</v>
       </c>
-      <c r="J6" s="98">
+      <c r="J6" s="98" t="e">
         <f>'IESS Annual Cap Costs'!J8</f>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K6" s="98">
         <f t="shared" si="2"/>
@@ -14336,7 +14375,7 @@
         <v>2891272.5944860321</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" s="97">
         <v>2023</v>
       </c>
@@ -14366,9 +14405,9 @@
         <f>INDEX('CEA NEP'!$C$22:$M$22,1,MATCH($A7,'CEA NEP'!$C$17:$M$17,0))</f>
         <v>796946.92977702012</v>
       </c>
-      <c r="J7" s="98">
+      <c r="J7" s="98" t="e">
         <f>'IESS Annual Cap Costs'!J9</f>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K7" s="98">
         <f t="shared" si="2"/>
@@ -14396,7 +14435,7 @@
         <v>2871352.9304363653</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" s="97">
         <v>2024</v>
       </c>
@@ -14426,9 +14465,9 @@
         <f>INDEX('CEA NEP'!$C$22:$M$22,1,MATCH($A8,'CEA NEP'!$C$17:$M$17,0))</f>
         <v>796946.92977702012</v>
       </c>
-      <c r="J8" s="98">
+      <c r="J8" s="98" t="e">
         <f>'IESS Annual Cap Costs'!J10</f>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K8" s="98">
         <f t="shared" si="2"/>
@@ -14456,7 +14495,7 @@
         <v>2851433.2663867027</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" s="97">
         <v>2025</v>
       </c>
@@ -14486,9 +14525,9 @@
         <f>INDEX('CEA NEP'!$C$22:$M$22,1,MATCH($A9,'CEA NEP'!$C$17:$M$17,0))</f>
         <v>796946.92977702012</v>
       </c>
-      <c r="J9" s="98">
+      <c r="J9" s="98" t="e">
         <f>'IESS Annual Cap Costs'!J11</f>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K9" s="98">
         <f t="shared" si="2"/>
@@ -14516,7 +14555,7 @@
         <v>2831513.6023370475</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10" s="97">
         <v>2026</v>
       </c>
@@ -14546,9 +14585,9 @@
         <f>INDEX('CEA NEP'!$C$22:$M$22,1,MATCH($A10,'CEA NEP'!$C$17:$M$17,0))</f>
         <v>796946.92977702012</v>
       </c>
-      <c r="J10" s="98">
+      <c r="J10" s="98" t="e">
         <f>'IESS Annual Cap Costs'!J12</f>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K10" s="98">
         <f t="shared" si="2"/>
@@ -14576,7 +14615,7 @@
         <v>2811593.9382873848</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11" s="97">
         <v>2027</v>
       </c>
@@ -14606,9 +14645,9 @@
         <f>I10*'IESS Annual Cap Costs'!I13/'IESS Annual Cap Costs'!I12</f>
         <v>796946.92977702012</v>
       </c>
-      <c r="J11" s="98">
+      <c r="J11" s="98" t="e">
         <f>'IESS Annual Cap Costs'!J13</f>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K11" s="98">
         <f t="shared" si="2"/>
@@ -14636,7 +14675,7 @@
         <v>2791674.2742377212</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12" s="97">
         <v>2028</v>
       </c>
@@ -14666,9 +14705,9 @@
         <f>I11*'IESS Annual Cap Costs'!I14/'IESS Annual Cap Costs'!I13</f>
         <v>796946.92977702012</v>
       </c>
-      <c r="J12" s="98">
+      <c r="J12" s="98" t="e">
         <f>'IESS Annual Cap Costs'!J14</f>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K12" s="98">
         <f t="shared" si="2"/>
@@ -14696,7 +14735,7 @@
         <v>2772612.7442030236</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A13" s="97">
         <v>2029</v>
       </c>
@@ -14726,9 +14765,9 @@
         <f>I12*'IESS Annual Cap Costs'!I15/'IESS Annual Cap Costs'!I14</f>
         <v>796946.92977702012</v>
       </c>
-      <c r="J13" s="98">
+      <c r="J13" s="98" t="e">
         <f>'IESS Annual Cap Costs'!J15</f>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K13" s="98">
         <f t="shared" si="2"/>
@@ -14756,7 +14795,7 @@
         <v>2753551.21416834</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" s="97">
         <v>2030</v>
       </c>
@@ -14786,9 +14825,9 @@
         <f>I13*'IESS Annual Cap Costs'!I16/'IESS Annual Cap Costs'!I15</f>
         <v>796946.92977702012</v>
       </c>
-      <c r="J14" s="98">
+      <c r="J14" s="98" t="e">
         <f>'IESS Annual Cap Costs'!J16</f>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K14" s="98">
         <f t="shared" si="2"/>
@@ -14816,7 +14855,7 @@
         <v>2734489.6841336489</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A15" s="97">
         <v>2031</v>
       </c>
@@ -14846,9 +14885,9 @@
         <f>I14*'IESS Annual Cap Costs'!I17/'IESS Annual Cap Costs'!I16</f>
         <v>796946.92977702012</v>
       </c>
-      <c r="J15" s="98">
+      <c r="J15" s="98" t="e">
         <f>'IESS Annual Cap Costs'!J17</f>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K15" s="98">
         <f t="shared" si="2"/>
@@ -14876,7 +14915,7 @@
         <v>2715428.1540989578</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A16" s="97">
         <v>2032</v>
       </c>
@@ -14906,9 +14945,9 @@
         <f>I15*'IESS Annual Cap Costs'!I18/'IESS Annual Cap Costs'!I17</f>
         <v>796946.92977702012</v>
       </c>
-      <c r="J16" s="98">
+      <c r="J16" s="98" t="e">
         <f>'IESS Annual Cap Costs'!J18</f>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K16" s="98">
         <f t="shared" si="2"/>
@@ -14936,7 +14975,7 @@
         <v>2696366.6240642685</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A17" s="97">
         <v>2033</v>
       </c>
@@ -14966,9 +15005,9 @@
         <f>I16*'IESS Annual Cap Costs'!I19/'IESS Annual Cap Costs'!I18</f>
         <v>796946.92977702012</v>
       </c>
-      <c r="J17" s="98">
+      <c r="J17" s="98" t="e">
         <f>'IESS Annual Cap Costs'!J19</f>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K17" s="98">
         <f t="shared" si="2"/>
@@ -14996,7 +15035,7 @@
         <v>2678071.9371918961</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A18" s="97">
         <v>2034</v>
       </c>
@@ -15026,9 +15065,9 @@
         <f>I17*'IESS Annual Cap Costs'!I20/'IESS Annual Cap Costs'!I19</f>
         <v>796946.92977702012</v>
       </c>
-      <c r="J18" s="98">
+      <c r="J18" s="98" t="e">
         <f>'IESS Annual Cap Costs'!J20</f>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K18" s="98">
         <f t="shared" si="2"/>
@@ -15056,7 +15095,7 @@
         <v>2659777.2503195181</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A19" s="97">
         <v>2035</v>
       </c>
@@ -15086,9 +15125,9 @@
         <f>I18*'IESS Annual Cap Costs'!I21/'IESS Annual Cap Costs'!I20</f>
         <v>796946.92977702012</v>
       </c>
-      <c r="J19" s="98">
+      <c r="J19" s="98" t="e">
         <f>'IESS Annual Cap Costs'!J21</f>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K19" s="98">
         <f t="shared" si="2"/>
@@ -15116,7 +15155,7 @@
         <v>2641482.5634471402</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A20" s="97">
         <v>2036</v>
       </c>
@@ -15146,9 +15185,9 @@
         <f>I19*'IESS Annual Cap Costs'!I22/'IESS Annual Cap Costs'!I21</f>
         <v>796946.92977702012</v>
       </c>
-      <c r="J20" s="98">
+      <c r="J20" s="98" t="e">
         <f>'IESS Annual Cap Costs'!J22</f>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K20" s="98">
         <f t="shared" si="2"/>
@@ -15176,7 +15215,7 @@
         <v>2623187.8765747696</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A21" s="97">
         <v>2037</v>
       </c>
@@ -15206,9 +15245,9 @@
         <f>I20*'IESS Annual Cap Costs'!I23/'IESS Annual Cap Costs'!I22</f>
         <v>796946.92977702012</v>
       </c>
-      <c r="J21" s="98">
+      <c r="J21" s="98" t="e">
         <f>'IESS Annual Cap Costs'!J23</f>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K21" s="98">
         <f t="shared" si="2"/>
@@ -15236,7 +15275,7 @@
         <v>2604893.1897023916</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A22" s="97">
         <v>2038</v>
       </c>
@@ -15266,9 +15305,9 @@
         <f>I21*'IESS Annual Cap Costs'!I24/'IESS Annual Cap Costs'!I23</f>
         <v>796946.92977702012</v>
       </c>
-      <c r="J22" s="98">
+      <c r="J22" s="98" t="e">
         <f>'IESS Annual Cap Costs'!J24</f>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K22" s="98">
         <f t="shared" si="2"/>
@@ -15296,7 +15335,7 @@
         <v>2587401.8623333946</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A23" s="97">
         <v>2039</v>
       </c>
@@ -15326,9 +15365,9 @@
         <f>I22*'IESS Annual Cap Costs'!I25/'IESS Annual Cap Costs'!I24</f>
         <v>796946.92977702012</v>
       </c>
-      <c r="J23" s="98">
+      <c r="J23" s="98" t="e">
         <f>'IESS Annual Cap Costs'!J25</f>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K23" s="98">
         <f t="shared" si="2"/>
@@ -15356,7 +15395,7 @@
         <v>2569910.5349643975</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A24" s="97">
         <v>2040</v>
       </c>
@@ -15386,9 +15425,9 @@
         <f>I23*'IESS Annual Cap Costs'!I26/'IESS Annual Cap Costs'!I25</f>
         <v>796946.92977702012</v>
       </c>
-      <c r="J24" s="98">
+      <c r="J24" s="98" t="e">
         <f>'IESS Annual Cap Costs'!J26</f>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K24" s="98">
         <f t="shared" si="2"/>
@@ -15416,7 +15455,7 @@
         <v>2552419.2075954005</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A25" s="97">
         <v>2041</v>
       </c>
@@ -15446,9 +15485,9 @@
         <f>I24*'IESS Annual Cap Costs'!I27/'IESS Annual Cap Costs'!I26</f>
         <v>796946.92977702012</v>
       </c>
-      <c r="J25" s="98">
+      <c r="J25" s="98" t="e">
         <f>'IESS Annual Cap Costs'!J27</f>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K25" s="98">
         <f t="shared" si="2"/>
@@ -15476,7 +15515,7 @@
         <v>2534927.8802264035</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A26" s="97">
         <v>2042</v>
       </c>
@@ -15506,9 +15545,9 @@
         <f>I25*'IESS Annual Cap Costs'!I28/'IESS Annual Cap Costs'!I27</f>
         <v>796946.92977702012</v>
       </c>
-      <c r="J26" s="98">
+      <c r="J26" s="98" t="e">
         <f>'IESS Annual Cap Costs'!J28</f>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K26" s="98">
         <f t="shared" si="2"/>
@@ -15536,7 +15575,7 @@
         <v>2517436.5528574036</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A27" s="97">
         <v>2043</v>
       </c>
@@ -15566,9 +15605,9 @@
         <f>I26*'IESS Annual Cap Costs'!I29/'IESS Annual Cap Costs'!I28</f>
         <v>796946.92977702012</v>
       </c>
-      <c r="J27" s="98">
+      <c r="J27" s="98" t="e">
         <f>'IESS Annual Cap Costs'!J29</f>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K27" s="98">
         <f t="shared" si="2"/>
@@ -15596,7 +15635,7 @@
         <v>2500639.0359685943</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A28" s="97">
         <v>2044</v>
       </c>
@@ -15626,9 +15665,9 @@
         <f>I27*'IESS Annual Cap Costs'!I30/'IESS Annual Cap Costs'!I29</f>
         <v>796946.92977702012</v>
       </c>
-      <c r="J28" s="98">
+      <c r="J28" s="98" t="e">
         <f>'IESS Annual Cap Costs'!J30</f>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K28" s="98">
         <f t="shared" si="2"/>
@@ -15656,7 +15695,7 @@
         <v>2483841.5190797895</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A29" s="97">
         <v>2045</v>
       </c>
@@ -15686,9 +15725,9 @@
         <f>I28*'IESS Annual Cap Costs'!I31/'IESS Annual Cap Costs'!I30</f>
         <v>796946.92977702012</v>
       </c>
-      <c r="J29" s="98">
+      <c r="J29" s="98" t="e">
         <f>'IESS Annual Cap Costs'!J31</f>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K29" s="98">
         <f t="shared" si="2"/>
@@ -15716,7 +15755,7 @@
         <v>2467044.0021909773</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A30" s="97">
         <v>2046</v>
       </c>
@@ -15746,9 +15785,9 @@
         <f>I29*'IESS Annual Cap Costs'!I32/'IESS Annual Cap Costs'!I31</f>
         <v>796946.92977702012</v>
       </c>
-      <c r="J30" s="98">
+      <c r="J30" s="98" t="e">
         <f>'IESS Annual Cap Costs'!J32</f>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K30" s="98">
         <f t="shared" si="2"/>
@@ -15776,7 +15815,7 @@
         <v>2450246.4853021726</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A31" s="97">
         <v>2047</v>
       </c>
@@ -15806,9 +15845,9 @@
         <f>I30*'IESS Annual Cap Costs'!I33/'IESS Annual Cap Costs'!I32</f>
         <v>796946.92977702012</v>
       </c>
-      <c r="J31" s="98">
+      <c r="J31" s="98" t="e">
         <f>'IESS Annual Cap Costs'!J33</f>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K31" s="98">
         <f t="shared" si="2"/>
@@ -15836,7 +15875,7 @@
         <v>2433448.9684133651</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A32" s="97">
         <v>2048</v>
       </c>
@@ -15866,9 +15905,9 @@
         <f>I31*'IESS Annual Cap Costs'!I34/'IESS Annual Cap Costs'!I33</f>
         <v>796946.92977702012</v>
       </c>
-      <c r="J32" s="98">
+      <c r="J32" s="98" t="e">
         <f>'IESS Annual Cap Costs'!J34</f>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K32" s="98">
         <f t="shared" si="2"/>
@@ -15896,7 +15935,7 @@
         <v>2416651.4515245557</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A33" s="97">
         <v>2049</v>
       </c>
@@ -15926,9 +15965,9 @@
         <f>I32*'IESS Annual Cap Costs'!I35/'IESS Annual Cap Costs'!I34</f>
         <v>796946.92977702012</v>
       </c>
-      <c r="J33" s="98">
+      <c r="J33" s="98" t="e">
         <f>'IESS Annual Cap Costs'!J35</f>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K33" s="98">
         <f t="shared" si="2"/>
@@ -15956,7 +15995,7 @@
         <v>2399853.9346357509</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A34" s="97">
         <v>2050</v>
       </c>
@@ -15986,9 +16025,9 @@
         <f>I33*'IESS Annual Cap Costs'!I36/'IESS Annual Cap Costs'!I35</f>
         <v>796946.92977702012</v>
       </c>
-      <c r="J34" s="98">
+      <c r="J34" s="98" t="e">
         <f>'IESS Annual Cap Costs'!J36</f>
-        <v>5020996.8961110096</v>
+        <v>#REF!</v>
       </c>
       <c r="K34" s="98">
         <f t="shared" si="2"/>
@@ -16016,43 +16055,43 @@
         <v>2383056.4177469388</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B35" s="99"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B36" s="99"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B37" s="99"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B38" s="99"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B39" s="99"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B40" s="99"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B41" s="99"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B42" s="99"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B43" s="99"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B44" s="99"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B45" s="99"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B46" s="99"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B47" s="99"/>
     </row>
   </sheetData>
@@ -16061,301 +16100,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <sheetPr>
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1:D17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="33.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="4">
-        <f>Lazard!D19*10^3</f>
-        <v>36675.000000000007</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
-        <f>B2</f>
-        <v>36675.000000000007</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="4">
-        <f>Lazard!D20*10^3</f>
-        <v>9900</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
-        <f t="shared" ref="D3:D14" si="0">B3</f>
-        <v>9900</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="4">
-        <f>Lazard!D21*10^3</f>
-        <v>97650</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <f t="shared" si="0"/>
-        <v>97650</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="4">
-        <f>Lazard!D23*10^3</f>
-        <v>25200</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4">
-        <f t="shared" si="0"/>
-        <v>25200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="4">
-        <f>Lazard!D24*10^3</f>
-        <v>8100</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
-        <f t="shared" si="0"/>
-        <v>8100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="4">
-        <f>Lazard!D25*10^3</f>
-        <v>67500</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4">
-        <f t="shared" si="0"/>
-        <v>67500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="4">
-        <f>Lazard!D26*10^3</f>
-        <v>45000</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4">
-        <f t="shared" si="0"/>
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="4">
-        <f>Lazard!D28*10^3</f>
-        <v>4950</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4">
-        <f t="shared" si="0"/>
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="4">
-        <f>Lazard!D29*10^3</f>
-        <v>4950</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4">
-        <f t="shared" si="0"/>
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" s="4">
-        <f>B2*'Coal Cost Multipliers'!$B$35</f>
-        <v>36675.000000000007</v>
-      </c>
-      <c r="C13" s="4">
-        <f>C2*'Coal Cost Multipliers'!$B$35</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="4">
-        <f>D2*'Coal Cost Multipliers'!$B$35</f>
-        <v>36675.000000000007</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="4">
-        <f>Lazard!D31*10^3</f>
-        <v>72000</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0</v>
-      </c>
-      <c r="D14" s="4">
-        <f t="shared" si="0"/>
-        <v>72000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="B15" s="4">
-        <f>B11</f>
-        <v>4950</v>
-      </c>
-      <c r="C15" s="4">
-        <f t="shared" ref="C15:D15" si="1">C11</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="4">
-        <f t="shared" si="1"/>
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="B16" s="4">
-        <f>B11</f>
-        <v>4950</v>
-      </c>
-      <c r="C16" s="4">
-        <f t="shared" ref="C16:D16" si="2">C11</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="4">
-        <f t="shared" si="2"/>
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="B17" s="4">
-        <f>'Waste to Energy'!A8*'CCaMC-BCCpUC_old'!Q2</f>
-        <v>178467.40916560157</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0</v>
-      </c>
-      <c r="D17" s="4">
-        <f>B17</f>
-        <v>178467.40916560157</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -16365,14 +16110,311 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" style="20" customWidth="1"/>
-    <col min="2" max="4" width="24" style="20" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="20"/>
+    <col min="1" max="1" width="33.265625" customWidth="1"/>
+    <col min="2" max="2" width="23.1328125" customWidth="1"/>
+    <col min="3" max="3" width="28.59765625" customWidth="1"/>
+    <col min="4" max="4" width="23.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="4">
+        <f>Lazard!D19*10^3</f>
+        <v>36675.000000000007</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <f>B2</f>
+        <v>36675.000000000007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="4">
+        <f>Lazard!D20*10^3</f>
+        <v>9900</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:D14" si="0">B3</f>
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="4">
+        <f>Lazard!D21*10^3</f>
+        <v>97650</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>97650</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="4">
+        <f>Lazard!D23*10^3</f>
+        <v>25200</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>25200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="4">
+        <f>Lazard!D24*10^3</f>
+        <v>8100</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="4">
+        <f>Lazard!D25*10^3</f>
+        <v>67500</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>67500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="4">
+        <f>Lazard!D26*10^3</f>
+        <v>45000</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="4">
+        <f>'Pumped Hydro'!B7</f>
+        <v>17573.489136388536</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>17573.489136388536</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="4">
+        <f>Lazard!D28*10^3</f>
+        <v>4950</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="4">
+        <f>Lazard!D29*10^3</f>
+        <v>4950</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="4">
+        <f>B2*'Coal Cost Multipliers'!$B$35</f>
+        <v>36675.000000000007</v>
+      </c>
+      <c r="C13" s="4">
+        <f>C2*'Coal Cost Multipliers'!$B$35</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <f>D2*'Coal Cost Multipliers'!$B$35</f>
+        <v>36675.000000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="4">
+        <f>Lazard!D31*10^3</f>
+        <v>72000</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="B15" s="4">
+        <f>B11</f>
+        <v>4950</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" ref="C15:D15" si="1">C11</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="1"/>
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="B16" s="4">
+        <f>B11</f>
+        <v>4950</v>
+      </c>
+      <c r="C16" s="4">
+        <f t="shared" ref="C16:D16" si="2">C11</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="2"/>
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="B17" s="4">
+        <f>'Waste to Energy'!A8*'CCaMC-BCCpUC_old'!Q2</f>
+        <v>178467.40916560157</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <f>B17</f>
+        <v>178467.40916560157</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="33.265625" style="20" customWidth="1"/>
+    <col min="2" max="4" width="24" style="20" customWidth="1"/>
+    <col min="5" max="16384" width="9.1328125" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>76</v>
       </c>
@@ -16386,7 +16428,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="20" t="s">
         <v>71</v>
       </c>
@@ -16402,7 +16444,7 @@
         <v>2.4750000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="20" t="s">
         <v>17</v>
       </c>
@@ -16418,7 +16460,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="20" t="s">
         <v>19</v>
       </c>
@@ -16434,7 +16476,7 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="20" t="s">
         <v>23</v>
       </c>
@@ -16450,7 +16492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="20" t="s">
         <v>24</v>
       </c>
@@ -16466,7 +16508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="20" t="s">
         <v>27</v>
       </c>
@@ -16482,7 +16524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="20" t="s">
         <v>26</v>
       </c>
@@ -16498,7 +16540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="20" t="s">
         <v>20</v>
       </c>
@@ -16514,7 +16556,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="20" t="s">
         <v>21</v>
       </c>
@@ -16530,7 +16572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="20" t="s">
         <v>74</v>
       </c>
@@ -16546,7 +16588,7 @@
         <v>4.2750000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="20" t="s">
         <v>18</v>
       </c>
@@ -16562,7 +16604,7 @@
         <v>4.2750000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="20" t="s">
         <v>75</v>
       </c>
@@ -16579,7 +16621,7 @@
         <v>4.1929411764705886</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="20" t="s">
         <v>25</v>
       </c>
@@ -16595,7 +16637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="20" t="s">
         <v>195</v>
       </c>
@@ -16612,7 +16654,7 @@
         <v>4.2750000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="20" t="s">
         <v>196</v>
       </c>
@@ -16629,7 +16671,7 @@
         <v>4.2750000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="20" t="s">
         <v>197</v>
       </c>
@@ -16652,30 +16694,30 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AH17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C10" sqref="C10:AH10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="20" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.1328125" customWidth="1"/>
+    <col min="2" max="2" width="9.73046875" style="20" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" customWidth="1"/>
+    <col min="5" max="5" width="11.3984375" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.73046875" customWidth="1"/>
+    <col min="9" max="9" width="10.86328125" customWidth="1"/>
+    <col min="10" max="10" width="10.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A1" s="91" t="s">
         <v>233</v>
       </c>
@@ -16779,7 +16821,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>151</v>
       </c>
@@ -16884,7 +16926,7 @@
         <v>2398787.9650966311</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>234</v>
       </c>
@@ -16989,7 +17031,7 @@
         <v>922045.43676152243</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>235</v>
       </c>
@@ -17094,7 +17136,7 @@
         <v>1892338.6983256896</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>236</v>
       </c>
@@ -17199,7 +17241,7 @@
         <v>1757553.5482714351</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>237</v>
       </c>
@@ -17305,7 +17347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>238</v>
       </c>
@@ -17411,7 +17453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>239</v>
       </c>
@@ -17516,7 +17558,7 @@
         <v>3089058.5196694024</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>240</v>
       </c>
@@ -17621,144 +17663,144 @@
         <v>796946.92977702012</v>
       </c>
     </row>
-    <row r="10" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="1">
-        <f>B5</f>
-        <v>1454078.6087159668</v>
-      </c>
-      <c r="C10" s="1">
-        <f t="shared" ref="C10:AH10" si="0">C5</f>
-        <v>1510004.7090511965</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="B10" s="127">
+        <f>'Pumped Hydro'!B4</f>
+        <v>702939.56545554136</v>
+      </c>
+      <c r="C10" s="127">
+        <f>$B$10</f>
+        <v>702939.56545554136</v>
+      </c>
+      <c r="D10" s="127">
+        <f t="shared" ref="D10:AH10" si="0">$B$10</f>
+        <v>702939.56545554136</v>
+      </c>
+      <c r="E10" s="127">
         <f t="shared" si="0"/>
-        <v>1565930.8093864257</v>
-      </c>
-      <c r="E10" s="1">
+        <v>702939.56545554136</v>
+      </c>
+      <c r="F10" s="127">
         <f t="shared" si="0"/>
-        <v>1635838.4348054626</v>
-      </c>
-      <c r="F10" s="1">
+        <v>702939.56545554136</v>
+      </c>
+      <c r="G10" s="127">
         <f t="shared" si="0"/>
-        <v>1705746.0602244993</v>
-      </c>
-      <c r="G10" s="1">
+        <v>702939.56545554136</v>
+      </c>
+      <c r="H10" s="127">
         <f t="shared" si="0"/>
-        <v>1775653.6856435363</v>
-      </c>
-      <c r="H10" s="1">
+        <v>702939.56545554136</v>
+      </c>
+      <c r="I10" s="127">
         <f t="shared" si="0"/>
-        <v>1845561.3110625728</v>
-      </c>
-      <c r="I10" s="1">
+        <v>702939.56545554136</v>
+      </c>
+      <c r="J10" s="127">
         <f t="shared" si="0"/>
-        <v>1915468.9364816097</v>
-      </c>
-      <c r="J10" s="1">
+        <v>702939.56545554136</v>
+      </c>
+      <c r="K10" s="127">
         <f t="shared" si="0"/>
-        <v>1985376.5619006469</v>
-      </c>
-      <c r="K10" s="1">
+        <v>702939.56545554136</v>
+      </c>
+      <c r="L10" s="127">
         <f t="shared" si="0"/>
-        <v>1885308.374445213</v>
-      </c>
-      <c r="L10" s="1">
+        <v>702939.56545554136</v>
+      </c>
+      <c r="M10" s="127">
         <f t="shared" si="0"/>
-        <v>1905127.1767902004</v>
-      </c>
-      <c r="M10" s="1">
+        <v>702939.56545554136</v>
+      </c>
+      <c r="N10" s="127">
         <f t="shared" si="0"/>
-        <v>1924945.9791351876</v>
-      </c>
-      <c r="N10" s="1">
+        <v>702939.56545554136</v>
+      </c>
+      <c r="O10" s="127">
         <f t="shared" si="0"/>
-        <v>1944764.7814801747</v>
-      </c>
-      <c r="O10" s="1">
+        <v>702939.56545554136</v>
+      </c>
+      <c r="P10" s="127">
         <f t="shared" si="0"/>
-        <v>1964583.5838251619</v>
-      </c>
-      <c r="P10" s="1">
+        <v>702939.56545554136</v>
+      </c>
+      <c r="Q10" s="127">
         <f t="shared" si="0"/>
-        <v>1984402.3861701486</v>
-      </c>
-      <c r="Q10" s="1">
+        <v>702939.56545554136</v>
+      </c>
+      <c r="R10" s="127">
         <f t="shared" si="0"/>
-        <v>1993870.4108001308</v>
-      </c>
-      <c r="R10" s="1">
+        <v>702939.56545554136</v>
+      </c>
+      <c r="S10" s="127">
         <f t="shared" si="0"/>
-        <v>2003338.4354301128</v>
-      </c>
-      <c r="S10" s="1">
+        <v>702939.56545554136</v>
+      </c>
+      <c r="T10" s="127">
         <f t="shared" si="0"/>
-        <v>2012806.4600600947</v>
-      </c>
-      <c r="T10" s="1">
+        <v>702939.56545554136</v>
+      </c>
+      <c r="U10" s="127">
         <f t="shared" si="0"/>
-        <v>2022274.4846900767</v>
-      </c>
-      <c r="U10" s="1">
+        <v>702939.56545554136</v>
+      </c>
+      <c r="V10" s="127">
         <f t="shared" si="0"/>
-        <v>2031742.5093200589</v>
-      </c>
-      <c r="V10" s="1">
+        <v>702939.56545554136</v>
+      </c>
+      <c r="W10" s="127">
         <f t="shared" si="0"/>
-        <v>1978048.7361460177</v>
-      </c>
-      <c r="W10" s="1">
+        <v>702939.56545554136</v>
+      </c>
+      <c r="X10" s="127">
         <f t="shared" si="0"/>
-        <v>1924354.9629719767</v>
-      </c>
-      <c r="X10" s="1">
+        <v>702939.56545554136</v>
+      </c>
+      <c r="Y10" s="127">
         <f t="shared" si="0"/>
-        <v>1870661.1897979355</v>
-      </c>
-      <c r="Y10" s="1">
+        <v>702939.56545554136</v>
+      </c>
+      <c r="Z10" s="127">
         <f t="shared" si="0"/>
-        <v>1816967.4166238944</v>
-      </c>
-      <c r="Z10" s="1">
+        <v>702939.56545554136</v>
+      </c>
+      <c r="AA10" s="127">
         <f t="shared" si="0"/>
-        <v>1763273.6434498536</v>
-      </c>
-      <c r="AA10" s="1">
+        <v>702939.56545554136</v>
+      </c>
+      <c r="AB10" s="127">
         <f t="shared" si="0"/>
-        <v>1762558.6315525512</v>
-      </c>
-      <c r="AB10" s="1">
+        <v>702939.56545554136</v>
+      </c>
+      <c r="AC10" s="127">
         <f t="shared" si="0"/>
-        <v>1761843.6196552489</v>
-      </c>
-      <c r="AC10" s="1">
+        <v>702939.56545554136</v>
+      </c>
+      <c r="AD10" s="127">
         <f t="shared" si="0"/>
-        <v>1761128.6077579465</v>
-      </c>
-      <c r="AD10" s="1">
+        <v>702939.56545554136</v>
+      </c>
+      <c r="AE10" s="127">
         <f t="shared" si="0"/>
-        <v>1760413.5958606442</v>
-      </c>
-      <c r="AE10" s="1">
+        <v>702939.56545554136</v>
+      </c>
+      <c r="AF10" s="127">
         <f t="shared" si="0"/>
-        <v>1759698.5839633422</v>
-      </c>
-      <c r="AF10" s="1">
+        <v>702939.56545554136</v>
+      </c>
+      <c r="AG10" s="127">
         <f t="shared" si="0"/>
-        <v>1758983.5720660398</v>
-      </c>
-      <c r="AG10" s="1">
+        <v>702939.56545554136</v>
+      </c>
+      <c r="AH10" s="127">
         <f t="shared" si="0"/>
-        <v>1758268.5601687375</v>
-      </c>
-      <c r="AH10" s="1">
-        <f t="shared" si="0"/>
-        <v>1757553.5482714351</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+        <v>702939.56545554136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>241</v>
       </c>
@@ -17863,7 +17905,7 @@
         <v>651000</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>242</v>
       </c>
@@ -17968,7 +18010,7 @@
         <v>651000</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>243</v>
       </c>
@@ -18073,7 +18115,7 @@
         <v>2780056.7943513985</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>244</v>
       </c>
@@ -18179,7 +18221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A15" s="92" t="s">
         <v>245</v>
       </c>
@@ -18284,7 +18326,7 @@
         <v>651000</v>
       </c>
     </row>
-    <row r="16" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A16" s="92" t="s">
         <v>246</v>
       </c>
@@ -18389,7 +18431,7 @@
         <v>651000</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A17" s="92" t="s">
         <v>247</v>
       </c>
@@ -18501,23 +18543,23 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AH20"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="20"/>
+    <col min="1" max="1" width="23.73046875" customWidth="1"/>
+    <col min="2" max="2" width="9.1328125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A1" s="91" t="s">
         <v>233</v>
       </c>
@@ -18621,7 +18663,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A2" s="51" t="s">
         <v>248</v>
       </c>
@@ -18725,7 +18767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A3" s="51" t="s">
         <v>249</v>
       </c>
@@ -18829,7 +18871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A4" s="51" t="s">
         <v>250</v>
       </c>
@@ -18933,7 +18975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A5" s="51" t="s">
         <v>251</v>
       </c>
@@ -19037,7 +19079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>237</v>
       </c>
@@ -19174,7 +19216,7 @@
         <v>209511.88986232792</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>238</v>
       </c>
@@ -19311,7 +19353,7 @@
         <v>192052.56570713394</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A8" s="51" t="s">
         <v>252</v>
       </c>
@@ -19415,7 +19457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A9" s="51" t="s">
         <v>253</v>
       </c>
@@ -19519,7 +19561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A10" s="51" t="s">
         <v>254</v>
       </c>
@@ -19623,7 +19665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A11" s="51" t="s">
         <v>255</v>
       </c>
@@ -19727,7 +19769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A12" s="51" t="s">
         <v>256</v>
       </c>
@@ -19831,7 +19873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A13" s="51" t="s">
         <v>257</v>
       </c>
@@ -19935,7 +19977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>244</v>
       </c>
@@ -20072,7 +20114,7 @@
         <v>681394.92422859231</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A15" s="51" t="s">
         <v>258</v>
       </c>
@@ -20176,7 +20218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A16" s="51" t="s">
         <v>259</v>
       </c>
@@ -20280,7 +20322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A17" s="51" t="s">
         <v>260</v>
       </c>
@@ -20384,7 +20426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.45">
       <c r="C20" s="20"/>
     </row>
   </sheetData>
@@ -20393,33 +20435,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="20">
         <v>2010</v>
       </c>
@@ -20428,7 +20470,7 @@
       </c>
       <c r="C4" s="20"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="20">
         <v>2011</v>
       </c>
@@ -20437,7 +20479,7 @@
       </c>
       <c r="C5" s="20"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="20">
         <v>2012</v>
       </c>
@@ -20446,7 +20488,7 @@
       </c>
       <c r="C6" s="20"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="20">
         <v>2013</v>
       </c>
@@ -20455,7 +20497,7 @@
       </c>
       <c r="C7" s="20"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="20">
         <v>2014</v>
       </c>
@@ -20464,7 +20506,7 @@
       </c>
       <c r="C8" s="20"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="20">
         <v>2015</v>
       </c>
@@ -20473,7 +20515,7 @@
       </c>
       <c r="C9" s="20"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="20">
         <v>2016</v>
       </c>
@@ -20482,7 +20524,7 @@
       </c>
       <c r="C10" s="20"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="20">
         <v>2017</v>
       </c>
@@ -20491,7 +20533,7 @@
       </c>
       <c r="C11" s="20"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>2018</v>
       </c>
@@ -20500,7 +20542,7 @@
       </c>
       <c r="C12" s="20"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>2019</v>
       </c>
@@ -20509,62 +20551,62 @@
       </c>
       <c r="C13" s="20"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="20">
         <v>100000</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="20"/>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="20"/>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="20">
         <v>10000000</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="20"/>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="20"/>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="20">
         <f>A19/A15</f>
         <v>100</v>
@@ -20572,17 +20614,17 @@
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="20"/>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="20"/>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>96</v>
       </c>
@@ -20591,7 +20633,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="17" t="s">
         <v>28</v>
       </c>
@@ -20602,7 +20644,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="20">
         <v>2010</v>
       </c>
@@ -20614,7 +20656,7 @@
         <v>0.84470208721577789</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="20">
         <v>2011</v>
       </c>
@@ -20626,7 +20668,7 @@
         <v>0.8995232526760818</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="20">
         <v>2012</v>
       </c>
@@ -20637,7 +20679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="20">
         <v>2013</v>
       </c>
@@ -20649,7 +20691,7 @@
         <v>1.0912999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="20">
         <v>2014</v>
       </c>
@@ -20661,7 +20703,7 @@
         <v>1.1552501799999999</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="20">
         <v>2015</v>
       </c>
@@ -20673,7 +20715,7 @@
         <v>1.2282619913759998</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="20">
         <v>2016</v>
       </c>
@@ -20685,7 +20727,7 @@
         <v>1.2556522337836846</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="20">
         <v>2017</v>
       </c>
@@ -20697,7 +20739,7 @@
         <v>1.3058783231350322</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>2018</v>
       </c>
@@ -20709,49 +20751,49 @@
         <v>1.3743063472673078</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="63">
         <v>0.93</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="63">
         <v>0.9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C26" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C26" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.86328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="9.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="50" t="s">
         <v>117</v>
       </c>
@@ -20764,7 +20806,7 @@
       <c r="H1" s="50"/>
       <c r="I1" s="50"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -20799,7 +20841,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -20825,7 +20867,7 @@
         <v>4.9345000000000007E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -20854,7 +20896,7 @@
         <v>6.535228698677871E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -20883,7 +20925,7 @@
         <v>7.2231475090650213E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -20912,7 +20954,7 @@
         <v>8.3410155759441301E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -20941,7 +20983,7 @@
         <v>0.125484989999745</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -20970,7 +21012,7 @@
         <v>7.2106249999999997E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -20999,7 +21041,7 @@
         <v>0.18243750000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -21035,7 +21077,7 @@
         <v>9.4500000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -21071,7 +21113,7 @@
         <v>6.3500000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>120</v>
       </c>
@@ -21100,7 +21142,7 @@
         <v>6.2199999999999991E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -21132,7 +21174,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -21165,7 +21207,7 @@
         <v>5.7500000000000002E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -21198,7 +21240,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -21224,7 +21266,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="50" t="s">
         <v>124</v>
       </c>
@@ -21237,7 +21279,7 @@
       <c r="H18" s="50"/>
       <c r="I18" s="50"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="20" t="s">
         <v>115</v>
       </c>
@@ -21272,7 +21314,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="20" t="s">
         <v>17</v>
       </c>
@@ -21306,7 +21348,7 @@
         <v>900949.42486762838</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="20" t="s">
         <v>71</v>
       </c>
@@ -21342,7 +21384,7 @@
         <v>1193213.2004158974</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="20" t="s">
         <v>71</v>
       </c>
@@ -21378,7 +21420,7 @@
         <v>1318814.5899333616</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="20" t="s">
         <v>71</v>
       </c>
@@ -21414,7 +21456,7 @@
         <v>1522916.8478992386</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="20" t="s">
         <v>71</v>
       </c>
@@ -21450,7 +21492,7 @@
         <v>2291126.346535421</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="20" t="s">
         <v>19</v>
       </c>
@@ -21486,7 +21528,7 @@
         <v>1316528.2088734708</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="20" t="s">
         <v>19</v>
       </c>
@@ -21522,7 +21564,7 @@
         <v>3330974.9863063726</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="20" t="s">
         <v>23</v>
       </c>
@@ -21558,7 +21600,7 @@
         <v>1725397.1152090558</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="20" t="s">
         <v>23</v>
       </c>
@@ -21594,7 +21636,7 @@
         <v>1159393.8287383604</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="20" t="s">
         <v>120</v>
       </c>
@@ -21630,7 +21672,7 @@
         <v>1135658.2070476536</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="20" t="s">
         <v>26</v>
       </c>
@@ -21666,7 +21708,7 @@
         <v>2730703.6811848823</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="20" t="s">
         <v>24</v>
       </c>
@@ -21700,7 +21742,7 @@
         <v>1049844.8055504838</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="20" t="s">
         <v>25</v>
       </c>
@@ -21734,7 +21776,7 @@
         <v>2483111.1922585354</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="20" t="s">
         <v>20</v>
       </c>
@@ -21768,7 +21810,7 @@
         <v>821617.67390907416</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" s="51" t="s">
         <v>125</v>
       </c>
@@ -21781,7 +21823,7 @@
       <c r="H35" s="51"/>
       <c r="I35" s="51"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" s="20" t="s">
         <v>115</v>
       </c>
@@ -21816,7 +21858,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" s="20" t="s">
         <v>71</v>
       </c>
@@ -21845,7 +21887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="20" t="s">
         <v>71</v>
       </c>
@@ -21874,7 +21916,7 @@
         <v>0.45366202535004463</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" s="20" t="s">
         <v>71</v>
       </c>
@@ -21903,7 +21945,7 @@
         <v>1.814648101400179</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" s="20" t="s">
         <v>71</v>
       </c>
@@ -21932,7 +21974,7 @@
         <v>2.2683101267502237</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" s="20" t="s">
         <v>19</v>
       </c>
@@ -21961,7 +22003,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" s="20" t="s">
         <v>19</v>
       </c>
@@ -21990,7 +22032,7 @@
         <v>0.21999999999999992</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" s="20" t="s">
         <v>23</v>
       </c>
@@ -22019,7 +22061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" s="20" t="s">
         <v>23</v>
       </c>
@@ -22048,7 +22090,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" s="51" t="s">
         <v>128</v>
       </c>
@@ -22061,7 +22103,7 @@
       <c r="H46" s="51"/>
       <c r="I46" s="20"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>101</v>
       </c>
@@ -22088,7 +22130,7 @@
       </c>
       <c r="I47" s="4"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" s="20" t="s">
         <v>14</v>
       </c>
@@ -22121,7 +22163,7 @@
         <v>1886611.371420742</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A49" s="20" t="s">
         <v>17</v>
       </c>
@@ -22154,7 +22196,7 @@
         <v>900949.42486762838</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A50" s="20" t="s">
         <v>19</v>
       </c>
@@ -22187,7 +22229,7 @@
         <v>2131194.1850411883</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A51" s="20" t="s">
         <v>23</v>
       </c>
@@ -22220,7 +22262,7 @@
         <v>1536729.3530521572</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52" s="20" t="s">
         <v>24</v>
       </c>
@@ -22253,7 +22295,7 @@
         <v>1049844.8055504838</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A53" s="20" t="s">
         <v>27</v>
       </c>
@@ -22286,7 +22328,7 @@
         <v>1135658.2070476536</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A54" s="20" t="s">
         <v>26</v>
       </c>
@@ -22319,7 +22361,7 @@
         <v>2730703.6811848823</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A55" s="20" t="s">
         <v>20</v>
       </c>
@@ -22352,7 +22394,7 @@
         <v>821617.67390907416</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A56" s="20" t="s">
         <v>21</v>
       </c>
@@ -22363,7 +22405,7 @@
       <c r="G56" s="20"/>
       <c r="H56" s="20"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A57" s="20" t="s">
         <v>74</v>
       </c>
@@ -22374,7 +22416,7 @@
       <c r="G57" s="20"/>
       <c r="H57" s="20"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58" s="20" t="s">
         <v>18</v>
       </c>
@@ -22385,7 +22427,7 @@
       <c r="G58" s="20"/>
       <c r="H58" s="20"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59" s="20" t="s">
         <v>75</v>
       </c>
@@ -22396,7 +22438,7 @@
       <c r="G59" s="20"/>
       <c r="H59" s="20"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60" s="20" t="s">
         <v>25</v>
       </c>
@@ -22435,36 +22477,67 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.06640625" style="20"/>
+    <col min="2" max="2" width="11.3984375" style="20" customWidth="1"/>
+    <col min="3" max="16384" width="9.06640625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>27.5</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="20" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="B2" s="20">
+        <v>2</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <f>A1*'Conversion Factors'!A19/'Conversion Factors'!B6</f>
-        <v>5020996.8961110096</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="B3" s="20">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B4" s="4">
+        <f>AVERAGE(B2:B3)*'[1]Conversion Factors'!A19/'[1]Conversion Factors'!B6</f>
+        <v>702939.56545554136</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>131</v>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="20" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B7" s="12">
+        <f>(2.5/100)*B4</f>
+        <v>17573.489136388536</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B9" s="20" t="s">
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -22473,33 +22546,33 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="131" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="132" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="130" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="129"/>
-      <c r="D1" s="130"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="132"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="131"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="133"/>
       <c r="B2" s="52" t="s">
         <v>133</v>
       </c>
@@ -22510,7 +22583,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="54" t="s">
         <v>14</v>
       </c>
@@ -22522,7 +22595,7 @@
         <v>40.75</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="54" t="s">
         <v>17</v>
       </c>
@@ -22534,7 +22607,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="54" t="s">
         <v>19</v>
       </c>
@@ -22546,7 +22619,7 @@
         <v>108.5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="54" t="s">
         <v>23</v>
       </c>
@@ -22554,7 +22627,7 @@
       <c r="C6" s="56"/>
       <c r="D6" s="57"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="54" t="s">
         <v>24</v>
       </c>
@@ -22566,7 +22639,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="54" t="s">
         <v>27</v>
       </c>
@@ -22578,7 +22651,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="54" t="s">
         <v>26</v>
       </c>
@@ -22590,7 +22663,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="54" t="s">
         <v>20</v>
       </c>
@@ -22605,7 +22678,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="54" t="s">
         <v>21</v>
       </c>
@@ -22617,7 +22690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="54" t="s">
         <v>74</v>
       </c>
@@ -22637,7 +22710,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="54" t="s">
         <v>18</v>
       </c>
@@ -22651,7 +22724,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="54" t="s">
         <v>75</v>
       </c>
@@ -22668,7 +22741,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="58" t="s">
         <v>25</v>
       </c>
@@ -22680,19 +22753,19 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="131" t="s">
+    <row r="16" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" s="132" t="s">
         <v>101</v>
       </c>
-      <c r="B17" s="129" t="s">
+      <c r="B17" s="130" t="s">
         <v>136</v>
       </c>
-      <c r="C17" s="129"/>
-      <c r="D17" s="130"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="132"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="131"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" s="133"/>
       <c r="B18" s="52" t="s">
         <v>133</v>
       </c>
@@ -22703,7 +22776,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="54" t="s">
         <v>14</v>
       </c>
@@ -22717,7 +22790,7 @@
         <v>36.675000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="54" t="s">
         <v>17</v>
       </c>
@@ -22731,7 +22804,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="54" t="s">
         <v>19</v>
       </c>
@@ -22745,7 +22818,7 @@
         <v>97.65</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="54" t="s">
         <v>23</v>
       </c>
@@ -22759,7 +22832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="54" t="s">
         <v>24</v>
       </c>
@@ -22773,7 +22846,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="54" t="s">
         <v>27</v>
       </c>
@@ -22787,7 +22860,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="54" t="s">
         <v>26</v>
       </c>
@@ -22801,7 +22874,7 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="54" t="s">
         <v>20</v>
       </c>
@@ -22815,7 +22888,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="54" t="s">
         <v>21</v>
       </c>
@@ -22829,7 +22902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="54" t="s">
         <v>74</v>
       </c>
@@ -22846,7 +22919,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="54" t="s">
         <v>18</v>
       </c>
@@ -22863,7 +22936,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="54" t="s">
         <v>75</v>
       </c>
@@ -22877,7 +22950,7 @@
         <v>36.675000000000004</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="58" t="s">
         <v>25</v>
       </c>
@@ -22903,20 +22976,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.59765625" customWidth="1"/>
+    <col min="2" max="2" width="13.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="51" t="s">
         <v>128</v>
       </c>
@@ -22928,7 +23001,7 @@
       <c r="G1" s="51"/>
       <c r="H1" s="51"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="20" t="s">
         <v>101</v>
       </c>
@@ -22954,7 +23027,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="20" t="s">
         <v>14</v>
       </c>
@@ -22987,7 +23060,7 @@
         <v>1886611.371420742</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="20" t="s">
         <v>17</v>
       </c>
@@ -23020,7 +23093,7 @@
         <v>900949.42486762838</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="20" t="s">
         <v>19</v>
       </c>
@@ -23053,7 +23126,7 @@
         <v>2131194.1850411883</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="20" t="s">
         <v>23</v>
       </c>
@@ -23086,7 +23159,7 @@
         <v>1536729.3530521572</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="20" t="s">
         <v>24</v>
       </c>
@@ -23119,7 +23192,7 @@
         <v>1049844.8055504838</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="20" t="s">
         <v>27</v>
       </c>
@@ -23152,7 +23225,7 @@
         <v>1135658.2070476536</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="20" t="s">
         <v>26</v>
       </c>
@@ -23185,7 +23258,7 @@
         <v>2730703.6811848823</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="20" t="s">
         <v>20</v>
       </c>
@@ -23218,40 +23291,40 @@
         <v>821617.67390907416</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="4">
-        <f>Geothermal!$A$2</f>
-        <v>5020996.8961110096</v>
-      </c>
-      <c r="C11" s="4">
-        <f>Geothermal!$A$2</f>
-        <v>5020996.8961110096</v>
-      </c>
-      <c r="D11" s="4">
-        <f>Geothermal!$A$2</f>
-        <v>5020996.8961110096</v>
-      </c>
-      <c r="E11" s="4">
-        <f>Geothermal!$A$2</f>
-        <v>5020996.8961110096</v>
-      </c>
-      <c r="F11" s="4">
-        <f>Geothermal!$A$2</f>
-        <v>5020996.8961110096</v>
-      </c>
-      <c r="G11" s="4">
-        <f>Geothermal!$A$2</f>
-        <v>5020996.8961110096</v>
-      </c>
-      <c r="H11" s="4">
-        <f>Geothermal!$A$2</f>
-        <v>5020996.8961110096</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C11" s="4" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D11" s="4" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E11" s="4" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F11" s="4" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G11" s="4" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H11" s="4" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="20" t="s">
         <v>74</v>
       </c>
@@ -23263,7 +23336,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="20" t="s">
         <v>18</v>
       </c>
@@ -23275,7 +23348,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="20" t="s">
         <v>75</v>
       </c>
@@ -23287,7 +23360,7 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="20" t="s">
         <v>25</v>
       </c>
@@ -23326,29 +23399,29 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.3984375" customWidth="1"/>
+    <col min="3" max="3" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.73046875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="51" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -23374,7 +23447,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>90</v>
       </c>
@@ -23404,7 +23477,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>226</v>
       </c>
@@ -23415,7 +23488,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="51" t="s">
         <v>206</v>
       </c>
@@ -23424,7 +23497,7 @@
       <c r="D5" s="51"/>
       <c r="E5" s="51"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>208</v>
       </c>
@@ -23432,7 +23505,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>231</v>
       </c>
@@ -23440,7 +23513,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>210</v>
       </c>
@@ -23448,7 +23521,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="82" t="s">
         <v>211</v>
       </c>
@@ -23456,7 +23529,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="83" t="s">
         <v>212</v>
       </c>
@@ -23464,7 +23537,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="84" t="s">
         <v>213</v>
       </c>
@@ -23475,7 +23548,7 @@
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="85" t="s">
         <v>214</v>
       </c>
@@ -23496,7 +23569,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E14">
         <v>2018</v>
       </c>
@@ -23514,37 +23587,37 @@
         <v>207</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="90" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>228</v>
       </c>
@@ -23556,21 +23629,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="20.7109375" style="43" customWidth="1"/>
+    <col min="1" max="2" width="20.73046875" style="43" customWidth="1"/>
     <col min="3" max="3" width="21" style="43" customWidth="1"/>
-    <col min="4" max="8" width="20.7109375" style="43" customWidth="1"/>
+    <col min="4" max="8" width="20.73046875" style="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="22"/>
       <c r="B1" s="22"/>
       <c r="C1" s="23" t="s">
@@ -23592,45 +23665,45 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="27.75" x14ac:dyDescent="0.45">
       <c r="A2" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="135" t="s">
+      <c r="B2" s="136" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="137" t="s">
+      <c r="C2" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="137" t="s">
+      <c r="D2" s="138" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="137" t="s">
+      <c r="E2" s="138" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="139" t="s">
+      <c r="F2" s="140" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="139" t="s">
+      <c r="G2" s="140" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="133" t="s">
+      <c r="H2" s="134" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="134"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="137"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="135"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="23" t="s">
         <v>40</v>
       </c>
@@ -23644,7 +23717,7 @@
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
     </row>
-    <row r="5" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="27" x14ac:dyDescent="0.45">
       <c r="A5" s="26" t="s">
         <v>41</v>
       </c>
@@ -23670,7 +23743,7 @@
         <v>2848907</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="27" x14ac:dyDescent="0.45">
       <c r="A6" s="28" t="s">
         <v>42</v>
       </c>
@@ -23696,7 +23769,7 @@
         <v>4652</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="30" t="s">
         <v>44</v>
       </c>
@@ -23708,7 +23781,7 @@
       <c r="G7" s="31"/>
       <c r="H7" s="31"/>
     </row>
-    <row r="8" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="27" x14ac:dyDescent="0.45">
       <c r="A8" s="32" t="s">
         <v>45</v>
       </c>
@@ -23734,7 +23807,7 @@
         <v>2848907</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="35" t="s">
         <v>46</v>
       </c>
@@ -23746,7 +23819,7 @@
       <c r="G9" s="31"/>
       <c r="H9" s="31"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="32" t="s">
         <v>47</v>
       </c>
@@ -23772,7 +23845,7 @@
         <v>30210</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="27.75" x14ac:dyDescent="0.45">
       <c r="A11" s="35" t="s">
         <v>48</v>
       </c>
@@ -23784,7 +23857,7 @@
       <c r="G11" s="31"/>
       <c r="H11" s="31"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="32" t="s">
         <v>49</v>
       </c>
@@ -23810,7 +23883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A13" s="32" t="s">
         <v>50</v>
       </c>
@@ -23836,7 +23909,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="32" t="s">
         <v>51</v>
       </c>
@@ -23862,7 +23935,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="32" t="s">
         <v>52</v>
       </c>
@@ -23888,7 +23961,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="27" x14ac:dyDescent="0.45">
       <c r="A16" s="32" t="s">
         <v>53</v>
       </c>
@@ -23914,7 +23987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="32" t="s">
         <v>54</v>
       </c>
@@ -23940,7 +24013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="32" t="s">
         <v>55</v>
       </c>
@@ -23966,7 +24039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="32" t="s">
         <v>56</v>
       </c>
@@ -23992,7 +24065,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="32" t="s">
         <v>57</v>
       </c>
@@ -24018,7 +24091,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="27" x14ac:dyDescent="0.45">
       <c r="A21" s="32" t="s">
         <v>58</v>
       </c>
@@ -24044,7 +24117,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="32" t="s">
         <v>59</v>
       </c>
@@ -24070,7 +24143,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="32" t="s">
         <v>60</v>
       </c>
@@ -24096,7 +24169,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="32" t="s">
         <v>61</v>
       </c>
@@ -24122,7 +24195,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="32" t="s">
         <v>62</v>
       </c>
@@ -24148,7 +24221,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="32" t="s">
         <v>63</v>
       </c>
@@ -24174,7 +24247,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="32" t="s">
         <v>65</v>
       </c>
@@ -24200,7 +24273,7 @@
         <v>5668</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="39" t="s">
         <v>66</v>
       </c>
@@ -24226,7 +24299,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="27" x14ac:dyDescent="0.45">
       <c r="A29" s="28" t="s">
         <v>68</v>
       </c>
@@ -24252,7 +24325,7 @@
         <v>35878</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="27" x14ac:dyDescent="0.45">
       <c r="A30" s="39" t="s">
         <v>68</v>
       </c>
@@ -24278,12 +24351,12 @@
         <v>7.87</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B32" s="43" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="44" t="s">
         <v>70</v>
       </c>
@@ -24294,7 +24367,7 @@
       <c r="C33" s="45"/>
       <c r="D33" s="45"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="44" t="s">
         <v>66</v>
       </c>
@@ -24305,7 +24378,7 @@
       <c r="C34" s="45"/>
       <c r="D34" s="45"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="44" t="s">
         <v>47</v>
       </c>
@@ -24331,20 +24404,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.73046875" customWidth="1"/>
+    <col min="13" max="13" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="67" t="s">
         <v>138</v>
       </c>
@@ -24355,7 +24428,7 @@
       <c r="F1" s="68"/>
       <c r="G1" s="68"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="67" t="s">
         <v>180</v>
       </c>
@@ -24366,11 +24439,11 @@
       <c r="F2" s="68"/>
       <c r="G2" s="68"/>
     </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="141" t="s">
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="142" t="s">
         <v>139</v>
       </c>
-      <c r="B3" s="141" t="s">
+      <c r="B3" s="142" t="s">
         <v>140</v>
       </c>
       <c r="C3" s="79" t="s">
@@ -24387,9 +24460,9 @@
       <c r="L3" s="76"/>
       <c r="M3" s="76"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="141"/>
-      <c r="B4" s="141"/>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A4" s="142"/>
+      <c r="B4" s="142"/>
       <c r="C4" s="75">
         <v>2017</v>
       </c>
@@ -24424,7 +24497,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="69">
         <v>1</v>
       </c>
@@ -24466,7 +24539,7 @@
         <v>9.5555555555555554</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="69">
         <v>2</v>
       </c>
@@ -24508,7 +24581,7 @@
         <v>14.666666666666666</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="69">
         <v>3</v>
       </c>
@@ -24550,7 +24623,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="69">
         <v>4</v>
       </c>
@@ -24592,7 +24665,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="69">
         <v>5</v>
       </c>
@@ -24634,7 +24707,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="69">
         <v>6</v>
       </c>
@@ -24676,7 +24749,7 @@
         <v>9.5555555555555554</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A11" s="69">
         <v>7</v>
       </c>
@@ -24718,7 +24791,7 @@
         <v>14.666666666666666</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="69">
         <v>8</v>
       </c>
@@ -24750,8 +24823,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="67" t="s">
         <v>138</v>
       </c>
@@ -24768,7 +24841,7 @@
       <c r="L14" s="20"/>
       <c r="M14" s="20"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="67" t="s">
         <v>180</v>
       </c>
@@ -24785,11 +24858,11 @@
       <c r="L15" s="20"/>
       <c r="M15" s="20"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="141" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A16" s="142" t="s">
         <v>139</v>
       </c>
-      <c r="B16" s="141" t="s">
+      <c r="B16" s="142" t="s">
         <v>140</v>
       </c>
       <c r="C16" s="79" t="s">
@@ -24806,9 +24879,9 @@
       <c r="L16" s="76"/>
       <c r="M16" s="76"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="141"/>
-      <c r="B17" s="141"/>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A17" s="142"/>
+      <c r="B17" s="142"/>
       <c r="C17" s="75">
         <v>2017</v>
       </c>
@@ -24843,7 +24916,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="69">
         <v>1</v>
       </c>
@@ -24895,7 +24968,7 @@
         <v>1336012.3968971488</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" s="69">
         <v>2</v>
       </c>
@@ -24947,7 +25020,7 @@
         <v>2050623.6789584146</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" s="69">
         <v>3</v>
       </c>
@@ -24999,7 +25072,7 @@
         <v>768983.87960940553</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" s="69">
         <v>4</v>
       </c>
@@ -25051,7 +25124,7 @@
         <v>838891.50502844236</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="69">
         <v>5</v>
       </c>
@@ -25103,7 +25176,7 @@
         <v>796946.92977702012</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="69">
         <v>6</v>
       </c>
@@ -25155,7 +25228,7 @@
         <v>1336012.3968971488</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A24" s="69">
         <v>7</v>
       </c>
@@ -25207,7 +25280,7 @@
         <v>2050623.6789584146</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="69">
         <v>8</v>
       </c>
@@ -25244,7 +25317,7 @@
         <v>3635196.5217899163</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="K27" s="1"/>
     </row>
   </sheetData>

--- a/InputData/elec/CCaMC/Capacity Construction and Maint Costs.xlsx
+++ b/InputData/elec/CCaMC/Capacity Construction and Maint Costs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12315" yWindow="600" windowWidth="15735" windowHeight="16200"/>
+    <workbookView xWindow="12315" yWindow="600" windowWidth="15735" windowHeight="16200" firstSheet="13" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
@@ -2118,7 +2118,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="22">
+  <numFmts count="23">
     <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -2141,6 +2141,7 @@
     <numFmt numFmtId="180" formatCode="#,##0.00_);\(#,##0.00\);&quot;-&quot;_);@"/>
     <numFmt numFmtId="181" formatCode="#,##0.000_);\(#,##0.000\);&quot;-&quot;_);@"/>
     <numFmt numFmtId="182" formatCode="#,##0.00000000_);\(#,##0.00000000\);&quot;-&quot;_);@"/>
+    <numFmt numFmtId="183" formatCode="0.0000000000"/>
   </numFmts>
   <fonts count="41" x14ac:knownFonts="1">
     <font>
@@ -3180,7 +3181,7 @@
     <xf numFmtId="179" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="308">
+  <cellXfs count="309">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3848,6 +3849,13 @@
     <xf numFmtId="182" fontId="23" fillId="9" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3886,12 +3894,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -3998,7 +4000,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4497,7 +4498,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7767,8 +7767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8552,7 +8552,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8688,7 +8688,7 @@
   <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -15573,8 +15573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O301"/>
   <sheetViews>
-    <sheetView topLeftCell="A236" workbookViewId="0">
-      <selection activeCell="A262" sqref="A262"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:XFD57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -16001,9 +16001,7 @@
       <c r="D18" s="173"/>
       <c r="E18" s="173"/>
       <c r="F18" s="173"/>
-      <c r="G18" s="173">
-        <v>1.0040160642570281E-5</v>
-      </c>
+      <c r="G18" s="173"/>
       <c r="H18" s="173"/>
       <c r="I18" s="173"/>
       <c r="J18" s="173"/>
@@ -25955,8 +25953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -25965,7 +25963,8 @@
     <col min="2" max="2" width="23.1328125" style="20" customWidth="1"/>
     <col min="3" max="3" width="28.59765625" style="20" customWidth="1"/>
     <col min="4" max="4" width="23.1328125" style="20" customWidth="1"/>
-    <col min="5" max="6" width="9.06640625" style="20"/>
+    <col min="5" max="5" width="9.06640625" style="20"/>
+    <col min="6" max="6" width="16.265625" style="20" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="40.73046875" style="20" customWidth="1"/>
     <col min="8" max="10" width="22" style="20" customWidth="1"/>
     <col min="11" max="16384" width="9.06640625" style="20"/>
@@ -26078,7 +26077,7 @@
         <v>19</v>
       </c>
       <c r="H4" s="113">
-        <f t="shared" si="2"/>
+        <f>B4/SUM(B4,B40)</f>
         <v>0.84563228198508644</v>
       </c>
       <c r="I4" s="113" t="e">
@@ -26556,6 +26555,7 @@
         <f t="shared" si="5"/>
         <v>3.15</v>
       </c>
+      <c r="F22" s="295"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="20" t="s">
@@ -26572,6 +26572,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="20" t="s">
@@ -27054,7 +27055,7 @@
   <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -29170,8 +29171,8 @@
   </sheetPr>
   <dimension ref="A1:AG17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:AG4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -29183,7 +29184,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="306" t="s">
+      <c r="A1" s="293" t="s">
         <v>439</v>
       </c>
       <c r="B1" s="1">
@@ -29288,132 +29289,132 @@
         <v>14</v>
       </c>
       <c r="B2" s="4">
-        <f>'IESS O&amp;M'!G57*About!$A$70*'US O&amp;M shares'!H2</f>
-        <v>27142.685383095715</v>
+        <f>'IESS O&amp;M'!G54*About!$A$70*'US O&amp;M shares'!H2</f>
+        <v>22634.061223339439</v>
       </c>
       <c r="C2" s="4">
         <f>B2</f>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
       <c r="D2" s="4">
         <f t="shared" ref="D2:AG10" si="0">C2</f>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
       <c r="E2" s="4">
         <f t="shared" si="0"/>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
       <c r="F2" s="4">
         <f t="shared" si="0"/>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
       <c r="G2" s="4">
         <f t="shared" si="0"/>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
       <c r="H2" s="4">
         <f t="shared" si="0"/>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
       <c r="I2" s="4">
         <f t="shared" si="0"/>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
       <c r="J2" s="4">
         <f t="shared" si="0"/>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
       <c r="K2" s="4">
         <f t="shared" si="0"/>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
       <c r="L2" s="4">
         <f t="shared" si="0"/>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
       <c r="M2" s="4">
         <f t="shared" si="0"/>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
       <c r="N2" s="4">
         <f t="shared" si="0"/>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
       <c r="O2" s="4">
         <f t="shared" si="0"/>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
       <c r="P2" s="4">
         <f t="shared" si="0"/>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
       <c r="Q2" s="4">
         <f t="shared" si="0"/>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
       <c r="R2" s="4">
         <f t="shared" si="0"/>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
       <c r="S2" s="4">
         <f t="shared" si="0"/>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
       <c r="T2" s="4">
         <f t="shared" si="0"/>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
       <c r="U2" s="4">
         <f t="shared" si="0"/>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
       <c r="V2" s="4">
         <f t="shared" si="0"/>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
       <c r="W2" s="4">
         <f t="shared" si="0"/>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
       <c r="X2" s="4">
         <f t="shared" si="0"/>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
       <c r="Y2" s="4">
         <f t="shared" si="0"/>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
       <c r="Z2" s="4">
         <f t="shared" si="0"/>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
       <c r="AA2" s="4">
         <f t="shared" si="0"/>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
       <c r="AB2" s="4">
         <f t="shared" si="0"/>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
       <c r="AC2" s="4">
         <f t="shared" si="0"/>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
       <c r="AD2" s="4">
         <f t="shared" si="0"/>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
       <c r="AE2" s="4">
         <f t="shared" si="0"/>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
       <c r="AF2" s="4">
         <f t="shared" si="0"/>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
       <c r="AG2" s="4">
         <f t="shared" si="0"/>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.45">
@@ -29554,132 +29555,132 @@
         <v>19</v>
       </c>
       <c r="B4" s="4">
-        <f>'IESS O&amp;M'!G99*About!$A$70*'US O&amp;M shares'!H4</f>
-        <v>31562.925137615857</v>
+        <f>AVERAGE('IESS O&amp;M'!G99,'IESS O&amp;M'!G107)*About!$A$70*'US O&amp;M shares'!H4</f>
+        <v>55710.464248924385</v>
       </c>
       <c r="C4" s="4">
+        <f>B4</f>
+        <v>55710.464248924385</v>
+      </c>
+      <c r="D4" s="4">
         <f t="shared" si="1"/>
-        <v>31562.925137615857</v>
-      </c>
-      <c r="D4" s="4">
-        <f t="shared" si="0"/>
-        <v>31562.925137615857</v>
+        <v>55710.464248924385</v>
       </c>
       <c r="E4" s="4">
-        <f t="shared" si="0"/>
-        <v>31562.925137615857</v>
+        <f t="shared" si="1"/>
+        <v>55710.464248924385</v>
       </c>
       <c r="F4" s="4">
-        <f t="shared" si="0"/>
-        <v>31562.925137615857</v>
+        <f t="shared" si="1"/>
+        <v>55710.464248924385</v>
       </c>
       <c r="G4" s="4">
-        <f t="shared" si="0"/>
-        <v>31562.925137615857</v>
+        <f t="shared" si="1"/>
+        <v>55710.464248924385</v>
       </c>
       <c r="H4" s="4">
-        <f t="shared" si="0"/>
-        <v>31562.925137615857</v>
+        <f t="shared" si="1"/>
+        <v>55710.464248924385</v>
       </c>
       <c r="I4" s="4">
-        <f t="shared" si="0"/>
-        <v>31562.925137615857</v>
+        <f t="shared" si="1"/>
+        <v>55710.464248924385</v>
       </c>
       <c r="J4" s="4">
-        <f t="shared" si="0"/>
-        <v>31562.925137615857</v>
+        <f t="shared" si="1"/>
+        <v>55710.464248924385</v>
       </c>
       <c r="K4" s="4">
-        <f t="shared" si="0"/>
-        <v>31562.925137615857</v>
+        <f t="shared" si="1"/>
+        <v>55710.464248924385</v>
       </c>
       <c r="L4" s="4">
-        <f t="shared" si="0"/>
-        <v>31562.925137615857</v>
+        <f t="shared" si="1"/>
+        <v>55710.464248924385</v>
       </c>
       <c r="M4" s="4">
-        <f t="shared" si="0"/>
-        <v>31562.925137615857</v>
+        <f t="shared" si="1"/>
+        <v>55710.464248924385</v>
       </c>
       <c r="N4" s="4">
-        <f t="shared" si="0"/>
-        <v>31562.925137615857</v>
+        <f t="shared" si="1"/>
+        <v>55710.464248924385</v>
       </c>
       <c r="O4" s="4">
-        <f t="shared" si="0"/>
-        <v>31562.925137615857</v>
+        <f t="shared" si="1"/>
+        <v>55710.464248924385</v>
       </c>
       <c r="P4" s="4">
-        <f t="shared" si="0"/>
-        <v>31562.925137615857</v>
+        <f t="shared" si="1"/>
+        <v>55710.464248924385</v>
       </c>
       <c r="Q4" s="4">
-        <f t="shared" si="0"/>
-        <v>31562.925137615857</v>
+        <f t="shared" si="1"/>
+        <v>55710.464248924385</v>
       </c>
       <c r="R4" s="4">
-        <f t="shared" si="0"/>
-        <v>31562.925137615857</v>
+        <f t="shared" si="1"/>
+        <v>55710.464248924385</v>
       </c>
       <c r="S4" s="4">
-        <f t="shared" si="0"/>
-        <v>31562.925137615857</v>
+        <f t="shared" ref="S4:AG4" si="2">R4</f>
+        <v>55710.464248924385</v>
       </c>
       <c r="T4" s="4">
-        <f t="shared" si="0"/>
-        <v>31562.925137615857</v>
+        <f t="shared" si="2"/>
+        <v>55710.464248924385</v>
       </c>
       <c r="U4" s="4">
-        <f t="shared" si="0"/>
-        <v>31562.925137615857</v>
+        <f t="shared" si="2"/>
+        <v>55710.464248924385</v>
       </c>
       <c r="V4" s="4">
-        <f t="shared" si="0"/>
-        <v>31562.925137615857</v>
+        <f t="shared" si="2"/>
+        <v>55710.464248924385</v>
       </c>
       <c r="W4" s="4">
-        <f t="shared" si="0"/>
-        <v>31562.925137615857</v>
+        <f t="shared" si="2"/>
+        <v>55710.464248924385</v>
       </c>
       <c r="X4" s="4">
-        <f t="shared" si="0"/>
-        <v>31562.925137615857</v>
+        <f t="shared" si="2"/>
+        <v>55710.464248924385</v>
       </c>
       <c r="Y4" s="4">
-        <f t="shared" si="0"/>
-        <v>31562.925137615857</v>
+        <f t="shared" si="2"/>
+        <v>55710.464248924385</v>
       </c>
       <c r="Z4" s="4">
-        <f t="shared" si="0"/>
-        <v>31562.925137615857</v>
+        <f t="shared" si="2"/>
+        <v>55710.464248924385</v>
       </c>
       <c r="AA4" s="4">
-        <f t="shared" si="0"/>
-        <v>31562.925137615857</v>
+        <f t="shared" si="2"/>
+        <v>55710.464248924385</v>
       </c>
       <c r="AB4" s="4">
-        <f t="shared" si="0"/>
-        <v>31562.925137615857</v>
+        <f t="shared" si="2"/>
+        <v>55710.464248924385</v>
       </c>
       <c r="AC4" s="4">
-        <f t="shared" si="0"/>
-        <v>31562.925137615857</v>
+        <f t="shared" si="2"/>
+        <v>55710.464248924385</v>
       </c>
       <c r="AD4" s="4">
-        <f t="shared" si="0"/>
-        <v>31562.925137615857</v>
+        <f t="shared" si="2"/>
+        <v>55710.464248924385</v>
       </c>
       <c r="AE4" s="4">
-        <f t="shared" si="0"/>
-        <v>31562.925137615857</v>
+        <f t="shared" si="2"/>
+        <v>55710.464248924385</v>
       </c>
       <c r="AF4" s="4">
-        <f t="shared" si="0"/>
-        <v>31562.925137615857</v>
+        <f t="shared" si="2"/>
+        <v>55710.464248924385</v>
       </c>
       <c r="AG4" s="4">
-        <f t="shared" si="0"/>
-        <v>31562.925137615857</v>
+        <f t="shared" si="2"/>
+        <v>55710.464248924385</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.45">
@@ -30492,123 +30493,123 @@
         <v>8899.2439045980809</v>
       </c>
       <c r="D11" s="4">
-        <f t="shared" ref="D11:AG17" si="2">C11</f>
+        <f t="shared" ref="D11:AG17" si="3">C11</f>
         <v>8899.2439045980809</v>
       </c>
       <c r="E11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="G11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="H11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="I11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="J11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="K11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="L11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="M11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="N11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="O11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="P11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="Q11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="R11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="S11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="T11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="U11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="V11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="W11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="X11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="Y11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="Z11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="AA11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="AB11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="AC11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="AD11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="AE11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="AF11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="AG11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
     </row>
@@ -30625,123 +30626,123 @@
         <v>8899.2439045980809</v>
       </c>
       <c r="D12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="E12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="H12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="I12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="J12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="K12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="L12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="M12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="N12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="O12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="P12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="Q12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="R12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="S12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="T12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="U12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="V12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="W12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="X12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="Y12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="Z12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="AA12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="AB12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="AC12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="AD12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="AE12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="AF12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="AG12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
     </row>
@@ -30751,131 +30752,131 @@
       </c>
       <c r="B13" s="4">
         <f>B2</f>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="1"/>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
       <c r="D13" s="4">
-        <f t="shared" si="2"/>
-        <v>27142.685383095715</v>
+        <f t="shared" si="3"/>
+        <v>22634.061223339439</v>
       </c>
       <c r="E13" s="4">
-        <f t="shared" si="2"/>
-        <v>27142.685383095715</v>
+        <f t="shared" si="3"/>
+        <v>22634.061223339439</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="2"/>
-        <v>27142.685383095715</v>
+        <f t="shared" si="3"/>
+        <v>22634.061223339439</v>
       </c>
       <c r="G13" s="4">
-        <f t="shared" si="2"/>
-        <v>27142.685383095715</v>
+        <f t="shared" si="3"/>
+        <v>22634.061223339439</v>
       </c>
       <c r="H13" s="4">
-        <f t="shared" si="2"/>
-        <v>27142.685383095715</v>
+        <f t="shared" si="3"/>
+        <v>22634.061223339439</v>
       </c>
       <c r="I13" s="4">
-        <f t="shared" si="2"/>
-        <v>27142.685383095715</v>
+        <f t="shared" si="3"/>
+        <v>22634.061223339439</v>
       </c>
       <c r="J13" s="4">
-        <f t="shared" si="2"/>
-        <v>27142.685383095715</v>
+        <f t="shared" si="3"/>
+        <v>22634.061223339439</v>
       </c>
       <c r="K13" s="4">
-        <f t="shared" si="2"/>
-        <v>27142.685383095715</v>
+        <f t="shared" si="3"/>
+        <v>22634.061223339439</v>
       </c>
       <c r="L13" s="4">
-        <f t="shared" si="2"/>
-        <v>27142.685383095715</v>
+        <f t="shared" si="3"/>
+        <v>22634.061223339439</v>
       </c>
       <c r="M13" s="4">
-        <f t="shared" si="2"/>
-        <v>27142.685383095715</v>
+        <f t="shared" si="3"/>
+        <v>22634.061223339439</v>
       </c>
       <c r="N13" s="4">
-        <f t="shared" si="2"/>
-        <v>27142.685383095715</v>
+        <f t="shared" si="3"/>
+        <v>22634.061223339439</v>
       </c>
       <c r="O13" s="4">
-        <f t="shared" si="2"/>
-        <v>27142.685383095715</v>
+        <f t="shared" si="3"/>
+        <v>22634.061223339439</v>
       </c>
       <c r="P13" s="4">
-        <f t="shared" si="2"/>
-        <v>27142.685383095715</v>
+        <f t="shared" si="3"/>
+        <v>22634.061223339439</v>
       </c>
       <c r="Q13" s="4">
-        <f t="shared" si="2"/>
-        <v>27142.685383095715</v>
+        <f t="shared" si="3"/>
+        <v>22634.061223339439</v>
       </c>
       <c r="R13" s="4">
-        <f t="shared" si="2"/>
-        <v>27142.685383095715</v>
+        <f t="shared" si="3"/>
+        <v>22634.061223339439</v>
       </c>
       <c r="S13" s="4">
-        <f t="shared" si="2"/>
-        <v>27142.685383095715</v>
+        <f t="shared" si="3"/>
+        <v>22634.061223339439</v>
       </c>
       <c r="T13" s="4">
-        <f t="shared" si="2"/>
-        <v>27142.685383095715</v>
+        <f t="shared" si="3"/>
+        <v>22634.061223339439</v>
       </c>
       <c r="U13" s="4">
-        <f t="shared" si="2"/>
-        <v>27142.685383095715</v>
+        <f t="shared" si="3"/>
+        <v>22634.061223339439</v>
       </c>
       <c r="V13" s="4">
-        <f t="shared" si="2"/>
-        <v>27142.685383095715</v>
+        <f t="shared" si="3"/>
+        <v>22634.061223339439</v>
       </c>
       <c r="W13" s="4">
-        <f t="shared" si="2"/>
-        <v>27142.685383095715</v>
+        <f t="shared" si="3"/>
+        <v>22634.061223339439</v>
       </c>
       <c r="X13" s="4">
-        <f t="shared" si="2"/>
-        <v>27142.685383095715</v>
+        <f t="shared" si="3"/>
+        <v>22634.061223339439</v>
       </c>
       <c r="Y13" s="4">
-        <f t="shared" si="2"/>
-        <v>27142.685383095715</v>
+        <f t="shared" si="3"/>
+        <v>22634.061223339439</v>
       </c>
       <c r="Z13" s="4">
-        <f t="shared" si="2"/>
-        <v>27142.685383095715</v>
+        <f t="shared" si="3"/>
+        <v>22634.061223339439</v>
       </c>
       <c r="AA13" s="4">
-        <f t="shared" si="2"/>
-        <v>27142.685383095715</v>
+        <f t="shared" si="3"/>
+        <v>22634.061223339439</v>
       </c>
       <c r="AB13" s="4">
-        <f t="shared" si="2"/>
-        <v>27142.685383095715</v>
+        <f t="shared" si="3"/>
+        <v>22634.061223339439</v>
       </c>
       <c r="AC13" s="4">
-        <f t="shared" si="2"/>
-        <v>27142.685383095715</v>
+        <f t="shared" si="3"/>
+        <v>22634.061223339439</v>
       </c>
       <c r="AD13" s="4">
-        <f t="shared" si="2"/>
-        <v>27142.685383095715</v>
+        <f t="shared" si="3"/>
+        <v>22634.061223339439</v>
       </c>
       <c r="AE13" s="4">
-        <f t="shared" si="2"/>
-        <v>27142.685383095715</v>
+        <f t="shared" si="3"/>
+        <v>22634.061223339439</v>
       </c>
       <c r="AF13" s="4">
-        <f t="shared" si="2"/>
-        <v>27142.685383095715</v>
+        <f t="shared" si="3"/>
+        <v>22634.061223339439</v>
       </c>
       <c r="AG13" s="4">
-        <f t="shared" si="2"/>
-        <v>27142.685383095715</v>
+        <f t="shared" si="3"/>
+        <v>22634.061223339439</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.45">
@@ -30891,123 +30892,123 @@
         <v>24747.52029846609</v>
       </c>
       <c r="D14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24747.52029846609</v>
       </c>
       <c r="E14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24747.52029846609</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24747.52029846609</v>
       </c>
       <c r="G14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24747.52029846609</v>
       </c>
       <c r="H14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24747.52029846609</v>
       </c>
       <c r="I14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24747.52029846609</v>
       </c>
       <c r="J14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24747.52029846609</v>
       </c>
       <c r="K14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24747.52029846609</v>
       </c>
       <c r="L14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24747.52029846609</v>
       </c>
       <c r="M14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24747.52029846609</v>
       </c>
       <c r="N14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24747.52029846609</v>
       </c>
       <c r="O14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24747.52029846609</v>
       </c>
       <c r="P14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24747.52029846609</v>
       </c>
       <c r="Q14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24747.52029846609</v>
       </c>
       <c r="R14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24747.52029846609</v>
       </c>
       <c r="S14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24747.52029846609</v>
       </c>
       <c r="T14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24747.52029846609</v>
       </c>
       <c r="U14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24747.52029846609</v>
       </c>
       <c r="V14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24747.52029846609</v>
       </c>
       <c r="W14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24747.52029846609</v>
       </c>
       <c r="X14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24747.52029846609</v>
       </c>
       <c r="Y14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24747.52029846609</v>
       </c>
       <c r="Z14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24747.52029846609</v>
       </c>
       <c r="AA14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24747.52029846609</v>
       </c>
       <c r="AB14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24747.52029846609</v>
       </c>
       <c r="AC14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24747.52029846609</v>
       </c>
       <c r="AD14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24747.52029846609</v>
       </c>
       <c r="AE14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24747.52029846609</v>
       </c>
       <c r="AF14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24747.52029846609</v>
       </c>
       <c r="AG14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24747.52029846609</v>
       </c>
     </row>
@@ -31024,123 +31025,123 @@
         <v>8899.2439045980809</v>
       </c>
       <c r="D15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="E15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="G15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="H15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="I15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="J15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="K15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="L15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="M15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="N15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="O15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="P15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="Q15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="R15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="S15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="T15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="U15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="V15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="W15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="X15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="Y15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="Z15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="AA15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="AB15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="AC15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="AD15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="AE15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="AF15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="AG15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
     </row>
@@ -31157,123 +31158,123 @@
         <v>8899.2439045980809</v>
       </c>
       <c r="D16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="E16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="G16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="H16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="I16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="J16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="K16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="L16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="M16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="N16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="O16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="P16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="Q16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="R16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="S16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="T16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="U16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="V16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="W16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="X16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="Y16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="Z16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="AA16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="AB16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="AC16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="AD16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="AE16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="AF16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="AG16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
     </row>
@@ -31290,123 +31291,123 @@
         <v>85778.046397101876</v>
       </c>
       <c r="D17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85778.046397101876</v>
       </c>
       <c r="E17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85778.046397101876</v>
       </c>
       <c r="F17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85778.046397101876</v>
       </c>
       <c r="G17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85778.046397101876</v>
       </c>
       <c r="H17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85778.046397101876</v>
       </c>
       <c r="I17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85778.046397101876</v>
       </c>
       <c r="J17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85778.046397101876</v>
       </c>
       <c r="K17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85778.046397101876</v>
       </c>
       <c r="L17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85778.046397101876</v>
       </c>
       <c r="M17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85778.046397101876</v>
       </c>
       <c r="N17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85778.046397101876</v>
       </c>
       <c r="O17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85778.046397101876</v>
       </c>
       <c r="P17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85778.046397101876</v>
       </c>
       <c r="Q17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85778.046397101876</v>
       </c>
       <c r="R17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85778.046397101876</v>
       </c>
       <c r="S17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85778.046397101876</v>
       </c>
       <c r="T17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85778.046397101876</v>
       </c>
       <c r="U17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85778.046397101876</v>
       </c>
       <c r="V17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85778.046397101876</v>
       </c>
       <c r="W17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85778.046397101876</v>
       </c>
       <c r="X17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85778.046397101876</v>
       </c>
       <c r="Y17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85778.046397101876</v>
       </c>
       <c r="Z17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85778.046397101876</v>
       </c>
       <c r="AA17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85778.046397101876</v>
       </c>
       <c r="AB17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85778.046397101876</v>
       </c>
       <c r="AC17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85778.046397101876</v>
       </c>
       <c r="AD17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85778.046397101876</v>
       </c>
       <c r="AE17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85778.046397101876</v>
       </c>
       <c r="AF17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85778.046397101876</v>
       </c>
       <c r="AG17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85778.046397101876</v>
       </c>
     </row>
@@ -31437,7 +31438,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A1" s="306" t="s">
+      <c r="A1" s="293" t="s">
         <v>443</v>
       </c>
       <c r="B1" s="1">
@@ -32797,7 +32798,7 @@
         <v>0</v>
       </c>
       <c r="S11" s="4">
-        <f t="shared" ref="D11:BK17" si="2">R11</f>
+        <f t="shared" ref="D11:AG17" si="2">R11</f>
         <v>0</v>
       </c>
       <c r="T11" s="4">
@@ -34007,8 +34008,8 @@
   </sheetPr>
   <dimension ref="A1:AG17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:AG4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -34021,7 +34022,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A1" s="306" t="s">
+      <c r="A1" s="293" t="s">
         <v>444</v>
       </c>
       <c r="B1" s="1">
@@ -34126,132 +34127,132 @@
         <v>14</v>
       </c>
       <c r="B2" s="4">
-        <f>'IESS O&amp;M'!G57*About!$A$70*'US O&amp;M shares'!H2</f>
-        <v>27142.685383095715</v>
+        <f>'IESS O&amp;M'!G54*About!$A$70*'US O&amp;M shares'!H2</f>
+        <v>22634.061223339439</v>
       </c>
       <c r="C2" s="4">
         <f>B2</f>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
       <c r="D2" s="4">
         <f t="shared" ref="D2:AG10" si="0">C2</f>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
       <c r="E2" s="4">
         <f t="shared" si="0"/>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
       <c r="F2" s="4">
         <f t="shared" si="0"/>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
       <c r="G2" s="4">
         <f t="shared" si="0"/>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
       <c r="H2" s="4">
         <f t="shared" si="0"/>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
       <c r="I2" s="4">
         <f t="shared" si="0"/>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
       <c r="J2" s="4">
         <f t="shared" si="0"/>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
       <c r="K2" s="4">
         <f t="shared" si="0"/>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
       <c r="L2" s="4">
         <f t="shared" si="0"/>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
       <c r="M2" s="4">
         <f t="shared" si="0"/>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
       <c r="N2" s="4">
         <f t="shared" si="0"/>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
       <c r="O2" s="4">
         <f t="shared" si="0"/>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
       <c r="P2" s="4">
         <f t="shared" si="0"/>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
       <c r="Q2" s="4">
         <f t="shared" si="0"/>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
       <c r="R2" s="4">
         <f t="shared" si="0"/>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
       <c r="S2" s="4">
         <f t="shared" si="0"/>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
       <c r="T2" s="4">
         <f t="shared" si="0"/>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
       <c r="U2" s="4">
         <f t="shared" si="0"/>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
       <c r="V2" s="4">
         <f t="shared" si="0"/>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
       <c r="W2" s="4">
         <f t="shared" si="0"/>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
       <c r="X2" s="4">
         <f t="shared" si="0"/>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
       <c r="Y2" s="4">
         <f t="shared" si="0"/>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
       <c r="Z2" s="4">
         <f t="shared" si="0"/>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
       <c r="AA2" s="4">
         <f t="shared" si="0"/>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
       <c r="AB2" s="4">
         <f t="shared" si="0"/>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
       <c r="AC2" s="4">
         <f t="shared" si="0"/>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
       <c r="AD2" s="4">
         <f t="shared" si="0"/>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
       <c r="AE2" s="4">
         <f t="shared" si="0"/>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
       <c r="AF2" s="4">
         <f t="shared" si="0"/>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
       <c r="AG2" s="4">
         <f t="shared" si="0"/>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.45">
@@ -34392,132 +34393,132 @@
         <v>19</v>
       </c>
       <c r="B4" s="4">
-        <f>'IESS O&amp;M'!G99*About!$A$70*'US O&amp;M shares'!H4</f>
-        <v>31562.925137615857</v>
+        <f>AVERAGE('IESS O&amp;M'!G99,'IESS O&amp;M'!G107)*About!$A$70*'US O&amp;M shares'!H4</f>
+        <v>55710.464248924385</v>
       </c>
       <c r="C4" s="4">
+        <f>B4</f>
+        <v>55710.464248924385</v>
+      </c>
+      <c r="D4" s="4">
         <f t="shared" si="1"/>
-        <v>31562.925137615857</v>
-      </c>
-      <c r="D4" s="4">
-        <f t="shared" si="0"/>
-        <v>31562.925137615857</v>
+        <v>55710.464248924385</v>
       </c>
       <c r="E4" s="4">
-        <f t="shared" si="0"/>
-        <v>31562.925137615857</v>
+        <f t="shared" si="1"/>
+        <v>55710.464248924385</v>
       </c>
       <c r="F4" s="4">
-        <f t="shared" si="0"/>
-        <v>31562.925137615857</v>
+        <f t="shared" si="1"/>
+        <v>55710.464248924385</v>
       </c>
       <c r="G4" s="4">
-        <f t="shared" si="0"/>
-        <v>31562.925137615857</v>
+        <f t="shared" si="1"/>
+        <v>55710.464248924385</v>
       </c>
       <c r="H4" s="4">
-        <f t="shared" si="0"/>
-        <v>31562.925137615857</v>
+        <f t="shared" si="1"/>
+        <v>55710.464248924385</v>
       </c>
       <c r="I4" s="4">
-        <f t="shared" si="0"/>
-        <v>31562.925137615857</v>
+        <f t="shared" si="1"/>
+        <v>55710.464248924385</v>
       </c>
       <c r="J4" s="4">
-        <f t="shared" si="0"/>
-        <v>31562.925137615857</v>
+        <f t="shared" si="1"/>
+        <v>55710.464248924385</v>
       </c>
       <c r="K4" s="4">
-        <f t="shared" si="0"/>
-        <v>31562.925137615857</v>
+        <f t="shared" si="1"/>
+        <v>55710.464248924385</v>
       </c>
       <c r="L4" s="4">
-        <f t="shared" si="0"/>
-        <v>31562.925137615857</v>
+        <f t="shared" si="1"/>
+        <v>55710.464248924385</v>
       </c>
       <c r="M4" s="4">
-        <f t="shared" si="0"/>
-        <v>31562.925137615857</v>
+        <f t="shared" si="1"/>
+        <v>55710.464248924385</v>
       </c>
       <c r="N4" s="4">
-        <f t="shared" si="0"/>
-        <v>31562.925137615857</v>
+        <f t="shared" si="1"/>
+        <v>55710.464248924385</v>
       </c>
       <c r="O4" s="4">
-        <f t="shared" si="0"/>
-        <v>31562.925137615857</v>
+        <f t="shared" si="1"/>
+        <v>55710.464248924385</v>
       </c>
       <c r="P4" s="4">
-        <f t="shared" si="0"/>
-        <v>31562.925137615857</v>
+        <f t="shared" si="1"/>
+        <v>55710.464248924385</v>
       </c>
       <c r="Q4" s="4">
-        <f t="shared" si="0"/>
-        <v>31562.925137615857</v>
+        <f t="shared" si="1"/>
+        <v>55710.464248924385</v>
       </c>
       <c r="R4" s="4">
-        <f t="shared" si="0"/>
-        <v>31562.925137615857</v>
+        <f t="shared" si="1"/>
+        <v>55710.464248924385</v>
       </c>
       <c r="S4" s="4">
-        <f t="shared" si="0"/>
-        <v>31562.925137615857</v>
+        <f t="shared" ref="S4:AG4" si="2">R4</f>
+        <v>55710.464248924385</v>
       </c>
       <c r="T4" s="4">
-        <f t="shared" si="0"/>
-        <v>31562.925137615857</v>
+        <f t="shared" si="2"/>
+        <v>55710.464248924385</v>
       </c>
       <c r="U4" s="4">
-        <f t="shared" si="0"/>
-        <v>31562.925137615857</v>
+        <f t="shared" si="2"/>
+        <v>55710.464248924385</v>
       </c>
       <c r="V4" s="4">
-        <f t="shared" si="0"/>
-        <v>31562.925137615857</v>
+        <f t="shared" si="2"/>
+        <v>55710.464248924385</v>
       </c>
       <c r="W4" s="4">
-        <f t="shared" si="0"/>
-        <v>31562.925137615857</v>
+        <f t="shared" si="2"/>
+        <v>55710.464248924385</v>
       </c>
       <c r="X4" s="4">
-        <f t="shared" si="0"/>
-        <v>31562.925137615857</v>
+        <f t="shared" si="2"/>
+        <v>55710.464248924385</v>
       </c>
       <c r="Y4" s="4">
-        <f t="shared" si="0"/>
-        <v>31562.925137615857</v>
+        <f t="shared" si="2"/>
+        <v>55710.464248924385</v>
       </c>
       <c r="Z4" s="4">
-        <f t="shared" si="0"/>
-        <v>31562.925137615857</v>
+        <f t="shared" si="2"/>
+        <v>55710.464248924385</v>
       </c>
       <c r="AA4" s="4">
-        <f t="shared" si="0"/>
-        <v>31562.925137615857</v>
+        <f t="shared" si="2"/>
+        <v>55710.464248924385</v>
       </c>
       <c r="AB4" s="4">
-        <f t="shared" si="0"/>
-        <v>31562.925137615857</v>
+        <f t="shared" si="2"/>
+        <v>55710.464248924385</v>
       </c>
       <c r="AC4" s="4">
-        <f t="shared" si="0"/>
-        <v>31562.925137615857</v>
+        <f t="shared" si="2"/>
+        <v>55710.464248924385</v>
       </c>
       <c r="AD4" s="4">
-        <f t="shared" si="0"/>
-        <v>31562.925137615857</v>
+        <f t="shared" si="2"/>
+        <v>55710.464248924385</v>
       </c>
       <c r="AE4" s="4">
-        <f t="shared" si="0"/>
-        <v>31562.925137615857</v>
+        <f t="shared" si="2"/>
+        <v>55710.464248924385</v>
       </c>
       <c r="AF4" s="4">
-        <f t="shared" si="0"/>
-        <v>31562.925137615857</v>
+        <f t="shared" si="2"/>
+        <v>55710.464248924385</v>
       </c>
       <c r="AG4" s="4">
-        <f t="shared" si="0"/>
-        <v>31562.925137615857</v>
+        <f t="shared" si="2"/>
+        <v>55710.464248924385</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.45">
@@ -35390,63 +35391,63 @@
         <v>8899.2439045980809</v>
       </c>
       <c r="S11" s="4">
-        <f t="shared" ref="D11:AV17" si="2">R11</f>
+        <f t="shared" ref="D11:AG17" si="3">R11</f>
         <v>8899.2439045980809</v>
       </c>
       <c r="T11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="U11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="V11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="W11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="X11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="Y11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="Z11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="AA11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="AB11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="AC11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="AD11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="AE11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="AF11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="AG11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
     </row>
@@ -35463,123 +35464,123 @@
         <v>8899.2439045980809</v>
       </c>
       <c r="D12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="E12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="H12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="I12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="J12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="K12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="L12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="M12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="N12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="O12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="P12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="Q12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="R12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="S12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="T12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="U12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="V12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="W12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="X12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="Y12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="Z12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="AA12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="AB12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="AC12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="AD12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="AE12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="AF12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="AG12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
     </row>
@@ -35589,131 +35590,131 @@
       </c>
       <c r="B13" s="4">
         <f>B2</f>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="1"/>
-        <v>27142.685383095715</v>
+        <v>22634.061223339439</v>
       </c>
       <c r="D13" s="4">
-        <f t="shared" si="2"/>
-        <v>27142.685383095715</v>
+        <f t="shared" si="3"/>
+        <v>22634.061223339439</v>
       </c>
       <c r="E13" s="4">
-        <f t="shared" si="2"/>
-        <v>27142.685383095715</v>
+        <f t="shared" si="3"/>
+        <v>22634.061223339439</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="2"/>
-        <v>27142.685383095715</v>
+        <f t="shared" si="3"/>
+        <v>22634.061223339439</v>
       </c>
       <c r="G13" s="4">
-        <f t="shared" si="2"/>
-        <v>27142.685383095715</v>
+        <f t="shared" si="3"/>
+        <v>22634.061223339439</v>
       </c>
       <c r="H13" s="4">
-        <f t="shared" si="2"/>
-        <v>27142.685383095715</v>
+        <f t="shared" si="3"/>
+        <v>22634.061223339439</v>
       </c>
       <c r="I13" s="4">
-        <f t="shared" si="2"/>
-        <v>27142.685383095715</v>
+        <f t="shared" si="3"/>
+        <v>22634.061223339439</v>
       </c>
       <c r="J13" s="4">
-        <f t="shared" si="2"/>
-        <v>27142.685383095715</v>
+        <f t="shared" si="3"/>
+        <v>22634.061223339439</v>
       </c>
       <c r="K13" s="4">
-        <f t="shared" si="2"/>
-        <v>27142.685383095715</v>
+        <f t="shared" si="3"/>
+        <v>22634.061223339439</v>
       </c>
       <c r="L13" s="4">
-        <f t="shared" si="2"/>
-        <v>27142.685383095715</v>
+        <f t="shared" si="3"/>
+        <v>22634.061223339439</v>
       </c>
       <c r="M13" s="4">
-        <f t="shared" si="2"/>
-        <v>27142.685383095715</v>
+        <f t="shared" si="3"/>
+        <v>22634.061223339439</v>
       </c>
       <c r="N13" s="4">
-        <f t="shared" si="2"/>
-        <v>27142.685383095715</v>
+        <f t="shared" si="3"/>
+        <v>22634.061223339439</v>
       </c>
       <c r="O13" s="4">
-        <f t="shared" si="2"/>
-        <v>27142.685383095715</v>
+        <f t="shared" si="3"/>
+        <v>22634.061223339439</v>
       </c>
       <c r="P13" s="4">
-        <f t="shared" si="2"/>
-        <v>27142.685383095715</v>
+        <f t="shared" si="3"/>
+        <v>22634.061223339439</v>
       </c>
       <c r="Q13" s="4">
-        <f t="shared" si="2"/>
-        <v>27142.685383095715</v>
+        <f t="shared" si="3"/>
+        <v>22634.061223339439</v>
       </c>
       <c r="R13" s="4">
-        <f t="shared" si="2"/>
-        <v>27142.685383095715</v>
+        <f t="shared" si="3"/>
+        <v>22634.061223339439</v>
       </c>
       <c r="S13" s="4">
-        <f t="shared" si="2"/>
-        <v>27142.685383095715</v>
+        <f t="shared" si="3"/>
+        <v>22634.061223339439</v>
       </c>
       <c r="T13" s="4">
-        <f t="shared" si="2"/>
-        <v>27142.685383095715</v>
+        <f t="shared" si="3"/>
+        <v>22634.061223339439</v>
       </c>
       <c r="U13" s="4">
-        <f t="shared" si="2"/>
-        <v>27142.685383095715</v>
+        <f t="shared" si="3"/>
+        <v>22634.061223339439</v>
       </c>
       <c r="V13" s="4">
-        <f t="shared" si="2"/>
-        <v>27142.685383095715</v>
+        <f t="shared" si="3"/>
+        <v>22634.061223339439</v>
       </c>
       <c r="W13" s="4">
-        <f t="shared" si="2"/>
-        <v>27142.685383095715</v>
+        <f t="shared" si="3"/>
+        <v>22634.061223339439</v>
       </c>
       <c r="X13" s="4">
-        <f t="shared" si="2"/>
-        <v>27142.685383095715</v>
+        <f t="shared" si="3"/>
+        <v>22634.061223339439</v>
       </c>
       <c r="Y13" s="4">
-        <f t="shared" si="2"/>
-        <v>27142.685383095715</v>
+        <f t="shared" si="3"/>
+        <v>22634.061223339439</v>
       </c>
       <c r="Z13" s="4">
-        <f t="shared" si="2"/>
-        <v>27142.685383095715</v>
+        <f t="shared" si="3"/>
+        <v>22634.061223339439</v>
       </c>
       <c r="AA13" s="4">
-        <f t="shared" si="2"/>
-        <v>27142.685383095715</v>
+        <f t="shared" si="3"/>
+        <v>22634.061223339439</v>
       </c>
       <c r="AB13" s="4">
-        <f t="shared" si="2"/>
-        <v>27142.685383095715</v>
+        <f t="shared" si="3"/>
+        <v>22634.061223339439</v>
       </c>
       <c r="AC13" s="4">
-        <f t="shared" si="2"/>
-        <v>27142.685383095715</v>
+        <f t="shared" si="3"/>
+        <v>22634.061223339439</v>
       </c>
       <c r="AD13" s="4">
-        <f t="shared" si="2"/>
-        <v>27142.685383095715</v>
+        <f t="shared" si="3"/>
+        <v>22634.061223339439</v>
       </c>
       <c r="AE13" s="4">
-        <f t="shared" si="2"/>
-        <v>27142.685383095715</v>
+        <f t="shared" si="3"/>
+        <v>22634.061223339439</v>
       </c>
       <c r="AF13" s="4">
-        <f t="shared" si="2"/>
-        <v>27142.685383095715</v>
+        <f t="shared" si="3"/>
+        <v>22634.061223339439</v>
       </c>
       <c r="AG13" s="4">
-        <f t="shared" si="2"/>
-        <v>27142.685383095715</v>
+        <f t="shared" si="3"/>
+        <v>22634.061223339439</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.45">
@@ -35729,123 +35730,123 @@
         <v>24747.52029846609</v>
       </c>
       <c r="D14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24747.52029846609</v>
       </c>
       <c r="E14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24747.52029846609</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24747.52029846609</v>
       </c>
       <c r="G14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24747.52029846609</v>
       </c>
       <c r="H14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24747.52029846609</v>
       </c>
       <c r="I14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24747.52029846609</v>
       </c>
       <c r="J14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24747.52029846609</v>
       </c>
       <c r="K14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24747.52029846609</v>
       </c>
       <c r="L14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24747.52029846609</v>
       </c>
       <c r="M14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24747.52029846609</v>
       </c>
       <c r="N14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24747.52029846609</v>
       </c>
       <c r="O14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24747.52029846609</v>
       </c>
       <c r="P14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24747.52029846609</v>
       </c>
       <c r="Q14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24747.52029846609</v>
       </c>
       <c r="R14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24747.52029846609</v>
       </c>
       <c r="S14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24747.52029846609</v>
       </c>
       <c r="T14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24747.52029846609</v>
       </c>
       <c r="U14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24747.52029846609</v>
       </c>
       <c r="V14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24747.52029846609</v>
       </c>
       <c r="W14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24747.52029846609</v>
       </c>
       <c r="X14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24747.52029846609</v>
       </c>
       <c r="Y14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24747.52029846609</v>
       </c>
       <c r="Z14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24747.52029846609</v>
       </c>
       <c r="AA14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24747.52029846609</v>
       </c>
       <c r="AB14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24747.52029846609</v>
       </c>
       <c r="AC14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24747.52029846609</v>
       </c>
       <c r="AD14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24747.52029846609</v>
       </c>
       <c r="AE14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24747.52029846609</v>
       </c>
       <c r="AF14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24747.52029846609</v>
       </c>
       <c r="AG14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24747.52029846609</v>
       </c>
     </row>
@@ -35862,123 +35863,123 @@
         <v>8899.2439045980809</v>
       </c>
       <c r="D15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="E15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="G15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="H15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="I15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="J15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="K15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="L15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="M15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="N15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="O15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="P15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="Q15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="R15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="S15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="T15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="U15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="V15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="W15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="X15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="Y15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="Z15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="AA15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="AB15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="AC15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="AD15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="AE15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="AF15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="AG15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
     </row>
@@ -35995,123 +35996,123 @@
         <v>8899.2439045980809</v>
       </c>
       <c r="D16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="E16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="G16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="H16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="I16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="J16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="K16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="L16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="M16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="N16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="O16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="P16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="Q16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="R16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="S16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="T16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="U16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="V16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="W16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="X16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="Y16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="Z16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="AA16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="AB16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="AC16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="AD16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="AE16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="AF16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
       <c r="AG16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8899.2439045980809</v>
       </c>
     </row>
@@ -36128,123 +36129,123 @@
         <v>85778.046397101876</v>
       </c>
       <c r="D17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85778.046397101876</v>
       </c>
       <c r="E17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85778.046397101876</v>
       </c>
       <c r="F17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85778.046397101876</v>
       </c>
       <c r="G17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85778.046397101876</v>
       </c>
       <c r="H17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85778.046397101876</v>
       </c>
       <c r="I17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85778.046397101876</v>
       </c>
       <c r="J17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85778.046397101876</v>
       </c>
       <c r="K17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85778.046397101876</v>
       </c>
       <c r="L17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85778.046397101876</v>
       </c>
       <c r="M17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85778.046397101876</v>
       </c>
       <c r="N17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85778.046397101876</v>
       </c>
       <c r="O17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85778.046397101876</v>
       </c>
       <c r="P17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85778.046397101876</v>
       </c>
       <c r="Q17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85778.046397101876</v>
       </c>
       <c r="R17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85778.046397101876</v>
       </c>
       <c r="S17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85778.046397101876</v>
       </c>
       <c r="T17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85778.046397101876</v>
       </c>
       <c r="U17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85778.046397101876</v>
       </c>
       <c r="V17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85778.046397101876</v>
       </c>
       <c r="W17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85778.046397101876</v>
       </c>
       <c r="X17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85778.046397101876</v>
       </c>
       <c r="Y17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85778.046397101876</v>
       </c>
       <c r="Z17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85778.046397101876</v>
       </c>
       <c r="AA17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85778.046397101876</v>
       </c>
       <c r="AB17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85778.046397101876</v>
       </c>
       <c r="AC17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85778.046397101876</v>
       </c>
       <c r="AD17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85778.046397101876</v>
       </c>
       <c r="AE17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85778.046397101876</v>
       </c>
       <c r="AF17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85778.046397101876</v>
       </c>
       <c r="AG17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85778.046397101876</v>
       </c>
     </row>
@@ -36261,8 +36262,8 @@
   </sheetPr>
   <dimension ref="A1:AG18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:AG4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -36275,7 +36276,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="307" t="s">
+      <c r="A1" s="294" t="s">
         <v>440</v>
       </c>
       <c r="B1" s="1">
@@ -36380,132 +36381,132 @@
         <v>14</v>
       </c>
       <c r="B2" s="16">
-        <f>'IESS O&amp;M'!G57*About!$A$70*(1-'US O&amp;M shares'!H2)/(8760*'BECF-new'!B2)</f>
-        <v>1.8413905229571264</v>
+        <f>'IESS O&amp;M'!G54*About!$A$70*(1-'US O&amp;M shares'!H2)/(8760*'BECF-new'!B2)</f>
+        <v>1.5355203527004551</v>
       </c>
       <c r="C2" s="16">
         <f>B2</f>
-        <v>1.8413905229571264</v>
+        <v>1.5355203527004551</v>
       </c>
       <c r="D2" s="16">
         <f t="shared" ref="D2:AG10" si="0">C2</f>
-        <v>1.8413905229571264</v>
+        <v>1.5355203527004551</v>
       </c>
       <c r="E2" s="16">
         <f t="shared" si="0"/>
-        <v>1.8413905229571264</v>
+        <v>1.5355203527004551</v>
       </c>
       <c r="F2" s="16">
         <f t="shared" si="0"/>
-        <v>1.8413905229571264</v>
+        <v>1.5355203527004551</v>
       </c>
       <c r="G2" s="16">
         <f t="shared" si="0"/>
-        <v>1.8413905229571264</v>
+        <v>1.5355203527004551</v>
       </c>
       <c r="H2" s="16">
         <f t="shared" si="0"/>
-        <v>1.8413905229571264</v>
+        <v>1.5355203527004551</v>
       </c>
       <c r="I2" s="16">
         <f t="shared" si="0"/>
-        <v>1.8413905229571264</v>
+        <v>1.5355203527004551</v>
       </c>
       <c r="J2" s="16">
         <f t="shared" si="0"/>
-        <v>1.8413905229571264</v>
+        <v>1.5355203527004551</v>
       </c>
       <c r="K2" s="16">
         <f t="shared" si="0"/>
-        <v>1.8413905229571264</v>
+        <v>1.5355203527004551</v>
       </c>
       <c r="L2" s="16">
         <f t="shared" si="0"/>
-        <v>1.8413905229571264</v>
+        <v>1.5355203527004551</v>
       </c>
       <c r="M2" s="16">
         <f t="shared" si="0"/>
-        <v>1.8413905229571264</v>
+        <v>1.5355203527004551</v>
       </c>
       <c r="N2" s="16">
         <f t="shared" si="0"/>
-        <v>1.8413905229571264</v>
+        <v>1.5355203527004551</v>
       </c>
       <c r="O2" s="16">
         <f t="shared" si="0"/>
-        <v>1.8413905229571264</v>
+        <v>1.5355203527004551</v>
       </c>
       <c r="P2" s="16">
         <f t="shared" si="0"/>
-        <v>1.8413905229571264</v>
+        <v>1.5355203527004551</v>
       </c>
       <c r="Q2" s="16">
         <f t="shared" si="0"/>
-        <v>1.8413905229571264</v>
+        <v>1.5355203527004551</v>
       </c>
       <c r="R2" s="16">
         <f t="shared" si="0"/>
-        <v>1.8413905229571264</v>
+        <v>1.5355203527004551</v>
       </c>
       <c r="S2" s="16">
         <f t="shared" si="0"/>
-        <v>1.8413905229571264</v>
+        <v>1.5355203527004551</v>
       </c>
       <c r="T2" s="16">
         <f t="shared" si="0"/>
-        <v>1.8413905229571264</v>
+        <v>1.5355203527004551</v>
       </c>
       <c r="U2" s="16">
         <f t="shared" si="0"/>
-        <v>1.8413905229571264</v>
+        <v>1.5355203527004551</v>
       </c>
       <c r="V2" s="16">
         <f t="shared" si="0"/>
-        <v>1.8413905229571264</v>
+        <v>1.5355203527004551</v>
       </c>
       <c r="W2" s="16">
         <f t="shared" si="0"/>
-        <v>1.8413905229571264</v>
+        <v>1.5355203527004551</v>
       </c>
       <c r="X2" s="16">
         <f t="shared" si="0"/>
-        <v>1.8413905229571264</v>
+        <v>1.5355203527004551</v>
       </c>
       <c r="Y2" s="16">
         <f t="shared" si="0"/>
-        <v>1.8413905229571264</v>
+        <v>1.5355203527004551</v>
       </c>
       <c r="Z2" s="16">
         <f t="shared" si="0"/>
-        <v>1.8413905229571264</v>
+        <v>1.5355203527004551</v>
       </c>
       <c r="AA2" s="16">
         <f t="shared" si="0"/>
-        <v>1.8413905229571264</v>
+        <v>1.5355203527004551</v>
       </c>
       <c r="AB2" s="16">
         <f t="shared" si="0"/>
-        <v>1.8413905229571264</v>
+        <v>1.5355203527004551</v>
       </c>
       <c r="AC2" s="16">
         <f t="shared" si="0"/>
-        <v>1.8413905229571264</v>
+        <v>1.5355203527004551</v>
       </c>
       <c r="AD2" s="16">
         <f t="shared" si="0"/>
-        <v>1.8413905229571264</v>
+        <v>1.5355203527004551</v>
       </c>
       <c r="AE2" s="16">
         <f t="shared" si="0"/>
-        <v>1.8413905229571264</v>
+        <v>1.5355203527004551</v>
       </c>
       <c r="AF2" s="16">
         <f t="shared" si="0"/>
-        <v>1.8413905229571264</v>
+        <v>1.5355203527004551</v>
       </c>
       <c r="AG2" s="16">
         <f t="shared" si="0"/>
-        <v>1.8413905229571264</v>
+        <v>1.5355203527004551</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.45">
@@ -36646,132 +36647,132 @@
         <v>19</v>
       </c>
       <c r="B4" s="16">
-        <f>'IESS O&amp;M'!G99*About!$A$70*'US O&amp;M shares'!H4*(1-'US O&amp;M shares'!H4)/(8760*'BECF-new'!B4)</f>
-        <v>0.86098801323375884</v>
+        <f>AVERAGE('IESS O&amp;M'!G99,'IESS O&amp;M'!G107)*About!$A$70*'US O&amp;M shares'!H4*(1-'US O&amp;M shares'!H4)/(8760*'BECF-new'!B4)</f>
+        <v>1.5196957101053701</v>
       </c>
       <c r="C4" s="16">
+        <f>B4</f>
+        <v>1.5196957101053701</v>
+      </c>
+      <c r="D4" s="16">
         <f t="shared" si="1"/>
-        <v>0.86098801323375884</v>
-      </c>
-      <c r="D4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.86098801323375884</v>
+        <v>1.5196957101053701</v>
       </c>
       <c r="E4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.86098801323375884</v>
+        <f t="shared" si="1"/>
+        <v>1.5196957101053701</v>
       </c>
       <c r="F4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.86098801323375884</v>
+        <f t="shared" si="1"/>
+        <v>1.5196957101053701</v>
       </c>
       <c r="G4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.86098801323375884</v>
+        <f t="shared" si="1"/>
+        <v>1.5196957101053701</v>
       </c>
       <c r="H4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.86098801323375884</v>
+        <f t="shared" si="1"/>
+        <v>1.5196957101053701</v>
       </c>
       <c r="I4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.86098801323375884</v>
+        <f t="shared" si="1"/>
+        <v>1.5196957101053701</v>
       </c>
       <c r="J4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.86098801323375884</v>
+        <f t="shared" si="1"/>
+        <v>1.5196957101053701</v>
       </c>
       <c r="K4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.86098801323375884</v>
+        <f t="shared" si="1"/>
+        <v>1.5196957101053701</v>
       </c>
       <c r="L4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.86098801323375884</v>
+        <f t="shared" si="1"/>
+        <v>1.5196957101053701</v>
       </c>
       <c r="M4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.86098801323375884</v>
+        <f t="shared" si="1"/>
+        <v>1.5196957101053701</v>
       </c>
       <c r="N4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.86098801323375884</v>
+        <f t="shared" si="1"/>
+        <v>1.5196957101053701</v>
       </c>
       <c r="O4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.86098801323375884</v>
+        <f t="shared" si="1"/>
+        <v>1.5196957101053701</v>
       </c>
       <c r="P4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.86098801323375884</v>
+        <f t="shared" si="1"/>
+        <v>1.5196957101053701</v>
       </c>
       <c r="Q4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.86098801323375884</v>
+        <f t="shared" si="1"/>
+        <v>1.5196957101053701</v>
       </c>
       <c r="R4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.86098801323375884</v>
+        <f t="shared" si="1"/>
+        <v>1.5196957101053701</v>
       </c>
       <c r="S4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.86098801323375884</v>
+        <f t="shared" ref="S4:AG4" si="2">R4</f>
+        <v>1.5196957101053701</v>
       </c>
       <c r="T4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.86098801323375884</v>
+        <f t="shared" si="2"/>
+        <v>1.5196957101053701</v>
       </c>
       <c r="U4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.86098801323375884</v>
+        <f t="shared" si="2"/>
+        <v>1.5196957101053701</v>
       </c>
       <c r="V4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.86098801323375884</v>
+        <f t="shared" si="2"/>
+        <v>1.5196957101053701</v>
       </c>
       <c r="W4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.86098801323375884</v>
+        <f t="shared" si="2"/>
+        <v>1.5196957101053701</v>
       </c>
       <c r="X4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.86098801323375884</v>
+        <f t="shared" si="2"/>
+        <v>1.5196957101053701</v>
       </c>
       <c r="Y4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.86098801323375884</v>
+        <f t="shared" si="2"/>
+        <v>1.5196957101053701</v>
       </c>
       <c r="Z4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.86098801323375884</v>
+        <f t="shared" si="2"/>
+        <v>1.5196957101053701</v>
       </c>
       <c r="AA4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.86098801323375884</v>
+        <f t="shared" si="2"/>
+        <v>1.5196957101053701</v>
       </c>
       <c r="AB4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.86098801323375884</v>
+        <f t="shared" si="2"/>
+        <v>1.5196957101053701</v>
       </c>
       <c r="AC4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.86098801323375884</v>
+        <f t="shared" si="2"/>
+        <v>1.5196957101053701</v>
       </c>
       <c r="AD4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.86098801323375884</v>
+        <f t="shared" si="2"/>
+        <v>1.5196957101053701</v>
       </c>
       <c r="AE4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.86098801323375884</v>
+        <f t="shared" si="2"/>
+        <v>1.5196957101053701</v>
       </c>
       <c r="AF4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.86098801323375884</v>
+        <f t="shared" si="2"/>
+        <v>1.5196957101053701</v>
       </c>
       <c r="AG4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.86098801323375884</v>
+        <f t="shared" si="2"/>
+        <v>1.5196957101053701</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.45">
@@ -37584,123 +37585,123 @@
         <v>4.9365566226296842</v>
       </c>
       <c r="D11" s="16">
-        <f t="shared" ref="D11:AG17" si="2">C11</f>
+        <f t="shared" ref="D11:AG17" si="3">C11</f>
         <v>4.9365566226296842</v>
       </c>
       <c r="E11" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="F11" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="G11" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="H11" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="I11" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="J11" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="K11" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="L11" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="M11" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="N11" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="O11" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="P11" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="Q11" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="R11" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="S11" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="T11" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="U11" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="V11" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="W11" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="X11" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="Y11" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="Z11" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="AA11" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="AB11" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="AC11" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="AD11" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="AE11" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="AF11" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="AG11" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
     </row>
@@ -37717,123 +37718,123 @@
         <v>4.9365566226296842</v>
       </c>
       <c r="D12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="E12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="F12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="G12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="H12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="I12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="J12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="K12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="L12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="M12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="N12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="O12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="P12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="Q12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="R12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="S12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="T12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="U12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="V12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="W12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="X12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="Y12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="Z12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="AA12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="AB12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="AC12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="AD12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="AE12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="AF12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="AG12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
     </row>
@@ -37843,131 +37844,131 @@
       </c>
       <c r="B13" s="16">
         <f>B2*'US O&amp;M shares'!B31/'US O&amp;M shares'!B20</f>
-        <v>3.1195321800685436</v>
+        <v>2.6013521269278299</v>
       </c>
       <c r="C13" s="16">
         <f t="shared" si="1"/>
-        <v>3.1195321800685436</v>
+        <v>2.6013521269278299</v>
       </c>
       <c r="D13" s="16">
-        <f t="shared" si="2"/>
-        <v>3.1195321800685436</v>
+        <f t="shared" si="3"/>
+        <v>2.6013521269278299</v>
       </c>
       <c r="E13" s="16">
-        <f t="shared" si="2"/>
-        <v>3.1195321800685436</v>
+        <f t="shared" si="3"/>
+        <v>2.6013521269278299</v>
       </c>
       <c r="F13" s="16">
-        <f t="shared" si="2"/>
-        <v>3.1195321800685436</v>
+        <f t="shared" si="3"/>
+        <v>2.6013521269278299</v>
       </c>
       <c r="G13" s="16">
-        <f t="shared" si="2"/>
-        <v>3.1195321800685436</v>
+        <f t="shared" si="3"/>
+        <v>2.6013521269278299</v>
       </c>
       <c r="H13" s="16">
-        <f t="shared" si="2"/>
-        <v>3.1195321800685436</v>
+        <f t="shared" si="3"/>
+        <v>2.6013521269278299</v>
       </c>
       <c r="I13" s="16">
-        <f t="shared" si="2"/>
-        <v>3.1195321800685436</v>
+        <f t="shared" si="3"/>
+        <v>2.6013521269278299</v>
       </c>
       <c r="J13" s="16">
-        <f t="shared" si="2"/>
-        <v>3.1195321800685436</v>
+        <f t="shared" si="3"/>
+        <v>2.6013521269278299</v>
       </c>
       <c r="K13" s="16">
-        <f t="shared" si="2"/>
-        <v>3.1195321800685436</v>
+        <f t="shared" si="3"/>
+        <v>2.6013521269278299</v>
       </c>
       <c r="L13" s="16">
-        <f t="shared" si="2"/>
-        <v>3.1195321800685436</v>
+        <f t="shared" si="3"/>
+        <v>2.6013521269278299</v>
       </c>
       <c r="M13" s="16">
-        <f t="shared" si="2"/>
-        <v>3.1195321800685436</v>
+        <f t="shared" si="3"/>
+        <v>2.6013521269278299</v>
       </c>
       <c r="N13" s="16">
-        <f t="shared" si="2"/>
-        <v>3.1195321800685436</v>
+        <f t="shared" si="3"/>
+        <v>2.6013521269278299</v>
       </c>
       <c r="O13" s="16">
-        <f t="shared" si="2"/>
-        <v>3.1195321800685436</v>
+        <f t="shared" si="3"/>
+        <v>2.6013521269278299</v>
       </c>
       <c r="P13" s="16">
-        <f t="shared" si="2"/>
-        <v>3.1195321800685436</v>
+        <f t="shared" si="3"/>
+        <v>2.6013521269278299</v>
       </c>
       <c r="Q13" s="16">
-        <f t="shared" si="2"/>
-        <v>3.1195321800685436</v>
+        <f t="shared" si="3"/>
+        <v>2.6013521269278299</v>
       </c>
       <c r="R13" s="16">
-        <f t="shared" si="2"/>
-        <v>3.1195321800685436</v>
+        <f t="shared" si="3"/>
+        <v>2.6013521269278299</v>
       </c>
       <c r="S13" s="16">
-        <f t="shared" si="2"/>
-        <v>3.1195321800685436</v>
+        <f t="shared" si="3"/>
+        <v>2.6013521269278299</v>
       </c>
       <c r="T13" s="16">
-        <f t="shared" si="2"/>
-        <v>3.1195321800685436</v>
+        <f t="shared" si="3"/>
+        <v>2.6013521269278299</v>
       </c>
       <c r="U13" s="16">
-        <f t="shared" si="2"/>
-        <v>3.1195321800685436</v>
+        <f t="shared" si="3"/>
+        <v>2.6013521269278299</v>
       </c>
       <c r="V13" s="16">
-        <f t="shared" si="2"/>
-        <v>3.1195321800685436</v>
+        <f t="shared" si="3"/>
+        <v>2.6013521269278299</v>
       </c>
       <c r="W13" s="16">
-        <f t="shared" si="2"/>
-        <v>3.1195321800685436</v>
+        <f t="shared" si="3"/>
+        <v>2.6013521269278299</v>
       </c>
       <c r="X13" s="16">
-        <f t="shared" si="2"/>
-        <v>3.1195321800685436</v>
+        <f t="shared" si="3"/>
+        <v>2.6013521269278299</v>
       </c>
       <c r="Y13" s="16">
-        <f t="shared" si="2"/>
-        <v>3.1195321800685436</v>
+        <f t="shared" si="3"/>
+        <v>2.6013521269278299</v>
       </c>
       <c r="Z13" s="16">
-        <f t="shared" si="2"/>
-        <v>3.1195321800685436</v>
+        <f t="shared" si="3"/>
+        <v>2.6013521269278299</v>
       </c>
       <c r="AA13" s="16">
-        <f t="shared" si="2"/>
-        <v>3.1195321800685436</v>
+        <f t="shared" si="3"/>
+        <v>2.6013521269278299</v>
       </c>
       <c r="AB13" s="16">
-        <f t="shared" si="2"/>
-        <v>3.1195321800685436</v>
+        <f t="shared" si="3"/>
+        <v>2.6013521269278299</v>
       </c>
       <c r="AC13" s="16">
-        <f t="shared" si="2"/>
-        <v>3.1195321800685436</v>
+        <f t="shared" si="3"/>
+        <v>2.6013521269278299</v>
       </c>
       <c r="AD13" s="16">
-        <f t="shared" si="2"/>
-        <v>3.1195321800685436</v>
+        <f t="shared" si="3"/>
+        <v>2.6013521269278299</v>
       </c>
       <c r="AE13" s="16">
-        <f t="shared" si="2"/>
-        <v>3.1195321800685436</v>
+        <f t="shared" si="3"/>
+        <v>2.6013521269278299</v>
       </c>
       <c r="AF13" s="16">
-        <f t="shared" si="2"/>
-        <v>3.1195321800685436</v>
+        <f t="shared" si="3"/>
+        <v>2.6013521269278299</v>
       </c>
       <c r="AG13" s="16">
-        <f t="shared" si="2"/>
-        <v>3.1195321800685436</v>
+        <f t="shared" si="3"/>
+        <v>2.6013521269278299</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.45">
@@ -37983,123 +37984,123 @@
         <v>0</v>
       </c>
       <c r="D14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -38116,123 +38117,123 @@
         <v>4.9365566226296842</v>
       </c>
       <c r="D15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="E15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="F15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="G15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="H15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="I15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="J15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="K15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="L15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="M15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="N15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="O15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="P15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="Q15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="R15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="S15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="T15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="U15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="V15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="W15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="X15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="Y15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="Z15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="AA15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="AB15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="AC15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="AD15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="AE15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="AF15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="AG15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
     </row>
@@ -38249,123 +38250,123 @@
         <v>4.9365566226296842</v>
       </c>
       <c r="D16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="E16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="F16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="G16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="H16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="I16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="J16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="K16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="L16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="M16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="N16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="O16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="P16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="Q16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="R16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="S16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="T16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="U16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="V16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="W16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="X16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="Y16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="Z16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="AA16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="AB16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="AC16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="AD16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="AE16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="AF16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="AG16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
     </row>
@@ -38382,123 +38383,123 @@
         <v>2.8354308570960622</v>
       </c>
       <c r="D17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8354308570960622</v>
       </c>
       <c r="E17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8354308570960622</v>
       </c>
       <c r="F17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8354308570960622</v>
       </c>
       <c r="G17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8354308570960622</v>
       </c>
       <c r="H17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8354308570960622</v>
       </c>
       <c r="I17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8354308570960622</v>
       </c>
       <c r="J17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8354308570960622</v>
       </c>
       <c r="K17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8354308570960622</v>
       </c>
       <c r="L17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8354308570960622</v>
       </c>
       <c r="M17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8354308570960622</v>
       </c>
       <c r="N17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8354308570960622</v>
       </c>
       <c r="O17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8354308570960622</v>
       </c>
       <c r="P17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8354308570960622</v>
       </c>
       <c r="Q17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8354308570960622</v>
       </c>
       <c r="R17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8354308570960622</v>
       </c>
       <c r="S17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8354308570960622</v>
       </c>
       <c r="T17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8354308570960622</v>
       </c>
       <c r="U17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8354308570960622</v>
       </c>
       <c r="V17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8354308570960622</v>
       </c>
       <c r="W17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8354308570960622</v>
       </c>
       <c r="X17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8354308570960622</v>
       </c>
       <c r="Y17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8354308570960622</v>
       </c>
       <c r="Z17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8354308570960622</v>
       </c>
       <c r="AA17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8354308570960622</v>
       </c>
       <c r="AB17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8354308570960622</v>
       </c>
       <c r="AC17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8354308570960622</v>
       </c>
       <c r="AD17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8354308570960622</v>
       </c>
       <c r="AE17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8354308570960622</v>
       </c>
       <c r="AF17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8354308570960622</v>
       </c>
       <c r="AG17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8354308570960622</v>
       </c>
     </row>
@@ -38534,7 +38535,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="307" t="s">
+      <c r="A1" s="294" t="s">
         <v>442</v>
       </c>
       <c r="B1" s="1">
@@ -40268,7 +40269,9 @@
   </sheetPr>
   <dimension ref="A1:AG18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AC24" sqref="AC24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -40280,7 +40283,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A1" s="307" t="s">
+      <c r="A1" s="294" t="s">
         <v>441</v>
       </c>
       <c r="B1" s="1">
@@ -40385,132 +40388,132 @@
         <v>14</v>
       </c>
       <c r="B2" s="16">
-        <f>'IESS O&amp;M'!G57*About!$A$70*(1-'US O&amp;M shares'!H2)/(8760*'BECF-new'!B2)</f>
-        <v>1.8413905229571264</v>
+        <f>'IESS O&amp;M'!G54*About!$A$70*(1-'US O&amp;M shares'!H2)/(8760*'BECF-new'!B2)</f>
+        <v>1.5355203527004551</v>
       </c>
       <c r="C2" s="16">
         <f>B2</f>
-        <v>1.8413905229571264</v>
+        <v>1.5355203527004551</v>
       </c>
       <c r="D2" s="16">
         <f t="shared" ref="D2:AG10" si="0">C2</f>
-        <v>1.8413905229571264</v>
+        <v>1.5355203527004551</v>
       </c>
       <c r="E2" s="16">
         <f t="shared" si="0"/>
-        <v>1.8413905229571264</v>
+        <v>1.5355203527004551</v>
       </c>
       <c r="F2" s="16">
         <f t="shared" si="0"/>
-        <v>1.8413905229571264</v>
+        <v>1.5355203527004551</v>
       </c>
       <c r="G2" s="16">
         <f t="shared" si="0"/>
-        <v>1.8413905229571264</v>
+        <v>1.5355203527004551</v>
       </c>
       <c r="H2" s="16">
         <f t="shared" si="0"/>
-        <v>1.8413905229571264</v>
+        <v>1.5355203527004551</v>
       </c>
       <c r="I2" s="16">
         <f t="shared" si="0"/>
-        <v>1.8413905229571264</v>
+        <v>1.5355203527004551</v>
       </c>
       <c r="J2" s="16">
         <f t="shared" si="0"/>
-        <v>1.8413905229571264</v>
+        <v>1.5355203527004551</v>
       </c>
       <c r="K2" s="16">
         <f t="shared" si="0"/>
-        <v>1.8413905229571264</v>
+        <v>1.5355203527004551</v>
       </c>
       <c r="L2" s="16">
         <f t="shared" si="0"/>
-        <v>1.8413905229571264</v>
+        <v>1.5355203527004551</v>
       </c>
       <c r="M2" s="16">
         <f t="shared" si="0"/>
-        <v>1.8413905229571264</v>
+        <v>1.5355203527004551</v>
       </c>
       <c r="N2" s="16">
         <f t="shared" si="0"/>
-        <v>1.8413905229571264</v>
+        <v>1.5355203527004551</v>
       </c>
       <c r="O2" s="16">
         <f t="shared" si="0"/>
-        <v>1.8413905229571264</v>
+        <v>1.5355203527004551</v>
       </c>
       <c r="P2" s="16">
         <f t="shared" si="0"/>
-        <v>1.8413905229571264</v>
+        <v>1.5355203527004551</v>
       </c>
       <c r="Q2" s="16">
         <f t="shared" si="0"/>
-        <v>1.8413905229571264</v>
+        <v>1.5355203527004551</v>
       </c>
       <c r="R2" s="16">
         <f t="shared" si="0"/>
-        <v>1.8413905229571264</v>
+        <v>1.5355203527004551</v>
       </c>
       <c r="S2" s="16">
         <f t="shared" si="0"/>
-        <v>1.8413905229571264</v>
+        <v>1.5355203527004551</v>
       </c>
       <c r="T2" s="16">
         <f t="shared" si="0"/>
-        <v>1.8413905229571264</v>
+        <v>1.5355203527004551</v>
       </c>
       <c r="U2" s="16">
         <f t="shared" si="0"/>
-        <v>1.8413905229571264</v>
+        <v>1.5355203527004551</v>
       </c>
       <c r="V2" s="16">
         <f t="shared" si="0"/>
-        <v>1.8413905229571264</v>
+        <v>1.5355203527004551</v>
       </c>
       <c r="W2" s="16">
         <f t="shared" si="0"/>
-        <v>1.8413905229571264</v>
+        <v>1.5355203527004551</v>
       </c>
       <c r="X2" s="16">
         <f t="shared" si="0"/>
-        <v>1.8413905229571264</v>
+        <v>1.5355203527004551</v>
       </c>
       <c r="Y2" s="16">
         <f t="shared" si="0"/>
-        <v>1.8413905229571264</v>
+        <v>1.5355203527004551</v>
       </c>
       <c r="Z2" s="16">
         <f t="shared" si="0"/>
-        <v>1.8413905229571264</v>
+        <v>1.5355203527004551</v>
       </c>
       <c r="AA2" s="16">
         <f t="shared" si="0"/>
-        <v>1.8413905229571264</v>
+        <v>1.5355203527004551</v>
       </c>
       <c r="AB2" s="16">
         <f t="shared" si="0"/>
-        <v>1.8413905229571264</v>
+        <v>1.5355203527004551</v>
       </c>
       <c r="AC2" s="16">
         <f t="shared" si="0"/>
-        <v>1.8413905229571264</v>
+        <v>1.5355203527004551</v>
       </c>
       <c r="AD2" s="16">
         <f t="shared" si="0"/>
-        <v>1.8413905229571264</v>
+        <v>1.5355203527004551</v>
       </c>
       <c r="AE2" s="16">
         <f t="shared" si="0"/>
-        <v>1.8413905229571264</v>
+        <v>1.5355203527004551</v>
       </c>
       <c r="AF2" s="16">
         <f t="shared" si="0"/>
-        <v>1.8413905229571264</v>
+        <v>1.5355203527004551</v>
       </c>
       <c r="AG2" s="16">
         <f t="shared" si="0"/>
-        <v>1.8413905229571264</v>
+        <v>1.5355203527004551</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.45">
@@ -40651,132 +40654,132 @@
         <v>19</v>
       </c>
       <c r="B4" s="16">
-        <f>'IESS O&amp;M'!G99*About!$A$70*'US O&amp;M shares'!H4*(1-'US O&amp;M shares'!H4)/(8760*'BECF-new'!B4)</f>
-        <v>0.86098801323375884</v>
+        <f>AVERAGE('IESS O&amp;M'!G99,'IESS O&amp;M'!G107)*About!$A$70*'US O&amp;M shares'!H4*(1-'US O&amp;M shares'!H4)/(8760*'BECF-new'!B4)</f>
+        <v>1.5196957101053701</v>
       </c>
       <c r="C4" s="16">
+        <f>B4</f>
+        <v>1.5196957101053701</v>
+      </c>
+      <c r="D4" s="16">
         <f t="shared" si="1"/>
-        <v>0.86098801323375884</v>
-      </c>
-      <c r="D4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.86098801323375884</v>
+        <v>1.5196957101053701</v>
       </c>
       <c r="E4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.86098801323375884</v>
+        <f t="shared" si="1"/>
+        <v>1.5196957101053701</v>
       </c>
       <c r="F4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.86098801323375884</v>
+        <f t="shared" si="1"/>
+        <v>1.5196957101053701</v>
       </c>
       <c r="G4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.86098801323375884</v>
+        <f t="shared" si="1"/>
+        <v>1.5196957101053701</v>
       </c>
       <c r="H4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.86098801323375884</v>
+        <f t="shared" si="1"/>
+        <v>1.5196957101053701</v>
       </c>
       <c r="I4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.86098801323375884</v>
+        <f t="shared" si="1"/>
+        <v>1.5196957101053701</v>
       </c>
       <c r="J4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.86098801323375884</v>
+        <f t="shared" si="1"/>
+        <v>1.5196957101053701</v>
       </c>
       <c r="K4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.86098801323375884</v>
+        <f t="shared" si="1"/>
+        <v>1.5196957101053701</v>
       </c>
       <c r="L4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.86098801323375884</v>
+        <f t="shared" si="1"/>
+        <v>1.5196957101053701</v>
       </c>
       <c r="M4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.86098801323375884</v>
+        <f t="shared" si="1"/>
+        <v>1.5196957101053701</v>
       </c>
       <c r="N4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.86098801323375884</v>
+        <f t="shared" si="1"/>
+        <v>1.5196957101053701</v>
       </c>
       <c r="O4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.86098801323375884</v>
+        <f t="shared" si="1"/>
+        <v>1.5196957101053701</v>
       </c>
       <c r="P4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.86098801323375884</v>
+        <f t="shared" si="1"/>
+        <v>1.5196957101053701</v>
       </c>
       <c r="Q4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.86098801323375884</v>
+        <f t="shared" si="1"/>
+        <v>1.5196957101053701</v>
       </c>
       <c r="R4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.86098801323375884</v>
+        <f t="shared" si="1"/>
+        <v>1.5196957101053701</v>
       </c>
       <c r="S4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.86098801323375884</v>
+        <f t="shared" ref="S4:AG4" si="2">R4</f>
+        <v>1.5196957101053701</v>
       </c>
       <c r="T4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.86098801323375884</v>
+        <f t="shared" si="2"/>
+        <v>1.5196957101053701</v>
       </c>
       <c r="U4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.86098801323375884</v>
+        <f t="shared" si="2"/>
+        <v>1.5196957101053701</v>
       </c>
       <c r="V4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.86098801323375884</v>
+        <f t="shared" si="2"/>
+        <v>1.5196957101053701</v>
       </c>
       <c r="W4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.86098801323375884</v>
+        <f t="shared" si="2"/>
+        <v>1.5196957101053701</v>
       </c>
       <c r="X4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.86098801323375884</v>
+        <f t="shared" si="2"/>
+        <v>1.5196957101053701</v>
       </c>
       <c r="Y4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.86098801323375884</v>
+        <f t="shared" si="2"/>
+        <v>1.5196957101053701</v>
       </c>
       <c r="Z4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.86098801323375884</v>
+        <f t="shared" si="2"/>
+        <v>1.5196957101053701</v>
       </c>
       <c r="AA4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.86098801323375884</v>
+        <f t="shared" si="2"/>
+        <v>1.5196957101053701</v>
       </c>
       <c r="AB4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.86098801323375884</v>
+        <f t="shared" si="2"/>
+        <v>1.5196957101053701</v>
       </c>
       <c r="AC4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.86098801323375884</v>
+        <f t="shared" si="2"/>
+        <v>1.5196957101053701</v>
       </c>
       <c r="AD4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.86098801323375884</v>
+        <f t="shared" si="2"/>
+        <v>1.5196957101053701</v>
       </c>
       <c r="AE4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.86098801323375884</v>
+        <f t="shared" si="2"/>
+        <v>1.5196957101053701</v>
       </c>
       <c r="AF4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.86098801323375884</v>
+        <f t="shared" si="2"/>
+        <v>1.5196957101053701</v>
       </c>
       <c r="AG4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.86098801323375884</v>
+        <f t="shared" si="2"/>
+        <v>1.5196957101053701</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.45">
@@ -41649,63 +41652,63 @@
         <v>4.9365566226296842</v>
       </c>
       <c r="S11" s="16">
-        <f t="shared" ref="D11:AV17" si="2">R11</f>
+        <f t="shared" ref="D11:AG17" si="3">R11</f>
         <v>4.9365566226296842</v>
       </c>
       <c r="T11" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="U11" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="V11" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="W11" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="X11" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="Y11" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="Z11" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="AA11" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="AB11" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="AC11" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="AD11" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="AE11" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="AF11" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="AG11" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
     </row>
@@ -41722,123 +41725,123 @@
         <v>4.9365566226296842</v>
       </c>
       <c r="D12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="E12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="F12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="G12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="H12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="I12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="J12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="K12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="L12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="M12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="N12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="O12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="P12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="Q12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="R12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="S12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="T12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="U12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="V12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="W12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="X12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="Y12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="Z12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="AA12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="AB12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="AC12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="AD12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="AE12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="AF12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="AG12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
     </row>
@@ -41848,131 +41851,131 @@
       </c>
       <c r="B13" s="16">
         <f>B2*'US O&amp;M shares'!B31/'US O&amp;M shares'!B20</f>
-        <v>3.1195321800685436</v>
+        <v>2.6013521269278299</v>
       </c>
       <c r="C13" s="16">
         <f t="shared" si="1"/>
-        <v>3.1195321800685436</v>
+        <v>2.6013521269278299</v>
       </c>
       <c r="D13" s="16">
-        <f t="shared" si="2"/>
-        <v>3.1195321800685436</v>
+        <f t="shared" si="3"/>
+        <v>2.6013521269278299</v>
       </c>
       <c r="E13" s="16">
-        <f t="shared" si="2"/>
-        <v>3.1195321800685436</v>
+        <f t="shared" si="3"/>
+        <v>2.6013521269278299</v>
       </c>
       <c r="F13" s="16">
-        <f t="shared" si="2"/>
-        <v>3.1195321800685436</v>
+        <f t="shared" si="3"/>
+        <v>2.6013521269278299</v>
       </c>
       <c r="G13" s="16">
-        <f t="shared" si="2"/>
-        <v>3.1195321800685436</v>
+        <f t="shared" si="3"/>
+        <v>2.6013521269278299</v>
       </c>
       <c r="H13" s="16">
-        <f t="shared" si="2"/>
-        <v>3.1195321800685436</v>
+        <f t="shared" si="3"/>
+        <v>2.6013521269278299</v>
       </c>
       <c r="I13" s="16">
-        <f t="shared" si="2"/>
-        <v>3.1195321800685436</v>
+        <f t="shared" si="3"/>
+        <v>2.6013521269278299</v>
       </c>
       <c r="J13" s="16">
-        <f t="shared" si="2"/>
-        <v>3.1195321800685436</v>
+        <f t="shared" si="3"/>
+        <v>2.6013521269278299</v>
       </c>
       <c r="K13" s="16">
-        <f t="shared" si="2"/>
-        <v>3.1195321800685436</v>
+        <f t="shared" si="3"/>
+        <v>2.6013521269278299</v>
       </c>
       <c r="L13" s="16">
-        <f t="shared" si="2"/>
-        <v>3.1195321800685436</v>
+        <f t="shared" si="3"/>
+        <v>2.6013521269278299</v>
       </c>
       <c r="M13" s="16">
-        <f t="shared" si="2"/>
-        <v>3.1195321800685436</v>
+        <f t="shared" si="3"/>
+        <v>2.6013521269278299</v>
       </c>
       <c r="N13" s="16">
-        <f t="shared" si="2"/>
-        <v>3.1195321800685436</v>
+        <f t="shared" si="3"/>
+        <v>2.6013521269278299</v>
       </c>
       <c r="O13" s="16">
-        <f t="shared" si="2"/>
-        <v>3.1195321800685436</v>
+        <f t="shared" si="3"/>
+        <v>2.6013521269278299</v>
       </c>
       <c r="P13" s="16">
-        <f t="shared" si="2"/>
-        <v>3.1195321800685436</v>
+        <f t="shared" si="3"/>
+        <v>2.6013521269278299</v>
       </c>
       <c r="Q13" s="16">
-        <f t="shared" si="2"/>
-        <v>3.1195321800685436</v>
+        <f t="shared" si="3"/>
+        <v>2.6013521269278299</v>
       </c>
       <c r="R13" s="16">
-        <f t="shared" si="2"/>
-        <v>3.1195321800685436</v>
+        <f t="shared" si="3"/>
+        <v>2.6013521269278299</v>
       </c>
       <c r="S13" s="16">
-        <f t="shared" si="2"/>
-        <v>3.1195321800685436</v>
+        <f t="shared" si="3"/>
+        <v>2.6013521269278299</v>
       </c>
       <c r="T13" s="16">
-        <f t="shared" si="2"/>
-        <v>3.1195321800685436</v>
+        <f t="shared" si="3"/>
+        <v>2.6013521269278299</v>
       </c>
       <c r="U13" s="16">
-        <f t="shared" si="2"/>
-        <v>3.1195321800685436</v>
+        <f t="shared" si="3"/>
+        <v>2.6013521269278299</v>
       </c>
       <c r="V13" s="16">
-        <f t="shared" si="2"/>
-        <v>3.1195321800685436</v>
+        <f t="shared" si="3"/>
+        <v>2.6013521269278299</v>
       </c>
       <c r="W13" s="16">
-        <f t="shared" si="2"/>
-        <v>3.1195321800685436</v>
+        <f t="shared" si="3"/>
+        <v>2.6013521269278299</v>
       </c>
       <c r="X13" s="16">
-        <f t="shared" si="2"/>
-        <v>3.1195321800685436</v>
+        <f t="shared" si="3"/>
+        <v>2.6013521269278299</v>
       </c>
       <c r="Y13" s="16">
-        <f t="shared" si="2"/>
-        <v>3.1195321800685436</v>
+        <f t="shared" si="3"/>
+        <v>2.6013521269278299</v>
       </c>
       <c r="Z13" s="16">
-        <f t="shared" si="2"/>
-        <v>3.1195321800685436</v>
+        <f t="shared" si="3"/>
+        <v>2.6013521269278299</v>
       </c>
       <c r="AA13" s="16">
-        <f t="shared" si="2"/>
-        <v>3.1195321800685436</v>
+        <f t="shared" si="3"/>
+        <v>2.6013521269278299</v>
       </c>
       <c r="AB13" s="16">
-        <f t="shared" si="2"/>
-        <v>3.1195321800685436</v>
+        <f t="shared" si="3"/>
+        <v>2.6013521269278299</v>
       </c>
       <c r="AC13" s="16">
-        <f t="shared" si="2"/>
-        <v>3.1195321800685436</v>
+        <f t="shared" si="3"/>
+        <v>2.6013521269278299</v>
       </c>
       <c r="AD13" s="16">
-        <f t="shared" si="2"/>
-        <v>3.1195321800685436</v>
+        <f t="shared" si="3"/>
+        <v>2.6013521269278299</v>
       </c>
       <c r="AE13" s="16">
-        <f t="shared" si="2"/>
-        <v>3.1195321800685436</v>
+        <f t="shared" si="3"/>
+        <v>2.6013521269278299</v>
       </c>
       <c r="AF13" s="16">
-        <f t="shared" si="2"/>
-        <v>3.1195321800685436</v>
+        <f t="shared" si="3"/>
+        <v>2.6013521269278299</v>
       </c>
       <c r="AG13" s="16">
-        <f t="shared" si="2"/>
-        <v>3.1195321800685436</v>
+        <f t="shared" si="3"/>
+        <v>2.6013521269278299</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.45">
@@ -41988,123 +41991,123 @@
         <v>0</v>
       </c>
       <c r="D14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -42121,123 +42124,123 @@
         <v>4.9365566226296842</v>
       </c>
       <c r="D15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="E15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="F15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="G15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="H15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="I15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="J15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="K15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="L15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="M15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="N15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="O15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="P15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="Q15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="R15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="S15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="T15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="U15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="V15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="W15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="X15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="Y15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="Z15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="AA15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="AB15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="AC15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="AD15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="AE15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="AF15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="AG15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
     </row>
@@ -42254,123 +42257,123 @@
         <v>4.9365566226296842</v>
       </c>
       <c r="D16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="E16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="F16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="G16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="H16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="I16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="J16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="K16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="L16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="M16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="N16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="O16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="P16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="Q16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="R16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="S16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="T16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="U16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="V16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="W16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="X16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="Y16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="Z16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="AA16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="AB16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="AC16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="AD16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="AE16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="AF16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
       <c r="AG16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9365566226296842</v>
       </c>
     </row>
@@ -42387,123 +42390,123 @@
         <v>2.8354308570960622</v>
       </c>
       <c r="D17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8354308570960622</v>
       </c>
       <c r="E17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8354308570960622</v>
       </c>
       <c r="F17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8354308570960622</v>
       </c>
       <c r="G17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8354308570960622</v>
       </c>
       <c r="H17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8354308570960622</v>
       </c>
       <c r="I17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8354308570960622</v>
       </c>
       <c r="J17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8354308570960622</v>
       </c>
       <c r="K17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8354308570960622</v>
       </c>
       <c r="L17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8354308570960622</v>
       </c>
       <c r="M17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8354308570960622</v>
       </c>
       <c r="N17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8354308570960622</v>
       </c>
       <c r="O17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8354308570960622</v>
       </c>
       <c r="P17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8354308570960622</v>
       </c>
       <c r="Q17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8354308570960622</v>
       </c>
       <c r="R17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8354308570960622</v>
       </c>
       <c r="S17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8354308570960622</v>
       </c>
       <c r="T17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8354308570960622</v>
       </c>
       <c r="U17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8354308570960622</v>
       </c>
       <c r="V17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8354308570960622</v>
       </c>
       <c r="W17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8354308570960622</v>
       </c>
       <c r="X17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8354308570960622</v>
       </c>
       <c r="Y17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8354308570960622</v>
       </c>
       <c r="Z17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8354308570960622</v>
       </c>
       <c r="AA17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8354308570960622</v>
       </c>
       <c r="AB17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8354308570960622</v>
       </c>
       <c r="AC17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8354308570960622</v>
       </c>
       <c r="AD17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8354308570960622</v>
       </c>
       <c r="AE17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8354308570960622</v>
       </c>
       <c r="AF17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8354308570960622</v>
       </c>
       <c r="AG17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8354308570960622</v>
       </c>
     </row>
@@ -48044,17 +48047,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="295" t="s">
+      <c r="A1" s="298" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="293" t="s">
+      <c r="B1" s="296" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="293"/>
-      <c r="D1" s="294"/>
+      <c r="C1" s="296"/>
+      <c r="D1" s="297"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="296"/>
+      <c r="A2" s="299"/>
       <c r="B2" s="52" t="s">
         <v>133</v>
       </c>
@@ -48237,17 +48240,17 @@
     </row>
     <row r="16" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A17" s="295" t="s">
+      <c r="A17" s="298" t="s">
         <v>101</v>
       </c>
-      <c r="B17" s="293" t="s">
+      <c r="B17" s="296" t="s">
         <v>136</v>
       </c>
-      <c r="C17" s="293"/>
-      <c r="D17" s="294"/>
+      <c r="C17" s="296"/>
+      <c r="D17" s="297"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A18" s="296"/>
+      <c r="A18" s="299"/>
       <c r="B18" s="52" t="s">
         <v>133</v>
       </c>
@@ -48462,7 +48465,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -49151,25 +49154,25 @@
       <c r="A2" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="299" t="s">
+      <c r="B2" s="302" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="301" t="s">
+      <c r="C2" s="304" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="301" t="s">
+      <c r="D2" s="304" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="301" t="s">
+      <c r="E2" s="304" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="303" t="s">
+      <c r="F2" s="306" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="303" t="s">
+      <c r="G2" s="306" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="297" t="s">
+      <c r="H2" s="300" t="s">
         <v>38</v>
       </c>
     </row>
@@ -49177,13 +49180,13 @@
       <c r="A3" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="300"/>
-      <c r="C3" s="302"/>
-      <c r="D3" s="302"/>
-      <c r="E3" s="302"/>
-      <c r="F3" s="304"/>
-      <c r="G3" s="304"/>
-      <c r="H3" s="298"/>
+      <c r="B3" s="303"/>
+      <c r="C3" s="305"/>
+      <c r="D3" s="305"/>
+      <c r="E3" s="305"/>
+      <c r="F3" s="307"/>
+      <c r="G3" s="307"/>
+      <c r="H3" s="301"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="23" t="s">
@@ -49922,10 +49925,10 @@
       <c r="G2" s="68"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="305" t="s">
+      <c r="A3" s="308" t="s">
         <v>139</v>
       </c>
-      <c r="B3" s="305" t="s">
+      <c r="B3" s="308" t="s">
         <v>140</v>
       </c>
       <c r="C3" s="79" t="s">
@@ -49943,8 +49946,8 @@
       <c r="M3" s="76"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A4" s="305"/>
-      <c r="B4" s="305"/>
+      <c r="A4" s="308"/>
+      <c r="B4" s="308"/>
       <c r="C4" s="75">
         <v>2017</v>
       </c>
@@ -50341,10 +50344,10 @@
       <c r="M15" s="20"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A16" s="305" t="s">
+      <c r="A16" s="308" t="s">
         <v>139</v>
       </c>
-      <c r="B16" s="305" t="s">
+      <c r="B16" s="308" t="s">
         <v>140</v>
       </c>
       <c r="C16" s="79" t="s">
@@ -50362,8 +50365,8 @@
       <c r="M16" s="76"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A17" s="305"/>
-      <c r="B17" s="305"/>
+      <c r="A17" s="308"/>
+      <c r="B17" s="308"/>
       <c r="C17" s="75">
         <v>2017</v>
       </c>
